--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{292065F0-23CB-49AD-8169-B27104407073}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{983C4B16-A53C-4201-9DA7-D65B23DABDE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
   </bookViews>
@@ -6080,6 +6080,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6093,17 +6102,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6423,10 +6425,10 @@
   <dimension ref="A1:Z585"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G584" sqref="G584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -6457,11 +6459,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10318,7 +10320,7 @@
       <c r="C89" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="27" t="s">
+      <c r="D89" s="30" t="s">
         <v>155</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -10362,7 +10364,7 @@
       <c r="C90" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="27"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -32615,7 +32617,7 @@
       <c r="Y583" s="9"/>
     </row>
     <row r="584" spans="2:25" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B584" s="35">
+      <c r="B584" s="29">
         <v>580</v>
       </c>
       <c r="C584" s="9" t="s">
@@ -32627,10 +32629,10 @@
       <c r="E584" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="F584" s="31" t="s">
+      <c r="F584" s="34" t="s">
         <v>1737</v>
       </c>
-      <c r="G584" s="32" t="s">
+      <c r="G584" s="35" t="s">
         <v>1736</v>
       </c>
       <c r="H584" s="9" t="s">
@@ -32663,14 +32665,14 @@
       <c r="Y584" s="9"/>
     </row>
     <row r="585" spans="2:25" ht="14.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I585" s="33" t="s">
+      <c r="I585" s="27" t="s">
         <v>1738</v>
       </c>
-      <c r="J585" s="34"/>
-      <c r="K585" s="34"/>
-      <c r="L585" s="34"/>
-      <c r="M585" s="34"/>
-      <c r="N585" s="34">
+      <c r="J585" s="28"/>
+      <c r="K585" s="28"/>
+      <c r="L585" s="28"/>
+      <c r="M585" s="28"/>
+      <c r="N585" s="28">
         <f>SUM(N5:N584)</f>
         <v>4220.45</v>
       </c>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{983C4B16-A53C-4201-9DA7-D65B23DABDE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{805EF0C5-DB58-4632-846E-CFC0EC63F286}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
   </bookViews>
@@ -5912,7 +5912,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -5979,18 +5979,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -6080,14 +6071,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6101,11 +6092,11 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6422,13 +6413,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFE7CEB-FADE-4E61-8A23-4DC6C9C8C44B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z585"/>
+  <dimension ref="A1:Z587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G584" sqref="G584"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -8083,7 +8074,7 @@
       </c>
       <c r="Y40" s="12"/>
     </row>
-    <row r="41" spans="2:25" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -8415,7 +8406,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -9467,7 +9458,7 @@
       </c>
       <c r="Y70" s="12"/>
     </row>
-    <row r="71" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:25" ht="154" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -9511,7 +9502,7 @@
       </c>
       <c r="Y71" s="12"/>
     </row>
-    <row r="72" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -9827,7 +9818,7 @@
       </c>
       <c r="Y78" s="12"/>
     </row>
-    <row r="79" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -10175,7 +10166,7 @@
       </c>
       <c r="Y85" s="12"/>
     </row>
-    <row r="86" spans="2:25" ht="210" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -13175,7 +13166,7 @@
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" s="7">
         <v>147</v>
       </c>
@@ -13309,7 +13300,7 @@
       </c>
       <c r="Y153" s="12"/>
     </row>
-    <row r="154" spans="2:25" ht="266" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:25" ht="280" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>150</v>
       </c>
@@ -14443,7 +14434,7 @@
       <c r="X177" s="12"/>
       <c r="Y177" s="12"/>
     </row>
-    <row r="178" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B178" s="7">
         <v>174</v>
       </c>
@@ -14817,7 +14808,7 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
     </row>
-    <row r="186" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B186" s="7">
         <v>182</v>
       </c>
@@ -15033,7 +15024,7 @@
       <c r="X190" s="12"/>
       <c r="Y190" s="12"/>
     </row>
-    <row r="191" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B191" s="7">
         <v>187</v>
       </c>
@@ -15075,7 +15066,7 @@
       <c r="X191" s="12"/>
       <c r="Y191" s="12"/>
     </row>
-    <row r="192" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>188</v>
       </c>
@@ -32617,7 +32608,7 @@
       <c r="Y583" s="9"/>
     </row>
     <row r="584" spans="2:25" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B584" s="29">
+      <c r="B584" s="27">
         <v>580</v>
       </c>
       <c r="C584" s="9" t="s">
@@ -32629,10 +32620,10 @@
       <c r="E584" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="F584" s="34" t="s">
+      <c r="F584" s="28" t="s">
         <v>1737</v>
       </c>
-      <c r="G584" s="35" t="s">
+      <c r="G584" s="29" t="s">
         <v>1736</v>
       </c>
       <c r="H584" s="9" t="s">
@@ -32664,15 +32655,17 @@
       <c r="X584" s="9"/>
       <c r="Y584" s="9"/>
     </row>
-    <row r="585" spans="2:25" ht="14.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I585" s="27" t="s">
+    <row r="585" spans="2:25" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="586" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="587" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I587" s="34" t="s">
         <v>1738</v>
       </c>
-      <c r="J585" s="28"/>
-      <c r="K585" s="28"/>
-      <c r="L585" s="28"/>
-      <c r="M585" s="28"/>
-      <c r="N585" s="28">
+      <c r="J587" s="35"/>
+      <c r="K587" s="35"/>
+      <c r="L587" s="35"/>
+      <c r="M587" s="35"/>
+      <c r="N587" s="35">
         <f>SUM(N5:N584)</f>
         <v>4220.45</v>
       </c>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{805EF0C5-DB58-4632-846E-CFC0EC63F286}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D9ADF25-5815-4357-B0EB-A48164A5C73F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$B$4:$Y$585</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$B$4:$Y$584</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="1741">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -5749,9 +5749,6 @@
   </si>
   <si>
     <t>Tech5 - ABIS</t>
-  </si>
-  <si>
-    <t>Allowing devices to get themselves registered with MOSIP remotely by calling this API so that devices can start taking biometreics</t>
   </si>
 </sst>
 </file>
@@ -5991,7 +5988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6068,17 +6065,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6091,12 +6082,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6413,13 +6398,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFE7CEB-FADE-4E61-8A23-4DC6C9C8C44B}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Z587"/>
+  <dimension ref="A1:Z586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -6450,11 +6435,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
       <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9818,7 +9803,7 @@
       </c>
       <c r="Y78" s="12"/>
     </row>
-    <row r="79" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -10311,7 +10296,7 @@
       <c r="C89" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="28" t="s">
         <v>155</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -10355,7 +10340,7 @@
       <c r="C90" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="30"/>
+      <c r="D90" s="28"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -14434,7 +14419,7 @@
       <c r="X177" s="12"/>
       <c r="Y177" s="12"/>
     </row>
-    <row r="178" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B178" s="7">
         <v>174</v>
       </c>
@@ -14808,7 +14793,7 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
     </row>
-    <row r="186" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B186" s="7">
         <v>182</v>
       </c>
@@ -15024,7 +15009,7 @@
       <c r="X190" s="12"/>
       <c r="Y190" s="12"/>
     </row>
-    <row r="191" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B191" s="7">
         <v>187</v>
       </c>
@@ -15066,7 +15051,7 @@
       <c r="X191" s="12"/>
       <c r="Y191" s="12"/>
     </row>
-    <row r="192" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>188</v>
       </c>
@@ -29170,7 +29155,9 @@
         <v>1564</v>
       </c>
       <c r="M506" s="13"/>
-      <c r="N506" s="13"/>
+      <c r="N506" s="13">
+        <v>6.5</v>
+      </c>
       <c r="O506" s="13"/>
       <c r="P506" s="13"/>
       <c r="Q506" s="13"/>
@@ -32607,71 +32594,23 @@
       <c r="X583" s="9"/>
       <c r="Y583" s="9"/>
     </row>
-    <row r="584" spans="2:25" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B584" s="27">
-        <v>580</v>
-      </c>
-      <c r="C584" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D584" s="9" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E584" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="F584" s="28" t="s">
-        <v>1737</v>
-      </c>
-      <c r="G584" s="29" t="s">
-        <v>1736</v>
-      </c>
-      <c r="H584" s="9" t="s">
-        <v>1741</v>
-      </c>
-      <c r="I584" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J584" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="K584" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="L584" s="9"/>
-      <c r="M584" s="9"/>
-      <c r="N584" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="O584" s="9"/>
-      <c r="P584" s="9"/>
-      <c r="Q584" s="9"/>
-      <c r="R584" s="9"/>
-      <c r="S584" s="9"/>
-      <c r="T584" s="9"/>
-      <c r="U584" s="9"/>
-      <c r="V584" s="9"/>
-      <c r="W584" s="9"/>
-      <c r="X584" s="9"/>
-      <c r="Y584" s="9"/>
-    </row>
-    <row r="585" spans="2:25" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="586" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="587" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I587" s="34" t="s">
+    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="585" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="586" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I586" s="26" t="s">
         <v>1738</v>
       </c>
-      <c r="J587" s="35"/>
-      <c r="K587" s="35"/>
-      <c r="L587" s="35"/>
-      <c r="M587" s="35"/>
-      <c r="N587" s="35">
-        <f>SUM(N5:N584)</f>
+      <c r="J586" s="27"/>
+      <c r="K586" s="27"/>
+      <c r="L586" s="27"/>
+      <c r="M586" s="27"/>
+      <c r="N586" s="27">
+        <f>SUM(N5:N583)</f>
         <v>4220.45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:Y585" xr:uid="{CD8246AE-DFCC-4B3F-9CC4-F6A1FFD84A0B}">
+  <autoFilter ref="B4:Y584" xr:uid="{CD8246AE-DFCC-4B3F-9CC4-F6A1FFD84A0B}">
     <filterColumn colId="3">
       <filters>
         <filter val="Real Biometrics Release - Additional"/>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D9ADF25-5815-4357-B0EB-A48164A5C73F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B1314-F3F7-438F-B0E2-4035AF181363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
   </bookViews>
@@ -18,10 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$B$4:$Y$584</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="1741">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -5988,7 +5993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6069,6 +6074,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6401,10 +6409,10 @@
   <dimension ref="A1:Z586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="K192" sqref="K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -6435,11 +6443,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -7337,7 +7345,7 @@
       </c>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -7375,7 +7383,7 @@
       </c>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -7411,7 +7419,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -7529,7 +7537,7 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -7839,7 +7847,7 @@
       </c>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -7881,7 +7889,7 @@
       </c>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -8391,7 +8399,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -8809,7 +8817,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="57" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -8903,7 +8911,7 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
     </row>
-    <row r="59" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -8951,7 +8959,7 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
     </row>
-    <row r="60" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -9087,7 +9095,7 @@
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
     </row>
-    <row r="63" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>59</v>
       </c>
@@ -9129,7 +9137,7 @@
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
     </row>
-    <row r="64" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>60</v>
       </c>
@@ -9305,7 +9313,7 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
     </row>
-    <row r="68" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -9443,7 +9451,7 @@
       </c>
       <c r="Y70" s="12"/>
     </row>
-    <row r="71" spans="2:25" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -9487,7 +9495,7 @@
       </c>
       <c r="Y71" s="12"/>
     </row>
-    <row r="72" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -9703,7 +9711,7 @@
       </c>
       <c r="Y76" s="12"/>
     </row>
-    <row r="77" spans="2:25" ht="126" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="7">
         <v>73</v>
       </c>
@@ -9753,7 +9761,7 @@
       </c>
       <c r="Y77" s="12"/>
     </row>
-    <row r="78" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="7">
         <v>74</v>
       </c>
@@ -9803,7 +9811,7 @@
       </c>
       <c r="Y78" s="12"/>
     </row>
-    <row r="79" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -9853,7 +9861,7 @@
       </c>
       <c r="Y79" s="12"/>
     </row>
-    <row r="80" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="7">
         <v>76</v>
       </c>
@@ -9901,7 +9909,7 @@
       </c>
       <c r="Y80" s="12"/>
     </row>
-    <row r="81" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="7">
         <v>77</v>
       </c>
@@ -9951,7 +9959,7 @@
       </c>
       <c r="Y81" s="12"/>
     </row>
-    <row r="82" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="7">
         <v>78</v>
       </c>
@@ -10001,7 +10009,7 @@
       </c>
       <c r="Y82" s="12"/>
     </row>
-    <row r="83" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="7">
         <v>79</v>
       </c>
@@ -10051,7 +10059,7 @@
       </c>
       <c r="Y83" s="12"/>
     </row>
-    <row r="84" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" s="7">
         <v>80</v>
       </c>
@@ -10101,7 +10109,7 @@
       </c>
       <c r="Y84" s="12"/>
     </row>
-    <row r="85" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" s="7">
         <v>81</v>
       </c>
@@ -10195,7 +10203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" s="7">
         <v>83</v>
       </c>
@@ -10296,7 +10304,7 @@
       <c r="C89" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="29" t="s">
         <v>155</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -10340,7 +10348,7 @@
       <c r="C90" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="28"/>
+      <c r="D90" s="29"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -10689,7 +10697,7 @@
       </c>
       <c r="Y97" s="6"/>
     </row>
-    <row r="98" spans="2:25" ht="112" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" s="7">
         <v>94</v>
       </c>
@@ -11523,7 +11531,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="116" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="7">
         <v>112</v>
       </c>
@@ -12529,7 +12537,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
     </row>
-    <row r="137" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" s="7">
         <v>133</v>
       </c>
@@ -12577,7 +12585,7 @@
       <c r="X137" s="12"/>
       <c r="Y137" s="12"/>
     </row>
-    <row r="138" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" s="7">
         <v>134</v>
       </c>
@@ -12621,7 +12629,7 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
     </row>
-    <row r="139" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" s="7">
         <v>135</v>
       </c>
@@ -12713,7 +12721,7 @@
       <c r="X140" s="12"/>
       <c r="Y140" s="12"/>
     </row>
-    <row r="141" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B141" s="7">
         <v>137</v>
       </c>
@@ -12759,7 +12767,7 @@
       </c>
       <c r="Y141" s="12"/>
     </row>
-    <row r="142" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" s="7">
         <v>138</v>
       </c>
@@ -12803,7 +12811,7 @@
       <c r="X142" s="12"/>
       <c r="Y142" s="12"/>
     </row>
-    <row r="143" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B143" s="7">
         <v>139</v>
       </c>
@@ -12847,7 +12855,7 @@
       </c>
       <c r="Y143" s="12"/>
     </row>
-    <row r="144" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B144" s="7">
         <v>140</v>
       </c>
@@ -12893,7 +12901,7 @@
       </c>
       <c r="Y144" s="12"/>
     </row>
-    <row r="145" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B145" s="7">
         <v>141</v>
       </c>
@@ -12937,7 +12945,7 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
     </row>
-    <row r="146" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" s="7">
         <v>142</v>
       </c>
@@ -12983,7 +12991,7 @@
       </c>
       <c r="Y146" s="12"/>
     </row>
-    <row r="147" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B147" s="7">
         <v>143</v>
       </c>
@@ -13107,7 +13115,7 @@
       <c r="X149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" ht="112" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B150" s="7">
         <v>146</v>
       </c>
@@ -13285,7 +13293,7 @@
       </c>
       <c r="Y153" s="12"/>
     </row>
-    <row r="154" spans="2:25" ht="280" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:25" ht="266" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>150</v>
       </c>
@@ -14643,7 +14651,9 @@
       <c r="J182" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K182" s="12"/>
+      <c r="K182" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L182" s="12"/>
       <c r="M182" s="12" t="s">
         <v>40</v>
@@ -14687,7 +14697,9 @@
       <c r="J183" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K183" s="12"/>
+      <c r="K183" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L183" s="12"/>
       <c r="M183" s="12" t="s">
         <v>40</v>
@@ -14731,7 +14743,9 @@
       <c r="J184" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K184" s="12"/>
+      <c r="K184" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L184" s="12"/>
       <c r="M184" s="24" t="s">
         <v>1740</v>
@@ -14775,7 +14789,9 @@
       <c r="J185" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K185" s="12"/>
+      <c r="K185" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L185" s="12"/>
       <c r="M185" s="12" t="s">
         <v>742</v>
@@ -14819,7 +14835,9 @@
       <c r="J186" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K186" s="12"/>
+      <c r="K186" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L186" s="12"/>
       <c r="M186" s="24" t="s">
         <v>1740</v>
@@ -14863,7 +14881,9 @@
       <c r="J187" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K187" s="12"/>
+      <c r="K187" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L187" s="12"/>
       <c r="M187" s="12"/>
       <c r="N187" s="12"/>
@@ -14907,7 +14927,9 @@
       <c r="J188" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K188" s="12"/>
+      <c r="K188" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L188" s="12"/>
       <c r="M188" s="12" t="s">
         <v>40</v>
@@ -14951,7 +14973,9 @@
       <c r="J189" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K189" s="12"/>
+      <c r="K189" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L189" s="12"/>
       <c r="M189" s="12"/>
       <c r="N189" s="12"/>
@@ -14993,7 +15017,9 @@
       <c r="J190" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K190" s="12"/>
+      <c r="K190" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L190" s="12"/>
       <c r="M190" s="12"/>
       <c r="N190" s="12"/>
@@ -15035,7 +15061,9 @@
       <c r="J191" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K191" s="12"/>
+      <c r="K191" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L191" s="12"/>
       <c r="M191" s="12"/>
       <c r="N191" s="12"/>
@@ -15077,7 +15105,9 @@
       <c r="J192" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="K192" s="12"/>
+      <c r="K192" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="L192" s="12"/>
       <c r="M192" s="12"/>
       <c r="N192" s="12"/>
@@ -15187,7 +15217,7 @@
       </c>
       <c r="Y194" s="12"/>
     </row>
-    <row r="195" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" s="7">
         <v>191</v>
       </c>
@@ -15333,7 +15363,7 @@
       <c r="X197" s="12"/>
       <c r="Y197" s="12"/>
     </row>
-    <row r="198" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" s="7">
         <v>194</v>
       </c>
@@ -15383,7 +15413,7 @@
       <c r="X198" s="12"/>
       <c r="Y198" s="12"/>
     </row>
-    <row r="199" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" s="7">
         <v>195</v>
       </c>
@@ -15433,7 +15463,7 @@
       <c r="X199" s="12"/>
       <c r="Y199" s="12"/>
     </row>
-    <row r="200" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B200" s="7">
         <v>196</v>
       </c>
@@ -15483,7 +15513,7 @@
       </c>
       <c r="Y200" s="12"/>
     </row>
-    <row r="201" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B201" s="7">
         <v>197</v>
       </c>
@@ -15535,7 +15565,7 @@
       </c>
       <c r="Y201" s="12"/>
     </row>
-    <row r="202" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" s="7">
         <v>198</v>
       </c>
@@ -15585,7 +15615,7 @@
       </c>
       <c r="Y202" s="12"/>
     </row>
-    <row r="203" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" s="7">
         <v>199</v>
       </c>
@@ -15635,7 +15665,7 @@
       <c r="X203" s="12"/>
       <c r="Y203" s="12"/>
     </row>
-    <row r="204" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" s="7">
         <v>200</v>
       </c>
@@ -15685,7 +15715,7 @@
       <c r="X204" s="12"/>
       <c r="Y204" s="12"/>
     </row>
-    <row r="205" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" s="7">
         <v>201</v>
       </c>
@@ -15735,7 +15765,7 @@
       <c r="X205" s="12"/>
       <c r="Y205" s="12"/>
     </row>
-    <row r="206" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" s="7">
         <v>202</v>
       </c>
@@ -16115,7 +16145,7 @@
       </c>
       <c r="Y213" s="12"/>
     </row>
-    <row r="214" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B214" s="7">
         <v>210</v>
       </c>
@@ -16217,7 +16247,7 @@
       <c r="X215" s="12"/>
       <c r="Y215" s="12"/>
     </row>
-    <row r="216" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B216" s="7">
         <v>212</v>
       </c>
@@ -16453,7 +16483,7 @@
       <c r="X220" s="12"/>
       <c r="Y220" s="12"/>
     </row>
-    <row r="221" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B221" s="7">
         <v>217</v>
       </c>
@@ -16505,7 +16535,7 @@
       </c>
       <c r="Y221" s="12"/>
     </row>
-    <row r="222" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B222" s="7">
         <v>218</v>
       </c>
@@ -16557,7 +16587,7 @@
       </c>
       <c r="Y222" s="12"/>
     </row>
-    <row r="223" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B223" s="7">
         <v>219</v>
       </c>
@@ -17135,7 +17165,7 @@
       <c r="X234" s="12"/>
       <c r="Y234" s="12"/>
     </row>
-    <row r="235" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B235" s="7">
         <v>231</v>
       </c>
@@ -17275,7 +17305,7 @@
       <c r="X237" s="12"/>
       <c r="Y237" s="12"/>
     </row>
-    <row r="238" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B238" s="7">
         <v>234</v>
       </c>
@@ -17323,7 +17353,7 @@
       <c r="X238" s="12"/>
       <c r="Y238" s="12"/>
     </row>
-    <row r="239" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B239" s="7">
         <v>235</v>
       </c>
@@ -17365,7 +17395,7 @@
       <c r="X239" s="12"/>
       <c r="Y239" s="12"/>
     </row>
-    <row r="240" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B240" s="7">
         <v>236</v>
       </c>
@@ -17405,7 +17435,7 @@
       <c r="X240" s="12"/>
       <c r="Y240" s="12"/>
     </row>
-    <row r="241" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B241" s="7">
         <v>237</v>
       </c>
@@ -17447,7 +17477,7 @@
       <c r="X241" s="12"/>
       <c r="Y241" s="12"/>
     </row>
-    <row r="242" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B242" s="7">
         <v>238</v>
       </c>
@@ -17491,7 +17521,7 @@
       <c r="X242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B243" s="7">
         <v>239</v>
       </c>
@@ -17541,7 +17571,7 @@
       <c r="X243" s="12"/>
       <c r="Y243" s="12"/>
     </row>
-    <row r="244" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B244" s="7">
         <v>240</v>
       </c>
@@ -17591,7 +17621,7 @@
       <c r="X244" s="12"/>
       <c r="Y244" s="12"/>
     </row>
-    <row r="245" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B245" s="7">
         <v>241</v>
       </c>
@@ -17691,7 +17721,7 @@
       </c>
       <c r="Y246" s="10"/>
     </row>
-    <row r="247" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B247" s="7">
         <v>243</v>
       </c>
@@ -17741,7 +17771,7 @@
       <c r="X247" s="12"/>
       <c r="Y247" s="12"/>
     </row>
-    <row r="248" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B248" s="7">
         <v>244</v>
       </c>
@@ -17839,7 +17869,7 @@
       <c r="X249" s="12"/>
       <c r="Y249" s="12"/>
     </row>
-    <row r="250" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B250" s="7">
         <v>246</v>
       </c>
@@ -17881,7 +17911,7 @@
       <c r="X250" s="12"/>
       <c r="Y250" s="12"/>
     </row>
-    <row r="251" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B251" s="7">
         <v>247</v>
       </c>
@@ -17923,7 +17953,7 @@
       <c r="X251" s="12"/>
       <c r="Y251" s="12"/>
     </row>
-    <row r="252" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B252" s="7">
         <v>248</v>
       </c>
@@ -17965,7 +17995,7 @@
       <c r="X252" s="12"/>
       <c r="Y252" s="12"/>
     </row>
-    <row r="253" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B253" s="7">
         <v>249</v>
       </c>
@@ -18009,7 +18039,7 @@
       <c r="X253" s="12"/>
       <c r="Y253" s="12"/>
     </row>
-    <row r="254" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B254" s="7">
         <v>250</v>
       </c>
@@ -18051,7 +18081,7 @@
       <c r="X254" s="12"/>
       <c r="Y254" s="12"/>
     </row>
-    <row r="255" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B255" s="7">
         <v>251</v>
       </c>
@@ -18095,7 +18125,7 @@
       <c r="X255" s="12"/>
       <c r="Y255" s="12"/>
     </row>
-    <row r="256" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B256" s="7">
         <v>252</v>
       </c>
@@ -18185,7 +18215,7 @@
       <c r="X257" s="12"/>
       <c r="Y257" s="12"/>
     </row>
-    <row r="258" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B258" s="7">
         <v>254</v>
       </c>
@@ -18235,7 +18265,7 @@
       </c>
       <c r="Y258" s="12"/>
     </row>
-    <row r="259" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B259" s="7">
         <v>255</v>
       </c>
@@ -18287,7 +18317,7 @@
       </c>
       <c r="Y259" s="12"/>
     </row>
-    <row r="260" spans="1:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B260" s="7">
         <v>256</v>
       </c>
@@ -18532,7 +18562,7 @@
       <c r="X264" s="12"/>
       <c r="Y264" s="12"/>
     </row>
-    <row r="265" spans="1:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B265" s="7">
         <v>261</v>
       </c>
@@ -18584,7 +18614,7 @@
       </c>
       <c r="Y265" s="12"/>
     </row>
-    <row r="266" spans="1:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B266" s="7">
         <v>262</v>
       </c>
@@ -18634,7 +18664,7 @@
       <c r="X266" s="12"/>
       <c r="Y266" s="12"/>
     </row>
-    <row r="267" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B267" s="7">
         <v>263</v>
       </c>
@@ -18684,7 +18714,7 @@
       <c r="X267" s="12"/>
       <c r="Y267" s="12"/>
     </row>
-    <row r="268" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B268" s="7">
         <v>264</v>
       </c>
@@ -18736,7 +18766,7 @@
       </c>
       <c r="Y268" s="12"/>
     </row>
-    <row r="269" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B269" s="7">
         <v>265</v>
       </c>
@@ -18786,7 +18816,7 @@
       <c r="X269" s="12"/>
       <c r="Y269" s="12"/>
     </row>
-    <row r="270" spans="1:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B270" s="7">
         <v>266</v>
       </c>
@@ -18836,7 +18866,7 @@
       <c r="X270" s="12"/>
       <c r="Y270" s="12"/>
     </row>
-    <row r="271" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B271" s="7">
         <v>267</v>
       </c>
@@ -18884,7 +18914,7 @@
       <c r="X271" s="12"/>
       <c r="Y271" s="12"/>
     </row>
-    <row r="272" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B272" s="7">
         <v>268</v>
       </c>
@@ -18932,7 +18962,7 @@
       <c r="X272" s="12"/>
       <c r="Y272" s="12"/>
     </row>
-    <row r="273" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B273" s="7">
         <v>269</v>
       </c>
@@ -21261,7 +21291,10 @@
       <c r="I329" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J329" s="12"/>
+      <c r="J329" s="12" t="str">
+        <f>IF(I329="Vital", "P1", "P2")</f>
+        <v>P1</v>
+      </c>
       <c r="K329" s="12"/>
       <c r="L329" s="12"/>
       <c r="M329" s="12"/>
@@ -21301,7 +21334,10 @@
       <c r="I330" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J330" s="12"/>
+      <c r="J330" s="28" t="str">
+        <f t="shared" ref="J330:J393" si="0">IF(I330="Vital", "P1", "P2")</f>
+        <v>P2</v>
+      </c>
       <c r="K330" s="12"/>
       <c r="L330" s="12"/>
       <c r="M330" s="12"/>
@@ -21339,7 +21375,10 @@
       <c r="I331" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J331" s="12"/>
+      <c r="J331" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K331" s="12"/>
       <c r="L331" s="12"/>
       <c r="M331" s="12"/>
@@ -21377,7 +21416,10 @@
       <c r="I332" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J332" s="12"/>
+      <c r="J332" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K332" s="12"/>
       <c r="L332" s="12"/>
       <c r="M332" s="12"/>
@@ -21419,7 +21461,10 @@
       <c r="I333" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J333" s="12"/>
+      <c r="J333" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K333" s="12"/>
       <c r="L333" s="12"/>
       <c r="M333" s="12"/>
@@ -21459,7 +21504,10 @@
       <c r="I334" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J334" s="12"/>
+      <c r="J334" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K334" s="12"/>
       <c r="L334" s="12"/>
       <c r="M334" s="12"/>
@@ -21501,7 +21549,10 @@
       <c r="I335" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J335" s="12"/>
+      <c r="J335" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K335" s="12"/>
       <c r="L335" s="12"/>
       <c r="M335" s="12"/>
@@ -21545,7 +21596,10 @@
       <c r="I336" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J336" s="12"/>
+      <c r="J336" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K336" s="12"/>
       <c r="L336" s="12"/>
       <c r="M336" s="12"/>
@@ -21589,7 +21643,10 @@
       <c r="I337" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J337" s="12"/>
+      <c r="J337" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K337" s="12"/>
       <c r="L337" s="12"/>
       <c r="M337" s="12"/>
@@ -21633,7 +21690,10 @@
       <c r="I338" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J338" s="12"/>
+      <c r="J338" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K338" s="12"/>
       <c r="L338" s="12"/>
       <c r="M338" s="12"/>
@@ -21677,7 +21737,10 @@
       <c r="I339" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J339" s="12"/>
+      <c r="J339" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K339" s="12"/>
       <c r="L339" s="12"/>
       <c r="M339" s="12"/>
@@ -21721,7 +21784,10 @@
       <c r="I340" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J340" s="12"/>
+      <c r="J340" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K340" s="12"/>
       <c r="L340" s="12"/>
       <c r="M340" s="12"/>
@@ -21740,7 +21806,7 @@
       <c r="X340" s="12"/>
       <c r="Y340" s="12"/>
     </row>
-    <row r="341" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B341" s="7">
         <v>337</v>
       </c>
@@ -21763,7 +21829,10 @@
       <c r="I341" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J341" s="12"/>
+      <c r="J341" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K341" s="12" t="s">
         <v>726</v>
       </c>
@@ -21809,7 +21878,10 @@
       <c r="I342" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J342" s="12"/>
+      <c r="J342" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K342" s="12"/>
       <c r="L342" s="12"/>
       <c r="M342" s="12"/>
@@ -21828,7 +21900,7 @@
       <c r="X342" s="12"/>
       <c r="Y342" s="12"/>
     </row>
-    <row r="343" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B343" s="7">
         <v>339</v>
       </c>
@@ -21851,7 +21923,10 @@
       <c r="I343" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J343" s="12"/>
+      <c r="J343" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K343" s="12" t="s">
         <v>726</v>
       </c>
@@ -21897,7 +21972,10 @@
       <c r="I344" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J344" s="12"/>
+      <c r="J344" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K344" s="12"/>
       <c r="L344" s="12"/>
       <c r="M344" s="12"/>
@@ -21916,7 +21994,7 @@
       <c r="X344" s="12"/>
       <c r="Y344" s="12"/>
     </row>
-    <row r="345" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B345" s="7">
         <v>341</v>
       </c>
@@ -21939,7 +22017,10 @@
       <c r="I345" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J345" s="12"/>
+      <c r="J345" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K345" s="12" t="s">
         <v>611</v>
       </c>
@@ -21962,7 +22043,7 @@
       <c r="X345" s="12"/>
       <c r="Y345" s="12"/>
     </row>
-    <row r="346" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B346" s="7">
         <v>342</v>
       </c>
@@ -21985,7 +22066,10 @@
       <c r="I346" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J346" s="12"/>
+      <c r="J346" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K346" s="12" t="s">
         <v>726</v>
       </c>
@@ -22008,7 +22092,7 @@
       <c r="X346" s="12"/>
       <c r="Y346" s="12"/>
     </row>
-    <row r="347" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B347" s="7">
         <v>343</v>
       </c>
@@ -22031,7 +22115,10 @@
       <c r="I347" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J347" s="12"/>
+      <c r="J347" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K347" s="12" t="s">
         <v>726</v>
       </c>
@@ -22054,7 +22141,7 @@
       <c r="X347" s="12"/>
       <c r="Y347" s="12"/>
     </row>
-    <row r="348" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B348" s="7">
         <v>344</v>
       </c>
@@ -22077,7 +22164,10 @@
       <c r="I348" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J348" s="12"/>
+      <c r="J348" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K348" s="12" t="s">
         <v>726</v>
       </c>
@@ -22100,7 +22190,7 @@
       <c r="X348" s="12"/>
       <c r="Y348" s="12"/>
     </row>
-    <row r="349" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B349" s="7">
         <v>345</v>
       </c>
@@ -22123,7 +22213,10 @@
       <c r="I349" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J349" s="12"/>
+      <c r="J349" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K349" s="12" t="s">
         <v>726</v>
       </c>
@@ -22146,7 +22239,7 @@
       <c r="X349" s="12"/>
       <c r="Y349" s="12"/>
     </row>
-    <row r="350" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B350" s="7">
         <v>346</v>
       </c>
@@ -22169,7 +22262,10 @@
       <c r="I350" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J350" s="12"/>
+      <c r="J350" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K350" s="12" t="s">
         <v>726</v>
       </c>
@@ -22192,7 +22288,7 @@
       <c r="X350" s="12"/>
       <c r="Y350" s="12"/>
     </row>
-    <row r="351" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B351" s="7">
         <v>347</v>
       </c>
@@ -22215,7 +22311,10 @@
       <c r="I351" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J351" s="12"/>
+      <c r="J351" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K351" s="12" t="s">
         <v>726</v>
       </c>
@@ -22238,7 +22337,7 @@
       <c r="X351" s="12"/>
       <c r="Y351" s="12"/>
     </row>
-    <row r="352" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B352" s="7">
         <v>348</v>
       </c>
@@ -22261,7 +22360,10 @@
       <c r="I352" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J352" s="12"/>
+      <c r="J352" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K352" s="12" t="s">
         <v>726</v>
       </c>
@@ -22284,7 +22386,7 @@
       <c r="X352" s="12"/>
       <c r="Y352" s="12"/>
     </row>
-    <row r="353" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B353" s="7">
         <v>349</v>
       </c>
@@ -22307,7 +22409,10 @@
       <c r="I353" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J353" s="12"/>
+      <c r="J353" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K353" s="12" t="s">
         <v>726</v>
       </c>
@@ -22330,7 +22435,7 @@
       <c r="X353" s="12"/>
       <c r="Y353" s="12"/>
     </row>
-    <row r="354" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B354" s="7">
         <v>350</v>
       </c>
@@ -22353,7 +22458,10 @@
       <c r="I354" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J354" s="12"/>
+      <c r="J354" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K354" s="12" t="s">
         <v>726</v>
       </c>
@@ -22376,7 +22484,7 @@
       <c r="X354" s="12"/>
       <c r="Y354" s="12"/>
     </row>
-    <row r="355" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B355" s="7">
         <v>351</v>
       </c>
@@ -22399,7 +22507,10 @@
       <c r="I355" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J355" s="12"/>
+      <c r="J355" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K355" s="12" t="s">
         <v>726</v>
       </c>
@@ -22422,7 +22533,7 @@
       <c r="X355" s="12"/>
       <c r="Y355" s="12"/>
     </row>
-    <row r="356" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B356" s="7">
         <v>352</v>
       </c>
@@ -22445,7 +22556,10 @@
       <c r="I356" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J356" s="12"/>
+      <c r="J356" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K356" s="12" t="s">
         <v>726</v>
       </c>
@@ -22468,7 +22582,7 @@
       <c r="X356" s="12"/>
       <c r="Y356" s="12"/>
     </row>
-    <row r="357" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B357" s="7">
         <v>353</v>
       </c>
@@ -22491,7 +22605,10 @@
       <c r="I357" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J357" s="12"/>
+      <c r="J357" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K357" s="12" t="s">
         <v>726</v>
       </c>
@@ -22514,7 +22631,7 @@
       <c r="X357" s="12"/>
       <c r="Y357" s="12"/>
     </row>
-    <row r="358" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B358" s="7">
         <v>354</v>
       </c>
@@ -22537,7 +22654,10 @@
       <c r="I358" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J358" s="12"/>
+      <c r="J358" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K358" s="12" t="s">
         <v>726</v>
       </c>
@@ -22583,7 +22703,10 @@
       <c r="I359" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J359" s="12"/>
+      <c r="J359" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K359" s="12"/>
       <c r="L359" s="12"/>
       <c r="M359" s="12"/>
@@ -22602,7 +22725,7 @@
       <c r="X359" s="12"/>
       <c r="Y359" s="12"/>
     </row>
-    <row r="360" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B360" s="7">
         <v>356</v>
       </c>
@@ -22625,7 +22748,10 @@
       <c r="I360" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J360" s="12"/>
+      <c r="J360" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K360" s="12" t="s">
         <v>611</v>
       </c>
@@ -22648,7 +22774,7 @@
       <c r="X360" s="12"/>
       <c r="Y360" s="12"/>
     </row>
-    <row r="361" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B361" s="7">
         <v>357</v>
       </c>
@@ -22671,7 +22797,10 @@
       <c r="I361" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J361" s="12"/>
+      <c r="J361" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K361" s="12" t="s">
         <v>611</v>
       </c>
@@ -22717,7 +22846,10 @@
       <c r="I362" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J362" s="12"/>
+      <c r="J362" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K362" s="12"/>
       <c r="L362" s="12"/>
       <c r="M362" s="12"/>
@@ -22736,7 +22868,7 @@
       <c r="X362" s="12"/>
       <c r="Y362" s="12"/>
     </row>
-    <row r="363" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B363" s="7">
         <v>359</v>
       </c>
@@ -22759,7 +22891,10 @@
       <c r="I363" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J363" s="12"/>
+      <c r="J363" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K363" s="12" t="s">
         <v>611</v>
       </c>
@@ -22805,7 +22940,10 @@
       <c r="I364" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J364" s="12"/>
+      <c r="J364" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K364" s="12"/>
       <c r="L364" s="12"/>
       <c r="M364" s="12"/>
@@ -22824,7 +22962,7 @@
       <c r="X364" s="12"/>
       <c r="Y364" s="12"/>
     </row>
-    <row r="365" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B365" s="7">
         <v>361</v>
       </c>
@@ -22847,7 +22985,10 @@
       <c r="I365" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J365" s="12"/>
+      <c r="J365" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K365" s="12" t="s">
         <v>611</v>
       </c>
@@ -22870,7 +23011,7 @@
       <c r="X365" s="12"/>
       <c r="Y365" s="12"/>
     </row>
-    <row r="366" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B366" s="7">
         <v>362</v>
       </c>
@@ -22893,7 +23034,10 @@
       <c r="I366" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J366" s="12"/>
+      <c r="J366" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K366" s="12" t="s">
         <v>611</v>
       </c>
@@ -22916,7 +23060,7 @@
       <c r="X366" s="12"/>
       <c r="Y366" s="12"/>
     </row>
-    <row r="367" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B367" s="7">
         <v>363</v>
       </c>
@@ -22939,7 +23083,10 @@
       <c r="I367" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J367" s="12"/>
+      <c r="J367" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K367" s="12" t="s">
         <v>611</v>
       </c>
@@ -22985,7 +23132,10 @@
       <c r="I368" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J368" s="12"/>
+      <c r="J368" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K368" s="12"/>
       <c r="L368" s="12"/>
       <c r="M368" s="12"/>
@@ -23004,7 +23154,7 @@
       <c r="X368" s="12"/>
       <c r="Y368" s="12"/>
     </row>
-    <row r="369" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B369" s="7">
         <v>365</v>
       </c>
@@ -23027,7 +23177,10 @@
       <c r="I369" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J369" s="12"/>
+      <c r="J369" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K369" s="12" t="s">
         <v>611</v>
       </c>
@@ -23073,7 +23226,10 @@
       <c r="I370" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J370" s="12"/>
+      <c r="J370" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K370" s="12"/>
       <c r="L370" s="12"/>
       <c r="M370" s="12"/>
@@ -23092,7 +23248,7 @@
       <c r="X370" s="12"/>
       <c r="Y370" s="12"/>
     </row>
-    <row r="371" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B371" s="7">
         <v>367</v>
       </c>
@@ -23115,7 +23271,10 @@
       <c r="I371" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J371" s="12"/>
+      <c r="J371" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K371" s="12" t="s">
         <v>611</v>
       </c>
@@ -23138,7 +23297,7 @@
       <c r="X371" s="12"/>
       <c r="Y371" s="12"/>
     </row>
-    <row r="372" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B372" s="7">
         <v>368</v>
       </c>
@@ -23161,7 +23320,10 @@
       <c r="I372" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J372" s="12"/>
+      <c r="J372" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K372" s="12" t="s">
         <v>611</v>
       </c>
@@ -23207,7 +23369,10 @@
       <c r="I373" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J373" s="12"/>
+      <c r="J373" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K373" s="12"/>
       <c r="L373" s="12"/>
       <c r="M373" s="12"/>
@@ -23226,7 +23391,7 @@
       <c r="X373" s="12"/>
       <c r="Y373" s="12"/>
     </row>
-    <row r="374" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B374" s="7">
         <v>370</v>
       </c>
@@ -23249,7 +23414,10 @@
       <c r="I374" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J374" s="12"/>
+      <c r="J374" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K374" s="12" t="s">
         <v>611</v>
       </c>
@@ -23295,7 +23463,10 @@
       <c r="I375" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J375" s="12"/>
+      <c r="J375" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K375" s="12"/>
       <c r="L375" s="12"/>
       <c r="M375" s="12"/>
@@ -23339,7 +23510,10 @@
       <c r="I376" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J376" s="12"/>
+      <c r="J376" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K376" s="12"/>
       <c r="L376" s="12"/>
       <c r="M376" s="12"/>
@@ -23383,7 +23557,10 @@
       <c r="I377" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J377" s="12"/>
+      <c r="J377" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K377" s="12"/>
       <c r="L377" s="12"/>
       <c r="M377" s="12"/>
@@ -23425,7 +23602,10 @@
       <c r="I378" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J378" s="12"/>
+      <c r="J378" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K378" s="12"/>
       <c r="L378" s="12"/>
       <c r="M378" s="12"/>
@@ -23444,7 +23624,7 @@
       <c r="X378" s="12"/>
       <c r="Y378" s="12"/>
     </row>
-    <row r="379" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B379" s="7">
         <v>375</v>
       </c>
@@ -23467,7 +23647,10 @@
       <c r="I379" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J379" s="12"/>
+      <c r="J379" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K379" s="12" t="s">
         <v>726</v>
       </c>
@@ -23490,7 +23673,7 @@
       <c r="X379" s="12"/>
       <c r="Y379" s="12"/>
     </row>
-    <row r="380" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B380" s="7">
         <v>376</v>
       </c>
@@ -23513,7 +23696,10 @@
       <c r="I380" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J380" s="12"/>
+      <c r="J380" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K380" s="12" t="s">
         <v>726</v>
       </c>
@@ -23559,7 +23745,10 @@
       <c r="I381" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J381" s="12"/>
+      <c r="J381" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K381" s="12"/>
       <c r="L381" s="12"/>
       <c r="M381" s="12"/>
@@ -23578,7 +23767,7 @@
       <c r="X381" s="12"/>
       <c r="Y381" s="12"/>
     </row>
-    <row r="382" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B382" s="7">
         <v>378</v>
       </c>
@@ -23601,7 +23790,10 @@
       <c r="I382" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J382" s="12"/>
+      <c r="J382" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K382" s="12" t="s">
         <v>726</v>
       </c>
@@ -23624,7 +23816,7 @@
       <c r="X382" s="12"/>
       <c r="Y382" s="12"/>
     </row>
-    <row r="383" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B383" s="7">
         <v>379</v>
       </c>
@@ -23647,7 +23839,10 @@
       <c r="I383" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J383" s="12"/>
+      <c r="J383" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K383" s="12" t="s">
         <v>726</v>
       </c>
@@ -23693,7 +23888,10 @@
       <c r="I384" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J384" s="12"/>
+      <c r="J384" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K384" s="12"/>
       <c r="L384" s="12"/>
       <c r="M384" s="12"/>
@@ -23735,7 +23933,10 @@
       <c r="I385" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J385" s="12"/>
+      <c r="J385" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K385" s="12"/>
       <c r="L385" s="12"/>
       <c r="M385" s="12"/>
@@ -23754,7 +23955,7 @@
       <c r="X385" s="12"/>
       <c r="Y385" s="12"/>
     </row>
-    <row r="386" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B386" s="7">
         <v>382</v>
       </c>
@@ -23777,7 +23978,10 @@
       <c r="I386" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J386" s="12"/>
+      <c r="J386" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K386" s="12" t="s">
         <v>726</v>
       </c>
@@ -23800,7 +24004,7 @@
       <c r="X386" s="12"/>
       <c r="Y386" s="12"/>
     </row>
-    <row r="387" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B387" s="7">
         <v>383</v>
       </c>
@@ -23823,7 +24027,10 @@
       <c r="I387" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J387" s="12"/>
+      <c r="J387" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K387" s="12" t="s">
         <v>726</v>
       </c>
@@ -23869,7 +24076,10 @@
       <c r="I388" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J388" s="12"/>
+      <c r="J388" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K388" s="12"/>
       <c r="L388" s="12"/>
       <c r="M388" s="12"/>
@@ -23911,7 +24121,10 @@
       <c r="I389" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J389" s="12"/>
+      <c r="J389" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K389" s="12"/>
       <c r="L389" s="12"/>
       <c r="M389" s="12"/>
@@ -23930,7 +24143,7 @@
       <c r="X389" s="12"/>
       <c r="Y389" s="12"/>
     </row>
-    <row r="390" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B390" s="7">
         <v>386</v>
       </c>
@@ -23953,7 +24166,10 @@
       <c r="I390" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J390" s="12"/>
+      <c r="J390" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K390" s="12" t="s">
         <v>726</v>
       </c>
@@ -23999,7 +24215,10 @@
       <c r="I391" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J391" s="12"/>
+      <c r="J391" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K391" s="12"/>
       <c r="L391" s="12"/>
       <c r="M391" s="12"/>
@@ -24018,7 +24237,7 @@
       <c r="X391" s="12"/>
       <c r="Y391" s="12"/>
     </row>
-    <row r="392" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B392" s="7">
         <v>388</v>
       </c>
@@ -24041,7 +24260,10 @@
       <c r="I392" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J392" s="12"/>
+      <c r="J392" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
       <c r="K392" s="12" t="s">
         <v>726</v>
       </c>
@@ -24087,7 +24309,10 @@
       <c r="I393" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J393" s="12"/>
+      <c r="J393" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
       <c r="K393" s="12"/>
       <c r="L393" s="12"/>
       <c r="M393" s="12"/>
@@ -24129,7 +24354,10 @@
       <c r="I394" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J394" s="12"/>
+      <c r="J394" s="28" t="str">
+        <f t="shared" ref="J394:J457" si="1">IF(I394="Vital", "P1", "P2")</f>
+        <v>P2</v>
+      </c>
       <c r="K394" s="12"/>
       <c r="L394" s="12"/>
       <c r="M394" s="12"/>
@@ -24148,7 +24376,7 @@
       <c r="X394" s="12"/>
       <c r="Y394" s="12"/>
     </row>
-    <row r="395" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B395" s="7">
         <v>391</v>
       </c>
@@ -24171,7 +24399,10 @@
       <c r="I395" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J395" s="12"/>
+      <c r="J395" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K395" s="12" t="s">
         <v>726</v>
       </c>
@@ -24217,7 +24448,10 @@
       <c r="I396" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J396" s="12"/>
+      <c r="J396" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K396" s="12"/>
       <c r="L396" s="12"/>
       <c r="M396" s="12"/>
@@ -24236,7 +24470,7 @@
       <c r="X396" s="12"/>
       <c r="Y396" s="12"/>
     </row>
-    <row r="397" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B397" s="7">
         <v>393</v>
       </c>
@@ -24259,7 +24493,10 @@
       <c r="I397" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J397" s="12"/>
+      <c r="J397" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K397" s="12" t="s">
         <v>611</v>
       </c>
@@ -24282,7 +24519,7 @@
       <c r="X397" s="12"/>
       <c r="Y397" s="12"/>
     </row>
-    <row r="398" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B398" s="7">
         <v>394</v>
       </c>
@@ -24305,7 +24542,10 @@
       <c r="I398" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J398" s="12"/>
+      <c r="J398" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K398" s="12" t="s">
         <v>726</v>
       </c>
@@ -24351,7 +24591,10 @@
       <c r="I399" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J399" s="12"/>
+      <c r="J399" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K399" s="12"/>
       <c r="L399" s="12"/>
       <c r="M399" s="12"/>
@@ -24395,7 +24638,10 @@
       <c r="I400" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J400" s="12"/>
+      <c r="J400" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K400" s="12"/>
       <c r="L400" s="12"/>
       <c r="M400" s="12"/>
@@ -24439,7 +24685,10 @@
       <c r="I401" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J401" s="12"/>
+      <c r="J401" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K401" s="12"/>
       <c r="L401" s="12"/>
       <c r="M401" s="12"/>
@@ -24481,7 +24730,10 @@
       <c r="I402" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J402" s="12"/>
+      <c r="J402" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K402" s="12"/>
       <c r="L402" s="12"/>
       <c r="M402" s="12"/>
@@ -24525,7 +24777,10 @@
       <c r="I403" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J403" s="12"/>
+      <c r="J403" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K403" s="12"/>
       <c r="L403" s="12"/>
       <c r="M403" s="12"/>
@@ -24544,7 +24799,7 @@
       <c r="X403" s="12"/>
       <c r="Y403" s="12"/>
     </row>
-    <row r="404" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B404" s="7">
         <v>400</v>
       </c>
@@ -24567,7 +24822,10 @@
       <c r="I404" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J404" s="12"/>
+      <c r="J404" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K404" s="12" t="s">
         <v>726</v>
       </c>
@@ -24613,7 +24871,10 @@
       <c r="I405" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J405" s="12"/>
+      <c r="J405" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K405" s="12"/>
       <c r="L405" s="12"/>
       <c r="M405" s="12"/>
@@ -24655,7 +24916,10 @@
       <c r="I406" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J406" s="12"/>
+      <c r="J406" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K406" s="12"/>
       <c r="L406" s="12"/>
       <c r="M406" s="12"/>
@@ -24674,7 +24938,7 @@
       <c r="X406" s="12"/>
       <c r="Y406" s="12"/>
     </row>
-    <row r="407" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B407" s="7">
         <v>403</v>
       </c>
@@ -24697,7 +24961,10 @@
       <c r="I407" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J407" s="12"/>
+      <c r="J407" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K407" s="12" t="s">
         <v>726</v>
       </c>
@@ -24743,7 +25010,10 @@
       <c r="I408" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J408" s="12"/>
+      <c r="J408" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K408" s="12"/>
       <c r="L408" s="12"/>
       <c r="M408" s="12"/>
@@ -24762,7 +25032,7 @@
       <c r="X408" s="12"/>
       <c r="Y408" s="12"/>
     </row>
-    <row r="409" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B409" s="7">
         <v>405</v>
       </c>
@@ -24785,7 +25055,10 @@
       <c r="I409" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J409" s="12"/>
+      <c r="J409" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K409" s="12" t="s">
         <v>726</v>
       </c>
@@ -24808,7 +25081,7 @@
       <c r="X409" s="12"/>
       <c r="Y409" s="12"/>
     </row>
-    <row r="410" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B410" s="7">
         <v>406</v>
       </c>
@@ -24831,7 +25104,10 @@
       <c r="I410" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J410" s="12"/>
+      <c r="J410" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K410" s="12" t="s">
         <v>726</v>
       </c>
@@ -24877,7 +25153,10 @@
       <c r="I411" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J411" s="12"/>
+      <c r="J411" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K411" s="12"/>
       <c r="L411" s="12"/>
       <c r="M411" s="12"/>
@@ -24898,7 +25177,7 @@
       </c>
       <c r="Y411" s="12"/>
     </row>
-    <row r="412" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B412" s="7">
         <v>408</v>
       </c>
@@ -24921,7 +25200,10 @@
       <c r="I412" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J412" s="12"/>
+      <c r="J412" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K412" s="12" t="s">
         <v>726</v>
       </c>
@@ -24967,7 +25249,10 @@
       <c r="I413" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J413" s="12"/>
+      <c r="J413" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K413" s="12"/>
       <c r="L413" s="12"/>
       <c r="M413" s="12"/>
@@ -24988,7 +25273,7 @@
       </c>
       <c r="Y413" s="12"/>
     </row>
-    <row r="414" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B414" s="7">
         <v>410</v>
       </c>
@@ -25011,7 +25296,10 @@
       <c r="I414" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J414" s="12"/>
+      <c r="J414" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K414" s="12" t="s">
         <v>611</v>
       </c>
@@ -25057,7 +25345,10 @@
       <c r="I415" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J415" s="12"/>
+      <c r="J415" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K415" s="12"/>
       <c r="L415" s="12"/>
       <c r="M415" s="12"/>
@@ -25076,7 +25367,7 @@
       <c r="X415" s="12"/>
       <c r="Y415" s="12"/>
     </row>
-    <row r="416" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B416" s="7">
         <v>412</v>
       </c>
@@ -25099,7 +25390,10 @@
       <c r="I416" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J416" s="12"/>
+      <c r="J416" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K416" s="12" t="s">
         <v>611</v>
       </c>
@@ -25145,7 +25439,10 @@
       <c r="I417" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J417" s="12"/>
+      <c r="J417" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K417" s="12"/>
       <c r="L417" s="12"/>
       <c r="M417" s="12"/>
@@ -25164,7 +25461,7 @@
       <c r="X417" s="12"/>
       <c r="Y417" s="12"/>
     </row>
-    <row r="418" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B418" s="7">
         <v>414</v>
       </c>
@@ -25187,7 +25484,10 @@
       <c r="I418" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J418" s="12"/>
+      <c r="J418" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K418" s="12" t="s">
         <v>726</v>
       </c>
@@ -25210,7 +25510,7 @@
       <c r="X418" s="12"/>
       <c r="Y418" s="12"/>
     </row>
-    <row r="419" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B419" s="7">
         <v>415</v>
       </c>
@@ -25233,7 +25533,10 @@
       <c r="I419" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J419" s="12"/>
+      <c r="J419" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K419" s="12" t="s">
         <v>611</v>
       </c>
@@ -25279,7 +25582,10 @@
       <c r="I420" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J420" s="12"/>
+      <c r="J420" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K420" s="12"/>
       <c r="L420" s="12"/>
       <c r="M420" s="12"/>
@@ -25298,7 +25604,7 @@
       <c r="X420" s="12"/>
       <c r="Y420" s="12"/>
     </row>
-    <row r="421" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B421" s="7">
         <v>417</v>
       </c>
@@ -25321,7 +25627,10 @@
       <c r="I421" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J421" s="12"/>
+      <c r="J421" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K421" s="12" t="s">
         <v>611</v>
       </c>
@@ -25344,7 +25653,7 @@
       <c r="X421" s="12"/>
       <c r="Y421" s="12"/>
     </row>
-    <row r="422" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B422" s="7">
         <v>418</v>
       </c>
@@ -25367,7 +25676,10 @@
       <c r="I422" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J422" s="12"/>
+      <c r="J422" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K422" s="12" t="s">
         <v>726</v>
       </c>
@@ -25413,7 +25725,10 @@
       <c r="I423" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J423" s="12"/>
+      <c r="J423" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K423" s="12"/>
       <c r="L423" s="12"/>
       <c r="M423" s="12"/>
@@ -25455,7 +25770,10 @@
       <c r="I424" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J424" s="12"/>
+      <c r="J424" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K424" s="12"/>
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
@@ -25474,7 +25792,7 @@
       <c r="X424" s="12"/>
       <c r="Y424" s="12"/>
     </row>
-    <row r="425" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B425" s="7">
         <v>421</v>
       </c>
@@ -25497,7 +25815,10 @@
       <c r="I425" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J425" s="12"/>
+      <c r="J425" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K425" s="12" t="s">
         <v>726</v>
       </c>
@@ -25520,7 +25841,7 @@
       <c r="X425" s="12"/>
       <c r="Y425" s="12"/>
     </row>
-    <row r="426" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B426" s="7">
         <v>422</v>
       </c>
@@ -25543,7 +25864,10 @@
       <c r="I426" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J426" s="12"/>
+      <c r="J426" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K426" s="12" t="s">
         <v>726</v>
       </c>
@@ -25566,7 +25890,7 @@
       <c r="X426" s="12"/>
       <c r="Y426" s="12"/>
     </row>
-    <row r="427" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B427" s="7">
         <v>423</v>
       </c>
@@ -25589,7 +25913,10 @@
       <c r="I427" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J427" s="12"/>
+      <c r="J427" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K427" s="12" t="s">
         <v>726</v>
       </c>
@@ -25612,7 +25939,7 @@
       <c r="X427" s="12"/>
       <c r="Y427" s="12"/>
     </row>
-    <row r="428" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B428" s="7">
         <v>424</v>
       </c>
@@ -25635,7 +25962,10 @@
       <c r="I428" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J428" s="12"/>
+      <c r="J428" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K428" s="12" t="s">
         <v>726</v>
       </c>
@@ -25658,7 +25988,7 @@
       <c r="X428" s="12"/>
       <c r="Y428" s="12"/>
     </row>
-    <row r="429" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B429" s="7">
         <v>425</v>
       </c>
@@ -25681,7 +26011,10 @@
       <c r="I429" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J429" s="12"/>
+      <c r="J429" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K429" s="12" t="s">
         <v>726</v>
       </c>
@@ -25704,7 +26037,7 @@
       <c r="X429" s="12"/>
       <c r="Y429" s="12"/>
     </row>
-    <row r="430" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B430" s="7">
         <v>426</v>
       </c>
@@ -25727,7 +26060,10 @@
       <c r="I430" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J430" s="12"/>
+      <c r="J430" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K430" s="12" t="s">
         <v>726</v>
       </c>
@@ -25773,7 +26109,10 @@
       <c r="I431" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J431" s="12"/>
+      <c r="J431" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K431" s="12"/>
       <c r="L431" s="12"/>
       <c r="M431" s="12"/>
@@ -25794,7 +26133,7 @@
       </c>
       <c r="Y431" s="12"/>
     </row>
-    <row r="432" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B432" s="7">
         <v>428</v>
       </c>
@@ -25817,7 +26156,10 @@
       <c r="I432" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J432" s="12"/>
+      <c r="J432" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K432" s="12" t="s">
         <v>726</v>
       </c>
@@ -25842,7 +26184,7 @@
       </c>
       <c r="Y432" s="12"/>
     </row>
-    <row r="433" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B433" s="7">
         <v>429</v>
       </c>
@@ -25865,7 +26207,10 @@
       <c r="I433" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J433" s="12"/>
+      <c r="J433" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K433" s="12" t="s">
         <v>726</v>
       </c>
@@ -25888,7 +26233,7 @@
       <c r="X433" s="12"/>
       <c r="Y433" s="12"/>
     </row>
-    <row r="434" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B434" s="7">
         <v>430</v>
       </c>
@@ -25911,7 +26256,10 @@
       <c r="I434" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J434" s="12"/>
+      <c r="J434" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K434" s="12" t="s">
         <v>611</v>
       </c>
@@ -25934,7 +26282,7 @@
       <c r="X434" s="12"/>
       <c r="Y434" s="12"/>
     </row>
-    <row r="435" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B435" s="7">
         <v>431</v>
       </c>
@@ -25957,7 +26305,10 @@
       <c r="I435" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J435" s="12"/>
+      <c r="J435" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K435" s="12" t="s">
         <v>726</v>
       </c>
@@ -25980,7 +26331,7 @@
       <c r="X435" s="12"/>
       <c r="Y435" s="12"/>
     </row>
-    <row r="436" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B436" s="7">
         <v>432</v>
       </c>
@@ -26003,7 +26354,10 @@
       <c r="I436" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J436" s="12"/>
+      <c r="J436" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K436" s="12" t="s">
         <v>726</v>
       </c>
@@ -26049,7 +26403,10 @@
       <c r="I437" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J437" s="12"/>
+      <c r="J437" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K437" s="12"/>
       <c r="L437" s="12"/>
       <c r="M437" s="12"/>
@@ -26093,7 +26450,10 @@
       <c r="I438" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J438" s="12"/>
+      <c r="J438" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K438" s="12"/>
       <c r="L438" s="12"/>
       <c r="M438" s="12"/>
@@ -26114,7 +26474,7 @@
       </c>
       <c r="Y438" s="12"/>
     </row>
-    <row r="439" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B439" s="7">
         <v>435</v>
       </c>
@@ -26137,7 +26497,10 @@
       <c r="I439" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J439" s="12"/>
+      <c r="J439" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K439" s="12" t="s">
         <v>726</v>
       </c>
@@ -26160,7 +26523,7 @@
       <c r="X439" s="12"/>
       <c r="Y439" s="12"/>
     </row>
-    <row r="440" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B440" s="7">
         <v>436</v>
       </c>
@@ -26183,7 +26546,10 @@
       <c r="I440" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J440" s="12"/>
+      <c r="J440" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K440" s="12" t="s">
         <v>726</v>
       </c>
@@ -26206,7 +26572,7 @@
       <c r="X440" s="12"/>
       <c r="Y440" s="12"/>
     </row>
-    <row r="441" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B441" s="7">
         <v>437</v>
       </c>
@@ -26229,7 +26595,10 @@
       <c r="I441" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J441" s="12"/>
+      <c r="J441" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K441" s="12" t="s">
         <v>726</v>
       </c>
@@ -26252,7 +26621,7 @@
       <c r="X441" s="12"/>
       <c r="Y441" s="12"/>
     </row>
-    <row r="442" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B442" s="7">
         <v>438</v>
       </c>
@@ -26275,7 +26644,10 @@
       <c r="I442" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J442" s="12"/>
+      <c r="J442" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K442" s="12" t="s">
         <v>726</v>
       </c>
@@ -26298,7 +26670,7 @@
       <c r="X442" s="12"/>
       <c r="Y442" s="12"/>
     </row>
-    <row r="443" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B443" s="7">
         <v>439</v>
       </c>
@@ -26321,7 +26693,10 @@
       <c r="I443" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J443" s="12"/>
+      <c r="J443" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K443" s="12" t="s">
         <v>726</v>
       </c>
@@ -26367,7 +26742,10 @@
       <c r="I444" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J444" s="12"/>
+      <c r="J444" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K444" s="12"/>
       <c r="L444" s="12"/>
       <c r="M444" s="12"/>
@@ -26409,7 +26787,10 @@
       <c r="I445" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J445" s="12"/>
+      <c r="J445" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K445" s="12"/>
       <c r="L445" s="12"/>
       <c r="M445" s="12"/>
@@ -26451,7 +26832,10 @@
       <c r="I446" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J446" s="12"/>
+      <c r="J446" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K446" s="12"/>
       <c r="L446" s="12"/>
       <c r="M446" s="12"/>
@@ -26495,7 +26879,10 @@
       <c r="I447" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J447" s="12"/>
+      <c r="J447" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K447" s="12"/>
       <c r="L447" s="12"/>
       <c r="M447" s="12"/>
@@ -26516,7 +26903,7 @@
       </c>
       <c r="Y447" s="12"/>
     </row>
-    <row r="448" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B448" s="7">
         <v>444</v>
       </c>
@@ -26539,7 +26926,10 @@
       <c r="I448" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J448" s="12"/>
+      <c r="J448" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K448" s="12" t="s">
         <v>726</v>
       </c>
@@ -26585,7 +26975,10 @@
       <c r="I449" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J449" s="12"/>
+      <c r="J449" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K449" s="12"/>
       <c r="L449" s="12"/>
       <c r="M449" s="12"/>
@@ -26604,7 +26997,7 @@
       <c r="X449" s="12"/>
       <c r="Y449" s="12"/>
     </row>
-    <row r="450" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B450" s="7">
         <v>446</v>
       </c>
@@ -26627,7 +27020,10 @@
       <c r="I450" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J450" s="12"/>
+      <c r="J450" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K450" s="12" t="s">
         <v>726</v>
       </c>
@@ -26673,7 +27069,10 @@
       <c r="I451" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J451" s="12"/>
+      <c r="J451" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K451" s="12"/>
       <c r="L451" s="12"/>
       <c r="M451" s="12"/>
@@ -26717,7 +27116,10 @@
       <c r="I452" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J452" s="12"/>
+      <c r="J452" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K452" s="12"/>
       <c r="L452" s="12"/>
       <c r="M452" s="12"/>
@@ -26761,7 +27163,10 @@
       <c r="I453" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J453" s="12"/>
+      <c r="J453" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K453" s="12"/>
       <c r="L453" s="12"/>
       <c r="M453" s="12"/>
@@ -26805,7 +27210,10 @@
       <c r="I454" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J454" s="12"/>
+      <c r="J454" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K454" s="12"/>
       <c r="L454" s="12"/>
       <c r="M454" s="12"/>
@@ -26826,7 +27234,7 @@
       </c>
       <c r="Y454" s="12"/>
     </row>
-    <row r="455" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B455" s="7">
         <v>451</v>
       </c>
@@ -26849,7 +27257,10 @@
       <c r="I455" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J455" s="12"/>
+      <c r="J455" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P1</v>
+      </c>
       <c r="K455" s="12" t="s">
         <v>726</v>
       </c>
@@ -26895,7 +27306,10 @@
       <c r="I456" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J456" s="12"/>
+      <c r="J456" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K456" s="12"/>
       <c r="L456" s="12"/>
       <c r="M456" s="12"/>
@@ -26939,7 +27353,10 @@
       <c r="I457" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J457" s="12"/>
+      <c r="J457" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>P2</v>
+      </c>
       <c r="K457" s="12"/>
       <c r="L457" s="12"/>
       <c r="M457" s="12"/>
@@ -26981,7 +27398,10 @@
       <c r="I458" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J458" s="12"/>
+      <c r="J458" s="28" t="str">
+        <f t="shared" ref="J458:J521" si="2">IF(I458="Vital", "P1", "P2")</f>
+        <v>P2</v>
+      </c>
       <c r="K458" s="12"/>
       <c r="L458" s="12"/>
       <c r="M458" s="12"/>
@@ -27023,7 +27443,10 @@
       <c r="I459" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J459" s="12"/>
+      <c r="J459" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K459" s="12"/>
       <c r="L459" s="12"/>
       <c r="M459" s="12"/>
@@ -27065,7 +27488,10 @@
       <c r="I460" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J460" s="12"/>
+      <c r="J460" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K460" s="12"/>
       <c r="L460" s="12"/>
       <c r="M460" s="12"/>
@@ -27107,7 +27533,10 @@
       <c r="I461" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J461" s="12"/>
+      <c r="J461" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K461" s="12"/>
       <c r="L461" s="12"/>
       <c r="M461" s="12"/>
@@ -27149,7 +27578,10 @@
       <c r="I462" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J462" s="12"/>
+      <c r="J462" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K462" s="12"/>
       <c r="L462" s="12"/>
       <c r="M462" s="12"/>
@@ -27168,7 +27600,7 @@
       <c r="X462" s="12"/>
       <c r="Y462" s="12"/>
     </row>
-    <row r="463" spans="2:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:25" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B463" s="7">
         <v>459</v>
       </c>
@@ -27191,7 +27623,10 @@
       <c r="I463" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J463" s="12"/>
+      <c r="J463" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K463" s="12" t="s">
         <v>726</v>
       </c>
@@ -27214,7 +27649,7 @@
       <c r="X463" s="12"/>
       <c r="Y463" s="12"/>
     </row>
-    <row r="464" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B464" s="7">
         <v>460</v>
       </c>
@@ -27237,7 +27672,10 @@
       <c r="I464" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J464" s="12"/>
+      <c r="J464" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K464" s="12" t="s">
         <v>726</v>
       </c>
@@ -27260,7 +27698,7 @@
       <c r="X464" s="12"/>
       <c r="Y464" s="12"/>
     </row>
-    <row r="465" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B465" s="7">
         <v>461</v>
       </c>
@@ -27283,7 +27721,10 @@
       <c r="I465" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J465" s="12"/>
+      <c r="J465" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K465" s="12" t="s">
         <v>726</v>
       </c>
@@ -27306,7 +27747,7 @@
       <c r="X465" s="12"/>
       <c r="Y465" s="12"/>
     </row>
-    <row r="466" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B466" s="7">
         <v>462</v>
       </c>
@@ -27329,7 +27770,10 @@
       <c r="I466" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J466" s="12"/>
+      <c r="J466" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K466" s="12" t="s">
         <v>726</v>
       </c>
@@ -27352,7 +27796,7 @@
       <c r="X466" s="12"/>
       <c r="Y466" s="12"/>
     </row>
-    <row r="467" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B467" s="7">
         <v>463</v>
       </c>
@@ -27375,7 +27819,10 @@
       <c r="I467" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J467" s="12"/>
+      <c r="J467" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K467" s="12" t="s">
         <v>726</v>
       </c>
@@ -27398,7 +27845,7 @@
       <c r="X467" s="12"/>
       <c r="Y467" s="12"/>
     </row>
-    <row r="468" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B468" s="7">
         <v>464</v>
       </c>
@@ -27421,7 +27868,10 @@
       <c r="I468" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J468" s="12"/>
+      <c r="J468" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K468" s="12" t="s">
         <v>726</v>
       </c>
@@ -27444,7 +27894,7 @@
       <c r="X468" s="12"/>
       <c r="Y468" s="12"/>
     </row>
-    <row r="469" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B469" s="7">
         <v>465</v>
       </c>
@@ -27467,7 +27917,10 @@
       <c r="I469" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J469" s="12"/>
+      <c r="J469" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K469" s="12" t="s">
         <v>726</v>
       </c>
@@ -27490,7 +27943,7 @@
       <c r="X469" s="12"/>
       <c r="Y469" s="12"/>
     </row>
-    <row r="470" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B470" s="7">
         <v>466</v>
       </c>
@@ -27513,7 +27966,10 @@
       <c r="I470" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J470" s="12"/>
+      <c r="J470" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K470" s="12" t="s">
         <v>726</v>
       </c>
@@ -27536,7 +27992,7 @@
       <c r="X470" s="12"/>
       <c r="Y470" s="12"/>
     </row>
-    <row r="471" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B471" s="7">
         <v>467</v>
       </c>
@@ -27559,7 +28015,10 @@
       <c r="I471" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J471" s="12"/>
+      <c r="J471" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K471" s="12" t="s">
         <v>726</v>
       </c>
@@ -27582,7 +28041,7 @@
       <c r="X471" s="12"/>
       <c r="Y471" s="12"/>
     </row>
-    <row r="472" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B472" s="7">
         <v>468</v>
       </c>
@@ -27605,7 +28064,10 @@
       <c r="I472" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J472" s="12"/>
+      <c r="J472" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K472" s="12" t="s">
         <v>726</v>
       </c>
@@ -27628,7 +28090,7 @@
       <c r="X472" s="12"/>
       <c r="Y472" s="12"/>
     </row>
-    <row r="473" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B473" s="7">
         <v>469</v>
       </c>
@@ -27651,7 +28113,10 @@
       <c r="I473" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J473" s="12"/>
+      <c r="J473" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K473" s="12" t="s">
         <v>726</v>
       </c>
@@ -27674,7 +28139,7 @@
       <c r="X473" s="12"/>
       <c r="Y473" s="12"/>
     </row>
-    <row r="474" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B474" s="7">
         <v>470</v>
       </c>
@@ -27697,7 +28162,10 @@
       <c r="I474" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J474" s="12"/>
+      <c r="J474" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K474" s="12" t="s">
         <v>726</v>
       </c>
@@ -27720,7 +28188,7 @@
       <c r="X474" s="12"/>
       <c r="Y474" s="12"/>
     </row>
-    <row r="475" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B475" s="7">
         <v>471</v>
       </c>
@@ -27743,7 +28211,10 @@
       <c r="I475" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J475" s="12"/>
+      <c r="J475" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K475" s="12" t="s">
         <v>726</v>
       </c>
@@ -27766,7 +28237,7 @@
       <c r="X475" s="12"/>
       <c r="Y475" s="12"/>
     </row>
-    <row r="476" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B476" s="7">
         <v>472</v>
       </c>
@@ -27789,7 +28260,10 @@
       <c r="I476" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J476" s="12"/>
+      <c r="J476" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K476" s="12" t="s">
         <v>726</v>
       </c>
@@ -27812,7 +28286,7 @@
       <c r="X476" s="12"/>
       <c r="Y476" s="12"/>
     </row>
-    <row r="477" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B477" s="7">
         <v>473</v>
       </c>
@@ -27835,7 +28309,10 @@
       <c r="I477" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J477" s="12"/>
+      <c r="J477" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K477" s="12" t="s">
         <v>726</v>
       </c>
@@ -27858,7 +28335,7 @@
       <c r="X477" s="12"/>
       <c r="Y477" s="12"/>
     </row>
-    <row r="478" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B478" s="7">
         <v>474</v>
       </c>
@@ -27881,7 +28358,10 @@
       <c r="I478" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J478" s="12"/>
+      <c r="J478" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K478" s="12" t="s">
         <v>726</v>
       </c>
@@ -27904,7 +28384,7 @@
       <c r="X478" s="12"/>
       <c r="Y478" s="12"/>
     </row>
-    <row r="479" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B479" s="7">
         <v>475</v>
       </c>
@@ -27927,7 +28407,10 @@
       <c r="I479" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J479" s="12"/>
+      <c r="J479" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K479" s="12" t="s">
         <v>726</v>
       </c>
@@ -27950,7 +28433,7 @@
       <c r="X479" s="12"/>
       <c r="Y479" s="12"/>
     </row>
-    <row r="480" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B480" s="7">
         <v>476</v>
       </c>
@@ -27973,7 +28456,10 @@
       <c r="I480" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J480" s="12"/>
+      <c r="J480" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K480" s="12" t="s">
         <v>726</v>
       </c>
@@ -27996,7 +28482,7 @@
       <c r="X480" s="12"/>
       <c r="Y480" s="12"/>
     </row>
-    <row r="481" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:25" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B481" s="7">
         <v>477</v>
       </c>
@@ -28019,7 +28505,10 @@
       <c r="I481" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J481" s="12"/>
+      <c r="J481" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K481" s="12" t="s">
         <v>726</v>
       </c>
@@ -28042,7 +28531,7 @@
       <c r="X481" s="12"/>
       <c r="Y481" s="12"/>
     </row>
-    <row r="482" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:25" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B482" s="7">
         <v>478</v>
       </c>
@@ -28065,7 +28554,10 @@
       <c r="I482" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J482" s="12"/>
+      <c r="J482" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K482" s="12" t="s">
         <v>726</v>
       </c>
@@ -28088,7 +28580,7 @@
       <c r="X482" s="12"/>
       <c r="Y482" s="12"/>
     </row>
-    <row r="483" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B483" s="7">
         <v>479</v>
       </c>
@@ -28111,7 +28603,10 @@
       <c r="I483" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J483" s="12"/>
+      <c r="J483" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K483" s="12" t="s">
         <v>726</v>
       </c>
@@ -28134,7 +28629,7 @@
       <c r="X483" s="12"/>
       <c r="Y483" s="12"/>
     </row>
-    <row r="484" spans="2:25" ht="87" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:25" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B484" s="7">
         <v>480</v>
       </c>
@@ -28157,7 +28652,10 @@
       <c r="I484" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J484" s="12"/>
+      <c r="J484" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K484" s="12" t="s">
         <v>611</v>
       </c>
@@ -28180,7 +28678,7 @@
       <c r="X484" s="12"/>
       <c r="Y484" s="12"/>
     </row>
-    <row r="485" spans="2:25" ht="87" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:25" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="B485" s="7">
         <v>481</v>
       </c>
@@ -28203,7 +28701,10 @@
       <c r="I485" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J485" s="12"/>
+      <c r="J485" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K485" s="12" t="s">
         <v>726</v>
       </c>
@@ -28249,7 +28750,10 @@
       <c r="I486" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J486" s="12"/>
+      <c r="J486" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K486" s="12"/>
       <c r="L486" s="12"/>
       <c r="M486" s="12"/>
@@ -28291,7 +28795,10 @@
       <c r="I487" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J487" s="12"/>
+      <c r="J487" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K487" s="12"/>
       <c r="L487" s="12"/>
       <c r="M487" s="12"/>
@@ -28310,7 +28817,7 @@
       <c r="X487" s="12"/>
       <c r="Y487" s="12"/>
     </row>
-    <row r="488" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:25" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B488" s="7">
         <v>484</v>
       </c>
@@ -28333,7 +28840,10 @@
       <c r="I488" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J488" s="12"/>
+      <c r="J488" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K488" s="12" t="s">
         <v>611</v>
       </c>
@@ -28356,7 +28866,7 @@
       <c r="X488" s="12"/>
       <c r="Y488" s="12"/>
     </row>
-    <row r="489" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:25" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B489" s="7">
         <v>485</v>
       </c>
@@ -28379,7 +28889,10 @@
       <c r="I489" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J489" s="12"/>
+      <c r="J489" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K489" s="12" t="s">
         <v>726</v>
       </c>
@@ -28402,7 +28915,7 @@
       <c r="X489" s="12"/>
       <c r="Y489" s="12"/>
     </row>
-    <row r="490" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B490" s="7">
         <v>486</v>
       </c>
@@ -28425,7 +28938,10 @@
       <c r="I490" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J490" s="12"/>
+      <c r="J490" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K490" s="12" t="s">
         <v>611</v>
       </c>
@@ -28448,7 +28964,7 @@
       <c r="X490" s="12"/>
       <c r="Y490" s="12"/>
     </row>
-    <row r="491" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B491" s="7">
         <v>487</v>
       </c>
@@ -28471,7 +28987,10 @@
       <c r="I491" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J491" s="12"/>
+      <c r="J491" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K491" s="12" t="s">
         <v>611</v>
       </c>
@@ -28494,7 +29013,7 @@
       <c r="X491" s="12"/>
       <c r="Y491" s="12"/>
     </row>
-    <row r="492" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B492" s="7">
         <v>488</v>
       </c>
@@ -28517,7 +29036,10 @@
       <c r="I492" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J492" s="12"/>
+      <c r="J492" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K492" s="12" t="s">
         <v>611</v>
       </c>
@@ -28563,7 +29085,10 @@
       <c r="I493" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J493" s="12"/>
+      <c r="J493" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K493" s="12"/>
       <c r="L493" s="12"/>
       <c r="M493" s="12"/>
@@ -28605,7 +29130,10 @@
       <c r="I494" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J494" s="12"/>
+      <c r="J494" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K494" s="12"/>
       <c r="L494" s="12"/>
       <c r="M494" s="12"/>
@@ -28649,7 +29177,10 @@
       <c r="I495" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J495" s="12"/>
+      <c r="J495" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K495" s="12"/>
       <c r="L495" s="12"/>
       <c r="M495" s="12"/>
@@ -28691,7 +29222,10 @@
       <c r="I496" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J496" s="12"/>
+      <c r="J496" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K496" s="12"/>
       <c r="L496" s="12"/>
       <c r="M496" s="12"/>
@@ -28733,7 +29267,10 @@
       <c r="I497" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J497" s="12"/>
+      <c r="J497" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K497" s="12"/>
       <c r="L497" s="12"/>
       <c r="M497" s="12"/>
@@ -28752,7 +29289,7 @@
       <c r="X497" s="12"/>
       <c r="Y497" s="12"/>
     </row>
-    <row r="498" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B498" s="7">
         <v>494</v>
       </c>
@@ -28775,7 +29312,10 @@
       <c r="I498" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J498" s="12"/>
+      <c r="J498" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K498" s="12" t="s">
         <v>726</v>
       </c>
@@ -28798,7 +29338,7 @@
       <c r="X498" s="12"/>
       <c r="Y498" s="12"/>
     </row>
-    <row r="499" spans="2:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:25" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B499" s="7">
         <v>495</v>
       </c>
@@ -28821,7 +29361,10 @@
       <c r="I499" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J499" s="12"/>
+      <c r="J499" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K499" s="12" t="s">
         <v>726</v>
       </c>
@@ -28844,7 +29387,7 @@
       <c r="X499" s="12"/>
       <c r="Y499" s="12"/>
     </row>
-    <row r="500" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B500" s="7">
         <v>496</v>
       </c>
@@ -28867,7 +29410,10 @@
       <c r="I500" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J500" s="12"/>
+      <c r="J500" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K500" s="12" t="s">
         <v>726</v>
       </c>
@@ -28890,7 +29436,7 @@
       <c r="X500" s="12"/>
       <c r="Y500" s="12"/>
     </row>
-    <row r="501" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B501" s="7">
         <v>497</v>
       </c>
@@ -28913,7 +29459,10 @@
       <c r="I501" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J501" s="12"/>
+      <c r="J501" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K501" s="12" t="s">
         <v>726</v>
       </c>
@@ -28936,7 +29485,7 @@
       <c r="X501" s="12"/>
       <c r="Y501" s="12"/>
     </row>
-    <row r="502" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B502" s="7">
         <v>498</v>
       </c>
@@ -28959,7 +29508,10 @@
       <c r="I502" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J502" s="12"/>
+      <c r="J502" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K502" s="12" t="s">
         <v>726</v>
       </c>
@@ -28982,7 +29534,7 @@
       <c r="X502" s="12"/>
       <c r="Y502" s="12"/>
     </row>
-    <row r="503" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B503" s="7">
         <v>499</v>
       </c>
@@ -29005,7 +29557,10 @@
       <c r="I503" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J503" s="12"/>
+      <c r="J503" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K503" s="12" t="s">
         <v>726</v>
       </c>
@@ -29028,7 +29583,7 @@
       <c r="X503" s="12"/>
       <c r="Y503" s="12"/>
     </row>
-    <row r="504" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:25" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B504" s="7">
         <v>500</v>
       </c>
@@ -29051,7 +29606,10 @@
       <c r="I504" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J504" s="12"/>
+      <c r="J504" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K504" s="12" t="s">
         <v>726</v>
       </c>
@@ -29074,7 +29632,7 @@
       <c r="X504" s="12"/>
       <c r="Y504" s="12"/>
     </row>
-    <row r="505" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B505" s="7">
         <v>501</v>
       </c>
@@ -29097,7 +29655,10 @@
       <c r="I505" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J505" s="12"/>
+      <c r="J505" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K505" s="12" t="s">
         <v>680</v>
       </c>
@@ -29120,7 +29681,7 @@
       </c>
       <c r="Y505" s="12"/>
     </row>
-    <row r="506" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B506" s="7">
         <v>502</v>
       </c>
@@ -29145,8 +29706,9 @@
       <c r="I506" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J506" s="13" t="s">
-        <v>640</v>
+      <c r="J506" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
       </c>
       <c r="K506" s="13" t="s">
         <v>611</v>
@@ -29170,7 +29732,7 @@
       <c r="X506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B507" s="7">
         <v>503</v>
       </c>
@@ -29193,8 +29755,9 @@
       <c r="I507" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J507" s="13" t="s">
-        <v>640</v>
+      <c r="J507" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
       </c>
       <c r="K507" s="13" t="s">
         <v>606</v>
@@ -29235,7 +29798,10 @@
       <c r="I508" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J508" s="1"/>
+      <c r="J508" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
       <c r="M508" s="12"/>
@@ -29275,7 +29841,10 @@
       <c r="I509" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J509" s="1"/>
+      <c r="J509" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
       <c r="M509" s="12"/>
@@ -29317,7 +29886,10 @@
       <c r="I510" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J510" s="12"/>
+      <c r="J510" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K510" s="12" t="s">
         <v>606</v>
       </c>
@@ -29361,7 +29933,10 @@
       <c r="I511" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J511" s="12"/>
+      <c r="J511" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K511" s="12" t="s">
         <v>606</v>
       </c>
@@ -29405,7 +29980,10 @@
       <c r="I512" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J512" s="12"/>
+      <c r="J512" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K512" s="12" t="s">
         <v>606</v>
       </c>
@@ -29449,7 +30027,10 @@
       <c r="I513" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J513" s="12"/>
+      <c r="J513" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K513" s="12" t="s">
         <v>606</v>
       </c>
@@ -29493,7 +30074,10 @@
       <c r="I514" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J514" s="12"/>
+      <c r="J514" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K514" s="12" t="s">
         <v>606</v>
       </c>
@@ -29537,7 +30121,10 @@
       <c r="I515" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J515" s="12"/>
+      <c r="J515" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K515" s="12" t="s">
         <v>606</v>
       </c>
@@ -29581,7 +30168,10 @@
       <c r="I516" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J516" s="12"/>
+      <c r="J516" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K516" s="12" t="s">
         <v>606</v>
       </c>
@@ -29629,7 +30219,10 @@
       <c r="I517" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J517" s="12"/>
+      <c r="J517" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K517" s="12" t="s">
         <v>606</v>
       </c>
@@ -29677,7 +30270,10 @@
       <c r="I518" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J518" s="12"/>
+      <c r="J518" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K518" s="12" t="s">
         <v>606</v>
       </c>
@@ -29725,7 +30321,10 @@
       <c r="I519" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J519" s="12"/>
+      <c r="J519" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P1</v>
+      </c>
       <c r="K519" s="12" t="s">
         <v>606</v>
       </c>
@@ -29773,7 +30372,10 @@
       <c r="I520" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J520" s="12"/>
+      <c r="J520" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K520" s="12" t="s">
         <v>606</v>
       </c>
@@ -29821,7 +30423,10 @@
       <c r="I521" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J521" s="12"/>
+      <c r="J521" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>P2</v>
+      </c>
       <c r="K521" s="12" t="s">
         <v>606</v>
       </c>
@@ -29869,7 +30474,10 @@
       <c r="I522" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J522" s="12"/>
+      <c r="J522" s="28" t="str">
+        <f t="shared" ref="J522:J583" si="3">IF(I522="Vital", "P1", "P2")</f>
+        <v>P2</v>
+      </c>
       <c r="K522" s="12" t="s">
         <v>606</v>
       </c>
@@ -29917,7 +30525,10 @@
       <c r="I523" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J523" s="12"/>
+      <c r="J523" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K523" s="12" t="s">
         <v>606</v>
       </c>
@@ -29965,7 +30576,10 @@
       <c r="I524" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J524" s="12"/>
+      <c r="J524" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K524" s="12" t="s">
         <v>606</v>
       </c>
@@ -30013,7 +30627,10 @@
       <c r="I525" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J525" s="12"/>
+      <c r="J525" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K525" s="12" t="s">
         <v>606</v>
       </c>
@@ -30061,7 +30678,10 @@
       <c r="I526" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J526" s="12"/>
+      <c r="J526" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K526" s="12" t="s">
         <v>606</v>
       </c>
@@ -30109,7 +30729,10 @@
       <c r="I527" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J527" s="12"/>
+      <c r="J527" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K527" s="12" t="s">
         <v>606</v>
       </c>
@@ -30155,8 +30778,9 @@
       <c r="I528" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J528" s="13" t="s">
-        <v>640</v>
+      <c r="J528" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
       </c>
       <c r="K528" s="13" t="s">
         <v>606</v>
@@ -30199,7 +30823,10 @@
       <c r="I529" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J529" s="12"/>
+      <c r="J529" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K529" s="12" t="s">
         <v>606</v>
       </c>
@@ -30245,7 +30872,10 @@
       <c r="I530" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J530" s="12"/>
+      <c r="J530" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K530" s="12" t="s">
         <v>606</v>
       </c>
@@ -30289,7 +30919,10 @@
       <c r="I531" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J531" s="12"/>
+      <c r="J531" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K531" s="12" t="s">
         <v>606</v>
       </c>
@@ -30335,7 +30968,10 @@
       <c r="I532" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J532" s="12"/>
+      <c r="J532" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K532" s="12" t="s">
         <v>606</v>
       </c>
@@ -30381,7 +31017,10 @@
       <c r="I533" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J533" s="12"/>
+      <c r="J533" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K533" s="12" t="s">
         <v>606</v>
       </c>
@@ -30425,7 +31064,10 @@
       <c r="I534" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J534" s="12"/>
+      <c r="J534" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K534" s="12" t="s">
         <v>606</v>
       </c>
@@ -30469,7 +31111,10 @@
       <c r="I535" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J535" s="12"/>
+      <c r="J535" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K535" s="12" t="s">
         <v>606</v>
       </c>
@@ -30513,7 +31158,10 @@
       <c r="I536" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J536" s="12"/>
+      <c r="J536" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K536" s="12" t="s">
         <v>606</v>
       </c>
@@ -30557,7 +31205,10 @@
       <c r="I537" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J537" s="12"/>
+      <c r="J537" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K537" s="12" t="s">
         <v>606</v>
       </c>
@@ -30601,7 +31252,10 @@
       <c r="I538" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J538" s="12"/>
+      <c r="J538" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K538" s="12" t="s">
         <v>606</v>
       </c>
@@ -30645,7 +31299,10 @@
       <c r="I539" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J539" s="12"/>
+      <c r="J539" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K539" s="12" t="s">
         <v>606</v>
       </c>
@@ -30689,7 +31346,10 @@
       <c r="I540" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J540" s="12"/>
+      <c r="J540" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K540" s="12" t="s">
         <v>606</v>
       </c>
@@ -30735,7 +31395,10 @@
       <c r="I541" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J541" s="12"/>
+      <c r="J541" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K541" s="12" t="s">
         <v>606</v>
       </c>
@@ -30781,7 +31444,10 @@
       <c r="I542" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J542" s="12"/>
+      <c r="J542" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K542" s="12" t="s">
         <v>606</v>
       </c>
@@ -30827,7 +31493,10 @@
       <c r="I543" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J543" s="12"/>
+      <c r="J543" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K543" s="12" t="s">
         <v>606</v>
       </c>
@@ -30871,7 +31540,10 @@
       <c r="I544" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J544" s="12"/>
+      <c r="J544" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K544" s="12" t="s">
         <v>606</v>
       </c>
@@ -30915,7 +31587,10 @@
       <c r="I545" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J545" s="12"/>
+      <c r="J545" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K545" s="12" t="s">
         <v>606</v>
       </c>
@@ -30959,7 +31634,10 @@
       <c r="I546" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J546" s="12"/>
+      <c r="J546" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P2</v>
+      </c>
       <c r="K546" s="12" t="s">
         <v>606</v>
       </c>
@@ -31005,7 +31683,10 @@
       <c r="I547" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J547" s="12"/>
+      <c r="J547" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K547" s="12" t="s">
         <v>606</v>
       </c>
@@ -31049,7 +31730,10 @@
       <c r="I548" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J548" s="12"/>
+      <c r="J548" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K548" s="12" t="s">
         <v>606</v>
       </c>
@@ -31093,7 +31777,10 @@
       <c r="I549" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J549" s="12"/>
+      <c r="J549" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K549" s="12" t="s">
         <v>606</v>
       </c>
@@ -31137,7 +31824,10 @@
       <c r="I550" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J550" s="12"/>
+      <c r="J550" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K550" s="12" t="s">
         <v>606</v>
       </c>
@@ -31181,7 +31871,10 @@
       <c r="I551" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J551" s="12"/>
+      <c r="J551" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K551" s="12" t="s">
         <v>606</v>
       </c>
@@ -31225,7 +31918,10 @@
       <c r="I552" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J552" s="12"/>
+      <c r="J552" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K552" s="12" t="s">
         <v>606</v>
       </c>
@@ -31269,7 +31965,10 @@
       <c r="I553" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J553" s="12"/>
+      <c r="J553" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K553" s="12" t="s">
         <v>606</v>
       </c>
@@ -31313,7 +32012,10 @@
       <c r="I554" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J554" s="12"/>
+      <c r="J554" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K554" s="12" t="s">
         <v>606</v>
       </c>
@@ -31357,7 +32059,10 @@
       <c r="I555" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J555" s="12"/>
+      <c r="J555" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K555" s="12" t="s">
         <v>606</v>
       </c>
@@ -31401,7 +32106,10 @@
       <c r="I556" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J556" s="12"/>
+      <c r="J556" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K556" s="12" t="s">
         <v>606</v>
       </c>
@@ -31445,7 +32153,10 @@
       <c r="I557" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J557" s="12"/>
+      <c r="J557" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K557" s="12" t="s">
         <v>606</v>
       </c>
@@ -31489,7 +32200,10 @@
       <c r="I558" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J558" s="12"/>
+      <c r="J558" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K558" s="12" t="s">
         <v>606</v>
       </c>
@@ -31533,7 +32247,10 @@
       <c r="I559" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J559" s="12"/>
+      <c r="J559" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K559" s="12" t="s">
         <v>606</v>
       </c>
@@ -31577,7 +32294,10 @@
       <c r="I560" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J560" s="12"/>
+      <c r="J560" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K560" s="12" t="s">
         <v>606</v>
       </c>
@@ -31621,7 +32341,10 @@
       <c r="I561" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J561" s="12"/>
+      <c r="J561" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K561" s="12" t="s">
         <v>606</v>
       </c>
@@ -31665,7 +32388,10 @@
       <c r="I562" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J562" s="12"/>
+      <c r="J562" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K562" s="12" t="s">
         <v>606</v>
       </c>
@@ -31709,7 +32435,10 @@
       <c r="I563" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J563" s="12"/>
+      <c r="J563" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K563" s="12" t="s">
         <v>606</v>
       </c>
@@ -31753,7 +32482,10 @@
       <c r="I564" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J564" s="12"/>
+      <c r="J564" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K564" s="12" t="s">
         <v>606</v>
       </c>
@@ -31797,7 +32529,10 @@
       <c r="I565" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J565" s="12"/>
+      <c r="J565" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K565" s="12" t="s">
         <v>606</v>
       </c>
@@ -31841,7 +32576,10 @@
       <c r="I566" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J566" s="12"/>
+      <c r="J566" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K566" s="12" t="s">
         <v>606</v>
       </c>
@@ -31885,7 +32623,10 @@
       <c r="I567" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J567" s="12"/>
+      <c r="J567" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K567" s="12" t="s">
         <v>606</v>
       </c>
@@ -31929,7 +32670,10 @@
       <c r="I568" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J568" s="12"/>
+      <c r="J568" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K568" s="12" t="s">
         <v>606</v>
       </c>
@@ -31973,7 +32717,10 @@
       <c r="I569" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J569" s="12"/>
+      <c r="J569" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K569" s="12" t="s">
         <v>606</v>
       </c>
@@ -32017,7 +32764,10 @@
       <c r="I570" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J570" s="12"/>
+      <c r="J570" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K570" s="12" t="s">
         <v>606</v>
       </c>
@@ -32061,7 +32811,10 @@
       <c r="I571" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J571" s="12"/>
+      <c r="J571" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K571" s="12" t="s">
         <v>606</v>
       </c>
@@ -32105,7 +32858,10 @@
       <c r="I572" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J572" s="12"/>
+      <c r="J572" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K572" s="12" t="s">
         <v>606</v>
       </c>
@@ -32151,7 +32907,10 @@
       <c r="I573" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J573" s="12"/>
+      <c r="J573" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K573" s="12" t="s">
         <v>606</v>
       </c>
@@ -32195,7 +32954,10 @@
       <c r="I574" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J574" s="12"/>
+      <c r="J574" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K574" s="12" t="s">
         <v>606</v>
       </c>
@@ -32239,7 +33001,10 @@
       <c r="I575" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J575" s="12"/>
+      <c r="J575" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K575" s="12" t="s">
         <v>606</v>
       </c>
@@ -32283,7 +33048,10 @@
       <c r="I576" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J576" s="12"/>
+      <c r="J576" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K576" s="12" t="s">
         <v>606</v>
       </c>
@@ -32329,7 +33097,10 @@
       <c r="I577" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J577" s="12"/>
+      <c r="J577" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K577" s="12" t="s">
         <v>606</v>
       </c>
@@ -32373,7 +33144,10 @@
       <c r="I578" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J578" s="12"/>
+      <c r="J578" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K578" s="12" t="s">
         <v>606</v>
       </c>
@@ -32417,7 +33191,10 @@
       <c r="I579" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J579" s="12"/>
+      <c r="J579" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K579" s="12" t="s">
         <v>606</v>
       </c>
@@ -32461,7 +33238,10 @@
       <c r="I580" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J580" s="12"/>
+      <c r="J580" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
       <c r="K580" s="12" t="s">
         <v>606</v>
       </c>
@@ -32505,8 +33285,9 @@
       <c r="I581" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J581" s="13" t="s">
-        <v>640</v>
+      <c r="J581" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
       </c>
       <c r="K581" s="13" t="s">
         <v>606</v>
@@ -32543,7 +33324,10 @@
       <c r="I582" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J582" s="9"/>
+      <c r="J582" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P2</v>
+      </c>
       <c r="K582" s="9"/>
       <c r="L582" s="9"/>
       <c r="M582" s="9"/>
@@ -32577,7 +33361,10 @@
       <c r="I583" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J583" s="9"/>
+      <c r="J583" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>P2</v>
+      </c>
       <c r="K583" s="9"/>
       <c r="L583" s="9"/>
       <c r="M583" s="9"/>
@@ -32611,6 +33398,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:Y584" xr:uid="{CD8246AE-DFCC-4B3F-9CC4-F6A1FFD84A0B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Registration Processor"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Real Biometrics Release - Additional"/>
@@ -32620,6 +33412,7 @@
     <filterColumn colId="7">
       <filters>
         <filter val="Vital"/>
+        <filter val="Vital?"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04F44D-178C-453A-A4CE-E0F6EE274D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6269B6C3-7A67-4C89-8FC0-E52E65452873}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="1743">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -5754,6 +5754,12 @@
   </si>
   <si>
     <t>Design, Development, UinitTesting, Manual Testing, Integration</t>
+  </si>
+  <si>
+    <t>To be determined the procedure for this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open JDK is not contians all modules. Need to do the R&amp;D. </t>
   </si>
 </sst>
 </file>
@@ -5993,7 +5999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6074,6 +6080,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6405,13 +6414,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFE7CEB-FADE-4E61-8A23-4DC6C9C8C44B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z586"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F156" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C439" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="E450" sqref="E450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -6442,11 +6452,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6526,7 +6536,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="42" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -6568,7 +6578,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="2:26" ht="112" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -6618,7 +6628,7 @@
       </c>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="2:26" ht="112" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -6668,7 +6678,7 @@
       </c>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="2:26" ht="56" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -6720,7 +6730,7 @@
       </c>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="2:26" ht="98" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -6770,7 +6780,7 @@
       </c>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="2:26" ht="98" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -6822,7 +6832,7 @@
       </c>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="2:26" ht="98" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -6872,7 +6882,7 @@
       </c>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" spans="2:26" ht="112" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -6924,7 +6934,7 @@
       </c>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="2:26" ht="56" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -6974,7 +6984,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="70" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -7018,7 +7028,7 @@
       </c>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="2:26" ht="56" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -7062,7 +7072,7 @@
       </c>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="2:26" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -7104,7 +7114,7 @@
       </c>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -7146,7 +7156,7 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -7186,7 +7196,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -7228,7 +7238,7 @@
       </c>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -7266,7 +7276,7 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -7306,7 +7316,7 @@
       </c>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -7454,7 +7464,7 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -7496,7 +7506,7 @@
       </c>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -7536,7 +7546,7 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="2:25" ht="126" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -7578,7 +7588,7 @@
       </c>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -7618,7 +7628,7 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -7654,7 +7664,7 @@
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
     </row>
-    <row r="31" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -7690,7 +7700,7 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
     </row>
-    <row r="32" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -7732,7 +7742,7 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -7768,7 +7778,7 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -7808,7 +7818,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -7930,7 +7940,7 @@
       </c>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -7974,7 +7984,7 @@
       </c>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="2:25" s="16" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:25" s="16" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -8020,7 +8030,7 @@
       </c>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -8066,7 +8076,7 @@
       </c>
       <c r="Y40" s="12"/>
     </row>
-    <row r="41" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -8112,7 +8122,7 @@
       </c>
       <c r="Y41" s="12"/>
     </row>
-    <row r="42" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -8158,7 +8168,7 @@
       </c>
       <c r="Y42" s="12"/>
     </row>
-    <row r="43" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -8204,7 +8214,7 @@
       </c>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -8254,7 +8264,7 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -8302,7 +8312,7 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
     </row>
-    <row r="46" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:25" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -8352,7 +8362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -8398,7 +8408,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="2:25" ht="112" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -8442,7 +8452,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -8488,7 +8498,7 @@
       </c>
       <c r="Y49" s="12"/>
     </row>
-    <row r="50" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -8534,7 +8544,7 @@
       </c>
       <c r="Y50" s="12"/>
     </row>
-    <row r="51" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -8578,7 +8588,7 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
     </row>
-    <row r="52" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -8624,7 +8634,7 @@
       </c>
       <c r="Y52" s="12"/>
     </row>
-    <row r="53" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -8672,7 +8682,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="54" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -8720,7 +8730,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="55" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -8768,7 +8778,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="56" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -8866,7 +8876,7 @@
       </c>
       <c r="Y57" s="12"/>
     </row>
-    <row r="58" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -8958,7 +8968,7 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
     </row>
-    <row r="60" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -9002,7 +9012,7 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
     </row>
-    <row r="61" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -9046,7 +9056,7 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
     </row>
-    <row r="62" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="7">
         <v>58</v>
       </c>
@@ -9180,7 +9190,7 @@
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
     </row>
-    <row r="65" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>61</v>
       </c>
@@ -9228,7 +9238,7 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
     </row>
-    <row r="66" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="7">
         <v>62</v>
       </c>
@@ -9270,7 +9280,7 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
     </row>
-    <row r="67" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="7">
         <v>63</v>
       </c>
@@ -9312,7 +9322,7 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
     </row>
-    <row r="68" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -9362,7 +9372,7 @@
       </c>
       <c r="Y68" s="12"/>
     </row>
-    <row r="69" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="7">
         <v>65</v>
       </c>
@@ -9406,7 +9416,7 @@
       </c>
       <c r="Y69" s="12"/>
     </row>
-    <row r="70" spans="2:25" ht="112" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="7">
         <v>66</v>
       </c>
@@ -9450,7 +9460,7 @@
       </c>
       <c r="Y70" s="12"/>
     </row>
-    <row r="71" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -9494,7 +9504,7 @@
       </c>
       <c r="Y71" s="12"/>
     </row>
-    <row r="72" spans="2:25" ht="126" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -9536,7 +9546,7 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
     </row>
-    <row r="73" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="7">
         <v>69</v>
       </c>
@@ -9578,7 +9588,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:25" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="7">
         <v>70</v>
       </c>
@@ -9622,7 +9632,7 @@
       </c>
       <c r="Y74" s="4"/>
     </row>
-    <row r="75" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="7">
         <v>71</v>
       </c>
@@ -9666,7 +9676,7 @@
       </c>
       <c r="Y75" s="12"/>
     </row>
-    <row r="76" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="7">
         <v>72</v>
       </c>
@@ -10158,7 +10168,7 @@
       </c>
       <c r="Y85" s="12"/>
     </row>
-    <row r="86" spans="2:25" ht="196" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -10252,7 +10262,7 @@
       </c>
       <c r="Y87" s="12"/>
     </row>
-    <row r="88" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="7">
         <v>84</v>
       </c>
@@ -10296,14 +10306,14 @@
       </c>
       <c r="Y88" s="12"/>
     </row>
-    <row r="89" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="7">
         <v>85</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="30" t="s">
         <v>155</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -10340,14 +10350,14 @@
       </c>
       <c r="Y89" s="12"/>
     </row>
-    <row r="90" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="7">
         <v>86</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="29"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -10382,7 +10392,7 @@
       </c>
       <c r="Y90" s="12"/>
     </row>
-    <row r="91" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="7">
         <v>87</v>
       </c>
@@ -10426,7 +10436,7 @@
       </c>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="7">
         <v>88</v>
       </c>
@@ -10470,7 +10480,7 @@
       </c>
       <c r="Y92" s="12"/>
     </row>
-    <row r="93" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="7">
         <v>89</v>
       </c>
@@ -10514,7 +10524,7 @@
       </c>
       <c r="Y93" s="12"/>
     </row>
-    <row r="94" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="7">
         <v>90</v>
       </c>
@@ -10566,7 +10576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="7">
         <v>91</v>
       </c>
@@ -10610,7 +10620,7 @@
       </c>
       <c r="Y95" s="12"/>
     </row>
-    <row r="96" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="7">
         <v>92</v>
       </c>
@@ -10652,7 +10662,7 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
     </row>
-    <row r="97" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="7">
         <v>93</v>
       </c>
@@ -10744,7 +10754,7 @@
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
     </row>
-    <row r="99" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="7">
         <v>95</v>
       </c>
@@ -10790,7 +10800,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="100" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" s="7">
         <v>96</v>
       </c>
@@ -10834,7 +10844,7 @@
       </c>
       <c r="Y100" s="12"/>
     </row>
-    <row r="101" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" s="7">
         <v>97</v>
       </c>
@@ -10878,7 +10888,7 @@
       </c>
       <c r="Y101" s="12"/>
     </row>
-    <row r="102" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <v>98</v>
       </c>
@@ -10924,7 +10934,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="103" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <v>99</v>
       </c>
@@ -10968,7 +10978,7 @@
       </c>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" s="7">
         <v>100</v>
       </c>
@@ -11012,7 +11022,7 @@
       </c>
       <c r="Y104" s="6"/>
     </row>
-    <row r="105" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" s="7">
         <v>101</v>
       </c>
@@ -11056,7 +11066,7 @@
       </c>
       <c r="Y105" s="6"/>
     </row>
-    <row r="106" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" s="7">
         <v>102</v>
       </c>
@@ -11098,7 +11108,7 @@
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
     </row>
-    <row r="107" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="7">
         <v>103</v>
       </c>
@@ -11146,7 +11156,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="108" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="7">
         <v>104</v>
       </c>
@@ -11194,7 +11204,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="109" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="7">
         <v>105</v>
       </c>
@@ -11242,7 +11252,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="7">
         <v>106</v>
       </c>
@@ -11290,7 +11300,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="111" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="7">
         <v>107</v>
       </c>
@@ -11338,7 +11348,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="112" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="7">
         <v>108</v>
       </c>
@@ -11386,7 +11396,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="113" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="7">
         <v>109</v>
       </c>
@@ -11434,7 +11444,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="114" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="7">
         <v>110</v>
       </c>
@@ -11482,7 +11492,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="115" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="7">
         <v>111</v>
       </c>
@@ -11584,7 +11594,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="117" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="7">
         <v>113</v>
       </c>
@@ -11632,7 +11642,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="118" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="7">
         <v>114</v>
       </c>
@@ -11680,7 +11690,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="119" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="7">
         <v>115</v>
       </c>
@@ -11728,7 +11738,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="120" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="7">
         <v>116</v>
       </c>
@@ -11776,7 +11786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="7">
         <v>117</v>
       </c>
@@ -11824,7 +11834,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="122" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="7">
         <v>118</v>
       </c>
@@ -11870,7 +11880,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="123" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="7">
         <v>119</v>
       </c>
@@ -11918,7 +11928,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="124" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="7">
         <v>120</v>
       </c>
@@ -11966,7 +11976,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="125" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="7">
         <v>121</v>
       </c>
@@ -12014,7 +12024,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="126" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="7">
         <v>122</v>
       </c>
@@ -12068,7 +12078,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="127" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="7">
         <v>123</v>
       </c>
@@ -12118,7 +12128,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="128" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="7">
         <v>124</v>
       </c>
@@ -12166,7 +12176,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="129" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="7">
         <v>125</v>
       </c>
@@ -12214,7 +12224,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="130" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="7">
         <v>126</v>
       </c>
@@ -12262,7 +12272,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="131" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="7">
         <v>127</v>
       </c>
@@ -12310,7 +12320,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="132" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="7">
         <v>128</v>
       </c>
@@ -12358,7 +12368,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="133" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="7">
         <v>129</v>
       </c>
@@ -12408,7 +12418,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="134" spans="2:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:25" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="7">
         <v>130</v>
       </c>
@@ -12450,7 +12460,7 @@
       <c r="X134" s="12"/>
       <c r="Y134" s="12"/>
     </row>
-    <row r="135" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" s="7">
         <v>131</v>
       </c>
@@ -12494,7 +12504,7 @@
       <c r="X135" s="12"/>
       <c r="Y135" s="12"/>
     </row>
-    <row r="136" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" s="7">
         <v>132</v>
       </c>
@@ -12571,7 +12581,9 @@
         <v>679</v>
       </c>
       <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
+      <c r="N137" s="12">
+        <v>10</v>
+      </c>
       <c r="O137" s="12"/>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -12584,7 +12596,7 @@
       <c r="X137" s="12"/>
       <c r="Y137" s="12"/>
     </row>
-    <row r="138" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" s="7">
         <v>134</v>
       </c>
@@ -12659,7 +12671,9 @@
         <v>679</v>
       </c>
       <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
+      <c r="N139" s="12">
+        <v>10</v>
+      </c>
       <c r="O139" s="12"/>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -12672,7 +12686,7 @@
       <c r="X139" s="12"/>
       <c r="Y139" s="12"/>
     </row>
-    <row r="140" spans="2:25" ht="182" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:25" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" s="7">
         <v>136</v>
       </c>
@@ -12751,7 +12765,9 @@
       <c r="M141" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="N141" s="12"/>
+      <c r="N141" s="12">
+        <v>30</v>
+      </c>
       <c r="O141" s="12"/>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -12797,7 +12813,9 @@
       <c r="M142" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="N142" s="12"/>
+      <c r="N142" s="12">
+        <v>20</v>
+      </c>
       <c r="O142" s="12"/>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -12839,7 +12857,9 @@
       </c>
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
+      <c r="N143" s="12">
+        <v>20</v>
+      </c>
       <c r="O143" s="12"/>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -12885,7 +12905,9 @@
       <c r="M144" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N144" s="12"/>
+      <c r="N144" s="12">
+        <v>20</v>
+      </c>
       <c r="O144" s="12"/>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -12931,7 +12953,9 @@
       <c r="M145" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N145" s="12"/>
+      <c r="N145" s="12">
+        <v>20</v>
+      </c>
       <c r="O145" s="12"/>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -12975,7 +12999,9 @@
       <c r="M146" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N146" s="12"/>
+      <c r="N146" s="12">
+        <v>20</v>
+      </c>
       <c r="O146" s="12"/>
       <c r="P146" s="12"/>
       <c r="Q146" s="12"/>
@@ -13029,7 +13055,9 @@
       <c r="U147" s="12"/>
       <c r="V147" s="12"/>
       <c r="W147" s="12"/>
-      <c r="X147" s="12"/>
+      <c r="X147" s="29" t="s">
+        <v>1741</v>
+      </c>
       <c r="Y147" s="12"/>
     </row>
     <row r="148" spans="2:25" ht="28" x14ac:dyDescent="0.35">
@@ -13059,7 +13087,9 @@
       </c>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
-      <c r="N148" s="13"/>
+      <c r="N148" s="13">
+        <v>200</v>
+      </c>
       <c r="O148" s="13"/>
       <c r="P148" s="13"/>
       <c r="Q148" s="13"/>
@@ -13069,7 +13099,9 @@
       <c r="U148" s="13"/>
       <c r="V148" s="13"/>
       <c r="W148" s="13"/>
-      <c r="X148" s="13"/>
+      <c r="X148" s="29" t="s">
+        <v>1742</v>
+      </c>
       <c r="Y148" s="13"/>
     </row>
     <row r="149" spans="2:25" ht="28" x14ac:dyDescent="0.35">
@@ -13101,7 +13133,9 @@
       <c r="M149" s="25" t="s">
         <v>1728</v>
       </c>
-      <c r="N149" s="13"/>
+      <c r="N149" s="13">
+        <v>30</v>
+      </c>
       <c r="O149" s="13"/>
       <c r="P149" s="13"/>
       <c r="Q149" s="13"/>
@@ -13145,7 +13179,9 @@
       </c>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
-      <c r="N150" s="13"/>
+      <c r="N150" s="13">
+        <v>30</v>
+      </c>
       <c r="O150" s="13"/>
       <c r="P150" s="13"/>
       <c r="Q150" s="13"/>
@@ -13158,7 +13194,7 @@
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" s="7">
         <v>147</v>
       </c>
@@ -13202,7 +13238,7 @@
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
     </row>
-    <row r="152" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" s="7">
         <v>148</v>
       </c>
@@ -13246,7 +13282,7 @@
       <c r="X152" s="12"/>
       <c r="Y152" s="12"/>
     </row>
-    <row r="153" spans="2:25" ht="126" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" s="7">
         <v>149</v>
       </c>
@@ -13292,7 +13328,7 @@
       </c>
       <c r="Y153" s="12"/>
     </row>
-    <row r="154" spans="2:25" ht="266" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:25" ht="266" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>150</v>
       </c>
@@ -13340,7 +13376,7 @@
       </c>
       <c r="Y154" s="12"/>
     </row>
-    <row r="155" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B155" s="7">
         <v>151</v>
       </c>
@@ -13438,7 +13474,7 @@
       </c>
       <c r="Y156" s="12"/>
     </row>
-    <row r="157" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" s="7">
         <v>153</v>
       </c>
@@ -13484,7 +13520,7 @@
       </c>
       <c r="Y157" s="12"/>
     </row>
-    <row r="158" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" s="7">
         <v>154</v>
       </c>
@@ -13580,7 +13616,7 @@
       </c>
       <c r="Y159" s="12"/>
     </row>
-    <row r="160" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B160" s="7">
         <v>156</v>
       </c>
@@ -13624,7 +13660,7 @@
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
     </row>
-    <row r="161" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B161" s="7">
         <v>157</v>
       </c>
@@ -13668,7 +13704,7 @@
       <c r="X161" s="12"/>
       <c r="Y161" s="12"/>
     </row>
-    <row r="162" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" s="7">
         <v>158</v>
       </c>
@@ -13714,7 +13750,7 @@
       </c>
       <c r="Y162" s="12"/>
     </row>
-    <row r="163" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" s="7">
         <v>159</v>
       </c>
@@ -13758,7 +13794,7 @@
       <c r="X163" s="12"/>
       <c r="Y163" s="12"/>
     </row>
-    <row r="164" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" s="7">
         <v>160</v>
       </c>
@@ -13802,7 +13838,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
     </row>
-    <row r="165" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" s="7">
         <v>161</v>
       </c>
@@ -13846,7 +13882,7 @@
       <c r="X165" s="12"/>
       <c r="Y165" s="12"/>
     </row>
-    <row r="166" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:25" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="7">
         <v>162</v>
       </c>
@@ -13940,7 +13976,7 @@
       </c>
       <c r="Y167" s="12"/>
     </row>
-    <row r="168" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" s="7">
         <v>164</v>
       </c>
@@ -13986,7 +14022,7 @@
       </c>
       <c r="Y168" s="12"/>
     </row>
-    <row r="169" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" s="7">
         <v>165</v>
       </c>
@@ -14032,7 +14068,7 @@
       </c>
       <c r="Y169" s="12"/>
     </row>
-    <row r="170" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B170" s="7">
         <v>166</v>
       </c>
@@ -14228,7 +14264,7 @@
       </c>
       <c r="Y173" s="12"/>
     </row>
-    <row r="174" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B174" s="7">
         <v>170</v>
       </c>
@@ -15194,7 +15230,7 @@
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" s="7">
         <v>190</v>
       </c>
@@ -15292,7 +15328,7 @@
       <c r="X195" s="12"/>
       <c r="Y195" s="12"/>
     </row>
-    <row r="196" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" s="7">
         <v>192</v>
       </c>
@@ -15342,7 +15378,7 @@
       </c>
       <c r="Y196" s="12"/>
     </row>
-    <row r="197" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" s="7">
         <v>193</v>
       </c>
@@ -15842,7 +15878,7 @@
       <c r="X206" s="12"/>
       <c r="Y206" s="12"/>
     </row>
-    <row r="207" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" s="7">
         <v>203</v>
       </c>
@@ -15888,7 +15924,7 @@
       <c r="X207" s="12"/>
       <c r="Y207" s="12"/>
     </row>
-    <row r="208" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" s="7">
         <v>204</v>
       </c>
@@ -15934,7 +15970,7 @@
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
     </row>
-    <row r="209" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" s="7">
         <v>205</v>
       </c>
@@ -15980,7 +16016,7 @@
       </c>
       <c r="Y209" s="12"/>
     </row>
-    <row r="210" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B210" s="7">
         <v>206</v>
       </c>
@@ -16026,7 +16062,7 @@
       </c>
       <c r="Y210" s="12"/>
     </row>
-    <row r="211" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B211" s="7">
         <v>207</v>
       </c>
@@ -16078,7 +16114,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="212" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" s="7">
         <v>208</v>
       </c>
@@ -16124,7 +16160,7 @@
       <c r="X212" s="12"/>
       <c r="Y212" s="12"/>
     </row>
-    <row r="213" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B213" s="7">
         <v>209</v>
       </c>
@@ -16224,7 +16260,7 @@
       </c>
       <c r="Y214" s="12"/>
     </row>
-    <row r="215" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B215" s="7">
         <v>211</v>
       </c>
@@ -16326,7 +16362,7 @@
       </c>
       <c r="Y216" s="12"/>
     </row>
-    <row r="217" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B217" s="7">
         <v>213</v>
       </c>
@@ -16372,7 +16408,7 @@
       <c r="X217" s="12"/>
       <c r="Y217" s="12"/>
     </row>
-    <row r="218" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B218" s="7">
         <v>214</v>
       </c>
@@ -16418,7 +16454,7 @@
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
     </row>
-    <row r="219" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B219" s="7">
         <v>215</v>
       </c>
@@ -16464,7 +16500,7 @@
       <c r="X219" s="12"/>
       <c r="Y219" s="12"/>
     </row>
-    <row r="220" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B220" s="7">
         <v>216</v>
       </c>
@@ -16664,7 +16700,7 @@
       <c r="X223" s="12"/>
       <c r="Y223" s="12"/>
     </row>
-    <row r="224" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B224" s="7">
         <v>220</v>
       </c>
@@ -16714,7 +16750,7 @@
       </c>
       <c r="Y224" s="12"/>
     </row>
-    <row r="225" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B225" s="7">
         <v>221</v>
       </c>
@@ -16764,7 +16800,7 @@
       <c r="X225" s="12"/>
       <c r="Y225" s="12"/>
     </row>
-    <row r="226" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B226" s="7">
         <v>222</v>
       </c>
@@ -16814,7 +16850,7 @@
       </c>
       <c r="Y226" s="12"/>
     </row>
-    <row r="227" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:25" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="7">
         <v>223</v>
       </c>
@@ -16858,7 +16894,7 @@
       <c r="X227" s="12"/>
       <c r="Y227" s="12"/>
     </row>
-    <row r="228" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B228" s="7">
         <v>224</v>
       </c>
@@ -16902,7 +16938,7 @@
       <c r="X228" s="12"/>
       <c r="Y228" s="12"/>
     </row>
-    <row r="229" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B229" s="7">
         <v>225</v>
       </c>
@@ -16946,7 +16982,7 @@
       <c r="X229" s="12"/>
       <c r="Y229" s="12"/>
     </row>
-    <row r="230" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B230" s="7">
         <v>226</v>
       </c>
@@ -16996,7 +17032,7 @@
       </c>
       <c r="Y230" s="12"/>
     </row>
-    <row r="231" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B231" s="7">
         <v>227</v>
       </c>
@@ -17044,7 +17080,7 @@
       <c r="X231" s="12"/>
       <c r="Y231" s="12"/>
     </row>
-    <row r="232" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B232" s="7">
         <v>228</v>
       </c>
@@ -17092,7 +17128,7 @@
       <c r="X232" s="12"/>
       <c r="Y232" s="12"/>
     </row>
-    <row r="233" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B233" s="7">
         <v>229</v>
       </c>
@@ -17142,7 +17178,7 @@
       <c r="X233" s="12"/>
       <c r="Y233" s="12"/>
     </row>
-    <row r="234" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B234" s="7">
         <v>230</v>
       </c>
@@ -17240,7 +17276,7 @@
       <c r="X235" s="12"/>
       <c r="Y235" s="12"/>
     </row>
-    <row r="236" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B236" s="7">
         <v>232</v>
       </c>
@@ -17286,7 +17322,7 @@
       <c r="X236" s="12"/>
       <c r="Y236" s="12"/>
     </row>
-    <row r="237" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B237" s="7">
         <v>233</v>
       </c>
@@ -17698,7 +17734,7 @@
       <c r="X245" s="12"/>
       <c r="Y245" s="12"/>
     </row>
-    <row r="246" spans="2:25" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:25" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B246" s="7">
         <v>242</v>
       </c>
@@ -17850,7 +17886,7 @@
       </c>
       <c r="Y248" s="12"/>
     </row>
-    <row r="249" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B249" s="7">
         <v>245</v>
       </c>
@@ -18196,7 +18232,7 @@
       <c r="X256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B257" s="7">
         <v>253</v>
       </c>
@@ -18396,7 +18432,7 @@
       </c>
       <c r="Y260" s="12"/>
     </row>
-    <row r="261" spans="1:25" s="16" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:25" s="16" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B261" s="7">
         <v>257</v>
       </c>
@@ -18446,7 +18482,7 @@
       </c>
       <c r="Y261" s="10"/>
     </row>
-    <row r="262" spans="1:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="16"/>
       <c r="B262" s="7">
         <v>258</v>
@@ -18497,7 +18533,7 @@
       </c>
       <c r="Y262" s="12"/>
     </row>
-    <row r="263" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B263" s="7">
         <v>259</v>
       </c>
@@ -18547,7 +18583,7 @@
       </c>
       <c r="Y263" s="12"/>
     </row>
-    <row r="264" spans="1:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B264" s="7">
         <v>260</v>
       </c>
@@ -19033,7 +19069,7 @@
       <c r="X273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B274" s="7">
         <v>270</v>
       </c>
@@ -19073,7 +19109,7 @@
       </c>
       <c r="Y274" s="12"/>
     </row>
-    <row r="275" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B275" s="7">
         <v>271</v>
       </c>
@@ -19113,7 +19149,7 @@
       </c>
       <c r="Y275" s="12"/>
     </row>
-    <row r="276" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B276" s="7">
         <v>272</v>
       </c>
@@ -19153,7 +19189,7 @@
       </c>
       <c r="Y276" s="12"/>
     </row>
-    <row r="277" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B277" s="7">
         <v>273</v>
       </c>
@@ -19193,7 +19229,7 @@
       </c>
       <c r="Y277" s="12"/>
     </row>
-    <row r="278" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B278" s="7">
         <v>274</v>
       </c>
@@ -19233,7 +19269,7 @@
       </c>
       <c r="Y278" s="12"/>
     </row>
-    <row r="279" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B279" s="7">
         <v>275</v>
       </c>
@@ -19273,7 +19309,7 @@
       </c>
       <c r="Y279" s="12"/>
     </row>
-    <row r="280" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B280" s="7">
         <v>276</v>
       </c>
@@ -19317,7 +19353,7 @@
       </c>
       <c r="Y280" s="12"/>
     </row>
-    <row r="281" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B281" s="7">
         <v>277</v>
       </c>
@@ -19357,7 +19393,7 @@
       </c>
       <c r="Y281" s="12"/>
     </row>
-    <row r="282" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B282" s="7">
         <v>278</v>
       </c>
@@ -19397,7 +19433,7 @@
       </c>
       <c r="Y282" s="12"/>
     </row>
-    <row r="283" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B283" s="7">
         <v>279</v>
       </c>
@@ -19439,7 +19475,7 @@
       </c>
       <c r="Y283" s="12"/>
     </row>
-    <row r="284" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B284" s="7">
         <v>280</v>
       </c>
@@ -19481,7 +19517,7 @@
       </c>
       <c r="Y284" s="12"/>
     </row>
-    <row r="285" spans="2:25" ht="112" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B285" s="7">
         <v>281</v>
       </c>
@@ -19531,7 +19567,7 @@
       </c>
       <c r="Y285" s="12"/>
     </row>
-    <row r="286" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B286" s="7">
         <v>282</v>
       </c>
@@ -19573,7 +19609,7 @@
       </c>
       <c r="Y286" s="12"/>
     </row>
-    <row r="287" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B287" s="7">
         <v>283</v>
       </c>
@@ -19613,7 +19649,7 @@
       </c>
       <c r="Y287" s="12"/>
     </row>
-    <row r="288" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B288" s="7">
         <v>284</v>
       </c>
@@ -19663,7 +19699,7 @@
       </c>
       <c r="Y288" s="12"/>
     </row>
-    <row r="289" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B289" s="7">
         <v>285</v>
       </c>
@@ -19709,7 +19745,7 @@
       </c>
       <c r="Y289" s="12"/>
     </row>
-    <row r="290" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B290" s="7">
         <v>286</v>
       </c>
@@ -19749,7 +19785,7 @@
       </c>
       <c r="Y290" s="12"/>
     </row>
-    <row r="291" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B291" s="7">
         <v>287</v>
       </c>
@@ -19789,7 +19825,7 @@
       </c>
       <c r="Y291" s="12"/>
     </row>
-    <row r="292" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B292" s="7">
         <v>288</v>
       </c>
@@ -19831,7 +19867,7 @@
       </c>
       <c r="Y292" s="12"/>
     </row>
-    <row r="293" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B293" s="7">
         <v>289</v>
       </c>
@@ -19877,7 +19913,7 @@
       </c>
       <c r="Y293" s="12"/>
     </row>
-    <row r="294" spans="2:25" ht="182" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:25" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="B294" s="7">
         <v>290</v>
       </c>
@@ -19927,7 +19963,7 @@
       </c>
       <c r="Y294" s="12"/>
     </row>
-    <row r="295" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B295" s="7">
         <v>291</v>
       </c>
@@ -19967,7 +20003,7 @@
       </c>
       <c r="Y295" s="12"/>
     </row>
-    <row r="296" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B296" s="7">
         <v>292</v>
       </c>
@@ -20007,7 +20043,7 @@
       </c>
       <c r="Y296" s="12"/>
     </row>
-    <row r="297" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B297" s="7">
         <v>293</v>
       </c>
@@ -20047,7 +20083,7 @@
       </c>
       <c r="Y297" s="12"/>
     </row>
-    <row r="298" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B298" s="7">
         <v>294</v>
       </c>
@@ -20087,7 +20123,7 @@
       </c>
       <c r="Y298" s="12"/>
     </row>
-    <row r="299" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B299" s="7">
         <v>295</v>
       </c>
@@ -20127,7 +20163,7 @@
       </c>
       <c r="Y299" s="12"/>
     </row>
-    <row r="300" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B300" s="7">
         <v>296</v>
       </c>
@@ -20167,7 +20203,7 @@
       </c>
       <c r="Y300" s="12"/>
     </row>
-    <row r="301" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B301" s="7">
         <v>297</v>
       </c>
@@ -20207,7 +20243,7 @@
       </c>
       <c r="Y301" s="12"/>
     </row>
-    <row r="302" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B302" s="7">
         <v>298</v>
       </c>
@@ -20249,7 +20285,7 @@
       </c>
       <c r="Y302" s="12"/>
     </row>
-    <row r="303" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B303" s="7">
         <v>299</v>
       </c>
@@ -20291,7 +20327,7 @@
       </c>
       <c r="Y303" s="12"/>
     </row>
-    <row r="304" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B304" s="7">
         <v>300</v>
       </c>
@@ -20333,7 +20369,7 @@
       </c>
       <c r="Y304" s="12"/>
     </row>
-    <row r="305" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B305" s="7">
         <v>301</v>
       </c>
@@ -20375,7 +20411,7 @@
       </c>
       <c r="Y305" s="12"/>
     </row>
-    <row r="306" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B306" s="7">
         <v>302</v>
       </c>
@@ -20417,7 +20453,7 @@
       </c>
       <c r="Y306" s="12"/>
     </row>
-    <row r="307" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B307" s="7">
         <v>303</v>
       </c>
@@ -20457,7 +20493,7 @@
       </c>
       <c r="Y307" s="12"/>
     </row>
-    <row r="308" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B308" s="7">
         <v>304</v>
       </c>
@@ -20497,7 +20533,7 @@
       </c>
       <c r="Y308" s="12"/>
     </row>
-    <row r="309" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B309" s="7">
         <v>305</v>
       </c>
@@ -20535,7 +20571,7 @@
       </c>
       <c r="Y309" s="12"/>
     </row>
-    <row r="310" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B310" s="7">
         <v>306</v>
       </c>
@@ -20573,7 +20609,7 @@
       </c>
       <c r="Y310" s="12"/>
     </row>
-    <row r="311" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B311" s="7">
         <v>307</v>
       </c>
@@ -20611,7 +20647,7 @@
       </c>
       <c r="Y311" s="12"/>
     </row>
-    <row r="312" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B312" s="7">
         <v>308</v>
       </c>
@@ -20649,7 +20685,7 @@
       </c>
       <c r="Y312" s="12"/>
     </row>
-    <row r="313" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B313" s="7">
         <v>309</v>
       </c>
@@ -20691,7 +20727,7 @@
       </c>
       <c r="Y313" s="12"/>
     </row>
-    <row r="314" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B314" s="7">
         <v>310</v>
       </c>
@@ -20731,7 +20767,7 @@
       </c>
       <c r="Y314" s="12"/>
     </row>
-    <row r="315" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B315" s="7">
         <v>311</v>
       </c>
@@ -20771,7 +20807,7 @@
       </c>
       <c r="Y315" s="12"/>
     </row>
-    <row r="316" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B316" s="7">
         <v>312</v>
       </c>
@@ -20811,7 +20847,7 @@
       </c>
       <c r="Y316" s="12"/>
     </row>
-    <row r="317" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B317" s="7">
         <v>313</v>
       </c>
@@ -20849,7 +20885,7 @@
       </c>
       <c r="Y317" s="12"/>
     </row>
-    <row r="318" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B318" s="7">
         <v>314</v>
       </c>
@@ -20887,7 +20923,7 @@
       </c>
       <c r="Y318" s="12"/>
     </row>
-    <row r="319" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B319" s="7">
         <v>315</v>
       </c>
@@ -20925,7 +20961,7 @@
       </c>
       <c r="Y319" s="12"/>
     </row>
-    <row r="320" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B320" s="7">
         <v>316</v>
       </c>
@@ -20965,7 +21001,7 @@
       </c>
       <c r="Y320" s="12"/>
     </row>
-    <row r="321" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B321" s="7">
         <v>317</v>
       </c>
@@ -21005,7 +21041,7 @@
       </c>
       <c r="Y321" s="12"/>
     </row>
-    <row r="322" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B322" s="7">
         <v>318</v>
       </c>
@@ -21045,7 +21081,7 @@
       </c>
       <c r="Y322" s="12"/>
     </row>
-    <row r="323" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B323" s="7">
         <v>319</v>
       </c>
@@ -21087,7 +21123,7 @@
       </c>
       <c r="Y323" s="12"/>
     </row>
-    <row r="324" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B324" s="7">
         <v>320</v>
       </c>
@@ -21129,7 +21165,7 @@
       </c>
       <c r="Y324" s="12"/>
     </row>
-    <row r="325" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B325" s="7">
         <v>321</v>
       </c>
@@ -21171,7 +21207,7 @@
       </c>
       <c r="Y325" s="12"/>
     </row>
-    <row r="326" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B326" s="7">
         <v>322</v>
       </c>
@@ -21217,7 +21253,7 @@
       </c>
       <c r="Y326" s="12"/>
     </row>
-    <row r="327" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B327" s="7">
         <v>323</v>
       </c>
@@ -21255,7 +21291,7 @@
       </c>
       <c r="Y327" s="12"/>
     </row>
-    <row r="328" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B328" s="7">
         <v>324</v>
       </c>
@@ -21297,7 +21333,7 @@
       </c>
       <c r="Y328" s="12"/>
     </row>
-    <row r="329" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B329" s="7">
         <v>325</v>
       </c>
@@ -21340,7 +21376,7 @@
       </c>
       <c r="Y329" s="12"/>
     </row>
-    <row r="330" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B330" s="7">
         <v>326</v>
       </c>
@@ -21383,7 +21419,7 @@
       <c r="X330" s="12"/>
       <c r="Y330" s="12"/>
     </row>
-    <row r="331" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:25" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="7">
         <v>327</v>
       </c>
@@ -21424,7 +21460,7 @@
       <c r="X331" s="12"/>
       <c r="Y331" s="12"/>
     </row>
-    <row r="332" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B332" s="7">
         <v>328</v>
       </c>
@@ -21467,7 +21503,7 @@
       </c>
       <c r="Y332" s="12"/>
     </row>
-    <row r="333" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B333" s="7">
         <v>329</v>
       </c>
@@ -21510,7 +21546,7 @@
       </c>
       <c r="Y333" s="12"/>
     </row>
-    <row r="334" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B334" s="7">
         <v>330</v>
       </c>
@@ -21553,7 +21589,7 @@
       </c>
       <c r="Y334" s="12"/>
     </row>
-    <row r="335" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B335" s="7">
         <v>331</v>
       </c>
@@ -21600,7 +21636,7 @@
       </c>
       <c r="Y335" s="12"/>
     </row>
-    <row r="336" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B336" s="7">
         <v>332</v>
       </c>
@@ -21647,7 +21683,7 @@
       </c>
       <c r="Y336" s="12"/>
     </row>
-    <row r="337" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B337" s="7">
         <v>333</v>
       </c>
@@ -21694,7 +21730,7 @@
       </c>
       <c r="Y337" s="12"/>
     </row>
-    <row r="338" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B338" s="7">
         <v>334</v>
       </c>
@@ -21741,7 +21777,7 @@
       </c>
       <c r="Y338" s="12"/>
     </row>
-    <row r="339" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B339" s="7">
         <v>335</v>
       </c>
@@ -21788,7 +21824,7 @@
       </c>
       <c r="Y339" s="12"/>
     </row>
-    <row r="340" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B340" s="7">
         <v>336</v>
       </c>
@@ -21882,7 +21918,7 @@
       <c r="X341" s="12"/>
       <c r="Y341" s="12"/>
     </row>
-    <row r="342" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B342" s="7">
         <v>338</v>
       </c>
@@ -21976,7 +22012,7 @@
       <c r="X343" s="12"/>
       <c r="Y343" s="12"/>
     </row>
-    <row r="344" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B344" s="7">
         <v>340</v>
       </c>
@@ -22707,7 +22743,7 @@
       <c r="X358" s="12"/>
       <c r="Y358" s="12"/>
     </row>
-    <row r="359" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B359" s="7">
         <v>355</v>
       </c>
@@ -22850,7 +22886,7 @@
       <c r="X361" s="12"/>
       <c r="Y361" s="12"/>
     </row>
-    <row r="362" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B362" s="7">
         <v>358</v>
       </c>
@@ -22944,7 +22980,7 @@
       <c r="X363" s="12"/>
       <c r="Y363" s="12"/>
     </row>
-    <row r="364" spans="2:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:25" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B364" s="7">
         <v>360</v>
       </c>
@@ -23136,7 +23172,7 @@
       <c r="X367" s="12"/>
       <c r="Y367" s="12"/>
     </row>
-    <row r="368" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B368" s="7">
         <v>364</v>
       </c>
@@ -23230,7 +23266,7 @@
       <c r="X369" s="12"/>
       <c r="Y369" s="12"/>
     </row>
-    <row r="370" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B370" s="7">
         <v>366</v>
       </c>
@@ -23373,7 +23409,7 @@
       <c r="X372" s="12"/>
       <c r="Y372" s="12"/>
     </row>
-    <row r="373" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B373" s="7">
         <v>369</v>
       </c>
@@ -23467,7 +23503,7 @@
       <c r="X374" s="12"/>
       <c r="Y374" s="12"/>
     </row>
-    <row r="375" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B375" s="7">
         <v>371</v>
       </c>
@@ -23514,7 +23550,7 @@
       </c>
       <c r="Y375" s="12"/>
     </row>
-    <row r="376" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B376" s="7">
         <v>372</v>
       </c>
@@ -23561,7 +23597,7 @@
       </c>
       <c r="Y376" s="12"/>
     </row>
-    <row r="377" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B377" s="7">
         <v>373</v>
       </c>
@@ -23606,7 +23642,7 @@
       <c r="X377" s="12"/>
       <c r="Y377" s="12"/>
     </row>
-    <row r="378" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B378" s="7">
         <v>374</v>
       </c>
@@ -23749,7 +23785,7 @@
       <c r="X380" s="12"/>
       <c r="Y380" s="12"/>
     </row>
-    <row r="381" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B381" s="7">
         <v>377</v>
       </c>
@@ -23892,7 +23928,7 @@
       <c r="X383" s="12"/>
       <c r="Y383" s="12"/>
     </row>
-    <row r="384" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B384" s="7">
         <v>380</v>
       </c>
@@ -23937,7 +23973,7 @@
       <c r="X384" s="12"/>
       <c r="Y384" s="12"/>
     </row>
-    <row r="385" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B385" s="7">
         <v>381</v>
       </c>
@@ -24080,7 +24116,7 @@
       <c r="X387" s="12"/>
       <c r="Y387" s="12"/>
     </row>
-    <row r="388" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B388" s="7">
         <v>384</v>
       </c>
@@ -24125,7 +24161,7 @@
       <c r="X388" s="12"/>
       <c r="Y388" s="12"/>
     </row>
-    <row r="389" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B389" s="7">
         <v>385</v>
       </c>
@@ -24219,7 +24255,7 @@
       <c r="X390" s="12"/>
       <c r="Y390" s="12"/>
     </row>
-    <row r="391" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B391" s="7">
         <v>387</v>
       </c>
@@ -24313,7 +24349,7 @@
       <c r="X392" s="12"/>
       <c r="Y392" s="12"/>
     </row>
-    <row r="393" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B393" s="7">
         <v>389</v>
       </c>
@@ -24358,7 +24394,7 @@
       <c r="X393" s="12"/>
       <c r="Y393" s="12"/>
     </row>
-    <row r="394" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B394" s="7">
         <v>390</v>
       </c>
@@ -24452,7 +24488,7 @@
       <c r="X395" s="12"/>
       <c r="Y395" s="12"/>
     </row>
-    <row r="396" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B396" s="7">
         <v>392</v>
       </c>
@@ -24595,7 +24631,7 @@
       <c r="X398" s="12"/>
       <c r="Y398" s="12"/>
     </row>
-    <row r="399" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B399" s="7">
         <v>395</v>
       </c>
@@ -24642,7 +24678,7 @@
       </c>
       <c r="Y399" s="12"/>
     </row>
-    <row r="400" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B400" s="7">
         <v>396</v>
       </c>
@@ -24689,7 +24725,7 @@
       </c>
       <c r="Y400" s="12"/>
     </row>
-    <row r="401" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B401" s="7">
         <v>397</v>
       </c>
@@ -24734,7 +24770,7 @@
       <c r="X401" s="12"/>
       <c r="Y401" s="12"/>
     </row>
-    <row r="402" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B402" s="7">
         <v>398</v>
       </c>
@@ -24781,7 +24817,7 @@
       </c>
       <c r="Y402" s="12"/>
     </row>
-    <row r="403" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B403" s="7">
         <v>399</v>
       </c>
@@ -24875,7 +24911,7 @@
       <c r="X404" s="12"/>
       <c r="Y404" s="12"/>
     </row>
-    <row r="405" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B405" s="7">
         <v>401</v>
       </c>
@@ -24920,7 +24956,7 @@
       <c r="X405" s="12"/>
       <c r="Y405" s="12"/>
     </row>
-    <row r="406" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B406" s="7">
         <v>402</v>
       </c>
@@ -25014,7 +25050,7 @@
       <c r="X407" s="12"/>
       <c r="Y407" s="12"/>
     </row>
-    <row r="408" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B408" s="7">
         <v>404</v>
       </c>
@@ -25157,7 +25193,7 @@
       <c r="X410" s="12"/>
       <c r="Y410" s="12"/>
     </row>
-    <row r="411" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B411" s="7">
         <v>407</v>
       </c>
@@ -25253,7 +25289,7 @@
       <c r="X412" s="12"/>
       <c r="Y412" s="12"/>
     </row>
-    <row r="413" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B413" s="7">
         <v>409</v>
       </c>
@@ -25349,7 +25385,7 @@
       <c r="X414" s="12"/>
       <c r="Y414" s="12"/>
     </row>
-    <row r="415" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B415" s="7">
         <v>411</v>
       </c>
@@ -25443,7 +25479,7 @@
       <c r="X416" s="12"/>
       <c r="Y416" s="12"/>
     </row>
-    <row r="417" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B417" s="7">
         <v>413</v>
       </c>
@@ -25586,7 +25622,7 @@
       <c r="X419" s="12"/>
       <c r="Y419" s="12"/>
     </row>
-    <row r="420" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B420" s="7">
         <v>416</v>
       </c>
@@ -25729,7 +25765,7 @@
       <c r="X422" s="12"/>
       <c r="Y422" s="12"/>
     </row>
-    <row r="423" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B423" s="7">
         <v>419</v>
       </c>
@@ -25774,7 +25810,7 @@
       <c r="X423" s="12"/>
       <c r="Y423" s="12"/>
     </row>
-    <row r="424" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B424" s="7">
         <v>420</v>
       </c>
@@ -26113,7 +26149,7 @@
       <c r="X430" s="12"/>
       <c r="Y430" s="12"/>
     </row>
-    <row r="431" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B431" s="7">
         <v>427</v>
       </c>
@@ -26407,7 +26443,7 @@
       <c r="X436" s="12"/>
       <c r="Y436" s="12"/>
     </row>
-    <row r="437" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B437" s="7">
         <v>433</v>
       </c>
@@ -26454,7 +26490,7 @@
       </c>
       <c r="Y437" s="12"/>
     </row>
-    <row r="438" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B438" s="7">
         <v>434</v>
       </c>
@@ -26746,7 +26782,7 @@
       <c r="X443" s="12"/>
       <c r="Y443" s="12"/>
     </row>
-    <row r="444" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B444" s="7">
         <v>440</v>
       </c>
@@ -26791,7 +26827,7 @@
       <c r="X444" s="12"/>
       <c r="Y444" s="12"/>
     </row>
-    <row r="445" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B445" s="7">
         <v>441</v>
       </c>
@@ -26836,7 +26872,7 @@
       <c r="X445" s="12"/>
       <c r="Y445" s="12"/>
     </row>
-    <row r="446" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B446" s="7">
         <v>442</v>
       </c>
@@ -26883,7 +26919,7 @@
       </c>
       <c r="Y446" s="12"/>
     </row>
-    <row r="447" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B447" s="7">
         <v>443</v>
       </c>
@@ -26979,7 +27015,7 @@
       <c r="X448" s="12"/>
       <c r="Y448" s="12"/>
     </row>
-    <row r="449" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B449" s="7">
         <v>445</v>
       </c>
@@ -27073,7 +27109,7 @@
       <c r="X450" s="12"/>
       <c r="Y450" s="12"/>
     </row>
-    <row r="451" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B451" s="7">
         <v>447</v>
       </c>
@@ -27120,7 +27156,7 @@
       </c>
       <c r="Y451" s="12"/>
     </row>
-    <row r="452" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B452" s="7">
         <v>448</v>
       </c>
@@ -27167,7 +27203,7 @@
       </c>
       <c r="Y452" s="12"/>
     </row>
-    <row r="453" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B453" s="7">
         <v>449</v>
       </c>
@@ -27214,7 +27250,7 @@
       </c>
       <c r="Y453" s="12"/>
     </row>
-    <row r="454" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B454" s="7">
         <v>450</v>
       </c>
@@ -27310,7 +27346,7 @@
       <c r="X455" s="12"/>
       <c r="Y455" s="12"/>
     </row>
-    <row r="456" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B456" s="7">
         <v>452</v>
       </c>
@@ -27357,7 +27393,7 @@
       </c>
       <c r="Y456" s="12"/>
     </row>
-    <row r="457" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B457" s="7">
         <v>453</v>
       </c>
@@ -27402,7 +27438,7 @@
       <c r="X457" s="12"/>
       <c r="Y457" s="12"/>
     </row>
-    <row r="458" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B458" s="7">
         <v>454</v>
       </c>
@@ -27447,7 +27483,7 @@
       <c r="X458" s="12"/>
       <c r="Y458" s="12"/>
     </row>
-    <row r="459" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B459" s="7">
         <v>455</v>
       </c>
@@ -27492,7 +27528,7 @@
       <c r="X459" s="12"/>
       <c r="Y459" s="12"/>
     </row>
-    <row r="460" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B460" s="7">
         <v>456</v>
       </c>
@@ -27537,7 +27573,7 @@
       <c r="X460" s="12"/>
       <c r="Y460" s="12"/>
     </row>
-    <row r="461" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B461" s="7">
         <v>457</v>
       </c>
@@ -27582,7 +27618,7 @@
       <c r="X461" s="12"/>
       <c r="Y461" s="12"/>
     </row>
-    <row r="462" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B462" s="7">
         <v>458</v>
       </c>
@@ -28754,7 +28790,7 @@
       <c r="X485" s="12"/>
       <c r="Y485" s="12"/>
     </row>
-    <row r="486" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B486" s="7">
         <v>482</v>
       </c>
@@ -28799,7 +28835,7 @@
       <c r="X486" s="12"/>
       <c r="Y486" s="12"/>
     </row>
-    <row r="487" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B487" s="7">
         <v>483</v>
       </c>
@@ -29089,7 +29125,7 @@
       <c r="X492" s="12"/>
       <c r="Y492" s="12"/>
     </row>
-    <row r="493" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B493" s="7">
         <v>489</v>
       </c>
@@ -29134,7 +29170,7 @@
       <c r="X493" s="12"/>
       <c r="Y493" s="12"/>
     </row>
-    <row r="494" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B494" s="7">
         <v>490</v>
       </c>
@@ -29181,7 +29217,7 @@
       </c>
       <c r="Y494" s="12"/>
     </row>
-    <row r="495" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B495" s="7">
         <v>491</v>
       </c>
@@ -29226,7 +29262,7 @@
       <c r="X495" s="12"/>
       <c r="Y495" s="12"/>
     </row>
-    <row r="496" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B496" s="7">
         <v>492</v>
       </c>
@@ -29271,7 +29307,7 @@
       <c r="X496" s="12"/>
       <c r="Y496" s="12"/>
     </row>
-    <row r="497" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:25" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B497" s="7">
         <v>493</v>
       </c>
@@ -29804,7 +29840,7 @@
       <c r="X507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B508" s="7">
         <v>504</v>
       </c>
@@ -29847,7 +29883,7 @@
       <c r="X508" s="12"/>
       <c r="Y508" s="12"/>
     </row>
-    <row r="509" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B509" s="7">
         <v>505</v>
       </c>
@@ -29888,7 +29924,7 @@
       <c r="X509" s="12"/>
       <c r="Y509" s="12"/>
     </row>
-    <row r="510" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B510" s="7">
         <v>506</v>
       </c>
@@ -29935,7 +29971,7 @@
       <c r="X510" s="12"/>
       <c r="Y510" s="12"/>
     </row>
-    <row r="511" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B511" s="7">
         <v>507</v>
       </c>
@@ -29982,7 +30018,7 @@
       <c r="X511" s="12"/>
       <c r="Y511" s="12"/>
     </row>
-    <row r="512" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B512" s="7">
         <v>508</v>
       </c>
@@ -30029,7 +30065,7 @@
       <c r="X512" s="12"/>
       <c r="Y512" s="12"/>
     </row>
-    <row r="513" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B513" s="7">
         <v>509</v>
       </c>
@@ -30076,7 +30112,7 @@
       <c r="X513" s="12"/>
       <c r="Y513" s="12"/>
     </row>
-    <row r="514" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B514" s="7">
         <v>510</v>
       </c>
@@ -30123,7 +30159,7 @@
       <c r="X514" s="12"/>
       <c r="Y514" s="12"/>
     </row>
-    <row r="515" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B515" s="7">
         <v>511</v>
       </c>
@@ -30170,7 +30206,7 @@
       <c r="X515" s="12"/>
       <c r="Y515" s="12"/>
     </row>
-    <row r="516" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B516" s="7">
         <v>512</v>
       </c>
@@ -30221,7 +30257,7 @@
       </c>
       <c r="Y516" s="12"/>
     </row>
-    <row r="517" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B517" s="7">
         <v>513</v>
       </c>
@@ -30272,7 +30308,7 @@
       </c>
       <c r="Y517" s="12"/>
     </row>
-    <row r="518" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B518" s="7">
         <v>514</v>
       </c>
@@ -30323,7 +30359,7 @@
       </c>
       <c r="Y518" s="12"/>
     </row>
-    <row r="519" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B519" s="7">
         <v>515</v>
       </c>
@@ -30374,7 +30410,7 @@
       </c>
       <c r="Y519" s="12"/>
     </row>
-    <row r="520" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B520" s="7">
         <v>516</v>
       </c>
@@ -30425,7 +30461,7 @@
       </c>
       <c r="Y520" s="12"/>
     </row>
-    <row r="521" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B521" s="7">
         <v>517</v>
       </c>
@@ -30476,7 +30512,7 @@
       </c>
       <c r="Y521" s="12"/>
     </row>
-    <row r="522" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B522" s="7">
         <v>518</v>
       </c>
@@ -30527,7 +30563,7 @@
       </c>
       <c r="Y522" s="12"/>
     </row>
-    <row r="523" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B523" s="7">
         <v>519</v>
       </c>
@@ -30578,7 +30614,7 @@
       </c>
       <c r="Y523" s="12"/>
     </row>
-    <row r="524" spans="2:25" ht="126" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B524" s="7">
         <v>520</v>
       </c>
@@ -30629,7 +30665,7 @@
       </c>
       <c r="Y524" s="12"/>
     </row>
-    <row r="525" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B525" s="7">
         <v>521</v>
       </c>
@@ -30680,7 +30716,7 @@
       </c>
       <c r="Y525" s="12"/>
     </row>
-    <row r="526" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B526" s="7">
         <v>522</v>
       </c>
@@ -30731,7 +30767,7 @@
       </c>
       <c r="Y526" s="12"/>
     </row>
-    <row r="527" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B527" s="7">
         <v>523</v>
       </c>
@@ -30782,7 +30818,7 @@
       </c>
       <c r="Y527" s="12"/>
     </row>
-    <row r="528" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B528" s="7">
         <v>524</v>
       </c>
@@ -30827,7 +30863,7 @@
       <c r="X528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B529" s="7">
         <v>525</v>
       </c>
@@ -30876,7 +30912,7 @@
       </c>
       <c r="Y529" s="12"/>
     </row>
-    <row r="530" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B530" s="7">
         <v>526</v>
       </c>
@@ -30923,7 +30959,7 @@
       <c r="X530" s="19"/>
       <c r="Y530" s="12"/>
     </row>
-    <row r="531" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B531" s="7">
         <v>527</v>
       </c>
@@ -30972,7 +31008,7 @@
       </c>
       <c r="Y531" s="12"/>
     </row>
-    <row r="532" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B532" s="7">
         <v>528</v>
       </c>
@@ -31021,7 +31057,7 @@
       </c>
       <c r="Y532" s="12"/>
     </row>
-    <row r="533" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B533" s="7">
         <v>529</v>
       </c>
@@ -31068,7 +31104,7 @@
       <c r="X533" s="12"/>
       <c r="Y533" s="12"/>
     </row>
-    <row r="534" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B534" s="7">
         <v>530</v>
       </c>
@@ -31115,7 +31151,7 @@
       <c r="X534" s="12"/>
       <c r="Y534" s="12"/>
     </row>
-    <row r="535" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B535" s="7">
         <v>531</v>
       </c>
@@ -31162,7 +31198,7 @@
       <c r="X535" s="12"/>
       <c r="Y535" s="12"/>
     </row>
-    <row r="536" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B536" s="7">
         <v>532</v>
       </c>
@@ -31209,7 +31245,7 @@
       <c r="X536" s="12"/>
       <c r="Y536" s="12"/>
     </row>
-    <row r="537" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B537" s="7">
         <v>533</v>
       </c>
@@ -31256,7 +31292,7 @@
       <c r="X537" s="12"/>
       <c r="Y537" s="12"/>
     </row>
-    <row r="538" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B538" s="7">
         <v>534</v>
       </c>
@@ -31303,7 +31339,7 @@
       <c r="X538" s="12"/>
       <c r="Y538" s="12"/>
     </row>
-    <row r="539" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B539" s="7">
         <v>535</v>
       </c>
@@ -31350,7 +31386,7 @@
       <c r="X539" s="12"/>
       <c r="Y539" s="12"/>
     </row>
-    <row r="540" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B540" s="7">
         <v>536</v>
       </c>
@@ -31399,7 +31435,7 @@
       </c>
       <c r="Y540" s="12"/>
     </row>
-    <row r="541" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B541" s="7">
         <v>537</v>
       </c>
@@ -31448,7 +31484,7 @@
       </c>
       <c r="Y541" s="12"/>
     </row>
-    <row r="542" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B542" s="7">
         <v>538</v>
       </c>
@@ -31497,7 +31533,7 @@
       </c>
       <c r="Y542" s="12"/>
     </row>
-    <row r="543" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B543" s="7">
         <v>539</v>
       </c>
@@ -31544,7 +31580,7 @@
       <c r="X543" s="12"/>
       <c r="Y543" s="12"/>
     </row>
-    <row r="544" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B544" s="7">
         <v>540</v>
       </c>
@@ -31591,7 +31627,7 @@
       <c r="X544" s="12"/>
       <c r="Y544" s="12"/>
     </row>
-    <row r="545" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B545" s="7">
         <v>541</v>
       </c>
@@ -31638,7 +31674,7 @@
       <c r="X545" s="12"/>
       <c r="Y545" s="12"/>
     </row>
-    <row r="546" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B546" s="7">
         <v>542</v>
       </c>
@@ -31687,7 +31723,7 @@
       </c>
       <c r="Y546" s="12"/>
     </row>
-    <row r="547" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B547" s="7">
         <v>543</v>
       </c>
@@ -31734,7 +31770,7 @@
       <c r="X547" s="12"/>
       <c r="Y547" s="12"/>
     </row>
-    <row r="548" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B548" s="7">
         <v>544</v>
       </c>
@@ -31781,7 +31817,7 @@
       <c r="X548" s="12"/>
       <c r="Y548" s="12"/>
     </row>
-    <row r="549" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B549" s="7">
         <v>545</v>
       </c>
@@ -31828,7 +31864,7 @@
       <c r="X549" s="12"/>
       <c r="Y549" s="12"/>
     </row>
-    <row r="550" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B550" s="7">
         <v>546</v>
       </c>
@@ -31875,7 +31911,7 @@
       <c r="X550" s="12"/>
       <c r="Y550" s="12"/>
     </row>
-    <row r="551" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B551" s="7">
         <v>547</v>
       </c>
@@ -31922,7 +31958,7 @@
       <c r="X551" s="12"/>
       <c r="Y551" s="12"/>
     </row>
-    <row r="552" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B552" s="7">
         <v>548</v>
       </c>
@@ -31969,7 +32005,7 @@
       <c r="X552" s="12"/>
       <c r="Y552" s="12"/>
     </row>
-    <row r="553" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B553" s="7">
         <v>549</v>
       </c>
@@ -32016,7 +32052,7 @@
       <c r="X553" s="12"/>
       <c r="Y553" s="12"/>
     </row>
-    <row r="554" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B554" s="7">
         <v>550</v>
       </c>
@@ -32063,7 +32099,7 @@
       <c r="X554" s="12"/>
       <c r="Y554" s="12"/>
     </row>
-    <row r="555" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B555" s="7">
         <v>551</v>
       </c>
@@ -32110,7 +32146,7 @@
       <c r="X555" s="12"/>
       <c r="Y555" s="12"/>
     </row>
-    <row r="556" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B556" s="7">
         <v>552</v>
       </c>
@@ -32157,7 +32193,7 @@
       <c r="X556" s="12"/>
       <c r="Y556" s="12"/>
     </row>
-    <row r="557" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B557" s="7">
         <v>553</v>
       </c>
@@ -32204,7 +32240,7 @@
       <c r="X557" s="12"/>
       <c r="Y557" s="12"/>
     </row>
-    <row r="558" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B558" s="7">
         <v>554</v>
       </c>
@@ -32251,7 +32287,7 @@
       <c r="X558" s="12"/>
       <c r="Y558" s="12"/>
     </row>
-    <row r="559" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B559" s="7">
         <v>555</v>
       </c>
@@ -32298,7 +32334,7 @@
       <c r="X559" s="12"/>
       <c r="Y559" s="12"/>
     </row>
-    <row r="560" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B560" s="7">
         <v>556</v>
       </c>
@@ -32345,7 +32381,7 @@
       <c r="X560" s="12"/>
       <c r="Y560" s="12"/>
     </row>
-    <row r="561" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B561" s="7">
         <v>557</v>
       </c>
@@ -32392,7 +32428,7 @@
       <c r="X561" s="12"/>
       <c r="Y561" s="12"/>
     </row>
-    <row r="562" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B562" s="7">
         <v>558</v>
       </c>
@@ -32439,7 +32475,7 @@
       <c r="X562" s="12"/>
       <c r="Y562" s="12"/>
     </row>
-    <row r="563" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B563" s="7">
         <v>559</v>
       </c>
@@ -32486,7 +32522,7 @@
       <c r="X563" s="12"/>
       <c r="Y563" s="12"/>
     </row>
-    <row r="564" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B564" s="7">
         <v>560</v>
       </c>
@@ -32533,7 +32569,7 @@
       <c r="X564" s="12"/>
       <c r="Y564" s="12"/>
     </row>
-    <row r="565" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B565" s="7">
         <v>561</v>
       </c>
@@ -32580,7 +32616,7 @@
       <c r="X565" s="12"/>
       <c r="Y565" s="12"/>
     </row>
-    <row r="566" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B566" s="7">
         <v>562</v>
       </c>
@@ -32627,7 +32663,7 @@
       <c r="X566" s="12"/>
       <c r="Y566" s="12"/>
     </row>
-    <row r="567" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B567" s="7">
         <v>563</v>
       </c>
@@ -32674,7 +32710,7 @@
       <c r="X567" s="12"/>
       <c r="Y567" s="12"/>
     </row>
-    <row r="568" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B568" s="7">
         <v>564</v>
       </c>
@@ -32721,7 +32757,7 @@
       <c r="X568" s="12"/>
       <c r="Y568" s="12"/>
     </row>
-    <row r="569" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B569" s="7">
         <v>565</v>
       </c>
@@ -32768,7 +32804,7 @@
       <c r="X569" s="12"/>
       <c r="Y569" s="12"/>
     </row>
-    <row r="570" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B570" s="7">
         <v>566</v>
       </c>
@@ -32815,7 +32851,7 @@
       <c r="X570" s="12"/>
       <c r="Y570" s="12"/>
     </row>
-    <row r="571" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B571" s="7">
         <v>567</v>
       </c>
@@ -32862,7 +32898,7 @@
       <c r="X571" s="12"/>
       <c r="Y571" s="12"/>
     </row>
-    <row r="572" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B572" s="7">
         <v>568</v>
       </c>
@@ -32911,7 +32947,7 @@
       </c>
       <c r="Y572" s="12"/>
     </row>
-    <row r="573" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B573" s="7">
         <v>569</v>
       </c>
@@ -32958,7 +32994,7 @@
       <c r="X573" s="12"/>
       <c r="Y573" s="12"/>
     </row>
-    <row r="574" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B574" s="7">
         <v>570</v>
       </c>
@@ -33005,7 +33041,7 @@
       <c r="X574" s="12"/>
       <c r="Y574" s="12"/>
     </row>
-    <row r="575" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B575" s="7">
         <v>571</v>
       </c>
@@ -33052,7 +33088,7 @@
       <c r="X575" s="12"/>
       <c r="Y575" s="12"/>
     </row>
-    <row r="576" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B576" s="7">
         <v>572</v>
       </c>
@@ -33101,7 +33137,7 @@
       </c>
       <c r="Y576" s="12"/>
     </row>
-    <row r="577" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B577" s="7">
         <v>573</v>
       </c>
@@ -33148,7 +33184,7 @@
       <c r="X577" s="12"/>
       <c r="Y577" s="12"/>
     </row>
-    <row r="578" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B578" s="7">
         <v>574</v>
       </c>
@@ -33195,7 +33231,7 @@
       <c r="X578" s="12"/>
       <c r="Y578" s="12"/>
     </row>
-    <row r="579" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B579" s="7">
         <v>575</v>
       </c>
@@ -33242,7 +33278,7 @@
       <c r="X579" s="12"/>
       <c r="Y579" s="12"/>
     </row>
-    <row r="580" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B580" s="7">
         <v>576</v>
       </c>
@@ -33289,7 +33325,7 @@
       <c r="X580" s="12"/>
       <c r="Y580" s="12"/>
     </row>
-    <row r="581" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B581" s="7">
         <v>577</v>
       </c>
@@ -33334,7 +33370,7 @@
       <c r="X581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B582" s="7">
         <v>578</v>
       </c>
@@ -33371,7 +33407,7 @@
       <c r="X582" s="9"/>
       <c r="Y582" s="9"/>
     </row>
-    <row r="583" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B583" s="7">
         <v>579</v>
       </c>
@@ -33408,6 +33444,7 @@
       <c r="X583" s="9"/>
       <c r="Y583" s="9"/>
     </row>
+    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="585" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="586" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I586" s="26" t="s">
@@ -33419,11 +33456,24 @@
       <c r="M586" s="27"/>
       <c r="N586" s="27">
         <f>SUM(N5:N583)</f>
-        <v>4358.45</v>
+        <v>4768.4499999999935</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:Y584" xr:uid="{CD8246AE-DFCC-4B3F-9CC4-F6A1FFD84A0B}"/>
+  <autoFilter ref="B4:Y584" xr:uid="{CD8246AE-DFCC-4B3F-9CC4-F6A1FFD84A0B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Real Biometrics Release - Additional"/>
+        <filter val="Real Biometrics Release - Integration"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Vital"/>
+        <filter val="Vital?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="B2:D2"/>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6269B6C3-7A67-4C89-8FC0-E52E65452873}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{90C684A0-A664-445B-8AEE-D9B0AFF5CA13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$B$4:$Y$584</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -91,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4590" uniqueCount="1746">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -5760,6 +5755,19 @@
   </si>
   <si>
     <t xml:space="preserve">Open JDK is not contians all modules. Need to do the R&amp;D. </t>
+  </si>
+  <si>
+    <t>This is external interface Probably External SDK to be implemented. Requirement not clear.</t>
+  </si>
+  <si>
+    <t>Backend code-change . Construction of new API or restructuring existing api and bad job, interaction with admin console.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacing auth adapater with Keycloak
+Code change in Pre-Reg
+API changes
+Unit test cases
+</t>
   </si>
 </sst>
 </file>
@@ -5999,7 +6007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6080,6 +6088,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6418,51 +6429,51 @@
   <dimension ref="A1:Z586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C439" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E450" sqref="E450"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="33.54296875" style="8" customWidth="1"/>
-    <col min="9" max="10" width="12.81640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="8" customWidth="1"/>
-    <col min="12" max="13" width="12.81640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="31.453125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="8" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="8" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="8" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="8" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1796875" style="8" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="8" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="20" style="8" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="15.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="43.54296875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="8"/>
+    <col min="21" max="22" width="15.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="43.5703125" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="2:26" ht="70" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>1717</v>
       </c>
@@ -6536,7 +6547,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -6578,7 +6589,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:26" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -6628,7 +6639,7 @@
       </c>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:26" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -6678,7 +6689,7 @@
       </c>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:26" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -6730,7 +6741,7 @@
       </c>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:26" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -6780,7 +6791,7 @@
       </c>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:26" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -6832,7 +6843,7 @@
       </c>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:26" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -6882,7 +6893,7 @@
       </c>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -6934,7 +6945,7 @@
       </c>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -6984,7 +6995,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:26" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -7028,7 +7039,7 @@
       </c>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -7072,7 +7083,7 @@
       </c>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="2:26" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -7114,7 +7125,7 @@
       </c>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -7156,7 +7167,7 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -7196,7 +7207,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -7238,7 +7249,7 @@
       </c>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -7276,7 +7287,7 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -7316,7 +7327,7 @@
       </c>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -7354,7 +7365,7 @@
       </c>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -7392,7 +7403,7 @@
       </c>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -7428,7 +7439,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -7464,7 +7475,7 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -7506,7 +7517,7 @@
       </c>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -7546,7 +7557,7 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:25" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -7588,7 +7599,7 @@
       </c>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -7628,7 +7639,7 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -7664,7 +7675,7 @@
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
     </row>
-    <row r="31" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -7700,7 +7711,7 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
     </row>
-    <row r="32" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -7742,7 +7753,7 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -7778,7 +7789,7 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -7818,7 +7829,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -7856,7 +7867,7 @@
       </c>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -7898,7 +7909,7 @@
       </c>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -7940,7 +7951,7 @@
       </c>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -7984,7 +7995,7 @@
       </c>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="2:25" s="16" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:25" s="16" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -8030,7 +8041,7 @@
       </c>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -8076,7 +8087,7 @@
       </c>
       <c r="Y40" s="12"/>
     </row>
-    <row r="41" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:25" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -8122,7 +8133,7 @@
       </c>
       <c r="Y41" s="12"/>
     </row>
-    <row r="42" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -8168,7 +8179,7 @@
       </c>
       <c r="Y42" s="12"/>
     </row>
-    <row r="43" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -8214,7 +8225,7 @@
       </c>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -8264,7 +8275,7 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -8312,7 +8323,7 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
     </row>
-    <row r="46" spans="2:25" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:25" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -8362,7 +8373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:25" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -8408,7 +8419,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:25" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -8452,7 +8463,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -8498,7 +8509,7 @@
       </c>
       <c r="Y49" s="12"/>
     </row>
-    <row r="50" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -8544,7 +8555,7 @@
       </c>
       <c r="Y50" s="12"/>
     </row>
-    <row r="51" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -8588,7 +8599,7 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
     </row>
-    <row r="52" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -8634,7 +8645,7 @@
       </c>
       <c r="Y52" s="12"/>
     </row>
-    <row r="53" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -8682,7 +8693,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="54" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -8730,7 +8741,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="55" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -8778,7 +8789,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="56" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -8826,7 +8837,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="57" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -8876,7 +8887,7 @@
       </c>
       <c r="Y57" s="12"/>
     </row>
-    <row r="58" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:25" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -8920,7 +8931,7 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
     </row>
-    <row r="59" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -8968,7 +8979,7 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
     </row>
-    <row r="60" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -8999,7 +9010,9 @@
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
+      <c r="N60" s="12">
+        <v>5</v>
+      </c>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -9012,7 +9025,7 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
     </row>
-    <row r="61" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -9053,10 +9066,12 @@
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
       <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
+      <c r="X61" s="30" t="s">
+        <v>1743</v>
+      </c>
       <c r="Y61" s="12"/>
     </row>
-    <row r="62" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>58</v>
       </c>
@@ -9090,8 +9105,12 @@
       <c r="L62" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
+      <c r="M62" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N62" s="12">
+        <v>10</v>
+      </c>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -9101,10 +9120,12 @@
       <c r="U62" s="12"/>
       <c r="V62" s="12"/>
       <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
+      <c r="X62" s="30" t="s">
+        <v>1744</v>
+      </c>
       <c r="Y62" s="12"/>
     </row>
-    <row r="63" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>59</v>
       </c>
@@ -9133,7 +9154,9 @@
       </c>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
+      <c r="N63" s="12">
+        <v>7</v>
+      </c>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -9143,10 +9166,12 @@
       <c r="U63" s="12"/>
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
+      <c r="X63" s="30" t="s">
+        <v>1745</v>
+      </c>
       <c r="Y63" s="12"/>
     </row>
-    <row r="64" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>60</v>
       </c>
@@ -9177,7 +9202,9 @@
       </c>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
+      <c r="N64" s="13">
+        <v>10</v>
+      </c>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
@@ -9190,7 +9217,7 @@
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
     </row>
-    <row r="65" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>61</v>
       </c>
@@ -9238,7 +9265,7 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
     </row>
-    <row r="66" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>62</v>
       </c>
@@ -9280,7 +9307,7 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
     </row>
-    <row r="67" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
         <v>63</v>
       </c>
@@ -9322,7 +9349,7 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
     </row>
-    <row r="68" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -9372,7 +9399,7 @@
       </c>
       <c r="Y68" s="12"/>
     </row>
-    <row r="69" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <v>65</v>
       </c>
@@ -9416,7 +9443,7 @@
       </c>
       <c r="Y69" s="12"/>
     </row>
-    <row r="70" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:25" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <v>66</v>
       </c>
@@ -9460,7 +9487,7 @@
       </c>
       <c r="Y70" s="12"/>
     </row>
-    <row r="71" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:25" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -9504,7 +9531,7 @@
       </c>
       <c r="Y71" s="12"/>
     </row>
-    <row r="72" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:25" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -9546,7 +9573,7 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
     </row>
-    <row r="73" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>69</v>
       </c>
@@ -9588,7 +9615,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" spans="2:25" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:25" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>70</v>
       </c>
@@ -9632,7 +9659,7 @@
       </c>
       <c r="Y74" s="4"/>
     </row>
-    <row r="75" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>71</v>
       </c>
@@ -9676,7 +9703,7 @@
       </c>
       <c r="Y75" s="12"/>
     </row>
-    <row r="76" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <v>72</v>
       </c>
@@ -9720,7 +9747,7 @@
       </c>
       <c r="Y76" s="12"/>
     </row>
-    <row r="77" spans="2:25" ht="126" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:25" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <v>73</v>
       </c>
@@ -9770,7 +9797,7 @@
       </c>
       <c r="Y77" s="12"/>
     </row>
-    <row r="78" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <v>74</v>
       </c>
@@ -9820,7 +9847,7 @@
       </c>
       <c r="Y78" s="12"/>
     </row>
-    <row r="79" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -9870,7 +9897,7 @@
       </c>
       <c r="Y79" s="12"/>
     </row>
-    <row r="80" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>76</v>
       </c>
@@ -9918,7 +9945,7 @@
       </c>
       <c r="Y80" s="12"/>
     </row>
-    <row r="81" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B81" s="7">
         <v>77</v>
       </c>
@@ -9968,7 +9995,7 @@
       </c>
       <c r="Y81" s="12"/>
     </row>
-    <row r="82" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B82" s="7">
         <v>78</v>
       </c>
@@ -10018,7 +10045,7 @@
       </c>
       <c r="Y82" s="12"/>
     </row>
-    <row r="83" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B83" s="7">
         <v>79</v>
       </c>
@@ -10068,7 +10095,7 @@
       </c>
       <c r="Y83" s="12"/>
     </row>
-    <row r="84" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B84" s="7">
         <v>80</v>
       </c>
@@ -10118,7 +10145,7 @@
       </c>
       <c r="Y84" s="12"/>
     </row>
-    <row r="85" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
         <v>81</v>
       </c>
@@ -10168,7 +10195,7 @@
       </c>
       <c r="Y85" s="12"/>
     </row>
-    <row r="86" spans="2:25" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:25" ht="228" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -10212,7 +10239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B87" s="7">
         <v>83</v>
       </c>
@@ -10262,7 +10289,7 @@
       </c>
       <c r="Y87" s="12"/>
     </row>
-    <row r="88" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7">
         <v>84</v>
       </c>
@@ -10306,14 +10333,14 @@
       </c>
       <c r="Y88" s="12"/>
     </row>
-    <row r="89" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7">
         <v>85</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="31" t="s">
         <v>155</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -10350,14 +10377,14 @@
       </c>
       <c r="Y89" s="12"/>
     </row>
-    <row r="90" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7">
         <v>86</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="30"/>
+      <c r="D90" s="31"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -10392,7 +10419,7 @@
       </c>
       <c r="Y90" s="12"/>
     </row>
-    <row r="91" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7">
         <v>87</v>
       </c>
@@ -10436,7 +10463,7 @@
       </c>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
         <v>88</v>
       </c>
@@ -10480,7 +10507,7 @@
       </c>
       <c r="Y92" s="12"/>
     </row>
-    <row r="93" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
         <v>89</v>
       </c>
@@ -10524,7 +10551,7 @@
       </c>
       <c r="Y93" s="12"/>
     </row>
-    <row r="94" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
         <v>90</v>
       </c>
@@ -10576,7 +10603,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
         <v>91</v>
       </c>
@@ -10620,7 +10647,7 @@
       </c>
       <c r="Y95" s="12"/>
     </row>
-    <row r="96" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>92</v>
       </c>
@@ -10662,7 +10689,7 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
     </row>
-    <row r="97" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7">
         <v>93</v>
       </c>
@@ -10706,7 +10733,7 @@
       </c>
       <c r="Y97" s="6"/>
     </row>
-    <row r="98" spans="2:25" ht="112" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:25" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B98" s="7">
         <v>94</v>
       </c>
@@ -10754,7 +10781,7 @@
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
     </row>
-    <row r="99" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
         <v>95</v>
       </c>
@@ -10800,7 +10827,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="100" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7">
         <v>96</v>
       </c>
@@ -10844,7 +10871,7 @@
       </c>
       <c r="Y100" s="12"/>
     </row>
-    <row r="101" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7">
         <v>97</v>
       </c>
@@ -10888,7 +10915,7 @@
       </c>
       <c r="Y101" s="12"/>
     </row>
-    <row r="102" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <v>98</v>
       </c>
@@ -10934,7 +10961,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="103" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7">
         <v>99</v>
       </c>
@@ -10978,7 +11005,7 @@
       </c>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7">
         <v>100</v>
       </c>
@@ -11022,7 +11049,7 @@
       </c>
       <c r="Y104" s="6"/>
     </row>
-    <row r="105" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7">
         <v>101</v>
       </c>
@@ -11066,7 +11093,7 @@
       </c>
       <c r="Y105" s="6"/>
     </row>
-    <row r="106" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
         <v>102</v>
       </c>
@@ -11108,7 +11135,7 @@
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
     </row>
-    <row r="107" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7">
         <v>103</v>
       </c>
@@ -11156,7 +11183,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="108" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7">
         <v>104</v>
       </c>
@@ -11204,7 +11231,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="109" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7">
         <v>105</v>
       </c>
@@ -11252,7 +11279,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7">
         <v>106</v>
       </c>
@@ -11300,7 +11327,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="111" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7">
         <v>107</v>
       </c>
@@ -11348,7 +11375,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="112" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7">
         <v>108</v>
       </c>
@@ -11396,7 +11423,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="113" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7">
         <v>109</v>
       </c>
@@ -11444,7 +11471,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="114" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7">
         <v>110</v>
       </c>
@@ -11492,7 +11519,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="115" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7">
         <v>111</v>
       </c>
@@ -11540,7 +11567,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="116" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:25" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7">
         <v>112</v>
       </c>
@@ -11594,7 +11621,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="117" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7">
         <v>113</v>
       </c>
@@ -11642,7 +11669,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="118" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7">
         <v>114</v>
       </c>
@@ -11690,7 +11717,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="119" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7">
         <v>115</v>
       </c>
@@ -11738,7 +11765,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="120" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
         <v>116</v>
       </c>
@@ -11786,7 +11813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
         <v>117</v>
       </c>
@@ -11834,7 +11861,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="122" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7">
         <v>118</v>
       </c>
@@ -11880,7 +11907,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="123" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7">
         <v>119</v>
       </c>
@@ -11928,7 +11955,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="124" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7">
         <v>120</v>
       </c>
@@ -11976,7 +12003,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="125" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7">
         <v>121</v>
       </c>
@@ -12024,7 +12051,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="126" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7">
         <v>122</v>
       </c>
@@ -12078,7 +12105,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="127" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
         <v>123</v>
       </c>
@@ -12128,7 +12155,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="128" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7">
         <v>124</v>
       </c>
@@ -12176,7 +12203,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="129" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7">
         <v>125</v>
       </c>
@@ -12224,7 +12251,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="130" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7">
         <v>126</v>
       </c>
@@ -12272,7 +12299,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="131" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7">
         <v>127</v>
       </c>
@@ -12320,7 +12347,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="132" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
         <v>128</v>
       </c>
@@ -12368,7 +12395,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="133" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7">
         <v>129</v>
       </c>
@@ -12418,7 +12445,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="134" spans="2:25" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:25" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="7">
         <v>130</v>
       </c>
@@ -12460,7 +12487,7 @@
       <c r="X134" s="12"/>
       <c r="Y134" s="12"/>
     </row>
-    <row r="135" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7">
         <v>131</v>
       </c>
@@ -12504,7 +12531,7 @@
       <c r="X135" s="12"/>
       <c r="Y135" s="12"/>
     </row>
-    <row r="136" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7">
         <v>132</v>
       </c>
@@ -12546,7 +12573,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
     </row>
-    <row r="137" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B137" s="7">
         <v>133</v>
       </c>
@@ -12596,7 +12623,7 @@
       <c r="X137" s="12"/>
       <c r="Y137" s="12"/>
     </row>
-    <row r="138" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7">
         <v>134</v>
       </c>
@@ -12640,7 +12667,7 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
     </row>
-    <row r="139" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B139" s="7">
         <v>135</v>
       </c>
@@ -12686,7 +12713,7 @@
       <c r="X139" s="12"/>
       <c r="Y139" s="12"/>
     </row>
-    <row r="140" spans="2:25" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:25" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7">
         <v>136</v>
       </c>
@@ -12734,7 +12761,7 @@
       <c r="X140" s="12"/>
       <c r="Y140" s="12"/>
     </row>
-    <row r="141" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B141" s="7">
         <v>137</v>
       </c>
@@ -12782,7 +12809,7 @@
       </c>
       <c r="Y141" s="12"/>
     </row>
-    <row r="142" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
         <v>138</v>
       </c>
@@ -12828,7 +12855,7 @@
       <c r="X142" s="12"/>
       <c r="Y142" s="12"/>
     </row>
-    <row r="143" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B143" s="7">
         <v>139</v>
       </c>
@@ -12874,7 +12901,7 @@
       </c>
       <c r="Y143" s="12"/>
     </row>
-    <row r="144" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:25" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
         <v>140</v>
       </c>
@@ -12922,7 +12949,7 @@
       </c>
       <c r="Y144" s="12"/>
     </row>
-    <row r="145" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:25" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B145" s="7">
         <v>141</v>
       </c>
@@ -12968,7 +12995,7 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
     </row>
-    <row r="146" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:25" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B146" s="7">
         <v>142</v>
       </c>
@@ -13016,7 +13043,7 @@
       </c>
       <c r="Y146" s="12"/>
     </row>
-    <row r="147" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
         <v>143</v>
       </c>
@@ -13060,7 +13087,7 @@
       </c>
       <c r="Y147" s="12"/>
     </row>
-    <row r="148" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B148" s="7">
         <v>144</v>
       </c>
@@ -13104,7 +13131,7 @@
       </c>
       <c r="Y148" s="13"/>
     </row>
-    <row r="149" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B149" s="7">
         <v>145</v>
       </c>
@@ -13148,7 +13175,7 @@
       <c r="X149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" ht="112" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:25" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B150" s="7">
         <v>146</v>
       </c>
@@ -13194,7 +13221,7 @@
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7">
         <v>147</v>
       </c>
@@ -13238,7 +13265,7 @@
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
     </row>
-    <row r="152" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7">
         <v>148</v>
       </c>
@@ -13282,7 +13309,7 @@
       <c r="X152" s="12"/>
       <c r="Y152" s="12"/>
     </row>
-    <row r="153" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:25" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7">
         <v>149</v>
       </c>
@@ -13328,7 +13355,7 @@
       </c>
       <c r="Y153" s="12"/>
     </row>
-    <row r="154" spans="2:25" ht="266" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:25" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7">
         <v>150</v>
       </c>
@@ -13376,7 +13403,7 @@
       </c>
       <c r="Y154" s="12"/>
     </row>
-    <row r="155" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
         <v>151</v>
       </c>
@@ -13422,7 +13449,7 @@
       </c>
       <c r="Y155" s="10"/>
     </row>
-    <row r="156" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B156" s="7">
         <v>152</v>
       </c>
@@ -13474,7 +13501,7 @@
       </c>
       <c r="Y156" s="12"/>
     </row>
-    <row r="157" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7">
         <v>153</v>
       </c>
@@ -13520,7 +13547,7 @@
       </c>
       <c r="Y157" s="12"/>
     </row>
-    <row r="158" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="7">
         <v>154</v>
       </c>
@@ -13564,7 +13591,7 @@
       </c>
       <c r="Y158" s="12"/>
     </row>
-    <row r="159" spans="2:25" ht="238" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:25" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B159" s="7">
         <v>155</v>
       </c>
@@ -13616,7 +13643,7 @@
       </c>
       <c r="Y159" s="12"/>
     </row>
-    <row r="160" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
         <v>156</v>
       </c>
@@ -13660,7 +13687,7 @@
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
     </row>
-    <row r="161" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="7">
         <v>157</v>
       </c>
@@ -13704,7 +13731,7 @@
       <c r="X161" s="12"/>
       <c r="Y161" s="12"/>
     </row>
-    <row r="162" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7">
         <v>158</v>
       </c>
@@ -13750,7 +13777,7 @@
       </c>
       <c r="Y162" s="12"/>
     </row>
-    <row r="163" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7">
         <v>159</v>
       </c>
@@ -13794,7 +13821,7 @@
       <c r="X163" s="12"/>
       <c r="Y163" s="12"/>
     </row>
-    <row r="164" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="7">
         <v>160</v>
       </c>
@@ -13838,7 +13865,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
     </row>
-    <row r="165" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="7">
         <v>161</v>
       </c>
@@ -13882,7 +13909,7 @@
       <c r="X165" s="12"/>
       <c r="Y165" s="12"/>
     </row>
-    <row r="166" spans="2:25" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:25" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7">
         <v>162</v>
       </c>
@@ -13928,7 +13955,7 @@
       </c>
       <c r="Y166" s="12"/>
     </row>
-    <row r="167" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B167" s="7">
         <v>163</v>
       </c>
@@ -13976,7 +14003,7 @@
       </c>
       <c r="Y167" s="12"/>
     </row>
-    <row r="168" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
         <v>164</v>
       </c>
@@ -14022,7 +14049,7 @@
       </c>
       <c r="Y168" s="12"/>
     </row>
-    <row r="169" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7">
         <v>165</v>
       </c>
@@ -14068,7 +14095,7 @@
       </c>
       <c r="Y169" s="12"/>
     </row>
-    <row r="170" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
         <v>166</v>
       </c>
@@ -14116,7 +14143,7 @@
       </c>
       <c r="Y170" s="12"/>
     </row>
-    <row r="171" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B171" s="7">
         <v>167</v>
       </c>
@@ -14160,7 +14187,7 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
     </row>
-    <row r="172" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B172" s="7">
         <v>168</v>
       </c>
@@ -14210,7 +14237,7 @@
       <c r="X172" s="12"/>
       <c r="Y172" s="12"/>
     </row>
-    <row r="173" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
         <v>169</v>
       </c>
@@ -14264,7 +14291,7 @@
       </c>
       <c r="Y173" s="12"/>
     </row>
-    <row r="174" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="7">
         <v>170</v>
       </c>
@@ -14316,7 +14343,7 @@
       </c>
       <c r="Y174" s="12"/>
     </row>
-    <row r="175" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B175" s="7">
         <v>171</v>
       </c>
@@ -14366,7 +14393,7 @@
       <c r="X175" s="12"/>
       <c r="Y175" s="12"/>
     </row>
-    <row r="176" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B176" s="7">
         <v>172</v>
       </c>
@@ -14416,7 +14443,7 @@
       <c r="X176" s="12"/>
       <c r="Y176" s="12"/>
     </row>
-    <row r="177" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B177" s="7">
         <v>173</v>
       </c>
@@ -14466,7 +14493,7 @@
       <c r="X177" s="12"/>
       <c r="Y177" s="12"/>
     </row>
-    <row r="178" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
         <v>174</v>
       </c>
@@ -14516,7 +14543,7 @@
       <c r="X178" s="12"/>
       <c r="Y178" s="12"/>
     </row>
-    <row r="179" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B179" s="7">
         <v>175</v>
       </c>
@@ -14566,7 +14593,7 @@
       <c r="X179" s="12"/>
       <c r="Y179" s="12"/>
     </row>
-    <row r="180" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B180" s="7">
         <v>176</v>
       </c>
@@ -14616,7 +14643,7 @@
       <c r="X180" s="12"/>
       <c r="Y180" s="12"/>
     </row>
-    <row r="181" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B181" s="7">
         <v>177</v>
       </c>
@@ -14664,7 +14691,7 @@
       <c r="X181" s="12"/>
       <c r="Y181" s="12"/>
     </row>
-    <row r="182" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B182" s="7">
         <v>178</v>
       </c>
@@ -14712,7 +14739,7 @@
       <c r="X182" s="12"/>
       <c r="Y182" s="12"/>
     </row>
-    <row r="183" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
         <v>179</v>
       </c>
@@ -14760,7 +14787,7 @@
       <c r="X183" s="12"/>
       <c r="Y183" s="12"/>
     </row>
-    <row r="184" spans="2:25" ht="98" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B184" s="7">
         <v>180</v>
       </c>
@@ -14808,7 +14835,7 @@
       <c r="X184" s="12"/>
       <c r="Y184" s="12"/>
     </row>
-    <row r="185" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B185" s="7">
         <v>181</v>
       </c>
@@ -14856,7 +14883,7 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
     </row>
-    <row r="186" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B186" s="7">
         <v>182</v>
       </c>
@@ -14904,7 +14931,7 @@
       <c r="X186" s="12"/>
       <c r="Y186" s="12"/>
     </row>
-    <row r="187" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B187" s="7">
         <v>183</v>
       </c>
@@ -14950,7 +14977,7 @@
       <c r="X187" s="12"/>
       <c r="Y187" s="12"/>
     </row>
-    <row r="188" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B188" s="7">
         <v>184</v>
       </c>
@@ -15000,7 +15027,7 @@
       <c r="X188" s="12"/>
       <c r="Y188" s="12"/>
     </row>
-    <row r="189" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B189" s="7">
         <v>185</v>
       </c>
@@ -15046,7 +15073,7 @@
       <c r="X189" s="12"/>
       <c r="Y189" s="12"/>
     </row>
-    <row r="190" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
         <v>186</v>
       </c>
@@ -15092,7 +15119,7 @@
       <c r="X190" s="12"/>
       <c r="Y190" s="12"/>
     </row>
-    <row r="191" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B191" s="7">
         <v>187</v>
       </c>
@@ -15138,7 +15165,7 @@
       <c r="X191" s="12"/>
       <c r="Y191" s="12"/>
     </row>
-    <row r="192" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
         <v>188</v>
       </c>
@@ -15184,7 +15211,7 @@
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
     </row>
-    <row r="193" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B193" s="7">
         <v>189</v>
       </c>
@@ -15230,7 +15257,7 @@
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7">
         <v>190</v>
       </c>
@@ -15280,7 +15307,7 @@
       </c>
       <c r="Y194" s="12"/>
     </row>
-    <row r="195" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
         <v>191</v>
       </c>
@@ -15328,7 +15355,7 @@
       <c r="X195" s="12"/>
       <c r="Y195" s="12"/>
     </row>
-    <row r="196" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="7">
         <v>192</v>
       </c>
@@ -15378,7 +15405,7 @@
       </c>
       <c r="Y196" s="12"/>
     </row>
-    <row r="197" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7">
         <v>193</v>
       </c>
@@ -15426,7 +15453,7 @@
       <c r="X197" s="12"/>
       <c r="Y197" s="12"/>
     </row>
-    <row r="198" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B198" s="7">
         <v>194</v>
       </c>
@@ -15476,7 +15503,7 @@
       <c r="X198" s="12"/>
       <c r="Y198" s="12"/>
     </row>
-    <row r="199" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B199" s="7">
         <v>195</v>
       </c>
@@ -15526,7 +15553,7 @@
       <c r="X199" s="12"/>
       <c r="Y199" s="12"/>
     </row>
-    <row r="200" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
         <v>196</v>
       </c>
@@ -15576,7 +15603,7 @@
       </c>
       <c r="Y200" s="12"/>
     </row>
-    <row r="201" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B201" s="7">
         <v>197</v>
       </c>
@@ -15628,7 +15655,7 @@
       </c>
       <c r="Y201" s="12"/>
     </row>
-    <row r="202" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B202" s="7">
         <v>198</v>
       </c>
@@ -15678,7 +15705,7 @@
       </c>
       <c r="Y202" s="12"/>
     </row>
-    <row r="203" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B203" s="7">
         <v>199</v>
       </c>
@@ -15728,7 +15755,7 @@
       <c r="X203" s="12"/>
       <c r="Y203" s="12"/>
     </row>
-    <row r="204" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:25" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B204" s="7">
         <v>200</v>
       </c>
@@ -15778,7 +15805,7 @@
       <c r="X204" s="12"/>
       <c r="Y204" s="12"/>
     </row>
-    <row r="205" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:25" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B205" s="7">
         <v>201</v>
       </c>
@@ -15828,7 +15855,7 @@
       <c r="X205" s="12"/>
       <c r="Y205" s="12"/>
     </row>
-    <row r="206" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B206" s="7">
         <v>202</v>
       </c>
@@ -15878,7 +15905,7 @@
       <c r="X206" s="12"/>
       <c r="Y206" s="12"/>
     </row>
-    <row r="207" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7">
         <v>203</v>
       </c>
@@ -15924,7 +15951,7 @@
       <c r="X207" s="12"/>
       <c r="Y207" s="12"/>
     </row>
-    <row r="208" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7">
         <v>204</v>
       </c>
@@ -15970,7 +15997,7 @@
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
     </row>
-    <row r="209" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7">
         <v>205</v>
       </c>
@@ -16016,7 +16043,7 @@
       </c>
       <c r="Y209" s="12"/>
     </row>
-    <row r="210" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="7">
         <v>206</v>
       </c>
@@ -16062,7 +16089,7 @@
       </c>
       <c r="Y210" s="12"/>
     </row>
-    <row r="211" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7">
         <v>207</v>
       </c>
@@ -16114,7 +16141,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="212" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7">
         <v>208</v>
       </c>
@@ -16160,7 +16187,7 @@
       <c r="X212" s="12"/>
       <c r="Y212" s="12"/>
     </row>
-    <row r="213" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7">
         <v>209</v>
       </c>
@@ -16208,7 +16235,7 @@
       </c>
       <c r="Y213" s="12"/>
     </row>
-    <row r="214" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:25" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B214" s="7">
         <v>210</v>
       </c>
@@ -16260,7 +16287,7 @@
       </c>
       <c r="Y214" s="12"/>
     </row>
-    <row r="215" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
         <v>211</v>
       </c>
@@ -16310,7 +16337,7 @@
       <c r="X215" s="12"/>
       <c r="Y215" s="12"/>
     </row>
-    <row r="216" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B216" s="7">
         <v>212</v>
       </c>
@@ -16362,7 +16389,7 @@
       </c>
       <c r="Y216" s="12"/>
     </row>
-    <row r="217" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
         <v>213</v>
       </c>
@@ -16408,7 +16435,7 @@
       <c r="X217" s="12"/>
       <c r="Y217" s="12"/>
     </row>
-    <row r="218" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7">
         <v>214</v>
       </c>
@@ -16454,7 +16481,7 @@
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
     </row>
-    <row r="219" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7">
         <v>215</v>
       </c>
@@ -16500,7 +16527,7 @@
       <c r="X219" s="12"/>
       <c r="Y219" s="12"/>
     </row>
-    <row r="220" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="7">
         <v>216</v>
       </c>
@@ -16546,7 +16573,7 @@
       <c r="X220" s="12"/>
       <c r="Y220" s="12"/>
     </row>
-    <row r="221" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B221" s="7">
         <v>217</v>
       </c>
@@ -16598,7 +16625,7 @@
       </c>
       <c r="Y221" s="12"/>
     </row>
-    <row r="222" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B222" s="7">
         <v>218</v>
       </c>
@@ -16650,7 +16677,7 @@
       </c>
       <c r="Y222" s="12"/>
     </row>
-    <row r="223" spans="2:25" ht="140" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:25" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B223" s="7">
         <v>219</v>
       </c>
@@ -16700,7 +16727,7 @@
       <c r="X223" s="12"/>
       <c r="Y223" s="12"/>
     </row>
-    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="7">
         <v>220</v>
       </c>
@@ -16750,7 +16777,7 @@
       </c>
       <c r="Y224" s="12"/>
     </row>
-    <row r="225" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
         <v>221</v>
       </c>
@@ -16800,7 +16827,7 @@
       <c r="X225" s="12"/>
       <c r="Y225" s="12"/>
     </row>
-    <row r="226" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="7">
         <v>222</v>
       </c>
@@ -16850,7 +16877,7 @@
       </c>
       <c r="Y226" s="12"/>
     </row>
-    <row r="227" spans="2:25" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:25" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="7">
         <v>223</v>
       </c>
@@ -16894,7 +16921,7 @@
       <c r="X227" s="12"/>
       <c r="Y227" s="12"/>
     </row>
-    <row r="228" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="7">
         <v>224</v>
       </c>
@@ -16938,7 +16965,7 @@
       <c r="X228" s="12"/>
       <c r="Y228" s="12"/>
     </row>
-    <row r="229" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="7">
         <v>225</v>
       </c>
@@ -16982,7 +17009,7 @@
       <c r="X229" s="12"/>
       <c r="Y229" s="12"/>
     </row>
-    <row r="230" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="7">
         <v>226</v>
       </c>
@@ -17032,7 +17059,7 @@
       </c>
       <c r="Y230" s="12"/>
     </row>
-    <row r="231" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="7">
         <v>227</v>
       </c>
@@ -17080,7 +17107,7 @@
       <c r="X231" s="12"/>
       <c r="Y231" s="12"/>
     </row>
-    <row r="232" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="7">
         <v>228</v>
       </c>
@@ -17128,7 +17155,7 @@
       <c r="X232" s="12"/>
       <c r="Y232" s="12"/>
     </row>
-    <row r="233" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="7">
         <v>229</v>
       </c>
@@ -17178,7 +17205,7 @@
       <c r="X233" s="12"/>
       <c r="Y233" s="12"/>
     </row>
-    <row r="234" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="7">
         <v>230</v>
       </c>
@@ -17228,7 +17255,7 @@
       <c r="X234" s="12"/>
       <c r="Y234" s="12"/>
     </row>
-    <row r="235" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B235" s="7">
         <v>231</v>
       </c>
@@ -17276,7 +17303,7 @@
       <c r="X235" s="12"/>
       <c r="Y235" s="12"/>
     </row>
-    <row r="236" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="7">
         <v>232</v>
       </c>
@@ -17322,7 +17349,7 @@
       <c r="X236" s="12"/>
       <c r="Y236" s="12"/>
     </row>
-    <row r="237" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="7">
         <v>233</v>
       </c>
@@ -17368,7 +17395,7 @@
       <c r="X237" s="12"/>
       <c r="Y237" s="12"/>
     </row>
-    <row r="238" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
         <v>234</v>
       </c>
@@ -17416,7 +17443,7 @@
       <c r="X238" s="12"/>
       <c r="Y238" s="12"/>
     </row>
-    <row r="239" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B239" s="7">
         <v>235</v>
       </c>
@@ -17458,7 +17485,7 @@
       <c r="X239" s="12"/>
       <c r="Y239" s="12"/>
     </row>
-    <row r="240" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B240" s="7">
         <v>236</v>
       </c>
@@ -17498,7 +17525,7 @@
       <c r="X240" s="12"/>
       <c r="Y240" s="12"/>
     </row>
-    <row r="241" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B241" s="7">
         <v>237</v>
       </c>
@@ -17540,7 +17567,7 @@
       <c r="X241" s="12"/>
       <c r="Y241" s="12"/>
     </row>
-    <row r="242" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B242" s="7">
         <v>238</v>
       </c>
@@ -17584,7 +17611,7 @@
       <c r="X242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B243" s="7">
         <v>239</v>
       </c>
@@ -17634,7 +17661,7 @@
       <c r="X243" s="12"/>
       <c r="Y243" s="12"/>
     </row>
-    <row r="244" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
         <v>240</v>
       </c>
@@ -17684,7 +17711,7 @@
       <c r="X244" s="12"/>
       <c r="Y244" s="12"/>
     </row>
-    <row r="245" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B245" s="7">
         <v>241</v>
       </c>
@@ -17734,7 +17761,7 @@
       <c r="X245" s="12"/>
       <c r="Y245" s="12"/>
     </row>
-    <row r="246" spans="2:25" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:25" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="7">
         <v>242</v>
       </c>
@@ -17784,7 +17811,7 @@
       </c>
       <c r="Y246" s="10"/>
     </row>
-    <row r="247" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B247" s="7">
         <v>243</v>
       </c>
@@ -17834,7 +17861,7 @@
       <c r="X247" s="12"/>
       <c r="Y247" s="12"/>
     </row>
-    <row r="248" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
         <v>244</v>
       </c>
@@ -17886,7 +17913,7 @@
       </c>
       <c r="Y248" s="12"/>
     </row>
-    <row r="249" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="7">
         <v>245</v>
       </c>
@@ -17932,7 +17959,7 @@
       <c r="X249" s="12"/>
       <c r="Y249" s="12"/>
     </row>
-    <row r="250" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B250" s="7">
         <v>246</v>
       </c>
@@ -17974,7 +18001,7 @@
       <c r="X250" s="12"/>
       <c r="Y250" s="12"/>
     </row>
-    <row r="251" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B251" s="7">
         <v>247</v>
       </c>
@@ -18016,7 +18043,7 @@
       <c r="X251" s="12"/>
       <c r="Y251" s="12"/>
     </row>
-    <row r="252" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B252" s="7">
         <v>248</v>
       </c>
@@ -18058,7 +18085,7 @@
       <c r="X252" s="12"/>
       <c r="Y252" s="12"/>
     </row>
-    <row r="253" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B253" s="7">
         <v>249</v>
       </c>
@@ -18102,7 +18129,7 @@
       <c r="X253" s="12"/>
       <c r="Y253" s="12"/>
     </row>
-    <row r="254" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B254" s="7">
         <v>250</v>
       </c>
@@ -18144,7 +18171,7 @@
       <c r="X254" s="12"/>
       <c r="Y254" s="12"/>
     </row>
-    <row r="255" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B255" s="7">
         <v>251</v>
       </c>
@@ -18188,7 +18215,7 @@
       <c r="X255" s="12"/>
       <c r="Y255" s="12"/>
     </row>
-    <row r="256" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B256" s="7">
         <v>252</v>
       </c>
@@ -18232,7 +18259,7 @@
       <c r="X256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
         <v>253</v>
       </c>
@@ -18278,7 +18305,7 @@
       <c r="X257" s="12"/>
       <c r="Y257" s="12"/>
     </row>
-    <row r="258" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B258" s="7">
         <v>254</v>
       </c>
@@ -18328,7 +18355,7 @@
       </c>
       <c r="Y258" s="12"/>
     </row>
-    <row r="259" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B259" s="7">
         <v>255</v>
       </c>
@@ -18380,7 +18407,7 @@
       </c>
       <c r="Y259" s="12"/>
     </row>
-    <row r="260" spans="1:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B260" s="7">
         <v>256</v>
       </c>
@@ -18432,7 +18459,7 @@
       </c>
       <c r="Y260" s="12"/>
     </row>
-    <row r="261" spans="1:25" s="16" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:25" s="16" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" s="7">
         <v>257</v>
       </c>
@@ -18482,7 +18509,7 @@
       </c>
       <c r="Y261" s="10"/>
     </row>
-    <row r="262" spans="1:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="16"/>
       <c r="B262" s="7">
         <v>258</v>
@@ -18533,7 +18560,7 @@
       </c>
       <c r="Y262" s="12"/>
     </row>
-    <row r="263" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263" s="7">
         <v>259</v>
       </c>
@@ -18583,7 +18610,7 @@
       </c>
       <c r="Y263" s="12"/>
     </row>
-    <row r="264" spans="1:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" s="7">
         <v>260</v>
       </c>
@@ -18625,7 +18652,7 @@
       <c r="X264" s="12"/>
       <c r="Y264" s="12"/>
     </row>
-    <row r="265" spans="1:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
         <v>261</v>
       </c>
@@ -18677,7 +18704,7 @@
       </c>
       <c r="Y265" s="12"/>
     </row>
-    <row r="266" spans="1:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B266" s="7">
         <v>262</v>
       </c>
@@ -18727,7 +18754,7 @@
       <c r="X266" s="12"/>
       <c r="Y266" s="12"/>
     </row>
-    <row r="267" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B267" s="7">
         <v>263</v>
       </c>
@@ -18777,7 +18804,7 @@
       <c r="X267" s="12"/>
       <c r="Y267" s="12"/>
     </row>
-    <row r="268" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B268" s="7">
         <v>264</v>
       </c>
@@ -18829,7 +18856,7 @@
       </c>
       <c r="Y268" s="12"/>
     </row>
-    <row r="269" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B269" s="7">
         <v>265</v>
       </c>
@@ -18879,7 +18906,7 @@
       <c r="X269" s="12"/>
       <c r="Y269" s="12"/>
     </row>
-    <row r="270" spans="1:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
         <v>266</v>
       </c>
@@ -18929,7 +18956,7 @@
       <c r="X270" s="12"/>
       <c r="Y270" s="12"/>
     </row>
-    <row r="271" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B271" s="7">
         <v>267</v>
       </c>
@@ -18977,7 +19004,7 @@
       <c r="X271" s="12"/>
       <c r="Y271" s="12"/>
     </row>
-    <row r="272" spans="1:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B272" s="7">
         <v>268</v>
       </c>
@@ -19025,7 +19052,7 @@
       <c r="X272" s="12"/>
       <c r="Y272" s="12"/>
     </row>
-    <row r="273" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B273" s="7">
         <v>269</v>
       </c>
@@ -19069,7 +19096,7 @@
       <c r="X273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" s="7">
         <v>270</v>
       </c>
@@ -19109,7 +19136,7 @@
       </c>
       <c r="Y274" s="12"/>
     </row>
-    <row r="275" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="7">
         <v>271</v>
       </c>
@@ -19149,7 +19176,7 @@
       </c>
       <c r="Y275" s="12"/>
     </row>
-    <row r="276" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" s="7">
         <v>272</v>
       </c>
@@ -19189,7 +19216,7 @@
       </c>
       <c r="Y276" s="12"/>
     </row>
-    <row r="277" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277" s="7">
         <v>273</v>
       </c>
@@ -19229,7 +19256,7 @@
       </c>
       <c r="Y277" s="12"/>
     </row>
-    <row r="278" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278" s="7">
         <v>274</v>
       </c>
@@ -19269,7 +19296,7 @@
       </c>
       <c r="Y278" s="12"/>
     </row>
-    <row r="279" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
         <v>275</v>
       </c>
@@ -19309,7 +19336,7 @@
       </c>
       <c r="Y279" s="12"/>
     </row>
-    <row r="280" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280" s="7">
         <v>276</v>
       </c>
@@ -19353,7 +19380,7 @@
       </c>
       <c r="Y280" s="12"/>
     </row>
-    <row r="281" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="7">
         <v>277</v>
       </c>
@@ -19393,7 +19420,7 @@
       </c>
       <c r="Y281" s="12"/>
     </row>
-    <row r="282" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B282" s="7">
         <v>278</v>
       </c>
@@ -19433,7 +19460,7 @@
       </c>
       <c r="Y282" s="12"/>
     </row>
-    <row r="283" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283" s="7">
         <v>279</v>
       </c>
@@ -19475,7 +19502,7 @@
       </c>
       <c r="Y283" s="12"/>
     </row>
-    <row r="284" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B284" s="7">
         <v>280</v>
       </c>
@@ -19517,7 +19544,7 @@
       </c>
       <c r="Y284" s="12"/>
     </row>
-    <row r="285" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:25" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B285" s="7">
         <v>281</v>
       </c>
@@ -19567,7 +19594,7 @@
       </c>
       <c r="Y285" s="12"/>
     </row>
-    <row r="286" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B286" s="7">
         <v>282</v>
       </c>
@@ -19609,7 +19636,7 @@
       </c>
       <c r="Y286" s="12"/>
     </row>
-    <row r="287" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287" s="7">
         <v>283</v>
       </c>
@@ -19649,7 +19676,7 @@
       </c>
       <c r="Y287" s="12"/>
     </row>
-    <row r="288" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
         <v>284</v>
       </c>
@@ -19699,7 +19726,7 @@
       </c>
       <c r="Y288" s="12"/>
     </row>
-    <row r="289" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="7">
         <v>285</v>
       </c>
@@ -19745,7 +19772,7 @@
       </c>
       <c r="Y289" s="12"/>
     </row>
-    <row r="290" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290" s="7">
         <v>286</v>
       </c>
@@ -19785,7 +19812,7 @@
       </c>
       <c r="Y290" s="12"/>
     </row>
-    <row r="291" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="7">
         <v>287</v>
       </c>
@@ -19825,7 +19852,7 @@
       </c>
       <c r="Y291" s="12"/>
     </row>
-    <row r="292" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="7">
         <v>288</v>
       </c>
@@ -19867,7 +19894,7 @@
       </c>
       <c r="Y292" s="12"/>
     </row>
-    <row r="293" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="7">
         <v>289</v>
       </c>
@@ -19913,7 +19940,7 @@
       </c>
       <c r="Y293" s="12"/>
     </row>
-    <row r="294" spans="2:25" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:25" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="7">
         <v>290</v>
       </c>
@@ -19963,7 +19990,7 @@
       </c>
       <c r="Y294" s="12"/>
     </row>
-    <row r="295" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
         <v>291</v>
       </c>
@@ -20003,7 +20030,7 @@
       </c>
       <c r="Y295" s="12"/>
     </row>
-    <row r="296" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="7">
         <v>292</v>
       </c>
@@ -20043,7 +20070,7 @@
       </c>
       <c r="Y296" s="12"/>
     </row>
-    <row r="297" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="7">
         <v>293</v>
       </c>
@@ -20083,7 +20110,7 @@
       </c>
       <c r="Y297" s="12"/>
     </row>
-    <row r="298" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="7">
         <v>294</v>
       </c>
@@ -20123,7 +20150,7 @@
       </c>
       <c r="Y298" s="12"/>
     </row>
-    <row r="299" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="7">
         <v>295</v>
       </c>
@@ -20163,7 +20190,7 @@
       </c>
       <c r="Y299" s="12"/>
     </row>
-    <row r="300" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="7">
         <v>296</v>
       </c>
@@ -20203,7 +20230,7 @@
       </c>
       <c r="Y300" s="12"/>
     </row>
-    <row r="301" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301" s="7">
         <v>297</v>
       </c>
@@ -20243,7 +20270,7 @@
       </c>
       <c r="Y301" s="12"/>
     </row>
-    <row r="302" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="7">
         <v>298</v>
       </c>
@@ -20285,7 +20312,7 @@
       </c>
       <c r="Y302" s="12"/>
     </row>
-    <row r="303" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="7">
         <v>299</v>
       </c>
@@ -20327,7 +20354,7 @@
       </c>
       <c r="Y303" s="12"/>
     </row>
-    <row r="304" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304" s="7">
         <v>300</v>
       </c>
@@ -20369,7 +20396,7 @@
       </c>
       <c r="Y304" s="12"/>
     </row>
-    <row r="305" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="7">
         <v>301</v>
       </c>
@@ -20411,7 +20438,7 @@
       </c>
       <c r="Y305" s="12"/>
     </row>
-    <row r="306" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="7">
         <v>302</v>
       </c>
@@ -20453,7 +20480,7 @@
       </c>
       <c r="Y306" s="12"/>
     </row>
-    <row r="307" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="7">
         <v>303</v>
       </c>
@@ -20493,7 +20520,7 @@
       </c>
       <c r="Y307" s="12"/>
     </row>
-    <row r="308" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="7">
         <v>304</v>
       </c>
@@ -20533,7 +20560,7 @@
       </c>
       <c r="Y308" s="12"/>
     </row>
-    <row r="309" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="7">
         <v>305</v>
       </c>
@@ -20571,7 +20598,7 @@
       </c>
       <c r="Y309" s="12"/>
     </row>
-    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="7">
         <v>306</v>
       </c>
@@ -20609,7 +20636,7 @@
       </c>
       <c r="Y310" s="12"/>
     </row>
-    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="7">
         <v>307</v>
       </c>
@@ -20647,7 +20674,7 @@
       </c>
       <c r="Y311" s="12"/>
     </row>
-    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="7">
         <v>308</v>
       </c>
@@ -20685,7 +20712,7 @@
       </c>
       <c r="Y312" s="12"/>
     </row>
-    <row r="313" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B313" s="7">
         <v>309</v>
       </c>
@@ -20727,7 +20754,7 @@
       </c>
       <c r="Y313" s="12"/>
     </row>
-    <row r="314" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="7">
         <v>310</v>
       </c>
@@ -20767,7 +20794,7 @@
       </c>
       <c r="Y314" s="12"/>
     </row>
-    <row r="315" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="7">
         <v>311</v>
       </c>
@@ -20807,7 +20834,7 @@
       </c>
       <c r="Y315" s="12"/>
     </row>
-    <row r="316" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="7">
         <v>312</v>
       </c>
@@ -20847,7 +20874,7 @@
       </c>
       <c r="Y316" s="12"/>
     </row>
-    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="7">
         <v>313</v>
       </c>
@@ -20885,7 +20912,7 @@
       </c>
       <c r="Y317" s="12"/>
     </row>
-    <row r="318" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318" s="7">
         <v>314</v>
       </c>
@@ -20923,7 +20950,7 @@
       </c>
       <c r="Y318" s="12"/>
     </row>
-    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319" s="7">
         <v>315</v>
       </c>
@@ -20961,7 +20988,7 @@
       </c>
       <c r="Y319" s="12"/>
     </row>
-    <row r="320" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="7">
         <v>316</v>
       </c>
@@ -21001,7 +21028,7 @@
       </c>
       <c r="Y320" s="12"/>
     </row>
-    <row r="321" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321" s="7">
         <v>317</v>
       </c>
@@ -21041,7 +21068,7 @@
       </c>
       <c r="Y321" s="12"/>
     </row>
-    <row r="322" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="7">
         <v>318</v>
       </c>
@@ -21081,7 +21108,7 @@
       </c>
       <c r="Y322" s="12"/>
     </row>
-    <row r="323" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="7">
         <v>319</v>
       </c>
@@ -21123,7 +21150,7 @@
       </c>
       <c r="Y323" s="12"/>
     </row>
-    <row r="324" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="7">
         <v>320</v>
       </c>
@@ -21165,7 +21192,7 @@
       </c>
       <c r="Y324" s="12"/>
     </row>
-    <row r="325" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="7">
         <v>321</v>
       </c>
@@ -21207,7 +21234,7 @@
       </c>
       <c r="Y325" s="12"/>
     </row>
-    <row r="326" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="7">
         <v>322</v>
       </c>
@@ -21253,7 +21280,7 @@
       </c>
       <c r="Y326" s="12"/>
     </row>
-    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="7">
         <v>323</v>
       </c>
@@ -21291,7 +21318,7 @@
       </c>
       <c r="Y327" s="12"/>
     </row>
-    <row r="328" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B328" s="7">
         <v>324</v>
       </c>
@@ -21333,7 +21360,7 @@
       </c>
       <c r="Y328" s="12"/>
     </row>
-    <row r="329" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="7">
         <v>325</v>
       </c>
@@ -21376,7 +21403,7 @@
       </c>
       <c r="Y329" s="12"/>
     </row>
-    <row r="330" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="7">
         <v>326</v>
       </c>
@@ -21419,7 +21446,7 @@
       <c r="X330" s="12"/>
       <c r="Y330" s="12"/>
     </row>
-    <row r="331" spans="2:25" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:25" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="7">
         <v>327</v>
       </c>
@@ -21460,7 +21487,7 @@
       <c r="X331" s="12"/>
       <c r="Y331" s="12"/>
     </row>
-    <row r="332" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B332" s="7">
         <v>328</v>
       </c>
@@ -21503,7 +21530,7 @@
       </c>
       <c r="Y332" s="12"/>
     </row>
-    <row r="333" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333" s="7">
         <v>329</v>
       </c>
@@ -21546,7 +21573,7 @@
       </c>
       <c r="Y333" s="12"/>
     </row>
-    <row r="334" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334" s="7">
         <v>330</v>
       </c>
@@ -21589,7 +21616,7 @@
       </c>
       <c r="Y334" s="12"/>
     </row>
-    <row r="335" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="7">
         <v>331</v>
       </c>
@@ -21636,7 +21663,7 @@
       </c>
       <c r="Y335" s="12"/>
     </row>
-    <row r="336" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336" s="7">
         <v>332</v>
       </c>
@@ -21683,7 +21710,7 @@
       </c>
       <c r="Y336" s="12"/>
     </row>
-    <row r="337" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B337" s="7">
         <v>333</v>
       </c>
@@ -21730,7 +21757,7 @@
       </c>
       <c r="Y337" s="12"/>
     </row>
-    <row r="338" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B338" s="7">
         <v>334</v>
       </c>
@@ -21777,7 +21804,7 @@
       </c>
       <c r="Y338" s="12"/>
     </row>
-    <row r="339" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B339" s="7">
         <v>335</v>
       </c>
@@ -21824,7 +21851,7 @@
       </c>
       <c r="Y339" s="12"/>
     </row>
-    <row r="340" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B340" s="7">
         <v>336</v>
       </c>
@@ -21869,7 +21896,7 @@
       <c r="X340" s="12"/>
       <c r="Y340" s="12"/>
     </row>
-    <row r="341" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B341" s="7">
         <v>337</v>
       </c>
@@ -21918,7 +21945,7 @@
       <c r="X341" s="12"/>
       <c r="Y341" s="12"/>
     </row>
-    <row r="342" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B342" s="7">
         <v>338</v>
       </c>
@@ -21963,7 +21990,7 @@
       <c r="X342" s="12"/>
       <c r="Y342" s="12"/>
     </row>
-    <row r="343" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B343" s="7">
         <v>339</v>
       </c>
@@ -22012,7 +22039,7 @@
       <c r="X343" s="12"/>
       <c r="Y343" s="12"/>
     </row>
-    <row r="344" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="7">
         <v>340</v>
       </c>
@@ -22057,7 +22084,7 @@
       <c r="X344" s="12"/>
       <c r="Y344" s="12"/>
     </row>
-    <row r="345" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B345" s="7">
         <v>341</v>
       </c>
@@ -22106,7 +22133,7 @@
       <c r="X345" s="12"/>
       <c r="Y345" s="12"/>
     </row>
-    <row r="346" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B346" s="7">
         <v>342</v>
       </c>
@@ -22155,7 +22182,7 @@
       <c r="X346" s="12"/>
       <c r="Y346" s="12"/>
     </row>
-    <row r="347" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B347" s="7">
         <v>343</v>
       </c>
@@ -22204,7 +22231,7 @@
       <c r="X347" s="12"/>
       <c r="Y347" s="12"/>
     </row>
-    <row r="348" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B348" s="7">
         <v>344</v>
       </c>
@@ -22253,7 +22280,7 @@
       <c r="X348" s="12"/>
       <c r="Y348" s="12"/>
     </row>
-    <row r="349" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B349" s="7">
         <v>345</v>
       </c>
@@ -22302,7 +22329,7 @@
       <c r="X349" s="12"/>
       <c r="Y349" s="12"/>
     </row>
-    <row r="350" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B350" s="7">
         <v>346</v>
       </c>
@@ -22351,7 +22378,7 @@
       <c r="X350" s="12"/>
       <c r="Y350" s="12"/>
     </row>
-    <row r="351" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B351" s="7">
         <v>347</v>
       </c>
@@ -22400,7 +22427,7 @@
       <c r="X351" s="12"/>
       <c r="Y351" s="12"/>
     </row>
-    <row r="352" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B352" s="7">
         <v>348</v>
       </c>
@@ -22449,7 +22476,7 @@
       <c r="X352" s="12"/>
       <c r="Y352" s="12"/>
     </row>
-    <row r="353" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B353" s="7">
         <v>349</v>
       </c>
@@ -22498,7 +22525,7 @@
       <c r="X353" s="12"/>
       <c r="Y353" s="12"/>
     </row>
-    <row r="354" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B354" s="7">
         <v>350</v>
       </c>
@@ -22547,7 +22574,7 @@
       <c r="X354" s="12"/>
       <c r="Y354" s="12"/>
     </row>
-    <row r="355" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B355" s="7">
         <v>351</v>
       </c>
@@ -22596,7 +22623,7 @@
       <c r="X355" s="12"/>
       <c r="Y355" s="12"/>
     </row>
-    <row r="356" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B356" s="7">
         <v>352</v>
       </c>
@@ -22645,7 +22672,7 @@
       <c r="X356" s="12"/>
       <c r="Y356" s="12"/>
     </row>
-    <row r="357" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B357" s="7">
         <v>353</v>
       </c>
@@ -22694,7 +22721,7 @@
       <c r="X357" s="12"/>
       <c r="Y357" s="12"/>
     </row>
-    <row r="358" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B358" s="7">
         <v>354</v>
       </c>
@@ -22743,7 +22770,7 @@
       <c r="X358" s="12"/>
       <c r="Y358" s="12"/>
     </row>
-    <row r="359" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B359" s="7">
         <v>355</v>
       </c>
@@ -22788,7 +22815,7 @@
       <c r="X359" s="12"/>
       <c r="Y359" s="12"/>
     </row>
-    <row r="360" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B360" s="7">
         <v>356</v>
       </c>
@@ -22837,7 +22864,7 @@
       <c r="X360" s="12"/>
       <c r="Y360" s="12"/>
     </row>
-    <row r="361" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B361" s="7">
         <v>357</v>
       </c>
@@ -22886,7 +22913,7 @@
       <c r="X361" s="12"/>
       <c r="Y361" s="12"/>
     </row>
-    <row r="362" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B362" s="7">
         <v>358</v>
       </c>
@@ -22931,7 +22958,7 @@
       <c r="X362" s="12"/>
       <c r="Y362" s="12"/>
     </row>
-    <row r="363" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B363" s="7">
         <v>359</v>
       </c>
@@ -22980,7 +23007,7 @@
       <c r="X363" s="12"/>
       <c r="Y363" s="12"/>
     </row>
-    <row r="364" spans="2:25" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B364" s="7">
         <v>360</v>
       </c>
@@ -23025,7 +23052,7 @@
       <c r="X364" s="12"/>
       <c r="Y364" s="12"/>
     </row>
-    <row r="365" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B365" s="7">
         <v>361</v>
       </c>
@@ -23074,7 +23101,7 @@
       <c r="X365" s="12"/>
       <c r="Y365" s="12"/>
     </row>
-    <row r="366" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B366" s="7">
         <v>362</v>
       </c>
@@ -23123,7 +23150,7 @@
       <c r="X366" s="12"/>
       <c r="Y366" s="12"/>
     </row>
-    <row r="367" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B367" s="7">
         <v>363</v>
       </c>
@@ -23172,7 +23199,7 @@
       <c r="X367" s="12"/>
       <c r="Y367" s="12"/>
     </row>
-    <row r="368" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="7">
         <v>364</v>
       </c>
@@ -23217,7 +23244,7 @@
       <c r="X368" s="12"/>
       <c r="Y368" s="12"/>
     </row>
-    <row r="369" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B369" s="7">
         <v>365</v>
       </c>
@@ -23266,7 +23293,7 @@
       <c r="X369" s="12"/>
       <c r="Y369" s="12"/>
     </row>
-    <row r="370" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B370" s="7">
         <v>366</v>
       </c>
@@ -23311,7 +23338,7 @@
       <c r="X370" s="12"/>
       <c r="Y370" s="12"/>
     </row>
-    <row r="371" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B371" s="7">
         <v>367</v>
       </c>
@@ -23360,7 +23387,7 @@
       <c r="X371" s="12"/>
       <c r="Y371" s="12"/>
     </row>
-    <row r="372" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B372" s="7">
         <v>368</v>
       </c>
@@ -23409,7 +23436,7 @@
       <c r="X372" s="12"/>
       <c r="Y372" s="12"/>
     </row>
-    <row r="373" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B373" s="7">
         <v>369</v>
       </c>
@@ -23454,7 +23481,7 @@
       <c r="X373" s="12"/>
       <c r="Y373" s="12"/>
     </row>
-    <row r="374" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B374" s="7">
         <v>370</v>
       </c>
@@ -23503,7 +23530,7 @@
       <c r="X374" s="12"/>
       <c r="Y374" s="12"/>
     </row>
-    <row r="375" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B375" s="7">
         <v>371</v>
       </c>
@@ -23550,7 +23577,7 @@
       </c>
       <c r="Y375" s="12"/>
     </row>
-    <row r="376" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B376" s="7">
         <v>372</v>
       </c>
@@ -23597,7 +23624,7 @@
       </c>
       <c r="Y376" s="12"/>
     </row>
-    <row r="377" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B377" s="7">
         <v>373</v>
       </c>
@@ -23642,7 +23669,7 @@
       <c r="X377" s="12"/>
       <c r="Y377" s="12"/>
     </row>
-    <row r="378" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B378" s="7">
         <v>374</v>
       </c>
@@ -23687,7 +23714,7 @@
       <c r="X378" s="12"/>
       <c r="Y378" s="12"/>
     </row>
-    <row r="379" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B379" s="7">
         <v>375</v>
       </c>
@@ -23736,7 +23763,7 @@
       <c r="X379" s="12"/>
       <c r="Y379" s="12"/>
     </row>
-    <row r="380" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B380" s="7">
         <v>376</v>
       </c>
@@ -23785,7 +23812,7 @@
       <c r="X380" s="12"/>
       <c r="Y380" s="12"/>
     </row>
-    <row r="381" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B381" s="7">
         <v>377</v>
       </c>
@@ -23830,7 +23857,7 @@
       <c r="X381" s="12"/>
       <c r="Y381" s="12"/>
     </row>
-    <row r="382" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B382" s="7">
         <v>378</v>
       </c>
@@ -23879,7 +23906,7 @@
       <c r="X382" s="12"/>
       <c r="Y382" s="12"/>
     </row>
-    <row r="383" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B383" s="7">
         <v>379</v>
       </c>
@@ -23928,7 +23955,7 @@
       <c r="X383" s="12"/>
       <c r="Y383" s="12"/>
     </row>
-    <row r="384" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B384" s="7">
         <v>380</v>
       </c>
@@ -23973,7 +24000,7 @@
       <c r="X384" s="12"/>
       <c r="Y384" s="12"/>
     </row>
-    <row r="385" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B385" s="7">
         <v>381</v>
       </c>
@@ -24018,7 +24045,7 @@
       <c r="X385" s="12"/>
       <c r="Y385" s="12"/>
     </row>
-    <row r="386" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B386" s="7">
         <v>382</v>
       </c>
@@ -24067,7 +24094,7 @@
       <c r="X386" s="12"/>
       <c r="Y386" s="12"/>
     </row>
-    <row r="387" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B387" s="7">
         <v>383</v>
       </c>
@@ -24116,7 +24143,7 @@
       <c r="X387" s="12"/>
       <c r="Y387" s="12"/>
     </row>
-    <row r="388" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B388" s="7">
         <v>384</v>
       </c>
@@ -24161,7 +24188,7 @@
       <c r="X388" s="12"/>
       <c r="Y388" s="12"/>
     </row>
-    <row r="389" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B389" s="7">
         <v>385</v>
       </c>
@@ -24206,7 +24233,7 @@
       <c r="X389" s="12"/>
       <c r="Y389" s="12"/>
     </row>
-    <row r="390" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B390" s="7">
         <v>386</v>
       </c>
@@ -24255,7 +24282,7 @@
       <c r="X390" s="12"/>
       <c r="Y390" s="12"/>
     </row>
-    <row r="391" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B391" s="7">
         <v>387</v>
       </c>
@@ -24300,7 +24327,7 @@
       <c r="X391" s="12"/>
       <c r="Y391" s="12"/>
     </row>
-    <row r="392" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B392" s="7">
         <v>388</v>
       </c>
@@ -24349,7 +24376,7 @@
       <c r="X392" s="12"/>
       <c r="Y392" s="12"/>
     </row>
-    <row r="393" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="7">
         <v>389</v>
       </c>
@@ -24394,7 +24421,7 @@
       <c r="X393" s="12"/>
       <c r="Y393" s="12"/>
     </row>
-    <row r="394" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="7">
         <v>390</v>
       </c>
@@ -24439,7 +24466,7 @@
       <c r="X394" s="12"/>
       <c r="Y394" s="12"/>
     </row>
-    <row r="395" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B395" s="7">
         <v>391</v>
       </c>
@@ -24488,7 +24515,7 @@
       <c r="X395" s="12"/>
       <c r="Y395" s="12"/>
     </row>
-    <row r="396" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B396" s="7">
         <v>392</v>
       </c>
@@ -24533,7 +24560,7 @@
       <c r="X396" s="12"/>
       <c r="Y396" s="12"/>
     </row>
-    <row r="397" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B397" s="7">
         <v>393</v>
       </c>
@@ -24582,7 +24609,7 @@
       <c r="X397" s="12"/>
       <c r="Y397" s="12"/>
     </row>
-    <row r="398" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B398" s="7">
         <v>394</v>
       </c>
@@ -24631,7 +24658,7 @@
       <c r="X398" s="12"/>
       <c r="Y398" s="12"/>
     </row>
-    <row r="399" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B399" s="7">
         <v>395</v>
       </c>
@@ -24678,7 +24705,7 @@
       </c>
       <c r="Y399" s="12"/>
     </row>
-    <row r="400" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B400" s="7">
         <v>396</v>
       </c>
@@ -24725,7 +24752,7 @@
       </c>
       <c r="Y400" s="12"/>
     </row>
-    <row r="401" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B401" s="7">
         <v>397</v>
       </c>
@@ -24770,7 +24797,7 @@
       <c r="X401" s="12"/>
       <c r="Y401" s="12"/>
     </row>
-    <row r="402" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402" s="7">
         <v>398</v>
       </c>
@@ -24817,7 +24844,7 @@
       </c>
       <c r="Y402" s="12"/>
     </row>
-    <row r="403" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403" s="7">
         <v>399</v>
       </c>
@@ -24862,7 +24889,7 @@
       <c r="X403" s="12"/>
       <c r="Y403" s="12"/>
     </row>
-    <row r="404" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B404" s="7">
         <v>400</v>
       </c>
@@ -24911,7 +24938,7 @@
       <c r="X404" s="12"/>
       <c r="Y404" s="12"/>
     </row>
-    <row r="405" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B405" s="7">
         <v>401</v>
       </c>
@@ -24956,7 +24983,7 @@
       <c r="X405" s="12"/>
       <c r="Y405" s="12"/>
     </row>
-    <row r="406" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B406" s="7">
         <v>402</v>
       </c>
@@ -25001,7 +25028,7 @@
       <c r="X406" s="12"/>
       <c r="Y406" s="12"/>
     </row>
-    <row r="407" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B407" s="7">
         <v>403</v>
       </c>
@@ -25050,7 +25077,7 @@
       <c r="X407" s="12"/>
       <c r="Y407" s="12"/>
     </row>
-    <row r="408" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B408" s="7">
         <v>404</v>
       </c>
@@ -25095,7 +25122,7 @@
       <c r="X408" s="12"/>
       <c r="Y408" s="12"/>
     </row>
-    <row r="409" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B409" s="7">
         <v>405</v>
       </c>
@@ -25144,7 +25171,7 @@
       <c r="X409" s="12"/>
       <c r="Y409" s="12"/>
     </row>
-    <row r="410" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B410" s="7">
         <v>406</v>
       </c>
@@ -25193,7 +25220,7 @@
       <c r="X410" s="12"/>
       <c r="Y410" s="12"/>
     </row>
-    <row r="411" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B411" s="7">
         <v>407</v>
       </c>
@@ -25240,7 +25267,7 @@
       </c>
       <c r="Y411" s="12"/>
     </row>
-    <row r="412" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B412" s="7">
         <v>408</v>
       </c>
@@ -25289,7 +25316,7 @@
       <c r="X412" s="12"/>
       <c r="Y412" s="12"/>
     </row>
-    <row r="413" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B413" s="7">
         <v>409</v>
       </c>
@@ -25336,7 +25363,7 @@
       </c>
       <c r="Y413" s="12"/>
     </row>
-    <row r="414" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B414" s="7">
         <v>410</v>
       </c>
@@ -25385,7 +25412,7 @@
       <c r="X414" s="12"/>
       <c r="Y414" s="12"/>
     </row>
-    <row r="415" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="7">
         <v>411</v>
       </c>
@@ -25430,7 +25457,7 @@
       <c r="X415" s="12"/>
       <c r="Y415" s="12"/>
     </row>
-    <row r="416" spans="2:25" ht="84" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:25" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B416" s="7">
         <v>412</v>
       </c>
@@ -25479,7 +25506,7 @@
       <c r="X416" s="12"/>
       <c r="Y416" s="12"/>
     </row>
-    <row r="417" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="7">
         <v>413</v>
       </c>
@@ -25524,7 +25551,7 @@
       <c r="X417" s="12"/>
       <c r="Y417" s="12"/>
     </row>
-    <row r="418" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B418" s="7">
         <v>414</v>
       </c>
@@ -25573,7 +25600,7 @@
       <c r="X418" s="12"/>
       <c r="Y418" s="12"/>
     </row>
-    <row r="419" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B419" s="7">
         <v>415</v>
       </c>
@@ -25622,7 +25649,7 @@
       <c r="X419" s="12"/>
       <c r="Y419" s="12"/>
     </row>
-    <row r="420" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B420" s="7">
         <v>416</v>
       </c>
@@ -25667,7 +25694,7 @@
       <c r="X420" s="12"/>
       <c r="Y420" s="12"/>
     </row>
-    <row r="421" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B421" s="7">
         <v>417</v>
       </c>
@@ -25716,7 +25743,7 @@
       <c r="X421" s="12"/>
       <c r="Y421" s="12"/>
     </row>
-    <row r="422" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B422" s="7">
         <v>418</v>
       </c>
@@ -25765,7 +25792,7 @@
       <c r="X422" s="12"/>
       <c r="Y422" s="12"/>
     </row>
-    <row r="423" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B423" s="7">
         <v>419</v>
       </c>
@@ -25810,7 +25837,7 @@
       <c r="X423" s="12"/>
       <c r="Y423" s="12"/>
     </row>
-    <row r="424" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B424" s="7">
         <v>420</v>
       </c>
@@ -25855,7 +25882,7 @@
       <c r="X424" s="12"/>
       <c r="Y424" s="12"/>
     </row>
-    <row r="425" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B425" s="7">
         <v>421</v>
       </c>
@@ -25904,7 +25931,7 @@
       <c r="X425" s="12"/>
       <c r="Y425" s="12"/>
     </row>
-    <row r="426" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B426" s="7">
         <v>422</v>
       </c>
@@ -25953,7 +25980,7 @@
       <c r="X426" s="12"/>
       <c r="Y426" s="12"/>
     </row>
-    <row r="427" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B427" s="7">
         <v>423</v>
       </c>
@@ -26002,7 +26029,7 @@
       <c r="X427" s="12"/>
       <c r="Y427" s="12"/>
     </row>
-    <row r="428" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B428" s="7">
         <v>424</v>
       </c>
@@ -26051,7 +26078,7 @@
       <c r="X428" s="12"/>
       <c r="Y428" s="12"/>
     </row>
-    <row r="429" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B429" s="7">
         <v>425</v>
       </c>
@@ -26100,7 +26127,7 @@
       <c r="X429" s="12"/>
       <c r="Y429" s="12"/>
     </row>
-    <row r="430" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B430" s="7">
         <v>426</v>
       </c>
@@ -26149,7 +26176,7 @@
       <c r="X430" s="12"/>
       <c r="Y430" s="12"/>
     </row>
-    <row r="431" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431" s="7">
         <v>427</v>
       </c>
@@ -26196,7 +26223,7 @@
       </c>
       <c r="Y431" s="12"/>
     </row>
-    <row r="432" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B432" s="7">
         <v>428</v>
       </c>
@@ -26247,7 +26274,7 @@
       </c>
       <c r="Y432" s="12"/>
     </row>
-    <row r="433" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B433" s="7">
         <v>429</v>
       </c>
@@ -26296,7 +26323,7 @@
       <c r="X433" s="12"/>
       <c r="Y433" s="12"/>
     </row>
-    <row r="434" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B434" s="7">
         <v>430</v>
       </c>
@@ -26345,7 +26372,7 @@
       <c r="X434" s="12"/>
       <c r="Y434" s="12"/>
     </row>
-    <row r="435" spans="2:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B435" s="7">
         <v>431</v>
       </c>
@@ -26394,7 +26421,7 @@
       <c r="X435" s="12"/>
       <c r="Y435" s="12"/>
     </row>
-    <row r="436" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B436" s="7">
         <v>432</v>
       </c>
@@ -26443,7 +26470,7 @@
       <c r="X436" s="12"/>
       <c r="Y436" s="12"/>
     </row>
-    <row r="437" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B437" s="7">
         <v>433</v>
       </c>
@@ -26490,7 +26517,7 @@
       </c>
       <c r="Y437" s="12"/>
     </row>
-    <row r="438" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B438" s="7">
         <v>434</v>
       </c>
@@ -26537,7 +26564,7 @@
       </c>
       <c r="Y438" s="12"/>
     </row>
-    <row r="439" spans="2:25" ht="70" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B439" s="7">
         <v>435</v>
       </c>
@@ -26586,7 +26613,7 @@
       <c r="X439" s="12"/>
       <c r="Y439" s="12"/>
     </row>
-    <row r="440" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B440" s="7">
         <v>436</v>
       </c>
@@ -26635,7 +26662,7 @@
       <c r="X440" s="12"/>
       <c r="Y440" s="12"/>
     </row>
-    <row r="441" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B441" s="7">
         <v>437</v>
       </c>
@@ -26684,7 +26711,7 @@
       <c r="X441" s="12"/>
       <c r="Y441" s="12"/>
     </row>
-    <row r="442" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B442" s="7">
         <v>438</v>
       </c>
@@ -26733,7 +26760,7 @@
       <c r="X442" s="12"/>
       <c r="Y442" s="12"/>
     </row>
-    <row r="443" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B443" s="7">
         <v>439</v>
       </c>
@@ -26782,7 +26809,7 @@
       <c r="X443" s="12"/>
       <c r="Y443" s="12"/>
     </row>
-    <row r="444" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B444" s="7">
         <v>440</v>
       </c>
@@ -26827,7 +26854,7 @@
       <c r="X444" s="12"/>
       <c r="Y444" s="12"/>
     </row>
-    <row r="445" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B445" s="7">
         <v>441</v>
       </c>
@@ -26872,7 +26899,7 @@
       <c r="X445" s="12"/>
       <c r="Y445" s="12"/>
     </row>
-    <row r="446" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="7">
         <v>442</v>
       </c>
@@ -26919,7 +26946,7 @@
       </c>
       <c r="Y446" s="12"/>
     </row>
-    <row r="447" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="7">
         <v>443</v>
       </c>
@@ -26966,7 +26993,7 @@
       </c>
       <c r="Y447" s="12"/>
     </row>
-    <row r="448" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B448" s="7">
         <v>444</v>
       </c>
@@ -27015,7 +27042,7 @@
       <c r="X448" s="12"/>
       <c r="Y448" s="12"/>
     </row>
-    <row r="449" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="7">
         <v>445</v>
       </c>
@@ -27060,7 +27087,7 @@
       <c r="X449" s="12"/>
       <c r="Y449" s="12"/>
     </row>
-    <row r="450" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B450" s="7">
         <v>446</v>
       </c>
@@ -27109,7 +27136,7 @@
       <c r="X450" s="12"/>
       <c r="Y450" s="12"/>
     </row>
-    <row r="451" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="7">
         <v>447</v>
       </c>
@@ -27156,7 +27183,7 @@
       </c>
       <c r="Y451" s="12"/>
     </row>
-    <row r="452" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452" s="7">
         <v>448</v>
       </c>
@@ -27203,7 +27230,7 @@
       </c>
       <c r="Y452" s="12"/>
     </row>
-    <row r="453" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B453" s="7">
         <v>449</v>
       </c>
@@ -27250,7 +27277,7 @@
       </c>
       <c r="Y453" s="12"/>
     </row>
-    <row r="454" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454" s="7">
         <v>450</v>
       </c>
@@ -27297,7 +27324,7 @@
       </c>
       <c r="Y454" s="12"/>
     </row>
-    <row r="455" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:25" ht="57" x14ac:dyDescent="0.25">
       <c r="B455" s="7">
         <v>451</v>
       </c>
@@ -27346,7 +27373,7 @@
       <c r="X455" s="12"/>
       <c r="Y455" s="12"/>
     </row>
-    <row r="456" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B456" s="7">
         <v>452</v>
       </c>
@@ -27393,7 +27420,7 @@
       </c>
       <c r="Y456" s="12"/>
     </row>
-    <row r="457" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457" s="7">
         <v>453</v>
       </c>
@@ -27438,7 +27465,7 @@
       <c r="X457" s="12"/>
       <c r="Y457" s="12"/>
     </row>
-    <row r="458" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B458" s="7">
         <v>454</v>
       </c>
@@ -27483,7 +27510,7 @@
       <c r="X458" s="12"/>
       <c r="Y458" s="12"/>
     </row>
-    <row r="459" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B459" s="7">
         <v>455</v>
       </c>
@@ -27528,7 +27555,7 @@
       <c r="X459" s="12"/>
       <c r="Y459" s="12"/>
     </row>
-    <row r="460" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B460" s="7">
         <v>456</v>
       </c>
@@ -27573,7 +27600,7 @@
       <c r="X460" s="12"/>
       <c r="Y460" s="12"/>
     </row>
-    <row r="461" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B461" s="7">
         <v>457</v>
       </c>
@@ -27618,7 +27645,7 @@
       <c r="X461" s="12"/>
       <c r="Y461" s="12"/>
     </row>
-    <row r="462" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B462" s="7">
         <v>458</v>
       </c>
@@ -27663,7 +27690,7 @@
       <c r="X462" s="12"/>
       <c r="Y462" s="12"/>
     </row>
-    <row r="463" spans="2:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B463" s="7">
         <v>459</v>
       </c>
@@ -27712,7 +27739,7 @@
       <c r="X463" s="12"/>
       <c r="Y463" s="12"/>
     </row>
-    <row r="464" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B464" s="7">
         <v>460</v>
       </c>
@@ -27761,7 +27788,7 @@
       <c r="X464" s="12"/>
       <c r="Y464" s="12"/>
     </row>
-    <row r="465" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="7">
         <v>461</v>
       </c>
@@ -27810,7 +27837,7 @@
       <c r="X465" s="12"/>
       <c r="Y465" s="12"/>
     </row>
-    <row r="466" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="7">
         <v>462</v>
       </c>
@@ -27859,7 +27886,7 @@
       <c r="X466" s="12"/>
       <c r="Y466" s="12"/>
     </row>
-    <row r="467" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="7">
         <v>463</v>
       </c>
@@ -27908,7 +27935,7 @@
       <c r="X467" s="12"/>
       <c r="Y467" s="12"/>
     </row>
-    <row r="468" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B468" s="7">
         <v>464</v>
       </c>
@@ -27957,7 +27984,7 @@
       <c r="X468" s="12"/>
       <c r="Y468" s="12"/>
     </row>
-    <row r="469" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B469" s="7">
         <v>465</v>
       </c>
@@ -28006,7 +28033,7 @@
       <c r="X469" s="12"/>
       <c r="Y469" s="12"/>
     </row>
-    <row r="470" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B470" s="7">
         <v>466</v>
       </c>
@@ -28055,7 +28082,7 @@
       <c r="X470" s="12"/>
       <c r="Y470" s="12"/>
     </row>
-    <row r="471" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="7">
         <v>467</v>
       </c>
@@ -28104,7 +28131,7 @@
       <c r="X471" s="12"/>
       <c r="Y471" s="12"/>
     </row>
-    <row r="472" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B472" s="7">
         <v>468</v>
       </c>
@@ -28153,7 +28180,7 @@
       <c r="X472" s="12"/>
       <c r="Y472" s="12"/>
     </row>
-    <row r="473" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="7">
         <v>469</v>
       </c>
@@ -28202,7 +28229,7 @@
       <c r="X473" s="12"/>
       <c r="Y473" s="12"/>
     </row>
-    <row r="474" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="7">
         <v>470</v>
       </c>
@@ -28251,7 +28278,7 @@
       <c r="X474" s="12"/>
       <c r="Y474" s="12"/>
     </row>
-    <row r="475" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B475" s="7">
         <v>471</v>
       </c>
@@ -28300,7 +28327,7 @@
       <c r="X475" s="12"/>
       <c r="Y475" s="12"/>
     </row>
-    <row r="476" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B476" s="7">
         <v>472</v>
       </c>
@@ -28349,7 +28376,7 @@
       <c r="X476" s="12"/>
       <c r="Y476" s="12"/>
     </row>
-    <row r="477" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="7">
         <v>473</v>
       </c>
@@ -28398,7 +28425,7 @@
       <c r="X477" s="12"/>
       <c r="Y477" s="12"/>
     </row>
-    <row r="478" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="7">
         <v>474</v>
       </c>
@@ -28447,7 +28474,7 @@
       <c r="X478" s="12"/>
       <c r="Y478" s="12"/>
     </row>
-    <row r="479" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B479" s="7">
         <v>475</v>
       </c>
@@ -28496,7 +28523,7 @@
       <c r="X479" s="12"/>
       <c r="Y479" s="12"/>
     </row>
-    <row r="480" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B480" s="7">
         <v>476</v>
       </c>
@@ -28545,7 +28572,7 @@
       <c r="X480" s="12"/>
       <c r="Y480" s="12"/>
     </row>
-    <row r="481" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:25" ht="90" x14ac:dyDescent="0.25">
       <c r="B481" s="7">
         <v>477</v>
       </c>
@@ -28594,7 +28621,7 @@
       <c r="X481" s="12"/>
       <c r="Y481" s="12"/>
     </row>
-    <row r="482" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B482" s="7">
         <v>478</v>
       </c>
@@ -28643,7 +28670,7 @@
       <c r="X482" s="12"/>
       <c r="Y482" s="12"/>
     </row>
-    <row r="483" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B483" s="7">
         <v>479</v>
       </c>
@@ -28692,7 +28719,7 @@
       <c r="X483" s="12"/>
       <c r="Y483" s="12"/>
     </row>
-    <row r="484" spans="2:25" ht="87" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:25" ht="90" x14ac:dyDescent="0.25">
       <c r="B484" s="7">
         <v>480</v>
       </c>
@@ -28741,7 +28768,7 @@
       <c r="X484" s="12"/>
       <c r="Y484" s="12"/>
     </row>
-    <row r="485" spans="2:25" ht="87" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:25" ht="90" x14ac:dyDescent="0.25">
       <c r="B485" s="7">
         <v>481</v>
       </c>
@@ -28790,7 +28817,7 @@
       <c r="X485" s="12"/>
       <c r="Y485" s="12"/>
     </row>
-    <row r="486" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B486" s="7">
         <v>482</v>
       </c>
@@ -28835,7 +28862,7 @@
       <c r="X486" s="12"/>
       <c r="Y486" s="12"/>
     </row>
-    <row r="487" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B487" s="7">
         <v>483</v>
       </c>
@@ -28880,7 +28907,7 @@
       <c r="X487" s="12"/>
       <c r="Y487" s="12"/>
     </row>
-    <row r="488" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B488" s="7">
         <v>484</v>
       </c>
@@ -28929,7 +28956,7 @@
       <c r="X488" s="12"/>
       <c r="Y488" s="12"/>
     </row>
-    <row r="489" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="7">
         <v>485</v>
       </c>
@@ -28978,7 +29005,7 @@
       <c r="X489" s="12"/>
       <c r="Y489" s="12"/>
     </row>
-    <row r="490" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B490" s="7">
         <v>486</v>
       </c>
@@ -29027,7 +29054,7 @@
       <c r="X490" s="12"/>
       <c r="Y490" s="12"/>
     </row>
-    <row r="491" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B491" s="7">
         <v>487</v>
       </c>
@@ -29076,7 +29103,7 @@
       <c r="X491" s="12"/>
       <c r="Y491" s="12"/>
     </row>
-    <row r="492" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B492" s="7">
         <v>488</v>
       </c>
@@ -29125,7 +29152,7 @@
       <c r="X492" s="12"/>
       <c r="Y492" s="12"/>
     </row>
-    <row r="493" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B493" s="7">
         <v>489</v>
       </c>
@@ -29170,7 +29197,7 @@
       <c r="X493" s="12"/>
       <c r="Y493" s="12"/>
     </row>
-    <row r="494" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B494" s="7">
         <v>490</v>
       </c>
@@ -29217,7 +29244,7 @@
       </c>
       <c r="Y494" s="12"/>
     </row>
-    <row r="495" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B495" s="7">
         <v>491</v>
       </c>
@@ -29262,7 +29289,7 @@
       <c r="X495" s="12"/>
       <c r="Y495" s="12"/>
     </row>
-    <row r="496" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B496" s="7">
         <v>492</v>
       </c>
@@ -29307,7 +29334,7 @@
       <c r="X496" s="12"/>
       <c r="Y496" s="12"/>
     </row>
-    <row r="497" spans="2:25" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B497" s="7">
         <v>493</v>
       </c>
@@ -29352,7 +29379,7 @@
       <c r="X497" s="12"/>
       <c r="Y497" s="12"/>
     </row>
-    <row r="498" spans="2:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:25" ht="75" x14ac:dyDescent="0.25">
       <c r="B498" s="7">
         <v>494</v>
       </c>
@@ -29401,7 +29428,7 @@
       <c r="X498" s="12"/>
       <c r="Y498" s="12"/>
     </row>
-    <row r="499" spans="2:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:25" ht="60" x14ac:dyDescent="0.25">
       <c r="B499" s="7">
         <v>495</v>
       </c>
@@ -29450,7 +29477,7 @@
       <c r="X499" s="12"/>
       <c r="Y499" s="12"/>
     </row>
-    <row r="500" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B500" s="7">
         <v>496</v>
       </c>
@@ -29499,7 +29526,7 @@
       <c r="X500" s="12"/>
       <c r="Y500" s="12"/>
     </row>
-    <row r="501" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="7">
         <v>497</v>
       </c>
@@ -29548,7 +29575,7 @@
       <c r="X501" s="12"/>
       <c r="Y501" s="12"/>
     </row>
-    <row r="502" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B502" s="7">
         <v>498</v>
       </c>
@@ -29597,7 +29624,7 @@
       <c r="X502" s="12"/>
       <c r="Y502" s="12"/>
     </row>
-    <row r="503" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="7">
         <v>499</v>
       </c>
@@ -29646,7 +29673,7 @@
       <c r="X503" s="12"/>
       <c r="Y503" s="12"/>
     </row>
-    <row r="504" spans="2:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="7">
         <v>500</v>
       </c>
@@ -29695,7 +29722,7 @@
       <c r="X504" s="12"/>
       <c r="Y504" s="12"/>
     </row>
-    <row r="505" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B505" s="7">
         <v>501</v>
       </c>
@@ -29744,7 +29771,7 @@
       </c>
       <c r="Y505" s="12"/>
     </row>
-    <row r="506" spans="2:25" ht="28" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B506" s="7">
         <v>502</v>
       </c>
@@ -29795,7 +29822,7 @@
       <c r="X506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" ht="42" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B507" s="7">
         <v>503</v>
       </c>
@@ -29840,7 +29867,7 @@
       <c r="X507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B508" s="7">
         <v>504</v>
       </c>
@@ -29883,7 +29910,7 @@
       <c r="X508" s="12"/>
       <c r="Y508" s="12"/>
     </row>
-    <row r="509" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B509" s="7">
         <v>505</v>
       </c>
@@ -29924,7 +29951,7 @@
       <c r="X509" s="12"/>
       <c r="Y509" s="12"/>
     </row>
-    <row r="510" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:25" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B510" s="7">
         <v>506</v>
       </c>
@@ -29971,7 +29998,7 @@
       <c r="X510" s="12"/>
       <c r="Y510" s="12"/>
     </row>
-    <row r="511" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B511" s="7">
         <v>507</v>
       </c>
@@ -30018,7 +30045,7 @@
       <c r="X511" s="12"/>
       <c r="Y511" s="12"/>
     </row>
-    <row r="512" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B512" s="7">
         <v>508</v>
       </c>
@@ -30065,7 +30092,7 @@
       <c r="X512" s="12"/>
       <c r="Y512" s="12"/>
     </row>
-    <row r="513" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B513" s="7">
         <v>509</v>
       </c>
@@ -30112,7 +30139,7 @@
       <c r="X513" s="12"/>
       <c r="Y513" s="12"/>
     </row>
-    <row r="514" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B514" s="7">
         <v>510</v>
       </c>
@@ -30159,7 +30186,7 @@
       <c r="X514" s="12"/>
       <c r="Y514" s="12"/>
     </row>
-    <row r="515" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B515" s="7">
         <v>511</v>
       </c>
@@ -30206,7 +30233,7 @@
       <c r="X515" s="12"/>
       <c r="Y515" s="12"/>
     </row>
-    <row r="516" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B516" s="7">
         <v>512</v>
       </c>
@@ -30257,7 +30284,7 @@
       </c>
       <c r="Y516" s="12"/>
     </row>
-    <row r="517" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B517" s="7">
         <v>513</v>
       </c>
@@ -30308,7 +30335,7 @@
       </c>
       <c r="Y517" s="12"/>
     </row>
-    <row r="518" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B518" s="7">
         <v>514</v>
       </c>
@@ -30359,7 +30386,7 @@
       </c>
       <c r="Y518" s="12"/>
     </row>
-    <row r="519" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B519" s="7">
         <v>515</v>
       </c>
@@ -30410,7 +30437,7 @@
       </c>
       <c r="Y519" s="12"/>
     </row>
-    <row r="520" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B520" s="7">
         <v>516</v>
       </c>
@@ -30461,7 +30488,7 @@
       </c>
       <c r="Y520" s="12"/>
     </row>
-    <row r="521" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B521" s="7">
         <v>517</v>
       </c>
@@ -30512,7 +30539,7 @@
       </c>
       <c r="Y521" s="12"/>
     </row>
-    <row r="522" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B522" s="7">
         <v>518</v>
       </c>
@@ -30563,7 +30590,7 @@
       </c>
       <c r="Y522" s="12"/>
     </row>
-    <row r="523" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B523" s="7">
         <v>519</v>
       </c>
@@ -30614,7 +30641,7 @@
       </c>
       <c r="Y523" s="12"/>
     </row>
-    <row r="524" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:25" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B524" s="7">
         <v>520</v>
       </c>
@@ -30665,7 +30692,7 @@
       </c>
       <c r="Y524" s="12"/>
     </row>
-    <row r="525" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:25" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B525" s="7">
         <v>521</v>
       </c>
@@ -30716,7 +30743,7 @@
       </c>
       <c r="Y525" s="12"/>
     </row>
-    <row r="526" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B526" s="7">
         <v>522</v>
       </c>
@@ -30767,7 +30794,7 @@
       </c>
       <c r="Y526" s="12"/>
     </row>
-    <row r="527" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B527" s="7">
         <v>523</v>
       </c>
@@ -30818,7 +30845,7 @@
       </c>
       <c r="Y527" s="12"/>
     </row>
-    <row r="528" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B528" s="7">
         <v>524</v>
       </c>
@@ -30863,7 +30890,7 @@
       <c r="X528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B529" s="7">
         <v>525</v>
       </c>
@@ -30912,7 +30939,7 @@
       </c>
       <c r="Y529" s="12"/>
     </row>
-    <row r="530" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B530" s="7">
         <v>526</v>
       </c>
@@ -30959,7 +30986,7 @@
       <c r="X530" s="19"/>
       <c r="Y530" s="12"/>
     </row>
-    <row r="531" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B531" s="7">
         <v>527</v>
       </c>
@@ -31008,7 +31035,7 @@
       </c>
       <c r="Y531" s="12"/>
     </row>
-    <row r="532" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B532" s="7">
         <v>528</v>
       </c>
@@ -31057,7 +31084,7 @@
       </c>
       <c r="Y532" s="12"/>
     </row>
-    <row r="533" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B533" s="7">
         <v>529</v>
       </c>
@@ -31104,7 +31131,7 @@
       <c r="X533" s="12"/>
       <c r="Y533" s="12"/>
     </row>
-    <row r="534" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B534" s="7">
         <v>530</v>
       </c>
@@ -31151,7 +31178,7 @@
       <c r="X534" s="12"/>
       <c r="Y534" s="12"/>
     </row>
-    <row r="535" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B535" s="7">
         <v>531</v>
       </c>
@@ -31198,7 +31225,7 @@
       <c r="X535" s="12"/>
       <c r="Y535" s="12"/>
     </row>
-    <row r="536" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B536" s="7">
         <v>532</v>
       </c>
@@ -31245,7 +31272,7 @@
       <c r="X536" s="12"/>
       <c r="Y536" s="12"/>
     </row>
-    <row r="537" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B537" s="7">
         <v>533</v>
       </c>
@@ -31292,7 +31319,7 @@
       <c r="X537" s="12"/>
       <c r="Y537" s="12"/>
     </row>
-    <row r="538" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B538" s="7">
         <v>534</v>
       </c>
@@ -31339,7 +31366,7 @@
       <c r="X538" s="12"/>
       <c r="Y538" s="12"/>
     </row>
-    <row r="539" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B539" s="7">
         <v>535</v>
       </c>
@@ -31386,7 +31413,7 @@
       <c r="X539" s="12"/>
       <c r="Y539" s="12"/>
     </row>
-    <row r="540" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B540" s="7">
         <v>536</v>
       </c>
@@ -31435,7 +31462,7 @@
       </c>
       <c r="Y540" s="12"/>
     </row>
-    <row r="541" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B541" s="7">
         <v>537</v>
       </c>
@@ -31484,7 +31511,7 @@
       </c>
       <c r="Y541" s="12"/>
     </row>
-    <row r="542" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B542" s="7">
         <v>538</v>
       </c>
@@ -31533,7 +31560,7 @@
       </c>
       <c r="Y542" s="12"/>
     </row>
-    <row r="543" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B543" s="7">
         <v>539</v>
       </c>
@@ -31580,7 +31607,7 @@
       <c r="X543" s="12"/>
       <c r="Y543" s="12"/>
     </row>
-    <row r="544" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B544" s="7">
         <v>540</v>
       </c>
@@ -31627,7 +31654,7 @@
       <c r="X544" s="12"/>
       <c r="Y544" s="12"/>
     </row>
-    <row r="545" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B545" s="7">
         <v>541</v>
       </c>
@@ -31674,7 +31701,7 @@
       <c r="X545" s="12"/>
       <c r="Y545" s="12"/>
     </row>
-    <row r="546" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B546" s="7">
         <v>542</v>
       </c>
@@ -31723,7 +31750,7 @@
       </c>
       <c r="Y546" s="12"/>
     </row>
-    <row r="547" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B547" s="7">
         <v>543</v>
       </c>
@@ -31770,7 +31797,7 @@
       <c r="X547" s="12"/>
       <c r="Y547" s="12"/>
     </row>
-    <row r="548" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B548" s="7">
         <v>544</v>
       </c>
@@ -31817,7 +31844,7 @@
       <c r="X548" s="12"/>
       <c r="Y548" s="12"/>
     </row>
-    <row r="549" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B549" s="7">
         <v>545</v>
       </c>
@@ -31864,7 +31891,7 @@
       <c r="X549" s="12"/>
       <c r="Y549" s="12"/>
     </row>
-    <row r="550" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B550" s="7">
         <v>546</v>
       </c>
@@ -31911,7 +31938,7 @@
       <c r="X550" s="12"/>
       <c r="Y550" s="12"/>
     </row>
-    <row r="551" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B551" s="7">
         <v>547</v>
       </c>
@@ -31958,7 +31985,7 @@
       <c r="X551" s="12"/>
       <c r="Y551" s="12"/>
     </row>
-    <row r="552" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B552" s="7">
         <v>548</v>
       </c>
@@ -32005,7 +32032,7 @@
       <c r="X552" s="12"/>
       <c r="Y552" s="12"/>
     </row>
-    <row r="553" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B553" s="7">
         <v>549</v>
       </c>
@@ -32052,7 +32079,7 @@
       <c r="X553" s="12"/>
       <c r="Y553" s="12"/>
     </row>
-    <row r="554" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B554" s="7">
         <v>550</v>
       </c>
@@ -32099,7 +32126,7 @@
       <c r="X554" s="12"/>
       <c r="Y554" s="12"/>
     </row>
-    <row r="555" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B555" s="7">
         <v>551</v>
       </c>
@@ -32146,7 +32173,7 @@
       <c r="X555" s="12"/>
       <c r="Y555" s="12"/>
     </row>
-    <row r="556" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B556" s="7">
         <v>552</v>
       </c>
@@ -32193,7 +32220,7 @@
       <c r="X556" s="12"/>
       <c r="Y556" s="12"/>
     </row>
-    <row r="557" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B557" s="7">
         <v>553</v>
       </c>
@@ -32240,7 +32267,7 @@
       <c r="X557" s="12"/>
       <c r="Y557" s="12"/>
     </row>
-    <row r="558" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B558" s="7">
         <v>554</v>
       </c>
@@ -32287,7 +32314,7 @@
       <c r="X558" s="12"/>
       <c r="Y558" s="12"/>
     </row>
-    <row r="559" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B559" s="7">
         <v>555</v>
       </c>
@@ -32334,7 +32361,7 @@
       <c r="X559" s="12"/>
       <c r="Y559" s="12"/>
     </row>
-    <row r="560" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B560" s="7">
         <v>556</v>
       </c>
@@ -32381,7 +32408,7 @@
       <c r="X560" s="12"/>
       <c r="Y560" s="12"/>
     </row>
-    <row r="561" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B561" s="7">
         <v>557</v>
       </c>
@@ -32428,7 +32455,7 @@
       <c r="X561" s="12"/>
       <c r="Y561" s="12"/>
     </row>
-    <row r="562" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B562" s="7">
         <v>558</v>
       </c>
@@ -32475,7 +32502,7 @@
       <c r="X562" s="12"/>
       <c r="Y562" s="12"/>
     </row>
-    <row r="563" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B563" s="7">
         <v>559</v>
       </c>
@@ -32522,7 +32549,7 @@
       <c r="X563" s="12"/>
       <c r="Y563" s="12"/>
     </row>
-    <row r="564" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B564" s="7">
         <v>560</v>
       </c>
@@ -32569,7 +32596,7 @@
       <c r="X564" s="12"/>
       <c r="Y564" s="12"/>
     </row>
-    <row r="565" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B565" s="7">
         <v>561</v>
       </c>
@@ -32616,7 +32643,7 @@
       <c r="X565" s="12"/>
       <c r="Y565" s="12"/>
     </row>
-    <row r="566" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B566" s="7">
         <v>562</v>
       </c>
@@ -32663,7 +32690,7 @@
       <c r="X566" s="12"/>
       <c r="Y566" s="12"/>
     </row>
-    <row r="567" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B567" s="7">
         <v>563</v>
       </c>
@@ -32710,7 +32737,7 @@
       <c r="X567" s="12"/>
       <c r="Y567" s="12"/>
     </row>
-    <row r="568" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B568" s="7">
         <v>564</v>
       </c>
@@ -32757,7 +32784,7 @@
       <c r="X568" s="12"/>
       <c r="Y568" s="12"/>
     </row>
-    <row r="569" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B569" s="7">
         <v>565</v>
       </c>
@@ -32804,7 +32831,7 @@
       <c r="X569" s="12"/>
       <c r="Y569" s="12"/>
     </row>
-    <row r="570" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B570" s="7">
         <v>566</v>
       </c>
@@ -32851,7 +32878,7 @@
       <c r="X570" s="12"/>
       <c r="Y570" s="12"/>
     </row>
-    <row r="571" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B571" s="7">
         <v>567</v>
       </c>
@@ -32898,7 +32925,7 @@
       <c r="X571" s="12"/>
       <c r="Y571" s="12"/>
     </row>
-    <row r="572" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B572" s="7">
         <v>568</v>
       </c>
@@ -32947,7 +32974,7 @@
       </c>
       <c r="Y572" s="12"/>
     </row>
-    <row r="573" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B573" s="7">
         <v>569</v>
       </c>
@@ -32994,7 +33021,7 @@
       <c r="X573" s="12"/>
       <c r="Y573" s="12"/>
     </row>
-    <row r="574" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B574" s="7">
         <v>570</v>
       </c>
@@ -33041,7 +33068,7 @@
       <c r="X574" s="12"/>
       <c r="Y574" s="12"/>
     </row>
-    <row r="575" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B575" s="7">
         <v>571</v>
       </c>
@@ -33088,7 +33115,7 @@
       <c r="X575" s="12"/>
       <c r="Y575" s="12"/>
     </row>
-    <row r="576" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B576" s="7">
         <v>572</v>
       </c>
@@ -33137,7 +33164,7 @@
       </c>
       <c r="Y576" s="12"/>
     </row>
-    <row r="577" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B577" s="7">
         <v>573</v>
       </c>
@@ -33184,7 +33211,7 @@
       <c r="X577" s="12"/>
       <c r="Y577" s="12"/>
     </row>
-    <row r="578" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B578" s="7">
         <v>574</v>
       </c>
@@ -33231,7 +33258,7 @@
       <c r="X578" s="12"/>
       <c r="Y578" s="12"/>
     </row>
-    <row r="579" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B579" s="7">
         <v>575</v>
       </c>
@@ -33278,7 +33305,7 @@
       <c r="X579" s="12"/>
       <c r="Y579" s="12"/>
     </row>
-    <row r="580" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B580" s="7">
         <v>576</v>
       </c>
@@ -33325,7 +33352,7 @@
       <c r="X580" s="12"/>
       <c r="Y580" s="12"/>
     </row>
-    <row r="581" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B581" s="7">
         <v>577</v>
       </c>
@@ -33370,7 +33397,7 @@
       <c r="X581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B582" s="7">
         <v>578</v>
       </c>
@@ -33407,7 +33434,7 @@
       <c r="X582" s="9"/>
       <c r="Y582" s="9"/>
     </row>
-    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B583" s="7">
         <v>579</v>
       </c>
@@ -33444,9 +33471,9 @@
       <c r="X583" s="9"/>
       <c r="Y583" s="9"/>
     </row>
-    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="585" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="586" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="585" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="586" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I586" s="26" t="s">
         <v>1737</v>
       </c>
@@ -33456,7 +33483,7 @@
       <c r="M586" s="27"/>
       <c r="N586" s="27">
         <f>SUM(N5:N583)</f>
-        <v>4768.4499999999935</v>
+        <v>4800.4499999999953</v>
       </c>
     </row>
   </sheetData>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{90C684A0-A664-445B-8AEE-D9B0AFF5CA13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3436A43F-6FC7-415F-9B1A-B7FB8DBB1A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Consolidated!$B$4:$Y$584</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4590" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="1748">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -5768,6 +5773,13 @@
 API changes
 Unit test cases
 </t>
+  </si>
+  <si>
+    <t>License in biometrics has been provided by the Vendor. 
+Working with DevOps on loading SDK dependencies in Docker Container.</t>
+  </si>
+  <si>
+    <t>Need to understand what is the change made and how it will affect IDA.</t>
   </si>
 </sst>
 </file>
@@ -6007,7 +6019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6088,6 +6100,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6428,52 +6443,52 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z586"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="8" customWidth="1"/>
-    <col min="9" max="10" width="12.85546875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="8" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.54296875" style="8" customWidth="1"/>
+    <col min="9" max="10" width="12.81640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="8" customWidth="1"/>
+    <col min="12" max="13" width="12.81640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="31.453125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.54296875" style="8" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="8" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1796875" style="8" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="20" style="8" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="15.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="43.5703125" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="8"/>
+    <col min="21" max="22" width="15.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="43.54296875" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="2:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="2:26" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="70" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1717</v>
       </c>
@@ -6547,7 +6562,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -6589,7 +6604,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="2:26" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -6639,7 +6654,7 @@
       </c>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="2:26" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -6689,7 +6704,7 @@
       </c>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="2:26" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -6741,7 +6756,7 @@
       </c>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="2:26" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -6791,7 +6806,7 @@
       </c>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="2:26" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -6843,7 +6858,7 @@
       </c>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="2:26" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -6893,7 +6908,7 @@
       </c>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" spans="2:26" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -6945,7 +6960,7 @@
       </c>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="2:26" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -6995,7 +7010,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -7039,7 +7054,7 @@
       </c>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="2:26" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -7083,7 +7098,7 @@
       </c>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="2:26" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -7125,7 +7140,7 @@
       </c>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -7167,7 +7182,7 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -7207,7 +7222,7 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -7249,7 +7264,7 @@
       </c>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -7287,7 +7302,7 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -7327,7 +7342,7 @@
       </c>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -7365,7 +7380,7 @@
       </c>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -7403,7 +7418,7 @@
       </c>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -7439,7 +7454,7 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -7475,7 +7490,7 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -7517,7 +7532,7 @@
       </c>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -7557,7 +7572,7 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
     </row>
-    <row r="28" spans="2:25" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -7599,7 +7614,7 @@
       </c>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -7639,7 +7654,7 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
     </row>
-    <row r="30" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -7675,7 +7690,7 @@
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
     </row>
-    <row r="31" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -7711,7 +7726,7 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
     </row>
-    <row r="32" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -7753,7 +7768,7 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -7789,7 +7804,7 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -7829,7 +7844,7 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -7867,7 +7882,7 @@
       </c>
       <c r="Y35" s="4"/>
     </row>
-    <row r="36" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -7909,7 +7924,7 @@
       </c>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -7951,7 +7966,7 @@
       </c>
       <c r="Y37" s="12"/>
     </row>
-    <row r="38" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -7995,7 +8010,7 @@
       </c>
       <c r="Y38" s="12"/>
     </row>
-    <row r="39" spans="2:25" s="16" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" s="16" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -8041,7 +8056,7 @@
       </c>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -8087,7 +8102,7 @@
       </c>
       <c r="Y40" s="12"/>
     </row>
-    <row r="41" spans="2:25" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -8133,7 +8148,7 @@
       </c>
       <c r="Y41" s="12"/>
     </row>
-    <row r="42" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -8179,7 +8194,7 @@
       </c>
       <c r="Y42" s="12"/>
     </row>
-    <row r="43" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -8225,7 +8240,7 @@
       </c>
       <c r="Y43" s="12"/>
     </row>
-    <row r="44" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -8275,7 +8290,7 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
     </row>
-    <row r="45" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -8323,7 +8338,7 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
     </row>
-    <row r="46" spans="2:25" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:25" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -8373,7 +8388,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="2:25" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -8419,7 +8434,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="2:25" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -8463,7 +8478,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -8509,7 +8524,7 @@
       </c>
       <c r="Y49" s="12"/>
     </row>
-    <row r="50" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -8555,7 +8570,7 @@
       </c>
       <c r="Y50" s="12"/>
     </row>
-    <row r="51" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -8599,7 +8614,7 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
     </row>
-    <row r="52" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -8645,7 +8660,7 @@
       </c>
       <c r="Y52" s="12"/>
     </row>
-    <row r="53" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -8693,7 +8708,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="54" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -8741,7 +8756,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="55" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -8789,7 +8804,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="56" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -8837,7 +8852,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="57" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -8887,7 +8902,7 @@
       </c>
       <c r="Y57" s="12"/>
     </row>
-    <row r="58" spans="2:25" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -8931,7 +8946,7 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
     </row>
-    <row r="59" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:25" ht="98" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -8979,7 +8994,7 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
     </row>
-    <row r="60" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -9025,7 +9040,7 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
     </row>
-    <row r="61" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -9071,7 +9086,7 @@
       </c>
       <c r="Y61" s="12"/>
     </row>
-    <row r="62" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="7">
         <v>58</v>
       </c>
@@ -9125,7 +9140,7 @@
       </c>
       <c r="Y62" s="12"/>
     </row>
-    <row r="63" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>59</v>
       </c>
@@ -9171,7 +9186,7 @@
       </c>
       <c r="Y63" s="12"/>
     </row>
-    <row r="64" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>60</v>
       </c>
@@ -9217,7 +9232,7 @@
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
     </row>
-    <row r="65" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>61</v>
       </c>
@@ -9265,7 +9280,7 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
     </row>
-    <row r="66" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="7">
         <v>62</v>
       </c>
@@ -9307,7 +9322,7 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
     </row>
-    <row r="67" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="7">
         <v>63</v>
       </c>
@@ -9349,7 +9364,7 @@
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
     </row>
-    <row r="68" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -9399,7 +9414,7 @@
       </c>
       <c r="Y68" s="12"/>
     </row>
-    <row r="69" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="7">
         <v>65</v>
       </c>
@@ -9443,7 +9458,7 @@
       </c>
       <c r="Y69" s="12"/>
     </row>
-    <row r="70" spans="2:25" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="7">
         <v>66</v>
       </c>
@@ -9487,7 +9502,7 @@
       </c>
       <c r="Y70" s="12"/>
     </row>
-    <row r="71" spans="2:25" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25" ht="140" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -9531,7 +9546,7 @@
       </c>
       <c r="Y71" s="12"/>
     </row>
-    <row r="72" spans="2:25" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -9573,7 +9588,7 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
     </row>
-    <row r="73" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="7">
         <v>69</v>
       </c>
@@ -9615,7 +9630,7 @@
       <c r="X73" s="12"/>
       <c r="Y73" s="12"/>
     </row>
-    <row r="74" spans="2:25" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="7">
         <v>70</v>
       </c>
@@ -9659,7 +9674,7 @@
       </c>
       <c r="Y74" s="4"/>
     </row>
-    <row r="75" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="7">
         <v>71</v>
       </c>
@@ -9703,7 +9718,7 @@
       </c>
       <c r="Y75" s="12"/>
     </row>
-    <row r="76" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="7">
         <v>72</v>
       </c>
@@ -9747,7 +9762,7 @@
       </c>
       <c r="Y76" s="12"/>
     </row>
-    <row r="77" spans="2:25" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25" ht="126" x14ac:dyDescent="0.35">
       <c r="B77" s="7">
         <v>73</v>
       </c>
@@ -9797,7 +9812,7 @@
       </c>
       <c r="Y77" s="12"/>
     </row>
-    <row r="78" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B78" s="7">
         <v>74</v>
       </c>
@@ -9847,7 +9862,7 @@
       </c>
       <c r="Y78" s="12"/>
     </row>
-    <row r="79" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -9897,7 +9912,7 @@
       </c>
       <c r="Y79" s="12"/>
     </row>
-    <row r="80" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B80" s="7">
         <v>76</v>
       </c>
@@ -9945,7 +9960,7 @@
       </c>
       <c r="Y80" s="12"/>
     </row>
-    <row r="81" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B81" s="7">
         <v>77</v>
       </c>
@@ -9995,7 +10010,7 @@
       </c>
       <c r="Y81" s="12"/>
     </row>
-    <row r="82" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B82" s="7">
         <v>78</v>
       </c>
@@ -10045,7 +10060,7 @@
       </c>
       <c r="Y82" s="12"/>
     </row>
-    <row r="83" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:25" ht="84" x14ac:dyDescent="0.35">
       <c r="B83" s="7">
         <v>79</v>
       </c>
@@ -10095,7 +10110,7 @@
       </c>
       <c r="Y83" s="12"/>
     </row>
-    <row r="84" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B84" s="7">
         <v>80</v>
       </c>
@@ -10145,7 +10160,7 @@
       </c>
       <c r="Y84" s="12"/>
     </row>
-    <row r="85" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B85" s="7">
         <v>81</v>
       </c>
@@ -10195,7 +10210,7 @@
       </c>
       <c r="Y85" s="12"/>
     </row>
-    <row r="86" spans="2:25" ht="228" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:25" ht="196" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -10239,7 +10254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" ht="84" x14ac:dyDescent="0.35">
       <c r="B87" s="7">
         <v>83</v>
       </c>
@@ -10289,7 +10304,7 @@
       </c>
       <c r="Y87" s="12"/>
     </row>
-    <row r="88" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="7">
         <v>84</v>
       </c>
@@ -10333,14 +10348,14 @@
       </c>
       <c r="Y88" s="12"/>
     </row>
-    <row r="89" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="7">
         <v>85</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="32" t="s">
         <v>155</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -10377,14 +10392,14 @@
       </c>
       <c r="Y89" s="12"/>
     </row>
-    <row r="90" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="7">
         <v>86</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="31"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
@@ -10419,7 +10434,7 @@
       </c>
       <c r="Y90" s="12"/>
     </row>
-    <row r="91" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="7">
         <v>87</v>
       </c>
@@ -10463,7 +10478,7 @@
       </c>
       <c r="Y91" s="12"/>
     </row>
-    <row r="92" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="7">
         <v>88</v>
       </c>
@@ -10507,7 +10522,7 @@
       </c>
       <c r="Y92" s="12"/>
     </row>
-    <row r="93" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="7">
         <v>89</v>
       </c>
@@ -10551,7 +10566,7 @@
       </c>
       <c r="Y93" s="12"/>
     </row>
-    <row r="94" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="7">
         <v>90</v>
       </c>
@@ -10603,7 +10618,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="7">
         <v>91</v>
       </c>
@@ -10647,7 +10662,7 @@
       </c>
       <c r="Y95" s="12"/>
     </row>
-    <row r="96" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="7">
         <v>92</v>
       </c>
@@ -10689,7 +10704,7 @@
       <c r="X96" s="12"/>
       <c r="Y96" s="12"/>
     </row>
-    <row r="97" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="7">
         <v>93</v>
       </c>
@@ -10733,7 +10748,7 @@
       </c>
       <c r="Y97" s="6"/>
     </row>
-    <row r="98" spans="2:25" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" ht="112" x14ac:dyDescent="0.35">
       <c r="B98" s="7">
         <v>94</v>
       </c>
@@ -10781,7 +10796,7 @@
       <c r="X98" s="12"/>
       <c r="Y98" s="12"/>
     </row>
-    <row r="99" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="7">
         <v>95</v>
       </c>
@@ -10827,7 +10842,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="100" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" s="7">
         <v>96</v>
       </c>
@@ -10871,7 +10886,7 @@
       </c>
       <c r="Y100" s="12"/>
     </row>
-    <row r="101" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" s="7">
         <v>97</v>
       </c>
@@ -10915,7 +10930,7 @@
       </c>
       <c r="Y101" s="12"/>
     </row>
-    <row r="102" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <v>98</v>
       </c>
@@ -10961,7 +10976,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="103" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <v>99</v>
       </c>
@@ -11005,7 +11020,7 @@
       </c>
       <c r="Y103" s="6"/>
     </row>
-    <row r="104" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" s="7">
         <v>100</v>
       </c>
@@ -11049,7 +11064,7 @@
       </c>
       <c r="Y104" s="6"/>
     </row>
-    <row r="105" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" s="7">
         <v>101</v>
       </c>
@@ -11093,7 +11108,7 @@
       </c>
       <c r="Y105" s="6"/>
     </row>
-    <row r="106" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" s="7">
         <v>102</v>
       </c>
@@ -11135,7 +11150,7 @@
       <c r="X106" s="12"/>
       <c r="Y106" s="12"/>
     </row>
-    <row r="107" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="7">
         <v>103</v>
       </c>
@@ -11183,7 +11198,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="108" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="7">
         <v>104</v>
       </c>
@@ -11231,7 +11246,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="109" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="7">
         <v>105</v>
       </c>
@@ -11279,7 +11294,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="7">
         <v>106</v>
       </c>
@@ -11327,7 +11342,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="111" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="7">
         <v>107</v>
       </c>
@@ -11375,7 +11390,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="112" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="7">
         <v>108</v>
       </c>
@@ -11423,7 +11438,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="113" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="7">
         <v>109</v>
       </c>
@@ -11471,7 +11486,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="114" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="7">
         <v>110</v>
       </c>
@@ -11519,7 +11534,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="115" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="7">
         <v>111</v>
       </c>
@@ -11567,7 +11582,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="116" spans="2:25" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:25" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="7">
         <v>112</v>
       </c>
@@ -11621,7 +11636,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="117" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="7">
         <v>113</v>
       </c>
@@ -11669,7 +11684,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="118" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="7">
         <v>114</v>
       </c>
@@ -11717,7 +11732,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="119" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="7">
         <v>115</v>
       </c>
@@ -11765,7 +11780,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="120" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="7">
         <v>116</v>
       </c>
@@ -11813,7 +11828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="7">
         <v>117</v>
       </c>
@@ -11861,7 +11876,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="122" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="7">
         <v>118</v>
       </c>
@@ -11907,7 +11922,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="123" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="7">
         <v>119</v>
       </c>
@@ -11955,7 +11970,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="124" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="7">
         <v>120</v>
       </c>
@@ -12003,7 +12018,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="125" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="7">
         <v>121</v>
       </c>
@@ -12051,7 +12066,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="126" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="7">
         <v>122</v>
       </c>
@@ -12105,7 +12120,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="127" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="7">
         <v>123</v>
       </c>
@@ -12155,7 +12170,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="128" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="7">
         <v>124</v>
       </c>
@@ -12203,7 +12218,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="129" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="7">
         <v>125</v>
       </c>
@@ -12251,7 +12266,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="130" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="7">
         <v>126</v>
       </c>
@@ -12299,7 +12314,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="131" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="7">
         <v>127</v>
       </c>
@@ -12347,7 +12362,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="132" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="7">
         <v>128</v>
       </c>
@@ -12395,7 +12410,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="133" spans="2:25" ht="51.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:25" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="7">
         <v>129</v>
       </c>
@@ -12445,7 +12460,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="134" spans="2:25" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:25" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="7">
         <v>130</v>
       </c>
@@ -12487,7 +12502,7 @@
       <c r="X134" s="12"/>
       <c r="Y134" s="12"/>
     </row>
-    <row r="135" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" s="7">
         <v>131</v>
       </c>
@@ -12531,7 +12546,7 @@
       <c r="X135" s="12"/>
       <c r="Y135" s="12"/>
     </row>
-    <row r="136" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" s="7">
         <v>132</v>
       </c>
@@ -12573,7 +12588,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
     </row>
-    <row r="137" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:25" ht="98" x14ac:dyDescent="0.35">
       <c r="B137" s="7">
         <v>133</v>
       </c>
@@ -12623,7 +12638,7 @@
       <c r="X137" s="12"/>
       <c r="Y137" s="12"/>
     </row>
-    <row r="138" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" s="7">
         <v>134</v>
       </c>
@@ -12667,7 +12682,7 @@
       <c r="X138" s="12"/>
       <c r="Y138" s="12"/>
     </row>
-    <row r="139" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B139" s="7">
         <v>135</v>
       </c>
@@ -12713,7 +12728,7 @@
       <c r="X139" s="12"/>
       <c r="Y139" s="12"/>
     </row>
-    <row r="140" spans="2:25" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:25" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" s="7">
         <v>136</v>
       </c>
@@ -12761,7 +12776,7 @@
       <c r="X140" s="12"/>
       <c r="Y140" s="12"/>
     </row>
-    <row r="141" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B141" s="7">
         <v>137</v>
       </c>
@@ -12809,7 +12824,7 @@
       </c>
       <c r="Y141" s="12"/>
     </row>
-    <row r="142" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B142" s="7">
         <v>138</v>
       </c>
@@ -12855,7 +12870,7 @@
       <c r="X142" s="12"/>
       <c r="Y142" s="12"/>
     </row>
-    <row r="143" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B143" s="7">
         <v>139</v>
       </c>
@@ -12901,7 +12916,7 @@
       </c>
       <c r="Y143" s="12"/>
     </row>
-    <row r="144" spans="2:25" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:25" ht="84" x14ac:dyDescent="0.35">
       <c r="B144" s="7">
         <v>140</v>
       </c>
@@ -12949,7 +12964,7 @@
       </c>
       <c r="Y144" s="12"/>
     </row>
-    <row r="145" spans="2:25" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:25" ht="84" x14ac:dyDescent="0.35">
       <c r="B145" s="7">
         <v>141</v>
       </c>
@@ -12995,7 +13010,7 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
     </row>
-    <row r="146" spans="2:25" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:25" ht="84" x14ac:dyDescent="0.35">
       <c r="B146" s="7">
         <v>142</v>
       </c>
@@ -13043,7 +13058,7 @@
       </c>
       <c r="Y146" s="12"/>
     </row>
-    <row r="147" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B147" s="7">
         <v>143</v>
       </c>
@@ -13087,7 +13102,7 @@
       </c>
       <c r="Y147" s="12"/>
     </row>
-    <row r="148" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B148" s="7">
         <v>144</v>
       </c>
@@ -13131,7 +13146,7 @@
       </c>
       <c r="Y148" s="13"/>
     </row>
-    <row r="149" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B149" s="7">
         <v>145</v>
       </c>
@@ -13175,7 +13190,7 @@
       <c r="X149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:25" ht="112" x14ac:dyDescent="0.35">
       <c r="B150" s="7">
         <v>146</v>
       </c>
@@ -13221,7 +13236,7 @@
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" s="7">
         <v>147</v>
       </c>
@@ -13265,7 +13280,7 @@
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
     </row>
-    <row r="152" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" s="7">
         <v>148</v>
       </c>
@@ -13309,7 +13324,7 @@
       <c r="X152" s="12"/>
       <c r="Y152" s="12"/>
     </row>
-    <row r="153" spans="2:25" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" s="7">
         <v>149</v>
       </c>
@@ -13355,7 +13370,7 @@
       </c>
       <c r="Y153" s="12"/>
     </row>
-    <row r="154" spans="2:25" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:25" ht="266" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>150</v>
       </c>
@@ -13403,7 +13418,7 @@
       </c>
       <c r="Y154" s="12"/>
     </row>
-    <row r="155" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B155" s="7">
         <v>151</v>
       </c>
@@ -13449,7 +13464,7 @@
       </c>
       <c r="Y155" s="10"/>
     </row>
-    <row r="156" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B156" s="7">
         <v>152</v>
       </c>
@@ -13501,7 +13516,7 @@
       </c>
       <c r="Y156" s="12"/>
     </row>
-    <row r="157" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" s="7">
         <v>153</v>
       </c>
@@ -13547,7 +13562,7 @@
       </c>
       <c r="Y157" s="12"/>
     </row>
-    <row r="158" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" s="7">
         <v>154</v>
       </c>
@@ -13591,7 +13606,7 @@
       </c>
       <c r="Y158" s="12"/>
     </row>
-    <row r="159" spans="2:25" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:25" ht="238" x14ac:dyDescent="0.35">
       <c r="B159" s="7">
         <v>155</v>
       </c>
@@ -13643,7 +13658,7 @@
       </c>
       <c r="Y159" s="12"/>
     </row>
-    <row r="160" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B160" s="7">
         <v>156</v>
       </c>
@@ -13687,7 +13702,7 @@
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
     </row>
-    <row r="161" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B161" s="7">
         <v>157</v>
       </c>
@@ -13731,7 +13746,7 @@
       <c r="X161" s="12"/>
       <c r="Y161" s="12"/>
     </row>
-    <row r="162" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" s="7">
         <v>158</v>
       </c>
@@ -13777,7 +13792,7 @@
       </c>
       <c r="Y162" s="12"/>
     </row>
-    <row r="163" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" s="7">
         <v>159</v>
       </c>
@@ -13821,7 +13836,7 @@
       <c r="X163" s="12"/>
       <c r="Y163" s="12"/>
     </row>
-    <row r="164" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" s="7">
         <v>160</v>
       </c>
@@ -13865,7 +13880,7 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
     </row>
-    <row r="165" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" s="7">
         <v>161</v>
       </c>
@@ -13909,7 +13924,7 @@
       <c r="X165" s="12"/>
       <c r="Y165" s="12"/>
     </row>
-    <row r="166" spans="2:25" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:25" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="7">
         <v>162</v>
       </c>
@@ -13955,7 +13970,7 @@
       </c>
       <c r="Y166" s="12"/>
     </row>
-    <row r="167" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B167" s="7">
         <v>163</v>
       </c>
@@ -14003,7 +14018,7 @@
       </c>
       <c r="Y167" s="12"/>
     </row>
-    <row r="168" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" s="7">
         <v>164</v>
       </c>
@@ -14049,7 +14064,7 @@
       </c>
       <c r="Y168" s="12"/>
     </row>
-    <row r="169" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" s="7">
         <v>165</v>
       </c>
@@ -14095,7 +14110,7 @@
       </c>
       <c r="Y169" s="12"/>
     </row>
-    <row r="170" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B170" s="7">
         <v>166</v>
       </c>
@@ -14143,7 +14158,7 @@
       </c>
       <c r="Y170" s="12"/>
     </row>
-    <row r="171" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B171" s="7">
         <v>167</v>
       </c>
@@ -14187,7 +14202,7 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
     </row>
-    <row r="172" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B172" s="7">
         <v>168</v>
       </c>
@@ -14237,7 +14252,7 @@
       <c r="X172" s="12"/>
       <c r="Y172" s="12"/>
     </row>
-    <row r="173" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B173" s="7">
         <v>169</v>
       </c>
@@ -14291,7 +14306,7 @@
       </c>
       <c r="Y173" s="12"/>
     </row>
-    <row r="174" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B174" s="7">
         <v>170</v>
       </c>
@@ -14343,7 +14358,7 @@
       </c>
       <c r="Y174" s="12"/>
     </row>
-    <row r="175" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B175" s="7">
         <v>171</v>
       </c>
@@ -14393,7 +14408,7 @@
       <c r="X175" s="12"/>
       <c r="Y175" s="12"/>
     </row>
-    <row r="176" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B176" s="7">
         <v>172</v>
       </c>
@@ -14443,7 +14458,7 @@
       <c r="X176" s="12"/>
       <c r="Y176" s="12"/>
     </row>
-    <row r="177" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B177" s="7">
         <v>173</v>
       </c>
@@ -14493,7 +14508,7 @@
       <c r="X177" s="12"/>
       <c r="Y177" s="12"/>
     </row>
-    <row r="178" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B178" s="7">
         <v>174</v>
       </c>
@@ -14543,7 +14558,7 @@
       <c r="X178" s="12"/>
       <c r="Y178" s="12"/>
     </row>
-    <row r="179" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B179" s="7">
         <v>175</v>
       </c>
@@ -14593,7 +14608,7 @@
       <c r="X179" s="12"/>
       <c r="Y179" s="12"/>
     </row>
-    <row r="180" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B180" s="7">
         <v>176</v>
       </c>
@@ -14643,7 +14658,7 @@
       <c r="X180" s="12"/>
       <c r="Y180" s="12"/>
     </row>
-    <row r="181" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B181" s="7">
         <v>177</v>
       </c>
@@ -14691,7 +14706,7 @@
       <c r="X181" s="12"/>
       <c r="Y181" s="12"/>
     </row>
-    <row r="182" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B182" s="7">
         <v>178</v>
       </c>
@@ -14739,7 +14754,7 @@
       <c r="X182" s="12"/>
       <c r="Y182" s="12"/>
     </row>
-    <row r="183" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B183" s="7">
         <v>179</v>
       </c>
@@ -14787,7 +14802,7 @@
       <c r="X183" s="12"/>
       <c r="Y183" s="12"/>
     </row>
-    <row r="184" spans="2:25" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:25" ht="98" x14ac:dyDescent="0.35">
       <c r="B184" s="7">
         <v>180</v>
       </c>
@@ -14835,7 +14850,7 @@
       <c r="X184" s="12"/>
       <c r="Y184" s="12"/>
     </row>
-    <row r="185" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B185" s="7">
         <v>181</v>
       </c>
@@ -14883,7 +14898,7 @@
       <c r="X185" s="12"/>
       <c r="Y185" s="12"/>
     </row>
-    <row r="186" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B186" s="7">
         <v>182</v>
       </c>
@@ -14931,7 +14946,7 @@
       <c r="X186" s="12"/>
       <c r="Y186" s="12"/>
     </row>
-    <row r="187" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B187" s="7">
         <v>183</v>
       </c>
@@ -14977,7 +14992,7 @@
       <c r="X187" s="12"/>
       <c r="Y187" s="12"/>
     </row>
-    <row r="188" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B188" s="7">
         <v>184</v>
       </c>
@@ -15027,7 +15042,7 @@
       <c r="X188" s="12"/>
       <c r="Y188" s="12"/>
     </row>
-    <row r="189" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B189" s="7">
         <v>185</v>
       </c>
@@ -15073,7 +15088,7 @@
       <c r="X189" s="12"/>
       <c r="Y189" s="12"/>
     </row>
-    <row r="190" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B190" s="7">
         <v>186</v>
       </c>
@@ -15119,7 +15134,7 @@
       <c r="X190" s="12"/>
       <c r="Y190" s="12"/>
     </row>
-    <row r="191" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B191" s="7">
         <v>187</v>
       </c>
@@ -15165,7 +15180,7 @@
       <c r="X191" s="12"/>
       <c r="Y191" s="12"/>
     </row>
-    <row r="192" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>188</v>
       </c>
@@ -15211,7 +15226,7 @@
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
     </row>
-    <row r="193" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B193" s="7">
         <v>189</v>
       </c>
@@ -15257,7 +15272,7 @@
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" s="7">
         <v>190</v>
       </c>
@@ -15307,7 +15322,7 @@
       </c>
       <c r="Y194" s="12"/>
     </row>
-    <row r="195" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B195" s="7">
         <v>191</v>
       </c>
@@ -15355,7 +15370,7 @@
       <c r="X195" s="12"/>
       <c r="Y195" s="12"/>
     </row>
-    <row r="196" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" s="7">
         <v>192</v>
       </c>
@@ -15405,7 +15420,7 @@
       </c>
       <c r="Y196" s="12"/>
     </row>
-    <row r="197" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" s="7">
         <v>193</v>
       </c>
@@ -15453,7 +15468,7 @@
       <c r="X197" s="12"/>
       <c r="Y197" s="12"/>
     </row>
-    <row r="198" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B198" s="7">
         <v>194</v>
       </c>
@@ -15503,7 +15518,7 @@
       <c r="X198" s="12"/>
       <c r="Y198" s="12"/>
     </row>
-    <row r="199" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B199" s="7">
         <v>195</v>
       </c>
@@ -15553,7 +15568,7 @@
       <c r="X199" s="12"/>
       <c r="Y199" s="12"/>
     </row>
-    <row r="200" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B200" s="7">
         <v>196</v>
       </c>
@@ -15603,7 +15618,7 @@
       </c>
       <c r="Y200" s="12"/>
     </row>
-    <row r="201" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B201" s="7">
         <v>197</v>
       </c>
@@ -15655,7 +15670,7 @@
       </c>
       <c r="Y201" s="12"/>
     </row>
-    <row r="202" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B202" s="7">
         <v>198</v>
       </c>
@@ -15705,7 +15720,7 @@
       </c>
       <c r="Y202" s="12"/>
     </row>
-    <row r="203" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B203" s="7">
         <v>199</v>
       </c>
@@ -15755,7 +15770,7 @@
       <c r="X203" s="12"/>
       <c r="Y203" s="12"/>
     </row>
-    <row r="204" spans="2:25" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:25" ht="140" x14ac:dyDescent="0.35">
       <c r="B204" s="7">
         <v>200</v>
       </c>
@@ -15805,7 +15820,7 @@
       <c r="X204" s="12"/>
       <c r="Y204" s="12"/>
     </row>
-    <row r="205" spans="2:25" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:25" ht="140" x14ac:dyDescent="0.35">
       <c r="B205" s="7">
         <v>201</v>
       </c>
@@ -15855,7 +15870,7 @@
       <c r="X205" s="12"/>
       <c r="Y205" s="12"/>
     </row>
-    <row r="206" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B206" s="7">
         <v>202</v>
       </c>
@@ -15905,7 +15920,7 @@
       <c r="X206" s="12"/>
       <c r="Y206" s="12"/>
     </row>
-    <row r="207" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" s="7">
         <v>203</v>
       </c>
@@ -15951,7 +15966,7 @@
       <c r="X207" s="12"/>
       <c r="Y207" s="12"/>
     </row>
-    <row r="208" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" s="7">
         <v>204</v>
       </c>
@@ -15997,7 +16012,7 @@
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
     </row>
-    <row r="209" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" s="7">
         <v>205</v>
       </c>
@@ -16043,7 +16058,7 @@
       </c>
       <c r="Y209" s="12"/>
     </row>
-    <row r="210" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B210" s="7">
         <v>206</v>
       </c>
@@ -16089,7 +16104,7 @@
       </c>
       <c r="Y210" s="12"/>
     </row>
-    <row r="211" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B211" s="7">
         <v>207</v>
       </c>
@@ -16141,7 +16156,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="212" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" s="7">
         <v>208</v>
       </c>
@@ -16187,7 +16202,7 @@
       <c r="X212" s="12"/>
       <c r="Y212" s="12"/>
     </row>
-    <row r="213" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B213" s="7">
         <v>209</v>
       </c>
@@ -16235,7 +16250,7 @@
       </c>
       <c r="Y213" s="12"/>
     </row>
-    <row r="214" spans="2:25" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:25" ht="140" x14ac:dyDescent="0.35">
       <c r="B214" s="7">
         <v>210</v>
       </c>
@@ -16287,7 +16302,7 @@
       </c>
       <c r="Y214" s="12"/>
     </row>
-    <row r="215" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B215" s="7">
         <v>211</v>
       </c>
@@ -16337,7 +16352,7 @@
       <c r="X215" s="12"/>
       <c r="Y215" s="12"/>
     </row>
-    <row r="216" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B216" s="7">
         <v>212</v>
       </c>
@@ -16389,7 +16404,7 @@
       </c>
       <c r="Y216" s="12"/>
     </row>
-    <row r="217" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B217" s="7">
         <v>213</v>
       </c>
@@ -16435,7 +16450,7 @@
       <c r="X217" s="12"/>
       <c r="Y217" s="12"/>
     </row>
-    <row r="218" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B218" s="7">
         <v>214</v>
       </c>
@@ -16481,7 +16496,7 @@
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
     </row>
-    <row r="219" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B219" s="7">
         <v>215</v>
       </c>
@@ -16527,7 +16542,7 @@
       <c r="X219" s="12"/>
       <c r="Y219" s="12"/>
     </row>
-    <row r="220" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B220" s="7">
         <v>216</v>
       </c>
@@ -16573,7 +16588,7 @@
       <c r="X220" s="12"/>
       <c r="Y220" s="12"/>
     </row>
-    <row r="221" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B221" s="7">
         <v>217</v>
       </c>
@@ -16625,7 +16640,7 @@
       </c>
       <c r="Y221" s="12"/>
     </row>
-    <row r="222" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B222" s="7">
         <v>218</v>
       </c>
@@ -16677,7 +16692,7 @@
       </c>
       <c r="Y222" s="12"/>
     </row>
-    <row r="223" spans="2:25" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:25" ht="140" x14ac:dyDescent="0.35">
       <c r="B223" s="7">
         <v>219</v>
       </c>
@@ -16713,7 +16728,7 @@
         <v>1077</v>
       </c>
       <c r="N223" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O223" s="12"/>
       <c r="P223" s="12"/>
@@ -16727,7 +16742,7 @@
       <c r="X223" s="12"/>
       <c r="Y223" s="12"/>
     </row>
-    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B224" s="7">
         <v>220</v>
       </c>
@@ -16777,7 +16792,7 @@
       </c>
       <c r="Y224" s="12"/>
     </row>
-    <row r="225" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B225" s="7">
         <v>221</v>
       </c>
@@ -16827,7 +16842,7 @@
       <c r="X225" s="12"/>
       <c r="Y225" s="12"/>
     </row>
-    <row r="226" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B226" s="7">
         <v>222</v>
       </c>
@@ -16877,7 +16892,7 @@
       </c>
       <c r="Y226" s="12"/>
     </row>
-    <row r="227" spans="2:25" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:25" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="7">
         <v>223</v>
       </c>
@@ -16921,7 +16936,7 @@
       <c r="X227" s="12"/>
       <c r="Y227" s="12"/>
     </row>
-    <row r="228" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B228" s="7">
         <v>224</v>
       </c>
@@ -16965,7 +16980,7 @@
       <c r="X228" s="12"/>
       <c r="Y228" s="12"/>
     </row>
-    <row r="229" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B229" s="7">
         <v>225</v>
       </c>
@@ -17009,7 +17024,7 @@
       <c r="X229" s="12"/>
       <c r="Y229" s="12"/>
     </row>
-    <row r="230" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B230" s="7">
         <v>226</v>
       </c>
@@ -17059,7 +17074,7 @@
       </c>
       <c r="Y230" s="12"/>
     </row>
-    <row r="231" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B231" s="7">
         <v>227</v>
       </c>
@@ -17107,7 +17122,7 @@
       <c r="X231" s="12"/>
       <c r="Y231" s="12"/>
     </row>
-    <row r="232" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B232" s="7">
         <v>228</v>
       </c>
@@ -17155,7 +17170,7 @@
       <c r="X232" s="12"/>
       <c r="Y232" s="12"/>
     </row>
-    <row r="233" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B233" s="7">
         <v>229</v>
       </c>
@@ -17205,7 +17220,7 @@
       <c r="X233" s="12"/>
       <c r="Y233" s="12"/>
     </row>
-    <row r="234" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B234" s="7">
         <v>230</v>
       </c>
@@ -17255,7 +17270,7 @@
       <c r="X234" s="12"/>
       <c r="Y234" s="12"/>
     </row>
-    <row r="235" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B235" s="7">
         <v>231</v>
       </c>
@@ -17290,7 +17305,9 @@
         <v>641</v>
       </c>
       <c r="M235" s="12"/>
-      <c r="N235" s="12"/>
+      <c r="N235" s="12">
+        <v>4</v>
+      </c>
       <c r="O235" s="12"/>
       <c r="P235" s="12"/>
       <c r="Q235" s="12"/>
@@ -17303,7 +17320,7 @@
       <c r="X235" s="12"/>
       <c r="Y235" s="12"/>
     </row>
-    <row r="236" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B236" s="7">
         <v>232</v>
       </c>
@@ -17349,7 +17366,7 @@
       <c r="X236" s="12"/>
       <c r="Y236" s="12"/>
     </row>
-    <row r="237" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B237" s="7">
         <v>233</v>
       </c>
@@ -17395,7 +17412,7 @@
       <c r="X237" s="12"/>
       <c r="Y237" s="12"/>
     </row>
-    <row r="238" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B238" s="7">
         <v>234</v>
       </c>
@@ -17430,7 +17447,9 @@
         <v>612</v>
       </c>
       <c r="M238" s="12"/>
-      <c r="N238" s="12"/>
+      <c r="N238" s="12">
+        <v>4</v>
+      </c>
       <c r="O238" s="12"/>
       <c r="P238" s="12"/>
       <c r="Q238" s="12"/>
@@ -17443,7 +17462,7 @@
       <c r="X238" s="12"/>
       <c r="Y238" s="12"/>
     </row>
-    <row r="239" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B239" s="7">
         <v>235</v>
       </c>
@@ -17472,7 +17491,9 @@
       <c r="M239" s="12" t="s">
         <v>1065</v>
       </c>
-      <c r="N239" s="12"/>
+      <c r="N239" s="12">
+        <v>6</v>
+      </c>
       <c r="O239" s="12"/>
       <c r="P239" s="12"/>
       <c r="Q239" s="12"/>
@@ -17482,10 +17503,12 @@
       <c r="U239" s="12"/>
       <c r="V239" s="12"/>
       <c r="W239" s="12"/>
-      <c r="X239" s="12"/>
+      <c r="X239" s="31" t="s">
+        <v>1746</v>
+      </c>
       <c r="Y239" s="12"/>
     </row>
-    <row r="240" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B240" s="7">
         <v>236</v>
       </c>
@@ -17512,7 +17535,9 @@
       <c r="K240" s="12"/>
       <c r="L240" s="12"/>
       <c r="M240" s="12"/>
-      <c r="N240" s="12"/>
+      <c r="N240" s="12">
+        <v>6</v>
+      </c>
       <c r="O240" s="12"/>
       <c r="P240" s="12"/>
       <c r="Q240" s="12"/>
@@ -17525,7 +17550,7 @@
       <c r="X240" s="12"/>
       <c r="Y240" s="12"/>
     </row>
-    <row r="241" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B241" s="7">
         <v>237</v>
       </c>
@@ -17554,7 +17579,9 @@
       <c r="M241" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="N241" s="12"/>
+      <c r="N241" s="12">
+        <v>8</v>
+      </c>
       <c r="O241" s="12"/>
       <c r="P241" s="12"/>
       <c r="Q241" s="12"/>
@@ -17564,10 +17591,12 @@
       <c r="U241" s="12"/>
       <c r="V241" s="12"/>
       <c r="W241" s="12"/>
-      <c r="X241" s="12"/>
+      <c r="X241" s="31" t="s">
+        <v>1747</v>
+      </c>
       <c r="Y241" s="12"/>
     </row>
-    <row r="242" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B242" s="7">
         <v>238</v>
       </c>
@@ -17598,7 +17627,9 @@
       </c>
       <c r="L242" s="13"/>
       <c r="M242" s="13"/>
-      <c r="N242" s="13"/>
+      <c r="N242" s="13">
+        <v>30</v>
+      </c>
       <c r="O242" s="13"/>
       <c r="P242" s="13"/>
       <c r="Q242" s="13"/>
@@ -17611,7 +17642,7 @@
       <c r="X242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B243" s="7">
         <v>239</v>
       </c>
@@ -17647,7 +17678,7 @@
       </c>
       <c r="M243" s="12"/>
       <c r="N243" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O243" s="12"/>
       <c r="P243" s="12"/>
@@ -17661,7 +17692,7 @@
       <c r="X243" s="12"/>
       <c r="Y243" s="12"/>
     </row>
-    <row r="244" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B244" s="7">
         <v>240</v>
       </c>
@@ -17711,7 +17742,7 @@
       <c r="X244" s="12"/>
       <c r="Y244" s="12"/>
     </row>
-    <row r="245" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B245" s="7">
         <v>241</v>
       </c>
@@ -17761,7 +17792,7 @@
       <c r="X245" s="12"/>
       <c r="Y245" s="12"/>
     </row>
-    <row r="246" spans="2:25" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:25" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="B246" s="7">
         <v>242</v>
       </c>
@@ -17811,7 +17842,7 @@
       </c>
       <c r="Y246" s="10"/>
     </row>
-    <row r="247" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B247" s="7">
         <v>243</v>
       </c>
@@ -17861,7 +17892,7 @@
       <c r="X247" s="12"/>
       <c r="Y247" s="12"/>
     </row>
-    <row r="248" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B248" s="7">
         <v>244</v>
       </c>
@@ -17913,7 +17944,7 @@
       </c>
       <c r="Y248" s="12"/>
     </row>
-    <row r="249" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B249" s="7">
         <v>245</v>
       </c>
@@ -17959,7 +17990,7 @@
       <c r="X249" s="12"/>
       <c r="Y249" s="12"/>
     </row>
-    <row r="250" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B250" s="7">
         <v>246</v>
       </c>
@@ -17988,7 +18019,9 @@
       </c>
       <c r="L250" s="12"/>
       <c r="M250" s="12"/>
-      <c r="N250" s="12"/>
+      <c r="N250" s="12">
+        <v>6</v>
+      </c>
       <c r="O250" s="12"/>
       <c r="P250" s="12"/>
       <c r="Q250" s="12"/>
@@ -18001,7 +18034,7 @@
       <c r="X250" s="12"/>
       <c r="Y250" s="12"/>
     </row>
-    <row r="251" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B251" s="7">
         <v>247</v>
       </c>
@@ -18030,7 +18063,9 @@
       </c>
       <c r="L251" s="12"/>
       <c r="M251" s="12"/>
-      <c r="N251" s="12"/>
+      <c r="N251" s="12">
+        <v>8</v>
+      </c>
       <c r="O251" s="12"/>
       <c r="P251" s="12"/>
       <c r="Q251" s="12"/>
@@ -18043,7 +18078,7 @@
       <c r="X251" s="12"/>
       <c r="Y251" s="12"/>
     </row>
-    <row r="252" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B252" s="7">
         <v>248</v>
       </c>
@@ -18072,7 +18107,9 @@
       </c>
       <c r="L252" s="12"/>
       <c r="M252" s="12"/>
-      <c r="N252" s="12"/>
+      <c r="N252" s="12">
+        <v>6</v>
+      </c>
       <c r="O252" s="12"/>
       <c r="P252" s="12"/>
       <c r="Q252" s="12"/>
@@ -18085,7 +18122,7 @@
       <c r="X252" s="12"/>
       <c r="Y252" s="12"/>
     </row>
-    <row r="253" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B253" s="7">
         <v>249</v>
       </c>
@@ -18116,7 +18153,9 @@
       <c r="M253" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="N253" s="12"/>
+      <c r="N253" s="12">
+        <v>8</v>
+      </c>
       <c r="O253" s="12"/>
       <c r="P253" s="12"/>
       <c r="Q253" s="12"/>
@@ -18129,7 +18168,7 @@
       <c r="X253" s="12"/>
       <c r="Y253" s="12"/>
     </row>
-    <row r="254" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B254" s="7">
         <v>250</v>
       </c>
@@ -18158,7 +18197,9 @@
       </c>
       <c r="L254" s="12"/>
       <c r="M254" s="12"/>
-      <c r="N254" s="12"/>
+      <c r="N254" s="12">
+        <v>8</v>
+      </c>
       <c r="O254" s="12"/>
       <c r="P254" s="12"/>
       <c r="Q254" s="12"/>
@@ -18171,7 +18212,7 @@
       <c r="X254" s="12"/>
       <c r="Y254" s="12"/>
     </row>
-    <row r="255" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B255" s="7">
         <v>251</v>
       </c>
@@ -18202,7 +18243,9 @@
       <c r="M255" s="12" t="s">
         <v>1070</v>
       </c>
-      <c r="N255" s="12"/>
+      <c r="N255" s="12">
+        <v>6</v>
+      </c>
       <c r="O255" s="12"/>
       <c r="P255" s="12"/>
       <c r="Q255" s="12"/>
@@ -18215,7 +18258,7 @@
       <c r="X255" s="12"/>
       <c r="Y255" s="12"/>
     </row>
-    <row r="256" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B256" s="7">
         <v>252</v>
       </c>
@@ -18246,7 +18289,9 @@
       </c>
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
-      <c r="N256" s="13"/>
+      <c r="N256" s="13">
+        <v>20</v>
+      </c>
       <c r="O256" s="13"/>
       <c r="P256" s="13"/>
       <c r="Q256" s="13"/>
@@ -18259,7 +18304,7 @@
       <c r="X256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="1:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B257" s="7">
         <v>253</v>
       </c>
@@ -18305,7 +18350,7 @@
       <c r="X257" s="12"/>
       <c r="Y257" s="12"/>
     </row>
-    <row r="258" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B258" s="7">
         <v>254</v>
       </c>
@@ -18355,7 +18400,7 @@
       </c>
       <c r="Y258" s="12"/>
     </row>
-    <row r="259" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B259" s="7">
         <v>255</v>
       </c>
@@ -18407,7 +18452,7 @@
       </c>
       <c r="Y259" s="12"/>
     </row>
-    <row r="260" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B260" s="7">
         <v>256</v>
       </c>
@@ -18459,7 +18504,7 @@
       </c>
       <c r="Y260" s="12"/>
     </row>
-    <row r="261" spans="1:25" s="16" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" s="16" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B261" s="7">
         <v>257</v>
       </c>
@@ -18509,7 +18554,7 @@
       </c>
       <c r="Y261" s="10"/>
     </row>
-    <row r="262" spans="1:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="16"/>
       <c r="B262" s="7">
         <v>258</v>
@@ -18560,7 +18605,7 @@
       </c>
       <c r="Y262" s="12"/>
     </row>
-    <row r="263" spans="1:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B263" s="7">
         <v>259</v>
       </c>
@@ -18610,7 +18655,7 @@
       </c>
       <c r="Y263" s="12"/>
     </row>
-    <row r="264" spans="1:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B264" s="7">
         <v>260</v>
       </c>
@@ -18652,7 +18697,7 @@
       <c r="X264" s="12"/>
       <c r="Y264" s="12"/>
     </row>
-    <row r="265" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B265" s="7">
         <v>261</v>
       </c>
@@ -18704,7 +18749,7 @@
       </c>
       <c r="Y265" s="12"/>
     </row>
-    <row r="266" spans="1:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B266" s="7">
         <v>262</v>
       </c>
@@ -18754,7 +18799,7 @@
       <c r="X266" s="12"/>
       <c r="Y266" s="12"/>
     </row>
-    <row r="267" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B267" s="7">
         <v>263</v>
       </c>
@@ -18804,7 +18849,7 @@
       <c r="X267" s="12"/>
       <c r="Y267" s="12"/>
     </row>
-    <row r="268" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B268" s="7">
         <v>264</v>
       </c>
@@ -18856,7 +18901,7 @@
       </c>
       <c r="Y268" s="12"/>
     </row>
-    <row r="269" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B269" s="7">
         <v>265</v>
       </c>
@@ -18906,7 +18951,7 @@
       <c r="X269" s="12"/>
       <c r="Y269" s="12"/>
     </row>
-    <row r="270" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B270" s="7">
         <v>266</v>
       </c>
@@ -18956,7 +19001,7 @@
       <c r="X270" s="12"/>
       <c r="Y270" s="12"/>
     </row>
-    <row r="271" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B271" s="7">
         <v>267</v>
       </c>
@@ -19004,7 +19049,7 @@
       <c r="X271" s="12"/>
       <c r="Y271" s="12"/>
     </row>
-    <row r="272" spans="1:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B272" s="7">
         <v>268</v>
       </c>
@@ -19052,7 +19097,7 @@
       <c r="X272" s="12"/>
       <c r="Y272" s="12"/>
     </row>
-    <row r="273" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B273" s="7">
         <v>269</v>
       </c>
@@ -19096,7 +19141,7 @@
       <c r="X273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B274" s="7">
         <v>270</v>
       </c>
@@ -19136,7 +19181,7 @@
       </c>
       <c r="Y274" s="12"/>
     </row>
-    <row r="275" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B275" s="7">
         <v>271</v>
       </c>
@@ -19176,7 +19221,7 @@
       </c>
       <c r="Y275" s="12"/>
     </row>
-    <row r="276" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B276" s="7">
         <v>272</v>
       </c>
@@ -19216,7 +19261,7 @@
       </c>
       <c r="Y276" s="12"/>
     </row>
-    <row r="277" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B277" s="7">
         <v>273</v>
       </c>
@@ -19256,7 +19301,7 @@
       </c>
       <c r="Y277" s="12"/>
     </row>
-    <row r="278" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B278" s="7">
         <v>274</v>
       </c>
@@ -19296,7 +19341,7 @@
       </c>
       <c r="Y278" s="12"/>
     </row>
-    <row r="279" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B279" s="7">
         <v>275</v>
       </c>
@@ -19336,7 +19381,7 @@
       </c>
       <c r="Y279" s="12"/>
     </row>
-    <row r="280" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B280" s="7">
         <v>276</v>
       </c>
@@ -19380,7 +19425,7 @@
       </c>
       <c r="Y280" s="12"/>
     </row>
-    <row r="281" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B281" s="7">
         <v>277</v>
       </c>
@@ -19420,7 +19465,7 @@
       </c>
       <c r="Y281" s="12"/>
     </row>
-    <row r="282" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B282" s="7">
         <v>278</v>
       </c>
@@ -19460,7 +19505,7 @@
       </c>
       <c r="Y282" s="12"/>
     </row>
-    <row r="283" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B283" s="7">
         <v>279</v>
       </c>
@@ -19502,7 +19547,7 @@
       </c>
       <c r="Y283" s="12"/>
     </row>
-    <row r="284" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B284" s="7">
         <v>280</v>
       </c>
@@ -19544,7 +19589,7 @@
       </c>
       <c r="Y284" s="12"/>
     </row>
-    <row r="285" spans="2:25" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:25" ht="112" hidden="1" x14ac:dyDescent="0.35">
       <c r="B285" s="7">
         <v>281</v>
       </c>
@@ -19594,7 +19639,7 @@
       </c>
       <c r="Y285" s="12"/>
     </row>
-    <row r="286" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B286" s="7">
         <v>282</v>
       </c>
@@ -19636,7 +19681,7 @@
       </c>
       <c r="Y286" s="12"/>
     </row>
-    <row r="287" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B287" s="7">
         <v>283</v>
       </c>
@@ -19676,7 +19721,7 @@
       </c>
       <c r="Y287" s="12"/>
     </row>
-    <row r="288" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B288" s="7">
         <v>284</v>
       </c>
@@ -19726,7 +19771,7 @@
       </c>
       <c r="Y288" s="12"/>
     </row>
-    <row r="289" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B289" s="7">
         <v>285</v>
       </c>
@@ -19772,7 +19817,7 @@
       </c>
       <c r="Y289" s="12"/>
     </row>
-    <row r="290" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B290" s="7">
         <v>286</v>
       </c>
@@ -19812,7 +19857,7 @@
       </c>
       <c r="Y290" s="12"/>
     </row>
-    <row r="291" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B291" s="7">
         <v>287</v>
       </c>
@@ -19852,7 +19897,7 @@
       </c>
       <c r="Y291" s="12"/>
     </row>
-    <row r="292" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B292" s="7">
         <v>288</v>
       </c>
@@ -19894,7 +19939,7 @@
       </c>
       <c r="Y292" s="12"/>
     </row>
-    <row r="293" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B293" s="7">
         <v>289</v>
       </c>
@@ -19940,7 +19985,7 @@
       </c>
       <c r="Y293" s="12"/>
     </row>
-    <row r="294" spans="2:25" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:25" ht="182" hidden="1" x14ac:dyDescent="0.35">
       <c r="B294" s="7">
         <v>290</v>
       </c>
@@ -19990,7 +20035,7 @@
       </c>
       <c r="Y294" s="12"/>
     </row>
-    <row r="295" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B295" s="7">
         <v>291</v>
       </c>
@@ -20030,7 +20075,7 @@
       </c>
       <c r="Y295" s="12"/>
     </row>
-    <row r="296" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B296" s="7">
         <v>292</v>
       </c>
@@ -20070,7 +20115,7 @@
       </c>
       <c r="Y296" s="12"/>
     </row>
-    <row r="297" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B297" s="7">
         <v>293</v>
       </c>
@@ -20110,7 +20155,7 @@
       </c>
       <c r="Y297" s="12"/>
     </row>
-    <row r="298" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B298" s="7">
         <v>294</v>
       </c>
@@ -20150,7 +20195,7 @@
       </c>
       <c r="Y298" s="12"/>
     </row>
-    <row r="299" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B299" s="7">
         <v>295</v>
       </c>
@@ -20190,7 +20235,7 @@
       </c>
       <c r="Y299" s="12"/>
     </row>
-    <row r="300" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B300" s="7">
         <v>296</v>
       </c>
@@ -20230,7 +20275,7 @@
       </c>
       <c r="Y300" s="12"/>
     </row>
-    <row r="301" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B301" s="7">
         <v>297</v>
       </c>
@@ -20270,7 +20315,7 @@
       </c>
       <c r="Y301" s="12"/>
     </row>
-    <row r="302" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B302" s="7">
         <v>298</v>
       </c>
@@ -20312,7 +20357,7 @@
       </c>
       <c r="Y302" s="12"/>
     </row>
-    <row r="303" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B303" s="7">
         <v>299</v>
       </c>
@@ -20354,7 +20399,7 @@
       </c>
       <c r="Y303" s="12"/>
     </row>
-    <row r="304" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B304" s="7">
         <v>300</v>
       </c>
@@ -20396,7 +20441,7 @@
       </c>
       <c r="Y304" s="12"/>
     </row>
-    <row r="305" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B305" s="7">
         <v>301</v>
       </c>
@@ -20438,7 +20483,7 @@
       </c>
       <c r="Y305" s="12"/>
     </row>
-    <row r="306" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B306" s="7">
         <v>302</v>
       </c>
@@ -20480,7 +20525,7 @@
       </c>
       <c r="Y306" s="12"/>
     </row>
-    <row r="307" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B307" s="7">
         <v>303</v>
       </c>
@@ -20520,7 +20565,7 @@
       </c>
       <c r="Y307" s="12"/>
     </row>
-    <row r="308" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B308" s="7">
         <v>304</v>
       </c>
@@ -20560,7 +20605,7 @@
       </c>
       <c r="Y308" s="12"/>
     </row>
-    <row r="309" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B309" s="7">
         <v>305</v>
       </c>
@@ -20598,7 +20643,7 @@
       </c>
       <c r="Y309" s="12"/>
     </row>
-    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B310" s="7">
         <v>306</v>
       </c>
@@ -20636,7 +20681,7 @@
       </c>
       <c r="Y310" s="12"/>
     </row>
-    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B311" s="7">
         <v>307</v>
       </c>
@@ -20674,7 +20719,7 @@
       </c>
       <c r="Y311" s="12"/>
     </row>
-    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B312" s="7">
         <v>308</v>
       </c>
@@ -20712,7 +20757,7 @@
       </c>
       <c r="Y312" s="12"/>
     </row>
-    <row r="313" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B313" s="7">
         <v>309</v>
       </c>
@@ -20754,7 +20799,7 @@
       </c>
       <c r="Y313" s="12"/>
     </row>
-    <row r="314" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B314" s="7">
         <v>310</v>
       </c>
@@ -20794,7 +20839,7 @@
       </c>
       <c r="Y314" s="12"/>
     </row>
-    <row r="315" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B315" s="7">
         <v>311</v>
       </c>
@@ -20834,7 +20879,7 @@
       </c>
       <c r="Y315" s="12"/>
     </row>
-    <row r="316" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B316" s="7">
         <v>312</v>
       </c>
@@ -20874,7 +20919,7 @@
       </c>
       <c r="Y316" s="12"/>
     </row>
-    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B317" s="7">
         <v>313</v>
       </c>
@@ -20912,7 +20957,7 @@
       </c>
       <c r="Y317" s="12"/>
     </row>
-    <row r="318" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B318" s="7">
         <v>314</v>
       </c>
@@ -20950,7 +20995,7 @@
       </c>
       <c r="Y318" s="12"/>
     </row>
-    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B319" s="7">
         <v>315</v>
       </c>
@@ -20988,7 +21033,7 @@
       </c>
       <c r="Y319" s="12"/>
     </row>
-    <row r="320" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B320" s="7">
         <v>316</v>
       </c>
@@ -21028,7 +21073,7 @@
       </c>
       <c r="Y320" s="12"/>
     </row>
-    <row r="321" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B321" s="7">
         <v>317</v>
       </c>
@@ -21068,7 +21113,7 @@
       </c>
       <c r="Y321" s="12"/>
     </row>
-    <row r="322" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B322" s="7">
         <v>318</v>
       </c>
@@ -21108,7 +21153,7 @@
       </c>
       <c r="Y322" s="12"/>
     </row>
-    <row r="323" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B323" s="7">
         <v>319</v>
       </c>
@@ -21150,7 +21195,7 @@
       </c>
       <c r="Y323" s="12"/>
     </row>
-    <row r="324" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B324" s="7">
         <v>320</v>
       </c>
@@ -21192,7 +21237,7 @@
       </c>
       <c r="Y324" s="12"/>
     </row>
-    <row r="325" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B325" s="7">
         <v>321</v>
       </c>
@@ -21234,7 +21279,7 @@
       </c>
       <c r="Y325" s="12"/>
     </row>
-    <row r="326" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B326" s="7">
         <v>322</v>
       </c>
@@ -21280,7 +21325,7 @@
       </c>
       <c r="Y326" s="12"/>
     </row>
-    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B327" s="7">
         <v>323</v>
       </c>
@@ -21318,7 +21363,7 @@
       </c>
       <c r="Y327" s="12"/>
     </row>
-    <row r="328" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B328" s="7">
         <v>324</v>
       </c>
@@ -21360,7 +21405,7 @@
       </c>
       <c r="Y328" s="12"/>
     </row>
-    <row r="329" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B329" s="7">
         <v>325</v>
       </c>
@@ -21403,7 +21448,7 @@
       </c>
       <c r="Y329" s="12"/>
     </row>
-    <row r="330" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B330" s="7">
         <v>326</v>
       </c>
@@ -21446,7 +21491,7 @@
       <c r="X330" s="12"/>
       <c r="Y330" s="12"/>
     </row>
-    <row r="331" spans="2:25" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:25" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="7">
         <v>327</v>
       </c>
@@ -21487,7 +21532,7 @@
       <c r="X331" s="12"/>
       <c r="Y331" s="12"/>
     </row>
-    <row r="332" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B332" s="7">
         <v>328</v>
       </c>
@@ -21530,7 +21575,7 @@
       </c>
       <c r="Y332" s="12"/>
     </row>
-    <row r="333" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B333" s="7">
         <v>329</v>
       </c>
@@ -21573,7 +21618,7 @@
       </c>
       <c r="Y333" s="12"/>
     </row>
-    <row r="334" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B334" s="7">
         <v>330</v>
       </c>
@@ -21616,7 +21661,7 @@
       </c>
       <c r="Y334" s="12"/>
     </row>
-    <row r="335" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B335" s="7">
         <v>331</v>
       </c>
@@ -21663,7 +21708,7 @@
       </c>
       <c r="Y335" s="12"/>
     </row>
-    <row r="336" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B336" s="7">
         <v>332</v>
       </c>
@@ -21710,7 +21755,7 @@
       </c>
       <c r="Y336" s="12"/>
     </row>
-    <row r="337" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B337" s="7">
         <v>333</v>
       </c>
@@ -21757,7 +21802,7 @@
       </c>
       <c r="Y337" s="12"/>
     </row>
-    <row r="338" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B338" s="7">
         <v>334</v>
       </c>
@@ -21804,7 +21849,7 @@
       </c>
       <c r="Y338" s="12"/>
     </row>
-    <row r="339" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B339" s="7">
         <v>335</v>
       </c>
@@ -21851,7 +21896,7 @@
       </c>
       <c r="Y339" s="12"/>
     </row>
-    <row r="340" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B340" s="7">
         <v>336</v>
       </c>
@@ -21896,7 +21941,7 @@
       <c r="X340" s="12"/>
       <c r="Y340" s="12"/>
     </row>
-    <row r="341" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B341" s="7">
         <v>337</v>
       </c>
@@ -21945,7 +21990,7 @@
       <c r="X341" s="12"/>
       <c r="Y341" s="12"/>
     </row>
-    <row r="342" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B342" s="7">
         <v>338</v>
       </c>
@@ -21990,7 +22035,7 @@
       <c r="X342" s="12"/>
       <c r="Y342" s="12"/>
     </row>
-    <row r="343" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B343" s="7">
         <v>339</v>
       </c>
@@ -22039,7 +22084,7 @@
       <c r="X343" s="12"/>
       <c r="Y343" s="12"/>
     </row>
-    <row r="344" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B344" s="7">
         <v>340</v>
       </c>
@@ -22084,7 +22129,7 @@
       <c r="X344" s="12"/>
       <c r="Y344" s="12"/>
     </row>
-    <row r="345" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B345" s="7">
         <v>341</v>
       </c>
@@ -22133,7 +22178,7 @@
       <c r="X345" s="12"/>
       <c r="Y345" s="12"/>
     </row>
-    <row r="346" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B346" s="7">
         <v>342</v>
       </c>
@@ -22182,7 +22227,7 @@
       <c r="X346" s="12"/>
       <c r="Y346" s="12"/>
     </row>
-    <row r="347" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B347" s="7">
         <v>343</v>
       </c>
@@ -22231,7 +22276,7 @@
       <c r="X347" s="12"/>
       <c r="Y347" s="12"/>
     </row>
-    <row r="348" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B348" s="7">
         <v>344</v>
       </c>
@@ -22280,7 +22325,7 @@
       <c r="X348" s="12"/>
       <c r="Y348" s="12"/>
     </row>
-    <row r="349" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B349" s="7">
         <v>345</v>
       </c>
@@ -22329,7 +22374,7 @@
       <c r="X349" s="12"/>
       <c r="Y349" s="12"/>
     </row>
-    <row r="350" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B350" s="7">
         <v>346</v>
       </c>
@@ -22378,7 +22423,7 @@
       <c r="X350" s="12"/>
       <c r="Y350" s="12"/>
     </row>
-    <row r="351" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B351" s="7">
         <v>347</v>
       </c>
@@ -22427,7 +22472,7 @@
       <c r="X351" s="12"/>
       <c r="Y351" s="12"/>
     </row>
-    <row r="352" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B352" s="7">
         <v>348</v>
       </c>
@@ -22476,7 +22521,7 @@
       <c r="X352" s="12"/>
       <c r="Y352" s="12"/>
     </row>
-    <row r="353" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B353" s="7">
         <v>349</v>
       </c>
@@ -22525,7 +22570,7 @@
       <c r="X353" s="12"/>
       <c r="Y353" s="12"/>
     </row>
-    <row r="354" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B354" s="7">
         <v>350</v>
       </c>
@@ -22574,7 +22619,7 @@
       <c r="X354" s="12"/>
       <c r="Y354" s="12"/>
     </row>
-    <row r="355" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B355" s="7">
         <v>351</v>
       </c>
@@ -22623,7 +22668,7 @@
       <c r="X355" s="12"/>
       <c r="Y355" s="12"/>
     </row>
-    <row r="356" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B356" s="7">
         <v>352</v>
       </c>
@@ -22672,7 +22717,7 @@
       <c r="X356" s="12"/>
       <c r="Y356" s="12"/>
     </row>
-    <row r="357" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B357" s="7">
         <v>353</v>
       </c>
@@ -22721,7 +22766,7 @@
       <c r="X357" s="12"/>
       <c r="Y357" s="12"/>
     </row>
-    <row r="358" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B358" s="7">
         <v>354</v>
       </c>
@@ -22770,7 +22815,7 @@
       <c r="X358" s="12"/>
       <c r="Y358" s="12"/>
     </row>
-    <row r="359" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B359" s="7">
         <v>355</v>
       </c>
@@ -22815,7 +22860,7 @@
       <c r="X359" s="12"/>
       <c r="Y359" s="12"/>
     </row>
-    <row r="360" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B360" s="7">
         <v>356</v>
       </c>
@@ -22864,7 +22909,7 @@
       <c r="X360" s="12"/>
       <c r="Y360" s="12"/>
     </row>
-    <row r="361" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B361" s="7">
         <v>357</v>
       </c>
@@ -22913,7 +22958,7 @@
       <c r="X361" s="12"/>
       <c r="Y361" s="12"/>
     </row>
-    <row r="362" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B362" s="7">
         <v>358</v>
       </c>
@@ -22958,7 +23003,7 @@
       <c r="X362" s="12"/>
       <c r="Y362" s="12"/>
     </row>
-    <row r="363" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B363" s="7">
         <v>359</v>
       </c>
@@ -23007,7 +23052,7 @@
       <c r="X363" s="12"/>
       <c r="Y363" s="12"/>
     </row>
-    <row r="364" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:25" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B364" s="7">
         <v>360</v>
       </c>
@@ -23052,7 +23097,7 @@
       <c r="X364" s="12"/>
       <c r="Y364" s="12"/>
     </row>
-    <row r="365" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B365" s="7">
         <v>361</v>
       </c>
@@ -23101,7 +23146,7 @@
       <c r="X365" s="12"/>
       <c r="Y365" s="12"/>
     </row>
-    <row r="366" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B366" s="7">
         <v>362</v>
       </c>
@@ -23150,7 +23195,7 @@
       <c r="X366" s="12"/>
       <c r="Y366" s="12"/>
     </row>
-    <row r="367" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B367" s="7">
         <v>363</v>
       </c>
@@ -23199,7 +23244,7 @@
       <c r="X367" s="12"/>
       <c r="Y367" s="12"/>
     </row>
-    <row r="368" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B368" s="7">
         <v>364</v>
       </c>
@@ -23244,7 +23289,7 @@
       <c r="X368" s="12"/>
       <c r="Y368" s="12"/>
     </row>
-    <row r="369" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B369" s="7">
         <v>365</v>
       </c>
@@ -23293,7 +23338,7 @@
       <c r="X369" s="12"/>
       <c r="Y369" s="12"/>
     </row>
-    <row r="370" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B370" s="7">
         <v>366</v>
       </c>
@@ -23338,7 +23383,7 @@
       <c r="X370" s="12"/>
       <c r="Y370" s="12"/>
     </row>
-    <row r="371" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B371" s="7">
         <v>367</v>
       </c>
@@ -23387,7 +23432,7 @@
       <c r="X371" s="12"/>
       <c r="Y371" s="12"/>
     </row>
-    <row r="372" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B372" s="7">
         <v>368</v>
       </c>
@@ -23436,7 +23481,7 @@
       <c r="X372" s="12"/>
       <c r="Y372" s="12"/>
     </row>
-    <row r="373" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B373" s="7">
         <v>369</v>
       </c>
@@ -23481,7 +23526,7 @@
       <c r="X373" s="12"/>
       <c r="Y373" s="12"/>
     </row>
-    <row r="374" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B374" s="7">
         <v>370</v>
       </c>
@@ -23530,7 +23575,7 @@
       <c r="X374" s="12"/>
       <c r="Y374" s="12"/>
     </row>
-    <row r="375" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B375" s="7">
         <v>371</v>
       </c>
@@ -23577,7 +23622,7 @@
       </c>
       <c r="Y375" s="12"/>
     </row>
-    <row r="376" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B376" s="7">
         <v>372</v>
       </c>
@@ -23624,7 +23669,7 @@
       </c>
       <c r="Y376" s="12"/>
     </row>
-    <row r="377" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B377" s="7">
         <v>373</v>
       </c>
@@ -23669,7 +23714,7 @@
       <c r="X377" s="12"/>
       <c r="Y377" s="12"/>
     </row>
-    <row r="378" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B378" s="7">
         <v>374</v>
       </c>
@@ -23714,7 +23759,7 @@
       <c r="X378" s="12"/>
       <c r="Y378" s="12"/>
     </row>
-    <row r="379" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B379" s="7">
         <v>375</v>
       </c>
@@ -23763,7 +23808,7 @@
       <c r="X379" s="12"/>
       <c r="Y379" s="12"/>
     </row>
-    <row r="380" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B380" s="7">
         <v>376</v>
       </c>
@@ -23812,7 +23857,7 @@
       <c r="X380" s="12"/>
       <c r="Y380" s="12"/>
     </row>
-    <row r="381" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B381" s="7">
         <v>377</v>
       </c>
@@ -23857,7 +23902,7 @@
       <c r="X381" s="12"/>
       <c r="Y381" s="12"/>
     </row>
-    <row r="382" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B382" s="7">
         <v>378</v>
       </c>
@@ -23906,7 +23951,7 @@
       <c r="X382" s="12"/>
       <c r="Y382" s="12"/>
     </row>
-    <row r="383" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B383" s="7">
         <v>379</v>
       </c>
@@ -23955,7 +24000,7 @@
       <c r="X383" s="12"/>
       <c r="Y383" s="12"/>
     </row>
-    <row r="384" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B384" s="7">
         <v>380</v>
       </c>
@@ -24000,7 +24045,7 @@
       <c r="X384" s="12"/>
       <c r="Y384" s="12"/>
     </row>
-    <row r="385" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B385" s="7">
         <v>381</v>
       </c>
@@ -24045,7 +24090,7 @@
       <c r="X385" s="12"/>
       <c r="Y385" s="12"/>
     </row>
-    <row r="386" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B386" s="7">
         <v>382</v>
       </c>
@@ -24094,7 +24139,7 @@
       <c r="X386" s="12"/>
       <c r="Y386" s="12"/>
     </row>
-    <row r="387" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B387" s="7">
         <v>383</v>
       </c>
@@ -24143,7 +24188,7 @@
       <c r="X387" s="12"/>
       <c r="Y387" s="12"/>
     </row>
-    <row r="388" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B388" s="7">
         <v>384</v>
       </c>
@@ -24188,7 +24233,7 @@
       <c r="X388" s="12"/>
       <c r="Y388" s="12"/>
     </row>
-    <row r="389" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B389" s="7">
         <v>385</v>
       </c>
@@ -24233,7 +24278,7 @@
       <c r="X389" s="12"/>
       <c r="Y389" s="12"/>
     </row>
-    <row r="390" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B390" s="7">
         <v>386</v>
       </c>
@@ -24282,7 +24327,7 @@
       <c r="X390" s="12"/>
       <c r="Y390" s="12"/>
     </row>
-    <row r="391" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B391" s="7">
         <v>387</v>
       </c>
@@ -24327,7 +24372,7 @@
       <c r="X391" s="12"/>
       <c r="Y391" s="12"/>
     </row>
-    <row r="392" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B392" s="7">
         <v>388</v>
       </c>
@@ -24376,7 +24421,7 @@
       <c r="X392" s="12"/>
       <c r="Y392" s="12"/>
     </row>
-    <row r="393" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B393" s="7">
         <v>389</v>
       </c>
@@ -24421,7 +24466,7 @@
       <c r="X393" s="12"/>
       <c r="Y393" s="12"/>
     </row>
-    <row r="394" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B394" s="7">
         <v>390</v>
       </c>
@@ -24466,7 +24511,7 @@
       <c r="X394" s="12"/>
       <c r="Y394" s="12"/>
     </row>
-    <row r="395" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B395" s="7">
         <v>391</v>
       </c>
@@ -24515,7 +24560,7 @@
       <c r="X395" s="12"/>
       <c r="Y395" s="12"/>
     </row>
-    <row r="396" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B396" s="7">
         <v>392</v>
       </c>
@@ -24560,7 +24605,7 @@
       <c r="X396" s="12"/>
       <c r="Y396" s="12"/>
     </row>
-    <row r="397" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B397" s="7">
         <v>393</v>
       </c>
@@ -24609,7 +24654,7 @@
       <c r="X397" s="12"/>
       <c r="Y397" s="12"/>
     </row>
-    <row r="398" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B398" s="7">
         <v>394</v>
       </c>
@@ -24658,7 +24703,7 @@
       <c r="X398" s="12"/>
       <c r="Y398" s="12"/>
     </row>
-    <row r="399" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B399" s="7">
         <v>395</v>
       </c>
@@ -24705,7 +24750,7 @@
       </c>
       <c r="Y399" s="12"/>
     </row>
-    <row r="400" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B400" s="7">
         <v>396</v>
       </c>
@@ -24752,7 +24797,7 @@
       </c>
       <c r="Y400" s="12"/>
     </row>
-    <row r="401" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B401" s="7">
         <v>397</v>
       </c>
@@ -24797,7 +24842,7 @@
       <c r="X401" s="12"/>
       <c r="Y401" s="12"/>
     </row>
-    <row r="402" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B402" s="7">
         <v>398</v>
       </c>
@@ -24844,7 +24889,7 @@
       </c>
       <c r="Y402" s="12"/>
     </row>
-    <row r="403" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B403" s="7">
         <v>399</v>
       </c>
@@ -24889,7 +24934,7 @@
       <c r="X403" s="12"/>
       <c r="Y403" s="12"/>
     </row>
-    <row r="404" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B404" s="7">
         <v>400</v>
       </c>
@@ -24938,7 +24983,7 @@
       <c r="X404" s="12"/>
       <c r="Y404" s="12"/>
     </row>
-    <row r="405" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B405" s="7">
         <v>401</v>
       </c>
@@ -24983,7 +25028,7 @@
       <c r="X405" s="12"/>
       <c r="Y405" s="12"/>
     </row>
-    <row r="406" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B406" s="7">
         <v>402</v>
       </c>
@@ -25028,7 +25073,7 @@
       <c r="X406" s="12"/>
       <c r="Y406" s="12"/>
     </row>
-    <row r="407" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B407" s="7">
         <v>403</v>
       </c>
@@ -25077,7 +25122,7 @@
       <c r="X407" s="12"/>
       <c r="Y407" s="12"/>
     </row>
-    <row r="408" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B408" s="7">
         <v>404</v>
       </c>
@@ -25122,7 +25167,7 @@
       <c r="X408" s="12"/>
       <c r="Y408" s="12"/>
     </row>
-    <row r="409" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B409" s="7">
         <v>405</v>
       </c>
@@ -25171,7 +25216,7 @@
       <c r="X409" s="12"/>
       <c r="Y409" s="12"/>
     </row>
-    <row r="410" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B410" s="7">
         <v>406</v>
       </c>
@@ -25220,7 +25265,7 @@
       <c r="X410" s="12"/>
       <c r="Y410" s="12"/>
     </row>
-    <row r="411" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B411" s="7">
         <v>407</v>
       </c>
@@ -25267,7 +25312,7 @@
       </c>
       <c r="Y411" s="12"/>
     </row>
-    <row r="412" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B412" s="7">
         <v>408</v>
       </c>
@@ -25316,7 +25361,7 @@
       <c r="X412" s="12"/>
       <c r="Y412" s="12"/>
     </row>
-    <row r="413" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B413" s="7">
         <v>409</v>
       </c>
@@ -25363,7 +25408,7 @@
       </c>
       <c r="Y413" s="12"/>
     </row>
-    <row r="414" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B414" s="7">
         <v>410</v>
       </c>
@@ -25412,7 +25457,7 @@
       <c r="X414" s="12"/>
       <c r="Y414" s="12"/>
     </row>
-    <row r="415" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B415" s="7">
         <v>411</v>
       </c>
@@ -25457,7 +25502,7 @@
       <c r="X415" s="12"/>
       <c r="Y415" s="12"/>
     </row>
-    <row r="416" spans="2:25" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:25" ht="84" x14ac:dyDescent="0.35">
       <c r="B416" s="7">
         <v>412</v>
       </c>
@@ -25506,7 +25551,7 @@
       <c r="X416" s="12"/>
       <c r="Y416" s="12"/>
     </row>
-    <row r="417" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B417" s="7">
         <v>413</v>
       </c>
@@ -25551,7 +25596,7 @@
       <c r="X417" s="12"/>
       <c r="Y417" s="12"/>
     </row>
-    <row r="418" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B418" s="7">
         <v>414</v>
       </c>
@@ -25600,7 +25645,7 @@
       <c r="X418" s="12"/>
       <c r="Y418" s="12"/>
     </row>
-    <row r="419" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B419" s="7">
         <v>415</v>
       </c>
@@ -25649,7 +25694,7 @@
       <c r="X419" s="12"/>
       <c r="Y419" s="12"/>
     </row>
-    <row r="420" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B420" s="7">
         <v>416</v>
       </c>
@@ -25694,7 +25739,7 @@
       <c r="X420" s="12"/>
       <c r="Y420" s="12"/>
     </row>
-    <row r="421" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B421" s="7">
         <v>417</v>
       </c>
@@ -25743,7 +25788,7 @@
       <c r="X421" s="12"/>
       <c r="Y421" s="12"/>
     </row>
-    <row r="422" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B422" s="7">
         <v>418</v>
       </c>
@@ -25792,7 +25837,7 @@
       <c r="X422" s="12"/>
       <c r="Y422" s="12"/>
     </row>
-    <row r="423" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B423" s="7">
         <v>419</v>
       </c>
@@ -25837,7 +25882,7 @@
       <c r="X423" s="12"/>
       <c r="Y423" s="12"/>
     </row>
-    <row r="424" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B424" s="7">
         <v>420</v>
       </c>
@@ -25882,7 +25927,7 @@
       <c r="X424" s="12"/>
       <c r="Y424" s="12"/>
     </row>
-    <row r="425" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B425" s="7">
         <v>421</v>
       </c>
@@ -25931,7 +25976,7 @@
       <c r="X425" s="12"/>
       <c r="Y425" s="12"/>
     </row>
-    <row r="426" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B426" s="7">
         <v>422</v>
       </c>
@@ -25980,7 +26025,7 @@
       <c r="X426" s="12"/>
       <c r="Y426" s="12"/>
     </row>
-    <row r="427" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B427" s="7">
         <v>423</v>
       </c>
@@ -26029,7 +26074,7 @@
       <c r="X427" s="12"/>
       <c r="Y427" s="12"/>
     </row>
-    <row r="428" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B428" s="7">
         <v>424</v>
       </c>
@@ -26078,7 +26123,7 @@
       <c r="X428" s="12"/>
       <c r="Y428" s="12"/>
     </row>
-    <row r="429" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B429" s="7">
         <v>425</v>
       </c>
@@ -26127,7 +26172,7 @@
       <c r="X429" s="12"/>
       <c r="Y429" s="12"/>
     </row>
-    <row r="430" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B430" s="7">
         <v>426</v>
       </c>
@@ -26176,7 +26221,7 @@
       <c r="X430" s="12"/>
       <c r="Y430" s="12"/>
     </row>
-    <row r="431" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B431" s="7">
         <v>427</v>
       </c>
@@ -26223,7 +26268,7 @@
       </c>
       <c r="Y431" s="12"/>
     </row>
-    <row r="432" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B432" s="7">
         <v>428</v>
       </c>
@@ -26274,7 +26319,7 @@
       </c>
       <c r="Y432" s="12"/>
     </row>
-    <row r="433" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B433" s="7">
         <v>429</v>
       </c>
@@ -26323,7 +26368,7 @@
       <c r="X433" s="12"/>
       <c r="Y433" s="12"/>
     </row>
-    <row r="434" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B434" s="7">
         <v>430</v>
       </c>
@@ -26372,7 +26417,7 @@
       <c r="X434" s="12"/>
       <c r="Y434" s="12"/>
     </row>
-    <row r="435" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:25" ht="56" x14ac:dyDescent="0.35">
       <c r="B435" s="7">
         <v>431</v>
       </c>
@@ -26421,7 +26466,7 @@
       <c r="X435" s="12"/>
       <c r="Y435" s="12"/>
     </row>
-    <row r="436" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B436" s="7">
         <v>432</v>
       </c>
@@ -26470,7 +26515,7 @@
       <c r="X436" s="12"/>
       <c r="Y436" s="12"/>
     </row>
-    <row r="437" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B437" s="7">
         <v>433</v>
       </c>
@@ -26517,7 +26562,7 @@
       </c>
       <c r="Y437" s="12"/>
     </row>
-    <row r="438" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B438" s="7">
         <v>434</v>
       </c>
@@ -26564,7 +26609,7 @@
       </c>
       <c r="Y438" s="12"/>
     </row>
-    <row r="439" spans="2:25" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:25" ht="70" x14ac:dyDescent="0.35">
       <c r="B439" s="7">
         <v>435</v>
       </c>
@@ -26613,7 +26658,7 @@
       <c r="X439" s="12"/>
       <c r="Y439" s="12"/>
     </row>
-    <row r="440" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B440" s="7">
         <v>436</v>
       </c>
@@ -26662,7 +26707,7 @@
       <c r="X440" s="12"/>
       <c r="Y440" s="12"/>
     </row>
-    <row r="441" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B441" s="7">
         <v>437</v>
       </c>
@@ -26711,7 +26756,7 @@
       <c r="X441" s="12"/>
       <c r="Y441" s="12"/>
     </row>
-    <row r="442" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B442" s="7">
         <v>438</v>
       </c>
@@ -26760,7 +26805,7 @@
       <c r="X442" s="12"/>
       <c r="Y442" s="12"/>
     </row>
-    <row r="443" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B443" s="7">
         <v>439</v>
       </c>
@@ -26809,7 +26854,7 @@
       <c r="X443" s="12"/>
       <c r="Y443" s="12"/>
     </row>
-    <row r="444" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B444" s="7">
         <v>440</v>
       </c>
@@ -26854,7 +26899,7 @@
       <c r="X444" s="12"/>
       <c r="Y444" s="12"/>
     </row>
-    <row r="445" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B445" s="7">
         <v>441</v>
       </c>
@@ -26899,7 +26944,7 @@
       <c r="X445" s="12"/>
       <c r="Y445" s="12"/>
     </row>
-    <row r="446" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B446" s="7">
         <v>442</v>
       </c>
@@ -26946,7 +26991,7 @@
       </c>
       <c r="Y446" s="12"/>
     </row>
-    <row r="447" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B447" s="7">
         <v>443</v>
       </c>
@@ -26993,7 +27038,7 @@
       </c>
       <c r="Y447" s="12"/>
     </row>
-    <row r="448" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B448" s="7">
         <v>444</v>
       </c>
@@ -27042,7 +27087,7 @@
       <c r="X448" s="12"/>
       <c r="Y448" s="12"/>
     </row>
-    <row r="449" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B449" s="7">
         <v>445</v>
       </c>
@@ -27087,7 +27132,7 @@
       <c r="X449" s="12"/>
       <c r="Y449" s="12"/>
     </row>
-    <row r="450" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B450" s="7">
         <v>446</v>
       </c>
@@ -27136,7 +27181,7 @@
       <c r="X450" s="12"/>
       <c r="Y450" s="12"/>
     </row>
-    <row r="451" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B451" s="7">
         <v>447</v>
       </c>
@@ -27183,7 +27228,7 @@
       </c>
       <c r="Y451" s="12"/>
     </row>
-    <row r="452" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B452" s="7">
         <v>448</v>
       </c>
@@ -27230,7 +27275,7 @@
       </c>
       <c r="Y452" s="12"/>
     </row>
-    <row r="453" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B453" s="7">
         <v>449</v>
       </c>
@@ -27277,7 +27322,7 @@
       </c>
       <c r="Y453" s="12"/>
     </row>
-    <row r="454" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B454" s="7">
         <v>450</v>
       </c>
@@ -27324,7 +27369,7 @@
       </c>
       <c r="Y454" s="12"/>
     </row>
-    <row r="455" spans="2:25" ht="57" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B455" s="7">
         <v>451</v>
       </c>
@@ -27373,7 +27418,7 @@
       <c r="X455" s="12"/>
       <c r="Y455" s="12"/>
     </row>
-    <row r="456" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B456" s="7">
         <v>452</v>
       </c>
@@ -27420,7 +27465,7 @@
       </c>
       <c r="Y456" s="12"/>
     </row>
-    <row r="457" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B457" s="7">
         <v>453</v>
       </c>
@@ -27465,7 +27510,7 @@
       <c r="X457" s="12"/>
       <c r="Y457" s="12"/>
     </row>
-    <row r="458" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B458" s="7">
         <v>454</v>
       </c>
@@ -27510,7 +27555,7 @@
       <c r="X458" s="12"/>
       <c r="Y458" s="12"/>
     </row>
-    <row r="459" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B459" s="7">
         <v>455</v>
       </c>
@@ -27555,7 +27600,7 @@
       <c r="X459" s="12"/>
       <c r="Y459" s="12"/>
     </row>
-    <row r="460" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B460" s="7">
         <v>456</v>
       </c>
@@ -27600,7 +27645,7 @@
       <c r="X460" s="12"/>
       <c r="Y460" s="12"/>
     </row>
-    <row r="461" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B461" s="7">
         <v>457</v>
       </c>
@@ -27645,7 +27690,7 @@
       <c r="X461" s="12"/>
       <c r="Y461" s="12"/>
     </row>
-    <row r="462" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B462" s="7">
         <v>458</v>
       </c>
@@ -27690,7 +27735,7 @@
       <c r="X462" s="12"/>
       <c r="Y462" s="12"/>
     </row>
-    <row r="463" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B463" s="7">
         <v>459</v>
       </c>
@@ -27739,7 +27784,7 @@
       <c r="X463" s="12"/>
       <c r="Y463" s="12"/>
     </row>
-    <row r="464" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B464" s="7">
         <v>460</v>
       </c>
@@ -27788,7 +27833,7 @@
       <c r="X464" s="12"/>
       <c r="Y464" s="12"/>
     </row>
-    <row r="465" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B465" s="7">
         <v>461</v>
       </c>
@@ -27837,7 +27882,7 @@
       <c r="X465" s="12"/>
       <c r="Y465" s="12"/>
     </row>
-    <row r="466" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B466" s="7">
         <v>462</v>
       </c>
@@ -27886,7 +27931,7 @@
       <c r="X466" s="12"/>
       <c r="Y466" s="12"/>
     </row>
-    <row r="467" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B467" s="7">
         <v>463</v>
       </c>
@@ -27935,7 +27980,7 @@
       <c r="X467" s="12"/>
       <c r="Y467" s="12"/>
     </row>
-    <row r="468" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B468" s="7">
         <v>464</v>
       </c>
@@ -27984,7 +28029,7 @@
       <c r="X468" s="12"/>
       <c r="Y468" s="12"/>
     </row>
-    <row r="469" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B469" s="7">
         <v>465</v>
       </c>
@@ -28033,7 +28078,7 @@
       <c r="X469" s="12"/>
       <c r="Y469" s="12"/>
     </row>
-    <row r="470" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B470" s="7">
         <v>466</v>
       </c>
@@ -28082,7 +28127,7 @@
       <c r="X470" s="12"/>
       <c r="Y470" s="12"/>
     </row>
-    <row r="471" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B471" s="7">
         <v>467</v>
       </c>
@@ -28131,7 +28176,7 @@
       <c r="X471" s="12"/>
       <c r="Y471" s="12"/>
     </row>
-    <row r="472" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B472" s="7">
         <v>468</v>
       </c>
@@ -28180,7 +28225,7 @@
       <c r="X472" s="12"/>
       <c r="Y472" s="12"/>
     </row>
-    <row r="473" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B473" s="7">
         <v>469</v>
       </c>
@@ -28229,7 +28274,7 @@
       <c r="X473" s="12"/>
       <c r="Y473" s="12"/>
     </row>
-    <row r="474" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B474" s="7">
         <v>470</v>
       </c>
@@ -28278,7 +28323,7 @@
       <c r="X474" s="12"/>
       <c r="Y474" s="12"/>
     </row>
-    <row r="475" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B475" s="7">
         <v>471</v>
       </c>
@@ -28327,7 +28372,7 @@
       <c r="X475" s="12"/>
       <c r="Y475" s="12"/>
     </row>
-    <row r="476" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B476" s="7">
         <v>472</v>
       </c>
@@ -28376,7 +28421,7 @@
       <c r="X476" s="12"/>
       <c r="Y476" s="12"/>
     </row>
-    <row r="477" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B477" s="7">
         <v>473</v>
       </c>
@@ -28425,7 +28470,7 @@
       <c r="X477" s="12"/>
       <c r="Y477" s="12"/>
     </row>
-    <row r="478" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B478" s="7">
         <v>474</v>
       </c>
@@ -28474,7 +28519,7 @@
       <c r="X478" s="12"/>
       <c r="Y478" s="12"/>
     </row>
-    <row r="479" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B479" s="7">
         <v>475</v>
       </c>
@@ -28523,7 +28568,7 @@
       <c r="X479" s="12"/>
       <c r="Y479" s="12"/>
     </row>
-    <row r="480" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:25" ht="58" x14ac:dyDescent="0.35">
       <c r="B480" s="7">
         <v>476</v>
       </c>
@@ -28572,7 +28617,7 @@
       <c r="X480" s="12"/>
       <c r="Y480" s="12"/>
     </row>
-    <row r="481" spans="2:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B481" s="7">
         <v>477</v>
       </c>
@@ -28621,7 +28666,7 @@
       <c r="X481" s="12"/>
       <c r="Y481" s="12"/>
     </row>
-    <row r="482" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B482" s="7">
         <v>478</v>
       </c>
@@ -28670,7 +28715,7 @@
       <c r="X482" s="12"/>
       <c r="Y482" s="12"/>
     </row>
-    <row r="483" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:25" ht="58" x14ac:dyDescent="0.35">
       <c r="B483" s="7">
         <v>479</v>
       </c>
@@ -28719,7 +28764,7 @@
       <c r="X483" s="12"/>
       <c r="Y483" s="12"/>
     </row>
-    <row r="484" spans="2:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:25" ht="87" x14ac:dyDescent="0.35">
       <c r="B484" s="7">
         <v>480</v>
       </c>
@@ -28768,7 +28813,7 @@
       <c r="X484" s="12"/>
       <c r="Y484" s="12"/>
     </row>
-    <row r="485" spans="2:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:25" ht="87" x14ac:dyDescent="0.35">
       <c r="B485" s="7">
         <v>481</v>
       </c>
@@ -28817,7 +28862,7 @@
       <c r="X485" s="12"/>
       <c r="Y485" s="12"/>
     </row>
-    <row r="486" spans="2:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B486" s="7">
         <v>482</v>
       </c>
@@ -28862,7 +28907,7 @@
       <c r="X486" s="12"/>
       <c r="Y486" s="12"/>
     </row>
-    <row r="487" spans="2:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B487" s="7">
         <v>483</v>
       </c>
@@ -28907,7 +28952,7 @@
       <c r="X487" s="12"/>
       <c r="Y487" s="12"/>
     </row>
-    <row r="488" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B488" s="7">
         <v>484</v>
       </c>
@@ -28956,7 +29001,7 @@
       <c r="X488" s="12"/>
       <c r="Y488" s="12"/>
     </row>
-    <row r="489" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B489" s="7">
         <v>485</v>
       </c>
@@ -29005,7 +29050,7 @@
       <c r="X489" s="12"/>
       <c r="Y489" s="12"/>
     </row>
-    <row r="490" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:25" ht="58" x14ac:dyDescent="0.35">
       <c r="B490" s="7">
         <v>486</v>
       </c>
@@ -29054,7 +29099,7 @@
       <c r="X490" s="12"/>
       <c r="Y490" s="12"/>
     </row>
-    <row r="491" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:25" ht="58" x14ac:dyDescent="0.35">
       <c r="B491" s="7">
         <v>487</v>
       </c>
@@ -29103,7 +29148,7 @@
       <c r="X491" s="12"/>
       <c r="Y491" s="12"/>
     </row>
-    <row r="492" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:25" ht="58" x14ac:dyDescent="0.35">
       <c r="B492" s="7">
         <v>488</v>
       </c>
@@ -29152,7 +29197,7 @@
       <c r="X492" s="12"/>
       <c r="Y492" s="12"/>
     </row>
-    <row r="493" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B493" s="7">
         <v>489</v>
       </c>
@@ -29197,7 +29242,7 @@
       <c r="X493" s="12"/>
       <c r="Y493" s="12"/>
     </row>
-    <row r="494" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B494" s="7">
         <v>490</v>
       </c>
@@ -29244,7 +29289,7 @@
       </c>
       <c r="Y494" s="12"/>
     </row>
-    <row r="495" spans="2:25" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B495" s="7">
         <v>491</v>
       </c>
@@ -29289,7 +29334,7 @@
       <c r="X495" s="12"/>
       <c r="Y495" s="12"/>
     </row>
-    <row r="496" spans="2:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:25" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="B496" s="7">
         <v>492</v>
       </c>
@@ -29334,7 +29379,7 @@
       <c r="X496" s="12"/>
       <c r="Y496" s="12"/>
     </row>
-    <row r="497" spans="2:25" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:25" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B497" s="7">
         <v>493</v>
       </c>
@@ -29379,7 +29424,7 @@
       <c r="X497" s="12"/>
       <c r="Y497" s="12"/>
     </row>
-    <row r="498" spans="2:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:25" ht="58" x14ac:dyDescent="0.35">
       <c r="B498" s="7">
         <v>494</v>
       </c>
@@ -29428,7 +29473,7 @@
       <c r="X498" s="12"/>
       <c r="Y498" s="12"/>
     </row>
-    <row r="499" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B499" s="7">
         <v>495</v>
       </c>
@@ -29477,7 +29522,7 @@
       <c r="X499" s="12"/>
       <c r="Y499" s="12"/>
     </row>
-    <row r="500" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B500" s="7">
         <v>496</v>
       </c>
@@ -29526,7 +29571,7 @@
       <c r="X500" s="12"/>
       <c r="Y500" s="12"/>
     </row>
-    <row r="501" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B501" s="7">
         <v>497</v>
       </c>
@@ -29575,7 +29620,7 @@
       <c r="X501" s="12"/>
       <c r="Y501" s="12"/>
     </row>
-    <row r="502" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B502" s="7">
         <v>498</v>
       </c>
@@ -29624,7 +29669,7 @@
       <c r="X502" s="12"/>
       <c r="Y502" s="12"/>
     </row>
-    <row r="503" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B503" s="7">
         <v>499</v>
       </c>
@@ -29673,7 +29718,7 @@
       <c r="X503" s="12"/>
       <c r="Y503" s="12"/>
     </row>
-    <row r="504" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:25" ht="29" x14ac:dyDescent="0.35">
       <c r="B504" s="7">
         <v>500</v>
       </c>
@@ -29722,7 +29767,7 @@
       <c r="X504" s="12"/>
       <c r="Y504" s="12"/>
     </row>
-    <row r="505" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B505" s="7">
         <v>501</v>
       </c>
@@ -29771,7 +29816,7 @@
       </c>
       <c r="Y505" s="12"/>
     </row>
-    <row r="506" spans="2:25" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:25" ht="28" x14ac:dyDescent="0.35">
       <c r="B506" s="7">
         <v>502</v>
       </c>
@@ -29822,7 +29867,7 @@
       <c r="X506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:25" ht="42" x14ac:dyDescent="0.35">
       <c r="B507" s="7">
         <v>503</v>
       </c>
@@ -29867,7 +29912,7 @@
       <c r="X507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B508" s="7">
         <v>504</v>
       </c>
@@ -29910,7 +29955,7 @@
       <c r="X508" s="12"/>
       <c r="Y508" s="12"/>
     </row>
-    <row r="509" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B509" s="7">
         <v>505</v>
       </c>
@@ -29951,7 +29996,7 @@
       <c r="X509" s="12"/>
       <c r="Y509" s="12"/>
     </row>
-    <row r="510" spans="2:25" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B510" s="7">
         <v>506</v>
       </c>
@@ -29998,7 +30043,7 @@
       <c r="X510" s="12"/>
       <c r="Y510" s="12"/>
     </row>
-    <row r="511" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B511" s="7">
         <v>507</v>
       </c>
@@ -30045,7 +30090,7 @@
       <c r="X511" s="12"/>
       <c r="Y511" s="12"/>
     </row>
-    <row r="512" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B512" s="7">
         <v>508</v>
       </c>
@@ -30092,7 +30137,7 @@
       <c r="X512" s="12"/>
       <c r="Y512" s="12"/>
     </row>
-    <row r="513" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B513" s="7">
         <v>509</v>
       </c>
@@ -30139,7 +30184,7 @@
       <c r="X513" s="12"/>
       <c r="Y513" s="12"/>
     </row>
-    <row r="514" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B514" s="7">
         <v>510</v>
       </c>
@@ -30186,7 +30231,7 @@
       <c r="X514" s="12"/>
       <c r="Y514" s="12"/>
     </row>
-    <row r="515" spans="2:25" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B515" s="7">
         <v>511</v>
       </c>
@@ -30233,7 +30278,7 @@
       <c r="X515" s="12"/>
       <c r="Y515" s="12"/>
     </row>
-    <row r="516" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B516" s="7">
         <v>512</v>
       </c>
@@ -30284,7 +30329,7 @@
       </c>
       <c r="Y516" s="12"/>
     </row>
-    <row r="517" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B517" s="7">
         <v>513</v>
       </c>
@@ -30335,7 +30380,7 @@
       </c>
       <c r="Y517" s="12"/>
     </row>
-    <row r="518" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B518" s="7">
         <v>514</v>
       </c>
@@ -30386,7 +30431,7 @@
       </c>
       <c r="Y518" s="12"/>
     </row>
-    <row r="519" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:25" ht="84" hidden="1" x14ac:dyDescent="0.35">
       <c r="B519" s="7">
         <v>515</v>
       </c>
@@ -30437,7 +30482,7 @@
       </c>
       <c r="Y519" s="12"/>
     </row>
-    <row r="520" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B520" s="7">
         <v>516</v>
       </c>
@@ -30488,7 +30533,7 @@
       </c>
       <c r="Y520" s="12"/>
     </row>
-    <row r="521" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B521" s="7">
         <v>517</v>
       </c>
@@ -30539,7 +30584,7 @@
       </c>
       <c r="Y521" s="12"/>
     </row>
-    <row r="522" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B522" s="7">
         <v>518</v>
       </c>
@@ -30590,7 +30635,7 @@
       </c>
       <c r="Y522" s="12"/>
     </row>
-    <row r="523" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B523" s="7">
         <v>519</v>
       </c>
@@ -30641,7 +30686,7 @@
       </c>
       <c r="Y523" s="12"/>
     </row>
-    <row r="524" spans="2:25" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:25" ht="126" hidden="1" x14ac:dyDescent="0.35">
       <c r="B524" s="7">
         <v>520</v>
       </c>
@@ -30692,7 +30737,7 @@
       </c>
       <c r="Y524" s="12"/>
     </row>
-    <row r="525" spans="2:25" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:25" ht="98" hidden="1" x14ac:dyDescent="0.35">
       <c r="B525" s="7">
         <v>521</v>
       </c>
@@ -30743,7 +30788,7 @@
       </c>
       <c r="Y525" s="12"/>
     </row>
-    <row r="526" spans="2:25" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B526" s="7">
         <v>522</v>
       </c>
@@ -30794,7 +30839,7 @@
       </c>
       <c r="Y526" s="12"/>
     </row>
-    <row r="527" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B527" s="7">
         <v>523</v>
       </c>
@@ -30845,7 +30890,7 @@
       </c>
       <c r="Y527" s="12"/>
     </row>
-    <row r="528" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B528" s="7">
         <v>524</v>
       </c>
@@ -30890,7 +30935,7 @@
       <c r="X528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B529" s="7">
         <v>525</v>
       </c>
@@ -30939,7 +30984,7 @@
       </c>
       <c r="Y529" s="12"/>
     </row>
-    <row r="530" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B530" s="7">
         <v>526</v>
       </c>
@@ -30986,7 +31031,7 @@
       <c r="X530" s="19"/>
       <c r="Y530" s="12"/>
     </row>
-    <row r="531" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B531" s="7">
         <v>527</v>
       </c>
@@ -31035,7 +31080,7 @@
       </c>
       <c r="Y531" s="12"/>
     </row>
-    <row r="532" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B532" s="7">
         <v>528</v>
       </c>
@@ -31084,7 +31129,7 @@
       </c>
       <c r="Y532" s="12"/>
     </row>
-    <row r="533" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B533" s="7">
         <v>529</v>
       </c>
@@ -31131,7 +31176,7 @@
       <c r="X533" s="12"/>
       <c r="Y533" s="12"/>
     </row>
-    <row r="534" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B534" s="7">
         <v>530</v>
       </c>
@@ -31178,7 +31223,7 @@
       <c r="X534" s="12"/>
       <c r="Y534" s="12"/>
     </row>
-    <row r="535" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B535" s="7">
         <v>531</v>
       </c>
@@ -31225,7 +31270,7 @@
       <c r="X535" s="12"/>
       <c r="Y535" s="12"/>
     </row>
-    <row r="536" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B536" s="7">
         <v>532</v>
       </c>
@@ -31272,7 +31317,7 @@
       <c r="X536" s="12"/>
       <c r="Y536" s="12"/>
     </row>
-    <row r="537" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B537" s="7">
         <v>533</v>
       </c>
@@ -31319,7 +31364,7 @@
       <c r="X537" s="12"/>
       <c r="Y537" s="12"/>
     </row>
-    <row r="538" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:25" ht="70" hidden="1" x14ac:dyDescent="0.35">
       <c r="B538" s="7">
         <v>534</v>
       </c>
@@ -31366,7 +31411,7 @@
       <c r="X538" s="12"/>
       <c r="Y538" s="12"/>
     </row>
-    <row r="539" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B539" s="7">
         <v>535</v>
       </c>
@@ -31413,7 +31458,7 @@
       <c r="X539" s="12"/>
       <c r="Y539" s="12"/>
     </row>
-    <row r="540" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B540" s="7">
         <v>536</v>
       </c>
@@ -31462,7 +31507,7 @@
       </c>
       <c r="Y540" s="12"/>
     </row>
-    <row r="541" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B541" s="7">
         <v>537</v>
       </c>
@@ -31511,7 +31556,7 @@
       </c>
       <c r="Y541" s="12"/>
     </row>
-    <row r="542" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B542" s="7">
         <v>538</v>
       </c>
@@ -31560,7 +31605,7 @@
       </c>
       <c r="Y542" s="12"/>
     </row>
-    <row r="543" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B543" s="7">
         <v>539</v>
       </c>
@@ -31607,7 +31652,7 @@
       <c r="X543" s="12"/>
       <c r="Y543" s="12"/>
     </row>
-    <row r="544" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B544" s="7">
         <v>540</v>
       </c>
@@ -31654,7 +31699,7 @@
       <c r="X544" s="12"/>
       <c r="Y544" s="12"/>
     </row>
-    <row r="545" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B545" s="7">
         <v>541</v>
       </c>
@@ -31701,7 +31746,7 @@
       <c r="X545" s="12"/>
       <c r="Y545" s="12"/>
     </row>
-    <row r="546" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B546" s="7">
         <v>542</v>
       </c>
@@ -31750,7 +31795,7 @@
       </c>
       <c r="Y546" s="12"/>
     </row>
-    <row r="547" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B547" s="7">
         <v>543</v>
       </c>
@@ -31797,7 +31842,7 @@
       <c r="X547" s="12"/>
       <c r="Y547" s="12"/>
     </row>
-    <row r="548" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B548" s="7">
         <v>544</v>
       </c>
@@ -31844,7 +31889,7 @@
       <c r="X548" s="12"/>
       <c r="Y548" s="12"/>
     </row>
-    <row r="549" spans="2:25" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B549" s="7">
         <v>545</v>
       </c>
@@ -31891,7 +31936,7 @@
       <c r="X549" s="12"/>
       <c r="Y549" s="12"/>
     </row>
-    <row r="550" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B550" s="7">
         <v>546</v>
       </c>
@@ -31938,7 +31983,7 @@
       <c r="X550" s="12"/>
       <c r="Y550" s="12"/>
     </row>
-    <row r="551" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B551" s="7">
         <v>547</v>
       </c>
@@ -31985,7 +32030,7 @@
       <c r="X551" s="12"/>
       <c r="Y551" s="12"/>
     </row>
-    <row r="552" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B552" s="7">
         <v>548</v>
       </c>
@@ -32032,7 +32077,7 @@
       <c r="X552" s="12"/>
       <c r="Y552" s="12"/>
     </row>
-    <row r="553" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B553" s="7">
         <v>549</v>
       </c>
@@ -32079,7 +32124,7 @@
       <c r="X553" s="12"/>
       <c r="Y553" s="12"/>
     </row>
-    <row r="554" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B554" s="7">
         <v>550</v>
       </c>
@@ -32126,7 +32171,7 @@
       <c r="X554" s="12"/>
       <c r="Y554" s="12"/>
     </row>
-    <row r="555" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B555" s="7">
         <v>551</v>
       </c>
@@ -32173,7 +32218,7 @@
       <c r="X555" s="12"/>
       <c r="Y555" s="12"/>
     </row>
-    <row r="556" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B556" s="7">
         <v>552</v>
       </c>
@@ -32220,7 +32265,7 @@
       <c r="X556" s="12"/>
       <c r="Y556" s="12"/>
     </row>
-    <row r="557" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B557" s="7">
         <v>553</v>
       </c>
@@ -32267,7 +32312,7 @@
       <c r="X557" s="12"/>
       <c r="Y557" s="12"/>
     </row>
-    <row r="558" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B558" s="7">
         <v>554</v>
       </c>
@@ -32314,7 +32359,7 @@
       <c r="X558" s="12"/>
       <c r="Y558" s="12"/>
     </row>
-    <row r="559" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B559" s="7">
         <v>555</v>
       </c>
@@ -32361,7 +32406,7 @@
       <c r="X559" s="12"/>
       <c r="Y559" s="12"/>
     </row>
-    <row r="560" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B560" s="7">
         <v>556</v>
       </c>
@@ -32408,7 +32453,7 @@
       <c r="X560" s="12"/>
       <c r="Y560" s="12"/>
     </row>
-    <row r="561" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B561" s="7">
         <v>557</v>
       </c>
@@ -32455,7 +32500,7 @@
       <c r="X561" s="12"/>
       <c r="Y561" s="12"/>
     </row>
-    <row r="562" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B562" s="7">
         <v>558</v>
       </c>
@@ -32502,7 +32547,7 @@
       <c r="X562" s="12"/>
       <c r="Y562" s="12"/>
     </row>
-    <row r="563" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B563" s="7">
         <v>559</v>
       </c>
@@ -32549,7 +32594,7 @@
       <c r="X563" s="12"/>
       <c r="Y563" s="12"/>
     </row>
-    <row r="564" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B564" s="7">
         <v>560</v>
       </c>
@@ -32596,7 +32641,7 @@
       <c r="X564" s="12"/>
       <c r="Y564" s="12"/>
     </row>
-    <row r="565" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B565" s="7">
         <v>561</v>
       </c>
@@ -32643,7 +32688,7 @@
       <c r="X565" s="12"/>
       <c r="Y565" s="12"/>
     </row>
-    <row r="566" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B566" s="7">
         <v>562</v>
       </c>
@@ -32690,7 +32735,7 @@
       <c r="X566" s="12"/>
       <c r="Y566" s="12"/>
     </row>
-    <row r="567" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B567" s="7">
         <v>563</v>
       </c>
@@ -32737,7 +32782,7 @@
       <c r="X567" s="12"/>
       <c r="Y567" s="12"/>
     </row>
-    <row r="568" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B568" s="7">
         <v>564</v>
       </c>
@@ -32784,7 +32829,7 @@
       <c r="X568" s="12"/>
       <c r="Y568" s="12"/>
     </row>
-    <row r="569" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B569" s="7">
         <v>565</v>
       </c>
@@ -32831,7 +32876,7 @@
       <c r="X569" s="12"/>
       <c r="Y569" s="12"/>
     </row>
-    <row r="570" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B570" s="7">
         <v>566</v>
       </c>
@@ -32878,7 +32923,7 @@
       <c r="X570" s="12"/>
       <c r="Y570" s="12"/>
     </row>
-    <row r="571" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B571" s="7">
         <v>567</v>
       </c>
@@ -32925,7 +32970,7 @@
       <c r="X571" s="12"/>
       <c r="Y571" s="12"/>
     </row>
-    <row r="572" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B572" s="7">
         <v>568</v>
       </c>
@@ -32974,7 +33019,7 @@
       </c>
       <c r="Y572" s="12"/>
     </row>
-    <row r="573" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B573" s="7">
         <v>569</v>
       </c>
@@ -33021,7 +33066,7 @@
       <c r="X573" s="12"/>
       <c r="Y573" s="12"/>
     </row>
-    <row r="574" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B574" s="7">
         <v>570</v>
       </c>
@@ -33068,7 +33113,7 @@
       <c r="X574" s="12"/>
       <c r="Y574" s="12"/>
     </row>
-    <row r="575" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B575" s="7">
         <v>571</v>
       </c>
@@ -33115,7 +33160,7 @@
       <c r="X575" s="12"/>
       <c r="Y575" s="12"/>
     </row>
-    <row r="576" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B576" s="7">
         <v>572</v>
       </c>
@@ -33164,7 +33209,7 @@
       </c>
       <c r="Y576" s="12"/>
     </row>
-    <row r="577" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:25" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B577" s="7">
         <v>573</v>
       </c>
@@ -33211,7 +33256,7 @@
       <c r="X577" s="12"/>
       <c r="Y577" s="12"/>
     </row>
-    <row r="578" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B578" s="7">
         <v>574</v>
       </c>
@@ -33258,7 +33303,7 @@
       <c r="X578" s="12"/>
       <c r="Y578" s="12"/>
     </row>
-    <row r="579" spans="2:25" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:25" ht="28" hidden="1" x14ac:dyDescent="0.35">
       <c r="B579" s="7">
         <v>575</v>
       </c>
@@ -33305,7 +33350,7 @@
       <c r="X579" s="12"/>
       <c r="Y579" s="12"/>
     </row>
-    <row r="580" spans="2:25" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B580" s="7">
         <v>576</v>
       </c>
@@ -33352,7 +33397,7 @@
       <c r="X580" s="12"/>
       <c r="Y580" s="12"/>
     </row>
-    <row r="581" spans="2:25" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:25" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B581" s="7">
         <v>577</v>
       </c>
@@ -33397,7 +33442,7 @@
       <c r="X581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B582" s="7">
         <v>578</v>
       </c>
@@ -33434,7 +33479,7 @@
       <c r="X582" s="9"/>
       <c r="Y582" s="9"/>
     </row>
-    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B583" s="7">
         <v>579</v>
       </c>
@@ -33471,9 +33516,9 @@
       <c r="X583" s="9"/>
       <c r="Y583" s="9"/>
     </row>
-    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="585" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="586" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="585" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="586" spans="2:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I586" s="26" t="s">
         <v>1737</v>
       </c>
@@ -33483,7 +33528,7 @@
       <c r="M586" s="27"/>
       <c r="N586" s="27">
         <f>SUM(N5:N583)</f>
-        <v>4800.4499999999953</v>
+        <v>4926.4499999999944</v>
       </c>
     </row>
   </sheetData>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA308A8-7F87-4D98-879D-E4D4E691CAD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8FABA1-C115-4111-A1C4-B759BE57039D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="1" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" xr2:uid="{DA987513-FE54-4ED6-877C-76611AB6F5C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan" sheetId="3" r:id="rId1"/>
+    <sheet name="Planning" sheetId="4" r:id="rId1"/>
     <sheet name="Consolidated" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5786,14 +5786,13 @@
     <t>Development In-Progress</t>
   </si>
   <si>
-    <t>Sum of Estimates - Incl. Testing (PDs)
-For items that need estimates from multiple modules</t>
-  </si>
-  <si>
     <t>On Hold Due to MOS-27314</t>
   </si>
   <si>
     <t>Yet to be estimated as Internal Analysis Pending</t>
+  </si>
+  <si>
+    <t>Sum of Estimates</t>
   </si>
 </sst>
 </file>
@@ -6169,16 +6168,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Windows User" refreshedDate="43693.467264120372" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="502" xr:uid="{DF956F4C-9D03-4272-A7B2-F348EB5CC393}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Windows User" refreshedDate="43693.497597222224" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="579" xr:uid="{CFAE7402-8BA4-449F-B461-E651B9C6C863}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B4:Y506" sheet="Consolidated"/>
+    <worksheetSource ref="B4:Y583" sheet="Consolidated"/>
   </cacheSource>
   <cacheFields count="24">
     <cacheField name="S. No." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="502"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="579"/>
     </cacheField>
     <cacheField name="Module/Area" numFmtId="0">
-      <sharedItems count="21">
+      <sharedItems count="24">
         <s v="General"/>
         <s v="Registration Processor"/>
         <s v="Pre-registration/Reg. Client"/>
@@ -6200,6 +6199,9 @@
         <s v="Admin portal"/>
         <s v="Audit"/>
         <s v="Admin"/>
+        <s v="Resident Services"/>
+        <s v="Partner Management"/>
+        <s v="BI"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Feature" numFmtId="0">
@@ -6239,8 +6241,8 @@
         <s v="Story approved"/>
         <s v="Development Completed"/>
         <s v="Requirement Pending"/>
-        <s v="Not started"/>
         <s v="NA"/>
+        <s v="Not Started"/>
         <s v="Development In-Progress"/>
         <s v="Internal Analysis Pending"/>
         <s v="Approved by client"/>
@@ -6256,7 +6258,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Dependency" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="7"/>
     </cacheField>
     <cacheField name="Estimates - Incl. Testing (PDs)_x000a_For items that need estimates from multiple modules, please provide estimate in module specific column" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="400"/>
@@ -6304,7 +6306,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="502">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="579">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -6783,7 +6785,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -6809,7 +6811,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -6835,7 +6837,7 @@
     <m/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7121,7 +7123,7 @@
     <s v="UTC check in APIs, audit and DB entries - Pre-reg, Reg. Client, Reg. Processor, IDA"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="50"/>
@@ -7147,7 +7149,7 @@
     <s v="Audit log checks - Reg. Client, Reg. Processor"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="20"/>
@@ -7173,7 +7175,7 @@
     <s v="Implementation of PacketUpload portal"/>
     <x v="4"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="100"/>
@@ -7199,7 +7201,7 @@
     <s v="All dialog boxes across Pre-registration application should have a cross &quot;x&quot; button to allow user to navigate out of the dialog box"/>
     <x v="0"/>
     <m/>
-    <x v="5"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -7407,7 +7409,7 @@
     <s v="Currently, documents required to be updated depend on the Applicant Type/Doc Category/Doc Type mapping setup by the admin. This story intends to remove this concept and adopt the process as per Reg. Client (Docs required to be uploaded are driven by fields filled)"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7433,7 +7435,7 @@
     <s v="Inclusion of blacklisted words validation in both languages for Name and Address fields L1,L2,L3 fields of Demo form: _x000a_On entry of a Blacklisted word the Individual should be alerted “XXX word(s) are not permitted in the ABC field by the system. Please correct it”."/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7459,7 +7461,7 @@
     <s v="Ability to switch on/off a feature"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7485,7 +7487,7 @@
     <s v="Perform OCR validation on docs uploaded, to evaluate Doc quality, validate data of doc"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7511,7 +7513,7 @@
     <s v="Include ability to make a group booking, by providing the total number of members in group"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7537,7 +7539,7 @@
     <s v="Trigger reminder(s) to an individual, prior to the booked appointment"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7563,7 +7565,7 @@
     <s v="Ability to login with Username &amp; Password_x000a_Currently - Login is possible only with Mobile/Email id - UI"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7589,7 +7591,7 @@
     <s v="Ability to login with Username &amp; Password_x000a_Currently - Login is possible only with Mobile/Email id - API"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7615,7 +7617,7 @@
     <s v="Ability to manage profile and reset password - API"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7641,7 +7643,7 @@
     <s v="Ability to manage profile and reset password - UI"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7693,7 +7695,7 @@
     <s v="This story is to accommodate change to the various statuses of Pre-registration - To be relevant to its own stage.EG: If docs and/or demo data is updated, the status is still Pending Appointment. Instead, the suggestion was to update it relevant to its respective stage, i.e., Demo Data Updated/Docs Uploaded - To be discussed and evaluated"/>
     <x v="2"/>
     <m/>
-    <x v="5"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -7745,7 +7747,7 @@
     <s v="This story will define the revised System behavior:_x000a_- When Primary and Secondary language is set to the same parameter_x000a__ When Primary and/or Secondary language is not set at all"/>
     <x v="4"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="5"/>
@@ -7771,7 +7773,7 @@
     <s v="Pre-registration portal to Support Color blindness, partial/complete blindness, during Pre-registration"/>
     <x v="4"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7823,7 +7825,7 @@
     <s v="Integration with KeyCloak for User as well as API Authentication"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="7"/>
@@ -7849,7 +7851,7 @@
     <s v="Covers documentation for all features released as part of Real biometrics release"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="10"/>
@@ -9643,7 +9645,7 @@
     <s v="Save to device option should be hidden until the Upload portal is developed - As per communication from Shrikant._x000a_Once the packet upload portal is developed, Save to device option should be made available, with revised UI as per below requirement:_x000a_The UI should be enhanced such that it is clear for the RO that save to device cannot be Development completed for selected packets."/>
     <x v="4"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="20"/>
@@ -9851,7 +9853,7 @@
     <s v="Biometrics should be captured if the quality threshold exceeds the configured value"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="SyncByte - SDK"/>
     <n v="30"/>
@@ -9877,7 +9879,7 @@
     <s v="Integration with KeyCloak for User as well as API Authentication"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Kernel"/>
     <n v="20"/>
@@ -9903,7 +9905,7 @@
     <s v="Document Code should be sent in ID Object instead of Document Name"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="20"/>
@@ -9929,7 +9931,7 @@
     <s v="Admin should send Holiday List as Master Data. Registration Client should implement the validation (Registration should not be Development completed on a Holiday)"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Admin"/>
     <n v="20"/>
@@ -9955,7 +9957,7 @@
     <s v="Data capture should be Development completed only by using registered devices._x000a_Same validation should be Development completed in registration processor."/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Admin"/>
     <n v="20"/>
@@ -9981,7 +9983,7 @@
     <s v="Packet Validation in Registration Client should be same as Packet Validation in Registration Processor"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Registration Processor"/>
     <n v="20"/>
@@ -10007,7 +10009,7 @@
     <s v="First User registration in MOSIP ecosystem"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -10033,7 +10035,7 @@
     <m/>
     <x v="4"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="200"/>
@@ -10059,7 +10061,7 @@
     <m/>
     <x v="4"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Sync Byte - SDK"/>
     <n v="30"/>
@@ -10085,7 +10087,7 @@
     <s v="Covers documentation for all features released as part of Real biometrics release_x000a_1. Documentation for Capturing Biomertics (MOS-1205)_x000a_2. Documentation for Bio Threshods_x000a_3. Reg Client - Packet Visibility and Deletion"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="30"/>
@@ -10241,7 +10243,7 @@
     <s v="Reg Proc should be able to integrate with an actual device to get the quality score of a biometric image file."/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="SyncByte - SDK"/>
     <n v="2"/>
@@ -10683,7 +10685,7 @@
     <s v="Integrate with ABIS 1:1 Authentication API"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Sprint 16"/>
     <s v="Tech5 - ABIS"/>
     <n v="12"/>
@@ -10917,7 +10919,7 @@
     <s v="UIN Update flow needs to be tested (Unit Tested) for Biometric Update"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Registration Client"/>
     <n v="8"/>
@@ -10943,7 +10945,7 @@
     <s v="Lost UIN flow needs to be tested (Unit Tested) with Actual Biometrics"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Registration Client"/>
     <n v="8"/>
@@ -10969,7 +10971,7 @@
     <s v="ABIS doesn't support Biometrics Match against Gallery "/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Tech5 - ABIS"/>
     <n v="5"/>
@@ -10995,7 +10997,7 @@
     <s v="Officer, Supervisor and Introducer Biometric Validation using IDA API"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="IDA"/>
     <n v="5"/>
@@ -11021,7 +11023,7 @@
     <s v="Change in ABIS API Spec to receive Match or Not Match instead of receiving scores"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Tech5 - ABIS"/>
     <n v="10"/>
@@ -11047,7 +11049,7 @@
     <s v="Most of the ABIS vendors don't have UI for Manual Verification. There should be a reference impl. for MV UI in MOSIP"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="20"/>
@@ -11073,7 +11075,7 @@
     <s v="Validate if the Devices were registered and active when the packet was created"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Registration Client"/>
     <n v="5"/>
@@ -11099,7 +11101,7 @@
     <s v="Reflect the new location hierarchy for Morocco"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="5"/>
@@ -11125,7 +11127,7 @@
     <s v="Packet Validation in Registration Processor should be same as Packet Validation in Registration Client"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="5"/>
@@ -11151,7 +11153,7 @@
     <s v="Version Compatibilty in Registration Processor"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="20"/>
@@ -11177,7 +11179,7 @@
     <s v="Integration with KeyCloak for User as well as API Authentication"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="15"/>
@@ -11203,10 +11205,10 @@
     <s v="Covers documentation for all features released as part of Real biometrics release"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <n v="10"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7"/>
     <m/>
     <m/>
     <m/>
@@ -11281,7 +11283,7 @@
     <s v="Best Finger for Authentication to be implemented for IDA. The quality of fingerprints may wear out with time. BFD during authentication will help in identifying Best Finger after registartion"/>
     <x v="2"/>
     <s v="NA"/>
-    <x v="5"/>
+    <x v="4"/>
     <m/>
     <m/>
     <n v="12"/>
@@ -11385,7 +11387,7 @@
     <s v="To integrate with devices and SDK for biometric authentication requests from Registration Client and Registration Supervisor"/>
     <x v="0"/>
     <s v="P0"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="6"/>
@@ -11411,7 +11413,7 @@
     <s v="To integrate with PM/Admin for Device Related Requirements like Device Registration and Device Provider Registration"/>
     <x v="0"/>
     <s v="P2_x000a_"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Admin"/>
     <n v="20"/>
@@ -11437,7 +11439,7 @@
     <s v="To integrate with MDS for receiving valid biometric attributes in input in Auth API "/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="MDS"/>
     <n v="20"/>
@@ -11463,7 +11465,7 @@
     <s v="IIR and FID capture integration for Authentication."/>
     <x v="0"/>
     <s v="P0"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Tech5 - SDK"/>
     <n v="14"/>
@@ -11489,7 +11491,7 @@
     <s v="Fixes from Vendor: _x000a_1. Change in composite match score logic (Iris and FingerPrint)._x000a_2. Validating fingerprint data whether it’s up to ISO standards or not._x000a_3. When image without face is provided, negative value is returned but expected is BiometricException._x000a_4. Encryption in biometrics."/>
     <x v="0"/>
     <s v="P0"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Tech5 - SDK"/>
     <n v="28"/>
@@ -11515,7 +11517,7 @@
     <s v="Fixes from Vendor: _x000a_1. Change in composite match score logic (Iris and FingerPrint)._x000a_2. Validating fingerprint data whether it’s up to ISO standards or not._x000a_3. When image without face is provided, negative value is returned but expected is BiometricException._x000a_4. Encryption in biometrics."/>
     <x v="0"/>
     <s v="P0"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Tech5 - SDK"/>
     <n v="28"/>
@@ -11541,7 +11543,7 @@
     <s v="IIR and FID capture integration for Authentication."/>
     <x v="0"/>
     <s v="P0"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Tech5 - SDK"/>
     <n v="14"/>
@@ -11567,7 +11569,7 @@
     <s v="Master story for Biometric implementation to be implemented once the devices and SDK are available"/>
     <x v="0"/>
     <s v="P0"/>
-    <x v="5"/>
+    <x v="4"/>
     <m/>
     <m/>
     <n v="6"/>
@@ -11749,7 +11751,7 @@
     <s v="Fixes from Vendor: _x000a_1. Change in composite match score logic (Iris and FingerPrint)._x000a_2. Validating fingerprint data whether it’s up to ISO standards or not._x000a_3. When image without face is provided, negative value is returned but expected is BiometricException._x000a_4. Encryption in biometrics."/>
     <x v="0"/>
     <s v="P0"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Tech5 - SDK"/>
     <n v="6"/>
@@ -11775,7 +11777,7 @@
     <s v="Integrate with corrected format of error codes and messages of kernel OTP validator"/>
     <x v="0"/>
     <s v="P2"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Kernel "/>
     <n v="6"/>
@@ -11801,7 +11803,7 @@
     <s v="Integrate with kernel Digital Signature service once Digital Signature is generated using Digital Certificate"/>
     <x v="0"/>
     <s v="P2"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Kernel "/>
     <n v="8"/>
@@ -11983,7 +11985,7 @@
     <s v="- IDA receives Key index in input, which is to be used to decrypt the auth request, by calling Kernel Cryptomanager_x000a_Current implementation of Cryptomanager doesn't support it._x000a_- Also when the associated public keys are expired, IDA needs to inform partner with the relevant error message "/>
     <x v="0"/>
     <s v="P2"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Kernel "/>
     <n v="10"/>
@@ -12009,7 +12011,7 @@
     <s v="Verify once Dockers are signed"/>
     <x v="0"/>
     <s v="P3"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Core Team"/>
     <m/>
@@ -12061,7 +12063,7 @@
     <s v="When 500 http status is removed from kernel apis, IDA needs to verify if the integration to all kernel services are working as expected"/>
     <x v="0"/>
     <s v="P2"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="6"/>
@@ -12321,7 +12323,7 @@
     <s v="To set up a policy in IDA to validate Partner ID/API key and retrieve policy which will ultimately be part of Partner Management"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Sprint 15"/>
     <m/>
     <m/>
@@ -12347,7 +12349,7 @@
     <s v="To set up a policy in IDA which will ultimately part of Partner Management"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Sprint 15"/>
     <m/>
     <m/>
@@ -12373,7 +12375,7 @@
     <s v="Remove FMR based Authentication from Auth APIs"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Sprint 15"/>
     <m/>
     <n v="4"/>
@@ -12399,7 +12401,7 @@
     <s v="1. License in biometrics -&gt; Dependency from Vendor_x000a_2. Loading SDK and dependencies"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
+    <x v="5"/>
     <m/>
     <s v="Tech5 - SDK"/>
     <n v="6"/>
@@ -12425,7 +12427,7 @@
     <s v="Capturing biometrics and Authentication using a Application"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="6"/>
@@ -12451,7 +12453,7 @@
     <s v="Integration with KeyCloak for User as well as API Authentication"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
+    <x v="5"/>
     <m/>
     <s v="Kernel"/>
     <n v="8"/>
@@ -12477,7 +12479,7 @@
     <s v="Covers documentation for all features released as part of Real biometrics release"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="30"/>
@@ -12581,7 +12583,7 @@
     <s v="To retrieve RID for a given UIN"/>
     <x v="2"/>
     <m/>
-    <x v="5"/>
+    <x v="4"/>
     <s v="NA"/>
     <m/>
     <n v="3"/>
@@ -12659,7 +12661,7 @@
     <s v="Re-Activate and De-Activate UIN API Changes "/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Sprint 15"/>
     <m/>
     <m/>
@@ -12685,7 +12687,7 @@
     <s v="Biometric data update in ID Repository Unit Testing to be Development completed"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="6"/>
@@ -12711,7 +12713,7 @@
     <s v="Lost UIN integration Unit Testing to be Development completed"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="8"/>
@@ -12737,7 +12739,7 @@
     <s v="First User registration in MOSIP ecosystem"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="6"/>
@@ -12763,7 +12765,7 @@
     <s v="Integration with KeyCloak for User as well as API Authentication"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="Kernel"/>
     <n v="8"/>
@@ -12789,7 +12791,7 @@
     <s v="Document Code should come as part of ID Object same should be stored in ID Repository (internalization)"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="8"/>
@@ -12815,7 +12817,7 @@
     <s v="Reflect the new location hierarchy for Morocco"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <s v="GoM"/>
     <n v="6"/>
@@ -12841,7 +12843,7 @@
     <s v="Covers documentation for all features released as part of Real biometrics release"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <n v="20"/>
@@ -12893,20 +12895,20 @@
     <s v="Ability to decrypt data using Key Index instead of Timestamp in IDA"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
-    <s v="Sprint 15"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Need clarification from John"/>
+    <x v="5"/>
+    <s v="Sprint 16"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="On Hold Due to MOS-27314"/>
     <m/>
   </r>
   <r>
@@ -12971,7 +12973,7 @@
     <s v="Perfroming a Pattern and Length validation on License Key"/>
     <x v="0"/>
     <s v="P2"/>
-    <x v="5"/>
+    <x v="4"/>
     <m/>
     <m/>
     <n v="4"/>
@@ -12997,7 +12999,7 @@
     <s v="Perfroming data type and Length validation on Partner ID"/>
     <x v="0"/>
     <s v="P2"/>
-    <x v="5"/>
+    <x v="4"/>
     <m/>
     <m/>
     <n v="4"/>
@@ -13101,7 +13103,7 @@
     <s v="- 500 http status to be removed from kernel apis"/>
     <x v="0"/>
     <s v="P2"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Sprint 15"/>
     <m/>
     <n v="3"/>
@@ -13153,7 +13155,7 @@
     <s v="As the MOSIP System, I should be able to respond with an error if a Key is expired"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="Sprint 15"/>
     <m/>
     <n v="8"/>
@@ -13233,7 +13235,7 @@
     <s v="P1"/>
     <x v="6"/>
     <s v="Sprint 14/15"/>
-    <m/>
+    <n v="4"/>
     <m/>
     <m/>
     <m/>
@@ -13258,19 +13260,19 @@
     <x v="0"/>
     <s v="P1"/>
     <x v="13"/>
-    <s v="Sprint 15"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Sprint 16"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Yet to be estimated as Internal Analysis Pending"/>
     <m/>
   </r>
   <r>
@@ -13283,9 +13285,9 @@
     <s v="Covers documentation for all features released as part of Real biometrics release"/>
     <x v="0"/>
     <s v="P1"/>
-    <x v="4"/>
-    <m/>
-    <m/>
+    <x v="5"/>
+    <m/>
+    <n v="7"/>
     <m/>
     <m/>
     <m/>
@@ -19313,8 +19315,8 @@
     <s v="API: Implementation of Device Provider Management"/>
     <s v="MOS-27315"/>
     <m/>
-    <x v="0"/>
-    <s v="P1"/>
+    <x v="2"/>
+    <s v="P2"/>
     <x v="7"/>
     <s v="TBD"/>
     <m/>
@@ -19357,21 +19359,2024 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <n v="503"/>
+    <x v="20"/>
+    <s v="Documentation"/>
+    <x v="1"/>
+    <s v="Documentation for Real Biometrics Release"/>
+    <m/>
+    <s v="Covers documentation for all features released as part of Real biometrics release"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="504"/>
+    <x v="21"/>
+    <s v="Reference UI portal for resident services"/>
+    <x v="0"/>
+    <s v="Reference UI portal for resident services"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Community contribution"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="505"/>
+    <x v="21"/>
+    <s v="Mosip Resident Services - Reference App"/>
+    <x v="0"/>
+    <s v="Mosip Resident Services - Reference App"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="506"/>
+    <x v="21"/>
+    <s v="Address Validation Letter"/>
+    <x v="0"/>
+    <s v="Non-MVP: Address Validation Letter"/>
+    <s v="MOS-24702"/>
+    <s v="Address Validation Letter is letter which is sent to the Address Verifier’s address. The letter will contain a secret code sent for validation after the Address Verifier consents to the use of his/her address by the requesting resident."/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="507"/>
+    <x v="21"/>
+    <s v="Authentication with non-registered mobile"/>
+    <x v="0"/>
+    <s v="Non-MVP: Service to authenticate with non registered mobile number on which the OTP can be received"/>
+    <s v="MOS-24701"/>
+    <s v="Resident Service should be able to validate a user on a different mobile number other than the registered mobile number."/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="508"/>
+    <x v="21"/>
+    <s v="Weak Mobile Identification"/>
+    <x v="0"/>
+    <s v="Non-MVP: Weak Mobile Identification_x000a_"/>
+    <s v="MOS-25624"/>
+    <s v="Resident Service should be able to call an API which can determine if a mobile number as weak based on multiple associations to UIN's for that mobile number."/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="509"/>
+    <x v="21"/>
+    <s v="Retrieve VID"/>
+    <x v="0"/>
+    <s v="Non-MVP: Retrieve VID"/>
+    <s v="MOS-25600"/>
+    <s v="An individual should have the provision to retrieve the existing valid Virtual Identity for the resident by taking PIN and OTP as input."/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="510"/>
+    <x v="21"/>
+    <s v="Track UIN Reprint Status"/>
+    <x v="0"/>
+    <s v="Non-MVP: Track UIN Reprint Status:_x000a_As the MOSIP system, I should be able to process a Reprint UIN Status check request"/>
+    <s v="MOS-26651"/>
+    <s v="An individual can track the status of Reprint UIN by providing a Request ID(RID). "/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="511"/>
+    <x v="21"/>
+    <s v="VID Revocation notification story"/>
+    <x v="0"/>
+    <s v="Non-MVP: VID Revocation notification story_x000a_As the MOSIP system, I should be able to notify a user for automatic generation of a new VID in case of auto revocation of existing VID"/>
+    <s v="MOS-27145"/>
+    <s v="An individual should be notified if his/her VID gets auto revoked due to an event and also notified about the new VID generated due to auto-revocation event."/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="512"/>
+    <x v="21"/>
+    <s v="View Auth History"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process a request to view Authentication requests history for a specific UIN/VID"/>
+    <s v="MOS-23863"/>
+    <s v="An individual can view authentication- requests history for a specific UIN/VID. The system will fetch unarchived data and show it in a paginated format to user."/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="513"/>
+    <x v="21"/>
+    <s v="Download e-UIN"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to enable download of e-UIN"/>
+    <s v="MOS-23862"/>
+    <s v="An individual can raise a request to download his/her e-UIN by providing the UIN/VID, full name, postal code, and security code."/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="514"/>
+    <x v="21"/>
+    <s v="Track UIN Generation Status"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process UIN Generation status check request"/>
+    <s v="MOS-23861"/>
+    <s v="An individual can track the stats of UIN generation by providing a Registration ID(RID). "/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="515"/>
+    <x v="21"/>
+    <s v="Track UIN Update Request"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process a UIN Update Status check request"/>
+    <s v="MOS-23860"/>
+    <s v="An individual can track the status related to UIN updates based on a registration ID.An individual provides the Registration ID for which he/she wants to track the status of UIN updates."/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="516"/>
+    <x v="21"/>
+    <s v="UIN Update"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process a UIN Update request"/>
+    <s v="MOS-23859"/>
+    <s v="MOSIP allows an individual to process a request to update the demographic data of the UIN. An individual provides the UIN/VID for which he/she wants to update."/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="517"/>
+    <x v="21"/>
+    <s v="Retrieve Lost UIN"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process a request to retrieve lost UIN"/>
+    <s v="MOS-23858"/>
+    <s v="MOSIP allows an individual to initiate a request to retrieve the Registration ID by providing the Full Name, Mobile Number/E-Mail ID, Postal Code"/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="518"/>
+    <x v="21"/>
+    <s v="Retrieve Lost RID"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process a request to retrieve lost RID"/>
+    <s v="MOS-23856"/>
+    <s v="An individual can retrieve the RID by providing the Full Name, Mobile Number/E-Mail ID, Postal Code."/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="519"/>
+    <x v="21"/>
+    <s v="Reprint UIN"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process a request to re-print UIN"/>
+    <s v="MOS-23746"/>
+    <s v="MOSIP allows an individual to raise a reprint request for their UIN. The individual provides the UIN/VID for which he/she wants to reprint."/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="520"/>
+    <x v="21"/>
+    <s v="Unlock AUTH"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process a request to unlock UIN/VID for a specific authentication type"/>
+    <s v="MOS-23745"/>
+    <s v="MOSIP allows an individual to unlock the authentication type(s) (Demographic, Biometrics (FP/Iris/Face/All)) associated with the UIN/VID. Only the unlocked authentication type(s) of demographic and biometric (FP/Iris/Face/All) can be used for any required authentication purpose"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="521"/>
+    <x v="21"/>
+    <s v="Lock AUTH"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to process a request to lock UIN/VID for a specific authentication type"/>
+    <s v="MOS-23744"/>
+    <s v="MOSIP allows an individual to lock the authentication type(s) (Demographic, Biometrics (FP/Iris/Face/All)) associated with the UIN/VID. Only the locked authentication type(s) cannot be used for any authentication purpose"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="522"/>
+    <x v="21"/>
+    <s v="Generate VID_x000a_"/>
+    <x v="0"/>
+    <s v="As a system, I should be able to generate VID for a user who requests for it so that he/she may be able to mask his/her UIN using the VID"/>
+    <s v="MOS-25580"/>
+    <s v="Upon receiving a VID generation and storage request with the parameters: UIN, ver, requestTime, vidType, the system performs steps to create VID in the defined policy."/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="523"/>
+    <x v="21"/>
+    <s v="Revoke VID"/>
+    <x v="0"/>
+    <s v="As a system, I should be able to revoke a VID for a user who requests for it_x000a_"/>
+    <s v="MOS-25583"/>
+    <s v="Upon receiving a request with the parameter: VID, ver to revoke a VID based on the type, the system performs steps to revoke a VID based on the type."/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Considered only Resident Services and not RegProc or IDA or IDRepo. _x000a_Effort includes the manual testing effort"/>
+    <m/>
+  </r>
+  <r>
+    <n v="524"/>
+    <x v="21"/>
+    <s v="Documentation"/>
+    <x v="0"/>
+    <s v="Documentation coverage"/>
+    <m/>
+    <s v="Covers documentation for all features released as part of the released version"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="525"/>
+    <x v="22"/>
+    <s v="Digital Certificate Signing/Resigning"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to Validate and Re-Issue the Digital Certificate provided by a Partner"/>
+    <s v="MOS-24500"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="10.4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Sharing the Digital Certificate to Partners and Partners Uploading their certificates"/>
+    <m/>
+  </r>
+  <r>
+    <n v="526"/>
+    <x v="22"/>
+    <s v="Digital Certificate Signing/Resigning"/>
+    <x v="0"/>
+    <s v="As the MOSIP system - PM, I should be able to integrate with kernel for Partner  Certificate signing and resigning"/>
+    <s v="MOS-24068"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="9.1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="527"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="Tech Story - Integrate with kernel for MISP License Key Generation"/>
+    <s v="MOS-24069"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Kernel to encrypt/De-crypt MISP LK"/>
+    <m/>
+  </r>
+  <r>
+    <n v="528"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system I should be able to validate Partner api key pattern "/>
+    <s v="MOS-26025"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Kernel to validate paatern, encryption and decryption"/>
+    <m/>
+  </r>
+  <r>
+    <n v="529"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to generate Partner api key "/>
+    <s v="MOS-26024"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="530"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system , I should be able to generate Partner Manager ID"/>
+    <s v="MOS-26023"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="531"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to generate Policy Manager ID"/>
+    <s v="MOS-26022"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="532"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to generate MISP ID"/>
+    <s v="MOS-26021"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="533"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system- PM, I should be able to integrate with kernel  to integrate kernel dependencies [To be deleted]"/>
+    <s v="MOS-24504"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="534"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system , I should be able to accomodate key Management related features - key Generation, key Validation and Key Re-generation"/>
+    <s v="MOS-24072"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="535"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to validate MISP License Key Pattern "/>
+    <s v="MOS-24071"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="5.8500000000000005"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="536"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="Tech Story - Integrate with kernel for MISP ID Generation [To be deleted]"/>
+    <s v="MOS-24070"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="5.2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Now a part of Partner Mgmt"/>
+    <m/>
+  </r>
+  <r>
+    <n v="537"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to validate Partner ID pattern"/>
+    <s v="MOS-24067"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Now a part of Partner Mgmt"/>
+    <m/>
+  </r>
+  <r>
+    <n v="538"/>
+    <x v="22"/>
+    <s v="ID/Key Generation and Validation"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to generate Partner ID"/>
+    <s v="MOS-24066"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Now a part of Partner Mgmt"/>
+    <m/>
+  </r>
+  <r>
+    <n v="539"/>
+    <x v="22"/>
+    <s v="Integration with IDA for PM"/>
+    <x v="0"/>
+    <s v="As the MOSIP system- PM, I should be able to integrate with IDA to provide IDA requested services"/>
+    <s v="MOS-24503"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="540"/>
+    <x v="22"/>
+    <s v="Master Data Management"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to define the master data for PM services"/>
+    <s v="MOS-24481"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="11.700000000000001"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="541"/>
+    <x v="22"/>
+    <s v="MISP Self-Service"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to regenerate license keys"/>
+    <s v="MOS-24479"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="542"/>
+    <x v="22"/>
+    <s v="NFR"/>
+    <x v="0"/>
+    <s v="As the MOSIP system - PM, I should be able to implement the NFR requirements"/>
+    <s v="MOS-24505"/>
+    <m/>
+    <x v="1"/>
+    <s v="P2"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="33.800000000000004"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="This would cover Logging, Tracing, Performance, Load, Availability, Security, Config"/>
+    <m/>
+  </r>
+  <r>
+    <n v="543"/>
+    <x v="22"/>
+    <s v="Partner API key Issuance/Management"/>
+    <x v="0"/>
+    <s v="As the partner Manager, I should be able to update  Partner api key to Policy Mappings"/>
+    <s v="MOS-26026"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="544"/>
+    <x v="22"/>
+    <s v="Partner API key Issuance/Management"/>
+    <x v="0"/>
+    <s v="As the Partner Manager, I should be able to activate/deactivate  Partner api key based on 'policy group'"/>
+    <s v="MOS-26020"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="545"/>
+    <x v="22"/>
+    <s v="Partner API key Issuance/Management"/>
+    <x v="0"/>
+    <s v="As the Partner Manager, I should be able to approve/reject  Partner api key requests based on 'policy group'"/>
+    <s v="MOS-26019"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="546"/>
+    <x v="22"/>
+    <s v="Partner API key Issuance/Management"/>
+    <x v="0"/>
+    <s v="As the Partner Manager, I should be able to view  Partner api key requests based on 'policy group'"/>
+    <s v="MOS-26018"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="5.8500000000000005"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="547"/>
+    <x v="22"/>
+    <s v="Partner API key Issuance/Management"/>
+    <x v="0"/>
+    <s v="As the Partner Manger, I should be able to retrieve Partner API key to Policy Mappings"/>
+    <s v="MOS-24492"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="548"/>
+    <x v="22"/>
+    <s v="Partner API key Issuance/Management"/>
+    <x v="0"/>
+    <s v="As the Partner Manager, I should be able to Create Partner API key to Policy Mappings"/>
+    <s v="MOS-24491"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="549"/>
+    <x v="22"/>
+    <s v="Partner Authentication"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to check status of a Partner"/>
+    <s v="MOS-24490"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="550"/>
+    <x v="22"/>
+    <s v="Partner Authentication"/>
+    <x v="0"/>
+    <s v="As the MOSIP system - IDA, I should be able to retrive policy of a partner with partner-ID and partner api key"/>
+    <s v="MOS-24478"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="551"/>
+    <x v="22"/>
+    <s v="Partner Management"/>
+    <x v="0"/>
+    <s v="As the Partner Manager, I should be able to view Auth/E-KYC Partners"/>
+    <s v="MOS-26017"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="552"/>
+    <x v="22"/>
+    <s v="Partner Management"/>
+    <x v="0"/>
+    <s v="As the Partner Manager, I should be able to deactivate Auth/E-KYC Partners"/>
+    <s v="MOS-24489"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="553"/>
+    <x v="22"/>
+    <s v="Partner Self-Service "/>
+    <x v="0"/>
+    <s v="As the Partners, I should be able to View Partner api key request status"/>
+    <s v="MOS-26016"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="554"/>
+    <x v="22"/>
+    <s v="Partner Self-Service "/>
+    <x v="0"/>
+    <s v="As the Partners, I should be able to submit Partner api key request"/>
+    <s v="MOS-26015"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="555"/>
+    <x v="22"/>
+    <s v="Partner Self-Service "/>
+    <x v="0"/>
+    <s v="As the Partners, I should be able to update Auth/E-KYC Partners"/>
+    <s v="MOS-24488"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="556"/>
+    <x v="22"/>
+    <s v="Partner Self-Service "/>
+    <x v="0"/>
+    <s v="As the Partners, I should be able to retrieve Auth/E-KYC Partners"/>
+    <s v="MOS-24487"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="557"/>
+    <x v="22"/>
+    <s v="Partner Self-Service "/>
+    <x v="0"/>
+    <s v="As the Partners, I should be able to Create Auth/E-KYC Partners"/>
+    <s v="MOS-24486"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="558"/>
+    <x v="22"/>
+    <s v="Policy Management"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to deactivate Auth/E-KYC Policy"/>
+    <s v="MOS-26014"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="559"/>
+    <x v="22"/>
+    <s v="Policy Management"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to update Auth/E-KYC Policy "/>
+    <s v="MOS-26013"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="560"/>
+    <x v="22"/>
+    <s v="Policy Management"/>
+    <x v="0"/>
+    <s v="As the Policy Manger, I should be able to retrieve Auth/E-KYC Policy"/>
+    <s v="MOS-24483"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="5.2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="561"/>
+    <x v="22"/>
+    <s v="Policy Management"/>
+    <x v="0"/>
+    <s v="As the Policy Manager, I should be able to Create Auth/E-KYC Policy "/>
+    <s v="MOS-24482"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="562"/>
+    <x v="22"/>
+    <s v="Public Key Management"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to retrieve Public key from Partners for encryption of e-kyc response"/>
+    <s v="MOS-24502"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="563"/>
+    <x v="22"/>
+    <s v="Public Key Management"/>
+    <x v="0"/>
+    <s v="As the MOSIP system, I should be able to distribute Public Key to Partners for Encryption of auth/KYC Request"/>
+    <s v="MOS-24501"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="564"/>
+    <x v="22"/>
+    <s v="Role Management"/>
+    <x v="0"/>
+    <s v="Tech Story - integrate with Kernel (IAM) for Role Mangement for PM services"/>
+    <s v="MOS-24473"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="10.4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="565"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to deactivate Partner Managers"/>
+    <s v="MOS-26012"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="566"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to update Partner  Managers"/>
+    <s v="MOS-26011"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="567"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to retrieve Partner Managers"/>
+    <s v="MOS-26010"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="568"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to Create Partner Managers"/>
+    <s v="MOS-26009"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Part of IAM"/>
+    <m/>
+  </r>
+  <r>
+    <n v="569"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to deactivate Policy Managers"/>
+    <s v="MOS-26008"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="570"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to update Policy Manager"/>
+    <s v="MOS-26007"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="571"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to retrieve Policy Managers"/>
+    <s v="MOS-26005"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="572"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to Create Policy Managers"/>
+    <s v="MOS-26003"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Part of IAM"/>
+    <m/>
+  </r>
+  <r>
+    <n v="573"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to deactivate/suspend MISPs (update MISP License Key Status)"/>
+    <s v="MOS-24477"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="9.1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="574"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to update MISPs"/>
+    <s v="MOS-24476"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="7.8000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="575"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to retrieve MISPs"/>
+    <s v="MOS-24475"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="5.8500000000000005"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="576"/>
+    <x v="22"/>
+    <s v="User Management - Admin "/>
+    <x v="0"/>
+    <s v="As the MOSIP Admin, I should be able to Create MISPs (MOSIP Infrastructure Service Provider)"/>
+    <s v="MOS-24474"/>
+    <m/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="577"/>
+    <x v="22"/>
+    <s v="Documentation"/>
+    <x v="0"/>
+    <s v="Documentation coverage"/>
+    <m/>
+    <s v="Covers documentation for all features released as part of the released version"/>
+    <x v="0"/>
+    <s v="P1"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="578"/>
+    <x v="23"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="579"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="P2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD09BB75-FDEA-4BDB-A7D3-528A17EE7F77}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95B71BE2-A1B1-4ABB-B83B-02323503C284}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="22">
+      <items count="25">
         <item x="20"/>
         <item x="18"/>
         <item x="12"/>
         <item x="19"/>
         <item x="14"/>
+        <item x="23"/>
         <item x="11"/>
         <item x="17"/>
         <item x="0"/>
@@ -19379,11 +21384,13 @@
         <item x="5"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="22"/>
         <item x="8"/>
         <item x="2"/>
         <item x="3"/>
         <item x="1"/>
         <item x="6"/>
+        <item x="21"/>
         <item x="16"/>
         <item x="13"/>
         <item x="4"/>
@@ -19424,8 +21431,8 @@
         <item x="6"/>
         <item x="12"/>
         <item x="7"/>
+        <item x="4"/>
         <item x="5"/>
-        <item x="4"/>
         <item x="14"/>
         <item x="10"/>
         <item x="3"/>
@@ -19471,9 +21478,6 @@
       <x/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="10"/>
     </i>
     <i>
@@ -19486,21 +21490,24 @@
       <x v="14"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <pageFields count="2">
+    <pageField fld="7" hier="-1"/>
     <pageField fld="9" hier="-1"/>
-    <pageField fld="7" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Estimates - Incl. Testing (PDs)_x000a_For items that need estimates from multiple modules" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Estimates" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -19810,42 +21817,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B168465-E474-4C28-868B-BA388C4491F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1349D45-3F51-44AC-B25C-80D0706DA083}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="80.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" customWidth="1"/>
-    <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>603</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1746</v>
@@ -19853,7 +21864,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
-        <v>3</v>
+        <v>603</v>
       </c>
       <c r="B2" t="s">
         <v>1746</v>
@@ -19861,7 +21872,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>1745</v>
@@ -19922,13 +21933,13 @@
         <v>170</v>
       </c>
       <c r="H6" s="36">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I6" s="36">
         <v>70</v>
       </c>
       <c r="J6" s="36">
-        <v>588.70000000000005</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -19978,13 +21989,13 @@
         <v>752</v>
       </c>
       <c r="H8" s="36">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I8" s="36">
         <v>70</v>
       </c>
       <c r="J8" s="36">
-        <v>1423.7</v>
+        <v>1420.7</v>
       </c>
     </row>
   </sheetData>
@@ -19997,11 +22008,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFE7CEB-FADE-4E61-8A23-4DC6C9C8C44B}">
   <dimension ref="A1:Z586"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="66" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="I576" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K580" sqref="K580"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:Y583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -31968,7 +33979,7 @@
       <c r="V258" s="4"/>
       <c r="W258" s="4"/>
       <c r="X258" s="12" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="Y258" s="12"/>
     </row>
@@ -32669,7 +34680,7 @@
       <c r="V272" s="12"/>
       <c r="W272" s="12"/>
       <c r="X272" s="12" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Y272" s="12"/>
     </row>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BEFAB9-4578-4EA6-83DA-C307CC4CF52E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DCCF0-3C79-45C4-ADE6-B22060D7A700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4873" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="1799">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -5946,6 +5946,9 @@
   </si>
   <si>
     <t>20 - all bio type integration.</t>
+  </si>
+  <si>
+    <t>MOS-28476</t>
   </si>
 </sst>
 </file>
@@ -6177,7 +6180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6292,6 +6295,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6300,12 +6312,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21550,7 +21556,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22195,10 +22201,10 @@
   <dimension ref="A1:AB586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -22233,11 +22239,11 @@
   <sheetData>
     <row r="1" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.35">
@@ -23931,9 +23937,9 @@
         <v>620</v>
       </c>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
     </row>
     <row r="40" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
@@ -25812,7 +25818,7 @@
         <v>714</v>
       </c>
       <c r="N77" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
@@ -26038,7 +26044,7 @@
         <v>721</v>
       </c>
       <c r="N81" s="12">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
@@ -26097,7 +26103,7 @@
         <v>721</v>
       </c>
       <c r="N82" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
@@ -26453,7 +26459,7 @@
       <c r="C89" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="39" t="s">
+      <c r="D89" s="42" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -26500,7 +26506,7 @@
       <c r="C90" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="39"/>
+      <c r="D90" s="42"/>
       <c r="E90" s="12" t="s">
         <v>18</v>
       </c>
@@ -29125,7 +29131,7 @@
         <v>343</v>
       </c>
       <c r="N142" s="12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O142" s="12"/>
       <c r="P142" s="12"/>
@@ -29164,7 +29170,9 @@
       <c r="F143" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="G143" s="12"/>
+      <c r="G143" s="39" t="s">
+        <v>1798</v>
+      </c>
       <c r="H143" s="12" t="s">
         <v>797</v>
       </c>
@@ -29558,7 +29566,7 @@
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
       <c r="N150" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O150" s="13"/>
       <c r="P150" s="13"/>
@@ -30418,7 +30426,7 @@
         <v>641</v>
       </c>
       <c r="AA167" s="9"/>
-      <c r="AB167" s="44" t="s">
+      <c r="AB167" s="41" t="s">
         <v>1781</v>
       </c>
     </row>
@@ -31704,7 +31712,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="192" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>188</v>
       </c>
@@ -32368,7 +32376,7 @@
       </c>
       <c r="AB203" s="9"/>
     </row>
-    <row r="204" spans="2:28" ht="140" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:28" ht="126" x14ac:dyDescent="0.35">
       <c r="B204" s="7">
         <v>200</v>
       </c>
@@ -32427,7 +32435,7 @@
       </c>
       <c r="AB204" s="9"/>
     </row>
-    <row r="205" spans="2:28" ht="140" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:28" ht="126" x14ac:dyDescent="0.35">
       <c r="B205" s="7">
         <v>201</v>
       </c>
@@ -34661,9 +34669,9 @@
         <v>1153</v>
       </c>
       <c r="Y246" s="10"/>
-      <c r="Z246" s="43"/>
-      <c r="AA246" s="43"/>
-      <c r="AB246" s="43"/>
+      <c r="Z246" s="40"/>
+      <c r="AA246" s="40"/>
+      <c r="AB246" s="40"/>
     </row>
     <row r="247" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B247" s="7">
@@ -34989,7 +34997,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="253" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B253" s="7">
         <v>249</v>
       </c>
@@ -35482,9 +35490,9 @@
         <v>1184</v>
       </c>
       <c r="Y261" s="10"/>
-      <c r="Z261" s="43"/>
-      <c r="AA261" s="43"/>
-      <c r="AB261" s="43"/>
+      <c r="Z261" s="40"/>
+      <c r="AA261" s="40"/>
+      <c r="AB261" s="40"/>
     </row>
     <row r="262" spans="1:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="16"/>
@@ -40282,7 +40290,7 @@
       <c r="AA362" s="9"/>
       <c r="AB362" s="9"/>
     </row>
-    <row r="363" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:28" ht="56" x14ac:dyDescent="0.35">
       <c r="B363" s="7">
         <v>359</v>
       </c>
@@ -40386,7 +40394,7 @@
       <c r="AA364" s="9"/>
       <c r="AB364" s="9"/>
     </row>
-    <row r="365" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:28" ht="56" x14ac:dyDescent="0.35">
       <c r="B365" s="7">
         <v>361</v>
       </c>
@@ -51547,23 +51555,11 @@
       <c r="M586" s="27"/>
       <c r="N586" s="27">
         <f>SUM(N5:N583)</f>
-        <v>4923.4499999999953</v>
+        <v>4806.4499999999953</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:AA583" xr:uid="{DAF38173-2647-4D1D-AC29-7E2D7C79183F}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Admin"/>
-        <filter val="ID Authentication"/>
-        <filter val="ID-Authentication"/>
-        <filter val="ID-Repository"/>
-        <filter val="Kernel"/>
-        <filter val="Pre-registration"/>
-        <filter val="Registration Client"/>
-        <filter val="Registration Processor"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="0.9.5 - Additional"/>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DCCF0-3C79-45C4-ADE6-B22060D7A700}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E73CC92E-581B-46F4-9AC8-E40D8D476787}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -19,18 +19,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$A$4:$AA$583</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4877" uniqueCount="1799">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6180,7 +6175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6299,6 +6294,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21556,7 +21554,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22015,37 +22013,37 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -22053,7 +22051,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>601</v>
       </c>
@@ -22061,7 +22059,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>1739</v>
       </c>
@@ -22069,7 +22067,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>1732</v>
       </c>
@@ -22101,7 +22099,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>607</v>
       </c>
@@ -22133,7 +22131,7 @@
         <v>585.70000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>711</v>
       </c>
@@ -22157,7 +22155,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>1733</v>
       </c>
@@ -22200,56 +22198,56 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB586"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="33.54296875" style="8" customWidth="1"/>
-    <col min="9" max="10" width="12.81640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="8" customWidth="1"/>
-    <col min="12" max="13" width="12.81640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="23.26953125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="14.54296875" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="8" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="8" customWidth="1"/>
+    <col min="12" max="13" width="12.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="8" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="8" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1796875" style="8" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="8" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="20" style="8" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="15.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="43.54296875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="43.54296875" style="8" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="15.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5703125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="43.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" style="8" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="37.08984375" style="8" customWidth="1"/>
-    <col min="29" max="16384" width="9.1796875" style="8"/>
+    <col min="28" max="28" width="37.140625" style="8" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+    <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Z3" s="21"/>
     </row>
-    <row r="4" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:28" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>1701</v>
       </c>
@@ -22332,7 +22330,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="5" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -22377,7 +22375,7 @@
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
     </row>
-    <row r="6" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:28" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -22430,7 +22428,7 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
     </row>
-    <row r="7" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:28" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -22483,7 +22481,7 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
     </row>
-    <row r="8" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -22538,7 +22536,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
     </row>
-    <row r="9" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -22591,7 +22589,7 @@
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
     </row>
-    <row r="10" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -22646,7 +22644,7 @@
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -22699,7 +22697,7 @@
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
     </row>
-    <row r="12" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:28" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -22754,7 +22752,7 @@
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
     </row>
-    <row r="13" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -22807,7 +22805,7 @@
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
     </row>
-    <row r="14" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -22854,7 +22852,7 @@
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
     </row>
-    <row r="15" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -22901,7 +22899,7 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
     </row>
-    <row r="16" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -22946,7 +22944,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
     </row>
-    <row r="17" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -22991,7 +22989,7 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
     </row>
-    <row r="18" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -23034,7 +23032,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
     </row>
-    <row r="19" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -23079,7 +23077,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
     </row>
-    <row r="20" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -23120,7 +23118,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
     </row>
-    <row r="21" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -23163,7 +23161,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
     </row>
-    <row r="22" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -23204,7 +23202,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
     </row>
-    <row r="23" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -23247,7 +23245,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
     </row>
-    <row r="24" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -23288,7 +23286,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
     </row>
-    <row r="25" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -23329,7 +23327,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
     </row>
-    <row r="26" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -23374,7 +23372,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
     </row>
-    <row r="27" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -23417,7 +23415,7 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
     </row>
-    <row r="28" spans="2:28" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:28" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -23462,7 +23460,7 @@
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
     </row>
-    <row r="29" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -23505,7 +23503,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
     </row>
-    <row r="30" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -23544,7 +23542,7 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
     </row>
-    <row r="31" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -23583,7 +23581,7 @@
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
     </row>
-    <row r="32" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -23628,7 +23626,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -23667,7 +23665,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
     </row>
-    <row r="34" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -23710,7 +23708,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
     </row>
-    <row r="35" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -23751,7 +23749,7 @@
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
     </row>
-    <row r="36" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -23798,7 +23796,7 @@
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
     </row>
-    <row r="37" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -23845,7 +23843,7 @@
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
     </row>
-    <row r="38" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -23892,7 +23890,7 @@
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
     </row>
-    <row r="39" spans="2:28" s="16" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:28" s="16" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -23941,7 +23939,7 @@
       <c r="AA39" s="40"/>
       <c r="AB39" s="40"/>
     </row>
-    <row r="40" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -23990,7 +23988,7 @@
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
     </row>
-    <row r="41" spans="2:28" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:28" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -24039,7 +24037,7 @@
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
     </row>
-    <row r="42" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -24088,7 +24086,7 @@
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
     </row>
-    <row r="43" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -24137,7 +24135,7 @@
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
     </row>
-    <row r="44" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -24190,7 +24188,7 @@
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
     </row>
-    <row r="45" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -24241,7 +24239,7 @@
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
     </row>
-    <row r="46" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -24294,7 +24292,7 @@
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
     </row>
-    <row r="47" spans="2:28" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:28" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -24343,7 +24341,7 @@
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
     </row>
-    <row r="48" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:28" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -24390,7 +24388,7 @@
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
     </row>
-    <row r="49" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -24439,7 +24437,7 @@
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
     </row>
-    <row r="50" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -24488,7 +24486,7 @@
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
     </row>
-    <row r="51" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -24535,7 +24533,7 @@
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
     </row>
-    <row r="52" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -24584,7 +24582,7 @@
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
     </row>
-    <row r="53" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -24635,7 +24633,7 @@
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
     </row>
-    <row r="54" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -24686,7 +24684,7 @@
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
     </row>
-    <row r="55" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -24737,7 +24735,7 @@
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
     </row>
-    <row r="56" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -24788,7 +24786,7 @@
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
     </row>
-    <row r="57" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -24798,7 +24796,7 @@
       <c r="D57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="42" t="s">
         <v>1755</v>
       </c>
       <c r="F57" s="12" t="s">
@@ -24847,7 +24845,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="58" spans="2:28" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:28" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -24894,7 +24892,7 @@
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
     </row>
-    <row r="59" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:28" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -24945,7 +24943,7 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
     </row>
-    <row r="60" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -24994,7 +24992,7 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
     </row>
-    <row r="61" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -25043,7 +25041,7 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
     </row>
-    <row r="62" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>58</v>
       </c>
@@ -25053,8 +25051,8 @@
       <c r="D62" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>18</v>
+      <c r="E62" s="42" t="s">
+        <v>1755</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>665</v>
@@ -25100,7 +25098,7 @@
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
     </row>
-    <row r="63" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>59</v>
       </c>
@@ -25157,7 +25155,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="64" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>60</v>
       </c>
@@ -25210,7 +25208,7 @@
       </c>
       <c r="AB64" s="9"/>
     </row>
-    <row r="65" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>61</v>
       </c>
@@ -25261,7 +25259,7 @@
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
     </row>
-    <row r="66" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>62</v>
       </c>
@@ -25306,7 +25304,7 @@
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
     </row>
-    <row r="67" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
         <v>63</v>
       </c>
@@ -25351,7 +25349,7 @@
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
     </row>
-    <row r="68" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -25410,7 +25408,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="69" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <v>65</v>
       </c>
@@ -25457,7 +25455,7 @@
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
     </row>
-    <row r="70" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:28" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <v>66</v>
       </c>
@@ -25504,7 +25502,7 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
     </row>
-    <row r="71" spans="2:28" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:28" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -25551,7 +25549,7 @@
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
     </row>
-    <row r="72" spans="2:28" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:28" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -25596,7 +25594,7 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
     </row>
-    <row r="73" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>69</v>
       </c>
@@ -25641,7 +25639,7 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
     </row>
-    <row r="74" spans="2:28" ht="364" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:28" ht="370.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>70</v>
       </c>
@@ -25688,7 +25686,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
     </row>
-    <row r="75" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>71</v>
       </c>
@@ -25735,7 +25733,7 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
     </row>
-    <row r="76" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <v>72</v>
       </c>
@@ -25782,7 +25780,7 @@
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
     </row>
-    <row r="77" spans="2:28" ht="126" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <v>73</v>
       </c>
@@ -25839,7 +25837,7 @@
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
     </row>
-    <row r="78" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <v>74</v>
       </c>
@@ -25898,7 +25896,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="79" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -25955,7 +25953,7 @@
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
     </row>
-    <row r="80" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>76</v>
       </c>
@@ -26008,7 +26006,7 @@
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
     </row>
-    <row r="81" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B81" s="7">
         <v>77</v>
       </c>
@@ -26039,7 +26037,9 @@
       <c r="K81" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="L81" s="12"/>
+      <c r="L81" s="12" t="s">
+        <v>1012</v>
+      </c>
       <c r="M81" s="12" t="s">
         <v>721</v>
       </c>
@@ -26067,7 +26067,7 @@
       </c>
       <c r="AB81" s="9"/>
     </row>
-    <row r="82" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B82" s="7">
         <v>78</v>
       </c>
@@ -26098,7 +26098,9 @@
       <c r="K82" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="L82" s="12"/>
+      <c r="L82" s="42" t="s">
+        <v>1012</v>
+      </c>
       <c r="M82" s="12" t="s">
         <v>721</v>
       </c>
@@ -26126,7 +26128,7 @@
       </c>
       <c r="AB82" s="9"/>
     </row>
-    <row r="83" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:28" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B83" s="7">
         <v>79</v>
       </c>
@@ -26181,7 +26183,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
     </row>
-    <row r="84" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B84" s="7">
         <v>80</v>
       </c>
@@ -26212,7 +26214,9 @@
       <c r="K84" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="L84" s="12"/>
+      <c r="L84" s="42" t="s">
+        <v>1012</v>
+      </c>
       <c r="M84" s="12" t="s">
         <v>738</v>
       </c>
@@ -26240,7 +26244,7 @@
       </c>
       <c r="AB84" s="9"/>
     </row>
-    <row r="85" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
         <v>81</v>
       </c>
@@ -26299,7 +26303,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="86" spans="2:28" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:28" ht="228" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -26346,7 +26350,7 @@
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
     </row>
-    <row r="87" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:28" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B87" s="7">
         <v>83</v>
       </c>
@@ -26405,7 +26409,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="88" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7">
         <v>84</v>
       </c>
@@ -26452,14 +26456,14 @@
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
     </row>
-    <row r="89" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7">
         <v>85</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="42" t="s">
+      <c r="D89" s="43" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -26499,14 +26503,14 @@
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
     </row>
-    <row r="90" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7">
         <v>86</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="42"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="12" t="s">
         <v>18</v>
       </c>
@@ -26544,7 +26548,7 @@
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
     </row>
-    <row r="91" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7">
         <v>87</v>
       </c>
@@ -26591,7 +26595,7 @@
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
     </row>
-    <row r="92" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
         <v>88</v>
       </c>
@@ -26638,7 +26642,7 @@
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
     </row>
-    <row r="93" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
         <v>89</v>
       </c>
@@ -26685,7 +26689,7 @@
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
     </row>
-    <row r="94" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
         <v>90</v>
       </c>
@@ -26740,7 +26744,7 @@
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
     </row>
-    <row r="95" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
         <v>91</v>
       </c>
@@ -26787,7 +26791,7 @@
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
     </row>
-    <row r="96" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>92</v>
       </c>
@@ -26832,7 +26836,7 @@
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
     </row>
-    <row r="97" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7">
         <v>93</v>
       </c>
@@ -26879,7 +26883,7 @@
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
     </row>
-    <row r="98" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B98" s="7">
         <v>94</v>
       </c>
@@ -26932,7 +26936,7 @@
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
     </row>
-    <row r="99" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
         <v>95</v>
       </c>
@@ -26981,7 +26985,7 @@
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
     </row>
-    <row r="100" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7">
         <v>96</v>
       </c>
@@ -27028,7 +27032,7 @@
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
     </row>
-    <row r="101" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7">
         <v>97</v>
       </c>
@@ -27075,7 +27079,7 @@
       <c r="AA101" s="9"/>
       <c r="AB101" s="9"/>
     </row>
-    <row r="102" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <v>98</v>
       </c>
@@ -27124,7 +27128,7 @@
       <c r="AA102" s="9"/>
       <c r="AB102" s="9"/>
     </row>
-    <row r="103" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7">
         <v>99</v>
       </c>
@@ -27171,7 +27175,7 @@
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
     </row>
-    <row r="104" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7">
         <v>100</v>
       </c>
@@ -27218,7 +27222,7 @@
       <c r="AA104" s="9"/>
       <c r="AB104" s="9"/>
     </row>
-    <row r="105" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7">
         <v>101</v>
       </c>
@@ -27265,7 +27269,7 @@
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
     </row>
-    <row r="106" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
         <v>102</v>
       </c>
@@ -27310,7 +27314,7 @@
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
     </row>
-    <row r="107" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:28" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7">
         <v>103</v>
       </c>
@@ -27361,7 +27365,7 @@
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
     </row>
-    <row r="108" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7">
         <v>104</v>
       </c>
@@ -27412,7 +27416,7 @@
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
     </row>
-    <row r="109" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7">
         <v>105</v>
       </c>
@@ -27463,7 +27467,7 @@
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
     </row>
-    <row r="110" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7">
         <v>106</v>
       </c>
@@ -27514,7 +27518,7 @@
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
     </row>
-    <row r="111" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7">
         <v>107</v>
       </c>
@@ -27565,7 +27569,7 @@
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
     </row>
-    <row r="112" spans="2:28" ht="196" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:28" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7">
         <v>108</v>
       </c>
@@ -27616,7 +27620,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
     </row>
-    <row r="113" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7">
         <v>109</v>
       </c>
@@ -27667,7 +27671,7 @@
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
     </row>
-    <row r="114" spans="2:28" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:28" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7">
         <v>110</v>
       </c>
@@ -27718,7 +27722,7 @@
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
     </row>
-    <row r="115" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7">
         <v>111</v>
       </c>
@@ -27769,7 +27773,7 @@
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
     </row>
-    <row r="116" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B116" s="7">
         <v>112</v>
       </c>
@@ -27826,7 +27830,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
     </row>
-    <row r="117" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7">
         <v>113</v>
       </c>
@@ -27877,7 +27881,7 @@
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
     </row>
-    <row r="118" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7">
         <v>114</v>
       </c>
@@ -27928,7 +27932,7 @@
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
     </row>
-    <row r="119" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7">
         <v>115</v>
       </c>
@@ -27979,7 +27983,7 @@
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
     </row>
-    <row r="120" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
         <v>116</v>
       </c>
@@ -28030,7 +28034,7 @@
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
     </row>
-    <row r="121" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
         <v>117</v>
       </c>
@@ -28081,7 +28085,7 @@
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
     </row>
-    <row r="122" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7">
         <v>118</v>
       </c>
@@ -28130,7 +28134,7 @@
       <c r="AA122" s="9"/>
       <c r="AB122" s="9"/>
     </row>
-    <row r="123" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7">
         <v>119</v>
       </c>
@@ -28181,7 +28185,7 @@
       <c r="AA123" s="9"/>
       <c r="AB123" s="9"/>
     </row>
-    <row r="124" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7">
         <v>120</v>
       </c>
@@ -28232,7 +28236,7 @@
       <c r="AA124" s="9"/>
       <c r="AB124" s="9"/>
     </row>
-    <row r="125" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:28" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7">
         <v>121</v>
       </c>
@@ -28283,7 +28287,7 @@
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
     </row>
-    <row r="126" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7">
         <v>122</v>
       </c>
@@ -28340,7 +28344,7 @@
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
     </row>
-    <row r="127" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
         <v>123</v>
       </c>
@@ -28393,7 +28397,7 @@
       <c r="AA127" s="9"/>
       <c r="AB127" s="9"/>
     </row>
-    <row r="128" spans="2:28" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:28" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7">
         <v>124</v>
       </c>
@@ -28444,7 +28448,7 @@
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
     </row>
-    <row r="129" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7">
         <v>125</v>
       </c>
@@ -28495,7 +28499,7 @@
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
     </row>
-    <row r="130" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7">
         <v>126</v>
       </c>
@@ -28546,7 +28550,7 @@
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
     </row>
-    <row r="131" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7">
         <v>127</v>
       </c>
@@ -28597,7 +28601,7 @@
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
     </row>
-    <row r="132" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
         <v>128</v>
       </c>
@@ -28648,7 +28652,7 @@
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
     </row>
-    <row r="133" spans="2:28" ht="168" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:28" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7">
         <v>129</v>
       </c>
@@ -28701,7 +28705,7 @@
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
     </row>
-    <row r="134" spans="2:28" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:28" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="7">
         <v>130</v>
       </c>
@@ -28746,7 +28750,7 @@
       <c r="AA134" s="9"/>
       <c r="AB134" s="9"/>
     </row>
-    <row r="135" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7">
         <v>131</v>
       </c>
@@ -28793,7 +28797,7 @@
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
     </row>
-    <row r="136" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7">
         <v>132</v>
       </c>
@@ -28838,7 +28842,7 @@
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
     </row>
-    <row r="137" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:28" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B137" s="7">
         <v>133</v>
       </c>
@@ -28891,7 +28895,7 @@
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
     </row>
-    <row r="138" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7">
         <v>134</v>
       </c>
@@ -28938,7 +28942,7 @@
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
     </row>
-    <row r="139" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B139" s="7">
         <v>135</v>
       </c>
@@ -28989,7 +28993,7 @@
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
     </row>
-    <row r="140" spans="2:28" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:28" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7">
         <v>136</v>
       </c>
@@ -29040,7 +29044,7 @@
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
     </row>
-    <row r="141" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B141" s="7">
         <v>137</v>
       </c>
@@ -29097,7 +29101,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="142" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
         <v>138</v>
       </c>
@@ -29154,7 +29158,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="143" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B143" s="7">
         <v>139</v>
       </c>
@@ -29213,7 +29217,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="144" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:28" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
         <v>140</v>
       </c>
@@ -29267,7 +29271,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="145" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:28" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B145" s="7">
         <v>141</v>
       </c>
@@ -29322,7 +29326,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="146" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:28" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B146" s="7">
         <v>142</v>
       </c>
@@ -29379,7 +29383,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="147" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:28" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
         <v>143</v>
       </c>
@@ -29430,7 +29434,7 @@
       <c r="AA147" s="9"/>
       <c r="AB147" s="9"/>
     </row>
-    <row r="148" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B148" s="7">
         <v>144</v>
       </c>
@@ -29481,7 +29485,7 @@
       <c r="AA148" s="9"/>
       <c r="AB148" s="9"/>
     </row>
-    <row r="149" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B149" s="7">
         <v>145</v>
       </c>
@@ -29534,7 +29538,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="150" spans="2:28" ht="112" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B150" s="7">
         <v>146</v>
       </c>
@@ -29587,7 +29591,7 @@
       </c>
       <c r="AB150" s="9"/>
     </row>
-    <row r="151" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7">
         <v>147</v>
       </c>
@@ -29634,7 +29638,7 @@
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
     </row>
-    <row r="152" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7">
         <v>148</v>
       </c>
@@ -29681,7 +29685,7 @@
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
     </row>
-    <row r="153" spans="2:28" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:28" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7">
         <v>149</v>
       </c>
@@ -29730,7 +29734,7 @@
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
     </row>
-    <row r="154" spans="2:28" ht="266" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:28" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7">
         <v>150</v>
       </c>
@@ -29781,7 +29785,7 @@
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
     </row>
-    <row r="155" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
         <v>151</v>
       </c>
@@ -29830,7 +29834,7 @@
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
     </row>
-    <row r="156" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B156" s="7">
         <v>152</v>
       </c>
@@ -29889,7 +29893,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="157" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7">
         <v>153</v>
       </c>
@@ -29938,7 +29942,7 @@
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
     </row>
-    <row r="158" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="7">
         <v>154</v>
       </c>
@@ -29985,7 +29989,7 @@
       <c r="AA158" s="9"/>
       <c r="AB158" s="9"/>
     </row>
-    <row r="159" spans="2:28" ht="238" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:28" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B159" s="7">
         <v>155</v>
       </c>
@@ -30040,7 +30044,7 @@
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
     </row>
-    <row r="160" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
         <v>156</v>
       </c>
@@ -30087,7 +30091,7 @@
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
     </row>
-    <row r="161" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="7">
         <v>157</v>
       </c>
@@ -30134,7 +30138,7 @@
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
     </row>
-    <row r="162" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7">
         <v>158</v>
       </c>
@@ -30183,7 +30187,7 @@
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
     </row>
-    <row r="163" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7">
         <v>159</v>
       </c>
@@ -30230,7 +30234,7 @@
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
     </row>
-    <row r="164" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="7">
         <v>160</v>
       </c>
@@ -30277,7 +30281,7 @@
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
     </row>
-    <row r="165" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="7">
         <v>161</v>
       </c>
@@ -30324,7 +30328,7 @@
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
     </row>
-    <row r="166" spans="2:28" ht="252" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:28" ht="256.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7">
         <v>162</v>
       </c>
@@ -30373,7 +30377,7 @@
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
     </row>
-    <row r="167" spans="2:28" ht="154" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B167" s="7">
         <v>163</v>
       </c>
@@ -30430,7 +30434,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="168" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
         <v>164</v>
       </c>
@@ -30479,7 +30483,7 @@
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
     </row>
-    <row r="169" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7">
         <v>165</v>
       </c>
@@ -30528,7 +30532,7 @@
       <c r="AA169" s="9"/>
       <c r="AB169" s="9"/>
     </row>
-    <row r="170" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
         <v>166</v>
       </c>
@@ -30579,7 +30583,7 @@
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
     </row>
-    <row r="171" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B171" s="7">
         <v>167</v>
       </c>
@@ -30628,7 +30632,7 @@
       <c r="AA171" s="9"/>
       <c r="AB171" s="9"/>
     </row>
-    <row r="172" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B172" s="7">
         <v>168</v>
       </c>
@@ -30681,7 +30685,7 @@
       <c r="AA172" s="9"/>
       <c r="AB172" s="9"/>
     </row>
-    <row r="173" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
         <v>169</v>
       </c>
@@ -30742,7 +30746,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="174" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="7">
         <v>170</v>
       </c>
@@ -30797,7 +30801,7 @@
       <c r="AA174" s="9"/>
       <c r="AB174" s="9"/>
     </row>
-    <row r="175" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B175" s="7">
         <v>171</v>
       </c>
@@ -30850,7 +30854,7 @@
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
     </row>
-    <row r="176" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B176" s="7">
         <v>172</v>
       </c>
@@ -30903,7 +30907,7 @@
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
     </row>
-    <row r="177" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B177" s="7">
         <v>173</v>
       </c>
@@ -30956,7 +30960,7 @@
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
     </row>
-    <row r="178" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
         <v>174</v>
       </c>
@@ -31009,7 +31013,7 @@
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
     </row>
-    <row r="179" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B179" s="7">
         <v>175</v>
       </c>
@@ -31062,7 +31066,7 @@
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
     </row>
-    <row r="180" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B180" s="7">
         <v>176</v>
       </c>
@@ -31115,7 +31119,7 @@
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
     </row>
-    <row r="181" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B181" s="7">
         <v>177</v>
       </c>
@@ -31166,7 +31170,7 @@
       <c r="AA181" s="9"/>
       <c r="AB181" s="9"/>
     </row>
-    <row r="182" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B182" s="7">
         <v>178</v>
       </c>
@@ -31223,7 +31227,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="183" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
         <v>179</v>
       </c>
@@ -31280,7 +31284,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="184" spans="2:28" ht="98" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:28" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B184" s="7">
         <v>180</v>
       </c>
@@ -31337,7 +31341,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="185" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B185" s="7">
         <v>181</v>
       </c>
@@ -31394,7 +31398,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="186" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B186" s="7">
         <v>182</v>
       </c>
@@ -31449,7 +31453,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="187" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B187" s="7">
         <v>183</v>
       </c>
@@ -31502,7 +31506,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="188" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B188" s="7">
         <v>184</v>
       </c>
@@ -31559,7 +31563,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="189" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="7">
         <v>185</v>
       </c>
@@ -31608,7 +31612,7 @@
       <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
     </row>
-    <row r="190" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
         <v>186</v>
       </c>
@@ -31659,7 +31663,7 @@
       <c r="AA190" s="9"/>
       <c r="AB190" s="9"/>
     </row>
-    <row r="191" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B191" s="7">
         <v>187</v>
       </c>
@@ -31712,7 +31716,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="192" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
         <v>188</v>
       </c>
@@ -31767,7 +31771,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="193" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B193" s="7">
         <v>189</v>
       </c>
@@ -31820,7 +31824,7 @@
       </c>
       <c r="AB193" s="9"/>
     </row>
-    <row r="194" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7">
         <v>190</v>
       </c>
@@ -31873,7 +31877,7 @@
       <c r="AA194" s="9"/>
       <c r="AB194" s="9"/>
     </row>
-    <row r="195" spans="2:28" ht="112" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:28" ht="114" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
         <v>191</v>
       </c>
@@ -31930,7 +31934,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="196" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="7">
         <v>192</v>
       </c>
@@ -31983,7 +31987,7 @@
       <c r="AA196" s="9"/>
       <c r="AB196" s="9"/>
     </row>
-    <row r="197" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7">
         <v>193</v>
       </c>
@@ -32034,7 +32038,7 @@
       <c r="AA197" s="9"/>
       <c r="AB197" s="9"/>
     </row>
-    <row r="198" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B198" s="7">
         <v>194</v>
       </c>
@@ -32087,7 +32091,7 @@
       <c r="AA198" s="9"/>
       <c r="AB198" s="9"/>
     </row>
-    <row r="199" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B199" s="7">
         <v>195</v>
       </c>
@@ -32140,7 +32144,7 @@
       <c r="AA199" s="9"/>
       <c r="AB199" s="9"/>
     </row>
-    <row r="200" spans="2:28" ht="112" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:28" ht="114" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
         <v>196</v>
       </c>
@@ -32199,7 +32203,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="201" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B201" s="7">
         <v>197</v>
       </c>
@@ -32258,7 +32262,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="202" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:28" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B202" s="7">
         <v>198</v>
       </c>
@@ -32317,7 +32321,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="203" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B203" s="7">
         <v>199</v>
       </c>
@@ -32376,7 +32380,7 @@
       </c>
       <c r="AB203" s="9"/>
     </row>
-    <row r="204" spans="2:28" ht="126" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B204" s="7">
         <v>200</v>
       </c>
@@ -32435,7 +32439,7 @@
       </c>
       <c r="AB204" s="9"/>
     </row>
-    <row r="205" spans="2:28" ht="126" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B205" s="7">
         <v>201</v>
       </c>
@@ -32494,7 +32498,7 @@
       </c>
       <c r="AB205" s="9"/>
     </row>
-    <row r="206" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B206" s="7">
         <v>202</v>
       </c>
@@ -32553,7 +32557,7 @@
       </c>
       <c r="AB206" s="9"/>
     </row>
-    <row r="207" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7">
         <v>203</v>
       </c>
@@ -32602,7 +32606,7 @@
       <c r="AA207" s="9"/>
       <c r="AB207" s="9"/>
     </row>
-    <row r="208" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7">
         <v>204</v>
       </c>
@@ -32651,7 +32655,7 @@
       <c r="AA208" s="9"/>
       <c r="AB208" s="9"/>
     </row>
-    <row r="209" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7">
         <v>205</v>
       </c>
@@ -32700,7 +32704,7 @@
       <c r="AA209" s="9"/>
       <c r="AB209" s="9"/>
     </row>
-    <row r="210" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="7">
         <v>206</v>
       </c>
@@ -32749,7 +32753,7 @@
       <c r="AA210" s="9"/>
       <c r="AB210" s="9"/>
     </row>
-    <row r="211" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7">
         <v>207</v>
       </c>
@@ -32806,7 +32810,7 @@
       <c r="AA211" s="9"/>
       <c r="AB211" s="9"/>
     </row>
-    <row r="212" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7">
         <v>208</v>
       </c>
@@ -32855,7 +32859,7 @@
       <c r="AA212" s="9"/>
       <c r="AB212" s="9"/>
     </row>
-    <row r="213" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7">
         <v>209</v>
       </c>
@@ -32906,7 +32910,7 @@
       <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
     </row>
-    <row r="214" spans="2:28" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:28" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B214" s="7">
         <v>210</v>
       </c>
@@ -32965,7 +32969,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="215" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
         <v>211</v>
       </c>
@@ -33020,7 +33024,7 @@
       <c r="AA215" s="9"/>
       <c r="AB215" s="9"/>
     </row>
-    <row r="216" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B216" s="7">
         <v>212</v>
       </c>
@@ -33077,7 +33081,7 @@
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
     </row>
-    <row r="217" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
         <v>213</v>
       </c>
@@ -33130,7 +33134,7 @@
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
     </row>
-    <row r="218" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7">
         <v>214</v>
       </c>
@@ -33183,7 +33187,7 @@
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
     </row>
-    <row r="219" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7">
         <v>215</v>
       </c>
@@ -33236,7 +33240,7 @@
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
     </row>
-    <row r="220" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="7">
         <v>216</v>
       </c>
@@ -33289,7 +33293,7 @@
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
     </row>
-    <row r="221" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B221" s="7">
         <v>217</v>
       </c>
@@ -33344,7 +33348,7 @@
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
     </row>
-    <row r="222" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B222" s="7">
         <v>218</v>
       </c>
@@ -33399,7 +33403,7 @@
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
     </row>
-    <row r="223" spans="2:28" ht="140" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:28" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B223" s="7">
         <v>219</v>
       </c>
@@ -33456,7 +33460,7 @@
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
     </row>
-    <row r="224" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="7">
         <v>220</v>
       </c>
@@ -33509,7 +33513,7 @@
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
     </row>
-    <row r="225" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
         <v>221</v>
       </c>
@@ -33562,7 +33566,7 @@
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
     </row>
-    <row r="226" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="7">
         <v>222</v>
       </c>
@@ -33615,7 +33619,7 @@
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
     </row>
-    <row r="227" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="7">
         <v>223</v>
       </c>
@@ -33662,7 +33666,7 @@
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
     </row>
-    <row r="228" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="7">
         <v>224</v>
       </c>
@@ -33709,7 +33713,7 @@
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
     </row>
-    <row r="229" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="7">
         <v>225</v>
       </c>
@@ -33756,7 +33760,7 @@
       <c r="AA229" s="9"/>
       <c r="AB229" s="9"/>
     </row>
-    <row r="230" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="7">
         <v>226</v>
       </c>
@@ -33809,7 +33813,7 @@
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
     </row>
-    <row r="231" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="7">
         <v>227</v>
       </c>
@@ -33860,7 +33864,7 @@
       <c r="AA231" s="9"/>
       <c r="AB231" s="9"/>
     </row>
-    <row r="232" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="7">
         <v>228</v>
       </c>
@@ -33911,7 +33915,7 @@
       <c r="AA232" s="9"/>
       <c r="AB232" s="9"/>
     </row>
-    <row r="233" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="7">
         <v>229</v>
       </c>
@@ -33964,7 +33968,7 @@
       <c r="AA233" s="9"/>
       <c r="AB233" s="9"/>
     </row>
-    <row r="234" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="7">
         <v>230</v>
       </c>
@@ -34017,7 +34021,7 @@
       <c r="AA234" s="9"/>
       <c r="AB234" s="9"/>
     </row>
-    <row r="235" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:28" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B235" s="7">
         <v>231</v>
       </c>
@@ -34074,7 +34078,7 @@
       <c r="AA235" s="9"/>
       <c r="AB235" s="9"/>
     </row>
-    <row r="236" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="7">
         <v>232</v>
       </c>
@@ -34125,7 +34129,7 @@
       <c r="AA236" s="9"/>
       <c r="AB236" s="9"/>
     </row>
-    <row r="237" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="7">
         <v>233</v>
       </c>
@@ -34176,7 +34180,7 @@
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
     </row>
-    <row r="238" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
         <v>234</v>
       </c>
@@ -34233,7 +34237,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="239" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B239" s="7">
         <v>235</v>
       </c>
@@ -34290,7 +34294,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="240" spans="2:28" ht="98" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:28" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B240" s="7">
         <v>236</v>
       </c>
@@ -34343,7 +34347,7 @@
       </c>
       <c r="AB240" s="9"/>
     </row>
-    <row r="241" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B241" s="7">
         <v>237</v>
       </c>
@@ -34400,7 +34404,7 @@
       </c>
       <c r="AB241" s="9"/>
     </row>
-    <row r="242" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B242" s="7">
         <v>238</v>
       </c>
@@ -34455,7 +34459,7 @@
       </c>
       <c r="AB242" s="9"/>
     </row>
-    <row r="243" spans="2:28" ht="126" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:28" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B243" s="7">
         <v>239</v>
       </c>
@@ -34514,7 +34518,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="244" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
         <v>240</v>
       </c>
@@ -34567,7 +34571,7 @@
       <c r="AA244" s="9"/>
       <c r="AB244" s="9"/>
     </row>
-    <row r="245" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B245" s="7">
         <v>241</v>
       </c>
@@ -34620,7 +34624,7 @@
       <c r="AA245" s="9"/>
       <c r="AB245" s="9"/>
     </row>
-    <row r="246" spans="2:28" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:28" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="7">
         <v>242</v>
       </c>
@@ -34673,7 +34677,7 @@
       <c r="AA246" s="40"/>
       <c r="AB246" s="40"/>
     </row>
-    <row r="247" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B247" s="7">
         <v>243</v>
       </c>
@@ -34726,7 +34730,7 @@
       <c r="AA247" s="9"/>
       <c r="AB247" s="9"/>
     </row>
-    <row r="248" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
         <v>244</v>
       </c>
@@ -34781,7 +34785,7 @@
       <c r="AA248" s="9"/>
       <c r="AB248" s="9"/>
     </row>
-    <row r="249" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="7">
         <v>245</v>
       </c>
@@ -34830,7 +34834,7 @@
       <c r="AA249" s="9"/>
       <c r="AB249" s="9"/>
     </row>
-    <row r="250" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B250" s="7">
         <v>246</v>
       </c>
@@ -34885,7 +34889,7 @@
       </c>
       <c r="AB250" s="9"/>
     </row>
-    <row r="251" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B251" s="7">
         <v>247</v>
       </c>
@@ -34942,7 +34946,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="252" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B252" s="7">
         <v>248</v>
       </c>
@@ -34997,7 +35001,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="253" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B253" s="7">
         <v>249</v>
       </c>
@@ -35056,7 +35060,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="254" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B254" s="7">
         <v>250</v>
       </c>
@@ -35113,7 +35117,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="255" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="7">
         <v>251</v>
       </c>
@@ -35164,7 +35168,7 @@
       <c r="AA255" s="9"/>
       <c r="AB255" s="9"/>
     </row>
-    <row r="256" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B256" s="7">
         <v>252</v>
       </c>
@@ -35219,7 +35223,7 @@
       </c>
       <c r="AB256" s="9"/>
     </row>
-    <row r="257" spans="1:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
         <v>253</v>
       </c>
@@ -35268,7 +35272,7 @@
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
     </row>
-    <row r="258" spans="1:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B258" s="7">
         <v>254</v>
       </c>
@@ -35325,7 +35329,7 @@
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
     </row>
-    <row r="259" spans="1:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B259" s="7">
         <v>255</v>
       </c>
@@ -35382,7 +35386,7 @@
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
     </row>
-    <row r="260" spans="1:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B260" s="7">
         <v>256</v>
       </c>
@@ -35441,7 +35445,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="261" spans="1:28" s="16" customFormat="1" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" s="16" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" s="7">
         <v>257</v>
       </c>
@@ -35494,7 +35498,7 @@
       <c r="AA261" s="40"/>
       <c r="AB261" s="40"/>
     </row>
-    <row r="262" spans="1:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="16"/>
       <c r="B262" s="7">
         <v>258</v>
@@ -35548,7 +35552,7 @@
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
     </row>
-    <row r="263" spans="1:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263" s="7">
         <v>259</v>
       </c>
@@ -35601,7 +35605,7 @@
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
     </row>
-    <row r="264" spans="1:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" s="7">
         <v>260</v>
       </c>
@@ -35646,7 +35650,7 @@
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
     </row>
-    <row r="265" spans="1:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B265" s="7">
         <v>261</v>
       </c>
@@ -35705,7 +35709,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="266" spans="1:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B266" s="7">
         <v>262</v>
       </c>
@@ -35760,7 +35764,7 @@
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
     </row>
-    <row r="267" spans="1:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B267" s="7">
         <v>263</v>
       </c>
@@ -35815,7 +35819,7 @@
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
     </row>
-    <row r="268" spans="1:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B268" s="7">
         <v>264</v>
       </c>
@@ -35872,7 +35876,7 @@
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
     </row>
-    <row r="269" spans="1:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B269" s="7">
         <v>265</v>
       </c>
@@ -35929,7 +35933,7 @@
       </c>
       <c r="AB269" s="9"/>
     </row>
-    <row r="270" spans="1:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
         <v>266</v>
       </c>
@@ -35982,7 +35986,7 @@
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
     </row>
-    <row r="271" spans="1:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B271" s="7">
         <v>267</v>
       </c>
@@ -36039,7 +36043,7 @@
       </c>
       <c r="AB271" s="9"/>
     </row>
-    <row r="272" spans="1:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B272" s="7">
         <v>268</v>
       </c>
@@ -36096,7 +36100,7 @@
       </c>
       <c r="AB272" s="9"/>
     </row>
-    <row r="273" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B273" s="7">
         <v>269</v>
       </c>
@@ -36149,7 +36153,7 @@
       </c>
       <c r="AB273" s="9"/>
     </row>
-    <row r="274" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" s="7">
         <v>270</v>
       </c>
@@ -36192,7 +36196,7 @@
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
     </row>
-    <row r="275" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="7">
         <v>271</v>
       </c>
@@ -36235,7 +36239,7 @@
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
     </row>
-    <row r="276" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" s="7">
         <v>272</v>
       </c>
@@ -36278,7 +36282,7 @@
       <c r="AA276" s="9"/>
       <c r="AB276" s="9"/>
     </row>
-    <row r="277" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277" s="7">
         <v>273</v>
       </c>
@@ -36321,7 +36325,7 @@
       <c r="AA277" s="9"/>
       <c r="AB277" s="9"/>
     </row>
-    <row r="278" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278" s="7">
         <v>274</v>
       </c>
@@ -36364,7 +36368,7 @@
       <c r="AA278" s="9"/>
       <c r="AB278" s="9"/>
     </row>
-    <row r="279" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
         <v>275</v>
       </c>
@@ -36407,7 +36411,7 @@
       <c r="AA279" s="9"/>
       <c r="AB279" s="9"/>
     </row>
-    <row r="280" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280" s="7">
         <v>276</v>
       </c>
@@ -36454,7 +36458,7 @@
       <c r="AA280" s="9"/>
       <c r="AB280" s="9"/>
     </row>
-    <row r="281" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="7">
         <v>277</v>
       </c>
@@ -36497,7 +36501,7 @@
       <c r="AA281" s="9"/>
       <c r="AB281" s="9"/>
     </row>
-    <row r="282" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B282" s="7">
         <v>278</v>
       </c>
@@ -36540,7 +36544,7 @@
       <c r="AA282" s="9"/>
       <c r="AB282" s="9"/>
     </row>
-    <row r="283" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283" s="7">
         <v>279</v>
       </c>
@@ -36585,7 +36589,7 @@
       <c r="AA283" s="9"/>
       <c r="AB283" s="9"/>
     </row>
-    <row r="284" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B284" s="7">
         <v>280</v>
       </c>
@@ -36630,7 +36634,7 @@
       <c r="AA284" s="9"/>
       <c r="AB284" s="9"/>
     </row>
-    <row r="285" spans="2:28" ht="112" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:28" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B285" s="7">
         <v>281</v>
       </c>
@@ -36683,7 +36687,7 @@
       <c r="AA285" s="9"/>
       <c r="AB285" s="9"/>
     </row>
-    <row r="286" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B286" s="7">
         <v>282</v>
       </c>
@@ -36728,7 +36732,7 @@
       <c r="AA286" s="9"/>
       <c r="AB286" s="9"/>
     </row>
-    <row r="287" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287" s="7">
         <v>283</v>
       </c>
@@ -36771,7 +36775,7 @@
       <c r="AA287" s="9"/>
       <c r="AB287" s="9"/>
     </row>
-    <row r="288" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
         <v>284</v>
       </c>
@@ -36824,7 +36828,7 @@
       <c r="AA288" s="9"/>
       <c r="AB288" s="9"/>
     </row>
-    <row r="289" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="7">
         <v>285</v>
       </c>
@@ -36873,7 +36877,7 @@
       <c r="AA289" s="9"/>
       <c r="AB289" s="9"/>
     </row>
-    <row r="290" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290" s="7">
         <v>286</v>
       </c>
@@ -36916,7 +36920,7 @@
       <c r="AA290" s="9"/>
       <c r="AB290" s="9"/>
     </row>
-    <row r="291" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="7">
         <v>287</v>
       </c>
@@ -36959,7 +36963,7 @@
       <c r="AA291" s="9"/>
       <c r="AB291" s="9"/>
     </row>
-    <row r="292" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="7">
         <v>288</v>
       </c>
@@ -37004,7 +37008,7 @@
       <c r="AA292" s="9"/>
       <c r="AB292" s="9"/>
     </row>
-    <row r="293" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="7">
         <v>289</v>
       </c>
@@ -37053,7 +37057,7 @@
       <c r="AA293" s="9"/>
       <c r="AB293" s="9"/>
     </row>
-    <row r="294" spans="2:28" ht="182" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:28" ht="199.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="7">
         <v>290</v>
       </c>
@@ -37106,7 +37110,7 @@
       <c r="AA294" s="9"/>
       <c r="AB294" s="9"/>
     </row>
-    <row r="295" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
         <v>291</v>
       </c>
@@ -37149,7 +37153,7 @@
       <c r="AA295" s="9"/>
       <c r="AB295" s="9"/>
     </row>
-    <row r="296" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="7">
         <v>292</v>
       </c>
@@ -37192,7 +37196,7 @@
       <c r="AA296" s="9"/>
       <c r="AB296" s="9"/>
     </row>
-    <row r="297" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="7">
         <v>293</v>
       </c>
@@ -37235,7 +37239,7 @@
       <c r="AA297" s="9"/>
       <c r="AB297" s="9"/>
     </row>
-    <row r="298" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="7">
         <v>294</v>
       </c>
@@ -37278,7 +37282,7 @@
       <c r="AA298" s="9"/>
       <c r="AB298" s="9"/>
     </row>
-    <row r="299" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="7">
         <v>295</v>
       </c>
@@ -37321,7 +37325,7 @@
       <c r="AA299" s="9"/>
       <c r="AB299" s="9"/>
     </row>
-    <row r="300" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="7">
         <v>296</v>
       </c>
@@ -37364,7 +37368,7 @@
       <c r="AA300" s="9"/>
       <c r="AB300" s="9"/>
     </row>
-    <row r="301" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301" s="7">
         <v>297</v>
       </c>
@@ -37407,7 +37411,7 @@
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
     </row>
-    <row r="302" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="7">
         <v>298</v>
       </c>
@@ -37452,7 +37456,7 @@
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
     </row>
-    <row r="303" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="7">
         <v>299</v>
       </c>
@@ -37497,7 +37501,7 @@
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
     </row>
-    <row r="304" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304" s="7">
         <v>300</v>
       </c>
@@ -37542,7 +37546,7 @@
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
     </row>
-    <row r="305" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="7">
         <v>301</v>
       </c>
@@ -37587,7 +37591,7 @@
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
     </row>
-    <row r="306" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="7">
         <v>302</v>
       </c>
@@ -37632,7 +37636,7 @@
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
     </row>
-    <row r="307" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="7">
         <v>303</v>
       </c>
@@ -37675,7 +37679,7 @@
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
     </row>
-    <row r="308" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="7">
         <v>304</v>
       </c>
@@ -37718,7 +37722,7 @@
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
     </row>
-    <row r="309" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="7">
         <v>305</v>
       </c>
@@ -37759,7 +37763,7 @@
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
     </row>
-    <row r="310" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="7">
         <v>306</v>
       </c>
@@ -37800,7 +37804,7 @@
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
     </row>
-    <row r="311" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="7">
         <v>307</v>
       </c>
@@ -37841,7 +37845,7 @@
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
     </row>
-    <row r="312" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="7">
         <v>308</v>
       </c>
@@ -37882,7 +37886,7 @@
       <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
     </row>
-    <row r="313" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B313" s="7">
         <v>309</v>
       </c>
@@ -37927,7 +37931,7 @@
       <c r="AA313" s="9"/>
       <c r="AB313" s="9"/>
     </row>
-    <row r="314" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="7">
         <v>310</v>
       </c>
@@ -37970,7 +37974,7 @@
       <c r="AA314" s="9"/>
       <c r="AB314" s="9"/>
     </row>
-    <row r="315" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="7">
         <v>311</v>
       </c>
@@ -38013,7 +38017,7 @@
       <c r="AA315" s="9"/>
       <c r="AB315" s="9"/>
     </row>
-    <row r="316" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="7">
         <v>312</v>
       </c>
@@ -38056,7 +38060,7 @@
       <c r="AA316" s="9"/>
       <c r="AB316" s="9"/>
     </row>
-    <row r="317" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="7">
         <v>313</v>
       </c>
@@ -38097,7 +38101,7 @@
       <c r="AA317" s="9"/>
       <c r="AB317" s="9"/>
     </row>
-    <row r="318" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318" s="7">
         <v>314</v>
       </c>
@@ -38138,7 +38142,7 @@
       <c r="AA318" s="9"/>
       <c r="AB318" s="9"/>
     </row>
-    <row r="319" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319" s="7">
         <v>315</v>
       </c>
@@ -38179,7 +38183,7 @@
       <c r="AA319" s="9"/>
       <c r="AB319" s="9"/>
     </row>
-    <row r="320" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="7">
         <v>316</v>
       </c>
@@ -38222,7 +38226,7 @@
       <c r="AA320" s="9"/>
       <c r="AB320" s="9"/>
     </row>
-    <row r="321" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321" s="7">
         <v>317</v>
       </c>
@@ -38265,7 +38269,7 @@
       <c r="AA321" s="9"/>
       <c r="AB321" s="9"/>
     </row>
-    <row r="322" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="7">
         <v>318</v>
       </c>
@@ -38308,7 +38312,7 @@
       <c r="AA322" s="9"/>
       <c r="AB322" s="9"/>
     </row>
-    <row r="323" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="7">
         <v>319</v>
       </c>
@@ -38353,7 +38357,7 @@
       <c r="AA323" s="9"/>
       <c r="AB323" s="9"/>
     </row>
-    <row r="324" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="7">
         <v>320</v>
       </c>
@@ -38398,7 +38402,7 @@
       <c r="AA324" s="9"/>
       <c r="AB324" s="9"/>
     </row>
-    <row r="325" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="7">
         <v>321</v>
       </c>
@@ -38443,7 +38447,7 @@
       <c r="AA325" s="9"/>
       <c r="AB325" s="9"/>
     </row>
-    <row r="326" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="7">
         <v>322</v>
       </c>
@@ -38492,7 +38496,7 @@
       <c r="AA326" s="9"/>
       <c r="AB326" s="9"/>
     </row>
-    <row r="327" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="7">
         <v>323</v>
       </c>
@@ -38533,7 +38537,7 @@
       <c r="AA327" s="9"/>
       <c r="AB327" s="9"/>
     </row>
-    <row r="328" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B328" s="7">
         <v>324</v>
       </c>
@@ -38578,7 +38582,7 @@
       <c r="AA328" s="9"/>
       <c r="AB328" s="9"/>
     </row>
-    <row r="329" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="7">
         <v>325</v>
       </c>
@@ -38624,7 +38628,7 @@
       <c r="AA329" s="9"/>
       <c r="AB329" s="9"/>
     </row>
-    <row r="330" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="7">
         <v>326</v>
       </c>
@@ -38670,7 +38674,7 @@
       <c r="AA330" s="9"/>
       <c r="AB330" s="9"/>
     </row>
-    <row r="331" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331" s="7">
         <v>327</v>
       </c>
@@ -38714,7 +38718,7 @@
       <c r="AA331" s="9"/>
       <c r="AB331" s="9"/>
     </row>
-    <row r="332" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B332" s="7">
         <v>328</v>
       </c>
@@ -38760,7 +38764,7 @@
       <c r="AA332" s="9"/>
       <c r="AB332" s="9"/>
     </row>
-    <row r="333" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333" s="7">
         <v>329</v>
       </c>
@@ -38806,7 +38810,7 @@
       <c r="AA333" s="9"/>
       <c r="AB333" s="9"/>
     </row>
-    <row r="334" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334" s="7">
         <v>330</v>
       </c>
@@ -38852,7 +38856,7 @@
       <c r="AA334" s="9"/>
       <c r="AB334" s="9"/>
     </row>
-    <row r="335" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="7">
         <v>331</v>
       </c>
@@ -38902,7 +38906,7 @@
       <c r="AA335" s="9"/>
       <c r="AB335" s="9"/>
     </row>
-    <row r="336" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336" s="7">
         <v>332</v>
       </c>
@@ -38952,7 +38956,7 @@
       <c r="AA336" s="9"/>
       <c r="AB336" s="9"/>
     </row>
-    <row r="337" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B337" s="7">
         <v>333</v>
       </c>
@@ -39002,7 +39006,7 @@
       <c r="AA337" s="9"/>
       <c r="AB337" s="9"/>
     </row>
-    <row r="338" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B338" s="7">
         <v>334</v>
       </c>
@@ -39052,7 +39056,7 @@
       <c r="AA338" s="9"/>
       <c r="AB338" s="9"/>
     </row>
-    <row r="339" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B339" s="7">
         <v>335</v>
       </c>
@@ -39102,7 +39106,7 @@
       <c r="AA339" s="9"/>
       <c r="AB339" s="9"/>
     </row>
-    <row r="340" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B340" s="7">
         <v>336</v>
       </c>
@@ -39150,7 +39154,7 @@
       <c r="AA340" s="9"/>
       <c r="AB340" s="9"/>
     </row>
-    <row r="341" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B341" s="7">
         <v>337</v>
       </c>
@@ -39202,7 +39206,7 @@
       <c r="AA341" s="9"/>
       <c r="AB341" s="9"/>
     </row>
-    <row r="342" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B342" s="7">
         <v>338</v>
       </c>
@@ -39250,7 +39254,7 @@
       <c r="AA342" s="9"/>
       <c r="AB342" s="9"/>
     </row>
-    <row r="343" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B343" s="7">
         <v>339</v>
       </c>
@@ -39302,7 +39306,7 @@
       <c r="AA343" s="9"/>
       <c r="AB343" s="9"/>
     </row>
-    <row r="344" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="7">
         <v>340</v>
       </c>
@@ -39350,7 +39354,7 @@
       <c r="AA344" s="9"/>
       <c r="AB344" s="9"/>
     </row>
-    <row r="345" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B345" s="7">
         <v>341</v>
       </c>
@@ -39406,7 +39410,7 @@
       </c>
       <c r="AB345" s="9"/>
     </row>
-    <row r="346" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B346" s="7">
         <v>342</v>
       </c>
@@ -39458,7 +39462,7 @@
       <c r="AA346" s="9"/>
       <c r="AB346" s="9"/>
     </row>
-    <row r="347" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B347" s="7">
         <v>343</v>
       </c>
@@ -39510,7 +39514,7 @@
       <c r="AA347" s="9"/>
       <c r="AB347" s="9"/>
     </row>
-    <row r="348" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B348" s="7">
         <v>344</v>
       </c>
@@ -39562,7 +39566,7 @@
       <c r="AA348" s="9"/>
       <c r="AB348" s="9"/>
     </row>
-    <row r="349" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B349" s="7">
         <v>345</v>
       </c>
@@ -39614,7 +39618,7 @@
       <c r="AA349" s="9"/>
       <c r="AB349" s="9"/>
     </row>
-    <row r="350" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B350" s="7">
         <v>346</v>
       </c>
@@ -39666,7 +39670,7 @@
       <c r="AA350" s="9"/>
       <c r="AB350" s="9"/>
     </row>
-    <row r="351" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B351" s="7">
         <v>347</v>
       </c>
@@ -39718,7 +39722,7 @@
       <c r="AA351" s="9"/>
       <c r="AB351" s="9"/>
     </row>
-    <row r="352" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B352" s="7">
         <v>348</v>
       </c>
@@ -39770,7 +39774,7 @@
       <c r="AA352" s="9"/>
       <c r="AB352" s="9"/>
     </row>
-    <row r="353" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B353" s="7">
         <v>349</v>
       </c>
@@ -39822,7 +39826,7 @@
       <c r="AA353" s="9"/>
       <c r="AB353" s="9"/>
     </row>
-    <row r="354" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B354" s="7">
         <v>350</v>
       </c>
@@ -39874,7 +39878,7 @@
       <c r="AA354" s="9"/>
       <c r="AB354" s="9"/>
     </row>
-    <row r="355" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B355" s="7">
         <v>351</v>
       </c>
@@ -39926,7 +39930,7 @@
       <c r="AA355" s="9"/>
       <c r="AB355" s="9"/>
     </row>
-    <row r="356" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B356" s="7">
         <v>352</v>
       </c>
@@ -39978,7 +39982,7 @@
       <c r="AA356" s="9"/>
       <c r="AB356" s="9"/>
     </row>
-    <row r="357" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B357" s="7">
         <v>353</v>
       </c>
@@ -40030,7 +40034,7 @@
       <c r="AA357" s="9"/>
       <c r="AB357" s="9"/>
     </row>
-    <row r="358" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B358" s="7">
         <v>354</v>
       </c>
@@ -40082,7 +40086,7 @@
       <c r="AA358" s="9"/>
       <c r="AB358" s="9"/>
     </row>
-    <row r="359" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B359" s="7">
         <v>355</v>
       </c>
@@ -40130,7 +40134,7 @@
       <c r="AA359" s="9"/>
       <c r="AB359" s="9"/>
     </row>
-    <row r="360" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B360" s="7">
         <v>356</v>
       </c>
@@ -40186,7 +40190,7 @@
       </c>
       <c r="AB360" s="9"/>
     </row>
-    <row r="361" spans="2:28" ht="28" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B361" s="7">
         <v>357</v>
       </c>
@@ -40242,7 +40246,7 @@
       </c>
       <c r="AB361" s="9"/>
     </row>
-    <row r="362" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B362" s="7">
         <v>358</v>
       </c>
@@ -40290,7 +40294,7 @@
       <c r="AA362" s="9"/>
       <c r="AB362" s="9"/>
     </row>
-    <row r="363" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B363" s="7">
         <v>359</v>
       </c>
@@ -40346,7 +40350,7 @@
       </c>
       <c r="AB363" s="9"/>
     </row>
-    <row r="364" spans="2:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B364" s="7">
         <v>360</v>
       </c>
@@ -40394,7 +40398,7 @@
       <c r="AA364" s="9"/>
       <c r="AB364" s="9"/>
     </row>
-    <row r="365" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B365" s="7">
         <v>361</v>
       </c>
@@ -40450,7 +40454,7 @@
       </c>
       <c r="AB365" s="9"/>
     </row>
-    <row r="366" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B366" s="7">
         <v>362</v>
       </c>
@@ -40506,7 +40510,7 @@
       </c>
       <c r="AB366" s="9"/>
     </row>
-    <row r="367" spans="2:28" ht="28" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B367" s="7">
         <v>363</v>
       </c>
@@ -40562,7 +40566,7 @@
       </c>
       <c r="AB367" s="9"/>
     </row>
-    <row r="368" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="7">
         <v>364</v>
       </c>
@@ -40610,7 +40614,7 @@
       <c r="AA368" s="9"/>
       <c r="AB368" s="9"/>
     </row>
-    <row r="369" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B369" s="7">
         <v>365</v>
       </c>
@@ -40666,7 +40670,7 @@
       </c>
       <c r="AB369" s="9"/>
     </row>
-    <row r="370" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B370" s="7">
         <v>366</v>
       </c>
@@ -40714,7 +40718,7 @@
       <c r="AA370" s="9"/>
       <c r="AB370" s="9"/>
     </row>
-    <row r="371" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B371" s="7">
         <v>367</v>
       </c>
@@ -40770,7 +40774,7 @@
       </c>
       <c r="AB371" s="9"/>
     </row>
-    <row r="372" spans="2:28" ht="28" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B372" s="7">
         <v>368</v>
       </c>
@@ -40826,7 +40830,7 @@
       </c>
       <c r="AB372" s="9"/>
     </row>
-    <row r="373" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B373" s="7">
         <v>369</v>
       </c>
@@ -40874,7 +40878,7 @@
       <c r="AA373" s="9"/>
       <c r="AB373" s="9"/>
     </row>
-    <row r="374" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B374" s="7">
         <v>370</v>
       </c>
@@ -40930,7 +40934,7 @@
       </c>
       <c r="AB374" s="9"/>
     </row>
-    <row r="375" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B375" s="7">
         <v>371</v>
       </c>
@@ -40980,7 +40984,7 @@
       <c r="AA375" s="9"/>
       <c r="AB375" s="9"/>
     </row>
-    <row r="376" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B376" s="7">
         <v>372</v>
       </c>
@@ -41030,7 +41034,7 @@
       <c r="AA376" s="9"/>
       <c r="AB376" s="9"/>
     </row>
-    <row r="377" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B377" s="7">
         <v>373</v>
       </c>
@@ -41078,7 +41082,7 @@
       <c r="AA377" s="9"/>
       <c r="AB377" s="9"/>
     </row>
-    <row r="378" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B378" s="7">
         <v>374</v>
       </c>
@@ -41126,7 +41130,7 @@
       <c r="AA378" s="9"/>
       <c r="AB378" s="9"/>
     </row>
-    <row r="379" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B379" s="7">
         <v>375</v>
       </c>
@@ -41178,7 +41182,7 @@
       <c r="AA379" s="9"/>
       <c r="AB379" s="9"/>
     </row>
-    <row r="380" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B380" s="7">
         <v>376</v>
       </c>
@@ -41230,7 +41234,7 @@
       <c r="AA380" s="9"/>
       <c r="AB380" s="9"/>
     </row>
-    <row r="381" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B381" s="7">
         <v>377</v>
       </c>
@@ -41278,7 +41282,7 @@
       <c r="AA381" s="9"/>
       <c r="AB381" s="9"/>
     </row>
-    <row r="382" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B382" s="7">
         <v>378</v>
       </c>
@@ -41330,7 +41334,7 @@
       <c r="AA382" s="9"/>
       <c r="AB382" s="9"/>
     </row>
-    <row r="383" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B383" s="7">
         <v>379</v>
       </c>
@@ -41382,7 +41386,7 @@
       <c r="AA383" s="9"/>
       <c r="AB383" s="9"/>
     </row>
-    <row r="384" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B384" s="7">
         <v>380</v>
       </c>
@@ -41430,7 +41434,7 @@
       <c r="AA384" s="9"/>
       <c r="AB384" s="9"/>
     </row>
-    <row r="385" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B385" s="7">
         <v>381</v>
       </c>
@@ -41478,7 +41482,7 @@
       <c r="AA385" s="9"/>
       <c r="AB385" s="9"/>
     </row>
-    <row r="386" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B386" s="7">
         <v>382</v>
       </c>
@@ -41530,7 +41534,7 @@
       <c r="AA386" s="9"/>
       <c r="AB386" s="9"/>
     </row>
-    <row r="387" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B387" s="7">
         <v>383</v>
       </c>
@@ -41582,7 +41586,7 @@
       <c r="AA387" s="9"/>
       <c r="AB387" s="9"/>
     </row>
-    <row r="388" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B388" s="7">
         <v>384</v>
       </c>
@@ -41630,7 +41634,7 @@
       <c r="AA388" s="9"/>
       <c r="AB388" s="9"/>
     </row>
-    <row r="389" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B389" s="7">
         <v>385</v>
       </c>
@@ -41678,7 +41682,7 @@
       <c r="AA389" s="9"/>
       <c r="AB389" s="9"/>
     </row>
-    <row r="390" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B390" s="7">
         <v>386</v>
       </c>
@@ -41730,7 +41734,7 @@
       <c r="AA390" s="9"/>
       <c r="AB390" s="9"/>
     </row>
-    <row r="391" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B391" s="7">
         <v>387</v>
       </c>
@@ -41778,7 +41782,7 @@
       <c r="AA391" s="9"/>
       <c r="AB391" s="9"/>
     </row>
-    <row r="392" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B392" s="7">
         <v>388</v>
       </c>
@@ -41830,7 +41834,7 @@
       <c r="AA392" s="9"/>
       <c r="AB392" s="9"/>
     </row>
-    <row r="393" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="7">
         <v>389</v>
       </c>
@@ -41878,7 +41882,7 @@
       <c r="AA393" s="9"/>
       <c r="AB393" s="9"/>
     </row>
-    <row r="394" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="7">
         <v>390</v>
       </c>
@@ -41926,7 +41930,7 @@
       <c r="AA394" s="9"/>
       <c r="AB394" s="9"/>
     </row>
-    <row r="395" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B395" s="7">
         <v>391</v>
       </c>
@@ -41978,7 +41982,7 @@
       <c r="AA395" s="9"/>
       <c r="AB395" s="9"/>
     </row>
-    <row r="396" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B396" s="7">
         <v>392</v>
       </c>
@@ -42026,7 +42030,7 @@
       <c r="AA396" s="9"/>
       <c r="AB396" s="9"/>
     </row>
-    <row r="397" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B397" s="7">
         <v>393</v>
       </c>
@@ -42082,7 +42086,7 @@
       </c>
       <c r="AB397" s="9"/>
     </row>
-    <row r="398" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B398" s="7">
         <v>394</v>
       </c>
@@ -42134,7 +42138,7 @@
       <c r="AA398" s="9"/>
       <c r="AB398" s="9"/>
     </row>
-    <row r="399" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B399" s="7">
         <v>395</v>
       </c>
@@ -42184,7 +42188,7 @@
       <c r="AA399" s="9"/>
       <c r="AB399" s="9"/>
     </row>
-    <row r="400" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B400" s="7">
         <v>396</v>
       </c>
@@ -42234,7 +42238,7 @@
       <c r="AA400" s="9"/>
       <c r="AB400" s="9"/>
     </row>
-    <row r="401" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B401" s="7">
         <v>397</v>
       </c>
@@ -42282,7 +42286,7 @@
       <c r="AA401" s="9"/>
       <c r="AB401" s="9"/>
     </row>
-    <row r="402" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402" s="7">
         <v>398</v>
       </c>
@@ -42332,7 +42336,7 @@
       <c r="AA402" s="9"/>
       <c r="AB402" s="9"/>
     </row>
-    <row r="403" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403" s="7">
         <v>399</v>
       </c>
@@ -42380,7 +42384,7 @@
       <c r="AA403" s="9"/>
       <c r="AB403" s="9"/>
     </row>
-    <row r="404" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B404" s="7">
         <v>400</v>
       </c>
@@ -42432,7 +42436,7 @@
       <c r="AA404" s="9"/>
       <c r="AB404" s="9"/>
     </row>
-    <row r="405" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B405" s="7">
         <v>401</v>
       </c>
@@ -42480,7 +42484,7 @@
       <c r="AA405" s="9"/>
       <c r="AB405" s="9"/>
     </row>
-    <row r="406" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B406" s="7">
         <v>402</v>
       </c>
@@ -42528,7 +42532,7 @@
       <c r="AA406" s="9"/>
       <c r="AB406" s="9"/>
     </row>
-    <row r="407" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B407" s="7">
         <v>403</v>
       </c>
@@ -42580,7 +42584,7 @@
       <c r="AA407" s="9"/>
       <c r="AB407" s="9"/>
     </row>
-    <row r="408" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B408" s="7">
         <v>404</v>
       </c>
@@ -42628,7 +42632,7 @@
       <c r="AA408" s="9"/>
       <c r="AB408" s="9"/>
     </row>
-    <row r="409" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B409" s="7">
         <v>405</v>
       </c>
@@ -42680,7 +42684,7 @@
       <c r="AA409" s="9"/>
       <c r="AB409" s="9"/>
     </row>
-    <row r="410" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B410" s="7">
         <v>406</v>
       </c>
@@ -42732,7 +42736,7 @@
       <c r="AA410" s="9"/>
       <c r="AB410" s="9"/>
     </row>
-    <row r="411" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B411" s="7">
         <v>407</v>
       </c>
@@ -42782,7 +42786,7 @@
       <c r="AA411" s="9"/>
       <c r="AB411" s="9"/>
     </row>
-    <row r="412" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B412" s="7">
         <v>408</v>
       </c>
@@ -42834,7 +42838,7 @@
       <c r="AA412" s="9"/>
       <c r="AB412" s="9"/>
     </row>
-    <row r="413" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B413" s="7">
         <v>409</v>
       </c>
@@ -42884,7 +42888,7 @@
       <c r="AA413" s="9"/>
       <c r="AB413" s="9"/>
     </row>
-    <row r="414" spans="2:28" ht="28" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B414" s="7">
         <v>410</v>
       </c>
@@ -42940,7 +42944,7 @@
       </c>
       <c r="AB414" s="9"/>
     </row>
-    <row r="415" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="7">
         <v>411</v>
       </c>
@@ -42988,7 +42992,7 @@
       <c r="AA415" s="9"/>
       <c r="AB415" s="9"/>
     </row>
-    <row r="416" spans="2:28" ht="84" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:28" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B416" s="7">
         <v>412</v>
       </c>
@@ -43044,7 +43048,7 @@
       </c>
       <c r="AB416" s="9"/>
     </row>
-    <row r="417" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="7">
         <v>413</v>
       </c>
@@ -43092,7 +43096,7 @@
       <c r="AA417" s="9"/>
       <c r="AB417" s="9"/>
     </row>
-    <row r="418" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B418" s="7">
         <v>414</v>
       </c>
@@ -43144,7 +43148,7 @@
       <c r="AA418" s="9"/>
       <c r="AB418" s="9"/>
     </row>
-    <row r="419" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B419" s="7">
         <v>415</v>
       </c>
@@ -43200,7 +43204,7 @@
       </c>
       <c r="AB419" s="9"/>
     </row>
-    <row r="420" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B420" s="7">
         <v>416</v>
       </c>
@@ -43248,7 +43252,7 @@
       <c r="AA420" s="9"/>
       <c r="AB420" s="9"/>
     </row>
-    <row r="421" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B421" s="7">
         <v>417</v>
       </c>
@@ -43301,7 +43305,7 @@
       <c r="AA421" s="9"/>
       <c r="AB421" s="9"/>
     </row>
-    <row r="422" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B422" s="7">
         <v>418</v>
       </c>
@@ -43353,7 +43357,7 @@
       <c r="AA422" s="9"/>
       <c r="AB422" s="9"/>
     </row>
-    <row r="423" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B423" s="7">
         <v>419</v>
       </c>
@@ -43401,7 +43405,7 @@
       <c r="AA423" s="9"/>
       <c r="AB423" s="9"/>
     </row>
-    <row r="424" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B424" s="7">
         <v>420</v>
       </c>
@@ -43449,7 +43453,7 @@
       <c r="AA424" s="9"/>
       <c r="AB424" s="9"/>
     </row>
-    <row r="425" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B425" s="7">
         <v>421</v>
       </c>
@@ -43501,7 +43505,7 @@
       <c r="AA425" s="9"/>
       <c r="AB425" s="9"/>
     </row>
-    <row r="426" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B426" s="7">
         <v>422</v>
       </c>
@@ -43553,7 +43557,7 @@
       <c r="AA426" s="9"/>
       <c r="AB426" s="9"/>
     </row>
-    <row r="427" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B427" s="7">
         <v>423</v>
       </c>
@@ -43605,7 +43609,7 @@
       <c r="AA427" s="9"/>
       <c r="AB427" s="9"/>
     </row>
-    <row r="428" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B428" s="7">
         <v>424</v>
       </c>
@@ -43657,7 +43661,7 @@
       <c r="AA428" s="9"/>
       <c r="AB428" s="9"/>
     </row>
-    <row r="429" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B429" s="7">
         <v>425</v>
       </c>
@@ -43709,7 +43713,7 @@
       <c r="AA429" s="9"/>
       <c r="AB429" s="9"/>
     </row>
-    <row r="430" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B430" s="7">
         <v>426</v>
       </c>
@@ -43761,7 +43765,7 @@
       <c r="AA430" s="9"/>
       <c r="AB430" s="9"/>
     </row>
-    <row r="431" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431" s="7">
         <v>427</v>
       </c>
@@ -43811,7 +43815,7 @@
       <c r="AA431" s="9"/>
       <c r="AB431" s="9"/>
     </row>
-    <row r="432" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B432" s="7">
         <v>428</v>
       </c>
@@ -43865,7 +43869,7 @@
       <c r="AA432" s="9"/>
       <c r="AB432" s="9"/>
     </row>
-    <row r="433" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B433" s="7">
         <v>429</v>
       </c>
@@ -43917,7 +43921,7 @@
       <c r="AA433" s="9"/>
       <c r="AB433" s="9"/>
     </row>
-    <row r="434" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B434" s="7">
         <v>430</v>
       </c>
@@ -43973,7 +43977,7 @@
       </c>
       <c r="AB434" s="9"/>
     </row>
-    <row r="435" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B435" s="7">
         <v>431</v>
       </c>
@@ -44025,7 +44029,7 @@
       <c r="AA435" s="9"/>
       <c r="AB435" s="9"/>
     </row>
-    <row r="436" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B436" s="7">
         <v>432</v>
       </c>
@@ -44077,7 +44081,7 @@
       <c r="AA436" s="9"/>
       <c r="AB436" s="9"/>
     </row>
-    <row r="437" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B437" s="7">
         <v>433</v>
       </c>
@@ -44127,7 +44131,7 @@
       <c r="AA437" s="9"/>
       <c r="AB437" s="9"/>
     </row>
-    <row r="438" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B438" s="7">
         <v>434</v>
       </c>
@@ -44177,7 +44181,7 @@
       <c r="AA438" s="9"/>
       <c r="AB438" s="9"/>
     </row>
-    <row r="439" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:28" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B439" s="7">
         <v>435</v>
       </c>
@@ -44229,7 +44233,7 @@
       <c r="AA439" s="9"/>
       <c r="AB439" s="9"/>
     </row>
-    <row r="440" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B440" s="7">
         <v>436</v>
       </c>
@@ -44281,7 +44285,7 @@
       <c r="AA440" s="9"/>
       <c r="AB440" s="9"/>
     </row>
-    <row r="441" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B441" s="7">
         <v>437</v>
       </c>
@@ -44333,7 +44337,7 @@
       <c r="AA441" s="9"/>
       <c r="AB441" s="9"/>
     </row>
-    <row r="442" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B442" s="7">
         <v>438</v>
       </c>
@@ -44385,7 +44389,7 @@
       <c r="AA442" s="9"/>
       <c r="AB442" s="9"/>
     </row>
-    <row r="443" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B443" s="7">
         <v>439</v>
       </c>
@@ -44437,7 +44441,7 @@
       <c r="AA443" s="9"/>
       <c r="AB443" s="9"/>
     </row>
-    <row r="444" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B444" s="7">
         <v>440</v>
       </c>
@@ -44485,7 +44489,7 @@
       <c r="AA444" s="9"/>
       <c r="AB444" s="9"/>
     </row>
-    <row r="445" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B445" s="7">
         <v>441</v>
       </c>
@@ -44533,7 +44537,7 @@
       <c r="AA445" s="9"/>
       <c r="AB445" s="9"/>
     </row>
-    <row r="446" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="7">
         <v>442</v>
       </c>
@@ -44583,7 +44587,7 @@
       <c r="AA446" s="9"/>
       <c r="AB446" s="9"/>
     </row>
-    <row r="447" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="7">
         <v>443</v>
       </c>
@@ -44633,7 +44637,7 @@
       <c r="AA447" s="9"/>
       <c r="AB447" s="9"/>
     </row>
-    <row r="448" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B448" s="7">
         <v>444</v>
       </c>
@@ -44685,7 +44689,7 @@
       <c r="AA448" s="9"/>
       <c r="AB448" s="9"/>
     </row>
-    <row r="449" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="7">
         <v>445</v>
       </c>
@@ -44733,7 +44737,7 @@
       <c r="AA449" s="9"/>
       <c r="AB449" s="9"/>
     </row>
-    <row r="450" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B450" s="7">
         <v>446</v>
       </c>
@@ -44785,7 +44789,7 @@
       <c r="AA450" s="9"/>
       <c r="AB450" s="9"/>
     </row>
-    <row r="451" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="7">
         <v>447</v>
       </c>
@@ -44835,7 +44839,7 @@
       <c r="AA451" s="9"/>
       <c r="AB451" s="9"/>
     </row>
-    <row r="452" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452" s="7">
         <v>448</v>
       </c>
@@ -44885,7 +44889,7 @@
       <c r="AA452" s="9"/>
       <c r="AB452" s="9"/>
     </row>
-    <row r="453" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B453" s="7">
         <v>449</v>
       </c>
@@ -44935,7 +44939,7 @@
       <c r="AA453" s="9"/>
       <c r="AB453" s="9"/>
     </row>
-    <row r="454" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454" s="7">
         <v>450</v>
       </c>
@@ -44985,7 +44989,7 @@
       <c r="AA454" s="9"/>
       <c r="AB454" s="9"/>
     </row>
-    <row r="455" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:28" ht="57" x14ac:dyDescent="0.25">
       <c r="B455" s="7">
         <v>451</v>
       </c>
@@ -45037,7 +45041,7 @@
       <c r="AA455" s="9"/>
       <c r="AB455" s="9"/>
     </row>
-    <row r="456" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B456" s="7">
         <v>452</v>
       </c>
@@ -45087,7 +45091,7 @@
       <c r="AA456" s="9"/>
       <c r="AB456" s="9"/>
     </row>
-    <row r="457" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457" s="7">
         <v>453</v>
       </c>
@@ -45135,7 +45139,7 @@
       <c r="AA457" s="9"/>
       <c r="AB457" s="9"/>
     </row>
-    <row r="458" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B458" s="7">
         <v>454</v>
       </c>
@@ -45183,7 +45187,7 @@
       <c r="AA458" s="9"/>
       <c r="AB458" s="9"/>
     </row>
-    <row r="459" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B459" s="7">
         <v>455</v>
       </c>
@@ -45231,7 +45235,7 @@
       <c r="AA459" s="9"/>
       <c r="AB459" s="9"/>
     </row>
-    <row r="460" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B460" s="7">
         <v>456</v>
       </c>
@@ -45279,7 +45283,7 @@
       <c r="AA460" s="9"/>
       <c r="AB460" s="9"/>
     </row>
-    <row r="461" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B461" s="7">
         <v>457</v>
       </c>
@@ -45327,7 +45331,7 @@
       <c r="AA461" s="9"/>
       <c r="AB461" s="9"/>
     </row>
-    <row r="462" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B462" s="7">
         <v>458</v>
       </c>
@@ -45375,7 +45379,7 @@
       <c r="AA462" s="9"/>
       <c r="AB462" s="9"/>
     </row>
-    <row r="463" spans="2:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:28" ht="45" x14ac:dyDescent="0.25">
       <c r="B463" s="7">
         <v>459</v>
       </c>
@@ -45427,7 +45431,7 @@
       <c r="AA463" s="9"/>
       <c r="AB463" s="9"/>
     </row>
-    <row r="464" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B464" s="7">
         <v>460</v>
       </c>
@@ -45479,7 +45483,7 @@
       <c r="AA464" s="9"/>
       <c r="AB464" s="9"/>
     </row>
-    <row r="465" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="7">
         <v>461</v>
       </c>
@@ -45531,7 +45535,7 @@
       <c r="AA465" s="9"/>
       <c r="AB465" s="9"/>
     </row>
-    <row r="466" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="7">
         <v>462</v>
       </c>
@@ -45583,7 +45587,7 @@
       <c r="AA466" s="9"/>
       <c r="AB466" s="9"/>
     </row>
-    <row r="467" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="7">
         <v>463</v>
       </c>
@@ -45635,7 +45639,7 @@
       <c r="AA467" s="9"/>
       <c r="AB467" s="9"/>
     </row>
-    <row r="468" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B468" s="7">
         <v>464</v>
       </c>
@@ -45687,7 +45691,7 @@
       <c r="AA468" s="9"/>
       <c r="AB468" s="9"/>
     </row>
-    <row r="469" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B469" s="7">
         <v>465</v>
       </c>
@@ -45739,7 +45743,7 @@
       <c r="AA469" s="9"/>
       <c r="AB469" s="9"/>
     </row>
-    <row r="470" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B470" s="7">
         <v>466</v>
       </c>
@@ -45791,7 +45795,7 @@
       <c r="AA470" s="9"/>
       <c r="AB470" s="9"/>
     </row>
-    <row r="471" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="7">
         <v>467</v>
       </c>
@@ -45843,7 +45847,7 @@
       <c r="AA471" s="9"/>
       <c r="AB471" s="9"/>
     </row>
-    <row r="472" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B472" s="7">
         <v>468</v>
       </c>
@@ -45895,7 +45899,7 @@
       <c r="AA472" s="9"/>
       <c r="AB472" s="9"/>
     </row>
-    <row r="473" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="7">
         <v>469</v>
       </c>
@@ -45947,7 +45951,7 @@
       <c r="AA473" s="9"/>
       <c r="AB473" s="9"/>
     </row>
-    <row r="474" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="7">
         <v>470</v>
       </c>
@@ -45999,7 +46003,7 @@
       <c r="AA474" s="9"/>
       <c r="AB474" s="9"/>
     </row>
-    <row r="475" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B475" s="7">
         <v>471</v>
       </c>
@@ -46051,7 +46055,7 @@
       <c r="AA475" s="9"/>
       <c r="AB475" s="9"/>
     </row>
-    <row r="476" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B476" s="7">
         <v>472</v>
       </c>
@@ -46103,7 +46107,7 @@
       <c r="AA476" s="9"/>
       <c r="AB476" s="9"/>
     </row>
-    <row r="477" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="7">
         <v>473</v>
       </c>
@@ -46155,7 +46159,7 @@
       <c r="AA477" s="9"/>
       <c r="AB477" s="9"/>
     </row>
-    <row r="478" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="7">
         <v>474</v>
       </c>
@@ -46207,7 +46211,7 @@
       <c r="AA478" s="9"/>
       <c r="AB478" s="9"/>
     </row>
-    <row r="479" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B479" s="7">
         <v>475</v>
       </c>
@@ -46259,7 +46263,7 @@
       <c r="AA479" s="9"/>
       <c r="AB479" s="9"/>
     </row>
-    <row r="480" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:28" ht="60" x14ac:dyDescent="0.25">
       <c r="B480" s="7">
         <v>476</v>
       </c>
@@ -46311,7 +46315,7 @@
       <c r="AA480" s="9"/>
       <c r="AB480" s="9"/>
     </row>
-    <row r="481" spans="2:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:28" ht="90" x14ac:dyDescent="0.25">
       <c r="B481" s="7">
         <v>477</v>
       </c>
@@ -46363,7 +46367,7 @@
       <c r="AA481" s="9"/>
       <c r="AB481" s="9"/>
     </row>
-    <row r="482" spans="2:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:28" ht="75" x14ac:dyDescent="0.25">
       <c r="B482" s="7">
         <v>478</v>
       </c>
@@ -46415,7 +46419,7 @@
       <c r="AA482" s="9"/>
       <c r="AB482" s="9"/>
     </row>
-    <row r="483" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:28" ht="60" x14ac:dyDescent="0.25">
       <c r="B483" s="7">
         <v>479</v>
       </c>
@@ -46467,7 +46471,7 @@
       <c r="AA483" s="9"/>
       <c r="AB483" s="9"/>
     </row>
-    <row r="484" spans="2:28" ht="87" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:28" ht="90" x14ac:dyDescent="0.25">
       <c r="B484" s="7">
         <v>480</v>
       </c>
@@ -46523,7 +46527,7 @@
       </c>
       <c r="AB484" s="9"/>
     </row>
-    <row r="485" spans="2:28" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:28" ht="90" x14ac:dyDescent="0.25">
       <c r="B485" s="7">
         <v>481</v>
       </c>
@@ -46575,7 +46579,7 @@
       <c r="AA485" s="9"/>
       <c r="AB485" s="9"/>
     </row>
-    <row r="486" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B486" s="7">
         <v>482</v>
       </c>
@@ -46623,7 +46627,7 @@
       <c r="AA486" s="9"/>
       <c r="AB486" s="9"/>
     </row>
-    <row r="487" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B487" s="7">
         <v>483</v>
       </c>
@@ -46671,7 +46675,7 @@
       <c r="AA487" s="9"/>
       <c r="AB487" s="9"/>
     </row>
-    <row r="488" spans="2:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:28" ht="75" x14ac:dyDescent="0.25">
       <c r="B488" s="7">
         <v>484</v>
       </c>
@@ -46722,7 +46726,7 @@
       <c r="AA488" s="9"/>
       <c r="AB488" s="9"/>
     </row>
-    <row r="489" spans="2:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:28" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="7">
         <v>485</v>
       </c>
@@ -46774,7 +46778,7 @@
       <c r="AA489" s="9"/>
       <c r="AB489" s="9"/>
     </row>
-    <row r="490" spans="2:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:28" ht="60" x14ac:dyDescent="0.25">
       <c r="B490" s="7">
         <v>486</v>
       </c>
@@ -46830,7 +46834,7 @@
       </c>
       <c r="AB490" s="9"/>
     </row>
-    <row r="491" spans="2:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:28" ht="60" x14ac:dyDescent="0.25">
       <c r="B491" s="7">
         <v>487</v>
       </c>
@@ -46886,7 +46890,7 @@
       </c>
       <c r="AB491" s="9"/>
     </row>
-    <row r="492" spans="2:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:28" ht="60" x14ac:dyDescent="0.25">
       <c r="B492" s="7">
         <v>488</v>
       </c>
@@ -46942,7 +46946,7 @@
       </c>
       <c r="AB492" s="9"/>
     </row>
-    <row r="493" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B493" s="7">
         <v>489</v>
       </c>
@@ -46990,7 +46994,7 @@
       <c r="AA493" s="9"/>
       <c r="AB493" s="9"/>
     </row>
-    <row r="494" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B494" s="7">
         <v>490</v>
       </c>
@@ -47040,7 +47044,7 @@
       <c r="AA494" s="9"/>
       <c r="AB494" s="9"/>
     </row>
-    <row r="495" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:28" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B495" s="7">
         <v>491</v>
       </c>
@@ -47088,7 +47092,7 @@
       <c r="AA495" s="9"/>
       <c r="AB495" s="9"/>
     </row>
-    <row r="496" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B496" s="7">
         <v>492</v>
       </c>
@@ -47136,7 +47140,7 @@
       <c r="AA496" s="9"/>
       <c r="AB496" s="9"/>
     </row>
-    <row r="497" spans="2:28" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B497" s="7">
         <v>493</v>
       </c>
@@ -47184,7 +47188,7 @@
       <c r="AA497" s="9"/>
       <c r="AB497" s="9"/>
     </row>
-    <row r="498" spans="2:28" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:28" ht="75" x14ac:dyDescent="0.25">
       <c r="B498" s="7">
         <v>494</v>
       </c>
@@ -47236,7 +47240,7 @@
       <c r="AA498" s="9"/>
       <c r="AB498" s="9"/>
     </row>
-    <row r="499" spans="2:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:28" ht="60" x14ac:dyDescent="0.25">
       <c r="B499" s="7">
         <v>495</v>
       </c>
@@ -47288,7 +47292,7 @@
       <c r="AA499" s="9"/>
       <c r="AB499" s="9"/>
     </row>
-    <row r="500" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B500" s="7">
         <v>496</v>
       </c>
@@ -47340,7 +47344,7 @@
       <c r="AA500" s="9"/>
       <c r="AB500" s="9"/>
     </row>
-    <row r="501" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B501" s="7">
         <v>497</v>
       </c>
@@ -47392,7 +47396,7 @@
       <c r="AA501" s="9"/>
       <c r="AB501" s="9"/>
     </row>
-    <row r="502" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:28" ht="45" x14ac:dyDescent="0.25">
       <c r="B502" s="7">
         <v>498</v>
       </c>
@@ -47444,7 +47448,7 @@
       <c r="AA502" s="9"/>
       <c r="AB502" s="9"/>
     </row>
-    <row r="503" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="7">
         <v>499</v>
       </c>
@@ -47496,7 +47500,7 @@
       <c r="AA503" s="9"/>
       <c r="AB503" s="9"/>
     </row>
-    <row r="504" spans="2:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="7">
         <v>500</v>
       </c>
@@ -47548,7 +47552,7 @@
       <c r="AA504" s="9"/>
       <c r="AB504" s="9"/>
     </row>
-    <row r="505" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B505" s="7">
         <v>501</v>
       </c>
@@ -47600,7 +47604,7 @@
       <c r="AA505" s="9"/>
       <c r="AB505" s="9"/>
     </row>
-    <row r="506" spans="2:28" ht="28" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:28" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B506" s="7">
         <v>502</v>
       </c>
@@ -47658,7 +47662,7 @@
       </c>
       <c r="AB506" s="9"/>
     </row>
-    <row r="507" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:28" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B507" s="7">
         <v>503</v>
       </c>
@@ -47712,7 +47716,7 @@
       </c>
       <c r="AB507" s="9"/>
     </row>
-    <row r="508" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B508" s="7">
         <v>504</v>
       </c>
@@ -47758,7 +47762,7 @@
       <c r="AA508" s="9"/>
       <c r="AB508" s="9"/>
     </row>
-    <row r="509" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B509" s="7">
         <v>505</v>
       </c>
@@ -47802,7 +47806,7 @@
       <c r="AA509" s="9"/>
       <c r="AB509" s="9"/>
     </row>
-    <row r="510" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:28" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B510" s="7">
         <v>506</v>
       </c>
@@ -47852,7 +47856,7 @@
       <c r="AA510" s="9"/>
       <c r="AB510" s="9"/>
     </row>
-    <row r="511" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B511" s="7">
         <v>507</v>
       </c>
@@ -47902,7 +47906,7 @@
       <c r="AA511" s="9"/>
       <c r="AB511" s="9"/>
     </row>
-    <row r="512" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B512" s="7">
         <v>508</v>
       </c>
@@ -47952,7 +47956,7 @@
       <c r="AA512" s="9"/>
       <c r="AB512" s="9"/>
     </row>
-    <row r="513" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B513" s="7">
         <v>509</v>
       </c>
@@ -48002,7 +48006,7 @@
       <c r="AA513" s="9"/>
       <c r="AB513" s="9"/>
     </row>
-    <row r="514" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B514" s="7">
         <v>510</v>
       </c>
@@ -48052,7 +48056,7 @@
       <c r="AA514" s="9"/>
       <c r="AB514" s="9"/>
     </row>
-    <row r="515" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:28" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B515" s="7">
         <v>511</v>
       </c>
@@ -48102,7 +48106,7 @@
       <c r="AA515" s="9"/>
       <c r="AB515" s="9"/>
     </row>
-    <row r="516" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B516" s="7">
         <v>512</v>
       </c>
@@ -48156,7 +48160,7 @@
       <c r="AA516" s="9"/>
       <c r="AB516" s="9"/>
     </row>
-    <row r="517" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B517" s="7">
         <v>513</v>
       </c>
@@ -48210,7 +48214,7 @@
       <c r="AA517" s="9"/>
       <c r="AB517" s="9"/>
     </row>
-    <row r="518" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B518" s="7">
         <v>514</v>
       </c>
@@ -48264,7 +48268,7 @@
       <c r="AA518" s="9"/>
       <c r="AB518" s="9"/>
     </row>
-    <row r="519" spans="2:28" ht="84" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B519" s="7">
         <v>515</v>
       </c>
@@ -48318,7 +48322,7 @@
       <c r="AA519" s="9"/>
       <c r="AB519" s="9"/>
     </row>
-    <row r="520" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B520" s="7">
         <v>516</v>
       </c>
@@ -48372,7 +48376,7 @@
       <c r="AA520" s="9"/>
       <c r="AB520" s="9"/>
     </row>
-    <row r="521" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B521" s="7">
         <v>517</v>
       </c>
@@ -48426,7 +48430,7 @@
       <c r="AA521" s="9"/>
       <c r="AB521" s="9"/>
     </row>
-    <row r="522" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B522" s="7">
         <v>518</v>
       </c>
@@ -48480,7 +48484,7 @@
       <c r="AA522" s="9"/>
       <c r="AB522" s="9"/>
     </row>
-    <row r="523" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B523" s="7">
         <v>519</v>
       </c>
@@ -48534,7 +48538,7 @@
       <c r="AA523" s="9"/>
       <c r="AB523" s="9"/>
     </row>
-    <row r="524" spans="2:28" ht="126" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:28" ht="142.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B524" s="7">
         <v>520</v>
       </c>
@@ -48588,7 +48592,7 @@
       <c r="AA524" s="9"/>
       <c r="AB524" s="9"/>
     </row>
-    <row r="525" spans="2:28" ht="98" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:28" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="B525" s="7">
         <v>521</v>
       </c>
@@ -48642,7 +48646,7 @@
       <c r="AA525" s="9"/>
       <c r="AB525" s="9"/>
     </row>
-    <row r="526" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:28" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B526" s="7">
         <v>522</v>
       </c>
@@ -48696,7 +48700,7 @@
       <c r="AA526" s="9"/>
       <c r="AB526" s="9"/>
     </row>
-    <row r="527" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B527" s="7">
         <v>523</v>
       </c>
@@ -48750,7 +48754,7 @@
       <c r="AA527" s="9"/>
       <c r="AB527" s="9"/>
     </row>
-    <row r="528" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B528" s="7">
         <v>524</v>
       </c>
@@ -48798,7 +48802,7 @@
       <c r="AA528" s="9"/>
       <c r="AB528" s="9"/>
     </row>
-    <row r="529" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B529" s="7">
         <v>525</v>
       </c>
@@ -48850,7 +48854,7 @@
       <c r="AA529" s="9"/>
       <c r="AB529" s="9"/>
     </row>
-    <row r="530" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B530" s="7">
         <v>526</v>
       </c>
@@ -48900,7 +48904,7 @@
       <c r="AA530" s="9"/>
       <c r="AB530" s="9"/>
     </row>
-    <row r="531" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B531" s="7">
         <v>527</v>
       </c>
@@ -48952,7 +48956,7 @@
       <c r="AA531" s="9"/>
       <c r="AB531" s="9"/>
     </row>
-    <row r="532" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B532" s="7">
         <v>528</v>
       </c>
@@ -49004,7 +49008,7 @@
       <c r="AA532" s="9"/>
       <c r="AB532" s="9"/>
     </row>
-    <row r="533" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B533" s="7">
         <v>529</v>
       </c>
@@ -49054,7 +49058,7 @@
       <c r="AA533" s="9"/>
       <c r="AB533" s="9"/>
     </row>
-    <row r="534" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B534" s="7">
         <v>530</v>
       </c>
@@ -49104,7 +49108,7 @@
       <c r="AA534" s="9"/>
       <c r="AB534" s="9"/>
     </row>
-    <row r="535" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B535" s="7">
         <v>531</v>
       </c>
@@ -49154,7 +49158,7 @@
       <c r="AA535" s="9"/>
       <c r="AB535" s="9"/>
     </row>
-    <row r="536" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B536" s="7">
         <v>532</v>
       </c>
@@ -49204,7 +49208,7 @@
       <c r="AA536" s="9"/>
       <c r="AB536" s="9"/>
     </row>
-    <row r="537" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B537" s="7">
         <v>533</v>
       </c>
@@ -49254,7 +49258,7 @@
       <c r="AA537" s="9"/>
       <c r="AB537" s="9"/>
     </row>
-    <row r="538" spans="2:28" ht="70" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B538" s="7">
         <v>534</v>
       </c>
@@ -49304,7 +49308,7 @@
       <c r="AA538" s="9"/>
       <c r="AB538" s="9"/>
     </row>
-    <row r="539" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B539" s="7">
         <v>535</v>
       </c>
@@ -49354,7 +49358,7 @@
       <c r="AA539" s="9"/>
       <c r="AB539" s="9"/>
     </row>
-    <row r="540" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B540" s="7">
         <v>536</v>
       </c>
@@ -49406,7 +49410,7 @@
       <c r="AA540" s="9"/>
       <c r="AB540" s="9"/>
     </row>
-    <row r="541" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B541" s="7">
         <v>537</v>
       </c>
@@ -49458,7 +49462,7 @@
       <c r="AA541" s="9"/>
       <c r="AB541" s="9"/>
     </row>
-    <row r="542" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B542" s="7">
         <v>538</v>
       </c>
@@ -49510,7 +49514,7 @@
       <c r="AA542" s="9"/>
       <c r="AB542" s="9"/>
     </row>
-    <row r="543" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B543" s="7">
         <v>539</v>
       </c>
@@ -49560,7 +49564,7 @@
       <c r="AA543" s="9"/>
       <c r="AB543" s="9"/>
     </row>
-    <row r="544" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B544" s="7">
         <v>540</v>
       </c>
@@ -49610,7 +49614,7 @@
       <c r="AA544" s="9"/>
       <c r="AB544" s="9"/>
     </row>
-    <row r="545" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B545" s="7">
         <v>541</v>
       </c>
@@ -49660,7 +49664,7 @@
       <c r="AA545" s="9"/>
       <c r="AB545" s="9"/>
     </row>
-    <row r="546" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B546" s="7">
         <v>542</v>
       </c>
@@ -49712,7 +49716,7 @@
       <c r="AA546" s="9"/>
       <c r="AB546" s="9"/>
     </row>
-    <row r="547" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B547" s="7">
         <v>543</v>
       </c>
@@ -49762,7 +49766,7 @@
       <c r="AA547" s="9"/>
       <c r="AB547" s="9"/>
     </row>
-    <row r="548" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B548" s="7">
         <v>544</v>
       </c>
@@ -49812,7 +49816,7 @@
       <c r="AA548" s="9"/>
       <c r="AB548" s="9"/>
     </row>
-    <row r="549" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:28" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B549" s="7">
         <v>545</v>
       </c>
@@ -49862,7 +49866,7 @@
       <c r="AA549" s="9"/>
       <c r="AB549" s="9"/>
     </row>
-    <row r="550" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B550" s="7">
         <v>546</v>
       </c>
@@ -49912,7 +49916,7 @@
       <c r="AA550" s="9"/>
       <c r="AB550" s="9"/>
     </row>
-    <row r="551" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B551" s="7">
         <v>547</v>
       </c>
@@ -49962,7 +49966,7 @@
       <c r="AA551" s="9"/>
       <c r="AB551" s="9"/>
     </row>
-    <row r="552" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B552" s="7">
         <v>548</v>
       </c>
@@ -50012,7 +50016,7 @@
       <c r="AA552" s="9"/>
       <c r="AB552" s="9"/>
     </row>
-    <row r="553" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B553" s="7">
         <v>549</v>
       </c>
@@ -50062,7 +50066,7 @@
       <c r="AA553" s="9"/>
       <c r="AB553" s="9"/>
     </row>
-    <row r="554" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B554" s="7">
         <v>550</v>
       </c>
@@ -50112,7 +50116,7 @@
       <c r="AA554" s="9"/>
       <c r="AB554" s="9"/>
     </row>
-    <row r="555" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B555" s="7">
         <v>551</v>
       </c>
@@ -50162,7 +50166,7 @@
       <c r="AA555" s="9"/>
       <c r="AB555" s="9"/>
     </row>
-    <row r="556" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B556" s="7">
         <v>552</v>
       </c>
@@ -50212,7 +50216,7 @@
       <c r="AA556" s="9"/>
       <c r="AB556" s="9"/>
     </row>
-    <row r="557" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B557" s="7">
         <v>553</v>
       </c>
@@ -50262,7 +50266,7 @@
       <c r="AA557" s="9"/>
       <c r="AB557" s="9"/>
     </row>
-    <row r="558" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B558" s="7">
         <v>554</v>
       </c>
@@ -50312,7 +50316,7 @@
       <c r="AA558" s="9"/>
       <c r="AB558" s="9"/>
     </row>
-    <row r="559" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B559" s="7">
         <v>555</v>
       </c>
@@ -50362,7 +50366,7 @@
       <c r="AA559" s="9"/>
       <c r="AB559" s="9"/>
     </row>
-    <row r="560" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B560" s="7">
         <v>556</v>
       </c>
@@ -50412,7 +50416,7 @@
       <c r="AA560" s="9"/>
       <c r="AB560" s="9"/>
     </row>
-    <row r="561" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B561" s="7">
         <v>557</v>
       </c>
@@ -50462,7 +50466,7 @@
       <c r="AA561" s="9"/>
       <c r="AB561" s="9"/>
     </row>
-    <row r="562" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B562" s="7">
         <v>558</v>
       </c>
@@ -50512,7 +50516,7 @@
       <c r="AA562" s="9"/>
       <c r="AB562" s="9"/>
     </row>
-    <row r="563" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B563" s="7">
         <v>559</v>
       </c>
@@ -50562,7 +50566,7 @@
       <c r="AA563" s="9"/>
       <c r="AB563" s="9"/>
     </row>
-    <row r="564" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B564" s="7">
         <v>560</v>
       </c>
@@ -50612,7 +50616,7 @@
       <c r="AA564" s="9"/>
       <c r="AB564" s="9"/>
     </row>
-    <row r="565" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B565" s="7">
         <v>561</v>
       </c>
@@ -50662,7 +50666,7 @@
       <c r="AA565" s="9"/>
       <c r="AB565" s="9"/>
     </row>
-    <row r="566" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B566" s="7">
         <v>562</v>
       </c>
@@ -50712,7 +50716,7 @@
       <c r="AA566" s="9"/>
       <c r="AB566" s="9"/>
     </row>
-    <row r="567" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B567" s="7">
         <v>563</v>
       </c>
@@ -50762,7 +50766,7 @@
       <c r="AA567" s="9"/>
       <c r="AB567" s="9"/>
     </row>
-    <row r="568" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B568" s="7">
         <v>564</v>
       </c>
@@ -50812,7 +50816,7 @@
       <c r="AA568" s="9"/>
       <c r="AB568" s="9"/>
     </row>
-    <row r="569" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B569" s="7">
         <v>565</v>
       </c>
@@ -50862,7 +50866,7 @@
       <c r="AA569" s="9"/>
       <c r="AB569" s="9"/>
     </row>
-    <row r="570" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B570" s="7">
         <v>566</v>
       </c>
@@ -50912,7 +50916,7 @@
       <c r="AA570" s="9"/>
       <c r="AB570" s="9"/>
     </row>
-    <row r="571" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B571" s="7">
         <v>567</v>
       </c>
@@ -50962,7 +50966,7 @@
       <c r="AA571" s="9"/>
       <c r="AB571" s="9"/>
     </row>
-    <row r="572" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B572" s="7">
         <v>568</v>
       </c>
@@ -51014,7 +51018,7 @@
       <c r="AA572" s="9"/>
       <c r="AB572" s="9"/>
     </row>
-    <row r="573" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B573" s="7">
         <v>569</v>
       </c>
@@ -51064,7 +51068,7 @@
       <c r="AA573" s="9"/>
       <c r="AB573" s="9"/>
     </row>
-    <row r="574" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B574" s="7">
         <v>570</v>
       </c>
@@ -51114,7 +51118,7 @@
       <c r="AA574" s="9"/>
       <c r="AB574" s="9"/>
     </row>
-    <row r="575" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B575" s="7">
         <v>571</v>
       </c>
@@ -51164,7 +51168,7 @@
       <c r="AA575" s="9"/>
       <c r="AB575" s="9"/>
     </row>
-    <row r="576" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B576" s="7">
         <v>572</v>
       </c>
@@ -51216,7 +51220,7 @@
       <c r="AA576" s="9"/>
       <c r="AB576" s="9"/>
     </row>
-    <row r="577" spans="2:28" ht="56" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B577" s="7">
         <v>573</v>
       </c>
@@ -51266,7 +51270,7 @@
       <c r="AA577" s="9"/>
       <c r="AB577" s="9"/>
     </row>
-    <row r="578" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B578" s="7">
         <v>574</v>
       </c>
@@ -51316,7 +51320,7 @@
       <c r="AA578" s="9"/>
       <c r="AB578" s="9"/>
     </row>
-    <row r="579" spans="2:28" ht="28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:28" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B579" s="7">
         <v>575</v>
       </c>
@@ -51366,7 +51370,7 @@
       <c r="AA579" s="9"/>
       <c r="AB579" s="9"/>
     </row>
-    <row r="580" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:28" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="B580" s="7">
         <v>576</v>
       </c>
@@ -51416,7 +51420,7 @@
       <c r="AA580" s="9"/>
       <c r="AB580" s="9"/>
     </row>
-    <row r="581" spans="2:28" ht="42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:28" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B581" s="7">
         <v>577</v>
       </c>
@@ -51464,7 +51468,7 @@
       <c r="AA581" s="9"/>
       <c r="AB581" s="9"/>
     </row>
-    <row r="582" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B582" s="7">
         <v>578</v>
       </c>
@@ -51504,7 +51508,7 @@
       <c r="AA582" s="9"/>
       <c r="AB582" s="9"/>
     </row>
-    <row r="583" spans="2:28" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B583" s="7">
         <v>579</v>
       </c>
@@ -51544,8 +51548,8 @@
       <c r="AA583" s="9"/>
       <c r="AB583" s="9"/>
     </row>
-    <row r="585" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="586" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="585" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="586" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I586" s="26" t="s">
         <v>1721</v>
       </c>
@@ -51574,21 +51578,6 @@
         <filter val="Vital?"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="P1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Approval Pending - Device Dependent"/>
-        <filter val="Approved by client"/>
-        <filter val="Detailing pending"/>
-        <filter val="Development In-Progress"/>
-        <filter val="Not started"/>
-        <filter val="Requirement Pending"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="D89:D90"/>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\git\mosip-docs-wiki-new\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0EA4A43-1D4A-4BC6-973B-B3C64CA12002}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -18,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$A$4:$AA$585</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G200" authorId="0" shapeId="0">
+    <comment ref="G200" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G224" authorId="0" shapeId="0">
+    <comment ref="G224" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4962" uniqueCount="1822">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6011,11 +6012,62 @@
 - Validate input CBEFF for Create and Update ID
 - Update existing CBEFF for Update ID request</t>
   </si>
+  <si>
+    <t>Pre-Registration</t>
+  </si>
+  <si>
+    <t>Cacencellation of Appointment</t>
+  </si>
+  <si>
+    <t>Cancel appointments based on change in working hours/exceptional holidays of a Registration Center</t>
+  </si>
+  <si>
+    <t>UI: Display working days of a Registration Center on Pre-Reg UI</t>
+  </si>
+  <si>
+    <t>Pre-Registration UI should display the working days for a Registration Center</t>
+  </si>
+  <si>
+    <t>API: Fetch weekdays for a Registration Center</t>
+  </si>
+  <si>
+    <t>As the MOSIP System, I should be able to fetch weekdays for a Regisration Center (Pre-Reg Dependency)</t>
+  </si>
+  <si>
+    <t>API: Fetch Exceptional Holidays for a Center ID</t>
+  </si>
+  <si>
+    <t>API: Change Center Holiday API to accommodate DB changes</t>
+  </si>
+  <si>
+    <t>API: Change Fetch Center API to accommodate DB changes</t>
+  </si>
+  <si>
+    <t>API: Validate status of a Center based on the packet generation date time</t>
+  </si>
+  <si>
+    <t>API: Change Sync API to accommodate DB change</t>
+  </si>
+  <si>
+    <t>As the MOSIP System, I should be able to fetch exceptional holidays for a Registration Center (Pre-Reg Dependency)</t>
+  </si>
+  <si>
+    <t>Update the API for fetching all the public holidays for a Registration Center to accommodate DB changs (Pre-Reg Dependency)</t>
+  </si>
+  <si>
+    <t>Update the API for fetching all the details of a Registration Center to accommodate DB Changes (Pre-Reg Depedency)</t>
+  </si>
+  <si>
+    <t>Update the API for fetching the status of a Registration Center based on the packet generation date (Reg-Proc Dependency)</t>
+  </si>
+  <si>
+    <t>Update the sync API for reg client to accommodate the DB changes (Reg Client Dependency)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6241,7 +6293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6371,6 +6423,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6378,6 +6433,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6409,7 +6473,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -6426,7 +6490,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="43693.497597222224" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="579">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Windows User" refreshedDate="43693.497597222224" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="579" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:Y585" sheet="Consolidated"/>
   </cacheSource>
@@ -21623,7 +21687,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22075,7 +22139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
@@ -22263,15 +22327,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB588"/>
+  <dimension ref="A1:AB596"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X258" sqref="X258"/>
+      <selection pane="bottomRight" activeCell="K592" sqref="K592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -22306,11 +22370,11 @@
   <sheetData>
     <row r="1" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
       <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.35">
@@ -23484,7 +23548,7 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
     </row>
-    <row r="28" spans="2:28" ht="140" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:28" ht="126" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -24057,7 +24121,7 @@
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
     </row>
-    <row r="41" spans="2:28" ht="154" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:28" ht="140" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -25012,7 +25076,7 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
     </row>
-    <row r="60" spans="2:28" ht="98" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:28" ht="84" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -25418,7 +25482,7 @@
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
     </row>
-    <row r="68" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -25965,7 +26029,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="79" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:28" ht="56" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -26532,7 +26596,7 @@
       <c r="C89" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="44" t="s">
+      <c r="D89" s="45" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -26579,7 +26643,7 @@
       <c r="C90" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="44"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="12" t="s">
         <v>18</v>
       </c>
@@ -28721,7 +28785,7 @@
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
     </row>
-    <row r="133" spans="2:28" ht="182" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:28" ht="168" x14ac:dyDescent="0.35">
       <c r="B133" s="7">
         <v>129</v>
       </c>
@@ -29803,7 +29867,7 @@
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
     </row>
-    <row r="154" spans="2:28" ht="280" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:28" ht="266" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>150</v>
       </c>
@@ -30923,7 +30987,7 @@
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
     </row>
-    <row r="176" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B176" s="7">
         <v>172</v>
       </c>
@@ -31029,7 +31093,7 @@
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
     </row>
-    <row r="178" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B178" s="7">
         <v>174</v>
       </c>
@@ -31082,7 +31146,7 @@
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
     </row>
-    <row r="179" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B179" s="7">
         <v>175</v>
       </c>
@@ -31467,7 +31531,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="186" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B186" s="7">
         <v>182</v>
       </c>
@@ -31575,7 +31639,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="188" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B188" s="7">
         <v>184</v>
       </c>
@@ -31732,7 +31796,7 @@
       <c r="AA190" s="9"/>
       <c r="AB190" s="9"/>
     </row>
-    <row r="191" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:28" ht="56" x14ac:dyDescent="0.35">
       <c r="B191" s="7">
         <v>187</v>
       </c>
@@ -31785,7 +31849,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="192" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>188</v>
       </c>
@@ -31893,7 +31957,7 @@
       </c>
       <c r="AB193" s="9"/>
     </row>
-    <row r="194" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:28" ht="56" x14ac:dyDescent="0.35">
       <c r="B194" s="7">
         <v>190</v>
       </c>
@@ -32449,7 +32513,7 @@
       </c>
       <c r="AB203" s="9"/>
     </row>
-    <row r="204" spans="2:28" ht="140" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:28" ht="126" x14ac:dyDescent="0.35">
       <c r="B204" s="7">
         <v>200</v>
       </c>
@@ -32508,7 +32572,7 @@
       </c>
       <c r="AB204" s="9"/>
     </row>
-    <row r="205" spans="2:28" ht="140" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:28" ht="126" x14ac:dyDescent="0.35">
       <c r="B205" s="7">
         <v>201</v>
       </c>
@@ -32979,7 +33043,7 @@
       <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
     </row>
-    <row r="214" spans="2:28" ht="140" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:28" ht="126" x14ac:dyDescent="0.35">
       <c r="B214" s="7">
         <v>210</v>
       </c>
@@ -38487,7 +38551,7 @@
       <c r="AA324" s="9"/>
       <c r="AB324" s="9"/>
     </row>
-    <row r="325" spans="2:28" ht="84" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:28" ht="70" x14ac:dyDescent="0.35">
       <c r="B325" s="7">
         <v>319</v>
       </c>
@@ -38622,7 +38686,7 @@
       <c r="AA327" s="9"/>
       <c r="AB327" s="9"/>
     </row>
-    <row r="328" spans="2:28" ht="84" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:28" ht="70" x14ac:dyDescent="0.35">
       <c r="B328" s="7">
         <v>322</v>
       </c>
@@ -38939,7 +39003,7 @@
       <c r="AA334" s="9"/>
       <c r="AB334" s="9"/>
     </row>
-    <row r="335" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:28" ht="56" x14ac:dyDescent="0.35">
       <c r="B335" s="7">
         <v>329</v>
       </c>
@@ -39845,7 +39909,7 @@
       <c r="AA352" s="9"/>
       <c r="AB352" s="9"/>
     </row>
-    <row r="353" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B353" s="7">
         <v>347</v>
       </c>
@@ -39897,7 +39961,7 @@
       <c r="AA353" s="9"/>
       <c r="AB353" s="9"/>
     </row>
-    <row r="354" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:28" ht="42" x14ac:dyDescent="0.35">
       <c r="B354" s="7">
         <v>348</v>
       </c>
@@ -48631,7 +48695,7 @@
         <v>21</v>
       </c>
       <c r="J524" s="28" t="str">
-        <f t="shared" ref="J524:J585" si="3">IF(I524="Vital", "P1", "P2")</f>
+        <f t="shared" ref="J524:J587" si="3">IF(I524="Vital", "P1", "P2")</f>
         <v>P2</v>
       </c>
       <c r="K524" s="12" t="s">
@@ -51615,11 +51679,11 @@
       <c r="H583" s="13" t="s">
         <v>1715</v>
       </c>
-      <c r="I583" s="13" t="s">
+      <c r="I583" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J583" s="28" t="str">
-        <f t="shared" si="3"/>
+      <c r="J583" s="44" t="str">
+        <f t="shared" ref="J583" si="4">IF(I583="Vital", "P1", "P2")</f>
         <v>P1</v>
       </c>
       <c r="K583" s="13" t="s">
@@ -51723,22 +51787,347 @@
       <c r="AA585" s="9"/>
       <c r="AB585" s="9"/>
     </row>
-    <row r="587" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="588" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I588" s="26" t="s">
+    <row r="586" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+      <c r="B586" s="51">
+        <v>578</v>
+      </c>
+      <c r="C586" s="9" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D586" s="9" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E586" s="44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F586" s="9" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G586" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H586" s="9" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I586" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J586" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
+      <c r="K586" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="L586" s="9"/>
+      <c r="M586" s="9"/>
+      <c r="N586" s="9">
+        <v>8</v>
+      </c>
+      <c r="X586" s="9"/>
+      <c r="AB586" s="9"/>
+    </row>
+    <row r="587" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+      <c r="B587" s="51">
+        <v>579</v>
+      </c>
+      <c r="C587" s="9" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D587" s="9" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E587" s="44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F587" s="9" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G587" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H587" s="9" t="s">
+        <v>1809</v>
+      </c>
+      <c r="I587" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J587" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>P1</v>
+      </c>
+      <c r="K587" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="L587" s="9"/>
+      <c r="M587" s="9"/>
+      <c r="N587" s="9">
+        <v>6</v>
+      </c>
+      <c r="X587" s="9"/>
+      <c r="AB587" s="9"/>
+    </row>
+    <row r="588" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+      <c r="B588" s="51">
+        <v>580</v>
+      </c>
+      <c r="C588" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D588" s="9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E588" s="44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F588" s="9" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G588" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H588" s="9" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I588" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J588" s="44" t="str">
+        <f t="shared" ref="J588:J593" si="5">IF(I588="Vital", "P1", "P2")</f>
+        <v>P1</v>
+      </c>
+      <c r="K588" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="L588" s="9"/>
+      <c r="M588" s="9"/>
+      <c r="N588" s="9">
+        <v>3</v>
+      </c>
+      <c r="X588" s="9"/>
+      <c r="AB588" s="9"/>
+    </row>
+    <row r="589" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+      <c r="B589" s="51">
+        <v>581</v>
+      </c>
+      <c r="C589" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D589" s="9" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E589" s="44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F589" s="9" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G589" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H589" s="9" t="s">
+        <v>1817</v>
+      </c>
+      <c r="I589" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J589" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>P1</v>
+      </c>
+      <c r="K589" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="L589" s="9"/>
+      <c r="M589" s="9"/>
+      <c r="N589" s="9">
+        <v>3</v>
+      </c>
+      <c r="X589" s="9"/>
+      <c r="AB589" s="9"/>
+    </row>
+    <row r="590" spans="2:28" ht="70" x14ac:dyDescent="0.35">
+      <c r="B590" s="51">
+        <v>582</v>
+      </c>
+      <c r="C590" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D590" s="9" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E590" s="44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F590" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G590" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H590" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I590" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J590" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>P1</v>
+      </c>
+      <c r="K590" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="L590" s="9"/>
+      <c r="M590" s="9"/>
+      <c r="N590" s="9">
+        <v>2</v>
+      </c>
+      <c r="X590" s="9"/>
+      <c r="AB590" s="9"/>
+    </row>
+    <row r="591" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+      <c r="B591" s="51">
+        <v>583</v>
+      </c>
+      <c r="C591" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D591" s="9" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E591" s="44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F591" s="9" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G591" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H591" s="9" t="s">
+        <v>1819</v>
+      </c>
+      <c r="I591" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J591" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>P1</v>
+      </c>
+      <c r="K591" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="L591" s="9"/>
+      <c r="M591" s="9"/>
+      <c r="N591" s="9">
+        <v>2</v>
+      </c>
+      <c r="X591" s="9"/>
+      <c r="AB591" s="9"/>
+    </row>
+    <row r="592" spans="2:28" ht="56" x14ac:dyDescent="0.35">
+      <c r="B592" s="51">
+        <v>584</v>
+      </c>
+      <c r="C592" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D592" s="9" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E592" s="44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F592" s="9" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G592" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H592" s="9" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I592" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J592" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>P1</v>
+      </c>
+      <c r="K592" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="L592" s="9"/>
+      <c r="M592" s="9"/>
+      <c r="N592" s="9">
+        <v>2</v>
+      </c>
+      <c r="X592" s="9"/>
+      <c r="AB592" s="9"/>
+    </row>
+    <row r="593" spans="2:28" ht="42" x14ac:dyDescent="0.35">
+      <c r="B593" s="51">
+        <v>585</v>
+      </c>
+      <c r="C593" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D593" s="9" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E593" s="44" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F593" s="9" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G593" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H593" s="9" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I593" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J593" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>P1</v>
+      </c>
+      <c r="K593" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="L593" s="9"/>
+      <c r="M593" s="9"/>
+      <c r="N593" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="X593" s="9"/>
+      <c r="AB593" s="9"/>
+    </row>
+    <row r="594" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E594" s="49"/>
+    </row>
+    <row r="595" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E595" s="50"/>
+    </row>
+    <row r="596" spans="2:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I596" s="26" t="s">
         <v>1720</v>
       </c>
-      <c r="J588" s="27"/>
-      <c r="K588" s="27"/>
-      <c r="L588" s="27"/>
-      <c r="M588" s="27"/>
-      <c r="N588" s="27">
-        <f>SUM(N5:N585)</f>
-        <v>4792.4499999999944</v>
+      <c r="J596" s="27"/>
+      <c r="K596" s="27"/>
+      <c r="L596" s="27"/>
+      <c r="M596" s="27"/>
+      <c r="N596" s="27">
+        <f>SUM(N5:N593)</f>
+        <v>4821.9499999999944</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AA585">
+  <autoFilter ref="A4:AA585" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="8">
       <filters>
         <filter val="Vital"/>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F12314F4-D169-432C-B231-F51E122DD6D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74456B4A-0FEB-47B3-9C92-E891FBD28D18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
     <sheet name="Consolidated" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$A$4:$AB$594</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$A$4:$AB$596</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5059" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="1852">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6148,6 +6148,24 @@
   </si>
   <si>
     <t>API-16</t>
+  </si>
+  <si>
+    <t>API: Implement Audits in Admin APIs</t>
+  </si>
+  <si>
+    <t>UI: Implement Audits in Admin Uis</t>
+  </si>
+  <si>
+    <t>MOS-28474</t>
+  </si>
+  <si>
+    <t>MOS-28475</t>
+  </si>
+  <si>
+    <t>API-17</t>
+  </si>
+  <si>
+    <t>UI-4</t>
   </si>
 </sst>
 </file>
@@ -6300,7 +6318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -6375,11 +6393,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6524,6 +6555,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6531,6 +6565,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22235,37 +22281,37 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -22273,7 +22319,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>595</v>
       </c>
@@ -22281,7 +22327,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>1725</v>
       </c>
@@ -22289,7 +22335,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>1718</v>
       </c>
@@ -22321,7 +22367,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>601</v>
       </c>
@@ -22353,7 +22399,7 @@
         <v>585.70000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>704</v>
       </c>
@@ -22377,7 +22423,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>1719</v>
       </c>
@@ -22417,58 +22463,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC597"/>
+  <dimension ref="A1:AC599"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M510" sqref="M510"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="12.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="8" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="12.81640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" style="8" customWidth="1"/>
+    <col min="13" max="14" width="12.81640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" style="8" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1796875" style="8" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="8" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="15.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.5703125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="43.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="15.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="43.54296875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="43.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.81640625" style="8" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="37.140625" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="8"/>
+    <col min="29" max="29" width="37.1796875" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="AA3" s="21"/>
     </row>
-    <row r="4" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1689</v>
       </c>
@@ -22554,7 +22600,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -22600,7 +22646,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -22656,7 +22702,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -22712,7 +22758,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -22768,7 +22814,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -22824,7 +22870,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -22880,7 +22926,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -22936,7 +22982,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -22992,7 +23038,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -23048,7 +23094,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -23096,7 +23142,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -23144,7 +23190,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -23190,7 +23236,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -23236,7 +23282,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -23280,7 +23326,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -23326,7 +23372,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -23370,7 +23416,7 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -23414,7 +23460,7 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -23456,7 +23502,7 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
     </row>
-    <row r="23" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -23500,7 +23546,7 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -23542,7 +23588,7 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -23584,7 +23630,7 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -23632,7 +23678,7 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
     </row>
-    <row r="27" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -23676,7 +23722,7 @@
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
     </row>
-    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -23722,7 +23768,7 @@
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
     </row>
-    <row r="29" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -23768,7 +23814,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
     </row>
-    <row r="30" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -23808,7 +23854,7 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -23848,7 +23894,7 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
     </row>
-    <row r="32" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -23894,7 +23940,7 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -23934,7 +23980,7 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
     </row>
-    <row r="34" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -23978,7 +24024,7 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -24020,7 +24066,7 @@
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="36" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -24068,7 +24114,7 @@
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -24116,7 +24162,7 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
     </row>
-    <row r="38" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -24168,7 +24214,7 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
     </row>
-    <row r="39" spans="2:29" s="16" customFormat="1" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" s="16" customFormat="1" ht="238" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -24218,7 +24264,7 @@
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
     </row>
-    <row r="40" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -24268,7 +24314,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
     </row>
-    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -24318,7 +24364,7 @@
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -24368,7 +24414,7 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -24418,7 +24464,7 @@
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -24474,7 +24520,7 @@
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
     </row>
-    <row r="45" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -24528,7 +24574,7 @@
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
     </row>
-    <row r="46" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -24586,7 +24632,7 @@
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
     </row>
-    <row r="47" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -24636,7 +24682,7 @@
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
     </row>
-    <row r="48" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -24684,7 +24730,7 @@
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -24734,7 +24780,7 @@
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
     </row>
-    <row r="50" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -24784,7 +24830,7 @@
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
     </row>
-    <row r="51" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -24832,7 +24878,7 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -24882,7 +24928,7 @@
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
     </row>
-    <row r="53" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -24934,7 +24980,7 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
     </row>
-    <row r="54" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -24986,7 +25032,7 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
     </row>
-    <row r="55" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -25038,7 +25084,7 @@
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
     </row>
-    <row r="56" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -25090,7 +25136,7 @@
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
     </row>
-    <row r="57" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -25152,7 +25198,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -25200,7 +25246,7 @@
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
     </row>
-    <row r="59" spans="2:29" ht="399" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -25252,7 +25298,7 @@
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -25306,7 +25352,7 @@
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
     </row>
-    <row r="61" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -25360,7 +25406,7 @@
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
     </row>
-    <row r="62" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B62" s="7">
         <v>58</v>
       </c>
@@ -25420,7 +25466,7 @@
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
     </row>
-    <row r="63" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>59</v>
       </c>
@@ -25480,7 +25526,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="64" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>60</v>
       </c>
@@ -25536,7 +25582,7 @@
       </c>
       <c r="AC64" s="9"/>
     </row>
-    <row r="65" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>61</v>
       </c>
@@ -25590,7 +25636,7 @@
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
     </row>
-    <row r="66" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B66" s="7">
         <v>62</v>
       </c>
@@ -25636,7 +25682,7 @@
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
     </row>
-    <row r="67" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B67" s="7">
         <v>63</v>
       </c>
@@ -25682,7 +25728,7 @@
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
     </row>
-    <row r="68" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -25746,7 +25792,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="69" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B69" s="7">
         <v>65</v>
       </c>
@@ -25794,7 +25840,7 @@
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
     </row>
-    <row r="70" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:29" ht="392" x14ac:dyDescent="0.35">
       <c r="B70" s="7">
         <v>66</v>
       </c>
@@ -25842,7 +25888,7 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
     </row>
-    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -25890,7 +25936,7 @@
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
     </row>
-    <row r="72" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -25936,7 +25982,7 @@
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B73" s="7">
         <v>69</v>
       </c>
@@ -25982,7 +26028,7 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
     </row>
-    <row r="74" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B74" s="7">
         <v>70</v>
       </c>
@@ -26030,7 +26076,7 @@
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
     </row>
-    <row r="75" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B75" s="7">
         <v>71</v>
       </c>
@@ -26082,7 +26128,7 @@
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
     </row>
-    <row r="76" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B76" s="7">
         <v>72</v>
       </c>
@@ -26138,7 +26184,7 @@
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
     </row>
-    <row r="77" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B77" s="7">
         <v>76</v>
       </c>
@@ -26198,7 +26244,7 @@
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
     </row>
-    <row r="78" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B78" s="7">
         <v>73</v>
       </c>
@@ -26260,7 +26306,7 @@
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
     </row>
-    <row r="79" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>74</v>
       </c>
@@ -26322,7 +26368,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="80" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B80" s="7">
         <v>75</v>
       </c>
@@ -26382,7 +26428,7 @@
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
     </row>
-    <row r="81" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B81" s="7">
         <v>77</v>
       </c>
@@ -26446,7 +26492,7 @@
       </c>
       <c r="AC81" s="9"/>
     </row>
-    <row r="82" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B82" s="7">
         <v>78</v>
       </c>
@@ -26510,7 +26556,7 @@
       </c>
       <c r="AC82" s="9"/>
     </row>
-    <row r="83" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B83" s="7">
         <v>79</v>
       </c>
@@ -26570,7 +26616,7 @@
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
     </row>
-    <row r="84" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B84" s="7">
         <v>80</v>
       </c>
@@ -26634,7 +26680,7 @@
       </c>
       <c r="AC84" s="9"/>
     </row>
-    <row r="85" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B85" s="7">
         <v>81</v>
       </c>
@@ -26696,7 +26742,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="86" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -26755,7 +26801,7 @@
       </c>
       <c r="AB86" s="9"/>
     </row>
-    <row r="87" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B87" s="7">
         <v>83</v>
       </c>
@@ -26803,7 +26849,7 @@
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
     </row>
-    <row r="88" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B88" s="7">
         <v>84</v>
       </c>
@@ -26867,7 +26913,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="89" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B89" s="7">
         <v>85</v>
       </c>
@@ -26927,7 +26973,7 @@
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
     </row>
-    <row r="90" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B90" s="7">
         <v>87</v>
       </c>
@@ -26979,14 +27025,14 @@
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
     </row>
-    <row r="91" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B91" s="7">
         <v>88</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D91" s="50" t="s">
         <v>148</v>
       </c>
       <c r="E91" s="12" t="s">
@@ -27027,14 +27073,14 @@
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
     </row>
-    <row r="92" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B92" s="7">
         <v>89</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="49"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="12" t="s">
         <v>18</v>
       </c>
@@ -27073,7 +27119,7 @@
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
     </row>
-    <row r="93" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B93" s="7">
         <v>90</v>
       </c>
@@ -27121,7 +27167,7 @@
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
     </row>
-    <row r="94" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B94" s="7">
         <v>91</v>
       </c>
@@ -27169,7 +27215,7 @@
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
     </row>
-    <row r="95" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B95" s="7">
         <v>92</v>
       </c>
@@ -27217,7 +27263,7 @@
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
     </row>
-    <row r="96" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B96" s="7">
         <v>93</v>
       </c>
@@ -27275,7 +27321,7 @@
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
     </row>
-    <row r="97" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B97" s="7">
         <v>94</v>
       </c>
@@ -27323,7 +27369,7 @@
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
     </row>
-    <row r="98" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B98" s="7">
         <v>95</v>
       </c>
@@ -27369,7 +27415,7 @@
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
     </row>
-    <row r="99" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B99" s="7">
         <v>96</v>
       </c>
@@ -27417,7 +27463,7 @@
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
     </row>
-    <row r="100" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B100" s="7">
         <v>97</v>
       </c>
@@ -27471,7 +27517,7 @@
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
     </row>
-    <row r="101" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B101" s="7">
         <v>98</v>
       </c>
@@ -27521,7 +27567,7 @@
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
     </row>
-    <row r="102" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <v>99</v>
       </c>
@@ -27569,7 +27615,7 @@
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
     </row>
-    <row r="103" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <v>100</v>
       </c>
@@ -27617,7 +27663,7 @@
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
     </row>
-    <row r="104" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B104" s="7">
         <v>101</v>
       </c>
@@ -27667,7 +27713,7 @@
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
     </row>
-    <row r="105" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B105" s="7">
         <v>102</v>
       </c>
@@ -27715,7 +27761,7 @@
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
     </row>
-    <row r="106" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B106" s="7">
         <v>103</v>
       </c>
@@ -27763,7 +27809,7 @@
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
     </row>
-    <row r="107" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B107" s="7">
         <v>104</v>
       </c>
@@ -27815,7 +27861,7 @@
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
     </row>
-    <row r="108" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B108" s="7">
         <v>105</v>
       </c>
@@ -27861,7 +27907,7 @@
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
     </row>
-    <row r="109" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B109" s="7">
         <v>106</v>
       </c>
@@ -27917,7 +27963,7 @@
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
     </row>
-    <row r="110" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:29" ht="406" x14ac:dyDescent="0.35">
       <c r="B110" s="7">
         <v>107</v>
       </c>
@@ -27969,7 +28015,7 @@
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
     </row>
-    <row r="111" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B111" s="7">
         <v>108</v>
       </c>
@@ -28025,7 +28071,7 @@
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
     </row>
-    <row r="112" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B112" s="7">
         <v>109</v>
       </c>
@@ -28077,7 +28123,7 @@
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
     </row>
-    <row r="113" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B113" s="7">
         <v>110</v>
       </c>
@@ -28133,7 +28179,7 @@
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
     </row>
-    <row r="114" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B114" s="7">
         <v>111</v>
       </c>
@@ -28185,7 +28231,7 @@
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
     </row>
-    <row r="115" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B115" s="7">
         <v>112</v>
       </c>
@@ -28237,7 +28283,7 @@
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
     </row>
-    <row r="116" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B116" s="7">
         <v>113</v>
       </c>
@@ -28289,7 +28335,7 @@
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
     </row>
-    <row r="117" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B117" s="7">
         <v>114</v>
       </c>
@@ -28341,7 +28387,7 @@
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
     </row>
-    <row r="118" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B118" s="7">
         <v>115</v>
       </c>
@@ -28399,7 +28445,7 @@
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
     </row>
-    <row r="119" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B119" s="7">
         <v>116</v>
       </c>
@@ -28455,7 +28501,7 @@
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
     </row>
-    <row r="120" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B120" s="7">
         <v>117</v>
       </c>
@@ -28507,7 +28553,7 @@
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
     </row>
-    <row r="121" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B121" s="7">
         <v>118</v>
       </c>
@@ -28559,7 +28605,7 @@
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
     </row>
-    <row r="122" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B122" s="7">
         <v>119</v>
       </c>
@@ -28611,7 +28657,7 @@
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
     </row>
-    <row r="123" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B123" s="7">
         <v>120</v>
       </c>
@@ -28663,7 +28709,7 @@
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
     </row>
-    <row r="124" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B124" s="7">
         <v>121</v>
       </c>
@@ -28713,7 +28759,7 @@
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
     </row>
-    <row r="125" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B125" s="7">
         <v>122</v>
       </c>
@@ -28769,7 +28815,7 @@
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
     </row>
-    <row r="126" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B126" s="7">
         <v>123</v>
       </c>
@@ -28821,7 +28867,7 @@
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
     </row>
-    <row r="127" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B127" s="7">
         <v>124</v>
       </c>
@@ -28873,7 +28919,7 @@
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
     </row>
-    <row r="128" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B128" s="7">
         <v>125</v>
       </c>
@@ -28931,7 +28977,7 @@
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
     </row>
-    <row r="129" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B129" s="7">
         <v>126</v>
       </c>
@@ -28989,7 +29035,7 @@
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
     </row>
-    <row r="130" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B130" s="7">
         <v>127</v>
       </c>
@@ -29041,7 +29087,7 @@
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
     </row>
-    <row r="131" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B131" s="7">
         <v>128</v>
       </c>
@@ -29093,7 +29139,7 @@
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
     </row>
-    <row r="132" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B132" s="7">
         <v>129</v>
       </c>
@@ -29145,7 +29191,7 @@
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
     </row>
-    <row r="133" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B133" s="7">
         <v>130</v>
       </c>
@@ -29197,7 +29243,7 @@
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
     </row>
-    <row r="134" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B134" s="7">
         <v>131</v>
       </c>
@@ -29249,7 +29295,7 @@
       <c r="AB134" s="9"/>
       <c r="AC134" s="9"/>
     </row>
-    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B135" s="7">
         <v>132</v>
       </c>
@@ -29307,7 +29353,7 @@
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
     </row>
-    <row r="136" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B136" s="7">
         <v>133</v>
       </c>
@@ -29353,7 +29399,7 @@
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
     </row>
-    <row r="137" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B137" s="7">
         <v>134</v>
       </c>
@@ -29401,7 +29447,7 @@
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
     </row>
-    <row r="138" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B138" s="7">
         <v>135</v>
       </c>
@@ -29451,7 +29497,7 @@
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
     </row>
-    <row r="139" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B139" s="7">
         <v>136</v>
       </c>
@@ -29505,7 +29551,7 @@
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
     </row>
-    <row r="140" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B140" s="7">
         <v>137</v>
       </c>
@@ -29553,7 +29599,7 @@
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
     </row>
-    <row r="141" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B141" s="7">
         <v>138</v>
       </c>
@@ -29605,7 +29651,7 @@
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
     </row>
-    <row r="142" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B142" s="7">
         <v>139</v>
       </c>
@@ -29659,7 +29705,7 @@
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
     </row>
-    <row r="143" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B143" s="7">
         <v>140</v>
       </c>
@@ -29719,7 +29765,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="144" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B144" s="7">
         <v>141</v>
       </c>
@@ -29779,7 +29825,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="145" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B145" s="7">
         <v>142</v>
       </c>
@@ -29841,7 +29887,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="146" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B146" s="7">
         <v>143</v>
       </c>
@@ -29898,7 +29944,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="147" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B147" s="7">
         <v>144</v>
       </c>
@@ -29956,7 +30002,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="148" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B148" s="7">
         <v>145</v>
       </c>
@@ -30016,7 +30062,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="149" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B149" s="7">
         <v>146</v>
       </c>
@@ -30070,7 +30116,7 @@
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
     </row>
-    <row r="150" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B150" s="7">
         <v>147</v>
       </c>
@@ -30124,7 +30170,7 @@
       <c r="AB150" s="9"/>
       <c r="AC150" s="9"/>
     </row>
-    <row r="151" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:29" ht="406" x14ac:dyDescent="0.35">
       <c r="B151" s="7">
         <v>149</v>
       </c>
@@ -30180,7 +30226,7 @@
       </c>
       <c r="AC151" s="9"/>
     </row>
-    <row r="152" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B152" s="7">
         <v>150</v>
       </c>
@@ -30228,7 +30274,7 @@
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
     </row>
-    <row r="153" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B153" s="7">
         <v>151</v>
       </c>
@@ -30276,7 +30322,7 @@
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
     </row>
-    <row r="154" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>152</v>
       </c>
@@ -30326,7 +30372,7 @@
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
     </row>
-    <row r="155" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B155" s="7">
         <v>153</v>
       </c>
@@ -30380,7 +30426,7 @@
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
     </row>
-    <row r="156" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B156" s="7">
         <v>154</v>
       </c>
@@ -30432,7 +30478,7 @@
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
     </row>
-    <row r="157" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B157" s="7">
         <v>155</v>
       </c>
@@ -30494,7 +30540,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="158" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B158" s="7">
         <v>156</v>
       </c>
@@ -30544,7 +30590,7 @@
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
     </row>
-    <row r="159" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B159" s="7">
         <v>157</v>
       </c>
@@ -30592,7 +30638,7 @@
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
     </row>
-    <row r="160" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B160" s="7">
         <v>158</v>
       </c>
@@ -30648,7 +30694,7 @@
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
     </row>
-    <row r="161" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B161" s="7">
         <v>159</v>
       </c>
@@ -30698,7 +30744,7 @@
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
     </row>
-    <row r="162" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B162" s="7">
         <v>160</v>
       </c>
@@ -30746,7 +30792,7 @@
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
     </row>
-    <row r="163" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B163" s="7">
         <v>161</v>
       </c>
@@ -30796,7 +30842,7 @@
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
     </row>
-    <row r="164" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B164" s="7">
         <v>162</v>
       </c>
@@ -30844,7 +30890,7 @@
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
     </row>
-    <row r="165" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B165" s="7">
         <v>163</v>
       </c>
@@ -30892,7 +30938,7 @@
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
     </row>
-    <row r="166" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B166" s="7">
         <v>164</v>
       </c>
@@ -30942,7 +30988,7 @@
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
     </row>
-    <row r="167" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B167" s="7">
         <v>165</v>
       </c>
@@ -30994,7 +31040,7 @@
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
     </row>
-    <row r="168" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B168" s="7">
         <v>166</v>
       </c>
@@ -31054,7 +31100,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="169" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B169" s="7">
         <v>167</v>
       </c>
@@ -31104,7 +31150,7 @@
       <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
     </row>
-    <row r="170" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B170" s="7">
         <v>168</v>
       </c>
@@ -31154,7 +31200,7 @@
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
     </row>
-    <row r="171" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B171" s="7">
         <v>169</v>
       </c>
@@ -31206,7 +31252,7 @@
       <c r="AB171" s="9"/>
       <c r="AC171" s="9"/>
     </row>
-    <row r="172" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B172" s="7">
         <v>170</v>
       </c>
@@ -31256,7 +31302,7 @@
       <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
     </row>
-    <row r="173" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B173" s="7">
         <v>171</v>
       </c>
@@ -31310,7 +31356,7 @@
       <c r="AB173" s="9"/>
       <c r="AC173" s="9"/>
     </row>
-    <row r="174" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B174" s="7">
         <v>172</v>
       </c>
@@ -31374,7 +31420,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="175" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B175" s="7">
         <v>173</v>
       </c>
@@ -31430,7 +31476,7 @@
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
     </row>
-    <row r="176" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B176" s="7">
         <v>174</v>
       </c>
@@ -31484,7 +31530,7 @@
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
     </row>
-    <row r="177" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B177" s="7">
         <v>175</v>
       </c>
@@ -31538,7 +31584,7 @@
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
     </row>
-    <row r="178" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B178" s="7">
         <v>176</v>
       </c>
@@ -31592,7 +31638,7 @@
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
     </row>
-    <row r="179" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B179" s="7">
         <v>177</v>
       </c>
@@ -31646,7 +31692,7 @@
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
     </row>
-    <row r="180" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B180" s="7">
         <v>178</v>
       </c>
@@ -31700,7 +31746,7 @@
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
     </row>
-    <row r="181" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B181" s="7">
         <v>179</v>
       </c>
@@ -31754,7 +31800,7 @@
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
     </row>
-    <row r="182" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B182" s="7">
         <v>180</v>
       </c>
@@ -31806,7 +31852,7 @@
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
     </row>
-    <row r="183" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B183" s="7">
         <v>181</v>
       </c>
@@ -31866,7 +31912,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="184" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B184" s="7">
         <v>182</v>
       </c>
@@ -31926,7 +31972,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="185" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B185" s="7">
         <v>183</v>
       </c>
@@ -31988,7 +32034,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="186" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B186" s="7">
         <v>184</v>
       </c>
@@ -32048,7 +32094,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="187" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B187" s="7">
         <v>185</v>
       </c>
@@ -32106,7 +32152,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="188" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B188" s="7">
         <v>186</v>
       </c>
@@ -32162,7 +32208,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="189" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B189" s="7">
         <v>187</v>
       </c>
@@ -32222,7 +32268,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="190" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B190" s="7">
         <v>188</v>
       </c>
@@ -32274,7 +32320,7 @@
       <c r="AB190" s="9"/>
       <c r="AC190" s="9"/>
     </row>
-    <row r="191" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B191" s="7">
         <v>189</v>
       </c>
@@ -32328,7 +32374,7 @@
       <c r="AB191" s="9"/>
       <c r="AC191" s="9"/>
     </row>
-    <row r="192" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>190</v>
       </c>
@@ -32384,7 +32430,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="193" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B193" s="7">
         <v>191</v>
       </c>
@@ -32442,7 +32488,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="194" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B194" s="7">
         <v>192</v>
       </c>
@@ -32498,7 +32544,7 @@
       </c>
       <c r="AC194" s="9"/>
     </row>
-    <row r="195" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B195" s="7">
         <v>193</v>
       </c>
@@ -32554,7 +32600,7 @@
       <c r="AB195" s="9"/>
       <c r="AC195" s="9"/>
     </row>
-    <row r="196" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B196" s="7">
         <v>194</v>
       </c>
@@ -32614,7 +32660,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="197" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B197" s="7">
         <v>195</v>
       </c>
@@ -32668,7 +32714,7 @@
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
     </row>
-    <row r="198" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B198" s="7">
         <v>196</v>
       </c>
@@ -32720,7 +32766,7 @@
       <c r="AB198" s="9"/>
       <c r="AC198" s="9"/>
     </row>
-    <row r="199" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B199" s="7">
         <v>197</v>
       </c>
@@ -32776,7 +32822,7 @@
       <c r="AB199" s="9"/>
       <c r="AC199" s="9"/>
     </row>
-    <row r="200" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B200" s="7">
         <v>198</v>
       </c>
@@ -32832,7 +32878,7 @@
       <c r="AB200" s="9"/>
       <c r="AC200" s="9"/>
     </row>
-    <row r="201" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B201" s="7">
         <v>199</v>
       </c>
@@ -32894,7 +32940,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="202" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B202" s="7">
         <v>200</v>
       </c>
@@ -32956,7 +33002,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="203" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B203" s="7">
         <v>201</v>
       </c>
@@ -33018,7 +33064,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="204" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B204" s="7">
         <v>202</v>
       </c>
@@ -33080,7 +33126,7 @@
       </c>
       <c r="AC204" s="9"/>
     </row>
-    <row r="205" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B205" s="7">
         <v>203</v>
       </c>
@@ -33142,7 +33188,7 @@
       </c>
       <c r="AC205" s="9"/>
     </row>
-    <row r="206" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B206" s="7">
         <v>204</v>
       </c>
@@ -33204,7 +33250,7 @@
       </c>
       <c r="AC206" s="9"/>
     </row>
-    <row r="207" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B207" s="7">
         <v>205</v>
       </c>
@@ -33266,7 +33312,7 @@
       </c>
       <c r="AC207" s="9"/>
     </row>
-    <row r="208" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B208" s="7">
         <v>206</v>
       </c>
@@ -33316,7 +33362,7 @@
       <c r="AB208" s="9"/>
       <c r="AC208" s="9"/>
     </row>
-    <row r="209" spans="2:29" ht="342" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B209" s="7">
         <v>207</v>
       </c>
@@ -33372,7 +33418,7 @@
       <c r="AB209" s="9"/>
       <c r="AC209" s="9"/>
     </row>
-    <row r="210" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B210" s="7">
         <v>208</v>
       </c>
@@ -33422,7 +33468,7 @@
       <c r="AB210" s="9"/>
       <c r="AC210" s="9"/>
     </row>
-    <row r="211" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B211" s="7">
         <v>209</v>
       </c>
@@ -33472,7 +33518,7 @@
       <c r="AB211" s="9"/>
       <c r="AC211" s="9"/>
     </row>
-    <row r="212" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B212" s="7">
         <v>210</v>
       </c>
@@ -33532,7 +33578,7 @@
       <c r="AB212" s="9"/>
       <c r="AC212" s="9"/>
     </row>
-    <row r="213" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B213" s="7">
         <v>211</v>
       </c>
@@ -33582,7 +33628,7 @@
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
     </row>
-    <row r="214" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B214" s="7">
         <v>212</v>
       </c>
@@ -33634,7 +33680,7 @@
       <c r="AB214" s="9"/>
       <c r="AC214" s="9"/>
     </row>
-    <row r="215" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B215" s="7">
         <v>213</v>
       </c>
@@ -33696,7 +33742,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="216" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B216" s="7">
         <v>214</v>
       </c>
@@ -33754,7 +33800,7 @@
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
     </row>
-    <row r="217" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B217" s="7">
         <v>215</v>
       </c>
@@ -33814,7 +33860,7 @@
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
     </row>
-    <row r="218" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B218" s="7">
         <v>216</v>
       </c>
@@ -33870,7 +33916,7 @@
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
     </row>
-    <row r="219" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B219" s="7">
         <v>217</v>
       </c>
@@ -33926,7 +33972,7 @@
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
     </row>
-    <row r="220" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B220" s="7">
         <v>218</v>
       </c>
@@ -33982,7 +34028,7 @@
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
     </row>
-    <row r="221" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B221" s="7">
         <v>219</v>
       </c>
@@ -34038,7 +34084,7 @@
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
     </row>
-    <row r="222" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B222" s="7">
         <v>220</v>
       </c>
@@ -34096,7 +34142,7 @@
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
     </row>
-    <row r="223" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B223" s="7">
         <v>221</v>
       </c>
@@ -34154,7 +34200,7 @@
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
     </row>
-    <row r="224" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B224" s="7">
         <v>222</v>
       </c>
@@ -34214,7 +34260,7 @@
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
     </row>
-    <row r="225" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B225" s="7">
         <v>223</v>
       </c>
@@ -34270,7 +34316,7 @@
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
     </row>
-    <row r="226" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B226" s="7">
         <v>224</v>
       </c>
@@ -34324,7 +34370,7 @@
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
     </row>
-    <row r="227" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B227" s="7">
         <v>225</v>
       </c>
@@ -34380,7 +34426,7 @@
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
     </row>
-    <row r="228" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B228" s="7">
         <v>226</v>
       </c>
@@ -34430,7 +34476,7 @@
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
     </row>
-    <row r="229" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B229" s="7">
         <v>227</v>
       </c>
@@ -34480,7 +34526,7 @@
       <c r="AB229" s="9"/>
       <c r="AC229" s="9"/>
     </row>
-    <row r="230" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B230" s="7">
         <v>228</v>
       </c>
@@ -34530,7 +34576,7 @@
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
     </row>
-    <row r="231" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B231" s="7">
         <v>229</v>
       </c>
@@ -34584,7 +34630,7 @@
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
     </row>
-    <row r="232" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B232" s="7">
         <v>230</v>
       </c>
@@ -34636,7 +34682,7 @@
       <c r="AB232" s="9"/>
       <c r="AC232" s="9"/>
     </row>
-    <row r="233" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B233" s="7">
         <v>231</v>
       </c>
@@ -34690,7 +34736,7 @@
       <c r="AB233" s="9"/>
       <c r="AC233" s="9"/>
     </row>
-    <row r="234" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B234" s="7">
         <v>232</v>
       </c>
@@ -34742,7 +34788,7 @@
       <c r="AB234" s="9"/>
       <c r="AC234" s="9"/>
     </row>
-    <row r="235" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B235" s="7">
         <v>233</v>
       </c>
@@ -34798,7 +34844,7 @@
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
     </row>
-    <row r="236" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B236" s="7">
         <v>234</v>
       </c>
@@ -34852,7 +34898,7 @@
       <c r="AB236" s="9"/>
       <c r="AC236" s="9"/>
     </row>
-    <row r="237" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B237" s="7">
         <v>235</v>
       </c>
@@ -34906,7 +34952,7 @@
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
     </row>
-    <row r="238" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B238" s="7">
         <v>236</v>
       </c>
@@ -34966,7 +35012,7 @@
       <c r="AB238" s="9"/>
       <c r="AC238" s="9"/>
     </row>
-    <row r="239" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B239" s="7">
         <v>237</v>
       </c>
@@ -35022,7 +35068,7 @@
       <c r="AB239" s="9"/>
       <c r="AC239" s="9"/>
     </row>
-    <row r="240" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B240" s="7">
         <v>238</v>
       </c>
@@ -35078,7 +35124,7 @@
       <c r="AB240" s="9"/>
       <c r="AC240" s="9"/>
     </row>
-    <row r="241" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B241" s="7">
         <v>239</v>
       </c>
@@ -35138,7 +35184,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="242" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B242" s="7">
         <v>240</v>
       </c>
@@ -35198,7 +35244,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="243" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B243" s="7">
         <v>241</v>
       </c>
@@ -35256,7 +35302,7 @@
       </c>
       <c r="AC243" s="9"/>
     </row>
-    <row r="244" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B244" s="7">
         <v>242</v>
       </c>
@@ -35316,7 +35362,7 @@
       </c>
       <c r="AC244" s="9"/>
     </row>
-    <row r="245" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B245" s="7">
         <v>243</v>
       </c>
@@ -35374,7 +35420,7 @@
       </c>
       <c r="AC245" s="9"/>
     </row>
-    <row r="246" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B246" s="7">
         <v>244</v>
       </c>
@@ -35436,7 +35482,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="247" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B247" s="7">
         <v>245</v>
       </c>
@@ -35490,7 +35536,7 @@
       <c r="AB247" s="9"/>
       <c r="AC247" s="9"/>
     </row>
-    <row r="248" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B248" s="7">
         <v>246</v>
       </c>
@@ -35544,7 +35590,7 @@
       <c r="AB248" s="9"/>
       <c r="AC248" s="9"/>
     </row>
-    <row r="249" spans="2:29" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:29" s="16" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="B249" s="7">
         <v>247</v>
       </c>
@@ -35598,7 +35644,7 @@
       <c r="AB249" s="40"/>
       <c r="AC249" s="40"/>
     </row>
-    <row r="250" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B250" s="7">
         <v>248</v>
       </c>
@@ -35652,7 +35698,7 @@
       <c r="AB250" s="9"/>
       <c r="AC250" s="9"/>
     </row>
-    <row r="251" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B251" s="7">
         <v>249</v>
       </c>
@@ -35708,7 +35754,7 @@
       <c r="AB251" s="9"/>
       <c r="AC251" s="9"/>
     </row>
-    <row r="252" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B252" s="7">
         <v>250</v>
       </c>
@@ -35760,7 +35806,7 @@
       <c r="AB252" s="9"/>
       <c r="AC252" s="9"/>
     </row>
-    <row r="253" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B253" s="7">
         <v>251</v>
       </c>
@@ -35818,7 +35864,7 @@
       </c>
       <c r="AC253" s="9"/>
     </row>
-    <row r="254" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B254" s="7">
         <v>252</v>
       </c>
@@ -35878,7 +35924,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="255" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B255" s="7">
         <v>253</v>
       </c>
@@ -35936,7 +35982,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="256" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B256" s="7">
         <v>254</v>
       </c>
@@ -35998,7 +36044,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="257" spans="1:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B257" s="7">
         <v>255</v>
       </c>
@@ -36058,7 +36104,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="258" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B258" s="7">
         <v>256</v>
       </c>
@@ -36112,7 +36158,7 @@
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
     </row>
-    <row r="259" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B259" s="7">
         <v>257</v>
       </c>
@@ -36170,7 +36216,7 @@
       </c>
       <c r="AC259" s="9"/>
     </row>
-    <row r="260" spans="1:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B260" s="7">
         <v>258</v>
       </c>
@@ -36222,7 +36268,7 @@
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
     </row>
-    <row r="261" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B261" s="7">
         <v>259</v>
       </c>
@@ -36282,7 +36328,7 @@
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
     </row>
-    <row r="262" spans="1:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B262" s="7">
         <v>260</v>
       </c>
@@ -36342,7 +36388,7 @@
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
     </row>
-    <row r="263" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B263" s="7">
         <v>261</v>
       </c>
@@ -36404,7 +36450,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="264" spans="1:29" s="16" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" s="16" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="B264" s="7">
         <v>262</v>
       </c>
@@ -36458,7 +36504,7 @@
       <c r="AB264" s="40"/>
       <c r="AC264" s="40"/>
     </row>
-    <row r="265" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="A265" s="16"/>
       <c r="B265" s="7">
         <v>263</v>
@@ -36513,7 +36559,7 @@
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
     </row>
-    <row r="266" spans="1:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B266" s="7">
         <v>264</v>
       </c>
@@ -36567,7 +36613,7 @@
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
     </row>
-    <row r="267" spans="1:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B267" s="7">
         <v>265</v>
       </c>
@@ -36613,7 +36659,7 @@
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
     </row>
-    <row r="268" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B268" s="7">
         <v>266</v>
       </c>
@@ -36675,7 +36721,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="269" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B269" s="7">
         <v>267</v>
       </c>
@@ -36733,7 +36779,7 @@
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
     </row>
-    <row r="270" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B270" s="7">
         <v>268</v>
       </c>
@@ -36789,7 +36835,7 @@
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
     </row>
-    <row r="271" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B271" s="7">
         <v>269</v>
       </c>
@@ -36849,7 +36895,7 @@
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
     </row>
-    <row r="272" spans="1:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B272" s="7">
         <v>270</v>
       </c>
@@ -36909,7 +36955,7 @@
       </c>
       <c r="AC272" s="9"/>
     </row>
-    <row r="273" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B273" s="7">
         <v>271</v>
       </c>
@@ -36963,7 +37009,7 @@
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
     </row>
-    <row r="274" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B274" s="7">
         <v>272</v>
       </c>
@@ -37023,7 +37069,7 @@
       </c>
       <c r="AC274" s="9"/>
     </row>
-    <row r="275" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B275" s="7">
         <v>273</v>
       </c>
@@ -37083,7 +37129,7 @@
       </c>
       <c r="AC275" s="9"/>
     </row>
-    <row r="276" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B276" s="7">
         <v>274</v>
       </c>
@@ -37139,7 +37185,7 @@
       </c>
       <c r="AC276" s="9"/>
     </row>
-    <row r="277" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B277" s="7">
         <v>275</v>
       </c>
@@ -37183,7 +37229,7 @@
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
     </row>
-    <row r="278" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B278" s="7">
         <v>276</v>
       </c>
@@ -37227,7 +37273,7 @@
       <c r="AB278" s="9"/>
       <c r="AC278" s="9"/>
     </row>
-    <row r="279" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B279" s="7">
         <v>277</v>
       </c>
@@ -37271,7 +37317,7 @@
       <c r="AB279" s="9"/>
       <c r="AC279" s="9"/>
     </row>
-    <row r="280" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B280" s="7">
         <v>278</v>
       </c>
@@ -37315,7 +37361,7 @@
       <c r="AB280" s="9"/>
       <c r="AC280" s="9"/>
     </row>
-    <row r="281" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B281" s="7">
         <v>279</v>
       </c>
@@ -37359,7 +37405,7 @@
       <c r="AB281" s="9"/>
       <c r="AC281" s="9"/>
     </row>
-    <row r="282" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B282" s="7">
         <v>280</v>
       </c>
@@ -37403,7 +37449,7 @@
       <c r="AB282" s="9"/>
       <c r="AC282" s="9"/>
     </row>
-    <row r="283" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B283" s="7">
         <v>281</v>
       </c>
@@ -37451,7 +37497,7 @@
       <c r="AB283" s="9"/>
       <c r="AC283" s="9"/>
     </row>
-    <row r="284" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B284" s="7">
         <v>282</v>
       </c>
@@ -37495,7 +37541,7 @@
       <c r="AB284" s="9"/>
       <c r="AC284" s="9"/>
     </row>
-    <row r="285" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B285" s="7">
         <v>283</v>
       </c>
@@ -37539,7 +37585,7 @@
       <c r="AB285" s="9"/>
       <c r="AC285" s="9"/>
     </row>
-    <row r="286" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B286" s="7">
         <v>284</v>
       </c>
@@ -37585,7 +37631,7 @@
       <c r="AB286" s="9"/>
       <c r="AC286" s="9"/>
     </row>
-    <row r="287" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B287" s="7">
         <v>285</v>
       </c>
@@ -37631,7 +37677,7 @@
       <c r="AB287" s="9"/>
       <c r="AC287" s="9"/>
     </row>
-    <row r="288" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B288" s="7">
         <v>286</v>
       </c>
@@ -37685,7 +37731,7 @@
       <c r="AB288" s="9"/>
       <c r="AC288" s="9"/>
     </row>
-    <row r="289" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B289" s="7">
         <v>287</v>
       </c>
@@ -37731,7 +37777,7 @@
       <c r="AB289" s="9"/>
       <c r="AC289" s="9"/>
     </row>
-    <row r="290" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B290" s="7">
         <v>288</v>
       </c>
@@ -37775,7 +37821,7 @@
       <c r="AB290" s="9"/>
       <c r="AC290" s="9"/>
     </row>
-    <row r="291" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B291" s="7">
         <v>289</v>
       </c>
@@ -37829,7 +37875,7 @@
       <c r="AB291" s="9"/>
       <c r="AC291" s="9"/>
     </row>
-    <row r="292" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B292" s="7">
         <v>290</v>
       </c>
@@ -37879,7 +37925,7 @@
       <c r="AB292" s="9"/>
       <c r="AC292" s="9"/>
     </row>
-    <row r="293" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B293" s="7">
         <v>291</v>
       </c>
@@ -37923,7 +37969,7 @@
       <c r="AB293" s="9"/>
       <c r="AC293" s="9"/>
     </row>
-    <row r="294" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B294" s="7">
         <v>292</v>
       </c>
@@ -37967,7 +38013,7 @@
       <c r="AB294" s="9"/>
       <c r="AC294" s="9"/>
     </row>
-    <row r="295" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B295" s="7">
         <v>293</v>
       </c>
@@ -38013,7 +38059,7 @@
       <c r="AB295" s="9"/>
       <c r="AC295" s="9"/>
     </row>
-    <row r="296" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B296" s="7">
         <v>294</v>
       </c>
@@ -38063,7 +38109,7 @@
       <c r="AB296" s="9"/>
       <c r="AC296" s="9"/>
     </row>
-    <row r="297" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B297" s="7">
         <v>295</v>
       </c>
@@ -38117,7 +38163,7 @@
       <c r="AB297" s="9"/>
       <c r="AC297" s="9"/>
     </row>
-    <row r="298" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B298" s="7">
         <v>296</v>
       </c>
@@ -38161,7 +38207,7 @@
       <c r="AB298" s="9"/>
       <c r="AC298" s="9"/>
     </row>
-    <row r="299" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B299" s="7">
         <v>297</v>
       </c>
@@ -38205,7 +38251,7 @@
       <c r="AB299" s="9"/>
       <c r="AC299" s="9"/>
     </row>
-    <row r="300" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B300" s="7">
         <v>298</v>
       </c>
@@ -38249,7 +38295,7 @@
       <c r="AB300" s="9"/>
       <c r="AC300" s="9"/>
     </row>
-    <row r="301" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B301" s="7">
         <v>299</v>
       </c>
@@ -38293,7 +38339,7 @@
       <c r="AB301" s="9"/>
       <c r="AC301" s="9"/>
     </row>
-    <row r="302" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B302" s="7">
         <v>300</v>
       </c>
@@ -38337,7 +38383,7 @@
       <c r="AB302" s="9"/>
       <c r="AC302" s="9"/>
     </row>
-    <row r="303" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B303" s="7">
         <v>301</v>
       </c>
@@ -38381,7 +38427,7 @@
       <c r="AB303" s="9"/>
       <c r="AC303" s="9"/>
     </row>
-    <row r="304" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B304" s="7">
         <v>302</v>
       </c>
@@ -38425,7 +38471,7 @@
       <c r="AB304" s="9"/>
       <c r="AC304" s="9"/>
     </row>
-    <row r="305" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B305" s="7">
         <v>303</v>
       </c>
@@ -38471,7 +38517,7 @@
       <c r="AB305" s="9"/>
       <c r="AC305" s="9"/>
     </row>
-    <row r="306" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B306" s="7">
         <v>304</v>
       </c>
@@ -38517,7 +38563,7 @@
       <c r="AB306" s="9"/>
       <c r="AC306" s="9"/>
     </row>
-    <row r="307" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B307" s="7">
         <v>305</v>
       </c>
@@ -38563,7 +38609,7 @@
       <c r="AB307" s="9"/>
       <c r="AC307" s="9"/>
     </row>
-    <row r="308" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B308" s="7">
         <v>306</v>
       </c>
@@ -38609,7 +38655,7 @@
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
     </row>
-    <row r="309" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B309" s="7">
         <v>307</v>
       </c>
@@ -38655,7 +38701,7 @@
       <c r="AB309" s="9"/>
       <c r="AC309" s="9"/>
     </row>
-    <row r="310" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B310" s="7">
         <v>308</v>
       </c>
@@ -38699,7 +38745,7 @@
       <c r="AB310" s="9"/>
       <c r="AC310" s="9"/>
     </row>
-    <row r="311" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B311" s="7">
         <v>309</v>
       </c>
@@ -38743,7 +38789,7 @@
       <c r="AB311" s="9"/>
       <c r="AC311" s="9"/>
     </row>
-    <row r="312" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B312" s="7">
         <v>310</v>
       </c>
@@ -38785,7 +38831,7 @@
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
     </row>
-    <row r="313" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B313" s="7">
         <v>311</v>
       </c>
@@ -38827,7 +38873,7 @@
       <c r="AB313" s="9"/>
       <c r="AC313" s="9"/>
     </row>
-    <row r="314" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B314" s="7">
         <v>312</v>
       </c>
@@ -38869,7 +38915,7 @@
       <c r="AB314" s="9"/>
       <c r="AC314" s="9"/>
     </row>
-    <row r="315" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B315" s="7">
         <v>313</v>
       </c>
@@ -38911,7 +38957,7 @@
       <c r="AB315" s="9"/>
       <c r="AC315" s="9"/>
     </row>
-    <row r="316" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B316" s="7">
         <v>314</v>
       </c>
@@ -38957,7 +39003,7 @@
       <c r="AB316" s="9"/>
       <c r="AC316" s="9"/>
     </row>
-    <row r="317" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B317" s="7">
         <v>315</v>
       </c>
@@ -39001,7 +39047,7 @@
       <c r="AB317" s="9"/>
       <c r="AC317" s="9"/>
     </row>
-    <row r="318" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B318" s="7">
         <v>316</v>
       </c>
@@ -39045,7 +39091,7 @@
       <c r="AB318" s="9"/>
       <c r="AC318" s="9"/>
     </row>
-    <row r="319" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B319" s="7">
         <v>317</v>
       </c>
@@ -39089,7 +39135,7 @@
       <c r="AB319" s="9"/>
       <c r="AC319" s="9"/>
     </row>
-    <row r="320" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B320" s="7">
         <v>318</v>
       </c>
@@ -39131,7 +39177,7 @@
       <c r="AB320" s="9"/>
       <c r="AC320" s="9"/>
     </row>
-    <row r="321" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B321" s="7">
         <v>319</v>
       </c>
@@ -39173,7 +39219,7 @@
       <c r="AB321" s="9"/>
       <c r="AC321" s="9"/>
     </row>
-    <row r="322" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B322" s="7">
         <v>320</v>
       </c>
@@ -39215,7 +39261,7 @@
       <c r="AB322" s="9"/>
       <c r="AC322" s="9"/>
     </row>
-    <row r="323" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B323" s="7">
         <v>321</v>
       </c>
@@ -39259,7 +39305,7 @@
       <c r="AB323" s="9"/>
       <c r="AC323" s="9"/>
     </row>
-    <row r="324" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B324" s="7">
         <v>322</v>
       </c>
@@ -39303,7 +39349,7 @@
       <c r="AB324" s="9"/>
       <c r="AC324" s="9"/>
     </row>
-    <row r="325" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B325" s="7">
         <v>323</v>
       </c>
@@ -39347,7 +39393,7 @@
       <c r="AB325" s="9"/>
       <c r="AC325" s="9"/>
     </row>
-    <row r="326" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B326" s="7">
         <v>324</v>
       </c>
@@ -39393,7 +39439,7 @@
       <c r="AB326" s="9"/>
       <c r="AC326" s="9"/>
     </row>
-    <row r="327" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B327" s="7">
         <v>325</v>
       </c>
@@ -39439,7 +39485,7 @@
       <c r="AB327" s="9"/>
       <c r="AC327" s="9"/>
     </row>
-    <row r="328" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B328" s="7">
         <v>326</v>
       </c>
@@ -39485,7 +39531,7 @@
       <c r="AB328" s="9"/>
       <c r="AC328" s="9"/>
     </row>
-    <row r="329" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B329" s="7">
         <v>327</v>
       </c>
@@ -39535,7 +39581,7 @@
       <c r="AB329" s="9"/>
       <c r="AC329" s="9"/>
     </row>
-    <row r="330" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B330" s="7">
         <v>328</v>
       </c>
@@ -39577,7 +39623,7 @@
       <c r="AB330" s="9"/>
       <c r="AC330" s="9"/>
     </row>
-    <row r="331" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B331" s="7">
         <v>329</v>
       </c>
@@ -39623,7 +39669,7 @@
       <c r="AB331" s="9"/>
       <c r="AC331" s="9"/>
     </row>
-    <row r="332" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B332" s="7">
         <v>330</v>
       </c>
@@ -39670,7 +39716,7 @@
       <c r="AB332" s="9"/>
       <c r="AC332" s="9"/>
     </row>
-    <row r="333" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B333" s="7">
         <v>331</v>
       </c>
@@ -39717,7 +39763,7 @@
       <c r="AB333" s="9"/>
       <c r="AC333" s="9"/>
     </row>
-    <row r="334" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B334" s="7">
         <v>332</v>
       </c>
@@ -39765,7 +39811,7 @@
       <c r="AB334" s="9"/>
       <c r="AC334" s="9"/>
     </row>
-    <row r="335" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B335" s="7">
         <v>333</v>
       </c>
@@ -39812,7 +39858,7 @@
       <c r="AB335" s="9"/>
       <c r="AC335" s="9"/>
     </row>
-    <row r="336" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B336" s="7">
         <v>334</v>
       </c>
@@ -39859,7 +39905,7 @@
       <c r="AB336" s="9"/>
       <c r="AC336" s="9"/>
     </row>
-    <row r="337" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B337" s="7">
         <v>335</v>
       </c>
@@ -39906,7 +39952,7 @@
       <c r="AB337" s="9"/>
       <c r="AC337" s="9"/>
     </row>
-    <row r="338" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B338" s="7">
         <v>336</v>
       </c>
@@ -39957,7 +40003,7 @@
       <c r="AB338" s="9"/>
       <c r="AC338" s="9"/>
     </row>
-    <row r="339" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B339" s="7">
         <v>337</v>
       </c>
@@ -40008,7 +40054,7 @@
       <c r="AB339" s="9"/>
       <c r="AC339" s="9"/>
     </row>
-    <row r="340" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B340" s="7">
         <v>338</v>
       </c>
@@ -40059,7 +40105,7 @@
       <c r="AB340" s="9"/>
       <c r="AC340" s="9"/>
     </row>
-    <row r="341" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B341" s="7">
         <v>339</v>
       </c>
@@ -40110,7 +40156,7 @@
       <c r="AB341" s="9"/>
       <c r="AC341" s="9"/>
     </row>
-    <row r="342" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B342" s="7">
         <v>340</v>
       </c>
@@ -40161,7 +40207,7 @@
       <c r="AB342" s="9"/>
       <c r="AC342" s="9"/>
     </row>
-    <row r="343" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B343" s="7">
         <v>341</v>
       </c>
@@ -40210,7 +40256,7 @@
       <c r="AB343" s="9"/>
       <c r="AC343" s="9"/>
     </row>
-    <row r="344" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B344" s="7">
         <v>342</v>
       </c>
@@ -40263,7 +40309,7 @@
       <c r="AB344" s="9"/>
       <c r="AC344" s="9"/>
     </row>
-    <row r="345" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B345" s="7">
         <v>343</v>
       </c>
@@ -40312,7 +40358,7 @@
       <c r="AB345" s="9"/>
       <c r="AC345" s="9"/>
     </row>
-    <row r="346" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B346" s="7">
         <v>344</v>
       </c>
@@ -40365,7 +40411,7 @@
       <c r="AB346" s="9"/>
       <c r="AC346" s="9"/>
     </row>
-    <row r="347" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B347" s="7">
         <v>345</v>
       </c>
@@ -40414,7 +40460,7 @@
       <c r="AB347" s="9"/>
       <c r="AC347" s="9"/>
     </row>
-    <row r="348" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B348" s="7">
         <v>346</v>
       </c>
@@ -40473,7 +40519,7 @@
       </c>
       <c r="AC348" s="9"/>
     </row>
-    <row r="349" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B349" s="7">
         <v>347</v>
       </c>
@@ -40526,7 +40572,7 @@
       <c r="AB349" s="9"/>
       <c r="AC349" s="9"/>
     </row>
-    <row r="350" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B350" s="7">
         <v>348</v>
       </c>
@@ -40579,7 +40625,7 @@
       <c r="AB350" s="9"/>
       <c r="AC350" s="9"/>
     </row>
-    <row r="351" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B351" s="7">
         <v>349</v>
       </c>
@@ -40632,7 +40678,7 @@
       <c r="AB351" s="9"/>
       <c r="AC351" s="9"/>
     </row>
-    <row r="352" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B352" s="7">
         <v>350</v>
       </c>
@@ -40685,7 +40731,7 @@
       <c r="AB352" s="9"/>
       <c r="AC352" s="9"/>
     </row>
-    <row r="353" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B353" s="7">
         <v>351</v>
       </c>
@@ -40738,7 +40784,7 @@
       <c r="AB353" s="9"/>
       <c r="AC353" s="9"/>
     </row>
-    <row r="354" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B354" s="7">
         <v>352</v>
       </c>
@@ -40793,7 +40839,7 @@
       <c r="AB354" s="9"/>
       <c r="AC354" s="9"/>
     </row>
-    <row r="355" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B355" s="7">
         <v>353</v>
       </c>
@@ -40846,7 +40892,7 @@
       <c r="AB355" s="9"/>
       <c r="AC355" s="9"/>
     </row>
-    <row r="356" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B356" s="7">
         <v>354</v>
       </c>
@@ -40899,7 +40945,7 @@
       <c r="AB356" s="9"/>
       <c r="AC356" s="9"/>
     </row>
-    <row r="357" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B357" s="7">
         <v>355</v>
       </c>
@@ -40952,7 +40998,7 @@
       <c r="AB357" s="9"/>
       <c r="AC357" s="9"/>
     </row>
-    <row r="358" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B358" s="7">
         <v>356</v>
       </c>
@@ -41005,7 +41051,7 @@
       <c r="AB358" s="9"/>
       <c r="AC358" s="9"/>
     </row>
-    <row r="359" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B359" s="7">
         <v>357</v>
       </c>
@@ -41058,7 +41104,7 @@
       <c r="AB359" s="9"/>
       <c r="AC359" s="9"/>
     </row>
-    <row r="360" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B360" s="7">
         <v>358</v>
       </c>
@@ -41111,7 +41157,7 @@
       <c r="AB360" s="9"/>
       <c r="AC360" s="9"/>
     </row>
-    <row r="361" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B361" s="7">
         <v>359</v>
       </c>
@@ -41164,7 +41210,7 @@
       <c r="AB361" s="9"/>
       <c r="AC361" s="9"/>
     </row>
-    <row r="362" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B362" s="7">
         <v>360</v>
       </c>
@@ -41213,7 +41259,7 @@
       <c r="AB362" s="9"/>
       <c r="AC362" s="9"/>
     </row>
-    <row r="363" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B363" s="7">
         <v>361</v>
       </c>
@@ -41272,7 +41318,7 @@
       </c>
       <c r="AC363" s="9"/>
     </row>
-    <row r="364" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B364" s="7">
         <v>362</v>
       </c>
@@ -41331,7 +41377,7 @@
       </c>
       <c r="AC364" s="9"/>
     </row>
-    <row r="365" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B365" s="7">
         <v>363</v>
       </c>
@@ -41380,7 +41426,7 @@
       <c r="AB365" s="9"/>
       <c r="AC365" s="9"/>
     </row>
-    <row r="366" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B366" s="7">
         <v>364</v>
       </c>
@@ -41439,7 +41485,7 @@
       </c>
       <c r="AC366" s="9"/>
     </row>
-    <row r="367" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B367" s="7">
         <v>365</v>
       </c>
@@ -41488,7 +41534,7 @@
       <c r="AB367" s="9"/>
       <c r="AC367" s="9"/>
     </row>
-    <row r="368" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B368" s="7">
         <v>366</v>
       </c>
@@ -41547,7 +41593,7 @@
       </c>
       <c r="AC368" s="9"/>
     </row>
-    <row r="369" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B369" s="7">
         <v>367</v>
       </c>
@@ -41575,7 +41621,7 @@
         <v>P1</v>
       </c>
       <c r="K369" s="45" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="L369" s="32" t="s">
         <v>1722</v>
@@ -41606,7 +41652,7 @@
       </c>
       <c r="AC369" s="9"/>
     </row>
-    <row r="370" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B370" s="7">
         <v>368</v>
       </c>
@@ -41665,7 +41711,7 @@
       </c>
       <c r="AC370" s="9"/>
     </row>
-    <row r="371" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B371" s="7">
         <v>369</v>
       </c>
@@ -41714,7 +41760,7 @@
       <c r="AB371" s="9"/>
       <c r="AC371" s="9"/>
     </row>
-    <row r="372" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B372" s="7">
         <v>370</v>
       </c>
@@ -41773,7 +41819,7 @@
       </c>
       <c r="AC372" s="9"/>
     </row>
-    <row r="373" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B373" s="7">
         <v>371</v>
       </c>
@@ -41822,7 +41868,7 @@
       <c r="AB373" s="9"/>
       <c r="AC373" s="9"/>
     </row>
-    <row r="374" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B374" s="7">
         <v>372</v>
       </c>
@@ -41881,7 +41927,7 @@
       </c>
       <c r="AC374" s="9"/>
     </row>
-    <row r="375" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B375" s="7">
         <v>373</v>
       </c>
@@ -41940,7 +41986,7 @@
       </c>
       <c r="AC375" s="9"/>
     </row>
-    <row r="376" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B376" s="7">
         <v>374</v>
       </c>
@@ -41989,7 +42035,7 @@
       <c r="AB376" s="9"/>
       <c r="AC376" s="9"/>
     </row>
-    <row r="377" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B377" s="7">
         <v>375</v>
       </c>
@@ -42048,7 +42094,7 @@
       </c>
       <c r="AC377" s="9"/>
     </row>
-    <row r="378" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B378" s="7">
         <v>376</v>
       </c>
@@ -42099,7 +42145,7 @@
       <c r="AB378" s="9"/>
       <c r="AC378" s="9"/>
     </row>
-    <row r="379" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B379" s="7">
         <v>377</v>
       </c>
@@ -42150,7 +42196,7 @@
       <c r="AB379" s="9"/>
       <c r="AC379" s="9"/>
     </row>
-    <row r="380" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B380" s="7">
         <v>378</v>
       </c>
@@ -42199,7 +42245,7 @@
       <c r="AB380" s="9"/>
       <c r="AC380" s="9"/>
     </row>
-    <row r="381" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B381" s="7">
         <v>379</v>
       </c>
@@ -42248,7 +42294,7 @@
       <c r="AB381" s="9"/>
       <c r="AC381" s="9"/>
     </row>
-    <row r="382" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B382" s="7">
         <v>380</v>
       </c>
@@ -42301,7 +42347,7 @@
       <c r="AB382" s="9"/>
       <c r="AC382" s="9"/>
     </row>
-    <row r="383" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B383" s="7">
         <v>381</v>
       </c>
@@ -42354,7 +42400,7 @@
       <c r="AB383" s="9"/>
       <c r="AC383" s="9"/>
     </row>
-    <row r="384" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B384" s="7">
         <v>382</v>
       </c>
@@ -42403,7 +42449,7 @@
       <c r="AB384" s="9"/>
       <c r="AC384" s="9"/>
     </row>
-    <row r="385" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B385" s="7">
         <v>383</v>
       </c>
@@ -42456,7 +42502,7 @@
       <c r="AB385" s="9"/>
       <c r="AC385" s="9"/>
     </row>
-    <row r="386" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B386" s="7">
         <v>384</v>
       </c>
@@ -42509,7 +42555,7 @@
       <c r="AB386" s="9"/>
       <c r="AC386" s="9"/>
     </row>
-    <row r="387" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B387" s="7">
         <v>385</v>
       </c>
@@ -42558,7 +42604,7 @@
       <c r="AB387" s="9"/>
       <c r="AC387" s="9"/>
     </row>
-    <row r="388" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B388" s="7">
         <v>386</v>
       </c>
@@ -42607,7 +42653,7 @@
       <c r="AB388" s="9"/>
       <c r="AC388" s="9"/>
     </row>
-    <row r="389" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B389" s="7">
         <v>387</v>
       </c>
@@ -42660,7 +42706,7 @@
       <c r="AB389" s="9"/>
       <c r="AC389" s="9"/>
     </row>
-    <row r="390" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B390" s="7">
         <v>388</v>
       </c>
@@ -42713,7 +42759,7 @@
       <c r="AB390" s="9"/>
       <c r="AC390" s="9"/>
     </row>
-    <row r="391" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B391" s="7">
         <v>389</v>
       </c>
@@ -42762,7 +42808,7 @@
       <c r="AB391" s="9"/>
       <c r="AC391" s="9"/>
     </row>
-    <row r="392" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B392" s="7">
         <v>390</v>
       </c>
@@ -42811,7 +42857,7 @@
       <c r="AB392" s="9"/>
       <c r="AC392" s="9"/>
     </row>
-    <row r="393" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B393" s="7">
         <v>391</v>
       </c>
@@ -42864,7 +42910,7 @@
       <c r="AB393" s="9"/>
       <c r="AC393" s="9"/>
     </row>
-    <row r="394" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B394" s="7">
         <v>392</v>
       </c>
@@ -42913,7 +42959,7 @@
       <c r="AB394" s="9"/>
       <c r="AC394" s="9"/>
     </row>
-    <row r="395" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B395" s="7">
         <v>393</v>
       </c>
@@ -42966,7 +43012,7 @@
       <c r="AB395" s="9"/>
       <c r="AC395" s="9"/>
     </row>
-    <row r="396" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B396" s="7">
         <v>394</v>
       </c>
@@ -43015,7 +43061,7 @@
       <c r="AB396" s="9"/>
       <c r="AC396" s="9"/>
     </row>
-    <row r="397" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B397" s="7">
         <v>395</v>
       </c>
@@ -43064,7 +43110,7 @@
       <c r="AB397" s="9"/>
       <c r="AC397" s="9"/>
     </row>
-    <row r="398" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B398" s="7">
         <v>396</v>
       </c>
@@ -43117,7 +43163,7 @@
       <c r="AB398" s="9"/>
       <c r="AC398" s="9"/>
     </row>
-    <row r="399" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B399" s="7">
         <v>397</v>
       </c>
@@ -43166,7 +43212,7 @@
       <c r="AB399" s="9"/>
       <c r="AC399" s="9"/>
     </row>
-    <row r="400" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B400" s="7">
         <v>398</v>
       </c>
@@ -43194,7 +43240,7 @@
         <v>P1</v>
       </c>
       <c r="K400" s="45" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="L400" s="32" t="s">
         <v>1722</v>
@@ -43225,7 +43271,7 @@
       </c>
       <c r="AC400" s="9"/>
     </row>
-    <row r="401" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B401" s="7">
         <v>399</v>
       </c>
@@ -43278,7 +43324,7 @@
       <c r="AB401" s="9"/>
       <c r="AC401" s="9"/>
     </row>
-    <row r="402" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B402" s="7">
         <v>400</v>
       </c>
@@ -43329,7 +43375,7 @@
       <c r="AB402" s="9"/>
       <c r="AC402" s="9"/>
     </row>
-    <row r="403" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B403" s="7">
         <v>401</v>
       </c>
@@ -43380,7 +43426,7 @@
       <c r="AB403" s="9"/>
       <c r="AC403" s="9"/>
     </row>
-    <row r="404" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B404" s="7">
         <v>402</v>
       </c>
@@ -43429,7 +43475,7 @@
       <c r="AB404" s="9"/>
       <c r="AC404" s="9"/>
     </row>
-    <row r="405" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B405" s="7">
         <v>403</v>
       </c>
@@ -43480,7 +43526,7 @@
       <c r="AB405" s="9"/>
       <c r="AC405" s="9"/>
     </row>
-    <row r="406" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B406" s="7">
         <v>404</v>
       </c>
@@ -43529,7 +43575,7 @@
       <c r="AB406" s="9"/>
       <c r="AC406" s="9"/>
     </row>
-    <row r="407" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B407" s="7">
         <v>405</v>
       </c>
@@ -43582,7 +43628,7 @@
       <c r="AB407" s="9"/>
       <c r="AC407" s="9"/>
     </row>
-    <row r="408" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B408" s="7">
         <v>406</v>
       </c>
@@ -43631,7 +43677,7 @@
       <c r="AB408" s="9"/>
       <c r="AC408" s="9"/>
     </row>
-    <row r="409" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B409" s="7">
         <v>407</v>
       </c>
@@ -43680,7 +43726,7 @@
       <c r="AB409" s="9"/>
       <c r="AC409" s="9"/>
     </row>
-    <row r="410" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B410" s="7">
         <v>408</v>
       </c>
@@ -43733,7 +43779,7 @@
       <c r="AB410" s="9"/>
       <c r="AC410" s="9"/>
     </row>
-    <row r="411" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B411" s="7">
         <v>409</v>
       </c>
@@ -43782,7 +43828,7 @@
       <c r="AB411" s="9"/>
       <c r="AC411" s="9"/>
     </row>
-    <row r="412" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B412" s="7">
         <v>410</v>
       </c>
@@ -43835,7 +43881,7 @@
       <c r="AB412" s="9"/>
       <c r="AC412" s="9"/>
     </row>
-    <row r="413" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B413" s="7">
         <v>411</v>
       </c>
@@ -43888,7 +43934,7 @@
       <c r="AB413" s="9"/>
       <c r="AC413" s="9"/>
     </row>
-    <row r="414" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B414" s="7">
         <v>412</v>
       </c>
@@ -43939,7 +43985,7 @@
       <c r="AB414" s="9"/>
       <c r="AC414" s="9"/>
     </row>
-    <row r="415" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B415" s="7">
         <v>413</v>
       </c>
@@ -43992,7 +44038,7 @@
       <c r="AB415" s="9"/>
       <c r="AC415" s="9"/>
     </row>
-    <row r="416" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B416" s="7">
         <v>414</v>
       </c>
@@ -44043,7 +44089,7 @@
       <c r="AB416" s="9"/>
       <c r="AC416" s="9"/>
     </row>
-    <row r="417" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B417" s="7">
         <v>415</v>
       </c>
@@ -44102,7 +44148,7 @@
       </c>
       <c r="AC417" s="9"/>
     </row>
-    <row r="418" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B418" s="7">
         <v>416</v>
       </c>
@@ -44151,7 +44197,7 @@
       <c r="AB418" s="9"/>
       <c r="AC418" s="9"/>
     </row>
-    <row r="419" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B419" s="7">
         <v>417</v>
       </c>
@@ -44179,7 +44225,7 @@
         <v>P1</v>
       </c>
       <c r="K419" s="45" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="L419" s="32" t="s">
         <v>1722</v>
@@ -44210,7 +44256,7 @@
       </c>
       <c r="AC419" s="9"/>
     </row>
-    <row r="420" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B420" s="7">
         <v>418</v>
       </c>
@@ -44259,7 +44305,7 @@
       <c r="AB420" s="9"/>
       <c r="AC420" s="9"/>
     </row>
-    <row r="421" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B421" s="7">
         <v>419</v>
       </c>
@@ -44312,7 +44358,7 @@
       <c r="AB421" s="9"/>
       <c r="AC421" s="9"/>
     </row>
-    <row r="422" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B422" s="7">
         <v>420</v>
       </c>
@@ -44340,7 +44386,7 @@
         <v>P1</v>
       </c>
       <c r="K422" s="45" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="L422" s="32" t="s">
         <v>1722</v>
@@ -44371,7 +44417,7 @@
       </c>
       <c r="AC422" s="9"/>
     </row>
-    <row r="423" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B423" s="7">
         <v>421</v>
       </c>
@@ -44420,7 +44466,7 @@
       <c r="AB423" s="9"/>
       <c r="AC423" s="9"/>
     </row>
-    <row r="424" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B424" s="7">
         <v>422</v>
       </c>
@@ -44474,7 +44520,7 @@
       <c r="AB424" s="9"/>
       <c r="AC424" s="9"/>
     </row>
-    <row r="425" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B425" s="7">
         <v>423</v>
       </c>
@@ -44527,7 +44573,7 @@
       <c r="AB425" s="9"/>
       <c r="AC425" s="9"/>
     </row>
-    <row r="426" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B426" s="7">
         <v>424</v>
       </c>
@@ -44576,7 +44622,7 @@
       <c r="AB426" s="9"/>
       <c r="AC426" s="9"/>
     </row>
-    <row r="427" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B427" s="7">
         <v>425</v>
       </c>
@@ -44625,7 +44671,7 @@
       <c r="AB427" s="9"/>
       <c r="AC427" s="9"/>
     </row>
-    <row r="428" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B428" s="7">
         <v>426</v>
       </c>
@@ -44678,7 +44724,7 @@
       <c r="AB428" s="9"/>
       <c r="AC428" s="9"/>
     </row>
-    <row r="429" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B429" s="7">
         <v>427</v>
       </c>
@@ -44731,7 +44777,7 @@
       <c r="AB429" s="9"/>
       <c r="AC429" s="9"/>
     </row>
-    <row r="430" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B430" s="7">
         <v>428</v>
       </c>
@@ -44784,7 +44830,7 @@
       <c r="AB430" s="9"/>
       <c r="AC430" s="9"/>
     </row>
-    <row r="431" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B431" s="7">
         <v>429</v>
       </c>
@@ -44837,7 +44883,7 @@
       <c r="AB431" s="9"/>
       <c r="AC431" s="9"/>
     </row>
-    <row r="432" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B432" s="7">
         <v>430</v>
       </c>
@@ -44890,7 +44936,7 @@
       <c r="AB432" s="9"/>
       <c r="AC432" s="9"/>
     </row>
-    <row r="433" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B433" s="7">
         <v>431</v>
       </c>
@@ -44943,7 +44989,7 @@
       <c r="AB433" s="9"/>
       <c r="AC433" s="9"/>
     </row>
-    <row r="434" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B434" s="7">
         <v>432</v>
       </c>
@@ -44994,7 +45040,7 @@
       <c r="AB434" s="9"/>
       <c r="AC434" s="9"/>
     </row>
-    <row r="435" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B435" s="7">
         <v>433</v>
       </c>
@@ -45049,7 +45095,7 @@
       <c r="AB435" s="9"/>
       <c r="AC435" s="9"/>
     </row>
-    <row r="436" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B436" s="7">
         <v>434</v>
       </c>
@@ -45102,7 +45148,7 @@
       <c r="AB436" s="9"/>
       <c r="AC436" s="9"/>
     </row>
-    <row r="437" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B437" s="7">
         <v>435</v>
       </c>
@@ -45130,7 +45176,7 @@
         <v>P1</v>
       </c>
       <c r="K437" s="45" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="L437" s="32" t="s">
         <v>1722</v>
@@ -45161,7 +45207,7 @@
       </c>
       <c r="AC437" s="9"/>
     </row>
-    <row r="438" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B438" s="7">
         <v>436</v>
       </c>
@@ -45214,7 +45260,7 @@
       <c r="AB438" s="9"/>
       <c r="AC438" s="9"/>
     </row>
-    <row r="439" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B439" s="7">
         <v>437</v>
       </c>
@@ -45267,7 +45313,7 @@
       <c r="AB439" s="9"/>
       <c r="AC439" s="9"/>
     </row>
-    <row r="440" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B440" s="7">
         <v>438</v>
       </c>
@@ -45318,7 +45364,7 @@
       <c r="AB440" s="9"/>
       <c r="AC440" s="9"/>
     </row>
-    <row r="441" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B441" s="7">
         <v>439</v>
       </c>
@@ -45369,7 +45415,7 @@
       <c r="AB441" s="9"/>
       <c r="AC441" s="9"/>
     </row>
-    <row r="442" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B442" s="7">
         <v>440</v>
       </c>
@@ -45422,7 +45468,7 @@
       <c r="AB442" s="9"/>
       <c r="AC442" s="9"/>
     </row>
-    <row r="443" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B443" s="7">
         <v>441</v>
       </c>
@@ -45475,7 +45521,7 @@
       <c r="AB443" s="9"/>
       <c r="AC443" s="9"/>
     </row>
-    <row r="444" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B444" s="7">
         <v>442</v>
       </c>
@@ -45528,7 +45574,7 @@
       <c r="AB444" s="9"/>
       <c r="AC444" s="9"/>
     </row>
-    <row r="445" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B445" s="7">
         <v>443</v>
       </c>
@@ -45581,7 +45627,7 @@
       <c r="AB445" s="9"/>
       <c r="AC445" s="9"/>
     </row>
-    <row r="446" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B446" s="7">
         <v>444</v>
       </c>
@@ -45634,7 +45680,7 @@
       <c r="AB446" s="9"/>
       <c r="AC446" s="9"/>
     </row>
-    <row r="447" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B447" s="7">
         <v>445</v>
       </c>
@@ -45683,7 +45729,7 @@
       <c r="AB447" s="9"/>
       <c r="AC447" s="9"/>
     </row>
-    <row r="448" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B448" s="7">
         <v>446</v>
       </c>
@@ -45732,7 +45778,7 @@
       <c r="AB448" s="9"/>
       <c r="AC448" s="9"/>
     </row>
-    <row r="449" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B449" s="7">
         <v>447</v>
       </c>
@@ -45783,7 +45829,7 @@
       <c r="AB449" s="9"/>
       <c r="AC449" s="9"/>
     </row>
-    <row r="450" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B450" s="7">
         <v>448</v>
       </c>
@@ -45834,7 +45880,7 @@
       <c r="AB450" s="9"/>
       <c r="AC450" s="9"/>
     </row>
-    <row r="451" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B451" s="7">
         <v>449</v>
       </c>
@@ -45887,7 +45933,7 @@
       <c r="AB451" s="9"/>
       <c r="AC451" s="9"/>
     </row>
-    <row r="452" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B452" s="7">
         <v>450</v>
       </c>
@@ -45936,7 +45982,7 @@
       <c r="AB452" s="9"/>
       <c r="AC452" s="9"/>
     </row>
-    <row r="453" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B453" s="7">
         <v>451</v>
       </c>
@@ -45989,7 +46035,7 @@
       <c r="AB453" s="9"/>
       <c r="AC453" s="9"/>
     </row>
-    <row r="454" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B454" s="7">
         <v>452</v>
       </c>
@@ -46040,7 +46086,7 @@
       <c r="AB454" s="9"/>
       <c r="AC454" s="9"/>
     </row>
-    <row r="455" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B455" s="7">
         <v>453</v>
       </c>
@@ -46091,7 +46137,7 @@
       <c r="AB455" s="9"/>
       <c r="AC455" s="9"/>
     </row>
-    <row r="456" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B456" s="7">
         <v>454</v>
       </c>
@@ -46142,7 +46188,7 @@
       <c r="AB456" s="9"/>
       <c r="AC456" s="9"/>
     </row>
-    <row r="457" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B457" s="7">
         <v>455</v>
       </c>
@@ -46193,7 +46239,7 @@
       <c r="AB457" s="9"/>
       <c r="AC457" s="9"/>
     </row>
-    <row r="458" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B458" s="7">
         <v>456</v>
       </c>
@@ -46246,7 +46292,7 @@
       <c r="AB458" s="9"/>
       <c r="AC458" s="9"/>
     </row>
-    <row r="459" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B459" s="7">
         <v>457</v>
       </c>
@@ -46297,7 +46343,7 @@
       <c r="AB459" s="9"/>
       <c r="AC459" s="9"/>
     </row>
-    <row r="460" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B460" s="7">
         <v>458</v>
       </c>
@@ -46346,7 +46392,7 @@
       <c r="AB460" s="9"/>
       <c r="AC460" s="9"/>
     </row>
-    <row r="461" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B461" s="7">
         <v>459</v>
       </c>
@@ -46395,7 +46441,7 @@
       <c r="AB461" s="9"/>
       <c r="AC461" s="9"/>
     </row>
-    <row r="462" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B462" s="7">
         <v>460</v>
       </c>
@@ -46444,7 +46490,7 @@
       <c r="AB462" s="9"/>
       <c r="AC462" s="9"/>
     </row>
-    <row r="463" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B463" s="7">
         <v>461</v>
       </c>
@@ -46493,7 +46539,7 @@
       <c r="AB463" s="9"/>
       <c r="AC463" s="9"/>
     </row>
-    <row r="464" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B464" s="7">
         <v>462</v>
       </c>
@@ -46548,7 +46594,7 @@
       <c r="AB464" s="9"/>
       <c r="AC464" s="9"/>
     </row>
-    <row r="465" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B465" s="7">
         <v>463</v>
       </c>
@@ -46597,7 +46643,7 @@
       <c r="AB465" s="9"/>
       <c r="AC465" s="9"/>
     </row>
-    <row r="466" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B466" s="7">
         <v>464</v>
       </c>
@@ -46650,7 +46696,7 @@
       <c r="AB466" s="9"/>
       <c r="AC466" s="9"/>
     </row>
-    <row r="467" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B467" s="7">
         <v>465</v>
       </c>
@@ -46703,7 +46749,7 @@
       <c r="AB467" s="9"/>
       <c r="AC467" s="9"/>
     </row>
-    <row r="468" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B468" s="7">
         <v>466</v>
       </c>
@@ -46756,7 +46802,7 @@
       <c r="AB468" s="9"/>
       <c r="AC468" s="9"/>
     </row>
-    <row r="469" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B469" s="7">
         <v>467</v>
       </c>
@@ -46809,7 +46855,7 @@
       <c r="AB469" s="9"/>
       <c r="AC469" s="9"/>
     </row>
-    <row r="470" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B470" s="7">
         <v>468</v>
       </c>
@@ -46862,7 +46908,7 @@
       <c r="AB470" s="9"/>
       <c r="AC470" s="9"/>
     </row>
-    <row r="471" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B471" s="7">
         <v>469</v>
       </c>
@@ -46915,7 +46961,7 @@
       <c r="AB471" s="9"/>
       <c r="AC471" s="9"/>
     </row>
-    <row r="472" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B472" s="7">
         <v>470</v>
       </c>
@@ -46968,7 +47014,7 @@
       <c r="AB472" s="9"/>
       <c r="AC472" s="9"/>
     </row>
-    <row r="473" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B473" s="7">
         <v>471</v>
       </c>
@@ -47021,7 +47067,7 @@
       <c r="AB473" s="9"/>
       <c r="AC473" s="9"/>
     </row>
-    <row r="474" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B474" s="7">
         <v>472</v>
       </c>
@@ -47074,7 +47120,7 @@
       <c r="AB474" s="9"/>
       <c r="AC474" s="9"/>
     </row>
-    <row r="475" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B475" s="7">
         <v>473</v>
       </c>
@@ -47127,7 +47173,7 @@
       <c r="AB475" s="9"/>
       <c r="AC475" s="9"/>
     </row>
-    <row r="476" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B476" s="7">
         <v>474</v>
       </c>
@@ -47180,7 +47226,7 @@
       <c r="AB476" s="9"/>
       <c r="AC476" s="9"/>
     </row>
-    <row r="477" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B477" s="7">
         <v>475</v>
       </c>
@@ -47233,7 +47279,7 @@
       <c r="AB477" s="9"/>
       <c r="AC477" s="9"/>
     </row>
-    <row r="478" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B478" s="7">
         <v>476</v>
       </c>
@@ -47286,7 +47332,7 @@
       <c r="AB478" s="9"/>
       <c r="AC478" s="9"/>
     </row>
-    <row r="479" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B479" s="7">
         <v>477</v>
       </c>
@@ -47339,7 +47385,7 @@
       <c r="AB479" s="9"/>
       <c r="AC479" s="9"/>
     </row>
-    <row r="480" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B480" s="7">
         <v>478</v>
       </c>
@@ -47392,7 +47438,7 @@
       <c r="AB480" s="9"/>
       <c r="AC480" s="9"/>
     </row>
-    <row r="481" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B481" s="7">
         <v>479</v>
       </c>
@@ -47445,7 +47491,7 @@
       <c r="AB481" s="9"/>
       <c r="AC481" s="9"/>
     </row>
-    <row r="482" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B482" s="7">
         <v>480</v>
       </c>
@@ -47498,7 +47544,7 @@
       <c r="AB482" s="9"/>
       <c r="AC482" s="9"/>
     </row>
-    <row r="483" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B483" s="7">
         <v>481</v>
       </c>
@@ -47551,7 +47597,7 @@
       <c r="AB483" s="9"/>
       <c r="AC483" s="9"/>
     </row>
-    <row r="484" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B484" s="7">
         <v>482</v>
       </c>
@@ -47604,7 +47650,7 @@
       <c r="AB484" s="9"/>
       <c r="AC484" s="9"/>
     </row>
-    <row r="485" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B485" s="7">
         <v>483</v>
       </c>
@@ -47657,7 +47703,7 @@
       <c r="AB485" s="9"/>
       <c r="AC485" s="9"/>
     </row>
-    <row r="486" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B486" s="7">
         <v>484</v>
       </c>
@@ -47710,7 +47756,7 @@
       <c r="AB486" s="9"/>
       <c r="AC486" s="9"/>
     </row>
-    <row r="487" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:29" ht="87" x14ac:dyDescent="0.35">
       <c r="B487" s="7">
         <v>485</v>
       </c>
@@ -47738,7 +47784,7 @@
         <v>P1</v>
       </c>
       <c r="K487" s="45" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="L487" s="32" t="s">
         <v>1722</v>
@@ -47769,7 +47815,7 @@
       </c>
       <c r="AC487" s="9"/>
     </row>
-    <row r="488" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:29" ht="87" x14ac:dyDescent="0.35">
       <c r="B488" s="7">
         <v>486</v>
       </c>
@@ -47822,7 +47868,7 @@
       <c r="AB488" s="9"/>
       <c r="AC488" s="9"/>
     </row>
-    <row r="489" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B489" s="7">
         <v>487</v>
       </c>
@@ -47871,7 +47917,7 @@
       <c r="AB489" s="9"/>
       <c r="AC489" s="9"/>
     </row>
-    <row r="490" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B490" s="7">
         <v>488</v>
       </c>
@@ -47920,7 +47966,7 @@
       <c r="AB490" s="9"/>
       <c r="AC490" s="9"/>
     </row>
-    <row r="491" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B491" s="7">
         <v>489</v>
       </c>
@@ -47972,7 +48018,7 @@
       <c r="AB491" s="9"/>
       <c r="AC491" s="9"/>
     </row>
-    <row r="492" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B492" s="7">
         <v>490</v>
       </c>
@@ -48025,7 +48071,7 @@
       <c r="AB492" s="9"/>
       <c r="AC492" s="9"/>
     </row>
-    <row r="493" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B493" s="7">
         <v>491</v>
       </c>
@@ -48053,7 +48099,7 @@
         <v>P1</v>
       </c>
       <c r="K493" s="45" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="L493" s="32" t="s">
         <v>1722</v>
@@ -48084,7 +48130,7 @@
       </c>
       <c r="AC493" s="9"/>
     </row>
-    <row r="494" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B494" s="7">
         <v>492</v>
       </c>
@@ -48112,7 +48158,7 @@
         <v>P1</v>
       </c>
       <c r="K494" s="45" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="L494" s="32" t="s">
         <v>1722</v>
@@ -48143,7 +48189,7 @@
       </c>
       <c r="AC494" s="9"/>
     </row>
-    <row r="495" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B495" s="7">
         <v>493</v>
       </c>
@@ -48171,7 +48217,7 @@
         <v>P1</v>
       </c>
       <c r="K495" s="45" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="L495" s="32" t="s">
         <v>1722</v>
@@ -48202,7 +48248,7 @@
       </c>
       <c r="AC495" s="9"/>
     </row>
-    <row r="496" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B496" s="7">
         <v>494</v>
       </c>
@@ -48251,7 +48297,7 @@
       <c r="AB496" s="9"/>
       <c r="AC496" s="9"/>
     </row>
-    <row r="497" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B497" s="7">
         <v>495</v>
       </c>
@@ -48302,7 +48348,7 @@
       <c r="AB497" s="9"/>
       <c r="AC497" s="9"/>
     </row>
-    <row r="498" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B498" s="7">
         <v>496</v>
       </c>
@@ -48351,7 +48397,7 @@
       <c r="AB498" s="9"/>
       <c r="AC498" s="9"/>
     </row>
-    <row r="499" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B499" s="7">
         <v>497</v>
       </c>
@@ -48400,7 +48446,7 @@
       <c r="AB499" s="9"/>
       <c r="AC499" s="9"/>
     </row>
-    <row r="500" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B500" s="7">
         <v>498</v>
       </c>
@@ -48449,7 +48495,7 @@
       <c r="AB500" s="9"/>
       <c r="AC500" s="9"/>
     </row>
-    <row r="501" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B501" s="7">
         <v>499</v>
       </c>
@@ -48502,7 +48548,7 @@
       <c r="AB501" s="9"/>
       <c r="AC501" s="9"/>
     </row>
-    <row r="502" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B502" s="7">
         <v>500</v>
       </c>
@@ -48555,7 +48601,7 @@
       <c r="AB502" s="9"/>
       <c r="AC502" s="9"/>
     </row>
-    <row r="503" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B503" s="7">
         <v>501</v>
       </c>
@@ -48608,7 +48654,7 @@
       <c r="AB503" s="9"/>
       <c r="AC503" s="9"/>
     </row>
-    <row r="504" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B504" s="7">
         <v>502</v>
       </c>
@@ -48661,7 +48707,7 @@
       <c r="AB504" s="9"/>
       <c r="AC504" s="9"/>
     </row>
-    <row r="505" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B505" s="7">
         <v>503</v>
       </c>
@@ -48714,7 +48760,7 @@
       <c r="AB505" s="9"/>
       <c r="AC505" s="9"/>
     </row>
-    <row r="506" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B506" s="7">
         <v>504</v>
       </c>
@@ -48767,7 +48813,7 @@
       <c r="AB506" s="9"/>
       <c r="AC506" s="9"/>
     </row>
-    <row r="507" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B507" s="7">
         <v>505</v>
       </c>
@@ -48820,7 +48866,7 @@
       <c r="AB507" s="9"/>
       <c r="AC507" s="9"/>
     </row>
-    <row r="508" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B508" s="7">
         <v>506</v>
       </c>
@@ -48873,7 +48919,7 @@
       <c r="AB508" s="9"/>
       <c r="AC508" s="9"/>
     </row>
-    <row r="509" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B509" s="7">
         <v>507</v>
       </c>
@@ -48934,7 +48980,7 @@
       </c>
       <c r="AC509" s="9"/>
     </row>
-    <row r="510" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B510" s="7">
         <v>508</v>
       </c>
@@ -48962,7 +49008,7 @@
         <v>P1</v>
       </c>
       <c r="K510" s="45" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="L510" s="13" t="s">
         <v>597</v>
@@ -48991,7 +49037,7 @@
       </c>
       <c r="AC510" s="9"/>
     </row>
-    <row r="511" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B511" s="7">
         <v>509</v>
       </c>
@@ -49038,7 +49084,7 @@
       <c r="AB511" s="9"/>
       <c r="AC511" s="9"/>
     </row>
-    <row r="512" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B512" s="7">
         <v>510</v>
       </c>
@@ -49083,7 +49129,7 @@
       <c r="AB512" s="9"/>
       <c r="AC512" s="9"/>
     </row>
-    <row r="513" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B513" s="7">
         <v>511</v>
       </c>
@@ -49134,7 +49180,7 @@
       <c r="AB513" s="9"/>
       <c r="AC513" s="9"/>
     </row>
-    <row r="514" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B514" s="7">
         <v>512</v>
       </c>
@@ -49185,7 +49231,7 @@
       <c r="AB514" s="9"/>
       <c r="AC514" s="9"/>
     </row>
-    <row r="515" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:29" ht="294" x14ac:dyDescent="0.35">
       <c r="B515" s="7">
         <v>513</v>
       </c>
@@ -49236,7 +49282,7 @@
       <c r="AB515" s="9"/>
       <c r="AC515" s="9"/>
     </row>
-    <row r="516" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B516" s="7">
         <v>514</v>
       </c>
@@ -49287,7 +49333,7 @@
       <c r="AB516" s="9"/>
       <c r="AC516" s="9"/>
     </row>
-    <row r="517" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B517" s="7">
         <v>515</v>
       </c>
@@ -49338,7 +49384,7 @@
       <c r="AB517" s="9"/>
       <c r="AC517" s="9"/>
     </row>
-    <row r="518" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B518" s="7">
         <v>516</v>
       </c>
@@ -49389,7 +49435,7 @@
       <c r="AB518" s="9"/>
       <c r="AC518" s="9"/>
     </row>
-    <row r="519" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B519" s="7">
         <v>517</v>
       </c>
@@ -49444,7 +49490,7 @@
       <c r="AB519" s="9"/>
       <c r="AC519" s="9"/>
     </row>
-    <row r="520" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B520" s="7">
         <v>518</v>
       </c>
@@ -49499,7 +49545,7 @@
       <c r="AB520" s="9"/>
       <c r="AC520" s="9"/>
     </row>
-    <row r="521" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B521" s="7">
         <v>519</v>
       </c>
@@ -49554,7 +49600,7 @@
       <c r="AB521" s="9"/>
       <c r="AC521" s="9"/>
     </row>
-    <row r="522" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B522" s="7">
         <v>520</v>
       </c>
@@ -49609,7 +49655,7 @@
       <c r="AB522" s="9"/>
       <c r="AC522" s="9"/>
     </row>
-    <row r="523" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B523" s="7">
         <v>521</v>
       </c>
@@ -49664,7 +49710,7 @@
       <c r="AB523" s="9"/>
       <c r="AC523" s="9"/>
     </row>
-    <row r="524" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B524" s="7">
         <v>522</v>
       </c>
@@ -49719,7 +49765,7 @@
       <c r="AB524" s="9"/>
       <c r="AC524" s="9"/>
     </row>
-    <row r="525" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B525" s="7">
         <v>523</v>
       </c>
@@ -49774,7 +49820,7 @@
       <c r="AB525" s="9"/>
       <c r="AC525" s="9"/>
     </row>
-    <row r="526" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B526" s="7">
         <v>524</v>
       </c>
@@ -49829,7 +49875,7 @@
       <c r="AB526" s="9"/>
       <c r="AC526" s="9"/>
     </row>
-    <row r="527" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B527" s="7">
         <v>525</v>
       </c>
@@ -49884,7 +49930,7 @@
       <c r="AB527" s="9"/>
       <c r="AC527" s="9"/>
     </row>
-    <row r="528" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:29" ht="392" x14ac:dyDescent="0.35">
       <c r="B528" s="7">
         <v>526</v>
       </c>
@@ -49939,7 +49985,7 @@
       <c r="AB528" s="9"/>
       <c r="AC528" s="9"/>
     </row>
-    <row r="529" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B529" s="7">
         <v>527</v>
       </c>
@@ -49994,7 +50040,7 @@
       <c r="AB529" s="9"/>
       <c r="AC529" s="9"/>
     </row>
-    <row r="530" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B530" s="7">
         <v>528</v>
       </c>
@@ -50049,7 +50095,7 @@
       <c r="AB530" s="9"/>
       <c r="AC530" s="9"/>
     </row>
-    <row r="531" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B531" s="7">
         <v>529</v>
       </c>
@@ -50098,7 +50144,7 @@
       <c r="AB531" s="9"/>
       <c r="AC531" s="9"/>
     </row>
-    <row r="532" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B532" s="7">
         <v>530</v>
       </c>
@@ -50151,7 +50197,7 @@
       <c r="AB532" s="9"/>
       <c r="AC532" s="9"/>
     </row>
-    <row r="533" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B533" s="7">
         <v>531</v>
       </c>
@@ -50202,7 +50248,7 @@
       <c r="AB533" s="9"/>
       <c r="AC533" s="9"/>
     </row>
-    <row r="534" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B534" s="7">
         <v>532</v>
       </c>
@@ -50255,7 +50301,7 @@
       <c r="AB534" s="9"/>
       <c r="AC534" s="9"/>
     </row>
-    <row r="535" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B535" s="7">
         <v>533</v>
       </c>
@@ -50308,7 +50354,7 @@
       <c r="AB535" s="9"/>
       <c r="AC535" s="9"/>
     </row>
-    <row r="536" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B536" s="7">
         <v>534</v>
       </c>
@@ -50359,7 +50405,7 @@
       <c r="AB536" s="9"/>
       <c r="AC536" s="9"/>
     </row>
-    <row r="537" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B537" s="7">
         <v>535</v>
       </c>
@@ -50410,7 +50456,7 @@
       <c r="AB537" s="9"/>
       <c r="AC537" s="9"/>
     </row>
-    <row r="538" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B538" s="7">
         <v>536</v>
       </c>
@@ -50461,7 +50507,7 @@
       <c r="AB538" s="9"/>
       <c r="AC538" s="9"/>
     </row>
-    <row r="539" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B539" s="7">
         <v>537</v>
       </c>
@@ -50512,7 +50558,7 @@
       <c r="AB539" s="9"/>
       <c r="AC539" s="9"/>
     </row>
-    <row r="540" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B540" s="7">
         <v>538</v>
       </c>
@@ -50563,7 +50609,7 @@
       <c r="AB540" s="9"/>
       <c r="AC540" s="9"/>
     </row>
-    <row r="541" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B541" s="7">
         <v>539</v>
       </c>
@@ -50614,7 +50660,7 @@
       <c r="AB541" s="9"/>
       <c r="AC541" s="9"/>
     </row>
-    <row r="542" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B542" s="7">
         <v>540</v>
       </c>
@@ -50665,7 +50711,7 @@
       <c r="AB542" s="9"/>
       <c r="AC542" s="9"/>
     </row>
-    <row r="543" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B543" s="7">
         <v>541</v>
       </c>
@@ -50718,7 +50764,7 @@
       <c r="AB543" s="9"/>
       <c r="AC543" s="9"/>
     </row>
-    <row r="544" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B544" s="7">
         <v>542</v>
       </c>
@@ -50771,7 +50817,7 @@
       <c r="AB544" s="9"/>
       <c r="AC544" s="9"/>
     </row>
-    <row r="545" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B545" s="7">
         <v>543</v>
       </c>
@@ -50824,7 +50870,7 @@
       <c r="AB545" s="9"/>
       <c r="AC545" s="9"/>
     </row>
-    <row r="546" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B546" s="7">
         <v>544</v>
       </c>
@@ -50875,7 +50921,7 @@
       <c r="AB546" s="9"/>
       <c r="AC546" s="9"/>
     </row>
-    <row r="547" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B547" s="7">
         <v>545</v>
       </c>
@@ -50926,7 +50972,7 @@
       <c r="AB547" s="9"/>
       <c r="AC547" s="9"/>
     </row>
-    <row r="548" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B548" s="7">
         <v>546</v>
       </c>
@@ -50977,7 +51023,7 @@
       <c r="AB548" s="9"/>
       <c r="AC548" s="9"/>
     </row>
-    <row r="549" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B549" s="7">
         <v>547</v>
       </c>
@@ -51030,7 +51076,7 @@
       <c r="AB549" s="9"/>
       <c r="AC549" s="9"/>
     </row>
-    <row r="550" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B550" s="7">
         <v>548</v>
       </c>
@@ -51081,7 +51127,7 @@
       <c r="AB550" s="9"/>
       <c r="AC550" s="9"/>
     </row>
-    <row r="551" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B551" s="7">
         <v>549</v>
       </c>
@@ -51132,7 +51178,7 @@
       <c r="AB551" s="9"/>
       <c r="AC551" s="9"/>
     </row>
-    <row r="552" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B552" s="7">
         <v>550</v>
       </c>
@@ -51183,7 +51229,7 @@
       <c r="AB552" s="9"/>
       <c r="AC552" s="9"/>
     </row>
-    <row r="553" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B553" s="7">
         <v>551</v>
       </c>
@@ -51234,7 +51280,7 @@
       <c r="AB553" s="9"/>
       <c r="AC553" s="9"/>
     </row>
-    <row r="554" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B554" s="7">
         <v>552</v>
       </c>
@@ -51285,7 +51331,7 @@
       <c r="AB554" s="9"/>
       <c r="AC554" s="9"/>
     </row>
-    <row r="555" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B555" s="7">
         <v>553</v>
       </c>
@@ -51336,7 +51382,7 @@
       <c r="AB555" s="9"/>
       <c r="AC555" s="9"/>
     </row>
-    <row r="556" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B556" s="7">
         <v>554</v>
       </c>
@@ -51387,7 +51433,7 @@
       <c r="AB556" s="9"/>
       <c r="AC556" s="9"/>
     </row>
-    <row r="557" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B557" s="7">
         <v>555</v>
       </c>
@@ -51438,7 +51484,7 @@
       <c r="AB557" s="9"/>
       <c r="AC557" s="9"/>
     </row>
-    <row r="558" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B558" s="7">
         <v>556</v>
       </c>
@@ -51489,7 +51535,7 @@
       <c r="AB558" s="9"/>
       <c r="AC558" s="9"/>
     </row>
-    <row r="559" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B559" s="7">
         <v>557</v>
       </c>
@@ -51540,7 +51586,7 @@
       <c r="AB559" s="9"/>
       <c r="AC559" s="9"/>
     </row>
-    <row r="560" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B560" s="7">
         <v>558</v>
       </c>
@@ -51591,7 +51637,7 @@
       <c r="AB560" s="9"/>
       <c r="AC560" s="9"/>
     </row>
-    <row r="561" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B561" s="7">
         <v>559</v>
       </c>
@@ -51642,7 +51688,7 @@
       <c r="AB561" s="9"/>
       <c r="AC561" s="9"/>
     </row>
-    <row r="562" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B562" s="7">
         <v>560</v>
       </c>
@@ -51693,7 +51739,7 @@
       <c r="AB562" s="9"/>
       <c r="AC562" s="9"/>
     </row>
-    <row r="563" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B563" s="7">
         <v>561</v>
       </c>
@@ -51744,7 +51790,7 @@
       <c r="AB563" s="9"/>
       <c r="AC563" s="9"/>
     </row>
-    <row r="564" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B564" s="7">
         <v>562</v>
       </c>
@@ -51795,7 +51841,7 @@
       <c r="AB564" s="9"/>
       <c r="AC564" s="9"/>
     </row>
-    <row r="565" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B565" s="7">
         <v>563</v>
       </c>
@@ -51846,7 +51892,7 @@
       <c r="AB565" s="9"/>
       <c r="AC565" s="9"/>
     </row>
-    <row r="566" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B566" s="7">
         <v>564</v>
       </c>
@@ -51897,7 +51943,7 @@
       <c r="AB566" s="9"/>
       <c r="AC566" s="9"/>
     </row>
-    <row r="567" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B567" s="7">
         <v>565</v>
       </c>
@@ -51948,7 +51994,7 @@
       <c r="AB567" s="9"/>
       <c r="AC567" s="9"/>
     </row>
-    <row r="568" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B568" s="7">
         <v>566</v>
       </c>
@@ -51999,7 +52045,7 @@
       <c r="AB568" s="9"/>
       <c r="AC568" s="9"/>
     </row>
-    <row r="569" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B569" s="7">
         <v>567</v>
       </c>
@@ -52050,7 +52096,7 @@
       <c r="AB569" s="9"/>
       <c r="AC569" s="9"/>
     </row>
-    <row r="570" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B570" s="7">
         <v>568</v>
       </c>
@@ -52101,7 +52147,7 @@
       <c r="AB570" s="9"/>
       <c r="AC570" s="9"/>
     </row>
-    <row r="571" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B571" s="7">
         <v>569</v>
       </c>
@@ -52152,7 +52198,7 @@
       <c r="AB571" s="9"/>
       <c r="AC571" s="9"/>
     </row>
-    <row r="572" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B572" s="7">
         <v>570</v>
       </c>
@@ -52203,7 +52249,7 @@
       <c r="AB572" s="9"/>
       <c r="AC572" s="9"/>
     </row>
-    <row r="573" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B573" s="7">
         <v>571</v>
       </c>
@@ -52254,7 +52300,7 @@
       <c r="AB573" s="9"/>
       <c r="AC573" s="9"/>
     </row>
-    <row r="574" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B574" s="7">
         <v>572</v>
       </c>
@@ -52305,7 +52351,7 @@
       <c r="AB574" s="9"/>
       <c r="AC574" s="9"/>
     </row>
-    <row r="575" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B575" s="7">
         <v>573</v>
       </c>
@@ -52358,7 +52404,7 @@
       <c r="AB575" s="9"/>
       <c r="AC575" s="9"/>
     </row>
-    <row r="576" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B576" s="7">
         <v>574</v>
       </c>
@@ -52409,7 +52455,7 @@
       <c r="AB576" s="9"/>
       <c r="AC576" s="9"/>
     </row>
-    <row r="577" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B577" s="7">
         <v>575</v>
       </c>
@@ -52460,7 +52506,7 @@
       <c r="AB577" s="9"/>
       <c r="AC577" s="9"/>
     </row>
-    <row r="578" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B578" s="7">
         <v>576</v>
       </c>
@@ -52511,7 +52557,7 @@
       <c r="AB578" s="9"/>
       <c r="AC578" s="9"/>
     </row>
-    <row r="579" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B579" s="7">
         <v>577</v>
       </c>
@@ -52564,7 +52610,7 @@
       <c r="AB579" s="9"/>
       <c r="AC579" s="9"/>
     </row>
-    <row r="580" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B580" s="7">
         <v>578</v>
       </c>
@@ -52615,7 +52661,7 @@
       <c r="AB580" s="9"/>
       <c r="AC580" s="9"/>
     </row>
-    <row r="581" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B581" s="7">
         <v>579</v>
       </c>
@@ -52666,7 +52712,7 @@
       <c r="AB581" s="9"/>
       <c r="AC581" s="9"/>
     </row>
-    <row r="582" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B582" s="7">
         <v>580</v>
       </c>
@@ -52717,7 +52763,7 @@
       <c r="AB582" s="9"/>
       <c r="AC582" s="9"/>
     </row>
-    <row r="583" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B583" s="7">
         <v>581</v>
       </c>
@@ -52768,7 +52814,7 @@
       <c r="AB583" s="9"/>
       <c r="AC583" s="9"/>
     </row>
-    <row r="584" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B584" s="7">
         <v>582</v>
       </c>
@@ -52817,7 +52863,7 @@
       <c r="AB584" s="9"/>
       <c r="AC584" s="9"/>
     </row>
-    <row r="585" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B585" s="7">
         <v>583</v>
       </c>
@@ -52858,7 +52904,7 @@
       <c r="AB585" s="9"/>
       <c r="AC585" s="9"/>
     </row>
-    <row r="586" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B586" s="7">
         <v>584</v>
       </c>
@@ -52899,7 +52945,7 @@
       <c r="AB586" s="9"/>
       <c r="AC586" s="9"/>
     </row>
-    <row r="587" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B587" s="7">
         <v>585</v>
       </c>
@@ -52942,7 +52988,7 @@
       <c r="Y587" s="9"/>
       <c r="AC587" s="9"/>
     </row>
-    <row r="588" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B588" s="7">
         <v>586</v>
       </c>
@@ -52985,7 +53031,7 @@
       <c r="Y588" s="9"/>
       <c r="AC588" s="9"/>
     </row>
-    <row r="589" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B589" s="7">
         <v>587</v>
       </c>
@@ -53027,7 +53073,7 @@
       <c r="Y589" s="9"/>
       <c r="AC589" s="9"/>
     </row>
-    <row r="590" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B590" s="7">
         <v>588</v>
       </c>
@@ -53069,7 +53115,7 @@
       <c r="Y590" s="9"/>
       <c r="AC590" s="9"/>
     </row>
-    <row r="591" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B591" s="7">
         <v>589</v>
       </c>
@@ -53111,7 +53157,7 @@
       <c r="Y591" s="9"/>
       <c r="AC591" s="9"/>
     </row>
-    <row r="592" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B592" s="7">
         <v>590</v>
       </c>
@@ -53153,7 +53199,7 @@
       <c r="Y592" s="9"/>
       <c r="AC592" s="9"/>
     </row>
-    <row r="593" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B593" s="7">
         <v>591</v>
       </c>
@@ -53195,70 +53241,174 @@
       <c r="Y593" s="9"/>
       <c r="AC593" s="9"/>
     </row>
-    <row r="594" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
-      <c r="B594" s="7">
+    <row r="594" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+      <c r="B594" s="54">
         <v>592</v>
       </c>
-      <c r="C594" s="9" t="s">
+      <c r="C594" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="D594" s="9" t="s">
+      <c r="D594" s="55" t="s">
         <v>1799</v>
       </c>
-      <c r="E594" s="44" t="s">
+      <c r="E594" s="56" t="s">
         <v>1739</v>
       </c>
-      <c r="F594" s="9" t="s">
+      <c r="F594" s="55" t="s">
         <v>1804</v>
       </c>
-      <c r="G594" s="9" t="s">
+      <c r="G594" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="H594" s="9" t="s">
+      <c r="H594" s="55" t="s">
         <v>1804</v>
       </c>
-      <c r="I594" s="44" t="s">
+      <c r="I594" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J594" s="44" t="s">
+      <c r="J594" s="56" t="s">
         <v>635</v>
       </c>
-      <c r="K594" s="45">
+      <c r="K594" s="56">
         <v>14</v>
       </c>
-      <c r="L594" s="44" t="s">
+      <c r="L594" s="56" t="s">
         <v>597</v>
       </c>
-      <c r="M594" s="9"/>
-      <c r="N594" s="9"/>
-      <c r="O594" s="9">
+      <c r="M594" s="55"/>
+      <c r="N594" s="55"/>
+      <c r="O594" s="55">
         <v>3.5</v>
       </c>
-      <c r="Y594" s="9"/>
-      <c r="AC594" s="9"/>
-    </row>
-    <row r="595" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E595" s="46"/>
-    </row>
-    <row r="596" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E596" s="47"/>
-    </row>
-    <row r="597" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I597" s="26" t="s">
+      <c r="Y594" s="55"/>
+      <c r="AC594" s="55"/>
+    </row>
+    <row r="595" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+      <c r="B595" s="57">
+        <v>593</v>
+      </c>
+      <c r="C595" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D595" s="9" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E595" s="49" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F595" s="9" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G595" s="9" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H595" s="9"/>
+      <c r="I595" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J595" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="K595" s="9" t="s">
+        <v>1836</v>
+      </c>
+      <c r="L595" s="9"/>
+      <c r="M595" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N595" s="9"/>
+      <c r="O595" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="P595" s="9"/>
+      <c r="Q595" s="9"/>
+      <c r="R595" s="9"/>
+      <c r="S595" s="9"/>
+      <c r="T595" s="9"/>
+      <c r="U595" s="9"/>
+      <c r="V595" s="9"/>
+      <c r="W595" s="9"/>
+      <c r="X595" s="9"/>
+      <c r="Y595" s="9"/>
+      <c r="Z595" s="9"/>
+      <c r="AA595" s="9"/>
+      <c r="AB595" s="9"/>
+      <c r="AC595" s="9"/>
+    </row>
+    <row r="596" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+      <c r="B596" s="57">
+        <v>594</v>
+      </c>
+      <c r="C596" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D596" s="9" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E596" s="49" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F596" s="9" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G596" s="9" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H596" s="9"/>
+      <c r="I596" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J596" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="K596" s="9" t="s">
+        <v>1851</v>
+      </c>
+      <c r="L596" s="9"/>
+      <c r="M596" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N596" s="9"/>
+      <c r="O596" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="P596" s="9"/>
+      <c r="Q596" s="9"/>
+      <c r="R596" s="9"/>
+      <c r="S596" s="9"/>
+      <c r="T596" s="9"/>
+      <c r="U596" s="9"/>
+      <c r="V596" s="9"/>
+      <c r="W596" s="9"/>
+      <c r="X596" s="9"/>
+      <c r="Y596" s="9"/>
+      <c r="Z596" s="9"/>
+      <c r="AA596" s="9"/>
+      <c r="AB596" s="9"/>
+      <c r="AC596" s="9"/>
+    </row>
+    <row r="597" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="E597" s="46"/>
+    </row>
+    <row r="598" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E598" s="47"/>
+    </row>
+    <row r="599" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I599" s="26" t="s">
         <v>1707</v>
       </c>
-      <c r="J597" s="27"/>
-      <c r="K597" s="27"/>
-      <c r="L597" s="27"/>
-      <c r="M597" s="27"/>
-      <c r="N597" s="27"/>
-      <c r="O597" s="27">
+      <c r="J599" s="27"/>
+      <c r="K599" s="27"/>
+      <c r="L599" s="27"/>
+      <c r="M599" s="27"/>
+      <c r="N599" s="27"/>
+      <c r="O599" s="27">
         <f>SUM(O5:O594)</f>
         <v>4791.9499999999935</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AB594" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A4:AB596" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="B2:D2"/>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74456B4A-0FEB-47B3-9C92-E891FBD28D18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7AD99C64-6FEA-4C8A-AF6B-78328491D49C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -6555,6 +6555,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6565,18 +6577,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22281,37 +22281,37 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>595</v>
       </c>
@@ -22327,7 +22327,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>1725</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>1718</v>
       </c>
@@ -22367,7 +22367,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>601</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>585.70000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>704</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>1719</v>
       </c>
@@ -22469,52 +22469,52 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M510" sqref="M510"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="12.81640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" style="8" customWidth="1"/>
-    <col min="13" max="14" width="12.81640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23.26953125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="12.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="8" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="8" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1796875" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="8" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="8" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="15.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.81640625" style="8" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.54296875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="43.54296875" style="8" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="15.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="43.5703125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="43.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" style="8" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="37.1796875" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="9.1796875" style="8"/>
+    <col min="29" max="29" width="37.140625" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="AA3" s="21"/>
     </row>
-    <row r="4" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>1689</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -22646,7 +22646,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -22702,7 +22702,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -22758,7 +22758,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -22814,7 +22814,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -22870,7 +22870,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -22926,7 +22926,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -22982,7 +22982,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -23038,7 +23038,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -23094,7 +23094,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -23142,7 +23142,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -23190,7 +23190,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -23236,7 +23236,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -23282,7 +23282,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -23326,7 +23326,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -23372,7 +23372,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -23416,7 +23416,7 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -23460,7 +23460,7 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -23502,7 +23502,7 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
     </row>
-    <row r="23" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -23546,7 +23546,7 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -23588,7 +23588,7 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -23630,7 +23630,7 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -23678,7 +23678,7 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
     </row>
-    <row r="27" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -23722,7 +23722,7 @@
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
     </row>
-    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -23768,7 +23768,7 @@
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
     </row>
-    <row r="29" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -23814,7 +23814,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
     </row>
-    <row r="30" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -23854,7 +23854,7 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -23894,7 +23894,7 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
     </row>
-    <row r="32" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -23940,7 +23940,7 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -23980,7 +23980,7 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
     </row>
-    <row r="34" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -24024,7 +24024,7 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -24066,7 +24066,7 @@
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="36" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -24114,7 +24114,7 @@
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -24162,7 +24162,7 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
     </row>
-    <row r="38" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -24214,7 +24214,7 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
     </row>
-    <row r="39" spans="2:29" s="16" customFormat="1" ht="238" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:29" s="16" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -24264,7 +24264,7 @@
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
     </row>
-    <row r="40" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -24314,7 +24314,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
     </row>
-    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -24364,7 +24364,7 @@
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -24414,7 +24414,7 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -24464,7 +24464,7 @@
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -24499,7 +24499,7 @@
         <v>1722</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>631</v>
+        <v>1002</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="9">
@@ -24520,7 +24520,7 @@
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
     </row>
-    <row r="45" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -24574,7 +24574,7 @@
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
     </row>
-    <row r="46" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -24632,7 +24632,7 @@
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
     </row>
-    <row r="47" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -24682,7 +24682,7 @@
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
     </row>
-    <row r="48" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -24730,7 +24730,7 @@
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -24780,7 +24780,7 @@
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
     </row>
-    <row r="50" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -24830,7 +24830,7 @@
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
     </row>
-    <row r="51" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -24878,7 +24878,7 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -24928,7 +24928,7 @@
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
     </row>
-    <row r="53" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -24980,7 +24980,7 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
     </row>
-    <row r="54" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -25032,7 +25032,7 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
     </row>
-    <row r="55" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -25084,7 +25084,7 @@
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
     </row>
-    <row r="56" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -25136,7 +25136,7 @@
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
     </row>
-    <row r="57" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -25198,7 +25198,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -25246,7 +25246,7 @@
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
     </row>
-    <row r="59" spans="2:29" ht="378" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -25298,7 +25298,7 @@
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" spans="2:29" ht="350" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:29" ht="342" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -25352,7 +25352,7 @@
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
     </row>
-    <row r="61" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -25406,7 +25406,7 @@
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
     </row>
-    <row r="62" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>58</v>
       </c>
@@ -25466,7 +25466,7 @@
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
     </row>
-    <row r="63" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>59</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="64" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>60</v>
       </c>
@@ -25582,7 +25582,7 @@
       </c>
       <c r="AC64" s="9"/>
     </row>
-    <row r="65" spans="2:29" ht="350" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>61</v>
       </c>
@@ -25636,7 +25636,7 @@
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
     </row>
-    <row r="66" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>62</v>
       </c>
@@ -25682,7 +25682,7 @@
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
     </row>
-    <row r="67" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
         <v>63</v>
       </c>
@@ -25728,7 +25728,7 @@
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
     </row>
-    <row r="68" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="69" spans="2:29" ht="364" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <v>65</v>
       </c>
@@ -25840,7 +25840,7 @@
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
     </row>
-    <row r="70" spans="2:29" ht="392" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <v>66</v>
       </c>
@@ -25888,7 +25888,7 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
     </row>
-    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -25936,7 +25936,7 @@
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
     </row>
-    <row r="72" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -25982,7 +25982,7 @@
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>69</v>
       </c>
@@ -26028,7 +26028,7 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
     </row>
-    <row r="74" spans="2:29" ht="364" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>70</v>
       </c>
@@ -26076,7 +26076,7 @@
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
     </row>
-    <row r="75" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>71</v>
       </c>
@@ -26128,7 +26128,7 @@
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
     </row>
-    <row r="76" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <v>72</v>
       </c>
@@ -26184,7 +26184,7 @@
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
     </row>
-    <row r="77" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <v>76</v>
       </c>
@@ -26244,7 +26244,7 @@
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
     </row>
-    <row r="78" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <v>73</v>
       </c>
@@ -26306,7 +26306,7 @@
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
     </row>
-    <row r="79" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7">
         <v>74</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="80" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>75</v>
       </c>
@@ -26428,7 +26428,7 @@
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
     </row>
-    <row r="81" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B81" s="7">
         <v>77</v>
       </c>
@@ -26492,7 +26492,7 @@
       </c>
       <c r="AC81" s="9"/>
     </row>
-    <row r="82" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B82" s="7">
         <v>78</v>
       </c>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="AC82" s="9"/>
     </row>
-    <row r="83" spans="2:29" ht="266" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
       <c r="B83" s="7">
         <v>79</v>
       </c>
@@ -26616,7 +26616,7 @@
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
     </row>
-    <row r="84" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B84" s="7">
         <v>80</v>
       </c>
@@ -26680,7 +26680,7 @@
       </c>
       <c r="AC84" s="9"/>
     </row>
-    <row r="85" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
         <v>81</v>
       </c>
@@ -26742,7 +26742,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="86" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -26801,7 +26801,7 @@
       </c>
       <c r="AB86" s="9"/>
     </row>
-    <row r="87" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7">
         <v>83</v>
       </c>
@@ -26849,7 +26849,7 @@
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
     </row>
-    <row r="88" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B88" s="7">
         <v>84</v>
       </c>
@@ -26913,7 +26913,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="89" spans="2:29" ht="280" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
       <c r="B89" s="7">
         <v>85</v>
       </c>
@@ -26973,7 +26973,7 @@
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
     </row>
-    <row r="90" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:29" ht="285" x14ac:dyDescent="0.25">
       <c r="B90" s="7">
         <v>87</v>
       </c>
@@ -27025,14 +27025,14 @@
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
     </row>
-    <row r="91" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B91" s="7">
         <v>88</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="54" t="s">
         <v>148</v>
       </c>
       <c r="E91" s="12" t="s">
@@ -27073,14 +27073,14 @@
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
     </row>
-    <row r="92" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
         <v>89</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="50"/>
+      <c r="D92" s="54"/>
       <c r="E92" s="12" t="s">
         <v>18</v>
       </c>
@@ -27119,7 +27119,7 @@
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
     </row>
-    <row r="93" spans="2:29" ht="266" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:29" ht="285" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
         <v>90</v>
       </c>
@@ -27167,7 +27167,7 @@
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
     </row>
-    <row r="94" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
         <v>91</v>
       </c>
@@ -27215,7 +27215,7 @@
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
     </row>
-    <row r="95" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
         <v>92</v>
       </c>
@@ -27263,7 +27263,7 @@
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
     </row>
-    <row r="96" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>93</v>
       </c>
@@ -27321,7 +27321,7 @@
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
     </row>
-    <row r="97" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
       <c r="B97" s="7">
         <v>94</v>
       </c>
@@ -27369,7 +27369,7 @@
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
     </row>
-    <row r="98" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B98" s="7">
         <v>95</v>
       </c>
@@ -27415,7 +27415,7 @@
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
     </row>
-    <row r="99" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
         <v>96</v>
       </c>
@@ -27463,7 +27463,7 @@
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
     </row>
-    <row r="100" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B100" s="7">
         <v>97</v>
       </c>
@@ -27517,7 +27517,7 @@
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
     </row>
-    <row r="101" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B101" s="7">
         <v>98</v>
       </c>
@@ -27567,7 +27567,7 @@
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
     </row>
-    <row r="102" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <v>99</v>
       </c>
@@ -27615,7 +27615,7 @@
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
     </row>
-    <row r="103" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B103" s="7">
         <v>100</v>
       </c>
@@ -27663,7 +27663,7 @@
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
     </row>
-    <row r="104" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B104" s="7">
         <v>101</v>
       </c>
@@ -27713,7 +27713,7 @@
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
     </row>
-    <row r="105" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B105" s="7">
         <v>102</v>
       </c>
@@ -27761,7 +27761,7 @@
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
     </row>
-    <row r="106" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
         <v>103</v>
       </c>
@@ -27809,7 +27809,7 @@
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
     </row>
-    <row r="107" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B107" s="7">
         <v>104</v>
       </c>
@@ -27861,7 +27861,7 @@
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
     </row>
-    <row r="108" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B108" s="7">
         <v>105</v>
       </c>
@@ -27907,7 +27907,7 @@
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
     </row>
-    <row r="109" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B109" s="7">
         <v>106</v>
       </c>
@@ -27963,7 +27963,7 @@
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
     </row>
-    <row r="110" spans="2:29" ht="406" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B110" s="7">
         <v>107</v>
       </c>
@@ -28015,7 +28015,7 @@
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
     </row>
-    <row r="111" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B111" s="7">
         <v>108</v>
       </c>
@@ -28071,7 +28071,7 @@
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
     </row>
-    <row r="112" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7">
         <v>109</v>
       </c>
@@ -28123,7 +28123,7 @@
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
     </row>
-    <row r="113" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B113" s="7">
         <v>110</v>
       </c>
@@ -28179,7 +28179,7 @@
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
     </row>
-    <row r="114" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B114" s="7">
         <v>111</v>
       </c>
@@ -28231,7 +28231,7 @@
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
     </row>
-    <row r="115" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B115" s="7">
         <v>112</v>
       </c>
@@ -28283,7 +28283,7 @@
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
     </row>
-    <row r="116" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B116" s="7">
         <v>113</v>
       </c>
@@ -28335,7 +28335,7 @@
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
     </row>
-    <row r="117" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B117" s="7">
         <v>114</v>
       </c>
@@ -28387,7 +28387,7 @@
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
     </row>
-    <row r="118" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B118" s="7">
         <v>115</v>
       </c>
@@ -28445,7 +28445,7 @@
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
     </row>
-    <row r="119" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B119" s="7">
         <v>116</v>
       </c>
@@ -28501,7 +28501,7 @@
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
     </row>
-    <row r="120" spans="2:29" ht="308" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
         <v>117</v>
       </c>
@@ -28553,7 +28553,7 @@
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
     </row>
-    <row r="121" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
         <v>118</v>
       </c>
@@ -28605,7 +28605,7 @@
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
     </row>
-    <row r="122" spans="2:29" ht="336" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
       <c r="B122" s="7">
         <v>119</v>
       </c>
@@ -28657,7 +28657,7 @@
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
     </row>
-    <row r="123" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B123" s="7">
         <v>120</v>
       </c>
@@ -28709,7 +28709,7 @@
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
     </row>
-    <row r="124" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B124" s="7">
         <v>121</v>
       </c>
@@ -28759,7 +28759,7 @@
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
     </row>
-    <row r="125" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B125" s="7">
         <v>122</v>
       </c>
@@ -28815,7 +28815,7 @@
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
     </row>
-    <row r="126" spans="2:29" ht="364" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
       <c r="B126" s="7">
         <v>123</v>
       </c>
@@ -28867,7 +28867,7 @@
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
     </row>
-    <row r="127" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
         <v>124</v>
       </c>
@@ -28919,7 +28919,7 @@
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
     </row>
-    <row r="128" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B128" s="7">
         <v>125</v>
       </c>
@@ -28977,7 +28977,7 @@
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
     </row>
-    <row r="129" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B129" s="7">
         <v>126</v>
       </c>
@@ -29035,7 +29035,7 @@
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
     </row>
-    <row r="130" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B130" s="7">
         <v>127</v>
       </c>
@@ -29087,7 +29087,7 @@
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
     </row>
-    <row r="131" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B131" s="7">
         <v>128</v>
       </c>
@@ -29139,7 +29139,7 @@
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
     </row>
-    <row r="132" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
         <v>129</v>
       </c>
@@ -29191,7 +29191,7 @@
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
     </row>
-    <row r="133" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B133" s="7">
         <v>130</v>
       </c>
@@ -29243,7 +29243,7 @@
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
     </row>
-    <row r="134" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B134" s="7">
         <v>131</v>
       </c>
@@ -29295,7 +29295,7 @@
       <c r="AB134" s="9"/>
       <c r="AC134" s="9"/>
     </row>
-    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B135" s="7">
         <v>132</v>
       </c>
@@ -29353,7 +29353,7 @@
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
     </row>
-    <row r="136" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B136" s="7">
         <v>133</v>
       </c>
@@ -29399,7 +29399,7 @@
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
     </row>
-    <row r="137" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B137" s="7">
         <v>134</v>
       </c>
@@ -29447,7 +29447,7 @@
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
     </row>
-    <row r="138" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B138" s="7">
         <v>135</v>
       </c>
@@ -29497,7 +29497,7 @@
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
     </row>
-    <row r="139" spans="2:29" ht="364" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
       <c r="B139" s="7">
         <v>136</v>
       </c>
@@ -29551,7 +29551,7 @@
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
     </row>
-    <row r="140" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B140" s="7">
         <v>137</v>
       </c>
@@ -29599,7 +29599,7 @@
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
     </row>
-    <row r="141" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B141" s="7">
         <v>138</v>
       </c>
@@ -29651,7 +29651,7 @@
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
     </row>
-    <row r="142" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
         <v>139</v>
       </c>
@@ -29705,7 +29705,7 @@
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
     </row>
-    <row r="143" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B143" s="7">
         <v>140</v>
       </c>
@@ -29765,7 +29765,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="144" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
         <v>141</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="145" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B145" s="7">
         <v>142</v>
       </c>
@@ -29887,7 +29887,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="146" spans="2:29" ht="322" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
       <c r="B146" s="7">
         <v>143</v>
       </c>
@@ -29944,7 +29944,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="147" spans="2:29" ht="308" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
         <v>144</v>
       </c>
@@ -30002,7 +30002,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="148" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B148" s="7">
         <v>145</v>
       </c>
@@ -30062,7 +30062,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="149" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B149" s="7">
         <v>146</v>
       </c>
@@ -30116,7 +30116,7 @@
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
     </row>
-    <row r="150" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B150" s="7">
         <v>147</v>
       </c>
@@ -30170,7 +30170,7 @@
       <c r="AB150" s="9"/>
       <c r="AC150" s="9"/>
     </row>
-    <row r="151" spans="2:29" ht="406" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B151" s="7">
         <v>149</v>
       </c>
@@ -30226,7 +30226,7 @@
       </c>
       <c r="AC151" s="9"/>
     </row>
-    <row r="152" spans="2:29" ht="378" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
       <c r="B152" s="7">
         <v>150</v>
       </c>
@@ -30274,7 +30274,7 @@
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
     </row>
-    <row r="153" spans="2:29" ht="350" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
       <c r="B153" s="7">
         <v>151</v>
       </c>
@@ -30322,7 +30322,7 @@
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
     </row>
-    <row r="154" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B154" s="7">
         <v>152</v>
       </c>
@@ -30372,7 +30372,7 @@
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
     </row>
-    <row r="155" spans="2:29" ht="364" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
         <v>153</v>
       </c>
@@ -30426,7 +30426,7 @@
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
     </row>
-    <row r="156" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B156" s="7">
         <v>154</v>
       </c>
@@ -30478,7 +30478,7 @@
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
     </row>
-    <row r="157" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B157" s="7">
         <v>155</v>
       </c>
@@ -30540,7 +30540,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="158" spans="2:29" ht="266" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
       <c r="B158" s="7">
         <v>156</v>
       </c>
@@ -30590,7 +30590,7 @@
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
     </row>
-    <row r="159" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B159" s="7">
         <v>157</v>
       </c>
@@ -30638,7 +30638,7 @@
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
     </row>
-    <row r="160" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
         <v>158</v>
       </c>
@@ -30694,7 +30694,7 @@
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
     </row>
-    <row r="161" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B161" s="7">
         <v>159</v>
       </c>
@@ -30744,7 +30744,7 @@
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
     </row>
-    <row r="162" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B162" s="7">
         <v>160</v>
       </c>
@@ -30792,7 +30792,7 @@
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
     </row>
-    <row r="163" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B163" s="7">
         <v>161</v>
       </c>
@@ -30842,7 +30842,7 @@
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
     </row>
-    <row r="164" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B164" s="7">
         <v>162</v>
       </c>
@@ -30890,7 +30890,7 @@
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
     </row>
-    <row r="165" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B165" s="7">
         <v>163</v>
       </c>
@@ -30938,7 +30938,7 @@
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
     </row>
-    <row r="166" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
       <c r="B166" s="7">
         <v>164</v>
       </c>
@@ -30988,7 +30988,7 @@
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
     </row>
-    <row r="167" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B167" s="7">
         <v>165</v>
       </c>
@@ -31040,7 +31040,7 @@
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
     </row>
-    <row r="168" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
         <v>166</v>
       </c>
@@ -31100,7 +31100,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="169" spans="2:29" ht="322" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
       <c r="B169" s="7">
         <v>167</v>
       </c>
@@ -31150,7 +31150,7 @@
       <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
     </row>
-    <row r="170" spans="2:29" ht="266" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
         <v>168</v>
       </c>
@@ -31200,7 +31200,7 @@
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
     </row>
-    <row r="171" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B171" s="7">
         <v>169</v>
       </c>
@@ -31252,7 +31252,7 @@
       <c r="AB171" s="9"/>
       <c r="AC171" s="9"/>
     </row>
-    <row r="172" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B172" s="7">
         <v>170</v>
       </c>
@@ -31302,7 +31302,7 @@
       <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
     </row>
-    <row r="173" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
         <v>171</v>
       </c>
@@ -31356,7 +31356,7 @@
       <c r="AB173" s="9"/>
       <c r="AC173" s="9"/>
     </row>
-    <row r="174" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B174" s="7">
         <v>172</v>
       </c>
@@ -31420,7 +31420,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="175" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B175" s="7">
         <v>173</v>
       </c>
@@ -31476,7 +31476,7 @@
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
     </row>
-    <row r="176" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B176" s="7">
         <v>174</v>
       </c>
@@ -31530,7 +31530,7 @@
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
     </row>
-    <row r="177" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B177" s="7">
         <v>175</v>
       </c>
@@ -31584,7 +31584,7 @@
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
     </row>
-    <row r="178" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
         <v>176</v>
       </c>
@@ -31638,7 +31638,7 @@
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
     </row>
-    <row r="179" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B179" s="7">
         <v>177</v>
       </c>
@@ -31692,7 +31692,7 @@
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
     </row>
-    <row r="180" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B180" s="7">
         <v>178</v>
       </c>
@@ -31746,7 +31746,7 @@
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
     </row>
-    <row r="181" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B181" s="7">
         <v>179</v>
       </c>
@@ -31800,7 +31800,7 @@
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
     </row>
-    <row r="182" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B182" s="7">
         <v>180</v>
       </c>
@@ -31852,7 +31852,7 @@
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
     </row>
-    <row r="183" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
         <v>181</v>
       </c>
@@ -31912,7 +31912,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="184" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B184" s="7">
         <v>182</v>
       </c>
@@ -31972,7 +31972,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="185" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B185" s="7">
         <v>183</v>
       </c>
@@ -32034,7 +32034,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="186" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B186" s="7">
         <v>184</v>
       </c>
@@ -32094,7 +32094,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="187" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B187" s="7">
         <v>185</v>
       </c>
@@ -32152,7 +32152,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="188" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B188" s="7">
         <v>186</v>
       </c>
@@ -32208,7 +32208,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="189" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B189" s="7">
         <v>187</v>
       </c>
@@ -32268,7 +32268,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="190" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
         <v>188</v>
       </c>
@@ -32320,7 +32320,7 @@
       <c r="AB190" s="9"/>
       <c r="AC190" s="9"/>
     </row>
-    <row r="191" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B191" s="7">
         <v>189</v>
       </c>
@@ -32374,7 +32374,7 @@
       <c r="AB191" s="9"/>
       <c r="AC191" s="9"/>
     </row>
-    <row r="192" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
         <v>190</v>
       </c>
@@ -32430,7 +32430,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="193" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B193" s="7">
         <v>191</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="194" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B194" s="7">
         <v>192</v>
       </c>
@@ -32544,7 +32544,7 @@
       </c>
       <c r="AC194" s="9"/>
     </row>
-    <row r="195" spans="2:29" ht="266" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:29" ht="285" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
         <v>193</v>
       </c>
@@ -32600,7 +32600,7 @@
       <c r="AB195" s="9"/>
       <c r="AC195" s="9"/>
     </row>
-    <row r="196" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B196" s="7">
         <v>194</v>
       </c>
@@ -32660,7 +32660,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="197" spans="2:29" ht="350" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
       <c r="B197" s="7">
         <v>195</v>
       </c>
@@ -32714,7 +32714,7 @@
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
     </row>
-    <row r="198" spans="2:29" ht="266" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:29" ht="285" x14ac:dyDescent="0.25">
       <c r="B198" s="7">
         <v>196</v>
       </c>
@@ -32766,7 +32766,7 @@
       <c r="AB198" s="9"/>
       <c r="AC198" s="9"/>
     </row>
-    <row r="199" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B199" s="7">
         <v>197</v>
       </c>
@@ -32822,7 +32822,7 @@
       <c r="AB199" s="9"/>
       <c r="AC199" s="9"/>
     </row>
-    <row r="200" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
         <v>198</v>
       </c>
@@ -32878,7 +32878,7 @@
       <c r="AB200" s="9"/>
       <c r="AC200" s="9"/>
     </row>
-    <row r="201" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B201" s="7">
         <v>199</v>
       </c>
@@ -32940,7 +32940,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="202" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B202" s="7">
         <v>200</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="203" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B203" s="7">
         <v>201</v>
       </c>
@@ -33064,7 +33064,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="204" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B204" s="7">
         <v>202</v>
       </c>
@@ -33126,7 +33126,7 @@
       </c>
       <c r="AC204" s="9"/>
     </row>
-    <row r="205" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B205" s="7">
         <v>203</v>
       </c>
@@ -33188,7 +33188,7 @@
       </c>
       <c r="AC205" s="9"/>
     </row>
-    <row r="206" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B206" s="7">
         <v>204</v>
       </c>
@@ -33250,7 +33250,7 @@
       </c>
       <c r="AC206" s="9"/>
     </row>
-    <row r="207" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B207" s="7">
         <v>205</v>
       </c>
@@ -33312,7 +33312,7 @@
       </c>
       <c r="AC207" s="9"/>
     </row>
-    <row r="208" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B208" s="7">
         <v>206</v>
       </c>
@@ -33362,7 +33362,7 @@
       <c r="AB208" s="9"/>
       <c r="AC208" s="9"/>
     </row>
-    <row r="209" spans="2:29" ht="336" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:29" ht="342" x14ac:dyDescent="0.25">
       <c r="B209" s="7">
         <v>207</v>
       </c>
@@ -33418,7 +33418,7 @@
       <c r="AB209" s="9"/>
       <c r="AC209" s="9"/>
     </row>
-    <row r="210" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B210" s="7">
         <v>208</v>
       </c>
@@ -33468,7 +33468,7 @@
       <c r="AB210" s="9"/>
       <c r="AC210" s="9"/>
     </row>
-    <row r="211" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B211" s="7">
         <v>209</v>
       </c>
@@ -33518,7 +33518,7 @@
       <c r="AB211" s="9"/>
       <c r="AC211" s="9"/>
     </row>
-    <row r="212" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B212" s="7">
         <v>210</v>
       </c>
@@ -33578,7 +33578,7 @@
       <c r="AB212" s="9"/>
       <c r="AC212" s="9"/>
     </row>
-    <row r="213" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B213" s="7">
         <v>211</v>
       </c>
@@ -33628,7 +33628,7 @@
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
     </row>
-    <row r="214" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B214" s="7">
         <v>212</v>
       </c>
@@ -33680,7 +33680,7 @@
       <c r="AB214" s="9"/>
       <c r="AC214" s="9"/>
     </row>
-    <row r="215" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
         <v>213</v>
       </c>
@@ -33742,7 +33742,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="216" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B216" s="7">
         <v>214</v>
       </c>
@@ -33800,7 +33800,7 @@
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
     </row>
-    <row r="217" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
         <v>215</v>
       </c>
@@ -33860,7 +33860,7 @@
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
     </row>
-    <row r="218" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B218" s="7">
         <v>216</v>
       </c>
@@ -33916,7 +33916,7 @@
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
     </row>
-    <row r="219" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:29" ht="285" x14ac:dyDescent="0.25">
       <c r="B219" s="7">
         <v>217</v>
       </c>
@@ -33972,7 +33972,7 @@
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
     </row>
-    <row r="220" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B220" s="7">
         <v>218</v>
       </c>
@@ -34028,7 +34028,7 @@
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
     </row>
-    <row r="221" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B221" s="7">
         <v>219</v>
       </c>
@@ -34084,7 +34084,7 @@
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
     </row>
-    <row r="222" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B222" s="7">
         <v>220</v>
       </c>
@@ -34142,7 +34142,7 @@
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
     </row>
-    <row r="223" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B223" s="7">
         <v>221</v>
       </c>
@@ -34200,7 +34200,7 @@
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
     </row>
-    <row r="224" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B224" s="7">
         <v>222</v>
       </c>
@@ -34260,7 +34260,7 @@
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
     </row>
-    <row r="225" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
         <v>223</v>
       </c>
@@ -34316,7 +34316,7 @@
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
     </row>
-    <row r="226" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B226" s="7">
         <v>224</v>
       </c>
@@ -34370,7 +34370,7 @@
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
     </row>
-    <row r="227" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B227" s="7">
         <v>225</v>
       </c>
@@ -34426,7 +34426,7 @@
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
     </row>
-    <row r="228" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B228" s="7">
         <v>226</v>
       </c>
@@ -34476,7 +34476,7 @@
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
     </row>
-    <row r="229" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B229" s="7">
         <v>227</v>
       </c>
@@ -34526,7 +34526,7 @@
       <c r="AB229" s="9"/>
       <c r="AC229" s="9"/>
     </row>
-    <row r="230" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B230" s="7">
         <v>228</v>
       </c>
@@ -34576,7 +34576,7 @@
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
     </row>
-    <row r="231" spans="2:29" ht="322" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
       <c r="B231" s="7">
         <v>229</v>
       </c>
@@ -34630,7 +34630,7 @@
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
     </row>
-    <row r="232" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B232" s="7">
         <v>230</v>
       </c>
@@ -34682,7 +34682,7 @@
       <c r="AB232" s="9"/>
       <c r="AC232" s="9"/>
     </row>
-    <row r="233" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B233" s="7">
         <v>231</v>
       </c>
@@ -34736,7 +34736,7 @@
       <c r="AB233" s="9"/>
       <c r="AC233" s="9"/>
     </row>
-    <row r="234" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B234" s="7">
         <v>232</v>
       </c>
@@ -34788,7 +34788,7 @@
       <c r="AB234" s="9"/>
       <c r="AC234" s="9"/>
     </row>
-    <row r="235" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B235" s="7">
         <v>233</v>
       </c>
@@ -34844,7 +34844,7 @@
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
     </row>
-    <row r="236" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B236" s="7">
         <v>234</v>
       </c>
@@ -34898,7 +34898,7 @@
       <c r="AB236" s="9"/>
       <c r="AC236" s="9"/>
     </row>
-    <row r="237" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B237" s="7">
         <v>235</v>
       </c>
@@ -34952,7 +34952,7 @@
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
     </row>
-    <row r="238" spans="2:29" ht="308" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
       <c r="B238" s="7">
         <v>236</v>
       </c>
@@ -35012,7 +35012,7 @@
       <c r="AB238" s="9"/>
       <c r="AC238" s="9"/>
     </row>
-    <row r="239" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B239" s="7">
         <v>237</v>
       </c>
@@ -35068,7 +35068,7 @@
       <c r="AB239" s="9"/>
       <c r="AC239" s="9"/>
     </row>
-    <row r="240" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B240" s="7">
         <v>238</v>
       </c>
@@ -35124,7 +35124,7 @@
       <c r="AB240" s="9"/>
       <c r="AC240" s="9"/>
     </row>
-    <row r="241" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B241" s="7">
         <v>239</v>
       </c>
@@ -35184,7 +35184,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="242" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B242" s="7">
         <v>240</v>
       </c>
@@ -35244,7 +35244,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="243" spans="2:29" ht="364" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
       <c r="B243" s="7">
         <v>241</v>
       </c>
@@ -35302,7 +35302,7 @@
       </c>
       <c r="AC243" s="9"/>
     </row>
-    <row r="244" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B244" s="7">
         <v>242</v>
       </c>
@@ -35362,7 +35362,7 @@
       </c>
       <c r="AC244" s="9"/>
     </row>
-    <row r="245" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B245" s="7">
         <v>243</v>
       </c>
@@ -35420,7 +35420,7 @@
       </c>
       <c r="AC245" s="9"/>
     </row>
-    <row r="246" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B246" s="7">
         <v>244</v>
       </c>
@@ -35482,7 +35482,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="247" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B247" s="7">
         <v>245</v>
       </c>
@@ -35536,7 +35536,7 @@
       <c r="AB247" s="9"/>
       <c r="AC247" s="9"/>
     </row>
-    <row r="248" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B248" s="7">
         <v>246</v>
       </c>
@@ -35590,7 +35590,7 @@
       <c r="AB248" s="9"/>
       <c r="AC248" s="9"/>
     </row>
-    <row r="249" spans="2:29" s="16" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:29" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="B249" s="7">
         <v>247</v>
       </c>
@@ -35644,7 +35644,7 @@
       <c r="AB249" s="40"/>
       <c r="AC249" s="40"/>
     </row>
-    <row r="250" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B250" s="7">
         <v>248</v>
       </c>
@@ -35698,7 +35698,7 @@
       <c r="AB250" s="9"/>
       <c r="AC250" s="9"/>
     </row>
-    <row r="251" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B251" s="7">
         <v>249</v>
       </c>
@@ -35754,7 +35754,7 @@
       <c r="AB251" s="9"/>
       <c r="AC251" s="9"/>
     </row>
-    <row r="252" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B252" s="7">
         <v>250</v>
       </c>
@@ -35806,7 +35806,7 @@
       <c r="AB252" s="9"/>
       <c r="AC252" s="9"/>
     </row>
-    <row r="253" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B253" s="7">
         <v>251</v>
       </c>
@@ -35864,7 +35864,7 @@
       </c>
       <c r="AC253" s="9"/>
     </row>
-    <row r="254" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B254" s="7">
         <v>252</v>
       </c>
@@ -35924,7 +35924,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="255" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B255" s="7">
         <v>253</v>
       </c>
@@ -35982,7 +35982,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="256" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B256" s="7">
         <v>254</v>
       </c>
@@ -36044,7 +36044,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="257" spans="1:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B257" s="7">
         <v>255</v>
       </c>
@@ -36104,7 +36104,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="258" spans="1:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B258" s="7">
         <v>256</v>
       </c>
@@ -36158,7 +36158,7 @@
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
     </row>
-    <row r="259" spans="1:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B259" s="7">
         <v>257</v>
       </c>
@@ -36216,7 +36216,7 @@
       </c>
       <c r="AC259" s="9"/>
     </row>
-    <row r="260" spans="1:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B260" s="7">
         <v>258</v>
       </c>
@@ -36268,7 +36268,7 @@
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
     </row>
-    <row r="261" spans="1:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B261" s="7">
         <v>259</v>
       </c>
@@ -36328,7 +36328,7 @@
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
     </row>
-    <row r="262" spans="1:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B262" s="7">
         <v>260</v>
       </c>
@@ -36388,7 +36388,7 @@
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
     </row>
-    <row r="263" spans="1:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B263" s="7">
         <v>261</v>
       </c>
@@ -36450,7 +36450,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="264" spans="1:29" s="16" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:29" s="16" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B264" s="7">
         <v>262</v>
       </c>
@@ -36504,7 +36504,7 @@
       <c r="AB264" s="40"/>
       <c r="AC264" s="40"/>
     </row>
-    <row r="265" spans="1:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:29" ht="114" x14ac:dyDescent="0.25">
       <c r="A265" s="16"/>
       <c r="B265" s="7">
         <v>263</v>
@@ -36559,7 +36559,7 @@
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
     </row>
-    <row r="266" spans="1:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B266" s="7">
         <v>264</v>
       </c>
@@ -36613,7 +36613,7 @@
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
     </row>
-    <row r="267" spans="1:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:29" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B267" s="7">
         <v>265</v>
       </c>
@@ -36659,7 +36659,7 @@
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
     </row>
-    <row r="268" spans="1:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B268" s="7">
         <v>266</v>
       </c>
@@ -36721,7 +36721,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="269" spans="1:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B269" s="7">
         <v>267</v>
       </c>
@@ -36779,7 +36779,7 @@
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
     </row>
-    <row r="270" spans="1:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B270" s="7">
         <v>268</v>
       </c>
@@ -36835,7 +36835,7 @@
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
     </row>
-    <row r="271" spans="1:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B271" s="7">
         <v>269</v>
       </c>
@@ -36895,7 +36895,7 @@
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
     </row>
-    <row r="272" spans="1:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B272" s="7">
         <v>270</v>
       </c>
@@ -36955,7 +36955,7 @@
       </c>
       <c r="AC272" s="9"/>
     </row>
-    <row r="273" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B273" s="7">
         <v>271</v>
       </c>
@@ -37009,7 +37009,7 @@
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
     </row>
-    <row r="274" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B274" s="7">
         <v>272</v>
       </c>
@@ -37069,7 +37069,7 @@
       </c>
       <c r="AC274" s="9"/>
     </row>
-    <row r="275" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B275" s="7">
         <v>273</v>
       </c>
@@ -37129,7 +37129,7 @@
       </c>
       <c r="AC275" s="9"/>
     </row>
-    <row r="276" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B276" s="7">
         <v>274</v>
       </c>
@@ -37185,7 +37185,7 @@
       </c>
       <c r="AC276" s="9"/>
     </row>
-    <row r="277" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B277" s="7">
         <v>275</v>
       </c>
@@ -37229,7 +37229,7 @@
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
     </row>
-    <row r="278" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B278" s="7">
         <v>276</v>
       </c>
@@ -37273,7 +37273,7 @@
       <c r="AB278" s="9"/>
       <c r="AC278" s="9"/>
     </row>
-    <row r="279" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B279" s="7">
         <v>277</v>
       </c>
@@ -37317,7 +37317,7 @@
       <c r="AB279" s="9"/>
       <c r="AC279" s="9"/>
     </row>
-    <row r="280" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B280" s="7">
         <v>278</v>
       </c>
@@ -37361,7 +37361,7 @@
       <c r="AB280" s="9"/>
       <c r="AC280" s="9"/>
     </row>
-    <row r="281" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B281" s="7">
         <v>279</v>
       </c>
@@ -37405,7 +37405,7 @@
       <c r="AB281" s="9"/>
       <c r="AC281" s="9"/>
     </row>
-    <row r="282" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B282" s="7">
         <v>280</v>
       </c>
@@ -37449,7 +37449,7 @@
       <c r="AB282" s="9"/>
       <c r="AC282" s="9"/>
     </row>
-    <row r="283" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B283" s="7">
         <v>281</v>
       </c>
@@ -37497,7 +37497,7 @@
       <c r="AB283" s="9"/>
       <c r="AC283" s="9"/>
     </row>
-    <row r="284" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B284" s="7">
         <v>282</v>
       </c>
@@ -37541,7 +37541,7 @@
       <c r="AB284" s="9"/>
       <c r="AC284" s="9"/>
     </row>
-    <row r="285" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B285" s="7">
         <v>283</v>
       </c>
@@ -37585,7 +37585,7 @@
       <c r="AB285" s="9"/>
       <c r="AC285" s="9"/>
     </row>
-    <row r="286" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B286" s="7">
         <v>284</v>
       </c>
@@ -37631,7 +37631,7 @@
       <c r="AB286" s="9"/>
       <c r="AC286" s="9"/>
     </row>
-    <row r="287" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B287" s="7">
         <v>285</v>
       </c>
@@ -37677,7 +37677,7 @@
       <c r="AB287" s="9"/>
       <c r="AC287" s="9"/>
     </row>
-    <row r="288" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B288" s="7">
         <v>286</v>
       </c>
@@ -37731,7 +37731,7 @@
       <c r="AB288" s="9"/>
       <c r="AC288" s="9"/>
     </row>
-    <row r="289" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B289" s="7">
         <v>287</v>
       </c>
@@ -37777,7 +37777,7 @@
       <c r="AB289" s="9"/>
       <c r="AC289" s="9"/>
     </row>
-    <row r="290" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B290" s="7">
         <v>288</v>
       </c>
@@ -37821,7 +37821,7 @@
       <c r="AB290" s="9"/>
       <c r="AC290" s="9"/>
     </row>
-    <row r="291" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B291" s="7">
         <v>289</v>
       </c>
@@ -37875,7 +37875,7 @@
       <c r="AB291" s="9"/>
       <c r="AC291" s="9"/>
     </row>
-    <row r="292" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B292" s="7">
         <v>290</v>
       </c>
@@ -37925,7 +37925,7 @@
       <c r="AB292" s="9"/>
       <c r="AC292" s="9"/>
     </row>
-    <row r="293" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B293" s="7">
         <v>291</v>
       </c>
@@ -37969,7 +37969,7 @@
       <c r="AB293" s="9"/>
       <c r="AC293" s="9"/>
     </row>
-    <row r="294" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B294" s="7">
         <v>292</v>
       </c>
@@ -38013,7 +38013,7 @@
       <c r="AB294" s="9"/>
       <c r="AC294" s="9"/>
     </row>
-    <row r="295" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B295" s="7">
         <v>293</v>
       </c>
@@ -38059,7 +38059,7 @@
       <c r="AB295" s="9"/>
       <c r="AC295" s="9"/>
     </row>
-    <row r="296" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B296" s="7">
         <v>294</v>
       </c>
@@ -38109,7 +38109,7 @@
       <c r="AB296" s="9"/>
       <c r="AC296" s="9"/>
     </row>
-    <row r="297" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
       <c r="B297" s="7">
         <v>295</v>
       </c>
@@ -38163,7 +38163,7 @@
       <c r="AB297" s="9"/>
       <c r="AC297" s="9"/>
     </row>
-    <row r="298" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B298" s="7">
         <v>296</v>
       </c>
@@ -38207,7 +38207,7 @@
       <c r="AB298" s="9"/>
       <c r="AC298" s="9"/>
     </row>
-    <row r="299" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B299" s="7">
         <v>297</v>
       </c>
@@ -38251,7 +38251,7 @@
       <c r="AB299" s="9"/>
       <c r="AC299" s="9"/>
     </row>
-    <row r="300" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B300" s="7">
         <v>298</v>
       </c>
@@ -38295,7 +38295,7 @@
       <c r="AB300" s="9"/>
       <c r="AC300" s="9"/>
     </row>
-    <row r="301" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B301" s="7">
         <v>299</v>
       </c>
@@ -38339,7 +38339,7 @@
       <c r="AB301" s="9"/>
       <c r="AC301" s="9"/>
     </row>
-    <row r="302" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B302" s="7">
         <v>300</v>
       </c>
@@ -38383,7 +38383,7 @@
       <c r="AB302" s="9"/>
       <c r="AC302" s="9"/>
     </row>
-    <row r="303" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B303" s="7">
         <v>301</v>
       </c>
@@ -38427,7 +38427,7 @@
       <c r="AB303" s="9"/>
       <c r="AC303" s="9"/>
     </row>
-    <row r="304" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B304" s="7">
         <v>302</v>
       </c>
@@ -38471,7 +38471,7 @@
       <c r="AB304" s="9"/>
       <c r="AC304" s="9"/>
     </row>
-    <row r="305" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B305" s="7">
         <v>303</v>
       </c>
@@ -38517,7 +38517,7 @@
       <c r="AB305" s="9"/>
       <c r="AC305" s="9"/>
     </row>
-    <row r="306" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B306" s="7">
         <v>304</v>
       </c>
@@ -38563,7 +38563,7 @@
       <c r="AB306" s="9"/>
       <c r="AC306" s="9"/>
     </row>
-    <row r="307" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B307" s="7">
         <v>305</v>
       </c>
@@ -38609,7 +38609,7 @@
       <c r="AB307" s="9"/>
       <c r="AC307" s="9"/>
     </row>
-    <row r="308" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B308" s="7">
         <v>306</v>
       </c>
@@ -38655,7 +38655,7 @@
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
     </row>
-    <row r="309" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B309" s="7">
         <v>307</v>
       </c>
@@ -38701,7 +38701,7 @@
       <c r="AB309" s="9"/>
       <c r="AC309" s="9"/>
     </row>
-    <row r="310" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B310" s="7">
         <v>308</v>
       </c>
@@ -38745,7 +38745,7 @@
       <c r="AB310" s="9"/>
       <c r="AC310" s="9"/>
     </row>
-    <row r="311" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B311" s="7">
         <v>309</v>
       </c>
@@ -38789,7 +38789,7 @@
       <c r="AB311" s="9"/>
       <c r="AC311" s="9"/>
     </row>
-    <row r="312" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B312" s="7">
         <v>310</v>
       </c>
@@ -38831,7 +38831,7 @@
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
     </row>
-    <row r="313" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B313" s="7">
         <v>311</v>
       </c>
@@ -38873,7 +38873,7 @@
       <c r="AB313" s="9"/>
       <c r="AC313" s="9"/>
     </row>
-    <row r="314" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B314" s="7">
         <v>312</v>
       </c>
@@ -38915,7 +38915,7 @@
       <c r="AB314" s="9"/>
       <c r="AC314" s="9"/>
     </row>
-    <row r="315" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B315" s="7">
         <v>313</v>
       </c>
@@ -38957,7 +38957,7 @@
       <c r="AB315" s="9"/>
       <c r="AC315" s="9"/>
     </row>
-    <row r="316" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B316" s="7">
         <v>314</v>
       </c>
@@ -39003,7 +39003,7 @@
       <c r="AB316" s="9"/>
       <c r="AC316" s="9"/>
     </row>
-    <row r="317" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B317" s="7">
         <v>315</v>
       </c>
@@ -39047,7 +39047,7 @@
       <c r="AB317" s="9"/>
       <c r="AC317" s="9"/>
     </row>
-    <row r="318" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B318" s="7">
         <v>316</v>
       </c>
@@ -39091,7 +39091,7 @@
       <c r="AB318" s="9"/>
       <c r="AC318" s="9"/>
     </row>
-    <row r="319" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B319" s="7">
         <v>317</v>
       </c>
@@ -39135,7 +39135,7 @@
       <c r="AB319" s="9"/>
       <c r="AC319" s="9"/>
     </row>
-    <row r="320" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B320" s="7">
         <v>318</v>
       </c>
@@ -39177,7 +39177,7 @@
       <c r="AB320" s="9"/>
       <c r="AC320" s="9"/>
     </row>
-    <row r="321" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B321" s="7">
         <v>319</v>
       </c>
@@ -39219,7 +39219,7 @@
       <c r="AB321" s="9"/>
       <c r="AC321" s="9"/>
     </row>
-    <row r="322" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B322" s="7">
         <v>320</v>
       </c>
@@ -39261,7 +39261,7 @@
       <c r="AB322" s="9"/>
       <c r="AC322" s="9"/>
     </row>
-    <row r="323" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B323" s="7">
         <v>321</v>
       </c>
@@ -39305,7 +39305,7 @@
       <c r="AB323" s="9"/>
       <c r="AC323" s="9"/>
     </row>
-    <row r="324" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B324" s="7">
         <v>322</v>
       </c>
@@ -39349,7 +39349,7 @@
       <c r="AB324" s="9"/>
       <c r="AC324" s="9"/>
     </row>
-    <row r="325" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B325" s="7">
         <v>323</v>
       </c>
@@ -39393,7 +39393,7 @@
       <c r="AB325" s="9"/>
       <c r="AC325" s="9"/>
     </row>
-    <row r="326" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B326" s="7">
         <v>324</v>
       </c>
@@ -39439,7 +39439,7 @@
       <c r="AB326" s="9"/>
       <c r="AC326" s="9"/>
     </row>
-    <row r="327" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B327" s="7">
         <v>325</v>
       </c>
@@ -39485,7 +39485,7 @@
       <c r="AB327" s="9"/>
       <c r="AC327" s="9"/>
     </row>
-    <row r="328" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B328" s="7">
         <v>326</v>
       </c>
@@ -39531,7 +39531,7 @@
       <c r="AB328" s="9"/>
       <c r="AC328" s="9"/>
     </row>
-    <row r="329" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B329" s="7">
         <v>327</v>
       </c>
@@ -39581,7 +39581,7 @@
       <c r="AB329" s="9"/>
       <c r="AC329" s="9"/>
     </row>
-    <row r="330" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B330" s="7">
         <v>328</v>
       </c>
@@ -39623,7 +39623,7 @@
       <c r="AB330" s="9"/>
       <c r="AC330" s="9"/>
     </row>
-    <row r="331" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B331" s="7">
         <v>329</v>
       </c>
@@ -39669,7 +39669,7 @@
       <c r="AB331" s="9"/>
       <c r="AC331" s="9"/>
     </row>
-    <row r="332" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B332" s="7">
         <v>330</v>
       </c>
@@ -39716,7 +39716,7 @@
       <c r="AB332" s="9"/>
       <c r="AC332" s="9"/>
     </row>
-    <row r="333" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B333" s="7">
         <v>331</v>
       </c>
@@ -39763,7 +39763,7 @@
       <c r="AB333" s="9"/>
       <c r="AC333" s="9"/>
     </row>
-    <row r="334" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B334" s="7">
         <v>332</v>
       </c>
@@ -39811,7 +39811,7 @@
       <c r="AB334" s="9"/>
       <c r="AC334" s="9"/>
     </row>
-    <row r="335" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B335" s="7">
         <v>333</v>
       </c>
@@ -39858,7 +39858,7 @@
       <c r="AB335" s="9"/>
       <c r="AC335" s="9"/>
     </row>
-    <row r="336" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:29" ht="114" x14ac:dyDescent="0.25">
       <c r="B336" s="7">
         <v>334</v>
       </c>
@@ -39905,7 +39905,7 @@
       <c r="AB336" s="9"/>
       <c r="AC336" s="9"/>
     </row>
-    <row r="337" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B337" s="7">
         <v>335</v>
       </c>
@@ -39952,7 +39952,7 @@
       <c r="AB337" s="9"/>
       <c r="AC337" s="9"/>
     </row>
-    <row r="338" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B338" s="7">
         <v>336</v>
       </c>
@@ -40003,7 +40003,7 @@
       <c r="AB338" s="9"/>
       <c r="AC338" s="9"/>
     </row>
-    <row r="339" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B339" s="7">
         <v>337</v>
       </c>
@@ -40054,7 +40054,7 @@
       <c r="AB339" s="9"/>
       <c r="AC339" s="9"/>
     </row>
-    <row r="340" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B340" s="7">
         <v>338</v>
       </c>
@@ -40105,7 +40105,7 @@
       <c r="AB340" s="9"/>
       <c r="AC340" s="9"/>
     </row>
-    <row r="341" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B341" s="7">
         <v>339</v>
       </c>
@@ -40156,7 +40156,7 @@
       <c r="AB341" s="9"/>
       <c r="AC341" s="9"/>
     </row>
-    <row r="342" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B342" s="7">
         <v>340</v>
       </c>
@@ -40207,7 +40207,7 @@
       <c r="AB342" s="9"/>
       <c r="AC342" s="9"/>
     </row>
-    <row r="343" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B343" s="7">
         <v>341</v>
       </c>
@@ -40256,7 +40256,7 @@
       <c r="AB343" s="9"/>
       <c r="AC343" s="9"/>
     </row>
-    <row r="344" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B344" s="7">
         <v>342</v>
       </c>
@@ -40309,7 +40309,7 @@
       <c r="AB344" s="9"/>
       <c r="AC344" s="9"/>
     </row>
-    <row r="345" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B345" s="7">
         <v>343</v>
       </c>
@@ -40358,7 +40358,7 @@
       <c r="AB345" s="9"/>
       <c r="AC345" s="9"/>
     </row>
-    <row r="346" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B346" s="7">
         <v>344</v>
       </c>
@@ -40411,7 +40411,7 @@
       <c r="AB346" s="9"/>
       <c r="AC346" s="9"/>
     </row>
-    <row r="347" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B347" s="7">
         <v>345</v>
       </c>
@@ -40460,7 +40460,7 @@
       <c r="AB347" s="9"/>
       <c r="AC347" s="9"/>
     </row>
-    <row r="348" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B348" s="7">
         <v>346</v>
       </c>
@@ -40519,7 +40519,7 @@
       </c>
       <c r="AC348" s="9"/>
     </row>
-    <row r="349" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B349" s="7">
         <v>347</v>
       </c>
@@ -40572,7 +40572,7 @@
       <c r="AB349" s="9"/>
       <c r="AC349" s="9"/>
     </row>
-    <row r="350" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B350" s="7">
         <v>348</v>
       </c>
@@ -40625,7 +40625,7 @@
       <c r="AB350" s="9"/>
       <c r="AC350" s="9"/>
     </row>
-    <row r="351" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B351" s="7">
         <v>349</v>
       </c>
@@ -40678,7 +40678,7 @@
       <c r="AB351" s="9"/>
       <c r="AC351" s="9"/>
     </row>
-    <row r="352" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B352" s="7">
         <v>350</v>
       </c>
@@ -40731,7 +40731,7 @@
       <c r="AB352" s="9"/>
       <c r="AC352" s="9"/>
     </row>
-    <row r="353" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B353" s="7">
         <v>351</v>
       </c>
@@ -40784,7 +40784,7 @@
       <c r="AB353" s="9"/>
       <c r="AC353" s="9"/>
     </row>
-    <row r="354" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B354" s="7">
         <v>352</v>
       </c>
@@ -40839,7 +40839,7 @@
       <c r="AB354" s="9"/>
       <c r="AC354" s="9"/>
     </row>
-    <row r="355" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B355" s="7">
         <v>353</v>
       </c>
@@ -40892,7 +40892,7 @@
       <c r="AB355" s="9"/>
       <c r="AC355" s="9"/>
     </row>
-    <row r="356" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B356" s="7">
         <v>354</v>
       </c>
@@ -40945,7 +40945,7 @@
       <c r="AB356" s="9"/>
       <c r="AC356" s="9"/>
     </row>
-    <row r="357" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B357" s="7">
         <v>355</v>
       </c>
@@ -40998,7 +40998,7 @@
       <c r="AB357" s="9"/>
       <c r="AC357" s="9"/>
     </row>
-    <row r="358" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B358" s="7">
         <v>356</v>
       </c>
@@ -41051,7 +41051,7 @@
       <c r="AB358" s="9"/>
       <c r="AC358" s="9"/>
     </row>
-    <row r="359" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B359" s="7">
         <v>357</v>
       </c>
@@ -41104,7 +41104,7 @@
       <c r="AB359" s="9"/>
       <c r="AC359" s="9"/>
     </row>
-    <row r="360" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B360" s="7">
         <v>358</v>
       </c>
@@ -41157,7 +41157,7 @@
       <c r="AB360" s="9"/>
       <c r="AC360" s="9"/>
     </row>
-    <row r="361" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B361" s="7">
         <v>359</v>
       </c>
@@ -41210,7 +41210,7 @@
       <c r="AB361" s="9"/>
       <c r="AC361" s="9"/>
     </row>
-    <row r="362" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B362" s="7">
         <v>360</v>
       </c>
@@ -41259,7 +41259,7 @@
       <c r="AB362" s="9"/>
       <c r="AC362" s="9"/>
     </row>
-    <row r="363" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B363" s="7">
         <v>361</v>
       </c>
@@ -41318,7 +41318,7 @@
       </c>
       <c r="AC363" s="9"/>
     </row>
-    <row r="364" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B364" s="7">
         <v>362</v>
       </c>
@@ -41377,7 +41377,7 @@
       </c>
       <c r="AC364" s="9"/>
     </row>
-    <row r="365" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B365" s="7">
         <v>363</v>
       </c>
@@ -41426,7 +41426,7 @@
       <c r="AB365" s="9"/>
       <c r="AC365" s="9"/>
     </row>
-    <row r="366" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B366" s="7">
         <v>364</v>
       </c>
@@ -41485,7 +41485,7 @@
       </c>
       <c r="AC366" s="9"/>
     </row>
-    <row r="367" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B367" s="7">
         <v>365</v>
       </c>
@@ -41534,7 +41534,7 @@
       <c r="AB367" s="9"/>
       <c r="AC367" s="9"/>
     </row>
-    <row r="368" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B368" s="7">
         <v>366</v>
       </c>
@@ -41593,7 +41593,7 @@
       </c>
       <c r="AC368" s="9"/>
     </row>
-    <row r="369" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B369" s="7">
         <v>367</v>
       </c>
@@ -41652,7 +41652,7 @@
       </c>
       <c r="AC369" s="9"/>
     </row>
-    <row r="370" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B370" s="7">
         <v>368</v>
       </c>
@@ -41711,7 +41711,7 @@
       </c>
       <c r="AC370" s="9"/>
     </row>
-    <row r="371" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B371" s="7">
         <v>369</v>
       </c>
@@ -41760,7 +41760,7 @@
       <c r="AB371" s="9"/>
       <c r="AC371" s="9"/>
     </row>
-    <row r="372" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B372" s="7">
         <v>370</v>
       </c>
@@ -41819,7 +41819,7 @@
       </c>
       <c r="AC372" s="9"/>
     </row>
-    <row r="373" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B373" s="7">
         <v>371</v>
       </c>
@@ -41868,7 +41868,7 @@
       <c r="AB373" s="9"/>
       <c r="AC373" s="9"/>
     </row>
-    <row r="374" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B374" s="7">
         <v>372</v>
       </c>
@@ -41927,7 +41927,7 @@
       </c>
       <c r="AC374" s="9"/>
     </row>
-    <row r="375" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B375" s="7">
         <v>373</v>
       </c>
@@ -41986,7 +41986,7 @@
       </c>
       <c r="AC375" s="9"/>
     </row>
-    <row r="376" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B376" s="7">
         <v>374</v>
       </c>
@@ -42035,7 +42035,7 @@
       <c r="AB376" s="9"/>
       <c r="AC376" s="9"/>
     </row>
-    <row r="377" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B377" s="7">
         <v>375</v>
       </c>
@@ -42094,7 +42094,7 @@
       </c>
       <c r="AC377" s="9"/>
     </row>
-    <row r="378" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B378" s="7">
         <v>376</v>
       </c>
@@ -42145,7 +42145,7 @@
       <c r="AB378" s="9"/>
       <c r="AC378" s="9"/>
     </row>
-    <row r="379" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B379" s="7">
         <v>377</v>
       </c>
@@ -42196,7 +42196,7 @@
       <c r="AB379" s="9"/>
       <c r="AC379" s="9"/>
     </row>
-    <row r="380" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B380" s="7">
         <v>378</v>
       </c>
@@ -42245,7 +42245,7 @@
       <c r="AB380" s="9"/>
       <c r="AC380" s="9"/>
     </row>
-    <row r="381" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B381" s="7">
         <v>379</v>
       </c>
@@ -42294,7 +42294,7 @@
       <c r="AB381" s="9"/>
       <c r="AC381" s="9"/>
     </row>
-    <row r="382" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B382" s="7">
         <v>380</v>
       </c>
@@ -42347,7 +42347,7 @@
       <c r="AB382" s="9"/>
       <c r="AC382" s="9"/>
     </row>
-    <row r="383" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B383" s="7">
         <v>381</v>
       </c>
@@ -42400,7 +42400,7 @@
       <c r="AB383" s="9"/>
       <c r="AC383" s="9"/>
     </row>
-    <row r="384" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B384" s="7">
         <v>382</v>
       </c>
@@ -42449,7 +42449,7 @@
       <c r="AB384" s="9"/>
       <c r="AC384" s="9"/>
     </row>
-    <row r="385" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B385" s="7">
         <v>383</v>
       </c>
@@ -42502,7 +42502,7 @@
       <c r="AB385" s="9"/>
       <c r="AC385" s="9"/>
     </row>
-    <row r="386" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B386" s="7">
         <v>384</v>
       </c>
@@ -42555,7 +42555,7 @@
       <c r="AB386" s="9"/>
       <c r="AC386" s="9"/>
     </row>
-    <row r="387" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B387" s="7">
         <v>385</v>
       </c>
@@ -42604,7 +42604,7 @@
       <c r="AB387" s="9"/>
       <c r="AC387" s="9"/>
     </row>
-    <row r="388" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B388" s="7">
         <v>386</v>
       </c>
@@ -42653,7 +42653,7 @@
       <c r="AB388" s="9"/>
       <c r="AC388" s="9"/>
     </row>
-    <row r="389" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B389" s="7">
         <v>387</v>
       </c>
@@ -42706,7 +42706,7 @@
       <c r="AB389" s="9"/>
       <c r="AC389" s="9"/>
     </row>
-    <row r="390" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B390" s="7">
         <v>388</v>
       </c>
@@ -42759,7 +42759,7 @@
       <c r="AB390" s="9"/>
       <c r="AC390" s="9"/>
     </row>
-    <row r="391" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B391" s="7">
         <v>389</v>
       </c>
@@ -42808,7 +42808,7 @@
       <c r="AB391" s="9"/>
       <c r="AC391" s="9"/>
     </row>
-    <row r="392" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B392" s="7">
         <v>390</v>
       </c>
@@ -42857,7 +42857,7 @@
       <c r="AB392" s="9"/>
       <c r="AC392" s="9"/>
     </row>
-    <row r="393" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B393" s="7">
         <v>391</v>
       </c>
@@ -42910,7 +42910,7 @@
       <c r="AB393" s="9"/>
       <c r="AC393" s="9"/>
     </row>
-    <row r="394" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B394" s="7">
         <v>392</v>
       </c>
@@ -42959,7 +42959,7 @@
       <c r="AB394" s="9"/>
       <c r="AC394" s="9"/>
     </row>
-    <row r="395" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B395" s="7">
         <v>393</v>
       </c>
@@ -43012,7 +43012,7 @@
       <c r="AB395" s="9"/>
       <c r="AC395" s="9"/>
     </row>
-    <row r="396" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B396" s="7">
         <v>394</v>
       </c>
@@ -43061,7 +43061,7 @@
       <c r="AB396" s="9"/>
       <c r="AC396" s="9"/>
     </row>
-    <row r="397" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B397" s="7">
         <v>395</v>
       </c>
@@ -43110,7 +43110,7 @@
       <c r="AB397" s="9"/>
       <c r="AC397" s="9"/>
     </row>
-    <row r="398" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B398" s="7">
         <v>396</v>
       </c>
@@ -43163,7 +43163,7 @@
       <c r="AB398" s="9"/>
       <c r="AC398" s="9"/>
     </row>
-    <row r="399" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B399" s="7">
         <v>397</v>
       </c>
@@ -43212,7 +43212,7 @@
       <c r="AB399" s="9"/>
       <c r="AC399" s="9"/>
     </row>
-    <row r="400" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B400" s="7">
         <v>398</v>
       </c>
@@ -43271,7 +43271,7 @@
       </c>
       <c r="AC400" s="9"/>
     </row>
-    <row r="401" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B401" s="7">
         <v>399</v>
       </c>
@@ -43324,7 +43324,7 @@
       <c r="AB401" s="9"/>
       <c r="AC401" s="9"/>
     </row>
-    <row r="402" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B402" s="7">
         <v>400</v>
       </c>
@@ -43375,7 +43375,7 @@
       <c r="AB402" s="9"/>
       <c r="AC402" s="9"/>
     </row>
-    <row r="403" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B403" s="7">
         <v>401</v>
       </c>
@@ -43426,7 +43426,7 @@
       <c r="AB403" s="9"/>
       <c r="AC403" s="9"/>
     </row>
-    <row r="404" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B404" s="7">
         <v>402</v>
       </c>
@@ -43475,7 +43475,7 @@
       <c r="AB404" s="9"/>
       <c r="AC404" s="9"/>
     </row>
-    <row r="405" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B405" s="7">
         <v>403</v>
       </c>
@@ -43526,7 +43526,7 @@
       <c r="AB405" s="9"/>
       <c r="AC405" s="9"/>
     </row>
-    <row r="406" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B406" s="7">
         <v>404</v>
       </c>
@@ -43575,7 +43575,7 @@
       <c r="AB406" s="9"/>
       <c r="AC406" s="9"/>
     </row>
-    <row r="407" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B407" s="7">
         <v>405</v>
       </c>
@@ -43628,7 +43628,7 @@
       <c r="AB407" s="9"/>
       <c r="AC407" s="9"/>
     </row>
-    <row r="408" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B408" s="7">
         <v>406</v>
       </c>
@@ -43677,7 +43677,7 @@
       <c r="AB408" s="9"/>
       <c r="AC408" s="9"/>
     </row>
-    <row r="409" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B409" s="7">
         <v>407</v>
       </c>
@@ -43726,7 +43726,7 @@
       <c r="AB409" s="9"/>
       <c r="AC409" s="9"/>
     </row>
-    <row r="410" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B410" s="7">
         <v>408</v>
       </c>
@@ -43779,7 +43779,7 @@
       <c r="AB410" s="9"/>
       <c r="AC410" s="9"/>
     </row>
-    <row r="411" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B411" s="7">
         <v>409</v>
       </c>
@@ -43828,7 +43828,7 @@
       <c r="AB411" s="9"/>
       <c r="AC411" s="9"/>
     </row>
-    <row r="412" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B412" s="7">
         <v>410</v>
       </c>
@@ -43881,7 +43881,7 @@
       <c r="AB412" s="9"/>
       <c r="AC412" s="9"/>
     </row>
-    <row r="413" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B413" s="7">
         <v>411</v>
       </c>
@@ -43934,7 +43934,7 @@
       <c r="AB413" s="9"/>
       <c r="AC413" s="9"/>
     </row>
-    <row r="414" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B414" s="7">
         <v>412</v>
       </c>
@@ -43985,7 +43985,7 @@
       <c r="AB414" s="9"/>
       <c r="AC414" s="9"/>
     </row>
-    <row r="415" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B415" s="7">
         <v>413</v>
       </c>
@@ -44038,7 +44038,7 @@
       <c r="AB415" s="9"/>
       <c r="AC415" s="9"/>
     </row>
-    <row r="416" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B416" s="7">
         <v>414</v>
       </c>
@@ -44089,7 +44089,7 @@
       <c r="AB416" s="9"/>
       <c r="AC416" s="9"/>
     </row>
-    <row r="417" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B417" s="7">
         <v>415</v>
       </c>
@@ -44148,7 +44148,7 @@
       </c>
       <c r="AC417" s="9"/>
     </row>
-    <row r="418" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B418" s="7">
         <v>416</v>
       </c>
@@ -44197,7 +44197,7 @@
       <c r="AB418" s="9"/>
       <c r="AC418" s="9"/>
     </row>
-    <row r="419" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B419" s="7">
         <v>417</v>
       </c>
@@ -44256,7 +44256,7 @@
       </c>
       <c r="AC419" s="9"/>
     </row>
-    <row r="420" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B420" s="7">
         <v>418</v>
       </c>
@@ -44305,7 +44305,7 @@
       <c r="AB420" s="9"/>
       <c r="AC420" s="9"/>
     </row>
-    <row r="421" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B421" s="7">
         <v>419</v>
       </c>
@@ -44358,7 +44358,7 @@
       <c r="AB421" s="9"/>
       <c r="AC421" s="9"/>
     </row>
-    <row r="422" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B422" s="7">
         <v>420</v>
       </c>
@@ -44417,7 +44417,7 @@
       </c>
       <c r="AC422" s="9"/>
     </row>
-    <row r="423" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B423" s="7">
         <v>421</v>
       </c>
@@ -44466,7 +44466,7 @@
       <c r="AB423" s="9"/>
       <c r="AC423" s="9"/>
     </row>
-    <row r="424" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B424" s="7">
         <v>422</v>
       </c>
@@ -44520,7 +44520,7 @@
       <c r="AB424" s="9"/>
       <c r="AC424" s="9"/>
     </row>
-    <row r="425" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B425" s="7">
         <v>423</v>
       </c>
@@ -44573,7 +44573,7 @@
       <c r="AB425" s="9"/>
       <c r="AC425" s="9"/>
     </row>
-    <row r="426" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B426" s="7">
         <v>424</v>
       </c>
@@ -44622,7 +44622,7 @@
       <c r="AB426" s="9"/>
       <c r="AC426" s="9"/>
     </row>
-    <row r="427" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B427" s="7">
         <v>425</v>
       </c>
@@ -44671,7 +44671,7 @@
       <c r="AB427" s="9"/>
       <c r="AC427" s="9"/>
     </row>
-    <row r="428" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B428" s="7">
         <v>426</v>
       </c>
@@ -44724,7 +44724,7 @@
       <c r="AB428" s="9"/>
       <c r="AC428" s="9"/>
     </row>
-    <row r="429" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B429" s="7">
         <v>427</v>
       </c>
@@ -44777,7 +44777,7 @@
       <c r="AB429" s="9"/>
       <c r="AC429" s="9"/>
     </row>
-    <row r="430" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B430" s="7">
         <v>428</v>
       </c>
@@ -44830,7 +44830,7 @@
       <c r="AB430" s="9"/>
       <c r="AC430" s="9"/>
     </row>
-    <row r="431" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B431" s="7">
         <v>429</v>
       </c>
@@ -44883,7 +44883,7 @@
       <c r="AB431" s="9"/>
       <c r="AC431" s="9"/>
     </row>
-    <row r="432" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B432" s="7">
         <v>430</v>
       </c>
@@ -44936,7 +44936,7 @@
       <c r="AB432" s="9"/>
       <c r="AC432" s="9"/>
     </row>
-    <row r="433" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B433" s="7">
         <v>431</v>
       </c>
@@ -44989,7 +44989,7 @@
       <c r="AB433" s="9"/>
       <c r="AC433" s="9"/>
     </row>
-    <row r="434" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B434" s="7">
         <v>432</v>
       </c>
@@ -45040,7 +45040,7 @@
       <c r="AB434" s="9"/>
       <c r="AC434" s="9"/>
     </row>
-    <row r="435" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B435" s="7">
         <v>433</v>
       </c>
@@ -45095,7 +45095,7 @@
       <c r="AB435" s="9"/>
       <c r="AC435" s="9"/>
     </row>
-    <row r="436" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B436" s="7">
         <v>434</v>
       </c>
@@ -45148,7 +45148,7 @@
       <c r="AB436" s="9"/>
       <c r="AC436" s="9"/>
     </row>
-    <row r="437" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B437" s="7">
         <v>435</v>
       </c>
@@ -45207,7 +45207,7 @@
       </c>
       <c r="AC437" s="9"/>
     </row>
-    <row r="438" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B438" s="7">
         <v>436</v>
       </c>
@@ -45260,7 +45260,7 @@
       <c r="AB438" s="9"/>
       <c r="AC438" s="9"/>
     </row>
-    <row r="439" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B439" s="7">
         <v>437</v>
       </c>
@@ -45313,7 +45313,7 @@
       <c r="AB439" s="9"/>
       <c r="AC439" s="9"/>
     </row>
-    <row r="440" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B440" s="7">
         <v>438</v>
       </c>
@@ -45364,7 +45364,7 @@
       <c r="AB440" s="9"/>
       <c r="AC440" s="9"/>
     </row>
-    <row r="441" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B441" s="7">
         <v>439</v>
       </c>
@@ -45415,7 +45415,7 @@
       <c r="AB441" s="9"/>
       <c r="AC441" s="9"/>
     </row>
-    <row r="442" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B442" s="7">
         <v>440</v>
       </c>
@@ -45468,7 +45468,7 @@
       <c r="AB442" s="9"/>
       <c r="AC442" s="9"/>
     </row>
-    <row r="443" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B443" s="7">
         <v>441</v>
       </c>
@@ -45521,7 +45521,7 @@
       <c r="AB443" s="9"/>
       <c r="AC443" s="9"/>
     </row>
-    <row r="444" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B444" s="7">
         <v>442</v>
       </c>
@@ -45574,7 +45574,7 @@
       <c r="AB444" s="9"/>
       <c r="AC444" s="9"/>
     </row>
-    <row r="445" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B445" s="7">
         <v>443</v>
       </c>
@@ -45627,7 +45627,7 @@
       <c r="AB445" s="9"/>
       <c r="AC445" s="9"/>
     </row>
-    <row r="446" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B446" s="7">
         <v>444</v>
       </c>
@@ -45680,7 +45680,7 @@
       <c r="AB446" s="9"/>
       <c r="AC446" s="9"/>
     </row>
-    <row r="447" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B447" s="7">
         <v>445</v>
       </c>
@@ -45729,7 +45729,7 @@
       <c r="AB447" s="9"/>
       <c r="AC447" s="9"/>
     </row>
-    <row r="448" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B448" s="7">
         <v>446</v>
       </c>
@@ -45778,7 +45778,7 @@
       <c r="AB448" s="9"/>
       <c r="AC448" s="9"/>
     </row>
-    <row r="449" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B449" s="7">
         <v>447</v>
       </c>
@@ -45829,7 +45829,7 @@
       <c r="AB449" s="9"/>
       <c r="AC449" s="9"/>
     </row>
-    <row r="450" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B450" s="7">
         <v>448</v>
       </c>
@@ -45880,7 +45880,7 @@
       <c r="AB450" s="9"/>
       <c r="AC450" s="9"/>
     </row>
-    <row r="451" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B451" s="7">
         <v>449</v>
       </c>
@@ -45933,7 +45933,7 @@
       <c r="AB451" s="9"/>
       <c r="AC451" s="9"/>
     </row>
-    <row r="452" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B452" s="7">
         <v>450</v>
       </c>
@@ -45982,7 +45982,7 @@
       <c r="AB452" s="9"/>
       <c r="AC452" s="9"/>
     </row>
-    <row r="453" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B453" s="7">
         <v>451</v>
       </c>
@@ -46035,7 +46035,7 @@
       <c r="AB453" s="9"/>
       <c r="AC453" s="9"/>
     </row>
-    <row r="454" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B454" s="7">
         <v>452</v>
       </c>
@@ -46086,7 +46086,7 @@
       <c r="AB454" s="9"/>
       <c r="AC454" s="9"/>
     </row>
-    <row r="455" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B455" s="7">
         <v>453</v>
       </c>
@@ -46137,7 +46137,7 @@
       <c r="AB455" s="9"/>
       <c r="AC455" s="9"/>
     </row>
-    <row r="456" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B456" s="7">
         <v>454</v>
       </c>
@@ -46188,7 +46188,7 @@
       <c r="AB456" s="9"/>
       <c r="AC456" s="9"/>
     </row>
-    <row r="457" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B457" s="7">
         <v>455</v>
       </c>
@@ -46239,7 +46239,7 @@
       <c r="AB457" s="9"/>
       <c r="AC457" s="9"/>
     </row>
-    <row r="458" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B458" s="7">
         <v>456</v>
       </c>
@@ -46292,7 +46292,7 @@
       <c r="AB458" s="9"/>
       <c r="AC458" s="9"/>
     </row>
-    <row r="459" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B459" s="7">
         <v>457</v>
       </c>
@@ -46343,7 +46343,7 @@
       <c r="AB459" s="9"/>
       <c r="AC459" s="9"/>
     </row>
-    <row r="460" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B460" s="7">
         <v>458</v>
       </c>
@@ -46392,7 +46392,7 @@
       <c r="AB460" s="9"/>
       <c r="AC460" s="9"/>
     </row>
-    <row r="461" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B461" s="7">
         <v>459</v>
       </c>
@@ -46441,7 +46441,7 @@
       <c r="AB461" s="9"/>
       <c r="AC461" s="9"/>
     </row>
-    <row r="462" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B462" s="7">
         <v>460</v>
       </c>
@@ -46490,7 +46490,7 @@
       <c r="AB462" s="9"/>
       <c r="AC462" s="9"/>
     </row>
-    <row r="463" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B463" s="7">
         <v>461</v>
       </c>
@@ -46539,7 +46539,7 @@
       <c r="AB463" s="9"/>
       <c r="AC463" s="9"/>
     </row>
-    <row r="464" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B464" s="7">
         <v>462</v>
       </c>
@@ -46594,7 +46594,7 @@
       <c r="AB464" s="9"/>
       <c r="AC464" s="9"/>
     </row>
-    <row r="465" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B465" s="7">
         <v>463</v>
       </c>
@@ -46643,7 +46643,7 @@
       <c r="AB465" s="9"/>
       <c r="AC465" s="9"/>
     </row>
-    <row r="466" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:29" ht="45" x14ac:dyDescent="0.25">
       <c r="B466" s="7">
         <v>464</v>
       </c>
@@ -46696,7 +46696,7 @@
       <c r="AB466" s="9"/>
       <c r="AC466" s="9"/>
     </row>
-    <row r="467" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="7">
         <v>465</v>
       </c>
@@ -46749,7 +46749,7 @@
       <c r="AB467" s="9"/>
       <c r="AC467" s="9"/>
     </row>
-    <row r="468" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B468" s="7">
         <v>466</v>
       </c>
@@ -46802,7 +46802,7 @@
       <c r="AB468" s="9"/>
       <c r="AC468" s="9"/>
     </row>
-    <row r="469" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B469" s="7">
         <v>467</v>
       </c>
@@ -46855,7 +46855,7 @@
       <c r="AB469" s="9"/>
       <c r="AC469" s="9"/>
     </row>
-    <row r="470" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B470" s="7">
         <v>468</v>
       </c>
@@ -46908,7 +46908,7 @@
       <c r="AB470" s="9"/>
       <c r="AC470" s="9"/>
     </row>
-    <row r="471" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B471" s="7">
         <v>469</v>
       </c>
@@ -46961,7 +46961,7 @@
       <c r="AB471" s="9"/>
       <c r="AC471" s="9"/>
     </row>
-    <row r="472" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B472" s="7">
         <v>470</v>
       </c>
@@ -47014,7 +47014,7 @@
       <c r="AB472" s="9"/>
       <c r="AC472" s="9"/>
     </row>
-    <row r="473" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="7">
         <v>471</v>
       </c>
@@ -47067,7 +47067,7 @@
       <c r="AB473" s="9"/>
       <c r="AC473" s="9"/>
     </row>
-    <row r="474" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="7">
         <v>472</v>
       </c>
@@ -47120,7 +47120,7 @@
       <c r="AB474" s="9"/>
       <c r="AC474" s="9"/>
     </row>
-    <row r="475" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B475" s="7">
         <v>473</v>
       </c>
@@ -47173,7 +47173,7 @@
       <c r="AB475" s="9"/>
       <c r="AC475" s="9"/>
     </row>
-    <row r="476" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B476" s="7">
         <v>474</v>
       </c>
@@ -47226,7 +47226,7 @@
       <c r="AB476" s="9"/>
       <c r="AC476" s="9"/>
     </row>
-    <row r="477" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B477" s="7">
         <v>475</v>
       </c>
@@ -47279,7 +47279,7 @@
       <c r="AB477" s="9"/>
       <c r="AC477" s="9"/>
     </row>
-    <row r="478" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B478" s="7">
         <v>476</v>
       </c>
@@ -47332,7 +47332,7 @@
       <c r="AB478" s="9"/>
       <c r="AC478" s="9"/>
     </row>
-    <row r="479" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B479" s="7">
         <v>477</v>
       </c>
@@ -47385,7 +47385,7 @@
       <c r="AB479" s="9"/>
       <c r="AC479" s="9"/>
     </row>
-    <row r="480" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B480" s="7">
         <v>478</v>
       </c>
@@ -47438,7 +47438,7 @@
       <c r="AB480" s="9"/>
       <c r="AC480" s="9"/>
     </row>
-    <row r="481" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B481" s="7">
         <v>479</v>
       </c>
@@ -47491,7 +47491,7 @@
       <c r="AB481" s="9"/>
       <c r="AC481" s="9"/>
     </row>
-    <row r="482" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B482" s="7">
         <v>480</v>
       </c>
@@ -47544,7 +47544,7 @@
       <c r="AB482" s="9"/>
       <c r="AC482" s="9"/>
     </row>
-    <row r="483" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B483" s="7">
         <v>481</v>
       </c>
@@ -47597,7 +47597,7 @@
       <c r="AB483" s="9"/>
       <c r="AC483" s="9"/>
     </row>
-    <row r="484" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:29" ht="90" x14ac:dyDescent="0.25">
       <c r="B484" s="7">
         <v>482</v>
       </c>
@@ -47650,7 +47650,7 @@
       <c r="AB484" s="9"/>
       <c r="AC484" s="9"/>
     </row>
-    <row r="485" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B485" s="7">
         <v>483</v>
       </c>
@@ -47703,7 +47703,7 @@
       <c r="AB485" s="9"/>
       <c r="AC485" s="9"/>
     </row>
-    <row r="486" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B486" s="7">
         <v>484</v>
       </c>
@@ -47756,7 +47756,7 @@
       <c r="AB486" s="9"/>
       <c r="AC486" s="9"/>
     </row>
-    <row r="487" spans="2:29" ht="87" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:29" ht="90" x14ac:dyDescent="0.25">
       <c r="B487" s="7">
         <v>485</v>
       </c>
@@ -47815,7 +47815,7 @@
       </c>
       <c r="AC487" s="9"/>
     </row>
-    <row r="488" spans="2:29" ht="87" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:29" ht="90" x14ac:dyDescent="0.25">
       <c r="B488" s="7">
         <v>486</v>
       </c>
@@ -47868,7 +47868,7 @@
       <c r="AB488" s="9"/>
       <c r="AC488" s="9"/>
     </row>
-    <row r="489" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B489" s="7">
         <v>487</v>
       </c>
@@ -47917,7 +47917,7 @@
       <c r="AB489" s="9"/>
       <c r="AC489" s="9"/>
     </row>
-    <row r="490" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B490" s="7">
         <v>488</v>
       </c>
@@ -47966,7 +47966,7 @@
       <c r="AB490" s="9"/>
       <c r="AC490" s="9"/>
     </row>
-    <row r="491" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B491" s="7">
         <v>489</v>
       </c>
@@ -48018,7 +48018,7 @@
       <c r="AB491" s="9"/>
       <c r="AC491" s="9"/>
     </row>
-    <row r="492" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B492" s="7">
         <v>490</v>
       </c>
@@ -48071,7 +48071,7 @@
       <c r="AB492" s="9"/>
       <c r="AC492" s="9"/>
     </row>
-    <row r="493" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B493" s="7">
         <v>491</v>
       </c>
@@ -48130,7 +48130,7 @@
       </c>
       <c r="AC493" s="9"/>
     </row>
-    <row r="494" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B494" s="7">
         <v>492</v>
       </c>
@@ -48189,7 +48189,7 @@
       </c>
       <c r="AC494" s="9"/>
     </row>
-    <row r="495" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B495" s="7">
         <v>493</v>
       </c>
@@ -48248,7 +48248,7 @@
       </c>
       <c r="AC495" s="9"/>
     </row>
-    <row r="496" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B496" s="7">
         <v>494</v>
       </c>
@@ -48297,7 +48297,7 @@
       <c r="AB496" s="9"/>
       <c r="AC496" s="9"/>
     </row>
-    <row r="497" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B497" s="7">
         <v>495</v>
       </c>
@@ -48348,7 +48348,7 @@
       <c r="AB497" s="9"/>
       <c r="AC497" s="9"/>
     </row>
-    <row r="498" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B498" s="7">
         <v>496</v>
       </c>
@@ -48397,7 +48397,7 @@
       <c r="AB498" s="9"/>
       <c r="AC498" s="9"/>
     </row>
-    <row r="499" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B499" s="7">
         <v>497</v>
       </c>
@@ -48446,7 +48446,7 @@
       <c r="AB499" s="9"/>
       <c r="AC499" s="9"/>
     </row>
-    <row r="500" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B500" s="7">
         <v>498</v>
       </c>
@@ -48495,7 +48495,7 @@
       <c r="AB500" s="9"/>
       <c r="AC500" s="9"/>
     </row>
-    <row r="501" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:29" ht="75" x14ac:dyDescent="0.25">
       <c r="B501" s="7">
         <v>499</v>
       </c>
@@ -48548,7 +48548,7 @@
       <c r="AB501" s="9"/>
       <c r="AC501" s="9"/>
     </row>
-    <row r="502" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:29" ht="60" x14ac:dyDescent="0.25">
       <c r="B502" s="7">
         <v>500</v>
       </c>
@@ -48601,7 +48601,7 @@
       <c r="AB502" s="9"/>
       <c r="AC502" s="9"/>
     </row>
-    <row r="503" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B503" s="7">
         <v>501</v>
       </c>
@@ -48654,7 +48654,7 @@
       <c r="AB503" s="9"/>
       <c r="AC503" s="9"/>
     </row>
-    <row r="504" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B504" s="7">
         <v>502</v>
       </c>
@@ -48707,7 +48707,7 @@
       <c r="AB504" s="9"/>
       <c r="AC504" s="9"/>
     </row>
-    <row r="505" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:29" ht="45" x14ac:dyDescent="0.25">
       <c r="B505" s="7">
         <v>503</v>
       </c>
@@ -48760,7 +48760,7 @@
       <c r="AB505" s="9"/>
       <c r="AC505" s="9"/>
     </row>
-    <row r="506" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B506" s="7">
         <v>504</v>
       </c>
@@ -48813,7 +48813,7 @@
       <c r="AB506" s="9"/>
       <c r="AC506" s="9"/>
     </row>
-    <row r="507" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B507" s="7">
         <v>505</v>
       </c>
@@ -48866,7 +48866,7 @@
       <c r="AB507" s="9"/>
       <c r="AC507" s="9"/>
     </row>
-    <row r="508" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B508" s="7">
         <v>506</v>
       </c>
@@ -48919,7 +48919,7 @@
       <c r="AB508" s="9"/>
       <c r="AC508" s="9"/>
     </row>
-    <row r="509" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B509" s="7">
         <v>507</v>
       </c>
@@ -48980,7 +48980,7 @@
       </c>
       <c r="AC509" s="9"/>
     </row>
-    <row r="510" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B510" s="7">
         <v>508</v>
       </c>
@@ -49037,7 +49037,7 @@
       </c>
       <c r="AC510" s="9"/>
     </row>
-    <row r="511" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B511" s="7">
         <v>509</v>
       </c>
@@ -49084,7 +49084,7 @@
       <c r="AB511" s="9"/>
       <c r="AC511" s="9"/>
     </row>
-    <row r="512" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B512" s="7">
         <v>510</v>
       </c>
@@ -49129,7 +49129,7 @@
       <c r="AB512" s="9"/>
       <c r="AC512" s="9"/>
     </row>
-    <row r="513" spans="2:29" ht="378" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B513" s="7">
         <v>511</v>
       </c>
@@ -49180,7 +49180,7 @@
       <c r="AB513" s="9"/>
       <c r="AC513" s="9"/>
     </row>
-    <row r="514" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B514" s="7">
         <v>512</v>
       </c>
@@ -49231,7 +49231,7 @@
       <c r="AB514" s="9"/>
       <c r="AC514" s="9"/>
     </row>
-    <row r="515" spans="2:29" ht="294" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
       <c r="B515" s="7">
         <v>513</v>
       </c>
@@ -49282,7 +49282,7 @@
       <c r="AB515" s="9"/>
       <c r="AC515" s="9"/>
     </row>
-    <row r="516" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B516" s="7">
         <v>514</v>
       </c>
@@ -49333,7 +49333,7 @@
       <c r="AB516" s="9"/>
       <c r="AC516" s="9"/>
     </row>
-    <row r="517" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B517" s="7">
         <v>515</v>
       </c>
@@ -49384,7 +49384,7 @@
       <c r="AB517" s="9"/>
       <c r="AC517" s="9"/>
     </row>
-    <row r="518" spans="2:29" ht="266" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:29" ht="285" x14ac:dyDescent="0.25">
       <c r="B518" s="7">
         <v>516</v>
       </c>
@@ -49435,7 +49435,7 @@
       <c r="AB518" s="9"/>
       <c r="AC518" s="9"/>
     </row>
-    <row r="519" spans="2:29" ht="280" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
       <c r="B519" s="7">
         <v>517</v>
       </c>
@@ -49490,7 +49490,7 @@
       <c r="AB519" s="9"/>
       <c r="AC519" s="9"/>
     </row>
-    <row r="520" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B520" s="7">
         <v>518</v>
       </c>
@@ -49545,7 +49545,7 @@
       <c r="AB520" s="9"/>
       <c r="AC520" s="9"/>
     </row>
-    <row r="521" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
       <c r="B521" s="7">
         <v>519</v>
       </c>
@@ -49600,7 +49600,7 @@
       <c r="AB521" s="9"/>
       <c r="AC521" s="9"/>
     </row>
-    <row r="522" spans="2:29" ht="322" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
       <c r="B522" s="7">
         <v>520</v>
       </c>
@@ -49655,7 +49655,7 @@
       <c r="AB522" s="9"/>
       <c r="AC522" s="9"/>
     </row>
-    <row r="523" spans="2:29" ht="280" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
       <c r="B523" s="7">
         <v>521</v>
       </c>
@@ -49710,7 +49710,7 @@
       <c r="AB523" s="9"/>
       <c r="AC523" s="9"/>
     </row>
-    <row r="524" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:29" ht="285" x14ac:dyDescent="0.25">
       <c r="B524" s="7">
         <v>522</v>
       </c>
@@ -49765,7 +49765,7 @@
       <c r="AB524" s="9"/>
       <c r="AC524" s="9"/>
     </row>
-    <row r="525" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
       <c r="B525" s="7">
         <v>523</v>
       </c>
@@ -49820,7 +49820,7 @@
       <c r="AB525" s="9"/>
       <c r="AC525" s="9"/>
     </row>
-    <row r="526" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
       <c r="B526" s="7">
         <v>524</v>
       </c>
@@ -49875,7 +49875,7 @@
       <c r="AB526" s="9"/>
       <c r="AC526" s="9"/>
     </row>
-    <row r="527" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B527" s="7">
         <v>525</v>
       </c>
@@ -49930,7 +49930,7 @@
       <c r="AB527" s="9"/>
       <c r="AC527" s="9"/>
     </row>
-    <row r="528" spans="2:29" ht="392" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B528" s="7">
         <v>526</v>
       </c>
@@ -49985,7 +49985,7 @@
       <c r="AB528" s="9"/>
       <c r="AC528" s="9"/>
     </row>
-    <row r="529" spans="2:29" ht="308" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
       <c r="B529" s="7">
         <v>527</v>
       </c>
@@ -50040,7 +50040,7 @@
       <c r="AB529" s="9"/>
       <c r="AC529" s="9"/>
     </row>
-    <row r="530" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
       <c r="B530" s="7">
         <v>528</v>
       </c>
@@ -50095,7 +50095,7 @@
       <c r="AB530" s="9"/>
       <c r="AC530" s="9"/>
     </row>
-    <row r="531" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B531" s="7">
         <v>529</v>
       </c>
@@ -50144,7 +50144,7 @@
       <c r="AB531" s="9"/>
       <c r="AC531" s="9"/>
     </row>
-    <row r="532" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B532" s="7">
         <v>530</v>
       </c>
@@ -50197,7 +50197,7 @@
       <c r="AB532" s="9"/>
       <c r="AC532" s="9"/>
     </row>
-    <row r="533" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B533" s="7">
         <v>531</v>
       </c>
@@ -50248,7 +50248,7 @@
       <c r="AB533" s="9"/>
       <c r="AC533" s="9"/>
     </row>
-    <row r="534" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B534" s="7">
         <v>532</v>
       </c>
@@ -50301,7 +50301,7 @@
       <c r="AB534" s="9"/>
       <c r="AC534" s="9"/>
     </row>
-    <row r="535" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B535" s="7">
         <v>533</v>
       </c>
@@ -50354,7 +50354,7 @@
       <c r="AB535" s="9"/>
       <c r="AC535" s="9"/>
     </row>
-    <row r="536" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B536" s="7">
         <v>534</v>
       </c>
@@ -50405,7 +50405,7 @@
       <c r="AB536" s="9"/>
       <c r="AC536" s="9"/>
     </row>
-    <row r="537" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B537" s="7">
         <v>535</v>
       </c>
@@ -50456,7 +50456,7 @@
       <c r="AB537" s="9"/>
       <c r="AC537" s="9"/>
     </row>
-    <row r="538" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B538" s="7">
         <v>536</v>
       </c>
@@ -50507,7 +50507,7 @@
       <c r="AB538" s="9"/>
       <c r="AC538" s="9"/>
     </row>
-    <row r="539" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B539" s="7">
         <v>537</v>
       </c>
@@ -50558,7 +50558,7 @@
       <c r="AB539" s="9"/>
       <c r="AC539" s="9"/>
     </row>
-    <row r="540" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B540" s="7">
         <v>538</v>
       </c>
@@ -50609,7 +50609,7 @@
       <c r="AB540" s="9"/>
       <c r="AC540" s="9"/>
     </row>
-    <row r="541" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B541" s="7">
         <v>539</v>
       </c>
@@ -50660,7 +50660,7 @@
       <c r="AB541" s="9"/>
       <c r="AC541" s="9"/>
     </row>
-    <row r="542" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B542" s="7">
         <v>540</v>
       </c>
@@ -50711,7 +50711,7 @@
       <c r="AB542" s="9"/>
       <c r="AC542" s="9"/>
     </row>
-    <row r="543" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B543" s="7">
         <v>541</v>
       </c>
@@ -50764,7 +50764,7 @@
       <c r="AB543" s="9"/>
       <c r="AC543" s="9"/>
     </row>
-    <row r="544" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B544" s="7">
         <v>542</v>
       </c>
@@ -50817,7 +50817,7 @@
       <c r="AB544" s="9"/>
       <c r="AC544" s="9"/>
     </row>
-    <row r="545" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B545" s="7">
         <v>543</v>
       </c>
@@ -50870,7 +50870,7 @@
       <c r="AB545" s="9"/>
       <c r="AC545" s="9"/>
     </row>
-    <row r="546" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B546" s="7">
         <v>544</v>
       </c>
@@ -50921,7 +50921,7 @@
       <c r="AB546" s="9"/>
       <c r="AC546" s="9"/>
     </row>
-    <row r="547" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B547" s="7">
         <v>545</v>
       </c>
@@ -50972,7 +50972,7 @@
       <c r="AB547" s="9"/>
       <c r="AC547" s="9"/>
     </row>
-    <row r="548" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B548" s="7">
         <v>546</v>
       </c>
@@ -51023,7 +51023,7 @@
       <c r="AB548" s="9"/>
       <c r="AC548" s="9"/>
     </row>
-    <row r="549" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B549" s="7">
         <v>547</v>
       </c>
@@ -51076,7 +51076,7 @@
       <c r="AB549" s="9"/>
       <c r="AC549" s="9"/>
     </row>
-    <row r="550" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B550" s="7">
         <v>548</v>
       </c>
@@ -51127,7 +51127,7 @@
       <c r="AB550" s="9"/>
       <c r="AC550" s="9"/>
     </row>
-    <row r="551" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B551" s="7">
         <v>549</v>
       </c>
@@ -51178,7 +51178,7 @@
       <c r="AB551" s="9"/>
       <c r="AC551" s="9"/>
     </row>
-    <row r="552" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B552" s="7">
         <v>550</v>
       </c>
@@ -51229,7 +51229,7 @@
       <c r="AB552" s="9"/>
       <c r="AC552" s="9"/>
     </row>
-    <row r="553" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B553" s="7">
         <v>551</v>
       </c>
@@ -51280,7 +51280,7 @@
       <c r="AB553" s="9"/>
       <c r="AC553" s="9"/>
     </row>
-    <row r="554" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B554" s="7">
         <v>552</v>
       </c>
@@ -51331,7 +51331,7 @@
       <c r="AB554" s="9"/>
       <c r="AC554" s="9"/>
     </row>
-    <row r="555" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B555" s="7">
         <v>553</v>
       </c>
@@ -51382,7 +51382,7 @@
       <c r="AB555" s="9"/>
       <c r="AC555" s="9"/>
     </row>
-    <row r="556" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B556" s="7">
         <v>554</v>
       </c>
@@ -51433,7 +51433,7 @@
       <c r="AB556" s="9"/>
       <c r="AC556" s="9"/>
     </row>
-    <row r="557" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B557" s="7">
         <v>555</v>
       </c>
@@ -51484,7 +51484,7 @@
       <c r="AB557" s="9"/>
       <c r="AC557" s="9"/>
     </row>
-    <row r="558" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B558" s="7">
         <v>556</v>
       </c>
@@ -51535,7 +51535,7 @@
       <c r="AB558" s="9"/>
       <c r="AC558" s="9"/>
     </row>
-    <row r="559" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B559" s="7">
         <v>557</v>
       </c>
@@ -51586,7 +51586,7 @@
       <c r="AB559" s="9"/>
       <c r="AC559" s="9"/>
     </row>
-    <row r="560" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B560" s="7">
         <v>558</v>
       </c>
@@ -51637,7 +51637,7 @@
       <c r="AB560" s="9"/>
       <c r="AC560" s="9"/>
     </row>
-    <row r="561" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B561" s="7">
         <v>559</v>
       </c>
@@ -51688,7 +51688,7 @@
       <c r="AB561" s="9"/>
       <c r="AC561" s="9"/>
     </row>
-    <row r="562" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B562" s="7">
         <v>560</v>
       </c>
@@ -51739,7 +51739,7 @@
       <c r="AB562" s="9"/>
       <c r="AC562" s="9"/>
     </row>
-    <row r="563" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B563" s="7">
         <v>561</v>
       </c>
@@ -51790,7 +51790,7 @@
       <c r="AB563" s="9"/>
       <c r="AC563" s="9"/>
     </row>
-    <row r="564" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B564" s="7">
         <v>562</v>
       </c>
@@ -51841,7 +51841,7 @@
       <c r="AB564" s="9"/>
       <c r="AC564" s="9"/>
     </row>
-    <row r="565" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B565" s="7">
         <v>563</v>
       </c>
@@ -51892,7 +51892,7 @@
       <c r="AB565" s="9"/>
       <c r="AC565" s="9"/>
     </row>
-    <row r="566" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B566" s="7">
         <v>564</v>
       </c>
@@ -51943,7 +51943,7 @@
       <c r="AB566" s="9"/>
       <c r="AC566" s="9"/>
     </row>
-    <row r="567" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B567" s="7">
         <v>565</v>
       </c>
@@ -51994,7 +51994,7 @@
       <c r="AB567" s="9"/>
       <c r="AC567" s="9"/>
     </row>
-    <row r="568" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B568" s="7">
         <v>566</v>
       </c>
@@ -52045,7 +52045,7 @@
       <c r="AB568" s="9"/>
       <c r="AC568" s="9"/>
     </row>
-    <row r="569" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B569" s="7">
         <v>567</v>
       </c>
@@ -52096,7 +52096,7 @@
       <c r="AB569" s="9"/>
       <c r="AC569" s="9"/>
     </row>
-    <row r="570" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B570" s="7">
         <v>568</v>
       </c>
@@ -52147,7 +52147,7 @@
       <c r="AB570" s="9"/>
       <c r="AC570" s="9"/>
     </row>
-    <row r="571" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B571" s="7">
         <v>569</v>
       </c>
@@ -52198,7 +52198,7 @@
       <c r="AB571" s="9"/>
       <c r="AC571" s="9"/>
     </row>
-    <row r="572" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B572" s="7">
         <v>570</v>
       </c>
@@ -52249,7 +52249,7 @@
       <c r="AB572" s="9"/>
       <c r="AC572" s="9"/>
     </row>
-    <row r="573" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B573" s="7">
         <v>571</v>
       </c>
@@ -52300,7 +52300,7 @@
       <c r="AB573" s="9"/>
       <c r="AC573" s="9"/>
     </row>
-    <row r="574" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B574" s="7">
         <v>572</v>
       </c>
@@ -52351,7 +52351,7 @@
       <c r="AB574" s="9"/>
       <c r="AC574" s="9"/>
     </row>
-    <row r="575" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B575" s="7">
         <v>573</v>
       </c>
@@ -52404,7 +52404,7 @@
       <c r="AB575" s="9"/>
       <c r="AC575" s="9"/>
     </row>
-    <row r="576" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B576" s="7">
         <v>574</v>
       </c>
@@ -52455,7 +52455,7 @@
       <c r="AB576" s="9"/>
       <c r="AC576" s="9"/>
     </row>
-    <row r="577" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B577" s="7">
         <v>575</v>
       </c>
@@ -52506,7 +52506,7 @@
       <c r="AB577" s="9"/>
       <c r="AC577" s="9"/>
     </row>
-    <row r="578" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B578" s="7">
         <v>576</v>
       </c>
@@ -52557,7 +52557,7 @@
       <c r="AB578" s="9"/>
       <c r="AC578" s="9"/>
     </row>
-    <row r="579" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B579" s="7">
         <v>577</v>
       </c>
@@ -52610,7 +52610,7 @@
       <c r="AB579" s="9"/>
       <c r="AC579" s="9"/>
     </row>
-    <row r="580" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B580" s="7">
         <v>578</v>
       </c>
@@ -52661,7 +52661,7 @@
       <c r="AB580" s="9"/>
       <c r="AC580" s="9"/>
     </row>
-    <row r="581" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B581" s="7">
         <v>579</v>
       </c>
@@ -52712,7 +52712,7 @@
       <c r="AB581" s="9"/>
       <c r="AC581" s="9"/>
     </row>
-    <row r="582" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B582" s="7">
         <v>580</v>
       </c>
@@ -52763,7 +52763,7 @@
       <c r="AB582" s="9"/>
       <c r="AC582" s="9"/>
     </row>
-    <row r="583" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:29" ht="57" x14ac:dyDescent="0.25">
       <c r="B583" s="7">
         <v>581</v>
       </c>
@@ -52814,7 +52814,7 @@
       <c r="AB583" s="9"/>
       <c r="AC583" s="9"/>
     </row>
-    <row r="584" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B584" s="7">
         <v>582</v>
       </c>
@@ -52863,7 +52863,7 @@
       <c r="AB584" s="9"/>
       <c r="AC584" s="9"/>
     </row>
-    <row r="585" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B585" s="7">
         <v>583</v>
       </c>
@@ -52904,7 +52904,7 @@
       <c r="AB585" s="9"/>
       <c r="AC585" s="9"/>
     </row>
-    <row r="586" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B586" s="7">
         <v>584</v>
       </c>
@@ -52945,7 +52945,7 @@
       <c r="AB586" s="9"/>
       <c r="AC586" s="9"/>
     </row>
-    <row r="587" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:29" ht="171" x14ac:dyDescent="0.25">
       <c r="B587" s="7">
         <v>585</v>
       </c>
@@ -52988,7 +52988,7 @@
       <c r="Y587" s="9"/>
       <c r="AC587" s="9"/>
     </row>
-    <row r="588" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
       <c r="B588" s="7">
         <v>586</v>
       </c>
@@ -53031,7 +53031,7 @@
       <c r="Y588" s="9"/>
       <c r="AC588" s="9"/>
     </row>
-    <row r="589" spans="2:29" ht="182" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
       <c r="B589" s="7">
         <v>587</v>
       </c>
@@ -53073,7 +53073,7 @@
       <c r="Y589" s="9"/>
       <c r="AC589" s="9"/>
     </row>
-    <row r="590" spans="2:29" ht="210" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B590" s="7">
         <v>588</v>
       </c>
@@ -53115,7 +53115,7 @@
       <c r="Y590" s="9"/>
       <c r="AC590" s="9"/>
     </row>
-    <row r="591" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
       <c r="B591" s="7">
         <v>589</v>
       </c>
@@ -53157,7 +53157,7 @@
       <c r="Y591" s="9"/>
       <c r="AC591" s="9"/>
     </row>
-    <row r="592" spans="2:29" ht="224" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:29" ht="228" x14ac:dyDescent="0.25">
       <c r="B592" s="7">
         <v>590</v>
       </c>
@@ -53199,7 +53199,7 @@
       <c r="Y592" s="9"/>
       <c r="AC592" s="9"/>
     </row>
-    <row r="593" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
       <c r="B593" s="7">
         <v>591</v>
       </c>
@@ -53241,50 +53241,50 @@
       <c r="Y593" s="9"/>
       <c r="AC593" s="9"/>
     </row>
-    <row r="594" spans="2:29" ht="182" x14ac:dyDescent="0.35">
-      <c r="B594" s="54">
+    <row r="594" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="B594" s="50">
         <v>592</v>
       </c>
-      <c r="C594" s="55" t="s">
+      <c r="C594" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="D594" s="55" t="s">
+      <c r="D594" s="51" t="s">
         <v>1799</v>
       </c>
-      <c r="E594" s="56" t="s">
+      <c r="E594" s="52" t="s">
         <v>1739</v>
       </c>
-      <c r="F594" s="55" t="s">
+      <c r="F594" s="51" t="s">
         <v>1804</v>
       </c>
-      <c r="G594" s="55" t="s">
+      <c r="G594" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="H594" s="55" t="s">
+      <c r="H594" s="51" t="s">
         <v>1804</v>
       </c>
-      <c r="I594" s="56" t="s">
+      <c r="I594" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J594" s="56" t="s">
+      <c r="J594" s="52" t="s">
         <v>635</v>
       </c>
-      <c r="K594" s="56">
+      <c r="K594" s="52">
         <v>14</v>
       </c>
-      <c r="L594" s="56" t="s">
+      <c r="L594" s="52" t="s">
         <v>597</v>
       </c>
-      <c r="M594" s="55"/>
-      <c r="N594" s="55"/>
-      <c r="O594" s="55">
+      <c r="M594" s="51"/>
+      <c r="N594" s="51"/>
+      <c r="O594" s="51">
         <v>3.5</v>
       </c>
-      <c r="Y594" s="55"/>
-      <c r="AC594" s="55"/>
-    </row>
-    <row r="595" spans="2:29" ht="28" x14ac:dyDescent="0.35">
-      <c r="B595" s="57">
+      <c r="Y594" s="51"/>
+      <c r="AC594" s="51"/>
+    </row>
+    <row r="595" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B595" s="53">
         <v>593</v>
       </c>
       <c r="C595" s="9" t="s">
@@ -53335,8 +53335,8 @@
       <c r="AB595" s="9"/>
       <c r="AC595" s="9"/>
     </row>
-    <row r="596" spans="2:29" ht="28" x14ac:dyDescent="0.35">
-      <c r="B596" s="57">
+    <row r="596" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B596" s="53">
         <v>594</v>
       </c>
       <c r="C596" s="9" t="s">
@@ -53387,13 +53387,13 @@
       <c r="AB596" s="9"/>
       <c r="AC596" s="9"/>
     </row>
-    <row r="597" spans="2:29" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:29" x14ac:dyDescent="0.25">
       <c r="E597" s="46"/>
     </row>
-    <row r="598" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="598" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E598" s="47"/>
     </row>
-    <row r="599" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="599" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I599" s="26" t="s">
         <v>1707</v>
       </c>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7AD99C64-6FEA-4C8A-AF6B-78328491D49C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A064F34-0896-427C-AB10-EDA35CA6D270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -19,13 +19,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$A$4:$AB$596</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="1853">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6166,6 +6171,9 @@
   </si>
   <si>
     <t>UI-4</t>
+  </si>
+  <si>
+    <t>MOS-28569</t>
   </si>
 </sst>
 </file>
@@ -22281,37 +22289,37 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -22319,7 +22327,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>595</v>
       </c>
@@ -22327,7 +22335,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>1725</v>
       </c>
@@ -22335,7 +22343,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>1718</v>
       </c>
@@ -22367,7 +22375,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>601</v>
       </c>
@@ -22399,7 +22407,7 @@
         <v>585.70000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>704</v>
       </c>
@@ -22423,7 +22431,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>1719</v>
       </c>
@@ -22465,45 +22473,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC599"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L185" sqref="L185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="12.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="8" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="12.81640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" style="8" customWidth="1"/>
+    <col min="13" max="14" width="12.81640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" style="8" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1796875" style="8" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="8" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="15.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.5703125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="43.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="15.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="43.54296875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="43.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.81640625" style="8" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="37.140625" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="8"/>
+    <col min="29" max="29" width="37.1796875" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:29" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
@@ -22511,10 +22519,10 @@
       <c r="D2" s="57"/>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="AA3" s="21"/>
     </row>
-    <row r="4" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1689</v>
       </c>
@@ -22600,7 +22608,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -22646,7 +22654,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -22702,7 +22710,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -22758,7 +22766,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -22814,7 +22822,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -22870,7 +22878,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -22926,7 +22934,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -22982,7 +22990,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -23038,7 +23046,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -23094,7 +23102,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -23142,7 +23150,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -23190,7 +23198,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -23236,7 +23244,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -23282,7 +23290,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -23326,7 +23334,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -23372,7 +23380,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -23416,7 +23424,7 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -23460,7 +23468,7 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -23502,7 +23510,7 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
     </row>
-    <row r="23" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -23546,7 +23554,7 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -23588,7 +23596,7 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -23630,7 +23638,7 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -23678,7 +23686,7 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
     </row>
-    <row r="27" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -23722,7 +23730,7 @@
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
     </row>
-    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -23768,7 +23776,7 @@
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
     </row>
-    <row r="29" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -23814,7 +23822,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
     </row>
-    <row r="30" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -23854,7 +23862,7 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -23894,7 +23902,7 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
     </row>
-    <row r="32" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -23940,7 +23948,7 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -23980,7 +23988,7 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
     </row>
-    <row r="34" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -24024,7 +24032,7 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -24066,7 +24074,7 @@
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="36" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -24114,7 +24122,7 @@
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -24162,7 +24170,7 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
     </row>
-    <row r="38" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -24214,7 +24222,7 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
     </row>
-    <row r="39" spans="2:29" s="16" customFormat="1" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" s="16" customFormat="1" ht="224" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -24264,7 +24272,7 @@
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
     </row>
-    <row r="40" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -24314,7 +24322,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
     </row>
-    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -24364,7 +24372,7 @@
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -24414,7 +24422,7 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -24464,7 +24472,7 @@
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -24520,7 +24528,7 @@
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
     </row>
-    <row r="45" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -24574,7 +24582,7 @@
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
     </row>
-    <row r="46" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -24632,7 +24640,7 @@
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
     </row>
-    <row r="47" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -24682,7 +24690,7 @@
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
     </row>
-    <row r="48" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -24730,7 +24738,7 @@
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -24780,7 +24788,7 @@
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
     </row>
-    <row r="50" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -24830,7 +24838,7 @@
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
     </row>
-    <row r="51" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -24878,7 +24886,7 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -24928,7 +24936,7 @@
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
     </row>
-    <row r="53" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -24980,7 +24988,7 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
     </row>
-    <row r="54" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -25032,7 +25040,7 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
     </row>
-    <row r="55" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -25084,7 +25092,7 @@
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
     </row>
-    <row r="56" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -25136,7 +25144,7 @@
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
     </row>
-    <row r="57" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -25198,7 +25206,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -25246,7 +25254,7 @@
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
     </row>
-    <row r="59" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -25298,7 +25306,7 @@
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" spans="2:29" ht="342" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -25352,7 +25360,7 @@
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
     </row>
-    <row r="61" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -25406,7 +25414,7 @@
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
     </row>
-    <row r="62" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B62" s="7">
         <v>58</v>
       </c>
@@ -25466,7 +25474,7 @@
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
     </row>
-    <row r="63" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>59</v>
       </c>
@@ -25526,7 +25534,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="64" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>60</v>
       </c>
@@ -25582,7 +25590,7 @@
       </c>
       <c r="AC64" s="9"/>
     </row>
-    <row r="65" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>61</v>
       </c>
@@ -25636,7 +25644,7 @@
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
     </row>
-    <row r="66" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B66" s="7">
         <v>62</v>
       </c>
@@ -25682,7 +25690,7 @@
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
     </row>
-    <row r="67" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B67" s="7">
         <v>63</v>
       </c>
@@ -25728,7 +25736,7 @@
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
     </row>
-    <row r="68" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -25792,7 +25800,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="69" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B69" s="7">
         <v>65</v>
       </c>
@@ -25840,7 +25848,7 @@
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
     </row>
-    <row r="70" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:29" ht="392" x14ac:dyDescent="0.35">
       <c r="B70" s="7">
         <v>66</v>
       </c>
@@ -25888,7 +25896,7 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
     </row>
-    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -25936,7 +25944,7 @@
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
     </row>
-    <row r="72" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -25982,7 +25990,7 @@
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B73" s="7">
         <v>69</v>
       </c>
@@ -26028,7 +26036,7 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
     </row>
-    <row r="74" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B74" s="7">
         <v>70</v>
       </c>
@@ -26076,7 +26084,7 @@
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
     </row>
-    <row r="75" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B75" s="7">
         <v>71</v>
       </c>
@@ -26128,7 +26136,7 @@
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
     </row>
-    <row r="76" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B76" s="7">
         <v>72</v>
       </c>
@@ -26184,7 +26192,7 @@
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
     </row>
-    <row r="77" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B77" s="7">
         <v>76</v>
       </c>
@@ -26244,7 +26252,7 @@
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
     </row>
-    <row r="78" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B78" s="7">
         <v>73</v>
       </c>
@@ -26306,7 +26314,7 @@
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
     </row>
-    <row r="79" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>74</v>
       </c>
@@ -26368,7 +26376,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="80" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B80" s="7">
         <v>75</v>
       </c>
@@ -26428,7 +26436,7 @@
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
     </row>
-    <row r="81" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B81" s="7">
         <v>77</v>
       </c>
@@ -26492,7 +26500,7 @@
       </c>
       <c r="AC81" s="9"/>
     </row>
-    <row r="82" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B82" s="7">
         <v>78</v>
       </c>
@@ -26556,7 +26564,7 @@
       </c>
       <c r="AC82" s="9"/>
     </row>
-    <row r="83" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B83" s="7">
         <v>79</v>
       </c>
@@ -26616,7 +26624,7 @@
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
     </row>
-    <row r="84" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B84" s="7">
         <v>80</v>
       </c>
@@ -26680,7 +26688,7 @@
       </c>
       <c r="AC84" s="9"/>
     </row>
-    <row r="85" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B85" s="7">
         <v>81</v>
       </c>
@@ -26742,7 +26750,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="86" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -26801,7 +26809,7 @@
       </c>
       <c r="AB86" s="9"/>
     </row>
-    <row r="87" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B87" s="7">
         <v>83</v>
       </c>
@@ -26849,7 +26857,7 @@
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
     </row>
-    <row r="88" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B88" s="7">
         <v>84</v>
       </c>
@@ -26913,7 +26921,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="89" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B89" s="7">
         <v>85</v>
       </c>
@@ -26973,7 +26981,7 @@
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
     </row>
-    <row r="90" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B90" s="7">
         <v>87</v>
       </c>
@@ -27025,7 +27033,7 @@
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
     </row>
-    <row r="91" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B91" s="7">
         <v>88</v>
       </c>
@@ -27073,7 +27081,7 @@
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
     </row>
-    <row r="92" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B92" s="7">
         <v>89</v>
       </c>
@@ -27119,7 +27127,7 @@
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
     </row>
-    <row r="93" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B93" s="7">
         <v>90</v>
       </c>
@@ -27167,7 +27175,7 @@
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
     </row>
-    <row r="94" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B94" s="7">
         <v>91</v>
       </c>
@@ -27215,7 +27223,7 @@
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
     </row>
-    <row r="95" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B95" s="7">
         <v>92</v>
       </c>
@@ -27263,7 +27271,7 @@
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
     </row>
-    <row r="96" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B96" s="7">
         <v>93</v>
       </c>
@@ -27321,7 +27329,7 @@
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
     </row>
-    <row r="97" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B97" s="7">
         <v>94</v>
       </c>
@@ -27369,7 +27377,7 @@
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
     </row>
-    <row r="98" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B98" s="7">
         <v>95</v>
       </c>
@@ -27415,7 +27423,7 @@
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
     </row>
-    <row r="99" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B99" s="7">
         <v>96</v>
       </c>
@@ -27463,7 +27471,7 @@
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
     </row>
-    <row r="100" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B100" s="7">
         <v>97</v>
       </c>
@@ -27517,7 +27525,7 @@
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
     </row>
-    <row r="101" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B101" s="7">
         <v>98</v>
       </c>
@@ -27567,7 +27575,7 @@
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
     </row>
-    <row r="102" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <v>99</v>
       </c>
@@ -27615,7 +27623,7 @@
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
     </row>
-    <row r="103" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <v>100</v>
       </c>
@@ -27663,7 +27671,7 @@
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
     </row>
-    <row r="104" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B104" s="7">
         <v>101</v>
       </c>
@@ -27713,7 +27721,7 @@
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
     </row>
-    <row r="105" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B105" s="7">
         <v>102</v>
       </c>
@@ -27761,7 +27769,7 @@
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
     </row>
-    <row r="106" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B106" s="7">
         <v>103</v>
       </c>
@@ -27809,7 +27817,7 @@
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
     </row>
-    <row r="107" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B107" s="7">
         <v>104</v>
       </c>
@@ -27861,7 +27869,7 @@
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
     </row>
-    <row r="108" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B108" s="7">
         <v>105</v>
       </c>
@@ -27907,7 +27915,7 @@
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
     </row>
-    <row r="109" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B109" s="7">
         <v>106</v>
       </c>
@@ -27963,7 +27971,7 @@
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
     </row>
-    <row r="110" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:29" ht="406" x14ac:dyDescent="0.35">
       <c r="B110" s="7">
         <v>107</v>
       </c>
@@ -28015,7 +28023,7 @@
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
     </row>
-    <row r="111" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B111" s="7">
         <v>108</v>
       </c>
@@ -28071,7 +28079,7 @@
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
     </row>
-    <row r="112" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B112" s="7">
         <v>109</v>
       </c>
@@ -28123,7 +28131,7 @@
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
     </row>
-    <row r="113" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B113" s="7">
         <v>110</v>
       </c>
@@ -28179,7 +28187,7 @@
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
     </row>
-    <row r="114" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B114" s="7">
         <v>111</v>
       </c>
@@ -28231,7 +28239,7 @@
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
     </row>
-    <row r="115" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B115" s="7">
         <v>112</v>
       </c>
@@ -28283,7 +28291,7 @@
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
     </row>
-    <row r="116" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B116" s="7">
         <v>113</v>
       </c>
@@ -28335,7 +28343,7 @@
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
     </row>
-    <row r="117" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B117" s="7">
         <v>114</v>
       </c>
@@ -28387,7 +28395,7 @@
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
     </row>
-    <row r="118" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B118" s="7">
         <v>115</v>
       </c>
@@ -28445,7 +28453,7 @@
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
     </row>
-    <row r="119" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B119" s="7">
         <v>116</v>
       </c>
@@ -28501,7 +28509,7 @@
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
     </row>
-    <row r="120" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B120" s="7">
         <v>117</v>
       </c>
@@ -28553,7 +28561,7 @@
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
     </row>
-    <row r="121" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B121" s="7">
         <v>118</v>
       </c>
@@ -28605,7 +28613,7 @@
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
     </row>
-    <row r="122" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B122" s="7">
         <v>119</v>
       </c>
@@ -28657,7 +28665,7 @@
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
     </row>
-    <row r="123" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B123" s="7">
         <v>120</v>
       </c>
@@ -28709,7 +28717,7 @@
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
     </row>
-    <row r="124" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B124" s="7">
         <v>121</v>
       </c>
@@ -28759,7 +28767,7 @@
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
     </row>
-    <row r="125" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B125" s="7">
         <v>122</v>
       </c>
@@ -28815,7 +28823,7 @@
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
     </row>
-    <row r="126" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B126" s="7">
         <v>123</v>
       </c>
@@ -28867,7 +28875,7 @@
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
     </row>
-    <row r="127" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B127" s="7">
         <v>124</v>
       </c>
@@ -28919,7 +28927,7 @@
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
     </row>
-    <row r="128" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B128" s="7">
         <v>125</v>
       </c>
@@ -28977,7 +28985,7 @@
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
     </row>
-    <row r="129" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B129" s="7">
         <v>126</v>
       </c>
@@ -29035,7 +29043,7 @@
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
     </row>
-    <row r="130" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B130" s="7">
         <v>127</v>
       </c>
@@ -29087,7 +29095,7 @@
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
     </row>
-    <row r="131" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B131" s="7">
         <v>128</v>
       </c>
@@ -29139,7 +29147,7 @@
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
     </row>
-    <row r="132" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B132" s="7">
         <v>129</v>
       </c>
@@ -29191,7 +29199,7 @@
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
     </row>
-    <row r="133" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B133" s="7">
         <v>130</v>
       </c>
@@ -29243,7 +29251,7 @@
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
     </row>
-    <row r="134" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B134" s="7">
         <v>131</v>
       </c>
@@ -29295,7 +29303,7 @@
       <c r="AB134" s="9"/>
       <c r="AC134" s="9"/>
     </row>
-    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B135" s="7">
         <v>132</v>
       </c>
@@ -29353,7 +29361,7 @@
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
     </row>
-    <row r="136" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B136" s="7">
         <v>133</v>
       </c>
@@ -29399,7 +29407,7 @@
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
     </row>
-    <row r="137" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B137" s="7">
         <v>134</v>
       </c>
@@ -29447,7 +29455,7 @@
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
     </row>
-    <row r="138" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B138" s="7">
         <v>135</v>
       </c>
@@ -29497,7 +29505,7 @@
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
     </row>
-    <row r="139" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B139" s="7">
         <v>136</v>
       </c>
@@ -29551,7 +29559,7 @@
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
     </row>
-    <row r="140" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B140" s="7">
         <v>137</v>
       </c>
@@ -29599,7 +29607,7 @@
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
     </row>
-    <row r="141" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B141" s="7">
         <v>138</v>
       </c>
@@ -29651,7 +29659,7 @@
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
     </row>
-    <row r="142" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B142" s="7">
         <v>139</v>
       </c>
@@ -29705,7 +29713,7 @@
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
     </row>
-    <row r="143" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B143" s="7">
         <v>140</v>
       </c>
@@ -29765,7 +29773,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="144" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B144" s="7">
         <v>141</v>
       </c>
@@ -29825,7 +29833,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="145" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B145" s="7">
         <v>142</v>
       </c>
@@ -29857,9 +29865,11 @@
         <v>5</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>880</v>
-      </c>
-      <c r="M145" s="12"/>
+        <v>1722</v>
+      </c>
+      <c r="M145" s="12" t="s">
+        <v>1002</v>
+      </c>
       <c r="N145" s="12"/>
       <c r="O145" s="12">
         <v>20</v>
@@ -29887,7 +29897,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="146" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B146" s="7">
         <v>143</v>
       </c>
@@ -29944,7 +29954,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="147" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:29" ht="294" x14ac:dyDescent="0.35">
       <c r="B147" s="7">
         <v>144</v>
       </c>
@@ -30002,7 +30012,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="148" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B148" s="7">
         <v>145</v>
       </c>
@@ -30062,7 +30072,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="149" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B149" s="7">
         <v>146</v>
       </c>
@@ -30116,7 +30126,7 @@
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
     </row>
-    <row r="150" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B150" s="7">
         <v>147</v>
       </c>
@@ -30170,7 +30180,7 @@
       <c r="AB150" s="9"/>
       <c r="AC150" s="9"/>
     </row>
-    <row r="151" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:29" ht="406" x14ac:dyDescent="0.35">
       <c r="B151" s="7">
         <v>149</v>
       </c>
@@ -30226,7 +30236,7 @@
       </c>
       <c r="AC151" s="9"/>
     </row>
-    <row r="152" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B152" s="7">
         <v>150</v>
       </c>
@@ -30274,7 +30284,7 @@
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
     </row>
-    <row r="153" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B153" s="7">
         <v>151</v>
       </c>
@@ -30322,7 +30332,7 @@
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
     </row>
-    <row r="154" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>152</v>
       </c>
@@ -30372,7 +30382,7 @@
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
     </row>
-    <row r="155" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B155" s="7">
         <v>153</v>
       </c>
@@ -30426,7 +30436,7 @@
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
     </row>
-    <row r="156" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B156" s="7">
         <v>154</v>
       </c>
@@ -30478,7 +30488,7 @@
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
     </row>
-    <row r="157" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B157" s="7">
         <v>155</v>
       </c>
@@ -30540,7 +30550,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="158" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B158" s="7">
         <v>156</v>
       </c>
@@ -30590,7 +30600,7 @@
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
     </row>
-    <row r="159" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B159" s="7">
         <v>157</v>
       </c>
@@ -30638,7 +30648,7 @@
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
     </row>
-    <row r="160" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B160" s="7">
         <v>158</v>
       </c>
@@ -30694,7 +30704,7 @@
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
     </row>
-    <row r="161" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B161" s="7">
         <v>159</v>
       </c>
@@ -30744,7 +30754,7 @@
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
     </row>
-    <row r="162" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B162" s="7">
         <v>160</v>
       </c>
@@ -30792,7 +30802,7 @@
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
     </row>
-    <row r="163" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B163" s="7">
         <v>161</v>
       </c>
@@ -30842,7 +30852,7 @@
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
     </row>
-    <row r="164" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B164" s="7">
         <v>162</v>
       </c>
@@ -30890,7 +30900,7 @@
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
     </row>
-    <row r="165" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B165" s="7">
         <v>163</v>
       </c>
@@ -30938,7 +30948,7 @@
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
     </row>
-    <row r="166" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B166" s="7">
         <v>164</v>
       </c>
@@ -30988,7 +30998,7 @@
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
     </row>
-    <row r="167" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B167" s="7">
         <v>165</v>
       </c>
@@ -31040,7 +31050,7 @@
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
     </row>
-    <row r="168" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B168" s="7">
         <v>166</v>
       </c>
@@ -31100,7 +31110,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="169" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B169" s="7">
         <v>167</v>
       </c>
@@ -31150,7 +31160,7 @@
       <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
     </row>
-    <row r="170" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B170" s="7">
         <v>168</v>
       </c>
@@ -31200,7 +31210,7 @@
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
     </row>
-    <row r="171" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B171" s="7">
         <v>169</v>
       </c>
@@ -31252,7 +31262,7 @@
       <c r="AB171" s="9"/>
       <c r="AC171" s="9"/>
     </row>
-    <row r="172" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B172" s="7">
         <v>170</v>
       </c>
@@ -31302,7 +31312,7 @@
       <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
     </row>
-    <row r="173" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B173" s="7">
         <v>171</v>
       </c>
@@ -31356,7 +31366,7 @@
       <c r="AB173" s="9"/>
       <c r="AC173" s="9"/>
     </row>
-    <row r="174" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B174" s="7">
         <v>172</v>
       </c>
@@ -31420,7 +31430,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="175" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B175" s="7">
         <v>173</v>
       </c>
@@ -31476,7 +31486,7 @@
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
     </row>
-    <row r="176" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B176" s="7">
         <v>174</v>
       </c>
@@ -31530,7 +31540,7 @@
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
     </row>
-    <row r="177" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B177" s="7">
         <v>175</v>
       </c>
@@ -31584,7 +31594,7 @@
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
     </row>
-    <row r="178" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B178" s="7">
         <v>176</v>
       </c>
@@ -31638,7 +31648,7 @@
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
     </row>
-    <row r="179" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B179" s="7">
         <v>177</v>
       </c>
@@ -31692,7 +31702,7 @@
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
     </row>
-    <row r="180" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B180" s="7">
         <v>178</v>
       </c>
@@ -31746,7 +31756,7 @@
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
     </row>
-    <row r="181" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B181" s="7">
         <v>179</v>
       </c>
@@ -31800,7 +31810,7 @@
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
     </row>
-    <row r="182" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B182" s="7">
         <v>180</v>
       </c>
@@ -31852,7 +31862,7 @@
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
     </row>
-    <row r="183" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B183" s="7">
         <v>181</v>
       </c>
@@ -31912,7 +31922,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="184" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B184" s="7">
         <v>182</v>
       </c>
@@ -31972,7 +31982,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="185" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B185" s="7">
         <v>183</v>
       </c>
@@ -31988,7 +31998,9 @@
       <c r="F185" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="G185" s="12"/>
+      <c r="G185" s="12" t="s">
+        <v>1852</v>
+      </c>
       <c r="H185" s="12" t="s">
         <v>984</v>
       </c>
@@ -32034,7 +32046,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="186" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B186" s="7">
         <v>184</v>
       </c>
@@ -32094,7 +32106,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="187" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B187" s="7">
         <v>185</v>
       </c>
@@ -32152,7 +32164,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="188" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B188" s="7">
         <v>186</v>
       </c>
@@ -32208,7 +32220,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="189" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B189" s="7">
         <v>187</v>
       </c>
@@ -32268,7 +32280,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="190" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B190" s="7">
         <v>188</v>
       </c>
@@ -32320,7 +32332,7 @@
       <c r="AB190" s="9"/>
       <c r="AC190" s="9"/>
     </row>
-    <row r="191" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B191" s="7">
         <v>189</v>
       </c>
@@ -32374,7 +32386,7 @@
       <c r="AB191" s="9"/>
       <c r="AC191" s="9"/>
     </row>
-    <row r="192" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>190</v>
       </c>
@@ -32430,7 +32442,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="193" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B193" s="7">
         <v>191</v>
       </c>
@@ -32488,7 +32500,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="194" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B194" s="7">
         <v>192</v>
       </c>
@@ -32544,7 +32556,7 @@
       </c>
       <c r="AC194" s="9"/>
     </row>
-    <row r="195" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B195" s="7">
         <v>193</v>
       </c>
@@ -32600,7 +32612,7 @@
       <c r="AB195" s="9"/>
       <c r="AC195" s="9"/>
     </row>
-    <row r="196" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B196" s="7">
         <v>194</v>
       </c>
@@ -32660,7 +32672,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="197" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B197" s="7">
         <v>195</v>
       </c>
@@ -32714,7 +32726,7 @@
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
     </row>
-    <row r="198" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B198" s="7">
         <v>196</v>
       </c>
@@ -32766,7 +32778,7 @@
       <c r="AB198" s="9"/>
       <c r="AC198" s="9"/>
     </row>
-    <row r="199" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B199" s="7">
         <v>197</v>
       </c>
@@ -32822,7 +32834,7 @@
       <c r="AB199" s="9"/>
       <c r="AC199" s="9"/>
     </row>
-    <row r="200" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B200" s="7">
         <v>198</v>
       </c>
@@ -32878,7 +32890,7 @@
       <c r="AB200" s="9"/>
       <c r="AC200" s="9"/>
     </row>
-    <row r="201" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B201" s="7">
         <v>199</v>
       </c>
@@ -32910,9 +32922,11 @@
         <v>1</v>
       </c>
       <c r="L201" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="M201" s="12"/>
+        <v>1722</v>
+      </c>
+      <c r="M201" s="12" t="s">
+        <v>1002</v>
+      </c>
       <c r="N201" s="12"/>
       <c r="O201" s="43">
         <v>12</v>
@@ -32940,7 +32954,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="202" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B202" s="7">
         <v>200</v>
       </c>
@@ -33002,7 +33016,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="203" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B203" s="7">
         <v>201</v>
       </c>
@@ -33064,7 +33078,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="204" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B204" s="7">
         <v>202</v>
       </c>
@@ -33126,7 +33140,7 @@
       </c>
       <c r="AC204" s="9"/>
     </row>
-    <row r="205" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B205" s="7">
         <v>203</v>
       </c>
@@ -33188,7 +33202,7 @@
       </c>
       <c r="AC205" s="9"/>
     </row>
-    <row r="206" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B206" s="7">
         <v>204</v>
       </c>
@@ -33250,7 +33264,7 @@
       </c>
       <c r="AC206" s="9"/>
     </row>
-    <row r="207" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B207" s="7">
         <v>205</v>
       </c>
@@ -33312,7 +33326,7 @@
       </c>
       <c r="AC207" s="9"/>
     </row>
-    <row r="208" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B208" s="7">
         <v>206</v>
       </c>
@@ -33362,7 +33376,7 @@
       <c r="AB208" s="9"/>
       <c r="AC208" s="9"/>
     </row>
-    <row r="209" spans="2:29" ht="342" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B209" s="7">
         <v>207</v>
       </c>
@@ -33418,7 +33432,7 @@
       <c r="AB209" s="9"/>
       <c r="AC209" s="9"/>
     </row>
-    <row r="210" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B210" s="7">
         <v>208</v>
       </c>
@@ -33468,7 +33482,7 @@
       <c r="AB210" s="9"/>
       <c r="AC210" s="9"/>
     </row>
-    <row r="211" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B211" s="7">
         <v>209</v>
       </c>
@@ -33518,7 +33532,7 @@
       <c r="AB211" s="9"/>
       <c r="AC211" s="9"/>
     </row>
-    <row r="212" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B212" s="7">
         <v>210</v>
       </c>
@@ -33578,7 +33592,7 @@
       <c r="AB212" s="9"/>
       <c r="AC212" s="9"/>
     </row>
-    <row r="213" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B213" s="7">
         <v>211</v>
       </c>
@@ -33628,7 +33642,7 @@
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
     </row>
-    <row r="214" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B214" s="7">
         <v>212</v>
       </c>
@@ -33680,7 +33694,7 @@
       <c r="AB214" s="9"/>
       <c r="AC214" s="9"/>
     </row>
-    <row r="215" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B215" s="7">
         <v>213</v>
       </c>
@@ -33742,7 +33756,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="216" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B216" s="7">
         <v>214</v>
       </c>
@@ -33800,7 +33814,7 @@
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
     </row>
-    <row r="217" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B217" s="7">
         <v>215</v>
       </c>
@@ -33860,7 +33874,7 @@
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
     </row>
-    <row r="218" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B218" s="7">
         <v>216</v>
       </c>
@@ -33916,7 +33930,7 @@
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
     </row>
-    <row r="219" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B219" s="7">
         <v>217</v>
       </c>
@@ -33972,7 +33986,7 @@
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
     </row>
-    <row r="220" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B220" s="7">
         <v>218</v>
       </c>
@@ -34028,7 +34042,7 @@
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
     </row>
-    <row r="221" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B221" s="7">
         <v>219</v>
       </c>
@@ -34084,7 +34098,7 @@
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
     </row>
-    <row r="222" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B222" s="7">
         <v>220</v>
       </c>
@@ -34142,7 +34156,7 @@
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
     </row>
-    <row r="223" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B223" s="7">
         <v>221</v>
       </c>
@@ -34200,7 +34214,7 @@
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
     </row>
-    <row r="224" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B224" s="7">
         <v>222</v>
       </c>
@@ -34260,7 +34274,7 @@
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
     </row>
-    <row r="225" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B225" s="7">
         <v>223</v>
       </c>
@@ -34316,7 +34330,7 @@
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
     </row>
-    <row r="226" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B226" s="7">
         <v>224</v>
       </c>
@@ -34370,7 +34384,7 @@
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
     </row>
-    <row r="227" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B227" s="7">
         <v>225</v>
       </c>
@@ -34426,7 +34440,7 @@
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
     </row>
-    <row r="228" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B228" s="7">
         <v>226</v>
       </c>
@@ -34476,7 +34490,7 @@
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
     </row>
-    <row r="229" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B229" s="7">
         <v>227</v>
       </c>
@@ -34526,7 +34540,7 @@
       <c r="AB229" s="9"/>
       <c r="AC229" s="9"/>
     </row>
-    <row r="230" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B230" s="7">
         <v>228</v>
       </c>
@@ -34576,7 +34590,7 @@
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
     </row>
-    <row r="231" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B231" s="7">
         <v>229</v>
       </c>
@@ -34630,7 +34644,7 @@
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
     </row>
-    <row r="232" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B232" s="7">
         <v>230</v>
       </c>
@@ -34682,7 +34696,7 @@
       <c r="AB232" s="9"/>
       <c r="AC232" s="9"/>
     </row>
-    <row r="233" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B233" s="7">
         <v>231</v>
       </c>
@@ -34736,7 +34750,7 @@
       <c r="AB233" s="9"/>
       <c r="AC233" s="9"/>
     </row>
-    <row r="234" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B234" s="7">
         <v>232</v>
       </c>
@@ -34788,7 +34802,7 @@
       <c r="AB234" s="9"/>
       <c r="AC234" s="9"/>
     </row>
-    <row r="235" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B235" s="7">
         <v>233</v>
       </c>
@@ -34844,7 +34858,7 @@
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
     </row>
-    <row r="236" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B236" s="7">
         <v>234</v>
       </c>
@@ -34898,7 +34912,7 @@
       <c r="AB236" s="9"/>
       <c r="AC236" s="9"/>
     </row>
-    <row r="237" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B237" s="7">
         <v>235</v>
       </c>
@@ -34952,7 +34966,7 @@
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
     </row>
-    <row r="238" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B238" s="7">
         <v>236</v>
       </c>
@@ -35012,7 +35026,7 @@
       <c r="AB238" s="9"/>
       <c r="AC238" s="9"/>
     </row>
-    <row r="239" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B239" s="7">
         <v>237</v>
       </c>
@@ -35068,7 +35082,7 @@
       <c r="AB239" s="9"/>
       <c r="AC239" s="9"/>
     </row>
-    <row r="240" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B240" s="7">
         <v>238</v>
       </c>
@@ -35124,7 +35138,7 @@
       <c r="AB240" s="9"/>
       <c r="AC240" s="9"/>
     </row>
-    <row r="241" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B241" s="7">
         <v>239</v>
       </c>
@@ -35184,7 +35198,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="242" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B242" s="7">
         <v>240</v>
       </c>
@@ -35244,7 +35258,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="243" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B243" s="7">
         <v>241</v>
       </c>
@@ -35302,7 +35316,7 @@
       </c>
       <c r="AC243" s="9"/>
     </row>
-    <row r="244" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B244" s="7">
         <v>242</v>
       </c>
@@ -35362,7 +35376,7 @@
       </c>
       <c r="AC244" s="9"/>
     </row>
-    <row r="245" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B245" s="7">
         <v>243</v>
       </c>
@@ -35420,7 +35434,7 @@
       </c>
       <c r="AC245" s="9"/>
     </row>
-    <row r="246" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B246" s="7">
         <v>244</v>
       </c>
@@ -35482,7 +35496,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="247" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B247" s="7">
         <v>245</v>
       </c>
@@ -35536,7 +35550,7 @@
       <c r="AB247" s="9"/>
       <c r="AC247" s="9"/>
     </row>
-    <row r="248" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B248" s="7">
         <v>246</v>
       </c>
@@ -35590,7 +35604,7 @@
       <c r="AB248" s="9"/>
       <c r="AC248" s="9"/>
     </row>
-    <row r="249" spans="2:29" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:29" s="16" customFormat="1" ht="56" x14ac:dyDescent="0.35">
       <c r="B249" s="7">
         <v>247</v>
       </c>
@@ -35644,7 +35658,7 @@
       <c r="AB249" s="40"/>
       <c r="AC249" s="40"/>
     </row>
-    <row r="250" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B250" s="7">
         <v>248</v>
       </c>
@@ -35698,7 +35712,7 @@
       <c r="AB250" s="9"/>
       <c r="AC250" s="9"/>
     </row>
-    <row r="251" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B251" s="7">
         <v>249</v>
       </c>
@@ -35754,7 +35768,7 @@
       <c r="AB251" s="9"/>
       <c r="AC251" s="9"/>
     </row>
-    <row r="252" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B252" s="7">
         <v>250</v>
       </c>
@@ -35806,7 +35820,7 @@
       <c r="AB252" s="9"/>
       <c r="AC252" s="9"/>
     </row>
-    <row r="253" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B253" s="7">
         <v>251</v>
       </c>
@@ -35864,7 +35878,7 @@
       </c>
       <c r="AC253" s="9"/>
     </row>
-    <row r="254" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B254" s="7">
         <v>252</v>
       </c>
@@ -35924,7 +35938,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="255" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B255" s="7">
         <v>253</v>
       </c>
@@ -35982,7 +35996,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="256" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B256" s="7">
         <v>254</v>
       </c>
@@ -36044,7 +36058,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="257" spans="1:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B257" s="7">
         <v>255</v>
       </c>
@@ -36104,7 +36118,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="258" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B258" s="7">
         <v>256</v>
       </c>
@@ -36158,7 +36172,7 @@
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
     </row>
-    <row r="259" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B259" s="7">
         <v>257</v>
       </c>
@@ -36216,7 +36230,7 @@
       </c>
       <c r="AC259" s="9"/>
     </row>
-    <row r="260" spans="1:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B260" s="7">
         <v>258</v>
       </c>
@@ -36268,7 +36282,7 @@
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
     </row>
-    <row r="261" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B261" s="7">
         <v>259</v>
       </c>
@@ -36328,7 +36342,7 @@
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
     </row>
-    <row r="262" spans="1:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B262" s="7">
         <v>260</v>
       </c>
@@ -36388,7 +36402,7 @@
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
     </row>
-    <row r="263" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B263" s="7">
         <v>261</v>
       </c>
@@ -36450,7 +36464,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="264" spans="1:29" s="16" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" s="16" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="B264" s="7">
         <v>262</v>
       </c>
@@ -36504,7 +36518,7 @@
       <c r="AB264" s="40"/>
       <c r="AC264" s="40"/>
     </row>
-    <row r="265" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="A265" s="16"/>
       <c r="B265" s="7">
         <v>263</v>
@@ -36559,7 +36573,7 @@
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
     </row>
-    <row r="266" spans="1:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B266" s="7">
         <v>264</v>
       </c>
@@ -36613,7 +36627,7 @@
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
     </row>
-    <row r="267" spans="1:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B267" s="7">
         <v>265</v>
       </c>
@@ -36659,7 +36673,7 @@
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
     </row>
-    <row r="268" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B268" s="7">
         <v>266</v>
       </c>
@@ -36721,7 +36735,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="269" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B269" s="7">
         <v>267</v>
       </c>
@@ -36779,7 +36793,7 @@
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
     </row>
-    <row r="270" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B270" s="7">
         <v>268</v>
       </c>
@@ -36835,7 +36849,7 @@
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
     </row>
-    <row r="271" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B271" s="7">
         <v>269</v>
       </c>
@@ -36895,7 +36909,7 @@
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
     </row>
-    <row r="272" spans="1:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B272" s="7">
         <v>270</v>
       </c>
@@ -36955,7 +36969,7 @@
       </c>
       <c r="AC272" s="9"/>
     </row>
-    <row r="273" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B273" s="7">
         <v>271</v>
       </c>
@@ -37009,7 +37023,7 @@
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
     </row>
-    <row r="274" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B274" s="7">
         <v>272</v>
       </c>
@@ -37069,7 +37083,7 @@
       </c>
       <c r="AC274" s="9"/>
     </row>
-    <row r="275" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B275" s="7">
         <v>273</v>
       </c>
@@ -37129,7 +37143,7 @@
       </c>
       <c r="AC275" s="9"/>
     </row>
-    <row r="276" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B276" s="7">
         <v>274</v>
       </c>
@@ -37185,7 +37199,7 @@
       </c>
       <c r="AC276" s="9"/>
     </row>
-    <row r="277" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B277" s="7">
         <v>275</v>
       </c>
@@ -37229,7 +37243,7 @@
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
     </row>
-    <row r="278" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B278" s="7">
         <v>276</v>
       </c>
@@ -37273,7 +37287,7 @@
       <c r="AB278" s="9"/>
       <c r="AC278" s="9"/>
     </row>
-    <row r="279" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B279" s="7">
         <v>277</v>
       </c>
@@ -37317,7 +37331,7 @@
       <c r="AB279" s="9"/>
       <c r="AC279" s="9"/>
     </row>
-    <row r="280" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B280" s="7">
         <v>278</v>
       </c>
@@ -37361,7 +37375,7 @@
       <c r="AB280" s="9"/>
       <c r="AC280" s="9"/>
     </row>
-    <row r="281" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B281" s="7">
         <v>279</v>
       </c>
@@ -37405,7 +37419,7 @@
       <c r="AB281" s="9"/>
       <c r="AC281" s="9"/>
     </row>
-    <row r="282" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B282" s="7">
         <v>280</v>
       </c>
@@ -37449,7 +37463,7 @@
       <c r="AB282" s="9"/>
       <c r="AC282" s="9"/>
     </row>
-    <row r="283" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B283" s="7">
         <v>281</v>
       </c>
@@ -37497,7 +37511,7 @@
       <c r="AB283" s="9"/>
       <c r="AC283" s="9"/>
     </row>
-    <row r="284" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B284" s="7">
         <v>282</v>
       </c>
@@ -37541,7 +37555,7 @@
       <c r="AB284" s="9"/>
       <c r="AC284" s="9"/>
     </row>
-    <row r="285" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B285" s="7">
         <v>283</v>
       </c>
@@ -37585,7 +37599,7 @@
       <c r="AB285" s="9"/>
       <c r="AC285" s="9"/>
     </row>
-    <row r="286" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B286" s="7">
         <v>284</v>
       </c>
@@ -37631,7 +37645,7 @@
       <c r="AB286" s="9"/>
       <c r="AC286" s="9"/>
     </row>
-    <row r="287" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B287" s="7">
         <v>285</v>
       </c>
@@ -37677,7 +37691,7 @@
       <c r="AB287" s="9"/>
       <c r="AC287" s="9"/>
     </row>
-    <row r="288" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B288" s="7">
         <v>286</v>
       </c>
@@ -37731,7 +37745,7 @@
       <c r="AB288" s="9"/>
       <c r="AC288" s="9"/>
     </row>
-    <row r="289" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B289" s="7">
         <v>287</v>
       </c>
@@ -37777,7 +37791,7 @@
       <c r="AB289" s="9"/>
       <c r="AC289" s="9"/>
     </row>
-    <row r="290" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B290" s="7">
         <v>288</v>
       </c>
@@ -37821,7 +37835,7 @@
       <c r="AB290" s="9"/>
       <c r="AC290" s="9"/>
     </row>
-    <row r="291" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B291" s="7">
         <v>289</v>
       </c>
@@ -37875,7 +37889,7 @@
       <c r="AB291" s="9"/>
       <c r="AC291" s="9"/>
     </row>
-    <row r="292" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B292" s="7">
         <v>290</v>
       </c>
@@ -37925,7 +37939,7 @@
       <c r="AB292" s="9"/>
       <c r="AC292" s="9"/>
     </row>
-    <row r="293" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B293" s="7">
         <v>291</v>
       </c>
@@ -37969,7 +37983,7 @@
       <c r="AB293" s="9"/>
       <c r="AC293" s="9"/>
     </row>
-    <row r="294" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B294" s="7">
         <v>292</v>
       </c>
@@ -38013,7 +38027,7 @@
       <c r="AB294" s="9"/>
       <c r="AC294" s="9"/>
     </row>
-    <row r="295" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B295" s="7">
         <v>293</v>
       </c>
@@ -38059,7 +38073,7 @@
       <c r="AB295" s="9"/>
       <c r="AC295" s="9"/>
     </row>
-    <row r="296" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B296" s="7">
         <v>294</v>
       </c>
@@ -38109,7 +38123,7 @@
       <c r="AB296" s="9"/>
       <c r="AC296" s="9"/>
     </row>
-    <row r="297" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B297" s="7">
         <v>295</v>
       </c>
@@ -38163,7 +38177,7 @@
       <c r="AB297" s="9"/>
       <c r="AC297" s="9"/>
     </row>
-    <row r="298" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B298" s="7">
         <v>296</v>
       </c>
@@ -38207,7 +38221,7 @@
       <c r="AB298" s="9"/>
       <c r="AC298" s="9"/>
     </row>
-    <row r="299" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B299" s="7">
         <v>297</v>
       </c>
@@ -38251,7 +38265,7 @@
       <c r="AB299" s="9"/>
       <c r="AC299" s="9"/>
     </row>
-    <row r="300" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B300" s="7">
         <v>298</v>
       </c>
@@ -38295,7 +38309,7 @@
       <c r="AB300" s="9"/>
       <c r="AC300" s="9"/>
     </row>
-    <row r="301" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B301" s="7">
         <v>299</v>
       </c>
@@ -38339,7 +38353,7 @@
       <c r="AB301" s="9"/>
       <c r="AC301" s="9"/>
     </row>
-    <row r="302" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B302" s="7">
         <v>300</v>
       </c>
@@ -38383,7 +38397,7 @@
       <c r="AB302" s="9"/>
       <c r="AC302" s="9"/>
     </row>
-    <row r="303" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B303" s="7">
         <v>301</v>
       </c>
@@ -38427,7 +38441,7 @@
       <c r="AB303" s="9"/>
       <c r="AC303" s="9"/>
     </row>
-    <row r="304" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B304" s="7">
         <v>302</v>
       </c>
@@ -38471,7 +38485,7 @@
       <c r="AB304" s="9"/>
       <c r="AC304" s="9"/>
     </row>
-    <row r="305" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B305" s="7">
         <v>303</v>
       </c>
@@ -38517,7 +38531,7 @@
       <c r="AB305" s="9"/>
       <c r="AC305" s="9"/>
     </row>
-    <row r="306" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B306" s="7">
         <v>304</v>
       </c>
@@ -38563,7 +38577,7 @@
       <c r="AB306" s="9"/>
       <c r="AC306" s="9"/>
     </row>
-    <row r="307" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B307" s="7">
         <v>305</v>
       </c>
@@ -38609,7 +38623,7 @@
       <c r="AB307" s="9"/>
       <c r="AC307" s="9"/>
     </row>
-    <row r="308" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B308" s="7">
         <v>306</v>
       </c>
@@ -38655,7 +38669,7 @@
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
     </row>
-    <row r="309" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B309" s="7">
         <v>307</v>
       </c>
@@ -38701,7 +38715,7 @@
       <c r="AB309" s="9"/>
       <c r="AC309" s="9"/>
     </row>
-    <row r="310" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B310" s="7">
         <v>308</v>
       </c>
@@ -38745,7 +38759,7 @@
       <c r="AB310" s="9"/>
       <c r="AC310" s="9"/>
     </row>
-    <row r="311" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B311" s="7">
         <v>309</v>
       </c>
@@ -38789,7 +38803,7 @@
       <c r="AB311" s="9"/>
       <c r="AC311" s="9"/>
     </row>
-    <row r="312" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B312" s="7">
         <v>310</v>
       </c>
@@ -38831,7 +38845,7 @@
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
     </row>
-    <row r="313" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B313" s="7">
         <v>311</v>
       </c>
@@ -38873,7 +38887,7 @@
       <c r="AB313" s="9"/>
       <c r="AC313" s="9"/>
     </row>
-    <row r="314" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B314" s="7">
         <v>312</v>
       </c>
@@ -38915,7 +38929,7 @@
       <c r="AB314" s="9"/>
       <c r="AC314" s="9"/>
     </row>
-    <row r="315" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B315" s="7">
         <v>313</v>
       </c>
@@ -38957,7 +38971,7 @@
       <c r="AB315" s="9"/>
       <c r="AC315" s="9"/>
     </row>
-    <row r="316" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B316" s="7">
         <v>314</v>
       </c>
@@ -39003,7 +39017,7 @@
       <c r="AB316" s="9"/>
       <c r="AC316" s="9"/>
     </row>
-    <row r="317" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B317" s="7">
         <v>315</v>
       </c>
@@ -39047,7 +39061,7 @@
       <c r="AB317" s="9"/>
       <c r="AC317" s="9"/>
     </row>
-    <row r="318" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B318" s="7">
         <v>316</v>
       </c>
@@ -39091,7 +39105,7 @@
       <c r="AB318" s="9"/>
       <c r="AC318" s="9"/>
     </row>
-    <row r="319" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B319" s="7">
         <v>317</v>
       </c>
@@ -39135,7 +39149,7 @@
       <c r="AB319" s="9"/>
       <c r="AC319" s="9"/>
     </row>
-    <row r="320" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B320" s="7">
         <v>318</v>
       </c>
@@ -39177,7 +39191,7 @@
       <c r="AB320" s="9"/>
       <c r="AC320" s="9"/>
     </row>
-    <row r="321" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B321" s="7">
         <v>319</v>
       </c>
@@ -39219,7 +39233,7 @@
       <c r="AB321" s="9"/>
       <c r="AC321" s="9"/>
     </row>
-    <row r="322" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B322" s="7">
         <v>320</v>
       </c>
@@ -39261,7 +39275,7 @@
       <c r="AB322" s="9"/>
       <c r="AC322" s="9"/>
     </row>
-    <row r="323" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B323" s="7">
         <v>321</v>
       </c>
@@ -39305,7 +39319,7 @@
       <c r="AB323" s="9"/>
       <c r="AC323" s="9"/>
     </row>
-    <row r="324" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B324" s="7">
         <v>322</v>
       </c>
@@ -39349,7 +39363,7 @@
       <c r="AB324" s="9"/>
       <c r="AC324" s="9"/>
     </row>
-    <row r="325" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B325" s="7">
         <v>323</v>
       </c>
@@ -39393,7 +39407,7 @@
       <c r="AB325" s="9"/>
       <c r="AC325" s="9"/>
     </row>
-    <row r="326" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B326" s="7">
         <v>324</v>
       </c>
@@ -39439,7 +39453,7 @@
       <c r="AB326" s="9"/>
       <c r="AC326" s="9"/>
     </row>
-    <row r="327" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B327" s="7">
         <v>325</v>
       </c>
@@ -39485,7 +39499,7 @@
       <c r="AB327" s="9"/>
       <c r="AC327" s="9"/>
     </row>
-    <row r="328" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B328" s="7">
         <v>326</v>
       </c>
@@ -39531,7 +39545,7 @@
       <c r="AB328" s="9"/>
       <c r="AC328" s="9"/>
     </row>
-    <row r="329" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B329" s="7">
         <v>327</v>
       </c>
@@ -39581,7 +39595,7 @@
       <c r="AB329" s="9"/>
       <c r="AC329" s="9"/>
     </row>
-    <row r="330" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B330" s="7">
         <v>328</v>
       </c>
@@ -39623,7 +39637,7 @@
       <c r="AB330" s="9"/>
       <c r="AC330" s="9"/>
     </row>
-    <row r="331" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B331" s="7">
         <v>329</v>
       </c>
@@ -39669,7 +39683,7 @@
       <c r="AB331" s="9"/>
       <c r="AC331" s="9"/>
     </row>
-    <row r="332" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B332" s="7">
         <v>330</v>
       </c>
@@ -39716,7 +39730,7 @@
       <c r="AB332" s="9"/>
       <c r="AC332" s="9"/>
     </row>
-    <row r="333" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B333" s="7">
         <v>331</v>
       </c>
@@ -39763,7 +39777,7 @@
       <c r="AB333" s="9"/>
       <c r="AC333" s="9"/>
     </row>
-    <row r="334" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B334" s="7">
         <v>332</v>
       </c>
@@ -39811,7 +39825,7 @@
       <c r="AB334" s="9"/>
       <c r="AC334" s="9"/>
     </row>
-    <row r="335" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B335" s="7">
         <v>333</v>
       </c>
@@ -39858,7 +39872,7 @@
       <c r="AB335" s="9"/>
       <c r="AC335" s="9"/>
     </row>
-    <row r="336" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B336" s="7">
         <v>334</v>
       </c>
@@ -39905,7 +39919,7 @@
       <c r="AB336" s="9"/>
       <c r="AC336" s="9"/>
     </row>
-    <row r="337" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B337" s="7">
         <v>335</v>
       </c>
@@ -39952,7 +39966,7 @@
       <c r="AB337" s="9"/>
       <c r="AC337" s="9"/>
     </row>
-    <row r="338" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B338" s="7">
         <v>336</v>
       </c>
@@ -40003,7 +40017,7 @@
       <c r="AB338" s="9"/>
       <c r="AC338" s="9"/>
     </row>
-    <row r="339" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B339" s="7">
         <v>337</v>
       </c>
@@ -40054,7 +40068,7 @@
       <c r="AB339" s="9"/>
       <c r="AC339" s="9"/>
     </row>
-    <row r="340" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B340" s="7">
         <v>338</v>
       </c>
@@ -40105,7 +40119,7 @@
       <c r="AB340" s="9"/>
       <c r="AC340" s="9"/>
     </row>
-    <row r="341" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B341" s="7">
         <v>339</v>
       </c>
@@ -40156,7 +40170,7 @@
       <c r="AB341" s="9"/>
       <c r="AC341" s="9"/>
     </row>
-    <row r="342" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B342" s="7">
         <v>340</v>
       </c>
@@ -40207,7 +40221,7 @@
       <c r="AB342" s="9"/>
       <c r="AC342" s="9"/>
     </row>
-    <row r="343" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B343" s="7">
         <v>341</v>
       </c>
@@ -40256,7 +40270,7 @@
       <c r="AB343" s="9"/>
       <c r="AC343" s="9"/>
     </row>
-    <row r="344" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B344" s="7">
         <v>342</v>
       </c>
@@ -40309,7 +40323,7 @@
       <c r="AB344" s="9"/>
       <c r="AC344" s="9"/>
     </row>
-    <row r="345" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B345" s="7">
         <v>343</v>
       </c>
@@ -40358,7 +40372,7 @@
       <c r="AB345" s="9"/>
       <c r="AC345" s="9"/>
     </row>
-    <row r="346" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B346" s="7">
         <v>344</v>
       </c>
@@ -40411,7 +40425,7 @@
       <c r="AB346" s="9"/>
       <c r="AC346" s="9"/>
     </row>
-    <row r="347" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B347" s="7">
         <v>345</v>
       </c>
@@ -40460,7 +40474,7 @@
       <c r="AB347" s="9"/>
       <c r="AC347" s="9"/>
     </row>
-    <row r="348" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B348" s="7">
         <v>346</v>
       </c>
@@ -40519,7 +40533,7 @@
       </c>
       <c r="AC348" s="9"/>
     </row>
-    <row r="349" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B349" s="7">
         <v>347</v>
       </c>
@@ -40572,7 +40586,7 @@
       <c r="AB349" s="9"/>
       <c r="AC349" s="9"/>
     </row>
-    <row r="350" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B350" s="7">
         <v>348</v>
       </c>
@@ -40625,7 +40639,7 @@
       <c r="AB350" s="9"/>
       <c r="AC350" s="9"/>
     </row>
-    <row r="351" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B351" s="7">
         <v>349</v>
       </c>
@@ -40678,7 +40692,7 @@
       <c r="AB351" s="9"/>
       <c r="AC351" s="9"/>
     </row>
-    <row r="352" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B352" s="7">
         <v>350</v>
       </c>
@@ -40731,7 +40745,7 @@
       <c r="AB352" s="9"/>
       <c r="AC352" s="9"/>
     </row>
-    <row r="353" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B353" s="7">
         <v>351</v>
       </c>
@@ -40784,7 +40798,7 @@
       <c r="AB353" s="9"/>
       <c r="AC353" s="9"/>
     </row>
-    <row r="354" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B354" s="7">
         <v>352</v>
       </c>
@@ -40839,7 +40853,7 @@
       <c r="AB354" s="9"/>
       <c r="AC354" s="9"/>
     </row>
-    <row r="355" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B355" s="7">
         <v>353</v>
       </c>
@@ -40892,7 +40906,7 @@
       <c r="AB355" s="9"/>
       <c r="AC355" s="9"/>
     </row>
-    <row r="356" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B356" s="7">
         <v>354</v>
       </c>
@@ -40945,7 +40959,7 @@
       <c r="AB356" s="9"/>
       <c r="AC356" s="9"/>
     </row>
-    <row r="357" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B357" s="7">
         <v>355</v>
       </c>
@@ -40998,7 +41012,7 @@
       <c r="AB357" s="9"/>
       <c r="AC357" s="9"/>
     </row>
-    <row r="358" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B358" s="7">
         <v>356</v>
       </c>
@@ -41051,7 +41065,7 @@
       <c r="AB358" s="9"/>
       <c r="AC358" s="9"/>
     </row>
-    <row r="359" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B359" s="7">
         <v>357</v>
       </c>
@@ -41104,7 +41118,7 @@
       <c r="AB359" s="9"/>
       <c r="AC359" s="9"/>
     </row>
-    <row r="360" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B360" s="7">
         <v>358</v>
       </c>
@@ -41157,7 +41171,7 @@
       <c r="AB360" s="9"/>
       <c r="AC360" s="9"/>
     </row>
-    <row r="361" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B361" s="7">
         <v>359</v>
       </c>
@@ -41210,7 +41224,7 @@
       <c r="AB361" s="9"/>
       <c r="AC361" s="9"/>
     </row>
-    <row r="362" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B362" s="7">
         <v>360</v>
       </c>
@@ -41259,7 +41273,7 @@
       <c r="AB362" s="9"/>
       <c r="AC362" s="9"/>
     </row>
-    <row r="363" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B363" s="7">
         <v>361</v>
       </c>
@@ -41318,7 +41332,7 @@
       </c>
       <c r="AC363" s="9"/>
     </row>
-    <row r="364" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B364" s="7">
         <v>362</v>
       </c>
@@ -41377,7 +41391,7 @@
       </c>
       <c r="AC364" s="9"/>
     </row>
-    <row r="365" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B365" s="7">
         <v>363</v>
       </c>
@@ -41426,7 +41440,7 @@
       <c r="AB365" s="9"/>
       <c r="AC365" s="9"/>
     </row>
-    <row r="366" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B366" s="7">
         <v>364</v>
       </c>
@@ -41485,7 +41499,7 @@
       </c>
       <c r="AC366" s="9"/>
     </row>
-    <row r="367" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B367" s="7">
         <v>365</v>
       </c>
@@ -41534,7 +41548,7 @@
       <c r="AB367" s="9"/>
       <c r="AC367" s="9"/>
     </row>
-    <row r="368" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B368" s="7">
         <v>366</v>
       </c>
@@ -41593,7 +41607,7 @@
       </c>
       <c r="AC368" s="9"/>
     </row>
-    <row r="369" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B369" s="7">
         <v>367</v>
       </c>
@@ -41652,7 +41666,7 @@
       </c>
       <c r="AC369" s="9"/>
     </row>
-    <row r="370" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B370" s="7">
         <v>368</v>
       </c>
@@ -41711,7 +41725,7 @@
       </c>
       <c r="AC370" s="9"/>
     </row>
-    <row r="371" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B371" s="7">
         <v>369</v>
       </c>
@@ -41760,7 +41774,7 @@
       <c r="AB371" s="9"/>
       <c r="AC371" s="9"/>
     </row>
-    <row r="372" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B372" s="7">
         <v>370</v>
       </c>
@@ -41819,7 +41833,7 @@
       </c>
       <c r="AC372" s="9"/>
     </row>
-    <row r="373" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B373" s="7">
         <v>371</v>
       </c>
@@ -41868,7 +41882,7 @@
       <c r="AB373" s="9"/>
       <c r="AC373" s="9"/>
     </row>
-    <row r="374" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B374" s="7">
         <v>372</v>
       </c>
@@ -41927,7 +41941,7 @@
       </c>
       <c r="AC374" s="9"/>
     </row>
-    <row r="375" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B375" s="7">
         <v>373</v>
       </c>
@@ -41986,7 +42000,7 @@
       </c>
       <c r="AC375" s="9"/>
     </row>
-    <row r="376" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B376" s="7">
         <v>374</v>
       </c>
@@ -42035,7 +42049,7 @@
       <c r="AB376" s="9"/>
       <c r="AC376" s="9"/>
     </row>
-    <row r="377" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B377" s="7">
         <v>375</v>
       </c>
@@ -42094,7 +42108,7 @@
       </c>
       <c r="AC377" s="9"/>
     </row>
-    <row r="378" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B378" s="7">
         <v>376</v>
       </c>
@@ -42145,7 +42159,7 @@
       <c r="AB378" s="9"/>
       <c r="AC378" s="9"/>
     </row>
-    <row r="379" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B379" s="7">
         <v>377</v>
       </c>
@@ -42196,7 +42210,7 @@
       <c r="AB379" s="9"/>
       <c r="AC379" s="9"/>
     </row>
-    <row r="380" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B380" s="7">
         <v>378</v>
       </c>
@@ -42245,7 +42259,7 @@
       <c r="AB380" s="9"/>
       <c r="AC380" s="9"/>
     </row>
-    <row r="381" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B381" s="7">
         <v>379</v>
       </c>
@@ -42294,7 +42308,7 @@
       <c r="AB381" s="9"/>
       <c r="AC381" s="9"/>
     </row>
-    <row r="382" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B382" s="7">
         <v>380</v>
       </c>
@@ -42347,7 +42361,7 @@
       <c r="AB382" s="9"/>
       <c r="AC382" s="9"/>
     </row>
-    <row r="383" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B383" s="7">
         <v>381</v>
       </c>
@@ -42400,7 +42414,7 @@
       <c r="AB383" s="9"/>
       <c r="AC383" s="9"/>
     </row>
-    <row r="384" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B384" s="7">
         <v>382</v>
       </c>
@@ -42449,7 +42463,7 @@
       <c r="AB384" s="9"/>
       <c r="AC384" s="9"/>
     </row>
-    <row r="385" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B385" s="7">
         <v>383</v>
       </c>
@@ -42502,7 +42516,7 @@
       <c r="AB385" s="9"/>
       <c r="AC385" s="9"/>
     </row>
-    <row r="386" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B386" s="7">
         <v>384</v>
       </c>
@@ -42555,7 +42569,7 @@
       <c r="AB386" s="9"/>
       <c r="AC386" s="9"/>
     </row>
-    <row r="387" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B387" s="7">
         <v>385</v>
       </c>
@@ -42604,7 +42618,7 @@
       <c r="AB387" s="9"/>
       <c r="AC387" s="9"/>
     </row>
-    <row r="388" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B388" s="7">
         <v>386</v>
       </c>
@@ -42653,7 +42667,7 @@
       <c r="AB388" s="9"/>
       <c r="AC388" s="9"/>
     </row>
-    <row r="389" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B389" s="7">
         <v>387</v>
       </c>
@@ -42706,7 +42720,7 @@
       <c r="AB389" s="9"/>
       <c r="AC389" s="9"/>
     </row>
-    <row r="390" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B390" s="7">
         <v>388</v>
       </c>
@@ -42759,7 +42773,7 @@
       <c r="AB390" s="9"/>
       <c r="AC390" s="9"/>
     </row>
-    <row r="391" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B391" s="7">
         <v>389</v>
       </c>
@@ -42808,7 +42822,7 @@
       <c r="AB391" s="9"/>
       <c r="AC391" s="9"/>
     </row>
-    <row r="392" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B392" s="7">
         <v>390</v>
       </c>
@@ -42857,7 +42871,7 @@
       <c r="AB392" s="9"/>
       <c r="AC392" s="9"/>
     </row>
-    <row r="393" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B393" s="7">
         <v>391</v>
       </c>
@@ -42910,7 +42924,7 @@
       <c r="AB393" s="9"/>
       <c r="AC393" s="9"/>
     </row>
-    <row r="394" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B394" s="7">
         <v>392</v>
       </c>
@@ -42959,7 +42973,7 @@
       <c r="AB394" s="9"/>
       <c r="AC394" s="9"/>
     </row>
-    <row r="395" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B395" s="7">
         <v>393</v>
       </c>
@@ -43012,7 +43026,7 @@
       <c r="AB395" s="9"/>
       <c r="AC395" s="9"/>
     </row>
-    <row r="396" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B396" s="7">
         <v>394</v>
       </c>
@@ -43061,7 +43075,7 @@
       <c r="AB396" s="9"/>
       <c r="AC396" s="9"/>
     </row>
-    <row r="397" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B397" s="7">
         <v>395</v>
       </c>
@@ -43110,7 +43124,7 @@
       <c r="AB397" s="9"/>
       <c r="AC397" s="9"/>
     </row>
-    <row r="398" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B398" s="7">
         <v>396</v>
       </c>
@@ -43163,7 +43177,7 @@
       <c r="AB398" s="9"/>
       <c r="AC398" s="9"/>
     </row>
-    <row r="399" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B399" s="7">
         <v>397</v>
       </c>
@@ -43212,7 +43226,7 @@
       <c r="AB399" s="9"/>
       <c r="AC399" s="9"/>
     </row>
-    <row r="400" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B400" s="7">
         <v>398</v>
       </c>
@@ -43271,7 +43285,7 @@
       </c>
       <c r="AC400" s="9"/>
     </row>
-    <row r="401" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B401" s="7">
         <v>399</v>
       </c>
@@ -43324,7 +43338,7 @@
       <c r="AB401" s="9"/>
       <c r="AC401" s="9"/>
     </row>
-    <row r="402" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B402" s="7">
         <v>400</v>
       </c>
@@ -43375,7 +43389,7 @@
       <c r="AB402" s="9"/>
       <c r="AC402" s="9"/>
     </row>
-    <row r="403" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B403" s="7">
         <v>401</v>
       </c>
@@ -43426,7 +43440,7 @@
       <c r="AB403" s="9"/>
       <c r="AC403" s="9"/>
     </row>
-    <row r="404" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B404" s="7">
         <v>402</v>
       </c>
@@ -43475,7 +43489,7 @@
       <c r="AB404" s="9"/>
       <c r="AC404" s="9"/>
     </row>
-    <row r="405" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B405" s="7">
         <v>403</v>
       </c>
@@ -43526,7 +43540,7 @@
       <c r="AB405" s="9"/>
       <c r="AC405" s="9"/>
     </row>
-    <row r="406" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B406" s="7">
         <v>404</v>
       </c>
@@ -43575,7 +43589,7 @@
       <c r="AB406" s="9"/>
       <c r="AC406" s="9"/>
     </row>
-    <row r="407" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B407" s="7">
         <v>405</v>
       </c>
@@ -43628,7 +43642,7 @@
       <c r="AB407" s="9"/>
       <c r="AC407" s="9"/>
     </row>
-    <row r="408" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B408" s="7">
         <v>406</v>
       </c>
@@ -43677,7 +43691,7 @@
       <c r="AB408" s="9"/>
       <c r="AC408" s="9"/>
     </row>
-    <row r="409" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B409" s="7">
         <v>407</v>
       </c>
@@ -43726,7 +43740,7 @@
       <c r="AB409" s="9"/>
       <c r="AC409" s="9"/>
     </row>
-    <row r="410" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B410" s="7">
         <v>408</v>
       </c>
@@ -43779,7 +43793,7 @@
       <c r="AB410" s="9"/>
       <c r="AC410" s="9"/>
     </row>
-    <row r="411" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B411" s="7">
         <v>409</v>
       </c>
@@ -43828,7 +43842,7 @@
       <c r="AB411" s="9"/>
       <c r="AC411" s="9"/>
     </row>
-    <row r="412" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B412" s="7">
         <v>410</v>
       </c>
@@ -43881,7 +43895,7 @@
       <c r="AB412" s="9"/>
       <c r="AC412" s="9"/>
     </row>
-    <row r="413" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B413" s="7">
         <v>411</v>
       </c>
@@ -43934,7 +43948,7 @@
       <c r="AB413" s="9"/>
       <c r="AC413" s="9"/>
     </row>
-    <row r="414" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B414" s="7">
         <v>412</v>
       </c>
@@ -43985,7 +43999,7 @@
       <c r="AB414" s="9"/>
       <c r="AC414" s="9"/>
     </row>
-    <row r="415" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B415" s="7">
         <v>413</v>
       </c>
@@ -44038,7 +44052,7 @@
       <c r="AB415" s="9"/>
       <c r="AC415" s="9"/>
     </row>
-    <row r="416" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B416" s="7">
         <v>414</v>
       </c>
@@ -44089,7 +44103,7 @@
       <c r="AB416" s="9"/>
       <c r="AC416" s="9"/>
     </row>
-    <row r="417" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B417" s="7">
         <v>415</v>
       </c>
@@ -44148,7 +44162,7 @@
       </c>
       <c r="AC417" s="9"/>
     </row>
-    <row r="418" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B418" s="7">
         <v>416</v>
       </c>
@@ -44197,7 +44211,7 @@
       <c r="AB418" s="9"/>
       <c r="AC418" s="9"/>
     </row>
-    <row r="419" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B419" s="7">
         <v>417</v>
       </c>
@@ -44256,7 +44270,7 @@
       </c>
       <c r="AC419" s="9"/>
     </row>
-    <row r="420" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B420" s="7">
         <v>418</v>
       </c>
@@ -44305,7 +44319,7 @@
       <c r="AB420" s="9"/>
       <c r="AC420" s="9"/>
     </row>
-    <row r="421" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B421" s="7">
         <v>419</v>
       </c>
@@ -44358,7 +44372,7 @@
       <c r="AB421" s="9"/>
       <c r="AC421" s="9"/>
     </row>
-    <row r="422" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B422" s="7">
         <v>420</v>
       </c>
@@ -44417,7 +44431,7 @@
       </c>
       <c r="AC422" s="9"/>
     </row>
-    <row r="423" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B423" s="7">
         <v>421</v>
       </c>
@@ -44466,7 +44480,7 @@
       <c r="AB423" s="9"/>
       <c r="AC423" s="9"/>
     </row>
-    <row r="424" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B424" s="7">
         <v>422</v>
       </c>
@@ -44520,7 +44534,7 @@
       <c r="AB424" s="9"/>
       <c r="AC424" s="9"/>
     </row>
-    <row r="425" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B425" s="7">
         <v>423</v>
       </c>
@@ -44573,7 +44587,7 @@
       <c r="AB425" s="9"/>
       <c r="AC425" s="9"/>
     </row>
-    <row r="426" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B426" s="7">
         <v>424</v>
       </c>
@@ -44622,7 +44636,7 @@
       <c r="AB426" s="9"/>
       <c r="AC426" s="9"/>
     </row>
-    <row r="427" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B427" s="7">
         <v>425</v>
       </c>
@@ -44671,7 +44685,7 @@
       <c r="AB427" s="9"/>
       <c r="AC427" s="9"/>
     </row>
-    <row r="428" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B428" s="7">
         <v>426</v>
       </c>
@@ -44724,7 +44738,7 @@
       <c r="AB428" s="9"/>
       <c r="AC428" s="9"/>
     </row>
-    <row r="429" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B429" s="7">
         <v>427</v>
       </c>
@@ -44777,7 +44791,7 @@
       <c r="AB429" s="9"/>
       <c r="AC429" s="9"/>
     </row>
-    <row r="430" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B430" s="7">
         <v>428</v>
       </c>
@@ -44830,7 +44844,7 @@
       <c r="AB430" s="9"/>
       <c r="AC430" s="9"/>
     </row>
-    <row r="431" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B431" s="7">
         <v>429</v>
       </c>
@@ -44883,7 +44897,7 @@
       <c r="AB431" s="9"/>
       <c r="AC431" s="9"/>
     </row>
-    <row r="432" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B432" s="7">
         <v>430</v>
       </c>
@@ -44936,7 +44950,7 @@
       <c r="AB432" s="9"/>
       <c r="AC432" s="9"/>
     </row>
-    <row r="433" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B433" s="7">
         <v>431</v>
       </c>
@@ -44989,7 +45003,7 @@
       <c r="AB433" s="9"/>
       <c r="AC433" s="9"/>
     </row>
-    <row r="434" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B434" s="7">
         <v>432</v>
       </c>
@@ -45040,7 +45054,7 @@
       <c r="AB434" s="9"/>
       <c r="AC434" s="9"/>
     </row>
-    <row r="435" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B435" s="7">
         <v>433</v>
       </c>
@@ -45095,7 +45109,7 @@
       <c r="AB435" s="9"/>
       <c r="AC435" s="9"/>
     </row>
-    <row r="436" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B436" s="7">
         <v>434</v>
       </c>
@@ -45148,7 +45162,7 @@
       <c r="AB436" s="9"/>
       <c r="AC436" s="9"/>
     </row>
-    <row r="437" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B437" s="7">
         <v>435</v>
       </c>
@@ -45207,7 +45221,7 @@
       </c>
       <c r="AC437" s="9"/>
     </row>
-    <row r="438" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B438" s="7">
         <v>436</v>
       </c>
@@ -45260,7 +45274,7 @@
       <c r="AB438" s="9"/>
       <c r="AC438" s="9"/>
     </row>
-    <row r="439" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B439" s="7">
         <v>437</v>
       </c>
@@ -45313,7 +45327,7 @@
       <c r="AB439" s="9"/>
       <c r="AC439" s="9"/>
     </row>
-    <row r="440" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B440" s="7">
         <v>438</v>
       </c>
@@ -45364,7 +45378,7 @@
       <c r="AB440" s="9"/>
       <c r="AC440" s="9"/>
     </row>
-    <row r="441" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B441" s="7">
         <v>439</v>
       </c>
@@ -45415,7 +45429,7 @@
       <c r="AB441" s="9"/>
       <c r="AC441" s="9"/>
     </row>
-    <row r="442" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B442" s="7">
         <v>440</v>
       </c>
@@ -45468,7 +45482,7 @@
       <c r="AB442" s="9"/>
       <c r="AC442" s="9"/>
     </row>
-    <row r="443" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B443" s="7">
         <v>441</v>
       </c>
@@ -45521,7 +45535,7 @@
       <c r="AB443" s="9"/>
       <c r="AC443" s="9"/>
     </row>
-    <row r="444" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B444" s="7">
         <v>442</v>
       </c>
@@ -45574,7 +45588,7 @@
       <c r="AB444" s="9"/>
       <c r="AC444" s="9"/>
     </row>
-    <row r="445" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B445" s="7">
         <v>443</v>
       </c>
@@ -45627,7 +45641,7 @@
       <c r="AB445" s="9"/>
       <c r="AC445" s="9"/>
     </row>
-    <row r="446" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B446" s="7">
         <v>444</v>
       </c>
@@ -45680,7 +45694,7 @@
       <c r="AB446" s="9"/>
       <c r="AC446" s="9"/>
     </row>
-    <row r="447" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B447" s="7">
         <v>445</v>
       </c>
@@ -45729,7 +45743,7 @@
       <c r="AB447" s="9"/>
       <c r="AC447" s="9"/>
     </row>
-    <row r="448" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B448" s="7">
         <v>446</v>
       </c>
@@ -45778,7 +45792,7 @@
       <c r="AB448" s="9"/>
       <c r="AC448" s="9"/>
     </row>
-    <row r="449" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B449" s="7">
         <v>447</v>
       </c>
@@ -45829,7 +45843,7 @@
       <c r="AB449" s="9"/>
       <c r="AC449" s="9"/>
     </row>
-    <row r="450" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B450" s="7">
         <v>448</v>
       </c>
@@ -45880,7 +45894,7 @@
       <c r="AB450" s="9"/>
       <c r="AC450" s="9"/>
     </row>
-    <row r="451" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B451" s="7">
         <v>449</v>
       </c>
@@ -45933,7 +45947,7 @@
       <c r="AB451" s="9"/>
       <c r="AC451" s="9"/>
     </row>
-    <row r="452" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B452" s="7">
         <v>450</v>
       </c>
@@ -45982,7 +45996,7 @@
       <c r="AB452" s="9"/>
       <c r="AC452" s="9"/>
     </row>
-    <row r="453" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B453" s="7">
         <v>451</v>
       </c>
@@ -46035,7 +46049,7 @@
       <c r="AB453" s="9"/>
       <c r="AC453" s="9"/>
     </row>
-    <row r="454" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B454" s="7">
         <v>452</v>
       </c>
@@ -46086,7 +46100,7 @@
       <c r="AB454" s="9"/>
       <c r="AC454" s="9"/>
     </row>
-    <row r="455" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B455" s="7">
         <v>453</v>
       </c>
@@ -46137,7 +46151,7 @@
       <c r="AB455" s="9"/>
       <c r="AC455" s="9"/>
     </row>
-    <row r="456" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B456" s="7">
         <v>454</v>
       </c>
@@ -46188,7 +46202,7 @@
       <c r="AB456" s="9"/>
       <c r="AC456" s="9"/>
     </row>
-    <row r="457" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B457" s="7">
         <v>455</v>
       </c>
@@ -46239,7 +46253,7 @@
       <c r="AB457" s="9"/>
       <c r="AC457" s="9"/>
     </row>
-    <row r="458" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B458" s="7">
         <v>456</v>
       </c>
@@ -46292,7 +46306,7 @@
       <c r="AB458" s="9"/>
       <c r="AC458" s="9"/>
     </row>
-    <row r="459" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B459" s="7">
         <v>457</v>
       </c>
@@ -46343,7 +46357,7 @@
       <c r="AB459" s="9"/>
       <c r="AC459" s="9"/>
     </row>
-    <row r="460" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B460" s="7">
         <v>458</v>
       </c>
@@ -46392,7 +46406,7 @@
       <c r="AB460" s="9"/>
       <c r="AC460" s="9"/>
     </row>
-    <row r="461" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B461" s="7">
         <v>459</v>
       </c>
@@ -46441,7 +46455,7 @@
       <c r="AB461" s="9"/>
       <c r="AC461" s="9"/>
     </row>
-    <row r="462" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B462" s="7">
         <v>460</v>
       </c>
@@ -46490,7 +46504,7 @@
       <c r="AB462" s="9"/>
       <c r="AC462" s="9"/>
     </row>
-    <row r="463" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B463" s="7">
         <v>461</v>
       </c>
@@ -46539,7 +46553,7 @@
       <c r="AB463" s="9"/>
       <c r="AC463" s="9"/>
     </row>
-    <row r="464" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B464" s="7">
         <v>462</v>
       </c>
@@ -46594,7 +46608,7 @@
       <c r="AB464" s="9"/>
       <c r="AC464" s="9"/>
     </row>
-    <row r="465" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B465" s="7">
         <v>463</v>
       </c>
@@ -46643,7 +46657,7 @@
       <c r="AB465" s="9"/>
       <c r="AC465" s="9"/>
     </row>
-    <row r="466" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B466" s="7">
         <v>464</v>
       </c>
@@ -46696,7 +46710,7 @@
       <c r="AB466" s="9"/>
       <c r="AC466" s="9"/>
     </row>
-    <row r="467" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B467" s="7">
         <v>465</v>
       </c>
@@ -46749,7 +46763,7 @@
       <c r="AB467" s="9"/>
       <c r="AC467" s="9"/>
     </row>
-    <row r="468" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B468" s="7">
         <v>466</v>
       </c>
@@ -46802,7 +46816,7 @@
       <c r="AB468" s="9"/>
       <c r="AC468" s="9"/>
     </row>
-    <row r="469" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B469" s="7">
         <v>467</v>
       </c>
@@ -46855,7 +46869,7 @@
       <c r="AB469" s="9"/>
       <c r="AC469" s="9"/>
     </row>
-    <row r="470" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B470" s="7">
         <v>468</v>
       </c>
@@ -46908,7 +46922,7 @@
       <c r="AB470" s="9"/>
       <c r="AC470" s="9"/>
     </row>
-    <row r="471" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B471" s="7">
         <v>469</v>
       </c>
@@ -46961,7 +46975,7 @@
       <c r="AB471" s="9"/>
       <c r="AC471" s="9"/>
     </row>
-    <row r="472" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B472" s="7">
         <v>470</v>
       </c>
@@ -47014,7 +47028,7 @@
       <c r="AB472" s="9"/>
       <c r="AC472" s="9"/>
     </row>
-    <row r="473" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B473" s="7">
         <v>471</v>
       </c>
@@ -47067,7 +47081,7 @@
       <c r="AB473" s="9"/>
       <c r="AC473" s="9"/>
     </row>
-    <row r="474" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B474" s="7">
         <v>472</v>
       </c>
@@ -47120,7 +47134,7 @@
       <c r="AB474" s="9"/>
       <c r="AC474" s="9"/>
     </row>
-    <row r="475" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B475" s="7">
         <v>473</v>
       </c>
@@ -47173,7 +47187,7 @@
       <c r="AB475" s="9"/>
       <c r="AC475" s="9"/>
     </row>
-    <row r="476" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B476" s="7">
         <v>474</v>
       </c>
@@ -47226,7 +47240,7 @@
       <c r="AB476" s="9"/>
       <c r="AC476" s="9"/>
     </row>
-    <row r="477" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B477" s="7">
         <v>475</v>
       </c>
@@ -47279,7 +47293,7 @@
       <c r="AB477" s="9"/>
       <c r="AC477" s="9"/>
     </row>
-    <row r="478" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B478" s="7">
         <v>476</v>
       </c>
@@ -47332,7 +47346,7 @@
       <c r="AB478" s="9"/>
       <c r="AC478" s="9"/>
     </row>
-    <row r="479" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B479" s="7">
         <v>477</v>
       </c>
@@ -47385,7 +47399,7 @@
       <c r="AB479" s="9"/>
       <c r="AC479" s="9"/>
     </row>
-    <row r="480" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B480" s="7">
         <v>478</v>
       </c>
@@ -47438,7 +47452,7 @@
       <c r="AB480" s="9"/>
       <c r="AC480" s="9"/>
     </row>
-    <row r="481" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B481" s="7">
         <v>479</v>
       </c>
@@ -47491,7 +47505,7 @@
       <c r="AB481" s="9"/>
       <c r="AC481" s="9"/>
     </row>
-    <row r="482" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B482" s="7">
         <v>480</v>
       </c>
@@ -47544,7 +47558,7 @@
       <c r="AB482" s="9"/>
       <c r="AC482" s="9"/>
     </row>
-    <row r="483" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B483" s="7">
         <v>481</v>
       </c>
@@ -47597,7 +47611,7 @@
       <c r="AB483" s="9"/>
       <c r="AC483" s="9"/>
     </row>
-    <row r="484" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B484" s="7">
         <v>482</v>
       </c>
@@ -47650,7 +47664,7 @@
       <c r="AB484" s="9"/>
       <c r="AC484" s="9"/>
     </row>
-    <row r="485" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B485" s="7">
         <v>483</v>
       </c>
@@ -47703,7 +47717,7 @@
       <c r="AB485" s="9"/>
       <c r="AC485" s="9"/>
     </row>
-    <row r="486" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B486" s="7">
         <v>484</v>
       </c>
@@ -47756,7 +47770,7 @@
       <c r="AB486" s="9"/>
       <c r="AC486" s="9"/>
     </row>
-    <row r="487" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:29" ht="87" x14ac:dyDescent="0.35">
       <c r="B487" s="7">
         <v>485</v>
       </c>
@@ -47815,7 +47829,7 @@
       </c>
       <c r="AC487" s="9"/>
     </row>
-    <row r="488" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:29" ht="87" x14ac:dyDescent="0.35">
       <c r="B488" s="7">
         <v>486</v>
       </c>
@@ -47868,7 +47882,7 @@
       <c r="AB488" s="9"/>
       <c r="AC488" s="9"/>
     </row>
-    <row r="489" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B489" s="7">
         <v>487</v>
       </c>
@@ -47917,7 +47931,7 @@
       <c r="AB489" s="9"/>
       <c r="AC489" s="9"/>
     </row>
-    <row r="490" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B490" s="7">
         <v>488</v>
       </c>
@@ -47966,7 +47980,7 @@
       <c r="AB490" s="9"/>
       <c r="AC490" s="9"/>
     </row>
-    <row r="491" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B491" s="7">
         <v>489</v>
       </c>
@@ -48018,7 +48032,7 @@
       <c r="AB491" s="9"/>
       <c r="AC491" s="9"/>
     </row>
-    <row r="492" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B492" s="7">
         <v>490</v>
       </c>
@@ -48071,7 +48085,7 @@
       <c r="AB492" s="9"/>
       <c r="AC492" s="9"/>
     </row>
-    <row r="493" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B493" s="7">
         <v>491</v>
       </c>
@@ -48130,7 +48144,7 @@
       </c>
       <c r="AC493" s="9"/>
     </row>
-    <row r="494" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B494" s="7">
         <v>492</v>
       </c>
@@ -48189,7 +48203,7 @@
       </c>
       <c r="AC494" s="9"/>
     </row>
-    <row r="495" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B495" s="7">
         <v>493</v>
       </c>
@@ -48248,7 +48262,7 @@
       </c>
       <c r="AC495" s="9"/>
     </row>
-    <row r="496" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B496" s="7">
         <v>494</v>
       </c>
@@ -48297,7 +48311,7 @@
       <c r="AB496" s="9"/>
       <c r="AC496" s="9"/>
     </row>
-    <row r="497" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B497" s="7">
         <v>495</v>
       </c>
@@ -48348,7 +48362,7 @@
       <c r="AB497" s="9"/>
       <c r="AC497" s="9"/>
     </row>
-    <row r="498" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B498" s="7">
         <v>496</v>
       </c>
@@ -48397,7 +48411,7 @@
       <c r="AB498" s="9"/>
       <c r="AC498" s="9"/>
     </row>
-    <row r="499" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B499" s="7">
         <v>497</v>
       </c>
@@ -48446,7 +48460,7 @@
       <c r="AB499" s="9"/>
       <c r="AC499" s="9"/>
     </row>
-    <row r="500" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B500" s="7">
         <v>498</v>
       </c>
@@ -48495,7 +48509,7 @@
       <c r="AB500" s="9"/>
       <c r="AC500" s="9"/>
     </row>
-    <row r="501" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B501" s="7">
         <v>499</v>
       </c>
@@ -48548,7 +48562,7 @@
       <c r="AB501" s="9"/>
       <c r="AC501" s="9"/>
     </row>
-    <row r="502" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B502" s="7">
         <v>500</v>
       </c>
@@ -48601,7 +48615,7 @@
       <c r="AB502" s="9"/>
       <c r="AC502" s="9"/>
     </row>
-    <row r="503" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B503" s="7">
         <v>501</v>
       </c>
@@ -48654,7 +48668,7 @@
       <c r="AB503" s="9"/>
       <c r="AC503" s="9"/>
     </row>
-    <row r="504" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B504" s="7">
         <v>502</v>
       </c>
@@ -48707,7 +48721,7 @@
       <c r="AB504" s="9"/>
       <c r="AC504" s="9"/>
     </row>
-    <row r="505" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B505" s="7">
         <v>503</v>
       </c>
@@ -48760,7 +48774,7 @@
       <c r="AB505" s="9"/>
       <c r="AC505" s="9"/>
     </row>
-    <row r="506" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B506" s="7">
         <v>504</v>
       </c>
@@ -48813,7 +48827,7 @@
       <c r="AB506" s="9"/>
       <c r="AC506" s="9"/>
     </row>
-    <row r="507" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B507" s="7">
         <v>505</v>
       </c>
@@ -48866,7 +48880,7 @@
       <c r="AB507" s="9"/>
       <c r="AC507" s="9"/>
     </row>
-    <row r="508" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B508" s="7">
         <v>506</v>
       </c>
@@ -48919,7 +48933,7 @@
       <c r="AB508" s="9"/>
       <c r="AC508" s="9"/>
     </row>
-    <row r="509" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B509" s="7">
         <v>507</v>
       </c>
@@ -48980,7 +48994,7 @@
       </c>
       <c r="AC509" s="9"/>
     </row>
-    <row r="510" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B510" s="7">
         <v>508</v>
       </c>
@@ -49037,7 +49051,7 @@
       </c>
       <c r="AC510" s="9"/>
     </row>
-    <row r="511" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B511" s="7">
         <v>509</v>
       </c>
@@ -49084,7 +49098,7 @@
       <c r="AB511" s="9"/>
       <c r="AC511" s="9"/>
     </row>
-    <row r="512" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B512" s="7">
         <v>510</v>
       </c>
@@ -49129,7 +49143,7 @@
       <c r="AB512" s="9"/>
       <c r="AC512" s="9"/>
     </row>
-    <row r="513" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B513" s="7">
         <v>511</v>
       </c>
@@ -49180,7 +49194,7 @@
       <c r="AB513" s="9"/>
       <c r="AC513" s="9"/>
     </row>
-    <row r="514" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B514" s="7">
         <v>512</v>
       </c>
@@ -49231,7 +49245,7 @@
       <c r="AB514" s="9"/>
       <c r="AC514" s="9"/>
     </row>
-    <row r="515" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:29" ht="294" x14ac:dyDescent="0.35">
       <c r="B515" s="7">
         <v>513</v>
       </c>
@@ -49282,7 +49296,7 @@
       <c r="AB515" s="9"/>
       <c r="AC515" s="9"/>
     </row>
-    <row r="516" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B516" s="7">
         <v>514</v>
       </c>
@@ -49333,7 +49347,7 @@
       <c r="AB516" s="9"/>
       <c r="AC516" s="9"/>
     </row>
-    <row r="517" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B517" s="7">
         <v>515</v>
       </c>
@@ -49384,7 +49398,7 @@
       <c r="AB517" s="9"/>
       <c r="AC517" s="9"/>
     </row>
-    <row r="518" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B518" s="7">
         <v>516</v>
       </c>
@@ -49435,7 +49449,7 @@
       <c r="AB518" s="9"/>
       <c r="AC518" s="9"/>
     </row>
-    <row r="519" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B519" s="7">
         <v>517</v>
       </c>
@@ -49490,7 +49504,7 @@
       <c r="AB519" s="9"/>
       <c r="AC519" s="9"/>
     </row>
-    <row r="520" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B520" s="7">
         <v>518</v>
       </c>
@@ -49545,7 +49559,7 @@
       <c r="AB520" s="9"/>
       <c r="AC520" s="9"/>
     </row>
-    <row r="521" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B521" s="7">
         <v>519</v>
       </c>
@@ -49600,7 +49614,7 @@
       <c r="AB521" s="9"/>
       <c r="AC521" s="9"/>
     </row>
-    <row r="522" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B522" s="7">
         <v>520</v>
       </c>
@@ -49655,7 +49669,7 @@
       <c r="AB522" s="9"/>
       <c r="AC522" s="9"/>
     </row>
-    <row r="523" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B523" s="7">
         <v>521</v>
       </c>
@@ -49710,7 +49724,7 @@
       <c r="AB523" s="9"/>
       <c r="AC523" s="9"/>
     </row>
-    <row r="524" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B524" s="7">
         <v>522</v>
       </c>
@@ -49765,7 +49779,7 @@
       <c r="AB524" s="9"/>
       <c r="AC524" s="9"/>
     </row>
-    <row r="525" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B525" s="7">
         <v>523</v>
       </c>
@@ -49820,7 +49834,7 @@
       <c r="AB525" s="9"/>
       <c r="AC525" s="9"/>
     </row>
-    <row r="526" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B526" s="7">
         <v>524</v>
       </c>
@@ -49875,7 +49889,7 @@
       <c r="AB526" s="9"/>
       <c r="AC526" s="9"/>
     </row>
-    <row r="527" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B527" s="7">
         <v>525</v>
       </c>
@@ -49930,7 +49944,7 @@
       <c r="AB527" s="9"/>
       <c r="AC527" s="9"/>
     </row>
-    <row r="528" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:29" ht="392" x14ac:dyDescent="0.35">
       <c r="B528" s="7">
         <v>526</v>
       </c>
@@ -49985,7 +49999,7 @@
       <c r="AB528" s="9"/>
       <c r="AC528" s="9"/>
     </row>
-    <row r="529" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B529" s="7">
         <v>527</v>
       </c>
@@ -50040,7 +50054,7 @@
       <c r="AB529" s="9"/>
       <c r="AC529" s="9"/>
     </row>
-    <row r="530" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B530" s="7">
         <v>528</v>
       </c>
@@ -50095,7 +50109,7 @@
       <c r="AB530" s="9"/>
       <c r="AC530" s="9"/>
     </row>
-    <row r="531" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B531" s="7">
         <v>529</v>
       </c>
@@ -50144,7 +50158,7 @@
       <c r="AB531" s="9"/>
       <c r="AC531" s="9"/>
     </row>
-    <row r="532" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B532" s="7">
         <v>530</v>
       </c>
@@ -50197,7 +50211,7 @@
       <c r="AB532" s="9"/>
       <c r="AC532" s="9"/>
     </row>
-    <row r="533" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B533" s="7">
         <v>531</v>
       </c>
@@ -50248,7 +50262,7 @@
       <c r="AB533" s="9"/>
       <c r="AC533" s="9"/>
     </row>
-    <row r="534" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B534" s="7">
         <v>532</v>
       </c>
@@ -50301,7 +50315,7 @@
       <c r="AB534" s="9"/>
       <c r="AC534" s="9"/>
     </row>
-    <row r="535" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B535" s="7">
         <v>533</v>
       </c>
@@ -50354,7 +50368,7 @@
       <c r="AB535" s="9"/>
       <c r="AC535" s="9"/>
     </row>
-    <row r="536" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B536" s="7">
         <v>534</v>
       </c>
@@ -50405,7 +50419,7 @@
       <c r="AB536" s="9"/>
       <c r="AC536" s="9"/>
     </row>
-    <row r="537" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B537" s="7">
         <v>535</v>
       </c>
@@ -50456,7 +50470,7 @@
       <c r="AB537" s="9"/>
       <c r="AC537" s="9"/>
     </row>
-    <row r="538" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B538" s="7">
         <v>536</v>
       </c>
@@ -50507,7 +50521,7 @@
       <c r="AB538" s="9"/>
       <c r="AC538" s="9"/>
     </row>
-    <row r="539" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B539" s="7">
         <v>537</v>
       </c>
@@ -50558,7 +50572,7 @@
       <c r="AB539" s="9"/>
       <c r="AC539" s="9"/>
     </row>
-    <row r="540" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B540" s="7">
         <v>538</v>
       </c>
@@ -50609,7 +50623,7 @@
       <c r="AB540" s="9"/>
       <c r="AC540" s="9"/>
     </row>
-    <row r="541" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B541" s="7">
         <v>539</v>
       </c>
@@ -50660,7 +50674,7 @@
       <c r="AB541" s="9"/>
       <c r="AC541" s="9"/>
     </row>
-    <row r="542" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B542" s="7">
         <v>540</v>
       </c>
@@ -50711,7 +50725,7 @@
       <c r="AB542" s="9"/>
       <c r="AC542" s="9"/>
     </row>
-    <row r="543" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B543" s="7">
         <v>541</v>
       </c>
@@ -50764,7 +50778,7 @@
       <c r="AB543" s="9"/>
       <c r="AC543" s="9"/>
     </row>
-    <row r="544" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B544" s="7">
         <v>542</v>
       </c>
@@ -50817,7 +50831,7 @@
       <c r="AB544" s="9"/>
       <c r="AC544" s="9"/>
     </row>
-    <row r="545" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B545" s="7">
         <v>543</v>
       </c>
@@ -50870,7 +50884,7 @@
       <c r="AB545" s="9"/>
       <c r="AC545" s="9"/>
     </row>
-    <row r="546" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B546" s="7">
         <v>544</v>
       </c>
@@ -50921,7 +50935,7 @@
       <c r="AB546" s="9"/>
       <c r="AC546" s="9"/>
     </row>
-    <row r="547" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B547" s="7">
         <v>545</v>
       </c>
@@ -50972,7 +50986,7 @@
       <c r="AB547" s="9"/>
       <c r="AC547" s="9"/>
     </row>
-    <row r="548" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B548" s="7">
         <v>546</v>
       </c>
@@ -51023,7 +51037,7 @@
       <c r="AB548" s="9"/>
       <c r="AC548" s="9"/>
     </row>
-    <row r="549" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B549" s="7">
         <v>547</v>
       </c>
@@ -51076,7 +51090,7 @@
       <c r="AB549" s="9"/>
       <c r="AC549" s="9"/>
     </row>
-    <row r="550" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B550" s="7">
         <v>548</v>
       </c>
@@ -51127,7 +51141,7 @@
       <c r="AB550" s="9"/>
       <c r="AC550" s="9"/>
     </row>
-    <row r="551" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B551" s="7">
         <v>549</v>
       </c>
@@ -51178,7 +51192,7 @@
       <c r="AB551" s="9"/>
       <c r="AC551" s="9"/>
     </row>
-    <row r="552" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B552" s="7">
         <v>550</v>
       </c>
@@ -51229,7 +51243,7 @@
       <c r="AB552" s="9"/>
       <c r="AC552" s="9"/>
     </row>
-    <row r="553" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B553" s="7">
         <v>551</v>
       </c>
@@ -51280,7 +51294,7 @@
       <c r="AB553" s="9"/>
       <c r="AC553" s="9"/>
     </row>
-    <row r="554" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B554" s="7">
         <v>552</v>
       </c>
@@ -51331,7 +51345,7 @@
       <c r="AB554" s="9"/>
       <c r="AC554" s="9"/>
     </row>
-    <row r="555" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B555" s="7">
         <v>553</v>
       </c>
@@ -51382,7 +51396,7 @@
       <c r="AB555" s="9"/>
       <c r="AC555" s="9"/>
     </row>
-    <row r="556" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B556" s="7">
         <v>554</v>
       </c>
@@ -51433,7 +51447,7 @@
       <c r="AB556" s="9"/>
       <c r="AC556" s="9"/>
     </row>
-    <row r="557" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B557" s="7">
         <v>555</v>
       </c>
@@ -51484,7 +51498,7 @@
       <c r="AB557" s="9"/>
       <c r="AC557" s="9"/>
     </row>
-    <row r="558" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B558" s="7">
         <v>556</v>
       </c>
@@ -51535,7 +51549,7 @@
       <c r="AB558" s="9"/>
       <c r="AC558" s="9"/>
     </row>
-    <row r="559" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B559" s="7">
         <v>557</v>
       </c>
@@ -51586,7 +51600,7 @@
       <c r="AB559" s="9"/>
       <c r="AC559" s="9"/>
     </row>
-    <row r="560" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B560" s="7">
         <v>558</v>
       </c>
@@ -51637,7 +51651,7 @@
       <c r="AB560" s="9"/>
       <c r="AC560" s="9"/>
     </row>
-    <row r="561" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B561" s="7">
         <v>559</v>
       </c>
@@ -51688,7 +51702,7 @@
       <c r="AB561" s="9"/>
       <c r="AC561" s="9"/>
     </row>
-    <row r="562" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B562" s="7">
         <v>560</v>
       </c>
@@ -51739,7 +51753,7 @@
       <c r="AB562" s="9"/>
       <c r="AC562" s="9"/>
     </row>
-    <row r="563" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B563" s="7">
         <v>561</v>
       </c>
@@ -51790,7 +51804,7 @@
       <c r="AB563" s="9"/>
       <c r="AC563" s="9"/>
     </row>
-    <row r="564" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B564" s="7">
         <v>562</v>
       </c>
@@ -51841,7 +51855,7 @@
       <c r="AB564" s="9"/>
       <c r="AC564" s="9"/>
     </row>
-    <row r="565" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B565" s="7">
         <v>563</v>
       </c>
@@ -51892,7 +51906,7 @@
       <c r="AB565" s="9"/>
       <c r="AC565" s="9"/>
     </row>
-    <row r="566" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B566" s="7">
         <v>564</v>
       </c>
@@ -51943,7 +51957,7 @@
       <c r="AB566" s="9"/>
       <c r="AC566" s="9"/>
     </row>
-    <row r="567" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B567" s="7">
         <v>565</v>
       </c>
@@ -51994,7 +52008,7 @@
       <c r="AB567" s="9"/>
       <c r="AC567" s="9"/>
     </row>
-    <row r="568" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B568" s="7">
         <v>566</v>
       </c>
@@ -52045,7 +52059,7 @@
       <c r="AB568" s="9"/>
       <c r="AC568" s="9"/>
     </row>
-    <row r="569" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B569" s="7">
         <v>567</v>
       </c>
@@ -52096,7 +52110,7 @@
       <c r="AB569" s="9"/>
       <c r="AC569" s="9"/>
     </row>
-    <row r="570" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B570" s="7">
         <v>568</v>
       </c>
@@ -52147,7 +52161,7 @@
       <c r="AB570" s="9"/>
       <c r="AC570" s="9"/>
     </row>
-    <row r="571" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B571" s="7">
         <v>569</v>
       </c>
@@ -52198,7 +52212,7 @@
       <c r="AB571" s="9"/>
       <c r="AC571" s="9"/>
     </row>
-    <row r="572" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B572" s="7">
         <v>570</v>
       </c>
@@ -52249,7 +52263,7 @@
       <c r="AB572" s="9"/>
       <c r="AC572" s="9"/>
     </row>
-    <row r="573" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B573" s="7">
         <v>571</v>
       </c>
@@ -52300,7 +52314,7 @@
       <c r="AB573" s="9"/>
       <c r="AC573" s="9"/>
     </row>
-    <row r="574" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B574" s="7">
         <v>572</v>
       </c>
@@ -52351,7 +52365,7 @@
       <c r="AB574" s="9"/>
       <c r="AC574" s="9"/>
     </row>
-    <row r="575" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B575" s="7">
         <v>573</v>
       </c>
@@ -52404,7 +52418,7 @@
       <c r="AB575" s="9"/>
       <c r="AC575" s="9"/>
     </row>
-    <row r="576" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B576" s="7">
         <v>574</v>
       </c>
@@ -52455,7 +52469,7 @@
       <c r="AB576" s="9"/>
       <c r="AC576" s="9"/>
     </row>
-    <row r="577" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B577" s="7">
         <v>575</v>
       </c>
@@ -52506,7 +52520,7 @@
       <c r="AB577" s="9"/>
       <c r="AC577" s="9"/>
     </row>
-    <row r="578" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B578" s="7">
         <v>576</v>
       </c>
@@ -52557,7 +52571,7 @@
       <c r="AB578" s="9"/>
       <c r="AC578" s="9"/>
     </row>
-    <row r="579" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B579" s="7">
         <v>577</v>
       </c>
@@ -52610,7 +52624,7 @@
       <c r="AB579" s="9"/>
       <c r="AC579" s="9"/>
     </row>
-    <row r="580" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B580" s="7">
         <v>578</v>
       </c>
@@ -52661,7 +52675,7 @@
       <c r="AB580" s="9"/>
       <c r="AC580" s="9"/>
     </row>
-    <row r="581" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B581" s="7">
         <v>579</v>
       </c>
@@ -52712,7 +52726,7 @@
       <c r="AB581" s="9"/>
       <c r="AC581" s="9"/>
     </row>
-    <row r="582" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B582" s="7">
         <v>580</v>
       </c>
@@ -52763,7 +52777,7 @@
       <c r="AB582" s="9"/>
       <c r="AC582" s="9"/>
     </row>
-    <row r="583" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B583" s="7">
         <v>581</v>
       </c>
@@ -52814,7 +52828,7 @@
       <c r="AB583" s="9"/>
       <c r="AC583" s="9"/>
     </row>
-    <row r="584" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B584" s="7">
         <v>582</v>
       </c>
@@ -52863,7 +52877,7 @@
       <c r="AB584" s="9"/>
       <c r="AC584" s="9"/>
     </row>
-    <row r="585" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B585" s="7">
         <v>583</v>
       </c>
@@ -52904,7 +52918,7 @@
       <c r="AB585" s="9"/>
       <c r="AC585" s="9"/>
     </row>
-    <row r="586" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B586" s="7">
         <v>584</v>
       </c>
@@ -52945,7 +52959,7 @@
       <c r="AB586" s="9"/>
       <c r="AC586" s="9"/>
     </row>
-    <row r="587" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B587" s="7">
         <v>585</v>
       </c>
@@ -52988,7 +53002,7 @@
       <c r="Y587" s="9"/>
       <c r="AC587" s="9"/>
     </row>
-    <row r="588" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B588" s="7">
         <v>586</v>
       </c>
@@ -53031,7 +53045,7 @@
       <c r="Y588" s="9"/>
       <c r="AC588" s="9"/>
     </row>
-    <row r="589" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B589" s="7">
         <v>587</v>
       </c>
@@ -53073,7 +53087,7 @@
       <c r="Y589" s="9"/>
       <c r="AC589" s="9"/>
     </row>
-    <row r="590" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B590" s="7">
         <v>588</v>
       </c>
@@ -53115,7 +53129,7 @@
       <c r="Y590" s="9"/>
       <c r="AC590" s="9"/>
     </row>
-    <row r="591" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B591" s="7">
         <v>589</v>
       </c>
@@ -53157,7 +53171,7 @@
       <c r="Y591" s="9"/>
       <c r="AC591" s="9"/>
     </row>
-    <row r="592" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B592" s="7">
         <v>590</v>
       </c>
@@ -53199,7 +53213,7 @@
       <c r="Y592" s="9"/>
       <c r="AC592" s="9"/>
     </row>
-    <row r="593" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B593" s="7">
         <v>591</v>
       </c>
@@ -53241,7 +53255,7 @@
       <c r="Y593" s="9"/>
       <c r="AC593" s="9"/>
     </row>
-    <row r="594" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B594" s="50">
         <v>592</v>
       </c>
@@ -53283,7 +53297,7 @@
       <c r="Y594" s="51"/>
       <c r="AC594" s="51"/>
     </row>
-    <row r="595" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B595" s="53">
         <v>593</v>
       </c>
@@ -53335,7 +53349,7 @@
       <c r="AB595" s="9"/>
       <c r="AC595" s="9"/>
     </row>
-    <row r="596" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B596" s="53">
         <v>594</v>
       </c>
@@ -53387,13 +53401,13 @@
       <c r="AB596" s="9"/>
       <c r="AC596" s="9"/>
     </row>
-    <row r="597" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:29" x14ac:dyDescent="0.35">
       <c r="E597" s="46"/>
     </row>
-    <row r="598" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E598" s="47"/>
     </row>
-    <row r="599" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I599" s="26" t="s">
         <v>1707</v>
       </c>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{962031B0-D206-4C6A-A1DC-0E5F3CB3F694}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C331D2B-7D25-4183-8375-D931E7E73D2C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6434,7 +6434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6608,9 +6608,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21855,7 +21852,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22499,7 +22496,7 @@
   <dimension ref="A1:AC598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight"/>
@@ -22536,7 +22533,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60"/>
+      <c r="A1" s="21"/>
       <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C331D2B-7D25-4183-8375-D931E7E73D2C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D8D3C38-D53C-49B5-A370-21CFC0CCF6BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="1860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="1861">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6190,6 +6190,9 @@
   </si>
   <si>
     <t>As the MOSIP System, I should be able to update UI based on change in Working days/Working hours update for a Registration Center</t>
+  </si>
+  <si>
+    <t>MOS-28665</t>
   </si>
 </sst>
 </file>
@@ -21852,7 +21855,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22496,7 +22499,7 @@
   <dimension ref="A1:AC598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight"/>
@@ -25461,7 +25464,9 @@
       <c r="F62" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="G62" s="12"/>
+      <c r="G62" s="12" t="s">
+        <v>1860</v>
+      </c>
       <c r="H62" s="12" t="s">
         <v>665</v>
       </c>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D8D3C38-D53C-49B5-A370-21CFC0CCF6BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF21EA2-05DC-4FAE-80E4-D8E584A93A51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -19,13 +19,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$A$4:$AB$595</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="1861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5098" uniqueCount="1879">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6193,6 +6198,60 @@
   </si>
   <si>
     <t>MOS-28665</t>
+  </si>
+  <si>
+    <t>MOS-28668</t>
+  </si>
+  <si>
+    <t>MOS-28669</t>
+  </si>
+  <si>
+    <t>MOS-28670</t>
+  </si>
+  <si>
+    <t>MOS-28671</t>
+  </si>
+  <si>
+    <t>MOS-28672</t>
+  </si>
+  <si>
+    <t>MOS-28673</t>
+  </si>
+  <si>
+    <t>MOS-28674</t>
+  </si>
+  <si>
+    <t>MOS-28675</t>
+  </si>
+  <si>
+    <t>MOS-28676</t>
+  </si>
+  <si>
+    <t>MOS-28677</t>
+  </si>
+  <si>
+    <t>MOS-28678</t>
+  </si>
+  <si>
+    <t>MOS-28679</t>
+  </si>
+  <si>
+    <t>MOS-28680</t>
+  </si>
+  <si>
+    <t>MOS-28681</t>
+  </si>
+  <si>
+    <t>MOS-28682</t>
+  </si>
+  <si>
+    <t>MOS-28684</t>
+  </si>
+  <si>
+    <t>MOS-28685</t>
+  </si>
+  <si>
+    <t>MOS-28686</t>
   </si>
 </sst>
 </file>
@@ -6437,7 +6496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6593,6 +6652,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -21855,7 +21917,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22314,37 +22376,37 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -22352,7 +22414,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>595</v>
       </c>
@@ -22360,7 +22422,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>1716</v>
       </c>
@@ -22368,7 +22430,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>1709</v>
       </c>
@@ -22400,7 +22462,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>601</v>
       </c>
@@ -22432,7 +22494,7 @@
         <v>585.70000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>701</v>
       </c>
@@ -22456,7 +22518,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>1710</v>
       </c>
@@ -22499,60 +22561,60 @@
   <dimension ref="A1:AC598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C258" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="12.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="8" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="12.81640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" style="8" customWidth="1"/>
+    <col min="13" max="14" width="12.81640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" style="8" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1796875" style="8" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="8" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="15.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.5703125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="43.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="15.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="43.54296875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="43.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.81640625" style="8" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="37.140625" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="8"/>
+    <col min="29" max="29" width="37.1796875" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21"/>
       <c r="K1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="K2" s="47"/>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="K3" s="47"/>
       <c r="AA3" s="21"/>
     </row>
-    <row r="4" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1680</v>
       </c>
@@ -22638,7 +22700,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -22684,7 +22746,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -22740,7 +22802,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -22796,7 +22858,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -22852,7 +22914,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -22908,7 +22970,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -22964,7 +23026,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -23020,7 +23082,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -23076,7 +23138,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -23132,7 +23194,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -23180,7 +23242,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -23228,7 +23290,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -23274,7 +23336,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -23320,7 +23382,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -23364,7 +23426,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -23410,7 +23472,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -23454,7 +23516,7 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -23498,7 +23560,7 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -23540,7 +23602,7 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
     </row>
-    <row r="23" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -23584,7 +23646,7 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -23626,7 +23688,7 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -23668,7 +23730,7 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -23716,7 +23778,7 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
     </row>
-    <row r="27" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -23760,7 +23822,7 @@
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
     </row>
-    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -23806,7 +23868,7 @@
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
     </row>
-    <row r="29" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -23852,7 +23914,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
     </row>
-    <row r="30" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -23892,7 +23954,7 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -23932,7 +23994,7 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
     </row>
-    <row r="32" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -23978,7 +24040,7 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -24018,7 +24080,7 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
     </row>
-    <row r="34" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -24062,7 +24124,7 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -24104,7 +24166,7 @@
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="36" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -24152,7 +24214,7 @@
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -24200,7 +24262,7 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
     </row>
-    <row r="38" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -24256,7 +24318,7 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
     </row>
-    <row r="39" spans="2:29" s="16" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" s="16" customFormat="1" ht="168" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -24306,7 +24368,7 @@
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
     </row>
-    <row r="40" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -24356,7 +24418,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
     </row>
-    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -24406,7 +24468,7 @@
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -24456,7 +24518,7 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -24506,7 +24568,7 @@
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -24562,7 +24624,7 @@
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
     </row>
-    <row r="45" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -24616,7 +24678,7 @@
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
     </row>
-    <row r="46" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -24674,7 +24736,7 @@
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
     </row>
-    <row r="47" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -24724,7 +24786,7 @@
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
     </row>
-    <row r="48" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" ht="406" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -24772,7 +24834,7 @@
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -24822,7 +24884,7 @@
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
     </row>
-    <row r="50" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -24872,7 +24934,7 @@
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
     </row>
-    <row r="51" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -24920,7 +24982,7 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -24970,7 +25032,7 @@
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
     </row>
-    <row r="53" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -25022,7 +25084,7 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
     </row>
-    <row r="54" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -25074,7 +25136,7 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
     </row>
-    <row r="55" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -25126,7 +25188,7 @@
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
     </row>
-    <row r="56" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -25178,7 +25240,7 @@
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
     </row>
-    <row r="57" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -25240,7 +25302,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -25288,7 +25350,7 @@
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
     </row>
-    <row r="59" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:29" ht="294" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -25340,7 +25402,7 @@
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -25394,7 +25456,7 @@
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
     </row>
-    <row r="61" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -25448,7 +25510,7 @@
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
     </row>
-    <row r="62" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B62" s="7">
         <v>59</v>
       </c>
@@ -25510,7 +25572,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="63" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>60</v>
       </c>
@@ -25566,7 +25628,7 @@
       </c>
       <c r="AC63" s="9"/>
     </row>
-    <row r="64" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:29" ht="294" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>61</v>
       </c>
@@ -25620,7 +25682,7 @@
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
     </row>
-    <row r="65" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>62</v>
       </c>
@@ -25666,7 +25728,7 @@
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
     </row>
-    <row r="66" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B66" s="7">
         <v>63</v>
       </c>
@@ -25712,7 +25774,7 @@
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
     </row>
-    <row r="67" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B67" s="7">
         <v>64</v>
       </c>
@@ -25776,7 +25838,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="68" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>65</v>
       </c>
@@ -25824,7 +25886,7 @@
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
     </row>
-    <row r="69" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B69" s="7">
         <v>66</v>
       </c>
@@ -25872,7 +25934,7 @@
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
     </row>
-    <row r="70" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B70" s="7">
         <v>67</v>
       </c>
@@ -25920,7 +25982,7 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
     </row>
-    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>68</v>
       </c>
@@ -25966,7 +26028,7 @@
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
     </row>
-    <row r="72" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>69</v>
       </c>
@@ -26012,7 +26074,7 @@
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B73" s="7">
         <v>70</v>
       </c>
@@ -26060,7 +26122,7 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
     </row>
-    <row r="74" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B74" s="7">
         <v>71</v>
       </c>
@@ -26112,7 +26174,7 @@
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
     </row>
-    <row r="75" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B75" s="7">
         <v>72</v>
       </c>
@@ -26168,7 +26230,7 @@
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
     </row>
-    <row r="76" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B76" s="7">
         <v>76</v>
       </c>
@@ -26228,7 +26290,7 @@
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
     </row>
-    <row r="77" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B77" s="7">
         <v>73</v>
       </c>
@@ -26290,7 +26352,7 @@
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
     </row>
-    <row r="78" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B78" s="7">
         <v>74</v>
       </c>
@@ -26352,7 +26414,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="79" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -26412,7 +26474,7 @@
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
     </row>
-    <row r="80" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B80" s="7">
         <v>77</v>
       </c>
@@ -26476,7 +26538,7 @@
       </c>
       <c r="AC80" s="9"/>
     </row>
-    <row r="81" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B81" s="7">
         <v>78</v>
       </c>
@@ -26540,7 +26602,7 @@
       </c>
       <c r="AC81" s="9"/>
     </row>
-    <row r="82" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B82" s="7">
         <v>79</v>
       </c>
@@ -26600,7 +26662,7 @@
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
     </row>
-    <row r="83" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B83" s="7">
         <v>80</v>
       </c>
@@ -26664,7 +26726,7 @@
       </c>
       <c r="AC83" s="9"/>
     </row>
-    <row r="84" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B84" s="7">
         <v>81</v>
       </c>
@@ -26726,7 +26788,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="85" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B85" s="7">
         <v>82</v>
       </c>
@@ -26785,7 +26847,7 @@
       </c>
       <c r="AB85" s="9"/>
     </row>
-    <row r="86" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B86" s="7">
         <v>83</v>
       </c>
@@ -26833,7 +26895,7 @@
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
     </row>
-    <row r="87" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B87" s="7">
         <v>84</v>
       </c>
@@ -26897,7 +26959,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="88" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B88" s="7">
         <v>85</v>
       </c>
@@ -26957,7 +27019,7 @@
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
     </row>
-    <row r="89" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B89" s="7">
         <v>87</v>
       </c>
@@ -27009,14 +27071,14 @@
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
     </row>
-    <row r="90" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B90" s="7">
         <v>88</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>148</v>
       </c>
       <c r="E90" s="12" t="s">
@@ -27057,14 +27119,14 @@
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
     </row>
-    <row r="91" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B91" s="7">
         <v>89</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="56"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="12" t="s">
         <v>18</v>
       </c>
@@ -27103,7 +27165,7 @@
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
     </row>
-    <row r="92" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B92" s="7">
         <v>90</v>
       </c>
@@ -27151,7 +27213,7 @@
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
     </row>
-    <row r="93" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B93" s="7">
         <v>91</v>
       </c>
@@ -27199,7 +27261,7 @@
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
     </row>
-    <row r="94" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B94" s="7">
         <v>92</v>
       </c>
@@ -27247,7 +27309,7 @@
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
     </row>
-    <row r="95" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B95" s="7">
         <v>93</v>
       </c>
@@ -27305,7 +27367,7 @@
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
     </row>
-    <row r="96" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B96" s="7">
         <v>94</v>
       </c>
@@ -27353,7 +27415,7 @@
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
     </row>
-    <row r="97" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B97" s="7">
         <v>95</v>
       </c>
@@ -27399,7 +27461,7 @@
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
     </row>
-    <row r="98" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B98" s="7">
         <v>96</v>
       </c>
@@ -27447,7 +27509,7 @@
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
     </row>
-    <row r="99" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B99" s="7">
         <v>97</v>
       </c>
@@ -27501,7 +27563,7 @@
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
     </row>
-    <row r="100" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B100" s="7">
         <v>98</v>
       </c>
@@ -27551,7 +27613,7 @@
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
     </row>
-    <row r="101" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B101" s="7">
         <v>99</v>
       </c>
@@ -27599,7 +27661,7 @@
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
     </row>
-    <row r="102" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <v>100</v>
       </c>
@@ -27647,7 +27709,7 @@
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
     </row>
-    <row r="103" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <v>101</v>
       </c>
@@ -27697,7 +27759,7 @@
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
     </row>
-    <row r="104" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B104" s="7">
         <v>102</v>
       </c>
@@ -27745,7 +27807,7 @@
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
     </row>
-    <row r="105" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B105" s="7">
         <v>103</v>
       </c>
@@ -27793,7 +27855,7 @@
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
     </row>
-    <row r="106" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B106" s="7">
         <v>104</v>
       </c>
@@ -27845,7 +27907,7 @@
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
     </row>
-    <row r="107" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B107" s="7">
         <v>105</v>
       </c>
@@ -27891,7 +27953,7 @@
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
     </row>
-    <row r="108" spans="2:29" ht="399" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B108" s="7">
         <v>106</v>
       </c>
@@ -27947,7 +28009,7 @@
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
     </row>
-    <row r="109" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B109" s="7">
         <v>107</v>
       </c>
@@ -27999,7 +28061,7 @@
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
     </row>
-    <row r="110" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B110" s="7">
         <v>108</v>
       </c>
@@ -28055,7 +28117,7 @@
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
     </row>
-    <row r="111" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B111" s="7">
         <v>109</v>
       </c>
@@ -28107,7 +28169,7 @@
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
     </row>
-    <row r="112" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B112" s="7">
         <v>110</v>
       </c>
@@ -28163,7 +28225,7 @@
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
     </row>
-    <row r="113" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B113" s="7">
         <v>111</v>
       </c>
@@ -28215,7 +28277,7 @@
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
     </row>
-    <row r="114" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B114" s="7">
         <v>112</v>
       </c>
@@ -28267,7 +28329,7 @@
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
     </row>
-    <row r="115" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B115" s="7">
         <v>113</v>
       </c>
@@ -28319,7 +28381,7 @@
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
     </row>
-    <row r="116" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B116" s="7">
         <v>114</v>
       </c>
@@ -28371,7 +28433,7 @@
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
     </row>
-    <row r="117" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B117" s="7">
         <v>115</v>
       </c>
@@ -28429,7 +28491,7 @@
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
     </row>
-    <row r="118" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B118" s="7">
         <v>116</v>
       </c>
@@ -28485,7 +28547,7 @@
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
     </row>
-    <row r="119" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B119" s="7">
         <v>117</v>
       </c>
@@ -28537,7 +28599,7 @@
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
     </row>
-    <row r="120" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B120" s="7">
         <v>118</v>
       </c>
@@ -28589,7 +28651,7 @@
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
     </row>
-    <row r="121" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B121" s="7">
         <v>119</v>
       </c>
@@ -28641,7 +28703,7 @@
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
     </row>
-    <row r="122" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B122" s="7">
         <v>120</v>
       </c>
@@ -28693,7 +28755,7 @@
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
     </row>
-    <row r="123" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B123" s="7">
         <v>121</v>
       </c>
@@ -28743,7 +28805,7 @@
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
     </row>
-    <row r="124" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B124" s="7">
         <v>122</v>
       </c>
@@ -28799,7 +28861,7 @@
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
     </row>
-    <row r="125" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B125" s="7">
         <v>123</v>
       </c>
@@ -28851,7 +28913,7 @@
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
     </row>
-    <row r="126" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B126" s="7">
         <v>124</v>
       </c>
@@ -28903,7 +28965,7 @@
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
     </row>
-    <row r="127" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B127" s="7">
         <v>125</v>
       </c>
@@ -28961,7 +29023,7 @@
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
     </row>
-    <row r="128" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B128" s="7">
         <v>126</v>
       </c>
@@ -29019,7 +29081,7 @@
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
     </row>
-    <row r="129" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B129" s="7">
         <v>127</v>
       </c>
@@ -29071,7 +29133,7 @@
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
     </row>
-    <row r="130" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B130" s="7">
         <v>128</v>
       </c>
@@ -29123,7 +29185,7 @@
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
     </row>
-    <row r="131" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B131" s="7">
         <v>129</v>
       </c>
@@ -29175,7 +29237,7 @@
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
     </row>
-    <row r="132" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B132" s="7">
         <v>130</v>
       </c>
@@ -29227,7 +29289,7 @@
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
     </row>
-    <row r="133" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B133" s="7">
         <v>131</v>
       </c>
@@ -29279,7 +29341,7 @@
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
     </row>
-    <row r="134" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B134" s="7">
         <v>132</v>
       </c>
@@ -29337,7 +29399,7 @@
       <c r="AB134" s="9"/>
       <c r="AC134" s="9"/>
     </row>
-    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B135" s="7">
         <v>133</v>
       </c>
@@ -29383,7 +29445,7 @@
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
     </row>
-    <row r="136" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B136" s="7">
         <v>134</v>
       </c>
@@ -29431,7 +29493,7 @@
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
     </row>
-    <row r="137" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B137" s="7">
         <v>135</v>
       </c>
@@ -29481,7 +29543,7 @@
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
     </row>
-    <row r="138" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B138" s="7">
         <v>136</v>
       </c>
@@ -29535,7 +29597,7 @@
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
     </row>
-    <row r="139" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B139" s="7">
         <v>137</v>
       </c>
@@ -29583,7 +29645,7 @@
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
     </row>
-    <row r="140" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B140" s="7">
         <v>138</v>
       </c>
@@ -29635,7 +29697,7 @@
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
     </row>
-    <row r="141" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B141" s="7">
         <v>139</v>
       </c>
@@ -29689,7 +29751,7 @@
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
     </row>
-    <row r="142" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B142" s="7">
         <v>140</v>
       </c>
@@ -29751,7 +29813,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="143" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B143" s="7">
         <v>141</v>
       </c>
@@ -29813,7 +29875,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="144" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B144" s="7">
         <v>142</v>
       </c>
@@ -29877,7 +29939,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="145" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B145" s="7">
         <v>143</v>
       </c>
@@ -29936,7 +29998,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="146" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B146" s="7">
         <v>144</v>
       </c>
@@ -29996,7 +30058,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="147" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B147" s="7">
         <v>145</v>
       </c>
@@ -30058,7 +30120,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="148" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B148" s="7">
         <v>146</v>
       </c>
@@ -30114,7 +30176,7 @@
       <c r="AB148" s="9"/>
       <c r="AC148" s="9"/>
     </row>
-    <row r="149" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B149" s="7">
         <v>147</v>
       </c>
@@ -30168,7 +30230,7 @@
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
     </row>
-    <row r="150" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B150" s="7">
         <v>149</v>
       </c>
@@ -30224,7 +30286,7 @@
       </c>
       <c r="AC150" s="9"/>
     </row>
-    <row r="151" spans="2:29" ht="342" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B151" s="7">
         <v>150</v>
       </c>
@@ -30272,7 +30334,7 @@
       <c r="AB151" s="9"/>
       <c r="AC151" s="9"/>
     </row>
-    <row r="152" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B152" s="7">
         <v>151</v>
       </c>
@@ -30320,7 +30382,7 @@
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
     </row>
-    <row r="153" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B153" s="7">
         <v>152</v>
       </c>
@@ -30370,7 +30432,7 @@
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
     </row>
-    <row r="154" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>153</v>
       </c>
@@ -30424,7 +30486,7 @@
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
     </row>
-    <row r="155" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B155" s="7">
         <v>154</v>
       </c>
@@ -30476,7 +30538,7 @@
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
     </row>
-    <row r="156" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B156" s="7">
         <v>155</v>
       </c>
@@ -30538,7 +30600,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="157" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B157" s="7">
         <v>156</v>
       </c>
@@ -30588,7 +30650,7 @@
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
     </row>
-    <row r="158" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B158" s="7">
         <v>157</v>
       </c>
@@ -30636,7 +30698,7 @@
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
     </row>
-    <row r="159" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B159" s="7">
         <v>158</v>
       </c>
@@ -30692,7 +30754,7 @@
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
     </row>
-    <row r="160" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B160" s="7">
         <v>159</v>
       </c>
@@ -30742,7 +30804,7 @@
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
     </row>
-    <row r="161" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B161" s="7">
         <v>160</v>
       </c>
@@ -30790,7 +30852,7 @@
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
     </row>
-    <row r="162" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B162" s="7">
         <v>161</v>
       </c>
@@ -30840,7 +30902,7 @@
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
     </row>
-    <row r="163" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B163" s="7">
         <v>162</v>
       </c>
@@ -30888,7 +30950,7 @@
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
     </row>
-    <row r="164" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B164" s="7">
         <v>163</v>
       </c>
@@ -30936,7 +30998,7 @@
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
     </row>
-    <row r="165" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B165" s="7">
         <v>164</v>
       </c>
@@ -30986,7 +31048,7 @@
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
     </row>
-    <row r="166" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B166" s="7">
         <v>165</v>
       </c>
@@ -31038,7 +31100,7 @@
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
     </row>
-    <row r="167" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B167" s="7">
         <v>166</v>
       </c>
@@ -31098,7 +31160,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="168" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B168" s="7">
         <v>167</v>
       </c>
@@ -31148,7 +31210,7 @@
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
     </row>
-    <row r="169" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B169" s="7">
         <v>168</v>
       </c>
@@ -31198,7 +31260,7 @@
       <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
     </row>
-    <row r="170" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B170" s="7">
         <v>169</v>
       </c>
@@ -31250,7 +31312,7 @@
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
     </row>
-    <row r="171" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B171" s="7">
         <v>170</v>
       </c>
@@ -31300,7 +31362,7 @@
       <c r="AB171" s="9"/>
       <c r="AC171" s="9"/>
     </row>
-    <row r="172" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B172" s="7">
         <v>171</v>
       </c>
@@ -31354,7 +31416,7 @@
       <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
     </row>
-    <row r="173" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B173" s="7">
         <v>172</v>
       </c>
@@ -31418,7 +31480,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="174" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B174" s="7">
         <v>173</v>
       </c>
@@ -31474,7 +31536,7 @@
       <c r="AB174" s="9"/>
       <c r="AC174" s="9"/>
     </row>
-    <row r="175" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B175" s="7">
         <v>174</v>
       </c>
@@ -31528,7 +31590,7 @@
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
     </row>
-    <row r="176" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B176" s="7">
         <v>175</v>
       </c>
@@ -31582,7 +31644,7 @@
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
     </row>
-    <row r="177" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B177" s="7">
         <v>176</v>
       </c>
@@ -31636,7 +31698,7 @@
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
     </row>
-    <row r="178" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B178" s="7">
         <v>177</v>
       </c>
@@ -31690,7 +31752,7 @@
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
     </row>
-    <row r="179" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B179" s="7">
         <v>178</v>
       </c>
@@ -31744,7 +31806,7 @@
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
     </row>
-    <row r="180" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B180" s="7">
         <v>179</v>
       </c>
@@ -31798,7 +31860,7 @@
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
     </row>
-    <row r="181" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B181" s="7">
         <v>180</v>
       </c>
@@ -31850,7 +31912,7 @@
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
     </row>
-    <row r="182" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B182" s="7">
         <v>181</v>
       </c>
@@ -31882,7 +31944,9 @@
       <c r="L182" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M182" s="12"/>
+      <c r="M182" s="56" t="s">
+        <v>1861</v>
+      </c>
       <c r="N182" s="12" t="s">
         <v>37</v>
       </c>
@@ -31910,7 +31974,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="183" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B183" s="7">
         <v>182</v>
       </c>
@@ -31942,7 +32006,9 @@
       <c r="L183" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M183" s="12"/>
+      <c r="M183" s="56" t="s">
+        <v>1862</v>
+      </c>
       <c r="N183" s="12" t="s">
         <v>37</v>
       </c>
@@ -31970,7 +32036,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="184" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B184" s="7">
         <v>183</v>
       </c>
@@ -32034,7 +32100,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="185" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B185" s="7">
         <v>184</v>
       </c>
@@ -32066,7 +32132,9 @@
       <c r="L185" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M185" s="12"/>
+      <c r="M185" s="56" t="s">
+        <v>1863</v>
+      </c>
       <c r="N185" s="12" t="s">
         <v>728</v>
       </c>
@@ -32094,7 +32162,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="186" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B186" s="7">
         <v>185</v>
       </c>
@@ -32126,7 +32194,9 @@
       <c r="L186" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M186" s="12"/>
+      <c r="M186" s="56" t="s">
+        <v>1864</v>
+      </c>
       <c r="N186" s="24" t="s">
         <v>1700</v>
       </c>
@@ -32152,7 +32222,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="187" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B187" s="7">
         <v>186</v>
       </c>
@@ -32184,7 +32254,9 @@
       <c r="L187" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M187" s="12"/>
+      <c r="M187" s="56" t="s">
+        <v>1865</v>
+      </c>
       <c r="N187" s="12"/>
       <c r="O187" s="12">
         <v>20</v>
@@ -32208,7 +32280,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="188" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B188" s="7">
         <v>187</v>
       </c>
@@ -32268,7 +32340,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="189" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B189" s="7">
         <v>188</v>
       </c>
@@ -32300,7 +32372,9 @@
       <c r="L189" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M189" s="12"/>
+      <c r="M189" s="56" t="s">
+        <v>1866</v>
+      </c>
       <c r="N189" s="12"/>
       <c r="O189" s="12">
         <v>5</v>
@@ -32320,7 +32394,7 @@
       <c r="AB189" s="9"/>
       <c r="AC189" s="9"/>
     </row>
-    <row r="190" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B190" s="7">
         <v>189</v>
       </c>
@@ -32352,7 +32426,9 @@
       <c r="L190" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M190" s="12"/>
+      <c r="M190" s="56" t="s">
+        <v>1867</v>
+      </c>
       <c r="N190" s="12"/>
       <c r="O190" s="12">
         <v>5</v>
@@ -32374,7 +32450,7 @@
       <c r="AB190" s="9"/>
       <c r="AC190" s="9"/>
     </row>
-    <row r="191" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B191" s="7">
         <v>190</v>
       </c>
@@ -32406,7 +32482,9 @@
       <c r="L191" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M191" s="12"/>
+      <c r="M191" s="56" t="s">
+        <v>1868</v>
+      </c>
       <c r="N191" s="12"/>
       <c r="O191" s="12">
         <v>20</v>
@@ -32430,7 +32508,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="192" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>191</v>
       </c>
@@ -32462,7 +32540,9 @@
       <c r="L192" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="M192" s="12"/>
+      <c r="M192" s="56" t="s">
+        <v>1869</v>
+      </c>
       <c r="N192" s="12"/>
       <c r="O192" s="12">
         <v>15</v>
@@ -32488,7 +32568,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="193" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B193" s="7">
         <v>192</v>
       </c>
@@ -32544,7 +32624,7 @@
       </c>
       <c r="AC193" s="9"/>
     </row>
-    <row r="194" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B194" s="7">
         <v>193</v>
       </c>
@@ -32600,7 +32680,7 @@
       <c r="AB194" s="9"/>
       <c r="AC194" s="9"/>
     </row>
-    <row r="195" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B195" s="7">
         <v>194</v>
       </c>
@@ -32660,7 +32740,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="196" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B196" s="7">
         <v>195</v>
       </c>
@@ -32714,7 +32794,7 @@
       <c r="AB196" s="9"/>
       <c r="AC196" s="9"/>
     </row>
-    <row r="197" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B197" s="7">
         <v>196</v>
       </c>
@@ -32766,7 +32846,7 @@
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
     </row>
-    <row r="198" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B198" s="7">
         <v>197</v>
       </c>
@@ -32822,7 +32902,7 @@
       <c r="AB198" s="9"/>
       <c r="AC198" s="9"/>
     </row>
-    <row r="199" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B199" s="7">
         <v>198</v>
       </c>
@@ -32878,7 +32958,7 @@
       <c r="AB199" s="9"/>
       <c r="AC199" s="9"/>
     </row>
-    <row r="200" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B200" s="7">
         <v>199</v>
       </c>
@@ -32942,7 +33022,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="201" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B201" s="7">
         <v>200</v>
       </c>
@@ -33004,7 +33084,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="202" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B202" s="7">
         <v>201</v>
       </c>
@@ -33066,7 +33146,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="203" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B203" s="7">
         <v>202</v>
       </c>
@@ -33128,7 +33208,7 @@
       </c>
       <c r="AC203" s="9"/>
     </row>
-    <row r="204" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B204" s="7">
         <v>203</v>
       </c>
@@ -33190,7 +33270,7 @@
       </c>
       <c r="AC204" s="9"/>
     </row>
-    <row r="205" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B205" s="7">
         <v>204</v>
       </c>
@@ -33252,7 +33332,7 @@
       </c>
       <c r="AC205" s="9"/>
     </row>
-    <row r="206" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B206" s="7">
         <v>205</v>
       </c>
@@ -33314,7 +33394,7 @@
       </c>
       <c r="AC206" s="9"/>
     </row>
-    <row r="207" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B207" s="7">
         <v>206</v>
       </c>
@@ -33364,7 +33444,7 @@
       <c r="AB207" s="9"/>
       <c r="AC207" s="9"/>
     </row>
-    <row r="208" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B208" s="7">
         <v>207</v>
       </c>
@@ -33420,7 +33500,7 @@
       <c r="AB208" s="9"/>
       <c r="AC208" s="9"/>
     </row>
-    <row r="209" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B209" s="7">
         <v>208</v>
       </c>
@@ -33470,7 +33550,7 @@
       <c r="AB209" s="9"/>
       <c r="AC209" s="9"/>
     </row>
-    <row r="210" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B210" s="7">
         <v>209</v>
       </c>
@@ -33520,7 +33600,7 @@
       <c r="AB210" s="9"/>
       <c r="AC210" s="9"/>
     </row>
-    <row r="211" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B211" s="7">
         <v>210</v>
       </c>
@@ -33580,7 +33660,7 @@
       <c r="AB211" s="9"/>
       <c r="AC211" s="9"/>
     </row>
-    <row r="212" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B212" s="7">
         <v>211</v>
       </c>
@@ -33630,7 +33710,7 @@
       <c r="AB212" s="9"/>
       <c r="AC212" s="9"/>
     </row>
-    <row r="213" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B213" s="7">
         <v>212</v>
       </c>
@@ -33682,7 +33762,7 @@
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
     </row>
-    <row r="214" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B214" s="7">
         <v>213</v>
       </c>
@@ -33744,7 +33824,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="215" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B215" s="7">
         <v>214</v>
       </c>
@@ -33802,7 +33882,7 @@
       <c r="AB215" s="9"/>
       <c r="AC215" s="9"/>
     </row>
-    <row r="216" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B216" s="7">
         <v>215</v>
       </c>
@@ -33862,7 +33942,7 @@
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
     </row>
-    <row r="217" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B217" s="7">
         <v>216</v>
       </c>
@@ -33918,7 +33998,7 @@
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
     </row>
-    <row r="218" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B218" s="7">
         <v>217</v>
       </c>
@@ -33974,7 +34054,7 @@
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
     </row>
-    <row r="219" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B219" s="7">
         <v>218</v>
       </c>
@@ -34030,7 +34110,7 @@
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
     </row>
-    <row r="220" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B220" s="7">
         <v>219</v>
       </c>
@@ -34086,7 +34166,7 @@
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
     </row>
-    <row r="221" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B221" s="7">
         <v>220</v>
       </c>
@@ -34144,7 +34224,7 @@
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
     </row>
-    <row r="222" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B222" s="7">
         <v>221</v>
       </c>
@@ -34202,7 +34282,7 @@
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
     </row>
-    <row r="223" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B223" s="7">
         <v>222</v>
       </c>
@@ -34262,7 +34342,7 @@
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
     </row>
-    <row r="224" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B224" s="7">
         <v>223</v>
       </c>
@@ -34318,7 +34398,7 @@
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
     </row>
-    <row r="225" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B225" s="7">
         <v>224</v>
       </c>
@@ -34372,7 +34452,7 @@
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
     </row>
-    <row r="226" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B226" s="7">
         <v>225</v>
       </c>
@@ -34428,7 +34508,7 @@
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
     </row>
-    <row r="227" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B227" s="7">
         <v>226</v>
       </c>
@@ -34478,7 +34558,7 @@
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
     </row>
-    <row r="228" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B228" s="7">
         <v>227</v>
       </c>
@@ -34528,7 +34608,7 @@
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
     </row>
-    <row r="229" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B229" s="7">
         <v>228</v>
       </c>
@@ -34578,7 +34658,7 @@
       <c r="AB229" s="9"/>
       <c r="AC229" s="9"/>
     </row>
-    <row r="230" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B230" s="7">
         <v>229</v>
       </c>
@@ -34632,7 +34712,7 @@
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
     </row>
-    <row r="231" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B231" s="7">
         <v>230</v>
       </c>
@@ -34684,7 +34764,7 @@
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
     </row>
-    <row r="232" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B232" s="7">
         <v>231</v>
       </c>
@@ -34738,7 +34818,7 @@
       <c r="AB232" s="9"/>
       <c r="AC232" s="9"/>
     </row>
-    <row r="233" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B233" s="7">
         <v>232</v>
       </c>
@@ -34790,7 +34870,7 @@
       <c r="AB233" s="9"/>
       <c r="AC233" s="9"/>
     </row>
-    <row r="234" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B234" s="7">
         <v>233</v>
       </c>
@@ -34846,7 +34926,7 @@
       <c r="AB234" s="9"/>
       <c r="AC234" s="9"/>
     </row>
-    <row r="235" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B235" s="7">
         <v>234</v>
       </c>
@@ -34900,7 +34980,7 @@
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
     </row>
-    <row r="236" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B236" s="7">
         <v>235</v>
       </c>
@@ -34954,7 +35034,7 @@
       <c r="AB236" s="9"/>
       <c r="AC236" s="9"/>
     </row>
-    <row r="237" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B237" s="7">
         <v>236</v>
       </c>
@@ -35014,7 +35094,7 @@
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
     </row>
-    <row r="238" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B238" s="7">
         <v>237</v>
       </c>
@@ -35070,7 +35150,7 @@
       <c r="AB238" s="9"/>
       <c r="AC238" s="9"/>
     </row>
-    <row r="239" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B239" s="7">
         <v>238</v>
       </c>
@@ -35126,7 +35206,7 @@
       <c r="AB239" s="9"/>
       <c r="AC239" s="9"/>
     </row>
-    <row r="240" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B240" s="7">
         <v>239</v>
       </c>
@@ -35186,7 +35266,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="241" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B241" s="7">
         <v>240</v>
       </c>
@@ -35202,7 +35282,9 @@
       <c r="F241" s="12" t="s">
         <v>1108</v>
       </c>
-      <c r="G241" s="12"/>
+      <c r="G241" s="56" t="s">
+        <v>1870</v>
+      </c>
       <c r="H241" s="12" t="s">
         <v>1109</v>
       </c>
@@ -35246,7 +35328,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="242" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B242" s="7">
         <v>241</v>
       </c>
@@ -35262,7 +35344,9 @@
       <c r="F242" s="12" t="s">
         <v>1111</v>
       </c>
-      <c r="G242" s="12"/>
+      <c r="G242" s="56" t="s">
+        <v>1871</v>
+      </c>
       <c r="H242" s="12" t="s">
         <v>1728</v>
       </c>
@@ -35304,7 +35388,7 @@
       </c>
       <c r="AC242" s="9"/>
     </row>
-    <row r="243" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B243" s="7">
         <v>242</v>
       </c>
@@ -35320,7 +35404,9 @@
       <c r="F243" s="12" t="s">
         <v>1112</v>
       </c>
-      <c r="G243" s="12"/>
+      <c r="G243" s="56" t="s">
+        <v>1872</v>
+      </c>
       <c r="H243" s="12" t="s">
         <v>665</v>
       </c>
@@ -35364,7 +35450,7 @@
       </c>
       <c r="AC243" s="9"/>
     </row>
-    <row r="244" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B244" s="7">
         <v>243</v>
       </c>
@@ -35422,7 +35508,7 @@
       </c>
       <c r="AC244" s="9"/>
     </row>
-    <row r="245" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B245" s="7">
         <v>244</v>
       </c>
@@ -35484,7 +35570,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="246" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B246" s="7">
         <v>245</v>
       </c>
@@ -35538,7 +35624,7 @@
       <c r="AB246" s="9"/>
       <c r="AC246" s="9"/>
     </row>
-    <row r="247" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B247" s="7">
         <v>246</v>
       </c>
@@ -35592,7 +35678,7 @@
       <c r="AB247" s="9"/>
       <c r="AC247" s="9"/>
     </row>
-    <row r="248" spans="2:29" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:29" s="16" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="B248" s="7">
         <v>247</v>
       </c>
@@ -35646,7 +35732,7 @@
       <c r="AB248" s="40"/>
       <c r="AC248" s="40"/>
     </row>
-    <row r="249" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B249" s="7">
         <v>248</v>
       </c>
@@ -35700,7 +35786,7 @@
       <c r="AB249" s="9"/>
       <c r="AC249" s="9"/>
     </row>
-    <row r="250" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B250" s="7">
         <v>249</v>
       </c>
@@ -35756,7 +35842,7 @@
       <c r="AB250" s="9"/>
       <c r="AC250" s="9"/>
     </row>
-    <row r="251" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B251" s="7">
         <v>250</v>
       </c>
@@ -35808,7 +35894,7 @@
       <c r="AB251" s="9"/>
       <c r="AC251" s="9"/>
     </row>
-    <row r="252" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B252" s="7">
         <v>251</v>
       </c>
@@ -35824,7 +35910,9 @@
       <c r="F252" s="12" t="s">
         <v>1128</v>
       </c>
-      <c r="G252" s="12"/>
+      <c r="G252" s="56" t="s">
+        <v>1873</v>
+      </c>
       <c r="H252" s="12" t="s">
         <v>1736</v>
       </c>
@@ -35866,7 +35954,7 @@
       </c>
       <c r="AC252" s="9"/>
     </row>
-    <row r="253" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B253" s="7">
         <v>252</v>
       </c>
@@ -35882,7 +35970,9 @@
       <c r="F253" s="12" t="s">
         <v>1129</v>
       </c>
-      <c r="G253" s="12"/>
+      <c r="G253" s="56" t="s">
+        <v>1874</v>
+      </c>
       <c r="H253" s="12" t="s">
         <v>1737</v>
       </c>
@@ -35926,7 +36016,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="254" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B254" s="7">
         <v>253</v>
       </c>
@@ -35942,7 +36032,9 @@
       <c r="F254" s="12" t="s">
         <v>1130</v>
       </c>
-      <c r="G254" s="12"/>
+      <c r="G254" s="56" t="s">
+        <v>1875</v>
+      </c>
       <c r="H254" s="12" t="s">
         <v>784</v>
       </c>
@@ -35984,7 +36076,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="255" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B255" s="7">
         <v>254</v>
       </c>
@@ -36000,7 +36092,9 @@
       <c r="F255" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="G255" s="12"/>
+      <c r="G255" s="56" t="s">
+        <v>1876</v>
+      </c>
       <c r="H255" s="12" t="s">
         <v>665</v>
       </c>
@@ -36046,7 +36140,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="256" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B256" s="7">
         <v>255</v>
       </c>
@@ -36062,7 +36156,9 @@
       <c r="F256" s="12" t="s">
         <v>1131</v>
       </c>
-      <c r="G256" s="12"/>
+      <c r="G256" s="56" t="s">
+        <v>1877</v>
+      </c>
       <c r="H256" s="12" t="s">
         <v>1131</v>
       </c>
@@ -36106,7 +36202,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="257" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B257" s="7">
         <v>256</v>
       </c>
@@ -36122,7 +36218,9 @@
       <c r="F257" s="12" t="s">
         <v>1132</v>
       </c>
-      <c r="G257" s="12"/>
+      <c r="G257" s="56" t="s">
+        <v>1878</v>
+      </c>
       <c r="H257" s="12" t="s">
         <v>160</v>
       </c>
@@ -36160,7 +36258,7 @@
       <c r="AB257" s="9"/>
       <c r="AC257" s="9"/>
     </row>
-    <row r="258" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B258" s="7">
         <v>257</v>
       </c>
@@ -36218,7 +36316,7 @@
       </c>
       <c r="AC258" s="9"/>
     </row>
-    <row r="259" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B259" s="7">
         <v>258</v>
       </c>
@@ -36270,7 +36368,7 @@
       <c r="AB259" s="9"/>
       <c r="AC259" s="9"/>
     </row>
-    <row r="260" spans="1:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B260" s="7">
         <v>259</v>
       </c>
@@ -36330,7 +36428,7 @@
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
     </row>
-    <row r="261" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B261" s="7">
         <v>260</v>
       </c>
@@ -36390,7 +36488,7 @@
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
     </row>
-    <row r="262" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B262" s="7">
         <v>261</v>
       </c>
@@ -36452,7 +36550,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="263" spans="1:29" s="16" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" s="16" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="B263" s="7">
         <v>262</v>
       </c>
@@ -36506,7 +36604,7 @@
       <c r="AB263" s="40"/>
       <c r="AC263" s="40"/>
     </row>
-    <row r="264" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" ht="84" x14ac:dyDescent="0.35">
       <c r="A264" s="16"/>
       <c r="B264" s="7">
         <v>263</v>
@@ -36561,7 +36659,7 @@
       <c r="AB264" s="9"/>
       <c r="AC264" s="9"/>
     </row>
-    <row r="265" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B265" s="7">
         <v>264</v>
       </c>
@@ -36615,7 +36713,7 @@
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
     </row>
-    <row r="266" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B266" s="7">
         <v>265</v>
       </c>
@@ -36661,7 +36759,7 @@
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
     </row>
-    <row r="267" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B267" s="7">
         <v>266</v>
       </c>
@@ -36723,7 +36821,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="268" spans="1:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B268" s="7">
         <v>267</v>
       </c>
@@ -36781,7 +36879,7 @@
       <c r="AB268" s="9"/>
       <c r="AC268" s="9"/>
     </row>
-    <row r="269" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B269" s="7">
         <v>268</v>
       </c>
@@ -36837,7 +36935,7 @@
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
     </row>
-    <row r="270" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B270" s="7">
         <v>269</v>
       </c>
@@ -36897,7 +36995,7 @@
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
     </row>
-    <row r="271" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B271" s="7">
         <v>270</v>
       </c>
@@ -36957,7 +37055,7 @@
       </c>
       <c r="AC271" s="9"/>
     </row>
-    <row r="272" spans="1:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B272" s="7">
         <v>271</v>
       </c>
@@ -37011,7 +37109,7 @@
       <c r="AB272" s="9"/>
       <c r="AC272" s="9"/>
     </row>
-    <row r="273" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B273" s="7">
         <v>272</v>
       </c>
@@ -37071,7 +37169,7 @@
       </c>
       <c r="AC273" s="9"/>
     </row>
-    <row r="274" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B274" s="7">
         <v>273</v>
       </c>
@@ -37131,7 +37229,7 @@
       </c>
       <c r="AC274" s="9"/>
     </row>
-    <row r="275" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B275" s="7">
         <v>274</v>
       </c>
@@ -37187,7 +37285,7 @@
       </c>
       <c r="AC275" s="9"/>
     </row>
-    <row r="276" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B276" s="7">
         <v>275</v>
       </c>
@@ -37231,7 +37329,7 @@
       <c r="AB276" s="9"/>
       <c r="AC276" s="9"/>
     </row>
-    <row r="277" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B277" s="7">
         <v>276</v>
       </c>
@@ -37275,7 +37373,7 @@
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
     </row>
-    <row r="278" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B278" s="7">
         <v>277</v>
       </c>
@@ -37319,7 +37417,7 @@
       <c r="AB278" s="9"/>
       <c r="AC278" s="9"/>
     </row>
-    <row r="279" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B279" s="7">
         <v>278</v>
       </c>
@@ -37363,7 +37461,7 @@
       <c r="AB279" s="9"/>
       <c r="AC279" s="9"/>
     </row>
-    <row r="280" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B280" s="7">
         <v>279</v>
       </c>
@@ -37407,7 +37505,7 @@
       <c r="AB280" s="9"/>
       <c r="AC280" s="9"/>
     </row>
-    <row r="281" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B281" s="7">
         <v>280</v>
       </c>
@@ -37451,7 +37549,7 @@
       <c r="AB281" s="9"/>
       <c r="AC281" s="9"/>
     </row>
-    <row r="282" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B282" s="7">
         <v>281</v>
       </c>
@@ -37499,7 +37597,7 @@
       <c r="AB282" s="9"/>
       <c r="AC282" s="9"/>
     </row>
-    <row r="283" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B283" s="7">
         <v>282</v>
       </c>
@@ -37543,7 +37641,7 @@
       <c r="AB283" s="9"/>
       <c r="AC283" s="9"/>
     </row>
-    <row r="284" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B284" s="7">
         <v>283</v>
       </c>
@@ -37587,7 +37685,7 @@
       <c r="AB284" s="9"/>
       <c r="AC284" s="9"/>
     </row>
-    <row r="285" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B285" s="7">
         <v>284</v>
       </c>
@@ -37633,7 +37731,7 @@
       <c r="AB285" s="9"/>
       <c r="AC285" s="9"/>
     </row>
-    <row r="286" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B286" s="7">
         <v>285</v>
       </c>
@@ -37679,7 +37777,7 @@
       <c r="AB286" s="9"/>
       <c r="AC286" s="9"/>
     </row>
-    <row r="287" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B287" s="7">
         <v>286</v>
       </c>
@@ -37733,7 +37831,7 @@
       <c r="AB287" s="9"/>
       <c r="AC287" s="9"/>
     </row>
-    <row r="288" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B288" s="7">
         <v>287</v>
       </c>
@@ -37779,7 +37877,7 @@
       <c r="AB288" s="9"/>
       <c r="AC288" s="9"/>
     </row>
-    <row r="289" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B289" s="7">
         <v>288</v>
       </c>
@@ -37823,7 +37921,7 @@
       <c r="AB289" s="9"/>
       <c r="AC289" s="9"/>
     </row>
-    <row r="290" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B290" s="7">
         <v>289</v>
       </c>
@@ -37877,7 +37975,7 @@
       <c r="AB290" s="9"/>
       <c r="AC290" s="9"/>
     </row>
-    <row r="291" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B291" s="7">
         <v>290</v>
       </c>
@@ -37927,7 +38025,7 @@
       <c r="AB291" s="9"/>
       <c r="AC291" s="9"/>
     </row>
-    <row r="292" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B292" s="7">
         <v>291</v>
       </c>
@@ -37971,7 +38069,7 @@
       <c r="AB292" s="9"/>
       <c r="AC292" s="9"/>
     </row>
-    <row r="293" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B293" s="7">
         <v>292</v>
       </c>
@@ -38015,7 +38113,7 @@
       <c r="AB293" s="9"/>
       <c r="AC293" s="9"/>
     </row>
-    <row r="294" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B294" s="7">
         <v>293</v>
       </c>
@@ -38061,7 +38159,7 @@
       <c r="AB294" s="9"/>
       <c r="AC294" s="9"/>
     </row>
-    <row r="295" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B295" s="7">
         <v>294</v>
       </c>
@@ -38111,7 +38209,7 @@
       <c r="AB295" s="9"/>
       <c r="AC295" s="9"/>
     </row>
-    <row r="296" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B296" s="7">
         <v>295</v>
       </c>
@@ -38165,7 +38263,7 @@
       <c r="AB296" s="9"/>
       <c r="AC296" s="9"/>
     </row>
-    <row r="297" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B297" s="7">
         <v>296</v>
       </c>
@@ -38209,7 +38307,7 @@
       <c r="AB297" s="9"/>
       <c r="AC297" s="9"/>
     </row>
-    <row r="298" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B298" s="7">
         <v>297</v>
       </c>
@@ -38253,7 +38351,7 @@
       <c r="AB298" s="9"/>
       <c r="AC298" s="9"/>
     </row>
-    <row r="299" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B299" s="7">
         <v>298</v>
       </c>
@@ -38297,7 +38395,7 @@
       <c r="AB299" s="9"/>
       <c r="AC299" s="9"/>
     </row>
-    <row r="300" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B300" s="7">
         <v>299</v>
       </c>
@@ -38341,7 +38439,7 @@
       <c r="AB300" s="9"/>
       <c r="AC300" s="9"/>
     </row>
-    <row r="301" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B301" s="7">
         <v>300</v>
       </c>
@@ -38385,7 +38483,7 @@
       <c r="AB301" s="9"/>
       <c r="AC301" s="9"/>
     </row>
-    <row r="302" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B302" s="7">
         <v>301</v>
       </c>
@@ -38429,7 +38527,7 @@
       <c r="AB302" s="9"/>
       <c r="AC302" s="9"/>
     </row>
-    <row r="303" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B303" s="7">
         <v>302</v>
       </c>
@@ -38473,7 +38571,7 @@
       <c r="AB303" s="9"/>
       <c r="AC303" s="9"/>
     </row>
-    <row r="304" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B304" s="7">
         <v>303</v>
       </c>
@@ -38519,7 +38617,7 @@
       <c r="AB304" s="9"/>
       <c r="AC304" s="9"/>
     </row>
-    <row r="305" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B305" s="7">
         <v>304</v>
       </c>
@@ -38565,7 +38663,7 @@
       <c r="AB305" s="9"/>
       <c r="AC305" s="9"/>
     </row>
-    <row r="306" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B306" s="7">
         <v>305</v>
       </c>
@@ -38611,7 +38709,7 @@
       <c r="AB306" s="9"/>
       <c r="AC306" s="9"/>
     </row>
-    <row r="307" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B307" s="7">
         <v>306</v>
       </c>
@@ -38657,7 +38755,7 @@
       <c r="AB307" s="9"/>
       <c r="AC307" s="9"/>
     </row>
-    <row r="308" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B308" s="7">
         <v>307</v>
       </c>
@@ -38703,7 +38801,7 @@
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
     </row>
-    <row r="309" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B309" s="7">
         <v>308</v>
       </c>
@@ -38747,7 +38845,7 @@
       <c r="AB309" s="9"/>
       <c r="AC309" s="9"/>
     </row>
-    <row r="310" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B310" s="7">
         <v>309</v>
       </c>
@@ -38791,7 +38889,7 @@
       <c r="AB310" s="9"/>
       <c r="AC310" s="9"/>
     </row>
-    <row r="311" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B311" s="7">
         <v>310</v>
       </c>
@@ -38833,7 +38931,7 @@
       <c r="AB311" s="9"/>
       <c r="AC311" s="9"/>
     </row>
-    <row r="312" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B312" s="7">
         <v>311</v>
       </c>
@@ -38875,7 +38973,7 @@
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
     </row>
-    <row r="313" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B313" s="7">
         <v>312</v>
       </c>
@@ -38917,7 +39015,7 @@
       <c r="AB313" s="9"/>
       <c r="AC313" s="9"/>
     </row>
-    <row r="314" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B314" s="7">
         <v>313</v>
       </c>
@@ -38959,7 +39057,7 @@
       <c r="AB314" s="9"/>
       <c r="AC314" s="9"/>
     </row>
-    <row r="315" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B315" s="7">
         <v>314</v>
       </c>
@@ -39005,7 +39103,7 @@
       <c r="AB315" s="9"/>
       <c r="AC315" s="9"/>
     </row>
-    <row r="316" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B316" s="7">
         <v>315</v>
       </c>
@@ -39049,7 +39147,7 @@
       <c r="AB316" s="9"/>
       <c r="AC316" s="9"/>
     </row>
-    <row r="317" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B317" s="7">
         <v>316</v>
       </c>
@@ -39093,7 +39191,7 @@
       <c r="AB317" s="9"/>
       <c r="AC317" s="9"/>
     </row>
-    <row r="318" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B318" s="7">
         <v>317</v>
       </c>
@@ -39137,7 +39235,7 @@
       <c r="AB318" s="9"/>
       <c r="AC318" s="9"/>
     </row>
-    <row r="319" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B319" s="7">
         <v>318</v>
       </c>
@@ -39179,7 +39277,7 @@
       <c r="AB319" s="9"/>
       <c r="AC319" s="9"/>
     </row>
-    <row r="320" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B320" s="7">
         <v>319</v>
       </c>
@@ -39221,7 +39319,7 @@
       <c r="AB320" s="9"/>
       <c r="AC320" s="9"/>
     </row>
-    <row r="321" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B321" s="7">
         <v>320</v>
       </c>
@@ -39263,7 +39361,7 @@
       <c r="AB321" s="9"/>
       <c r="AC321" s="9"/>
     </row>
-    <row r="322" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B322" s="7">
         <v>321</v>
       </c>
@@ -39307,7 +39405,7 @@
       <c r="AB322" s="9"/>
       <c r="AC322" s="9"/>
     </row>
-    <row r="323" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B323" s="7">
         <v>322</v>
       </c>
@@ -39351,7 +39449,7 @@
       <c r="AB323" s="9"/>
       <c r="AC323" s="9"/>
     </row>
-    <row r="324" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B324" s="7">
         <v>323</v>
       </c>
@@ -39395,7 +39493,7 @@
       <c r="AB324" s="9"/>
       <c r="AC324" s="9"/>
     </row>
-    <row r="325" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B325" s="7">
         <v>324</v>
       </c>
@@ -39441,7 +39539,7 @@
       <c r="AB325" s="9"/>
       <c r="AC325" s="9"/>
     </row>
-    <row r="326" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B326" s="7">
         <v>325</v>
       </c>
@@ -39487,7 +39585,7 @@
       <c r="AB326" s="9"/>
       <c r="AC326" s="9"/>
     </row>
-    <row r="327" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B327" s="7">
         <v>326</v>
       </c>
@@ -39533,7 +39631,7 @@
       <c r="AB327" s="9"/>
       <c r="AC327" s="9"/>
     </row>
-    <row r="328" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B328" s="7">
         <v>327</v>
       </c>
@@ -39583,7 +39681,7 @@
       <c r="AB328" s="9"/>
       <c r="AC328" s="9"/>
     </row>
-    <row r="329" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B329" s="7">
         <v>328</v>
       </c>
@@ -39625,7 +39723,7 @@
       <c r="AB329" s="9"/>
       <c r="AC329" s="9"/>
     </row>
-    <row r="330" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B330" s="7">
         <v>329</v>
       </c>
@@ -39671,7 +39769,7 @@
       <c r="AB330" s="9"/>
       <c r="AC330" s="9"/>
     </row>
-    <row r="331" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B331" s="7">
         <v>330</v>
       </c>
@@ -39718,7 +39816,7 @@
       <c r="AB331" s="9"/>
       <c r="AC331" s="9"/>
     </row>
-    <row r="332" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B332" s="7">
         <v>331</v>
       </c>
@@ -39765,7 +39863,7 @@
       <c r="AB332" s="9"/>
       <c r="AC332" s="9"/>
     </row>
-    <row r="333" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B333" s="7">
         <v>332</v>
       </c>
@@ -39813,7 +39911,7 @@
       <c r="AB333" s="9"/>
       <c r="AC333" s="9"/>
     </row>
-    <row r="334" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B334" s="7">
         <v>333</v>
       </c>
@@ -39860,7 +39958,7 @@
       <c r="AB334" s="9"/>
       <c r="AC334" s="9"/>
     </row>
-    <row r="335" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B335" s="7">
         <v>334</v>
       </c>
@@ -39907,7 +40005,7 @@
       <c r="AB335" s="9"/>
       <c r="AC335" s="9"/>
     </row>
-    <row r="336" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B336" s="7">
         <v>335</v>
       </c>
@@ -39954,7 +40052,7 @@
       <c r="AB336" s="9"/>
       <c r="AC336" s="9"/>
     </row>
-    <row r="337" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B337" s="7">
         <v>336</v>
       </c>
@@ -40005,7 +40103,7 @@
       <c r="AB337" s="9"/>
       <c r="AC337" s="9"/>
     </row>
-    <row r="338" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B338" s="7">
         <v>337</v>
       </c>
@@ -40056,7 +40154,7 @@
       <c r="AB338" s="9"/>
       <c r="AC338" s="9"/>
     </row>
-    <row r="339" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B339" s="7">
         <v>338</v>
       </c>
@@ -40107,7 +40205,7 @@
       <c r="AB339" s="9"/>
       <c r="AC339" s="9"/>
     </row>
-    <row r="340" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B340" s="7">
         <v>339</v>
       </c>
@@ -40158,7 +40256,7 @@
       <c r="AB340" s="9"/>
       <c r="AC340" s="9"/>
     </row>
-    <row r="341" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B341" s="7">
         <v>340</v>
       </c>
@@ -40209,7 +40307,7 @@
       <c r="AB341" s="9"/>
       <c r="AC341" s="9"/>
     </row>
-    <row r="342" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B342" s="7">
         <v>341</v>
       </c>
@@ -40258,7 +40356,7 @@
       <c r="AB342" s="9"/>
       <c r="AC342" s="9"/>
     </row>
-    <row r="343" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B343" s="7">
         <v>342</v>
       </c>
@@ -40311,7 +40409,7 @@
       <c r="AB343" s="9"/>
       <c r="AC343" s="9"/>
     </row>
-    <row r="344" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B344" s="7">
         <v>343</v>
       </c>
@@ -40360,7 +40458,7 @@
       <c r="AB344" s="9"/>
       <c r="AC344" s="9"/>
     </row>
-    <row r="345" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B345" s="7">
         <v>344</v>
       </c>
@@ -40413,7 +40511,7 @@
       <c r="AB345" s="9"/>
       <c r="AC345" s="9"/>
     </row>
-    <row r="346" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B346" s="7">
         <v>345</v>
       </c>
@@ -40462,7 +40560,7 @@
       <c r="AB346" s="9"/>
       <c r="AC346" s="9"/>
     </row>
-    <row r="347" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B347" s="7">
         <v>346</v>
       </c>
@@ -40521,7 +40619,7 @@
       </c>
       <c r="AC347" s="9"/>
     </row>
-    <row r="348" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B348" s="7">
         <v>347</v>
       </c>
@@ -40574,7 +40672,7 @@
       <c r="AB348" s="9"/>
       <c r="AC348" s="9"/>
     </row>
-    <row r="349" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B349" s="7">
         <v>348</v>
       </c>
@@ -40627,7 +40725,7 @@
       <c r="AB349" s="9"/>
       <c r="AC349" s="9"/>
     </row>
-    <row r="350" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B350" s="7">
         <v>349</v>
       </c>
@@ -40680,7 +40778,7 @@
       <c r="AB350" s="9"/>
       <c r="AC350" s="9"/>
     </row>
-    <row r="351" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B351" s="7">
         <v>350</v>
       </c>
@@ -40733,7 +40831,7 @@
       <c r="AB351" s="9"/>
       <c r="AC351" s="9"/>
     </row>
-    <row r="352" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B352" s="7">
         <v>351</v>
       </c>
@@ -40786,7 +40884,7 @@
       <c r="AB352" s="9"/>
       <c r="AC352" s="9"/>
     </row>
-    <row r="353" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B353" s="7">
         <v>352</v>
       </c>
@@ -40841,7 +40939,7 @@
       <c r="AB353" s="9"/>
       <c r="AC353" s="9"/>
     </row>
-    <row r="354" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B354" s="7">
         <v>353</v>
       </c>
@@ -40894,7 +40992,7 @@
       <c r="AB354" s="9"/>
       <c r="AC354" s="9"/>
     </row>
-    <row r="355" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B355" s="7">
         <v>354</v>
       </c>
@@ -40947,7 +41045,7 @@
       <c r="AB355" s="9"/>
       <c r="AC355" s="9"/>
     </row>
-    <row r="356" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B356" s="7">
         <v>355</v>
       </c>
@@ -41000,7 +41098,7 @@
       <c r="AB356" s="9"/>
       <c r="AC356" s="9"/>
     </row>
-    <row r="357" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B357" s="7">
         <v>356</v>
       </c>
@@ -41053,7 +41151,7 @@
       <c r="AB357" s="9"/>
       <c r="AC357" s="9"/>
     </row>
-    <row r="358" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B358" s="7">
         <v>357</v>
       </c>
@@ -41106,7 +41204,7 @@
       <c r="AB358" s="9"/>
       <c r="AC358" s="9"/>
     </row>
-    <row r="359" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B359" s="7">
         <v>358</v>
       </c>
@@ -41159,7 +41257,7 @@
       <c r="AB359" s="9"/>
       <c r="AC359" s="9"/>
     </row>
-    <row r="360" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B360" s="7">
         <v>359</v>
       </c>
@@ -41212,7 +41310,7 @@
       <c r="AB360" s="9"/>
       <c r="AC360" s="9"/>
     </row>
-    <row r="361" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B361" s="7">
         <v>360</v>
       </c>
@@ -41261,7 +41359,7 @@
       <c r="AB361" s="9"/>
       <c r="AC361" s="9"/>
     </row>
-    <row r="362" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B362" s="7">
         <v>361</v>
       </c>
@@ -41320,7 +41418,7 @@
       </c>
       <c r="AC362" s="9"/>
     </row>
-    <row r="363" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B363" s="7">
         <v>362</v>
       </c>
@@ -41379,7 +41477,7 @@
       </c>
       <c r="AC363" s="9"/>
     </row>
-    <row r="364" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B364" s="7">
         <v>363</v>
       </c>
@@ -41428,7 +41526,7 @@
       <c r="AB364" s="9"/>
       <c r="AC364" s="9"/>
     </row>
-    <row r="365" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B365" s="7">
         <v>364</v>
       </c>
@@ -41487,7 +41585,7 @@
       </c>
       <c r="AC365" s="9"/>
     </row>
-    <row r="366" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B366" s="7">
         <v>365</v>
       </c>
@@ -41536,7 +41634,7 @@
       <c r="AB366" s="9"/>
       <c r="AC366" s="9"/>
     </row>
-    <row r="367" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B367" s="7">
         <v>366</v>
       </c>
@@ -41595,7 +41693,7 @@
       </c>
       <c r="AC367" s="9"/>
     </row>
-    <row r="368" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B368" s="7">
         <v>367</v>
       </c>
@@ -41654,7 +41752,7 @@
       </c>
       <c r="AC368" s="9"/>
     </row>
-    <row r="369" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B369" s="7">
         <v>368</v>
       </c>
@@ -41713,7 +41811,7 @@
       </c>
       <c r="AC369" s="9"/>
     </row>
-    <row r="370" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B370" s="7">
         <v>369</v>
       </c>
@@ -41762,7 +41860,7 @@
       <c r="AB370" s="9"/>
       <c r="AC370" s="9"/>
     </row>
-    <row r="371" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B371" s="7">
         <v>370</v>
       </c>
@@ -41821,7 +41919,7 @@
       </c>
       <c r="AC371" s="9"/>
     </row>
-    <row r="372" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B372" s="7">
         <v>371</v>
       </c>
@@ -41870,7 +41968,7 @@
       <c r="AB372" s="9"/>
       <c r="AC372" s="9"/>
     </row>
-    <row r="373" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B373" s="7">
         <v>372</v>
       </c>
@@ -41929,7 +42027,7 @@
       </c>
       <c r="AC373" s="9"/>
     </row>
-    <row r="374" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B374" s="7">
         <v>373</v>
       </c>
@@ -41988,7 +42086,7 @@
       </c>
       <c r="AC374" s="9"/>
     </row>
-    <row r="375" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B375" s="7">
         <v>374</v>
       </c>
@@ -42037,7 +42135,7 @@
       <c r="AB375" s="9"/>
       <c r="AC375" s="9"/>
     </row>
-    <row r="376" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B376" s="7">
         <v>375</v>
       </c>
@@ -42096,7 +42194,7 @@
       </c>
       <c r="AC376" s="9"/>
     </row>
-    <row r="377" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B377" s="7">
         <v>376</v>
       </c>
@@ -42147,7 +42245,7 @@
       <c r="AB377" s="9"/>
       <c r="AC377" s="9"/>
     </row>
-    <row r="378" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B378" s="7">
         <v>377</v>
       </c>
@@ -42198,7 +42296,7 @@
       <c r="AB378" s="9"/>
       <c r="AC378" s="9"/>
     </row>
-    <row r="379" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B379" s="7">
         <v>378</v>
       </c>
@@ -42247,7 +42345,7 @@
       <c r="AB379" s="9"/>
       <c r="AC379" s="9"/>
     </row>
-    <row r="380" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B380" s="7">
         <v>379</v>
       </c>
@@ -42296,7 +42394,7 @@
       <c r="AB380" s="9"/>
       <c r="AC380" s="9"/>
     </row>
-    <row r="381" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B381" s="7">
         <v>380</v>
       </c>
@@ -42349,7 +42447,7 @@
       <c r="AB381" s="9"/>
       <c r="AC381" s="9"/>
     </row>
-    <row r="382" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B382" s="7">
         <v>381</v>
       </c>
@@ -42402,7 +42500,7 @@
       <c r="AB382" s="9"/>
       <c r="AC382" s="9"/>
     </row>
-    <row r="383" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B383" s="7">
         <v>382</v>
       </c>
@@ -42451,7 +42549,7 @@
       <c r="AB383" s="9"/>
       <c r="AC383" s="9"/>
     </row>
-    <row r="384" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B384" s="7">
         <v>383</v>
       </c>
@@ -42504,7 +42602,7 @@
       <c r="AB384" s="9"/>
       <c r="AC384" s="9"/>
     </row>
-    <row r="385" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B385" s="7">
         <v>384</v>
       </c>
@@ -42557,7 +42655,7 @@
       <c r="AB385" s="9"/>
       <c r="AC385" s="9"/>
     </row>
-    <row r="386" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B386" s="7">
         <v>385</v>
       </c>
@@ -42606,7 +42704,7 @@
       <c r="AB386" s="9"/>
       <c r="AC386" s="9"/>
     </row>
-    <row r="387" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B387" s="7">
         <v>386</v>
       </c>
@@ -42655,7 +42753,7 @@
       <c r="AB387" s="9"/>
       <c r="AC387" s="9"/>
     </row>
-    <row r="388" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B388" s="7">
         <v>387</v>
       </c>
@@ -42708,7 +42806,7 @@
       <c r="AB388" s="9"/>
       <c r="AC388" s="9"/>
     </row>
-    <row r="389" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B389" s="7">
         <v>388</v>
       </c>
@@ -42761,7 +42859,7 @@
       <c r="AB389" s="9"/>
       <c r="AC389" s="9"/>
     </row>
-    <row r="390" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B390" s="7">
         <v>389</v>
       </c>
@@ -42810,7 +42908,7 @@
       <c r="AB390" s="9"/>
       <c r="AC390" s="9"/>
     </row>
-    <row r="391" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B391" s="7">
         <v>390</v>
       </c>
@@ -42859,7 +42957,7 @@
       <c r="AB391" s="9"/>
       <c r="AC391" s="9"/>
     </row>
-    <row r="392" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B392" s="7">
         <v>391</v>
       </c>
@@ -42912,7 +43010,7 @@
       <c r="AB392" s="9"/>
       <c r="AC392" s="9"/>
     </row>
-    <row r="393" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B393" s="7">
         <v>392</v>
       </c>
@@ -42961,7 +43059,7 @@
       <c r="AB393" s="9"/>
       <c r="AC393" s="9"/>
     </row>
-    <row r="394" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B394" s="7">
         <v>393</v>
       </c>
@@ -43014,7 +43112,7 @@
       <c r="AB394" s="9"/>
       <c r="AC394" s="9"/>
     </row>
-    <row r="395" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B395" s="7">
         <v>394</v>
       </c>
@@ -43063,7 +43161,7 @@
       <c r="AB395" s="9"/>
       <c r="AC395" s="9"/>
     </row>
-    <row r="396" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B396" s="7">
         <v>395</v>
       </c>
@@ -43112,7 +43210,7 @@
       <c r="AB396" s="9"/>
       <c r="AC396" s="9"/>
     </row>
-    <row r="397" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B397" s="7">
         <v>396</v>
       </c>
@@ -43165,7 +43263,7 @@
       <c r="AB397" s="9"/>
       <c r="AC397" s="9"/>
     </row>
-    <row r="398" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B398" s="7">
         <v>397</v>
       </c>
@@ -43214,7 +43312,7 @@
       <c r="AB398" s="9"/>
       <c r="AC398" s="9"/>
     </row>
-    <row r="399" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B399" s="7">
         <v>398</v>
       </c>
@@ -43273,7 +43371,7 @@
       </c>
       <c r="AC399" s="9"/>
     </row>
-    <row r="400" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B400" s="7">
         <v>399</v>
       </c>
@@ -43326,7 +43424,7 @@
       <c r="AB400" s="9"/>
       <c r="AC400" s="9"/>
     </row>
-    <row r="401" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B401" s="7">
         <v>400</v>
       </c>
@@ -43377,7 +43475,7 @@
       <c r="AB401" s="9"/>
       <c r="AC401" s="9"/>
     </row>
-    <row r="402" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B402" s="7">
         <v>401</v>
       </c>
@@ -43428,7 +43526,7 @@
       <c r="AB402" s="9"/>
       <c r="AC402" s="9"/>
     </row>
-    <row r="403" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B403" s="7">
         <v>402</v>
       </c>
@@ -43477,7 +43575,7 @@
       <c r="AB403" s="9"/>
       <c r="AC403" s="9"/>
     </row>
-    <row r="404" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B404" s="7">
         <v>403</v>
       </c>
@@ -43528,7 +43626,7 @@
       <c r="AB404" s="9"/>
       <c r="AC404" s="9"/>
     </row>
-    <row r="405" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B405" s="7">
         <v>404</v>
       </c>
@@ -43577,7 +43675,7 @@
       <c r="AB405" s="9"/>
       <c r="AC405" s="9"/>
     </row>
-    <row r="406" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B406" s="7">
         <v>405</v>
       </c>
@@ -43630,7 +43728,7 @@
       <c r="AB406" s="9"/>
       <c r="AC406" s="9"/>
     </row>
-    <row r="407" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B407" s="7">
         <v>406</v>
       </c>
@@ -43679,7 +43777,7 @@
       <c r="AB407" s="9"/>
       <c r="AC407" s="9"/>
     </row>
-    <row r="408" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B408" s="7">
         <v>407</v>
       </c>
@@ -43728,7 +43826,7 @@
       <c r="AB408" s="9"/>
       <c r="AC408" s="9"/>
     </row>
-    <row r="409" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B409" s="7">
         <v>408</v>
       </c>
@@ -43781,7 +43879,7 @@
       <c r="AB409" s="9"/>
       <c r="AC409" s="9"/>
     </row>
-    <row r="410" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B410" s="7">
         <v>409</v>
       </c>
@@ -43830,7 +43928,7 @@
       <c r="AB410" s="9"/>
       <c r="AC410" s="9"/>
     </row>
-    <row r="411" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B411" s="7">
         <v>410</v>
       </c>
@@ -43883,7 +43981,7 @@
       <c r="AB411" s="9"/>
       <c r="AC411" s="9"/>
     </row>
-    <row r="412" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B412" s="7">
         <v>411</v>
       </c>
@@ -43936,7 +44034,7 @@
       <c r="AB412" s="9"/>
       <c r="AC412" s="9"/>
     </row>
-    <row r="413" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B413" s="7">
         <v>412</v>
       </c>
@@ -43987,7 +44085,7 @@
       <c r="AB413" s="9"/>
       <c r="AC413" s="9"/>
     </row>
-    <row r="414" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B414" s="7">
         <v>413</v>
       </c>
@@ -44040,7 +44138,7 @@
       <c r="AB414" s="9"/>
       <c r="AC414" s="9"/>
     </row>
-    <row r="415" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B415" s="7">
         <v>414</v>
       </c>
@@ -44091,7 +44189,7 @@
       <c r="AB415" s="9"/>
       <c r="AC415" s="9"/>
     </row>
-    <row r="416" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B416" s="7">
         <v>415</v>
       </c>
@@ -44150,7 +44248,7 @@
       </c>
       <c r="AC416" s="9"/>
     </row>
-    <row r="417" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B417" s="7">
         <v>416</v>
       </c>
@@ -44199,7 +44297,7 @@
       <c r="AB417" s="9"/>
       <c r="AC417" s="9"/>
     </row>
-    <row r="418" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B418" s="7">
         <v>417</v>
       </c>
@@ -44258,7 +44356,7 @@
       </c>
       <c r="AC418" s="9"/>
     </row>
-    <row r="419" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B419" s="7">
         <v>418</v>
       </c>
@@ -44307,7 +44405,7 @@
       <c r="AB419" s="9"/>
       <c r="AC419" s="9"/>
     </row>
-    <row r="420" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B420" s="7">
         <v>419</v>
       </c>
@@ -44360,7 +44458,7 @@
       <c r="AB420" s="9"/>
       <c r="AC420" s="9"/>
     </row>
-    <row r="421" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B421" s="7">
         <v>420</v>
       </c>
@@ -44419,7 +44517,7 @@
       </c>
       <c r="AC421" s="9"/>
     </row>
-    <row r="422" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B422" s="7">
         <v>421</v>
       </c>
@@ -44468,7 +44566,7 @@
       <c r="AB422" s="9"/>
       <c r="AC422" s="9"/>
     </row>
-    <row r="423" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B423" s="7">
         <v>422</v>
       </c>
@@ -44522,7 +44620,7 @@
       <c r="AB423" s="9"/>
       <c r="AC423" s="9"/>
     </row>
-    <row r="424" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B424" s="7">
         <v>423</v>
       </c>
@@ -44575,7 +44673,7 @@
       <c r="AB424" s="9"/>
       <c r="AC424" s="9"/>
     </row>
-    <row r="425" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B425" s="7">
         <v>424</v>
       </c>
@@ -44624,7 +44722,7 @@
       <c r="AB425" s="9"/>
       <c r="AC425" s="9"/>
     </row>
-    <row r="426" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B426" s="7">
         <v>425</v>
       </c>
@@ -44673,7 +44771,7 @@
       <c r="AB426" s="9"/>
       <c r="AC426" s="9"/>
     </row>
-    <row r="427" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B427" s="7">
         <v>426</v>
       </c>
@@ -44726,7 +44824,7 @@
       <c r="AB427" s="9"/>
       <c r="AC427" s="9"/>
     </row>
-    <row r="428" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B428" s="7">
         <v>427</v>
       </c>
@@ -44779,7 +44877,7 @@
       <c r="AB428" s="9"/>
       <c r="AC428" s="9"/>
     </row>
-    <row r="429" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B429" s="7">
         <v>428</v>
       </c>
@@ -44832,7 +44930,7 @@
       <c r="AB429" s="9"/>
       <c r="AC429" s="9"/>
     </row>
-    <row r="430" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B430" s="7">
         <v>429</v>
       </c>
@@ -44885,7 +44983,7 @@
       <c r="AB430" s="9"/>
       <c r="AC430" s="9"/>
     </row>
-    <row r="431" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B431" s="7">
         <v>430</v>
       </c>
@@ -44938,7 +45036,7 @@
       <c r="AB431" s="9"/>
       <c r="AC431" s="9"/>
     </row>
-    <row r="432" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B432" s="7">
         <v>431</v>
       </c>
@@ -44991,7 +45089,7 @@
       <c r="AB432" s="9"/>
       <c r="AC432" s="9"/>
     </row>
-    <row r="433" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B433" s="7">
         <v>432</v>
       </c>
@@ -45042,7 +45140,7 @@
       <c r="AB433" s="9"/>
       <c r="AC433" s="9"/>
     </row>
-    <row r="434" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B434" s="7">
         <v>433</v>
       </c>
@@ -45097,7 +45195,7 @@
       <c r="AB434" s="9"/>
       <c r="AC434" s="9"/>
     </row>
-    <row r="435" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B435" s="7">
         <v>434</v>
       </c>
@@ -45150,7 +45248,7 @@
       <c r="AB435" s="9"/>
       <c r="AC435" s="9"/>
     </row>
-    <row r="436" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B436" s="7">
         <v>435</v>
       </c>
@@ -45209,7 +45307,7 @@
       </c>
       <c r="AC436" s="9"/>
     </row>
-    <row r="437" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B437" s="7">
         <v>436</v>
       </c>
@@ -45262,7 +45360,7 @@
       <c r="AB437" s="9"/>
       <c r="AC437" s="9"/>
     </row>
-    <row r="438" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B438" s="7">
         <v>437</v>
       </c>
@@ -45315,7 +45413,7 @@
       <c r="AB438" s="9"/>
       <c r="AC438" s="9"/>
     </row>
-    <row r="439" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B439" s="7">
         <v>438</v>
       </c>
@@ -45366,7 +45464,7 @@
       <c r="AB439" s="9"/>
       <c r="AC439" s="9"/>
     </row>
-    <row r="440" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B440" s="7">
         <v>439</v>
       </c>
@@ -45417,7 +45515,7 @@
       <c r="AB440" s="9"/>
       <c r="AC440" s="9"/>
     </row>
-    <row r="441" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B441" s="7">
         <v>440</v>
       </c>
@@ -45470,7 +45568,7 @@
       <c r="AB441" s="9"/>
       <c r="AC441" s="9"/>
     </row>
-    <row r="442" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B442" s="7">
         <v>441</v>
       </c>
@@ -45523,7 +45621,7 @@
       <c r="AB442" s="9"/>
       <c r="AC442" s="9"/>
     </row>
-    <row r="443" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B443" s="7">
         <v>442</v>
       </c>
@@ -45576,7 +45674,7 @@
       <c r="AB443" s="9"/>
       <c r="AC443" s="9"/>
     </row>
-    <row r="444" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B444" s="7">
         <v>443</v>
       </c>
@@ -45629,7 +45727,7 @@
       <c r="AB444" s="9"/>
       <c r="AC444" s="9"/>
     </row>
-    <row r="445" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B445" s="7">
         <v>444</v>
       </c>
@@ -45682,7 +45780,7 @@
       <c r="AB445" s="9"/>
       <c r="AC445" s="9"/>
     </row>
-    <row r="446" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B446" s="7">
         <v>445</v>
       </c>
@@ -45731,7 +45829,7 @@
       <c r="AB446" s="9"/>
       <c r="AC446" s="9"/>
     </row>
-    <row r="447" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B447" s="7">
         <v>446</v>
       </c>
@@ -45780,7 +45878,7 @@
       <c r="AB447" s="9"/>
       <c r="AC447" s="9"/>
     </row>
-    <row r="448" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B448" s="7">
         <v>447</v>
       </c>
@@ -45831,7 +45929,7 @@
       <c r="AB448" s="9"/>
       <c r="AC448" s="9"/>
     </row>
-    <row r="449" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B449" s="7">
         <v>448</v>
       </c>
@@ -45882,7 +45980,7 @@
       <c r="AB449" s="9"/>
       <c r="AC449" s="9"/>
     </row>
-    <row r="450" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B450" s="7">
         <v>449</v>
       </c>
@@ -45935,7 +46033,7 @@
       <c r="AB450" s="9"/>
       <c r="AC450" s="9"/>
     </row>
-    <row r="451" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B451" s="7">
         <v>450</v>
       </c>
@@ -45984,7 +46082,7 @@
       <c r="AB451" s="9"/>
       <c r="AC451" s="9"/>
     </row>
-    <row r="452" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B452" s="7">
         <v>451</v>
       </c>
@@ -46037,7 +46135,7 @@
       <c r="AB452" s="9"/>
       <c r="AC452" s="9"/>
     </row>
-    <row r="453" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B453" s="7">
         <v>452</v>
       </c>
@@ -46088,7 +46186,7 @@
       <c r="AB453" s="9"/>
       <c r="AC453" s="9"/>
     </row>
-    <row r="454" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B454" s="7">
         <v>453</v>
       </c>
@@ -46139,7 +46237,7 @@
       <c r="AB454" s="9"/>
       <c r="AC454" s="9"/>
     </row>
-    <row r="455" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B455" s="7">
         <v>454</v>
       </c>
@@ -46190,7 +46288,7 @@
       <c r="AB455" s="9"/>
       <c r="AC455" s="9"/>
     </row>
-    <row r="456" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B456" s="7">
         <v>455</v>
       </c>
@@ -46241,7 +46339,7 @@
       <c r="AB456" s="9"/>
       <c r="AC456" s="9"/>
     </row>
-    <row r="457" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B457" s="7">
         <v>456</v>
       </c>
@@ -46294,7 +46392,7 @@
       <c r="AB457" s="9"/>
       <c r="AC457" s="9"/>
     </row>
-    <row r="458" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B458" s="7">
         <v>457</v>
       </c>
@@ -46345,7 +46443,7 @@
       <c r="AB458" s="9"/>
       <c r="AC458" s="9"/>
     </row>
-    <row r="459" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B459" s="7">
         <v>458</v>
       </c>
@@ -46394,7 +46492,7 @@
       <c r="AB459" s="9"/>
       <c r="AC459" s="9"/>
     </row>
-    <row r="460" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B460" s="7">
         <v>459</v>
       </c>
@@ -46443,7 +46541,7 @@
       <c r="AB460" s="9"/>
       <c r="AC460" s="9"/>
     </row>
-    <row r="461" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B461" s="7">
         <v>460</v>
       </c>
@@ -46492,7 +46590,7 @@
       <c r="AB461" s="9"/>
       <c r="AC461" s="9"/>
     </row>
-    <row r="462" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B462" s="7">
         <v>461</v>
       </c>
@@ -46541,7 +46639,7 @@
       <c r="AB462" s="9"/>
       <c r="AC462" s="9"/>
     </row>
-    <row r="463" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B463" s="7">
         <v>462</v>
       </c>
@@ -46596,7 +46694,7 @@
       <c r="AB463" s="9"/>
       <c r="AC463" s="9"/>
     </row>
-    <row r="464" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B464" s="7">
         <v>463</v>
       </c>
@@ -46645,7 +46743,7 @@
       <c r="AB464" s="9"/>
       <c r="AC464" s="9"/>
     </row>
-    <row r="465" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B465" s="7">
         <v>464</v>
       </c>
@@ -46698,7 +46796,7 @@
       <c r="AB465" s="9"/>
       <c r="AC465" s="9"/>
     </row>
-    <row r="466" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B466" s="7">
         <v>465</v>
       </c>
@@ -46751,7 +46849,7 @@
       <c r="AB466" s="9"/>
       <c r="AC466" s="9"/>
     </row>
-    <row r="467" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B467" s="7">
         <v>466</v>
       </c>
@@ -46804,7 +46902,7 @@
       <c r="AB467" s="9"/>
       <c r="AC467" s="9"/>
     </row>
-    <row r="468" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B468" s="7">
         <v>467</v>
       </c>
@@ -46857,7 +46955,7 @@
       <c r="AB468" s="9"/>
       <c r="AC468" s="9"/>
     </row>
-    <row r="469" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B469" s="7">
         <v>468</v>
       </c>
@@ -46910,7 +47008,7 @@
       <c r="AB469" s="9"/>
       <c r="AC469" s="9"/>
     </row>
-    <row r="470" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B470" s="7">
         <v>469</v>
       </c>
@@ -46963,7 +47061,7 @@
       <c r="AB470" s="9"/>
       <c r="AC470" s="9"/>
     </row>
-    <row r="471" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B471" s="7">
         <v>470</v>
       </c>
@@ -47016,7 +47114,7 @@
       <c r="AB471" s="9"/>
       <c r="AC471" s="9"/>
     </row>
-    <row r="472" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B472" s="7">
         <v>471</v>
       </c>
@@ -47069,7 +47167,7 @@
       <c r="AB472" s="9"/>
       <c r="AC472" s="9"/>
     </row>
-    <row r="473" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B473" s="7">
         <v>472</v>
       </c>
@@ -47122,7 +47220,7 @@
       <c r="AB473" s="9"/>
       <c r="AC473" s="9"/>
     </row>
-    <row r="474" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B474" s="7">
         <v>473</v>
       </c>
@@ -47175,7 +47273,7 @@
       <c r="AB474" s="9"/>
       <c r="AC474" s="9"/>
     </row>
-    <row r="475" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B475" s="7">
         <v>474</v>
       </c>
@@ -47228,7 +47326,7 @@
       <c r="AB475" s="9"/>
       <c r="AC475" s="9"/>
     </row>
-    <row r="476" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B476" s="7">
         <v>475</v>
       </c>
@@ -47281,7 +47379,7 @@
       <c r="AB476" s="9"/>
       <c r="AC476" s="9"/>
     </row>
-    <row r="477" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B477" s="7">
         <v>476</v>
       </c>
@@ -47334,7 +47432,7 @@
       <c r="AB477" s="9"/>
       <c r="AC477" s="9"/>
     </row>
-    <row r="478" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B478" s="7">
         <v>477</v>
       </c>
@@ -47387,7 +47485,7 @@
       <c r="AB478" s="9"/>
       <c r="AC478" s="9"/>
     </row>
-    <row r="479" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B479" s="7">
         <v>478</v>
       </c>
@@ -47440,7 +47538,7 @@
       <c r="AB479" s="9"/>
       <c r="AC479" s="9"/>
     </row>
-    <row r="480" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B480" s="7">
         <v>479</v>
       </c>
@@ -47493,7 +47591,7 @@
       <c r="AB480" s="9"/>
       <c r="AC480" s="9"/>
     </row>
-    <row r="481" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B481" s="7">
         <v>480</v>
       </c>
@@ -47546,7 +47644,7 @@
       <c r="AB481" s="9"/>
       <c r="AC481" s="9"/>
     </row>
-    <row r="482" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B482" s="7">
         <v>481</v>
       </c>
@@ -47599,7 +47697,7 @@
       <c r="AB482" s="9"/>
       <c r="AC482" s="9"/>
     </row>
-    <row r="483" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B483" s="7">
         <v>482</v>
       </c>
@@ -47652,7 +47750,7 @@
       <c r="AB483" s="9"/>
       <c r="AC483" s="9"/>
     </row>
-    <row r="484" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B484" s="7">
         <v>483</v>
       </c>
@@ -47705,7 +47803,7 @@
       <c r="AB484" s="9"/>
       <c r="AC484" s="9"/>
     </row>
-    <row r="485" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B485" s="7">
         <v>484</v>
       </c>
@@ -47758,7 +47856,7 @@
       <c r="AB485" s="9"/>
       <c r="AC485" s="9"/>
     </row>
-    <row r="486" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:29" ht="87" x14ac:dyDescent="0.35">
       <c r="B486" s="7">
         <v>485</v>
       </c>
@@ -47817,7 +47915,7 @@
       </c>
       <c r="AC486" s="9"/>
     </row>
-    <row r="487" spans="2:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:29" ht="87" x14ac:dyDescent="0.35">
       <c r="B487" s="7">
         <v>486</v>
       </c>
@@ -47870,7 +47968,7 @@
       <c r="AB487" s="9"/>
       <c r="AC487" s="9"/>
     </row>
-    <row r="488" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B488" s="7">
         <v>487</v>
       </c>
@@ -47919,7 +48017,7 @@
       <c r="AB488" s="9"/>
       <c r="AC488" s="9"/>
     </row>
-    <row r="489" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B489" s="7">
         <v>488</v>
       </c>
@@ -47968,7 +48066,7 @@
       <c r="AB489" s="9"/>
       <c r="AC489" s="9"/>
     </row>
-    <row r="490" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B490" s="7">
         <v>489</v>
       </c>
@@ -48020,7 +48118,7 @@
       <c r="AB490" s="9"/>
       <c r="AC490" s="9"/>
     </row>
-    <row r="491" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B491" s="7">
         <v>490</v>
       </c>
@@ -48073,7 +48171,7 @@
       <c r="AB491" s="9"/>
       <c r="AC491" s="9"/>
     </row>
-    <row r="492" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B492" s="7">
         <v>491</v>
       </c>
@@ -48132,7 +48230,7 @@
       </c>
       <c r="AC492" s="9"/>
     </row>
-    <row r="493" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B493" s="7">
         <v>492</v>
       </c>
@@ -48191,7 +48289,7 @@
       </c>
       <c r="AC493" s="9"/>
     </row>
-    <row r="494" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B494" s="7">
         <v>493</v>
       </c>
@@ -48250,7 +48348,7 @@
       </c>
       <c r="AC494" s="9"/>
     </row>
-    <row r="495" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B495" s="7">
         <v>494</v>
       </c>
@@ -48299,7 +48397,7 @@
       <c r="AB495" s="9"/>
       <c r="AC495" s="9"/>
     </row>
-    <row r="496" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B496" s="7">
         <v>495</v>
       </c>
@@ -48350,7 +48448,7 @@
       <c r="AB496" s="9"/>
       <c r="AC496" s="9"/>
     </row>
-    <row r="497" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B497" s="7">
         <v>496</v>
       </c>
@@ -48399,7 +48497,7 @@
       <c r="AB497" s="9"/>
       <c r="AC497" s="9"/>
     </row>
-    <row r="498" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B498" s="7">
         <v>497</v>
       </c>
@@ -48448,7 +48546,7 @@
       <c r="AB498" s="9"/>
       <c r="AC498" s="9"/>
     </row>
-    <row r="499" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B499" s="7">
         <v>498</v>
       </c>
@@ -48497,7 +48595,7 @@
       <c r="AB499" s="9"/>
       <c r="AC499" s="9"/>
     </row>
-    <row r="500" spans="2:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:29" ht="58" x14ac:dyDescent="0.35">
       <c r="B500" s="7">
         <v>499</v>
       </c>
@@ -48550,7 +48648,7 @@
       <c r="AB500" s="9"/>
       <c r="AC500" s="9"/>
     </row>
-    <row r="501" spans="2:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B501" s="7">
         <v>500</v>
       </c>
@@ -48603,7 +48701,7 @@
       <c r="AB501" s="9"/>
       <c r="AC501" s="9"/>
     </row>
-    <row r="502" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B502" s="7">
         <v>501</v>
       </c>
@@ -48656,7 +48754,7 @@
       <c r="AB502" s="9"/>
       <c r="AC502" s="9"/>
     </row>
-    <row r="503" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B503" s="7">
         <v>502</v>
       </c>
@@ -48709,7 +48807,7 @@
       <c r="AB503" s="9"/>
       <c r="AC503" s="9"/>
     </row>
-    <row r="504" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B504" s="7">
         <v>503</v>
       </c>
@@ -48762,7 +48860,7 @@
       <c r="AB504" s="9"/>
       <c r="AC504" s="9"/>
     </row>
-    <row r="505" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B505" s="7">
         <v>504</v>
       </c>
@@ -48815,7 +48913,7 @@
       <c r="AB505" s="9"/>
       <c r="AC505" s="9"/>
     </row>
-    <row r="506" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B506" s="7">
         <v>505</v>
       </c>
@@ -48868,7 +48966,7 @@
       <c r="AB506" s="9"/>
       <c r="AC506" s="9"/>
     </row>
-    <row r="507" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B507" s="7">
         <v>506</v>
       </c>
@@ -48921,7 +49019,7 @@
       <c r="AB507" s="9"/>
       <c r="AC507" s="9"/>
     </row>
-    <row r="508" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B508" s="7">
         <v>507</v>
       </c>
@@ -48982,7 +49080,7 @@
       </c>
       <c r="AC508" s="9"/>
     </row>
-    <row r="509" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B509" s="7">
         <v>508</v>
       </c>
@@ -49039,7 +49137,7 @@
       </c>
       <c r="AC509" s="9"/>
     </row>
-    <row r="510" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B510" s="7">
         <v>509</v>
       </c>
@@ -49086,7 +49184,7 @@
       <c r="AB510" s="9"/>
       <c r="AC510" s="9"/>
     </row>
-    <row r="511" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B511" s="7">
         <v>510</v>
       </c>
@@ -49131,7 +49229,7 @@
       <c r="AB511" s="9"/>
       <c r="AC511" s="9"/>
     </row>
-    <row r="512" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B512" s="7">
         <v>511</v>
       </c>
@@ -49182,7 +49280,7 @@
       <c r="AB512" s="9"/>
       <c r="AC512" s="9"/>
     </row>
-    <row r="513" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B513" s="7">
         <v>512</v>
       </c>
@@ -49233,7 +49331,7 @@
       <c r="AB513" s="9"/>
       <c r="AC513" s="9"/>
     </row>
-    <row r="514" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B514" s="7">
         <v>513</v>
       </c>
@@ -49284,7 +49382,7 @@
       <c r="AB514" s="9"/>
       <c r="AC514" s="9"/>
     </row>
-    <row r="515" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B515" s="7">
         <v>514</v>
       </c>
@@ -49335,7 +49433,7 @@
       <c r="AB515" s="9"/>
       <c r="AC515" s="9"/>
     </row>
-    <row r="516" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B516" s="7">
         <v>515</v>
       </c>
@@ -49386,7 +49484,7 @@
       <c r="AB516" s="9"/>
       <c r="AC516" s="9"/>
     </row>
-    <row r="517" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B517" s="7">
         <v>516</v>
       </c>
@@ -49437,7 +49535,7 @@
       <c r="AB517" s="9"/>
       <c r="AC517" s="9"/>
     </row>
-    <row r="518" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B518" s="7">
         <v>517</v>
       </c>
@@ -49492,7 +49590,7 @@
       <c r="AB518" s="9"/>
       <c r="AC518" s="9"/>
     </row>
-    <row r="519" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B519" s="7">
         <v>518</v>
       </c>
@@ -49547,7 +49645,7 @@
       <c r="AB519" s="9"/>
       <c r="AC519" s="9"/>
     </row>
-    <row r="520" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B520" s="7">
         <v>519</v>
       </c>
@@ -49602,7 +49700,7 @@
       <c r="AB520" s="9"/>
       <c r="AC520" s="9"/>
     </row>
-    <row r="521" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B521" s="7">
         <v>520</v>
       </c>
@@ -49657,7 +49755,7 @@
       <c r="AB521" s="9"/>
       <c r="AC521" s="9"/>
     </row>
-    <row r="522" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B522" s="7">
         <v>521</v>
       </c>
@@ -49712,7 +49810,7 @@
       <c r="AB522" s="9"/>
       <c r="AC522" s="9"/>
     </row>
-    <row r="523" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B523" s="7">
         <v>522</v>
       </c>
@@ -49767,7 +49865,7 @@
       <c r="AB523" s="9"/>
       <c r="AC523" s="9"/>
     </row>
-    <row r="524" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B524" s="7">
         <v>523</v>
       </c>
@@ -49822,7 +49920,7 @@
       <c r="AB524" s="9"/>
       <c r="AC524" s="9"/>
     </row>
-    <row r="525" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B525" s="7">
         <v>524</v>
       </c>
@@ -49877,7 +49975,7 @@
       <c r="AB525" s="9"/>
       <c r="AC525" s="9"/>
     </row>
-    <row r="526" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B526" s="7">
         <v>525</v>
       </c>
@@ -49932,7 +50030,7 @@
       <c r="AB526" s="9"/>
       <c r="AC526" s="9"/>
     </row>
-    <row r="527" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B527" s="7">
         <v>526</v>
       </c>
@@ -49987,7 +50085,7 @@
       <c r="AB527" s="9"/>
       <c r="AC527" s="9"/>
     </row>
-    <row r="528" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B528" s="7">
         <v>527</v>
       </c>
@@ -50042,7 +50140,7 @@
       <c r="AB528" s="9"/>
       <c r="AC528" s="9"/>
     </row>
-    <row r="529" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B529" s="7">
         <v>528</v>
       </c>
@@ -50097,7 +50195,7 @@
       <c r="AB529" s="9"/>
       <c r="AC529" s="9"/>
     </row>
-    <row r="530" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B530" s="7">
         <v>529</v>
       </c>
@@ -50146,7 +50244,7 @@
       <c r="AB530" s="9"/>
       <c r="AC530" s="9"/>
     </row>
-    <row r="531" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B531" s="7">
         <v>530</v>
       </c>
@@ -50199,7 +50297,7 @@
       <c r="AB531" s="9"/>
       <c r="AC531" s="9"/>
     </row>
-    <row r="532" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B532" s="7">
         <v>531</v>
       </c>
@@ -50250,7 +50348,7 @@
       <c r="AB532" s="9"/>
       <c r="AC532" s="9"/>
     </row>
-    <row r="533" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B533" s="7">
         <v>532</v>
       </c>
@@ -50303,7 +50401,7 @@
       <c r="AB533" s="9"/>
       <c r="AC533" s="9"/>
     </row>
-    <row r="534" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B534" s="7">
         <v>533</v>
       </c>
@@ -50356,7 +50454,7 @@
       <c r="AB534" s="9"/>
       <c r="AC534" s="9"/>
     </row>
-    <row r="535" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B535" s="7">
         <v>534</v>
       </c>
@@ -50407,7 +50505,7 @@
       <c r="AB535" s="9"/>
       <c r="AC535" s="9"/>
     </row>
-    <row r="536" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B536" s="7">
         <v>535</v>
       </c>
@@ -50458,7 +50556,7 @@
       <c r="AB536" s="9"/>
       <c r="AC536" s="9"/>
     </row>
-    <row r="537" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B537" s="7">
         <v>536</v>
       </c>
@@ -50509,7 +50607,7 @@
       <c r="AB537" s="9"/>
       <c r="AC537" s="9"/>
     </row>
-    <row r="538" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B538" s="7">
         <v>537</v>
       </c>
@@ -50560,7 +50658,7 @@
       <c r="AB538" s="9"/>
       <c r="AC538" s="9"/>
     </row>
-    <row r="539" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B539" s="7">
         <v>538</v>
       </c>
@@ -50611,7 +50709,7 @@
       <c r="AB539" s="9"/>
       <c r="AC539" s="9"/>
     </row>
-    <row r="540" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B540" s="7">
         <v>539</v>
       </c>
@@ -50662,7 +50760,7 @@
       <c r="AB540" s="9"/>
       <c r="AC540" s="9"/>
     </row>
-    <row r="541" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B541" s="7">
         <v>540</v>
       </c>
@@ -50713,7 +50811,7 @@
       <c r="AB541" s="9"/>
       <c r="AC541" s="9"/>
     </row>
-    <row r="542" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B542" s="7">
         <v>541</v>
       </c>
@@ -50766,7 +50864,7 @@
       <c r="AB542" s="9"/>
       <c r="AC542" s="9"/>
     </row>
-    <row r="543" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B543" s="7">
         <v>542</v>
       </c>
@@ -50819,7 +50917,7 @@
       <c r="AB543" s="9"/>
       <c r="AC543" s="9"/>
     </row>
-    <row r="544" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B544" s="7">
         <v>543</v>
       </c>
@@ -50872,7 +50970,7 @@
       <c r="AB544" s="9"/>
       <c r="AC544" s="9"/>
     </row>
-    <row r="545" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B545" s="7">
         <v>544</v>
       </c>
@@ -50923,7 +51021,7 @@
       <c r="AB545" s="9"/>
       <c r="AC545" s="9"/>
     </row>
-    <row r="546" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B546" s="7">
         <v>545</v>
       </c>
@@ -50974,7 +51072,7 @@
       <c r="AB546" s="9"/>
       <c r="AC546" s="9"/>
     </row>
-    <row r="547" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B547" s="7">
         <v>546</v>
       </c>
@@ -51025,7 +51123,7 @@
       <c r="AB547" s="9"/>
       <c r="AC547" s="9"/>
     </row>
-    <row r="548" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B548" s="7">
         <v>547</v>
       </c>
@@ -51078,7 +51176,7 @@
       <c r="AB548" s="9"/>
       <c r="AC548" s="9"/>
     </row>
-    <row r="549" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B549" s="7">
         <v>548</v>
       </c>
@@ -51129,7 +51227,7 @@
       <c r="AB549" s="9"/>
       <c r="AC549" s="9"/>
     </row>
-    <row r="550" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B550" s="7">
         <v>549</v>
       </c>
@@ -51180,7 +51278,7 @@
       <c r="AB550" s="9"/>
       <c r="AC550" s="9"/>
     </row>
-    <row r="551" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B551" s="7">
         <v>550</v>
       </c>
@@ -51231,7 +51329,7 @@
       <c r="AB551" s="9"/>
       <c r="AC551" s="9"/>
     </row>
-    <row r="552" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B552" s="7">
         <v>551</v>
       </c>
@@ -51282,7 +51380,7 @@
       <c r="AB552" s="9"/>
       <c r="AC552" s="9"/>
     </row>
-    <row r="553" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B553" s="7">
         <v>552</v>
       </c>
@@ -51333,7 +51431,7 @@
       <c r="AB553" s="9"/>
       <c r="AC553" s="9"/>
     </row>
-    <row r="554" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B554" s="7">
         <v>553</v>
       </c>
@@ -51384,7 +51482,7 @@
       <c r="AB554" s="9"/>
       <c r="AC554" s="9"/>
     </row>
-    <row r="555" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B555" s="7">
         <v>554</v>
       </c>
@@ -51435,7 +51533,7 @@
       <c r="AB555" s="9"/>
       <c r="AC555" s="9"/>
     </row>
-    <row r="556" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B556" s="7">
         <v>555</v>
       </c>
@@ -51486,7 +51584,7 @@
       <c r="AB556" s="9"/>
       <c r="AC556" s="9"/>
     </row>
-    <row r="557" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B557" s="7">
         <v>556</v>
       </c>
@@ -51537,7 +51635,7 @@
       <c r="AB557" s="9"/>
       <c r="AC557" s="9"/>
     </row>
-    <row r="558" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B558" s="7">
         <v>557</v>
       </c>
@@ -51588,7 +51686,7 @@
       <c r="AB558" s="9"/>
       <c r="AC558" s="9"/>
     </row>
-    <row r="559" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B559" s="7">
         <v>558</v>
       </c>
@@ -51639,7 +51737,7 @@
       <c r="AB559" s="9"/>
       <c r="AC559" s="9"/>
     </row>
-    <row r="560" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B560" s="7">
         <v>559</v>
       </c>
@@ -51690,7 +51788,7 @@
       <c r="AB560" s="9"/>
       <c r="AC560" s="9"/>
     </row>
-    <row r="561" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B561" s="7">
         <v>560</v>
       </c>
@@ -51741,7 +51839,7 @@
       <c r="AB561" s="9"/>
       <c r="AC561" s="9"/>
     </row>
-    <row r="562" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B562" s="7">
         <v>561</v>
       </c>
@@ -51792,7 +51890,7 @@
       <c r="AB562" s="9"/>
       <c r="AC562" s="9"/>
     </row>
-    <row r="563" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B563" s="7">
         <v>562</v>
       </c>
@@ -51843,7 +51941,7 @@
       <c r="AB563" s="9"/>
       <c r="AC563" s="9"/>
     </row>
-    <row r="564" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B564" s="7">
         <v>563</v>
       </c>
@@ -51894,7 +51992,7 @@
       <c r="AB564" s="9"/>
       <c r="AC564" s="9"/>
     </row>
-    <row r="565" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B565" s="7">
         <v>564</v>
       </c>
@@ -51945,7 +52043,7 @@
       <c r="AB565" s="9"/>
       <c r="AC565" s="9"/>
     </row>
-    <row r="566" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B566" s="7">
         <v>565</v>
       </c>
@@ -51996,7 +52094,7 @@
       <c r="AB566" s="9"/>
       <c r="AC566" s="9"/>
     </row>
-    <row r="567" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B567" s="7">
         <v>566</v>
       </c>
@@ -52047,7 +52145,7 @@
       <c r="AB567" s="9"/>
       <c r="AC567" s="9"/>
     </row>
-    <row r="568" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B568" s="7">
         <v>567</v>
       </c>
@@ -52098,7 +52196,7 @@
       <c r="AB568" s="9"/>
       <c r="AC568" s="9"/>
     </row>
-    <row r="569" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B569" s="7">
         <v>568</v>
       </c>
@@ -52149,7 +52247,7 @@
       <c r="AB569" s="9"/>
       <c r="AC569" s="9"/>
     </row>
-    <row r="570" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B570" s="7">
         <v>569</v>
       </c>
@@ -52200,7 +52298,7 @@
       <c r="AB570" s="9"/>
       <c r="AC570" s="9"/>
     </row>
-    <row r="571" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B571" s="7">
         <v>570</v>
       </c>
@@ -52251,7 +52349,7 @@
       <c r="AB571" s="9"/>
       <c r="AC571" s="9"/>
     </row>
-    <row r="572" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B572" s="7">
         <v>571</v>
       </c>
@@ -52302,7 +52400,7 @@
       <c r="AB572" s="9"/>
       <c r="AC572" s="9"/>
     </row>
-    <row r="573" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B573" s="7">
         <v>572</v>
       </c>
@@ -52353,7 +52451,7 @@
       <c r="AB573" s="9"/>
       <c r="AC573" s="9"/>
     </row>
-    <row r="574" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B574" s="7">
         <v>573</v>
       </c>
@@ -52406,7 +52504,7 @@
       <c r="AB574" s="9"/>
       <c r="AC574" s="9"/>
     </row>
-    <row r="575" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B575" s="7">
         <v>574</v>
       </c>
@@ -52457,7 +52555,7 @@
       <c r="AB575" s="9"/>
       <c r="AC575" s="9"/>
     </row>
-    <row r="576" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B576" s="7">
         <v>575</v>
       </c>
@@ -52508,7 +52606,7 @@
       <c r="AB576" s="9"/>
       <c r="AC576" s="9"/>
     </row>
-    <row r="577" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B577" s="7">
         <v>576</v>
       </c>
@@ -52559,7 +52657,7 @@
       <c r="AB577" s="9"/>
       <c r="AC577" s="9"/>
     </row>
-    <row r="578" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B578" s="7">
         <v>577</v>
       </c>
@@ -52612,7 +52710,7 @@
       <c r="AB578" s="9"/>
       <c r="AC578" s="9"/>
     </row>
-    <row r="579" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B579" s="7">
         <v>578</v>
       </c>
@@ -52663,7 +52761,7 @@
       <c r="AB579" s="9"/>
       <c r="AC579" s="9"/>
     </row>
-    <row r="580" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B580" s="7">
         <v>579</v>
       </c>
@@ -52714,7 +52812,7 @@
       <c r="AB580" s="9"/>
       <c r="AC580" s="9"/>
     </row>
-    <row r="581" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B581" s="7">
         <v>580</v>
       </c>
@@ -52765,7 +52863,7 @@
       <c r="AB581" s="9"/>
       <c r="AC581" s="9"/>
     </row>
-    <row r="582" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B582" s="7">
         <v>581</v>
       </c>
@@ -52816,7 +52914,7 @@
       <c r="AB582" s="9"/>
       <c r="AC582" s="9"/>
     </row>
-    <row r="583" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B583" s="7">
         <v>582</v>
       </c>
@@ -52865,7 +52963,7 @@
       <c r="AB583" s="9"/>
       <c r="AC583" s="9"/>
     </row>
-    <row r="584" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B584" s="7">
         <v>583</v>
       </c>
@@ -52906,7 +53004,7 @@
       <c r="AB584" s="9"/>
       <c r="AC584" s="9"/>
     </row>
-    <row r="585" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B585" s="7">
         <v>584</v>
       </c>
@@ -52947,7 +53045,7 @@
       <c r="AB585" s="9"/>
       <c r="AC585" s="9"/>
     </row>
-    <row r="586" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B586" s="7">
         <v>585</v>
       </c>
@@ -52992,7 +53090,7 @@
       </c>
       <c r="AC586" s="9"/>
     </row>
-    <row r="587" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B587" s="7">
         <v>586</v>
       </c>
@@ -53035,7 +53133,7 @@
       <c r="Y587" s="9"/>
       <c r="AC587" s="9"/>
     </row>
-    <row r="588" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B588" s="7">
         <v>587</v>
       </c>
@@ -53077,7 +53175,7 @@
       <c r="Y588" s="9"/>
       <c r="AC588" s="9"/>
     </row>
-    <row r="589" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B589" s="7">
         <v>588</v>
       </c>
@@ -53119,7 +53217,7 @@
       <c r="Y589" s="9"/>
       <c r="AC589" s="9"/>
     </row>
-    <row r="590" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B590" s="7">
         <v>589</v>
       </c>
@@ -53161,7 +53259,7 @@
       <c r="Y590" s="9"/>
       <c r="AC590" s="9"/>
     </row>
-    <row r="591" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B591" s="7">
         <v>590</v>
       </c>
@@ -53203,7 +53301,7 @@
       <c r="Y591" s="9"/>
       <c r="AC591" s="9"/>
     </row>
-    <row r="592" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B592" s="7">
         <v>591</v>
       </c>
@@ -53245,7 +53343,7 @@
       <c r="Y592" s="9"/>
       <c r="AC592" s="9"/>
     </row>
-    <row r="593" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B593" s="50">
         <v>592</v>
       </c>
@@ -53287,7 +53385,7 @@
       <c r="Y593" s="51"/>
       <c r="AC593" s="51"/>
     </row>
-    <row r="594" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B594" s="53">
         <v>593</v>
       </c>
@@ -53339,7 +53437,7 @@
       <c r="AB594" s="9"/>
       <c r="AC594" s="9"/>
     </row>
-    <row r="595" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B595" s="53">
         <v>594</v>
       </c>
@@ -53391,13 +53489,13 @@
       <c r="AB595" s="9"/>
       <c r="AC595" s="9"/>
     </row>
-    <row r="596" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:29" x14ac:dyDescent="0.35">
       <c r="E596" s="46"/>
     </row>
-    <row r="597" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E597" s="47"/>
     </row>
-    <row r="598" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I598" s="26" t="s">
         <v>1698</v>
       </c>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78BF22-BA0F-45CC-94CC-E854B31ECB76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D788EA0-E3F3-48CE-AE43-8BDA654915C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,20 +17,15 @@
     <sheet name="Consolidated" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$A$4:$AB$595</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidated!$A$4:$AB$601</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5099" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5146" uniqueCount="1910">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6259,12 +6254,99 @@
   <si>
     <t>MOS-25615</t>
   </si>
+  <si>
+    <t>MOS-28744</t>
+  </si>
+  <si>
+    <t>API: Update the Sync API used by Registration Client to add additional tables for 'Center Working days' and 'Center Exceptional holidays'</t>
+  </si>
+  <si>
+    <t>API: Update the API to fetch Registration Center details to accommodate DB changes</t>
+  </si>
+  <si>
+    <t>MOS-28731</t>
+  </si>
+  <si>
+    <t>MOS-28736</t>
+  </si>
+  <si>
+    <t>API: System should be able to fetch any defined exceptional holiday dates for a Center based on a Center ID</t>
+  </si>
+  <si>
+    <t>MOS-28730</t>
+  </si>
+  <si>
+    <t>API: System should be able to fetch working days for a Center based on a Center ID</t>
+  </si>
+  <si>
+    <t>MOS-28631</t>
+  </si>
+  <si>
+    <t>API: Change the Location Create API back to single input API</t>
+  </si>
+  <si>
+    <t>API: Change the Device Create API back to single input API</t>
+  </si>
+  <si>
+    <t>MOS-28630</t>
+  </si>
+  <si>
+    <t>MOS-28629</t>
+  </si>
+  <si>
+    <t>API: Implement a Utility to validate multi language input for a Masterdata</t>
+  </si>
+  <si>
+    <t>MOS-28746</t>
+  </si>
+  <si>
+    <t>MOS-28748</t>
+  </si>
+  <si>
+    <t>API: Center Create/Update API : Change bulk API to a single input API</t>
+  </si>
+  <si>
+    <t>API: As the Admin Application, I should be able to identify weather a User can access status of a Packet based on the RID and User's Administrative Zone</t>
+  </si>
+  <si>
+    <t>UI: Integrate with Updated APIs for Center Create/Update</t>
+  </si>
+  <si>
+    <t>Zone Authorization on Packet Status Feature</t>
+  </si>
+  <si>
+    <t>UI: Center Create/Update Integration with updated APIs</t>
+  </si>
+  <si>
+    <t>API: Utility to check multi-language validation</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>UI-5</t>
+  </si>
+  <si>
+    <t>API-20</t>
+  </si>
+  <si>
+    <t>API-18</t>
+  </si>
+  <si>
+    <t>API-19</t>
+  </si>
+  <si>
+    <t>API-21</t>
+  </si>
+  <si>
+    <t>API-22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6370,6 +6452,13 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -6502,7 +6591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6635,9 +6724,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6674,6 +6760,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6682,6 +6771,13 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -21926,7 +22022,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22567,13 +22663,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC598"/>
+  <dimension ref="A1:AC607"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C160" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -22583,7 +22679,7 @@
     <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="62.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7265625" style="8" hidden="1" customWidth="1"/>
     <col min="9" max="11" width="12.81640625" style="8" customWidth="1"/>
@@ -22608,7 +22704,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21"/>
-      <c r="K1" s="47"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="59" t="s">
@@ -22616,11 +22712,11 @@
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="61"/>
-      <c r="K2" s="47"/>
+      <c r="K2" s="46"/>
       <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="K3" s="47"/>
+      <c r="K3" s="46"/>
       <c r="AA3" s="21"/>
     </row>
     <row r="4" spans="1:29" ht="70" x14ac:dyDescent="0.35">
@@ -23091,7 +23187,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -23203,7 +23299,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -23391,7 +23487,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -23906,7 +24002,7 @@
       <c r="K29" s="45">
         <v>30</v>
       </c>
-      <c r="L29" s="57" t="s">
+      <c r="L29" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M29" s="12"/>
@@ -24032,7 +24128,7 @@
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="57" t="s">
+      <c r="L32" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M32" s="12"/>
@@ -24116,7 +24212,7 @@
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="45"/>
-      <c r="L34" s="57" t="s">
+      <c r="L34" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M34" s="12"/>
@@ -24291,7 +24387,7 @@
       <c r="F38" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="53" t="s">
         <v>1841</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -24531,7 +24627,7 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -24637,7 +24733,7 @@
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
     </row>
-    <row r="45" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -24691,7 +24787,7 @@
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
     </row>
-    <row r="46" spans="2:29" ht="154" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -24995,7 +25091,7 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -25641,7 +25737,7 @@
       </c>
       <c r="AC63" s="9"/>
     </row>
-    <row r="64" spans="2:29" ht="280" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:29" ht="294" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>61</v>
       </c>
@@ -25818,7 +25914,7 @@
       <c r="K67" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L67" s="48" t="s">
+      <c r="L67" s="47" t="s">
         <v>711</v>
       </c>
       <c r="M67" s="12" t="s">
@@ -26218,7 +26314,7 @@
       <c r="K75" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L75" s="48" t="s">
+      <c r="L75" s="47" t="s">
         <v>711</v>
       </c>
       <c r="M75" s="12" t="s">
@@ -26247,58 +26343,58 @@
       <c r="B76" s="7">
         <v>76</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="47" t="s">
         <v>1805</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="47" t="s">
         <v>1729</v>
       </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="47" t="s">
         <v>712</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H76" s="48" t="s">
+      <c r="H76" s="47" t="s">
         <v>1679</v>
       </c>
-      <c r="I76" s="48" t="s">
+      <c r="I76" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J76" s="48" t="s">
+      <c r="J76" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K76" s="48" t="s">
+      <c r="K76" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="L76" s="48" t="s">
+      <c r="L76" s="47" t="s">
         <v>711</v>
       </c>
-      <c r="M76" s="48" t="s">
+      <c r="M76" s="47" t="s">
         <v>992</v>
       </c>
-      <c r="N76" s="48"/>
-      <c r="O76" s="48">
+      <c r="N76" s="47"/>
+      <c r="O76" s="47">
         <v>70</v>
       </c>
-      <c r="P76" s="48" t="s">
+      <c r="P76" s="47" t="s">
         <v>1681</v>
       </c>
       <c r="Q76" s="9"/>
-      <c r="R76" s="48"/>
-      <c r="S76" s="48"/>
-      <c r="T76" s="48"/>
-      <c r="U76" s="48"/>
-      <c r="V76" s="48"/>
-      <c r="W76" s="48"/>
-      <c r="X76" s="48"/>
-      <c r="Y76" s="48" t="s">
+      <c r="R76" s="47"/>
+      <c r="S76" s="47"/>
+      <c r="T76" s="47"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="47" t="s">
         <v>1681</v>
       </c>
-      <c r="Z76" s="48"/>
+      <c r="Z76" s="47"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
@@ -26331,7 +26427,7 @@
       <c r="J77" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="K77" s="54">
+      <c r="K77" s="53">
         <v>1</v>
       </c>
       <c r="L77" s="12" t="s">
@@ -26579,7 +26675,7 @@
       <c r="J81" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="K81" s="54">
+      <c r="K81" s="53">
         <v>3</v>
       </c>
       <c r="L81" s="12" t="s">
@@ -26649,7 +26745,7 @@
       <c r="L82" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="M82" s="48" t="s">
+      <c r="M82" s="47" t="s">
         <v>992</v>
       </c>
       <c r="N82" s="12" t="s">
@@ -26703,7 +26799,7 @@
       <c r="J83" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="K83" s="54">
+      <c r="K83" s="53">
         <v>2</v>
       </c>
       <c r="L83" s="12" t="s">
@@ -27274,7 +27370,7 @@
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
     </row>
-    <row r="94" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B94" s="7">
         <v>92</v>
       </c>
@@ -27722,7 +27818,7 @@
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
     </row>
-    <row r="103" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <v>101</v>
       </c>
@@ -27966,7 +28062,7 @@
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
     </row>
-    <row r="108" spans="2:29" ht="322" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B108" s="7">
         <v>106</v>
       </c>
@@ -28290,7 +28386,7 @@
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
     </row>
-    <row r="114" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B114" s="7">
         <v>112</v>
       </c>
@@ -28342,7 +28438,7 @@
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
     </row>
-    <row r="115" spans="2:29" ht="378" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:29" ht="392" x14ac:dyDescent="0.35">
       <c r="B115" s="7">
         <v>113</v>
       </c>
@@ -28664,7 +28760,7 @@
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
     </row>
-    <row r="121" spans="2:29" ht="294" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B121" s="7">
         <v>119</v>
       </c>
@@ -28768,7 +28864,7 @@
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
     </row>
-    <row r="123" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B123" s="7">
         <v>121</v>
       </c>
@@ -28926,7 +29022,7 @@
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
     </row>
-    <row r="126" spans="2:29" ht="364" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:29" ht="392" x14ac:dyDescent="0.35">
       <c r="B126" s="7">
         <v>124</v>
       </c>
@@ -29036,7 +29132,7 @@
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
     </row>
-    <row r="128" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B128" s="7">
         <v>126</v>
       </c>
@@ -29302,7 +29398,7 @@
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
     </row>
-    <row r="133" spans="2:29" ht="112" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B133" s="7">
         <v>131</v>
       </c>
@@ -29795,7 +29891,7 @@
       <c r="K142" s="45">
         <v>13</v>
       </c>
-      <c r="L142" s="54" t="s">
+      <c r="L142" s="53" t="s">
         <v>907</v>
       </c>
       <c r="M142" s="12"/>
@@ -29857,7 +29953,7 @@
       <c r="K143" s="45">
         <v>6</v>
       </c>
-      <c r="L143" s="54" t="s">
+      <c r="L143" s="53" t="s">
         <v>907</v>
       </c>
       <c r="M143" s="12"/>
@@ -29888,7 +29984,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="144" spans="2:29" ht="98" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B144" s="7">
         <v>142</v>
       </c>
@@ -29952,7 +30048,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="145" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B145" s="7">
         <v>143</v>
       </c>
@@ -29983,7 +30079,7 @@
       <c r="K145" s="45">
         <v>26</v>
       </c>
-      <c r="L145" s="54" t="s">
+      <c r="L145" s="53" t="s">
         <v>869</v>
       </c>
       <c r="M145" s="12"/>
@@ -30011,7 +30107,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="146" spans="2:29" ht="238" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B146" s="7">
         <v>144</v>
       </c>
@@ -30042,7 +30138,7 @@
       <c r="K146" s="45">
         <v>15</v>
       </c>
-      <c r="L146" s="54" t="s">
+      <c r="L146" s="53" t="s">
         <v>907</v>
       </c>
       <c r="M146" s="12"/>
@@ -30099,10 +30195,10 @@
       <c r="J147" s="12" t="s">
         <v>991</v>
       </c>
-      <c r="K147" s="54">
+      <c r="K147" s="53">
         <v>19</v>
       </c>
-      <c r="L147" s="54" t="s">
+      <c r="L147" s="53" t="s">
         <v>907</v>
       </c>
       <c r="M147" s="12"/>
@@ -30161,10 +30257,10 @@
       <c r="J148" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="K148" s="54">
+      <c r="K148" s="53">
         <v>14</v>
       </c>
-      <c r="L148" s="54" t="s">
+      <c r="L148" s="53" t="s">
         <v>907</v>
       </c>
       <c r="M148" s="12"/>
@@ -30213,10 +30309,10 @@
       <c r="J149" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="K149" s="54">
+      <c r="K149" s="53">
         <v>16</v>
       </c>
-      <c r="L149" s="54" t="s">
+      <c r="L149" s="53" t="s">
         <v>907</v>
       </c>
       <c r="M149" s="13"/>
@@ -30243,7 +30339,7 @@
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
     </row>
-    <row r="150" spans="2:29" ht="322" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B150" s="7">
         <v>149</v>
       </c>
@@ -30269,7 +30365,7 @@
       <c r="J150" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="K150" s="54">
+      <c r="K150" s="53">
         <v>7</v>
       </c>
       <c r="L150" s="13" t="s">
@@ -30347,7 +30443,7 @@
       <c r="AB151" s="9"/>
       <c r="AC151" s="9"/>
     </row>
-    <row r="152" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B152" s="7">
         <v>151</v>
       </c>
@@ -30445,7 +30541,7 @@
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
     </row>
-    <row r="154" spans="2:29" ht="280" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:29" ht="294" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>153</v>
       </c>
@@ -31223,7 +31319,7 @@
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
     </row>
-    <row r="169" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B169" s="7">
         <v>168</v>
       </c>
@@ -31460,7 +31556,7 @@
       <c r="K173" s="45">
         <v>22</v>
       </c>
-      <c r="L173" s="57" t="s">
+      <c r="L173" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M173" s="12"/>
@@ -31763,7 +31859,7 @@
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
     </row>
-    <row r="179" spans="2:29" ht="140" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B179" s="7">
         <v>178</v>
       </c>
@@ -31939,7 +32035,7 @@
       <c r="F182" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="G182" s="57" t="s">
+      <c r="G182" s="56" t="s">
         <v>1859</v>
       </c>
       <c r="H182" s="12" t="s">
@@ -31957,7 +32053,7 @@
       <c r="L182" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="M182" s="56"/>
+      <c r="M182" s="55"/>
       <c r="N182" s="12" t="s">
         <v>37</v>
       </c>
@@ -32001,7 +32097,7 @@
       <c r="F183" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="G183" s="57" t="s">
+      <c r="G183" s="56" t="s">
         <v>1860</v>
       </c>
       <c r="H183" s="12" t="s">
@@ -32019,7 +32115,7 @@
       <c r="L183" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="M183" s="56"/>
+      <c r="M183" s="55"/>
       <c r="N183" s="12" t="s">
         <v>37</v>
       </c>
@@ -32127,7 +32223,7 @@
       <c r="F185" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="G185" s="57" t="s">
+      <c r="G185" s="56" t="s">
         <v>1861</v>
       </c>
       <c r="H185" s="12" t="s">
@@ -32145,7 +32241,7 @@
       <c r="L185" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="M185" s="56"/>
+      <c r="M185" s="55"/>
       <c r="N185" s="12" t="s">
         <v>727</v>
       </c>
@@ -32189,7 +32285,7 @@
       <c r="F186" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="G186" s="57" t="s">
+      <c r="G186" s="56" t="s">
         <v>1862</v>
       </c>
       <c r="H186" s="12" t="s">
@@ -32204,10 +32300,10 @@
       <c r="K186" s="45">
         <v>12</v>
       </c>
-      <c r="L186" s="57" t="s">
+      <c r="L186" s="56" t="s">
         <v>907</v>
       </c>
-      <c r="M186" s="56"/>
+      <c r="M186" s="55"/>
       <c r="N186" s="24" t="s">
         <v>1698</v>
       </c>
@@ -32249,7 +32345,7 @@
       <c r="F187" s="12" t="s">
         <v>980</v>
       </c>
-      <c r="G187" s="57" t="s">
+      <c r="G187" s="56" t="s">
         <v>1863</v>
       </c>
       <c r="H187" s="12" t="s">
@@ -32264,10 +32360,10 @@
       <c r="K187" s="45">
         <v>6</v>
       </c>
-      <c r="L187" s="57" t="s">
+      <c r="L187" s="56" t="s">
         <v>907</v>
       </c>
-      <c r="M187" s="56"/>
+      <c r="M187" s="55"/>
       <c r="N187" s="12"/>
       <c r="O187" s="12">
         <v>20</v>
@@ -32322,7 +32418,7 @@
       <c r="K188" s="45">
         <v>10</v>
       </c>
-      <c r="L188" s="57" t="s">
+      <c r="L188" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M188" s="12"/>
@@ -32367,7 +32463,7 @@
       <c r="F189" s="12" t="s">
         <v>985</v>
       </c>
-      <c r="G189" s="57" t="s">
+      <c r="G189" s="56" t="s">
         <v>1864</v>
       </c>
       <c r="H189" s="12" t="s">
@@ -32382,10 +32478,10 @@
       <c r="K189" s="45">
         <v>16</v>
       </c>
-      <c r="L189" s="57" t="s">
+      <c r="L189" s="56" t="s">
         <v>907</v>
       </c>
-      <c r="M189" s="56"/>
+      <c r="M189" s="55"/>
       <c r="N189" s="12"/>
       <c r="O189" s="12">
         <v>5</v>
@@ -32421,7 +32517,7 @@
       <c r="F190" s="12" t="s">
         <v>1539</v>
       </c>
-      <c r="G190" s="57" t="s">
+      <c r="G190" s="56" t="s">
         <v>1865</v>
       </c>
       <c r="H190" s="12" t="s">
@@ -32439,7 +32535,7 @@
       <c r="L190" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="M190" s="56"/>
+      <c r="M190" s="55"/>
       <c r="N190" s="12"/>
       <c r="O190" s="12">
         <v>5</v>
@@ -32477,7 +32573,7 @@
       <c r="F191" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="G191" s="56" t="s">
+      <c r="G191" s="55" t="s">
         <v>1866</v>
       </c>
       <c r="H191" s="12" t="s">
@@ -32492,7 +32588,7 @@
       <c r="K191" s="45">
         <v>11</v>
       </c>
-      <c r="L191" s="57" t="s">
+      <c r="L191" s="56" t="s">
         <v>907</v>
       </c>
       <c r="N191" s="12"/>
@@ -32534,7 +32630,7 @@
       <c r="F192" s="12" t="s">
         <v>990</v>
       </c>
-      <c r="G192" s="56" t="s">
+      <c r="G192" s="55" t="s">
         <v>1867</v>
       </c>
       <c r="H192" s="12" t="s">
@@ -32664,7 +32760,7 @@
       <c r="K194" s="45">
         <v>23</v>
       </c>
-      <c r="L194" s="57" t="s">
+      <c r="L194" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M194" s="12"/>
@@ -32689,7 +32785,7 @@
       <c r="AB194" s="9"/>
       <c r="AC194" s="9"/>
     </row>
-    <row r="195" spans="2:29" ht="336" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B195" s="7">
         <v>194</v>
       </c>
@@ -32967,7 +33063,7 @@
       <c r="AB199" s="9"/>
       <c r="AC199" s="9"/>
     </row>
-    <row r="200" spans="2:29" ht="350" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B200" s="7">
         <v>199</v>
       </c>
@@ -33031,7 +33127,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="201" spans="2:29" ht="168" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B201" s="7">
         <v>200</v>
       </c>
@@ -33062,7 +33158,7 @@
       <c r="K201" s="45">
         <v>16</v>
       </c>
-      <c r="L201" s="57" t="s">
+      <c r="L201" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M201" s="12"/>
@@ -33093,7 +33189,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="202" spans="2:29" ht="126" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B202" s="7">
         <v>201</v>
       </c>
@@ -33124,7 +33220,7 @@
       <c r="K202" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L202" s="48" t="s">
+      <c r="L202" s="47" t="s">
         <v>711</v>
       </c>
       <c r="M202" s="12"/>
@@ -33455,7 +33551,7 @@
       <c r="AB207" s="9"/>
       <c r="AC207" s="9"/>
     </row>
-    <row r="208" spans="2:29" ht="252" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B208" s="7">
         <v>207</v>
       </c>
@@ -33642,7 +33738,7 @@
       <c r="K211" s="45">
         <v>17</v>
       </c>
-      <c r="L211" s="57" t="s">
+      <c r="L211" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M211" s="12"/>
@@ -33698,7 +33794,7 @@
       </c>
       <c r="J212" s="12"/>
       <c r="K212" s="45"/>
-      <c r="L212" s="57" t="s">
+      <c r="L212" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M212" s="12"/>
@@ -33748,7 +33844,7 @@
       </c>
       <c r="J213" s="12"/>
       <c r="K213" s="45"/>
-      <c r="L213" s="57" t="s">
+      <c r="L213" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M213" s="12"/>
@@ -33804,7 +33900,7 @@
       <c r="K214" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L214" s="48" t="s">
+      <c r="L214" s="47" t="s">
         <v>711</v>
       </c>
       <c r="M214" s="12"/>
@@ -33984,7 +34080,7 @@
       <c r="K217" s="45">
         <v>18</v>
       </c>
-      <c r="L217" s="57" t="s">
+      <c r="L217" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M217" s="12"/>
@@ -34009,7 +34105,7 @@
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
     </row>
-    <row r="218" spans="2:29" ht="196" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B218" s="7">
         <v>217</v>
       </c>
@@ -34040,7 +34136,7 @@
       <c r="K218" s="45">
         <v>19</v>
       </c>
-      <c r="L218" s="57" t="s">
+      <c r="L218" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M218" s="12"/>
@@ -34065,7 +34161,7 @@
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
     </row>
-    <row r="219" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B219" s="7">
         <v>218</v>
       </c>
@@ -34096,7 +34192,7 @@
       <c r="K219" s="45">
         <v>20</v>
       </c>
-      <c r="L219" s="57" t="s">
+      <c r="L219" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M219" s="12"/>
@@ -34152,7 +34248,7 @@
       <c r="K220" s="45">
         <v>21</v>
       </c>
-      <c r="L220" s="57" t="s">
+      <c r="L220" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M220" s="12"/>
@@ -34550,7 +34646,7 @@
       <c r="K227" s="45">
         <v>31</v>
       </c>
-      <c r="L227" s="57" t="s">
+      <c r="L227" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M227" s="12"/>
@@ -34600,7 +34696,7 @@
       <c r="K228" s="45">
         <v>32</v>
       </c>
-      <c r="L228" s="57" t="s">
+      <c r="L228" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M228" s="12"/>
@@ -34650,7 +34746,7 @@
       <c r="K229" s="45">
         <v>33</v>
       </c>
-      <c r="L229" s="57" t="s">
+      <c r="L229" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M229" s="12"/>
@@ -34993,7 +35089,7 @@
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
     </row>
-    <row r="236" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B236" s="7">
         <v>235</v>
       </c>
@@ -35291,7 +35387,7 @@
       <c r="F241" s="12" t="s">
         <v>1106</v>
       </c>
-      <c r="G241" s="56" t="s">
+      <c r="G241" s="55" t="s">
         <v>1868</v>
       </c>
       <c r="H241" s="12" t="s">
@@ -35353,7 +35449,7 @@
       <c r="F242" s="12" t="s">
         <v>1109</v>
       </c>
-      <c r="G242" s="56" t="s">
+      <c r="G242" s="55" t="s">
         <v>1869</v>
       </c>
       <c r="H242" s="12" t="s">
@@ -35413,7 +35509,7 @@
       <c r="F243" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="G243" s="56" t="s">
+      <c r="G243" s="55" t="s">
         <v>1870</v>
       </c>
       <c r="H243" s="12" t="s">
@@ -35919,7 +36015,7 @@
       <c r="F252" s="12" t="s">
         <v>1126</v>
       </c>
-      <c r="G252" s="56" t="s">
+      <c r="G252" s="55" t="s">
         <v>1871</v>
       </c>
       <c r="H252" s="12" t="s">
@@ -35979,7 +36075,7 @@
       <c r="F253" s="12" t="s">
         <v>1127</v>
       </c>
-      <c r="G253" s="56" t="s">
+      <c r="G253" s="55" t="s">
         <v>1872</v>
       </c>
       <c r="H253" s="12" t="s">
@@ -36041,7 +36137,7 @@
       <c r="F254" s="12" t="s">
         <v>1128</v>
       </c>
-      <c r="G254" s="56" t="s">
+      <c r="G254" s="55" t="s">
         <v>1873</v>
       </c>
       <c r="H254" s="12" t="s">
@@ -36056,7 +36152,7 @@
       <c r="K254" s="45">
         <v>5</v>
       </c>
-      <c r="L254" s="57" t="s">
+      <c r="L254" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M254" s="12"/>
@@ -36101,7 +36197,7 @@
       <c r="F255" s="12" t="s">
         <v>990</v>
       </c>
-      <c r="G255" s="56" t="s">
+      <c r="G255" s="55" t="s">
         <v>1874</v>
       </c>
       <c r="H255" s="12" t="s">
@@ -36165,7 +36261,7 @@
       <c r="F256" s="12" t="s">
         <v>1129</v>
       </c>
-      <c r="G256" s="56" t="s">
+      <c r="G256" s="55" t="s">
         <v>1875</v>
       </c>
       <c r="H256" s="12" t="s">
@@ -36227,7 +36323,7 @@
       <c r="F257" s="12" t="s">
         <v>1130</v>
       </c>
-      <c r="G257" s="56" t="s">
+      <c r="G257" s="55" t="s">
         <v>1876</v>
       </c>
       <c r="H257" s="12" t="s">
@@ -36240,7 +36336,7 @@
       <c r="K257" s="45">
         <v>7</v>
       </c>
-      <c r="L257" s="57" t="s">
+      <c r="L257" s="56" t="s">
         <v>907</v>
       </c>
       <c r="M257" s="12"/>
@@ -40061,7 +40157,7 @@
       <c r="AB336" s="9"/>
       <c r="AC336" s="9"/>
     </row>
-    <row r="337" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B337" s="7">
         <v>336</v>
       </c>
@@ -40112,7 +40208,7 @@
       <c r="AB337" s="9"/>
       <c r="AC337" s="9"/>
     </row>
-    <row r="338" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B338" s="7">
         <v>337</v>
       </c>
@@ -40163,7 +40259,7 @@
       <c r="AB338" s="9"/>
       <c r="AC338" s="9"/>
     </row>
-    <row r="339" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B339" s="7">
         <v>338</v>
       </c>
@@ -40265,7 +40361,7 @@
       <c r="AB340" s="9"/>
       <c r="AC340" s="9"/>
     </row>
-    <row r="341" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B341" s="7">
         <v>340</v>
       </c>
@@ -40316,7 +40412,7 @@
       <c r="AB341" s="9"/>
       <c r="AC341" s="9"/>
     </row>
-    <row r="342" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B342" s="7">
         <v>341</v>
       </c>
@@ -40365,7 +40461,7 @@
       <c r="AB342" s="9"/>
       <c r="AC342" s="9"/>
     </row>
-    <row r="343" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B343" s="7">
         <v>342</v>
       </c>
@@ -40418,7 +40514,7 @@
       <c r="AB343" s="9"/>
       <c r="AC343" s="9"/>
     </row>
-    <row r="344" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B344" s="7">
         <v>343</v>
       </c>
@@ -40467,7 +40563,7 @@
       <c r="AB344" s="9"/>
       <c r="AC344" s="9"/>
     </row>
-    <row r="345" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B345" s="7">
         <v>344</v>
       </c>
@@ -40520,7 +40616,7 @@
       <c r="AB345" s="9"/>
       <c r="AC345" s="9"/>
     </row>
-    <row r="346" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B346" s="7">
         <v>345</v>
       </c>
@@ -40569,7 +40665,7 @@
       <c r="AB346" s="9"/>
       <c r="AC346" s="9"/>
     </row>
-    <row r="347" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B347" s="7">
         <v>346</v>
       </c>
@@ -40602,9 +40698,7 @@
       <c r="L347" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="M347" s="12" t="s">
-        <v>992</v>
-      </c>
+      <c r="M347" s="12"/>
       <c r="N347" s="12"/>
       <c r="O347" s="12">
         <v>3.9000000000000004</v>
@@ -40628,7 +40722,7 @@
       </c>
       <c r="AC347" s="9"/>
     </row>
-    <row r="348" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B348" s="7">
         <v>347</v>
       </c>
@@ -40681,7 +40775,7 @@
       <c r="AB348" s="9"/>
       <c r="AC348" s="9"/>
     </row>
-    <row r="349" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B349" s="7">
         <v>348</v>
       </c>
@@ -40734,7 +40828,7 @@
       <c r="AB349" s="9"/>
       <c r="AC349" s="9"/>
     </row>
-    <row r="350" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B350" s="7">
         <v>349</v>
       </c>
@@ -40840,7 +40934,7 @@
       <c r="AB351" s="9"/>
       <c r="AC351" s="9"/>
     </row>
-    <row r="352" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B352" s="7">
         <v>351</v>
       </c>
@@ -40893,7 +40987,7 @@
       <c r="AB352" s="9"/>
       <c r="AC352" s="9"/>
     </row>
-    <row r="353" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B353" s="7">
         <v>352</v>
       </c>
@@ -40926,9 +41020,7 @@
       <c r="L353" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="M353" s="12" t="s">
-        <v>992</v>
-      </c>
+      <c r="M353" s="12"/>
       <c r="N353" s="12"/>
       <c r="O353" s="12">
         <v>3.9000000000000004</v>
@@ -40948,7 +41040,7 @@
       <c r="AB353" s="9"/>
       <c r="AC353" s="9"/>
     </row>
-    <row r="354" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B354" s="7">
         <v>353</v>
       </c>
@@ -41001,7 +41093,7 @@
       <c r="AB354" s="9"/>
       <c r="AC354" s="9"/>
     </row>
-    <row r="355" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B355" s="7">
         <v>354</v>
       </c>
@@ -41054,7 +41146,7 @@
       <c r="AB355" s="9"/>
       <c r="AC355" s="9"/>
     </row>
-    <row r="356" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B356" s="7">
         <v>355</v>
       </c>
@@ -41107,7 +41199,7 @@
       <c r="AB356" s="9"/>
       <c r="AC356" s="9"/>
     </row>
-    <row r="357" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B357" s="7">
         <v>356</v>
       </c>
@@ -41160,7 +41252,7 @@
       <c r="AB357" s="9"/>
       <c r="AC357" s="9"/>
     </row>
-    <row r="358" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B358" s="7">
         <v>357</v>
       </c>
@@ -41213,7 +41305,7 @@
       <c r="AB358" s="9"/>
       <c r="AC358" s="9"/>
     </row>
-    <row r="359" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B359" s="7">
         <v>358</v>
       </c>
@@ -41266,7 +41358,7 @@
       <c r="AB359" s="9"/>
       <c r="AC359" s="9"/>
     </row>
-    <row r="360" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B360" s="7">
         <v>359</v>
       </c>
@@ -41319,7 +41411,7 @@
       <c r="AB360" s="9"/>
       <c r="AC360" s="9"/>
     </row>
-    <row r="361" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B361" s="7">
         <v>360</v>
       </c>
@@ -41368,7 +41460,7 @@
       <c r="AB361" s="9"/>
       <c r="AC361" s="9"/>
     </row>
-    <row r="362" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B362" s="7">
         <v>361</v>
       </c>
@@ -41396,14 +41488,12 @@
         <v>P1</v>
       </c>
       <c r="K362" s="45" t="s">
-        <v>1818</v>
-      </c>
-      <c r="L362" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M362" s="12" t="s">
-        <v>1531</v>
-      </c>
+        <v>1825</v>
+      </c>
+      <c r="L362" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M362" s="12"/>
       <c r="N362" s="12"/>
       <c r="O362" s="12">
         <v>3.9000000000000004</v>
@@ -41486,7 +41576,7 @@
       </c>
       <c r="AC363" s="9"/>
     </row>
-    <row r="364" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B364" s="7">
         <v>363</v>
       </c>
@@ -41535,7 +41625,7 @@
       <c r="AB364" s="9"/>
       <c r="AC364" s="9"/>
     </row>
-    <row r="365" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B365" s="7">
         <v>364</v>
       </c>
@@ -41563,14 +41653,12 @@
         <v>P1</v>
       </c>
       <c r="K365" s="45" t="s">
-        <v>1819</v>
-      </c>
-      <c r="L365" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M365" s="12" t="s">
-        <v>1531</v>
-      </c>
+        <v>1826</v>
+      </c>
+      <c r="L365" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M365" s="12"/>
       <c r="N365" s="12"/>
       <c r="O365" s="12">
         <v>3.9000000000000004</v>
@@ -41594,7 +41682,7 @@
       </c>
       <c r="AC365" s="9"/>
     </row>
-    <row r="366" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B366" s="7">
         <v>365</v>
       </c>
@@ -41643,7 +41731,7 @@
       <c r="AB366" s="9"/>
       <c r="AC366" s="9"/>
     </row>
-    <row r="367" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B367" s="7">
         <v>366</v>
       </c>
@@ -41671,14 +41759,12 @@
         <v>P1</v>
       </c>
       <c r="K367" s="45" t="s">
-        <v>1822</v>
-      </c>
-      <c r="L367" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M367" s="12" t="s">
-        <v>1531</v>
-      </c>
+        <v>1821</v>
+      </c>
+      <c r="L367" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M367" s="12"/>
       <c r="N367" s="12"/>
       <c r="O367" s="12">
         <v>3.9000000000000004</v>
@@ -41702,7 +41788,7 @@
       </c>
       <c r="AC367" s="9"/>
     </row>
-    <row r="368" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B368" s="7">
         <v>367</v>
       </c>
@@ -41730,14 +41816,12 @@
         <v>P1</v>
       </c>
       <c r="K368" s="45" t="s">
-        <v>1825</v>
-      </c>
-      <c r="L368" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M368" s="12" t="s">
-        <v>1527</v>
-      </c>
+        <v>1830</v>
+      </c>
+      <c r="L368" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M368" s="12"/>
       <c r="N368" s="12"/>
       <c r="O368" s="12">
         <v>5.2</v>
@@ -41791,7 +41875,7 @@
       <c r="K369" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L369" s="48" t="s">
+      <c r="L369" s="47" t="s">
         <v>711</v>
       </c>
       <c r="M369" s="12" t="s">
@@ -41820,7 +41904,7 @@
       </c>
       <c r="AC369" s="9"/>
     </row>
-    <row r="370" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B370" s="7">
         <v>369</v>
       </c>
@@ -41869,7 +41953,7 @@
       <c r="AB370" s="9"/>
       <c r="AC370" s="9"/>
     </row>
-    <row r="371" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B371" s="7">
         <v>370</v>
       </c>
@@ -41897,14 +41981,12 @@
         <v>P1</v>
       </c>
       <c r="K371" s="45" t="s">
-        <v>1823</v>
-      </c>
-      <c r="L371" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M371" s="12" t="s">
-        <v>1531</v>
-      </c>
+        <v>1824</v>
+      </c>
+      <c r="L371" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M371" s="12"/>
       <c r="N371" s="12"/>
       <c r="O371" s="12">
         <v>3.9000000000000004</v>
@@ -41928,7 +42010,7 @@
       </c>
       <c r="AC371" s="9"/>
     </row>
-    <row r="372" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B372" s="7">
         <v>371</v>
       </c>
@@ -41977,7 +42059,7 @@
       <c r="AB372" s="9"/>
       <c r="AC372" s="9"/>
     </row>
-    <row r="373" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B373" s="7">
         <v>372</v>
       </c>
@@ -42005,14 +42087,12 @@
         <v>P1</v>
       </c>
       <c r="K373" s="45" t="s">
-        <v>1820</v>
-      </c>
-      <c r="L373" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M373" s="12" t="s">
-        <v>1531</v>
-      </c>
+        <v>1827</v>
+      </c>
+      <c r="L373" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M373" s="12"/>
       <c r="N373" s="12"/>
       <c r="O373" s="12">
         <v>5.2</v>
@@ -42066,7 +42146,7 @@
       <c r="K374" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L374" s="48" t="s">
+      <c r="L374" s="47" t="s">
         <v>711</v>
       </c>
       <c r="M374" s="12" t="s">
@@ -42095,7 +42175,7 @@
       </c>
       <c r="AC374" s="9"/>
     </row>
-    <row r="375" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B375" s="7">
         <v>374</v>
       </c>
@@ -42144,7 +42224,7 @@
       <c r="AB375" s="9"/>
       <c r="AC375" s="9"/>
     </row>
-    <row r="376" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B376" s="7">
         <v>375</v>
       </c>
@@ -42172,14 +42252,12 @@
         <v>P1</v>
       </c>
       <c r="K376" s="45" t="s">
-        <v>1821</v>
-      </c>
-      <c r="L376" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M376" s="12" t="s">
-        <v>1531</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="L376" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M376" s="12"/>
       <c r="N376" s="12"/>
       <c r="O376" s="12">
         <v>5.2</v>
@@ -42203,7 +42281,7 @@
       </c>
       <c r="AC376" s="9"/>
     </row>
-    <row r="377" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B377" s="7">
         <v>376</v>
       </c>
@@ -42254,7 +42332,7 @@
       <c r="AB377" s="9"/>
       <c r="AC377" s="9"/>
     </row>
-    <row r="378" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B378" s="7">
         <v>377</v>
       </c>
@@ -42305,7 +42383,7 @@
       <c r="AB378" s="9"/>
       <c r="AC378" s="9"/>
     </row>
-    <row r="379" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B379" s="7">
         <v>378</v>
       </c>
@@ -42354,7 +42432,7 @@
       <c r="AB379" s="9"/>
       <c r="AC379" s="9"/>
     </row>
-    <row r="380" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B380" s="7">
         <v>379</v>
       </c>
@@ -42403,7 +42481,7 @@
       <c r="AB380" s="9"/>
       <c r="AC380" s="9"/>
     </row>
-    <row r="381" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B381" s="7">
         <v>380</v>
       </c>
@@ -42456,7 +42534,7 @@
       <c r="AB381" s="9"/>
       <c r="AC381" s="9"/>
     </row>
-    <row r="382" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B382" s="7">
         <v>381</v>
       </c>
@@ -42509,7 +42587,7 @@
       <c r="AB382" s="9"/>
       <c r="AC382" s="9"/>
     </row>
-    <row r="383" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B383" s="7">
         <v>382</v>
       </c>
@@ -42558,7 +42636,7 @@
       <c r="AB383" s="9"/>
       <c r="AC383" s="9"/>
     </row>
-    <row r="384" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B384" s="7">
         <v>383</v>
       </c>
@@ -42611,7 +42689,7 @@
       <c r="AB384" s="9"/>
       <c r="AC384" s="9"/>
     </row>
-    <row r="385" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B385" s="7">
         <v>384</v>
       </c>
@@ -42664,7 +42742,7 @@
       <c r="AB385" s="9"/>
       <c r="AC385" s="9"/>
     </row>
-    <row r="386" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B386" s="7">
         <v>385</v>
       </c>
@@ -42713,7 +42791,7 @@
       <c r="AB386" s="9"/>
       <c r="AC386" s="9"/>
     </row>
-    <row r="387" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B387" s="7">
         <v>386</v>
       </c>
@@ -42762,7 +42840,7 @@
       <c r="AB387" s="9"/>
       <c r="AC387" s="9"/>
     </row>
-    <row r="388" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B388" s="7">
         <v>387</v>
       </c>
@@ -42815,7 +42893,7 @@
       <c r="AB388" s="9"/>
       <c r="AC388" s="9"/>
     </row>
-    <row r="389" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B389" s="7">
         <v>388</v>
       </c>
@@ -42868,7 +42946,7 @@
       <c r="AB389" s="9"/>
       <c r="AC389" s="9"/>
     </row>
-    <row r="390" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B390" s="7">
         <v>389</v>
       </c>
@@ -42917,7 +42995,7 @@
       <c r="AB390" s="9"/>
       <c r="AC390" s="9"/>
     </row>
-    <row r="391" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B391" s="7">
         <v>390</v>
       </c>
@@ -42966,7 +43044,7 @@
       <c r="AB391" s="9"/>
       <c r="AC391" s="9"/>
     </row>
-    <row r="392" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B392" s="7">
         <v>391</v>
       </c>
@@ -43019,7 +43097,7 @@
       <c r="AB392" s="9"/>
       <c r="AC392" s="9"/>
     </row>
-    <row r="393" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B393" s="7">
         <v>392</v>
       </c>
@@ -43068,7 +43146,7 @@
       <c r="AB393" s="9"/>
       <c r="AC393" s="9"/>
     </row>
-    <row r="394" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B394" s="7">
         <v>393</v>
       </c>
@@ -43121,7 +43199,7 @@
       <c r="AB394" s="9"/>
       <c r="AC394" s="9"/>
     </row>
-    <row r="395" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B395" s="7">
         <v>394</v>
       </c>
@@ -43170,7 +43248,7 @@
       <c r="AB395" s="9"/>
       <c r="AC395" s="9"/>
     </row>
-    <row r="396" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B396" s="7">
         <v>395</v>
       </c>
@@ -43219,7 +43297,7 @@
       <c r="AB396" s="9"/>
       <c r="AC396" s="9"/>
     </row>
-    <row r="397" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B397" s="7">
         <v>396</v>
       </c>
@@ -43272,7 +43350,7 @@
       <c r="AB397" s="9"/>
       <c r="AC397" s="9"/>
     </row>
-    <row r="398" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B398" s="7">
         <v>397</v>
       </c>
@@ -43321,7 +43399,7 @@
       <c r="AB398" s="9"/>
       <c r="AC398" s="9"/>
     </row>
-    <row r="399" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B399" s="7">
         <v>398</v>
       </c>
@@ -43349,14 +43427,12 @@
         <v>P1</v>
       </c>
       <c r="K399" s="45" t="s">
-        <v>1826</v>
+        <v>1905</v>
       </c>
       <c r="L399" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M399" s="12" t="s">
-        <v>1527</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="M399" s="12"/>
       <c r="N399" s="12"/>
       <c r="O399" s="12">
         <v>3.9000000000000004</v>
@@ -43433,7 +43509,7 @@
       <c r="AB400" s="9"/>
       <c r="AC400" s="9"/>
     </row>
-    <row r="401" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B401" s="7">
         <v>400</v>
       </c>
@@ -43484,7 +43560,7 @@
       <c r="AB401" s="9"/>
       <c r="AC401" s="9"/>
     </row>
-    <row r="402" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B402" s="7">
         <v>401</v>
       </c>
@@ -43535,7 +43611,7 @@
       <c r="AB402" s="9"/>
       <c r="AC402" s="9"/>
     </row>
-    <row r="403" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B403" s="7">
         <v>402</v>
       </c>
@@ -43584,7 +43660,7 @@
       <c r="AB403" s="9"/>
       <c r="AC403" s="9"/>
     </row>
-    <row r="404" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B404" s="7">
         <v>403</v>
       </c>
@@ -43635,7 +43711,7 @@
       <c r="AB404" s="9"/>
       <c r="AC404" s="9"/>
     </row>
-    <row r="405" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B405" s="7">
         <v>404</v>
       </c>
@@ -43684,7 +43760,7 @@
       <c r="AB405" s="9"/>
       <c r="AC405" s="9"/>
     </row>
-    <row r="406" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B406" s="7">
         <v>405</v>
       </c>
@@ -43737,7 +43813,7 @@
       <c r="AB406" s="9"/>
       <c r="AC406" s="9"/>
     </row>
-    <row r="407" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B407" s="7">
         <v>406</v>
       </c>
@@ -43786,7 +43862,7 @@
       <c r="AB407" s="9"/>
       <c r="AC407" s="9"/>
     </row>
-    <row r="408" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B408" s="7">
         <v>407</v>
       </c>
@@ -43835,7 +43911,7 @@
       <c r="AB408" s="9"/>
       <c r="AC408" s="9"/>
     </row>
-    <row r="409" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B409" s="7">
         <v>408</v>
       </c>
@@ -43888,7 +43964,7 @@
       <c r="AB409" s="9"/>
       <c r="AC409" s="9"/>
     </row>
-    <row r="410" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B410" s="7">
         <v>409</v>
       </c>
@@ -43937,7 +44013,7 @@
       <c r="AB410" s="9"/>
       <c r="AC410" s="9"/>
     </row>
-    <row r="411" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B411" s="7">
         <v>410</v>
       </c>
@@ -43990,7 +44066,7 @@
       <c r="AB411" s="9"/>
       <c r="AC411" s="9"/>
     </row>
-    <row r="412" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B412" s="7">
         <v>411</v>
       </c>
@@ -44043,7 +44119,7 @@
       <c r="AB412" s="9"/>
       <c r="AC412" s="9"/>
     </row>
-    <row r="413" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B413" s="7">
         <v>412</v>
       </c>
@@ -44094,7 +44170,7 @@
       <c r="AB413" s="9"/>
       <c r="AC413" s="9"/>
     </row>
-    <row r="414" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B414" s="7">
         <v>413</v>
       </c>
@@ -44147,7 +44223,7 @@
       <c r="AB414" s="9"/>
       <c r="AC414" s="9"/>
     </row>
-    <row r="415" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B415" s="7">
         <v>414</v>
       </c>
@@ -44228,7 +44304,7 @@
       <c r="K416" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L416" s="48" t="s">
+      <c r="L416" s="47" t="s">
         <v>711</v>
       </c>
       <c r="M416" s="12" t="s">
@@ -44257,7 +44333,7 @@
       </c>
       <c r="AC416" s="9"/>
     </row>
-    <row r="417" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B417" s="7">
         <v>416</v>
       </c>
@@ -44306,7 +44382,7 @@
       <c r="AB417" s="9"/>
       <c r="AC417" s="9"/>
     </row>
-    <row r="418" spans="2:29" ht="84" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B418" s="7">
         <v>417</v>
       </c>
@@ -44334,14 +44410,12 @@
         <v>P1</v>
       </c>
       <c r="K418" s="45" t="s">
-        <v>1828</v>
-      </c>
-      <c r="L418" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M418" s="12" t="s">
-        <v>1531</v>
-      </c>
+        <v>1838</v>
+      </c>
+      <c r="L418" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M418" s="12"/>
       <c r="N418" s="12"/>
       <c r="O418" s="12">
         <v>3.9000000000000004</v>
@@ -44365,7 +44439,7 @@
       </c>
       <c r="AC418" s="9"/>
     </row>
-    <row r="419" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B419" s="7">
         <v>418</v>
       </c>
@@ -44414,7 +44488,7 @@
       <c r="AB419" s="9"/>
       <c r="AC419" s="9"/>
     </row>
-    <row r="420" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B420" s="7">
         <v>419</v>
       </c>
@@ -44467,7 +44541,7 @@
       <c r="AB420" s="9"/>
       <c r="AC420" s="9"/>
     </row>
-    <row r="421" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B421" s="7">
         <v>420</v>
       </c>
@@ -44495,14 +44569,12 @@
         <v>P1</v>
       </c>
       <c r="K421" s="45" t="s">
-        <v>1829</v>
-      </c>
-      <c r="L421" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M421" s="12" t="s">
-        <v>1527</v>
-      </c>
+        <v>1906</v>
+      </c>
+      <c r="L421" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M421" s="12"/>
       <c r="N421" s="12"/>
       <c r="O421" s="12">
         <v>3.9000000000000004</v>
@@ -44526,7 +44598,7 @@
       </c>
       <c r="AC421" s="9"/>
     </row>
-    <row r="422" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B422" s="7">
         <v>421</v>
       </c>
@@ -44575,7 +44647,7 @@
       <c r="AB422" s="9"/>
       <c r="AC422" s="9"/>
     </row>
-    <row r="423" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B423" s="7">
         <v>422</v>
       </c>
@@ -44629,7 +44701,7 @@
       <c r="AB423" s="9"/>
       <c r="AC423" s="9"/>
     </row>
-    <row r="424" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B424" s="7">
         <v>423</v>
       </c>
@@ -44682,7 +44754,7 @@
       <c r="AB424" s="9"/>
       <c r="AC424" s="9"/>
     </row>
-    <row r="425" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B425" s="7">
         <v>424</v>
       </c>
@@ -44731,7 +44803,7 @@
       <c r="AB425" s="9"/>
       <c r="AC425" s="9"/>
     </row>
-    <row r="426" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B426" s="7">
         <v>425</v>
       </c>
@@ -44780,7 +44852,7 @@
       <c r="AB426" s="9"/>
       <c r="AC426" s="9"/>
     </row>
-    <row r="427" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B427" s="7">
         <v>426</v>
       </c>
@@ -44833,7 +44905,7 @@
       <c r="AB427" s="9"/>
       <c r="AC427" s="9"/>
     </row>
-    <row r="428" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B428" s="7">
         <v>427</v>
       </c>
@@ -44886,7 +44958,7 @@
       <c r="AB428" s="9"/>
       <c r="AC428" s="9"/>
     </row>
-    <row r="429" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B429" s="7">
         <v>428</v>
       </c>
@@ -44939,7 +45011,7 @@
       <c r="AB429" s="9"/>
       <c r="AC429" s="9"/>
     </row>
-    <row r="430" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B430" s="7">
         <v>429</v>
       </c>
@@ -44992,7 +45064,7 @@
       <c r="AB430" s="9"/>
       <c r="AC430" s="9"/>
     </row>
-    <row r="431" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B431" s="7">
         <v>430</v>
       </c>
@@ -45045,7 +45117,7 @@
       <c r="AB431" s="9"/>
       <c r="AC431" s="9"/>
     </row>
-    <row r="432" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B432" s="7">
         <v>431</v>
       </c>
@@ -45098,7 +45170,7 @@
       <c r="AB432" s="9"/>
       <c r="AC432" s="9"/>
     </row>
-    <row r="433" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B433" s="7">
         <v>432</v>
       </c>
@@ -45149,7 +45221,7 @@
       <c r="AB433" s="9"/>
       <c r="AC433" s="9"/>
     </row>
-    <row r="434" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B434" s="7">
         <v>433</v>
       </c>
@@ -45204,7 +45276,7 @@
       <c r="AB434" s="9"/>
       <c r="AC434" s="9"/>
     </row>
-    <row r="435" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B435" s="7">
         <v>434</v>
       </c>
@@ -45257,7 +45329,7 @@
       <c r="AB435" s="9"/>
       <c r="AC435" s="9"/>
     </row>
-    <row r="436" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B436" s="7">
         <v>435</v>
       </c>
@@ -45285,14 +45357,12 @@
         <v>P1</v>
       </c>
       <c r="K436" s="45" t="s">
-        <v>1827</v>
-      </c>
-      <c r="L436" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M436" s="12" t="s">
-        <v>1527</v>
-      </c>
+        <v>1833</v>
+      </c>
+      <c r="L436" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M436" s="12"/>
       <c r="N436" s="12"/>
       <c r="O436" s="12">
         <v>3.9000000000000004</v>
@@ -45316,7 +45386,7 @@
       </c>
       <c r="AC436" s="9"/>
     </row>
-    <row r="437" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B437" s="7">
         <v>436</v>
       </c>
@@ -45422,7 +45492,7 @@
       <c r="AB438" s="9"/>
       <c r="AC438" s="9"/>
     </row>
-    <row r="439" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B439" s="7">
         <v>438</v>
       </c>
@@ -45473,7 +45543,7 @@
       <c r="AB439" s="9"/>
       <c r="AC439" s="9"/>
     </row>
-    <row r="440" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B440" s="7">
         <v>439</v>
       </c>
@@ -45524,7 +45594,7 @@
       <c r="AB440" s="9"/>
       <c r="AC440" s="9"/>
     </row>
-    <row r="441" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B441" s="7">
         <v>440</v>
       </c>
@@ -45789,7 +45859,7 @@
       <c r="AB445" s="9"/>
       <c r="AC445" s="9"/>
     </row>
-    <row r="446" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B446" s="7">
         <v>445</v>
       </c>
@@ -45838,7 +45908,7 @@
       <c r="AB446" s="9"/>
       <c r="AC446" s="9"/>
     </row>
-    <row r="447" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B447" s="7">
         <v>446</v>
       </c>
@@ -45887,7 +45957,7 @@
       <c r="AB447" s="9"/>
       <c r="AC447" s="9"/>
     </row>
-    <row r="448" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B448" s="7">
         <v>447</v>
       </c>
@@ -45938,7 +46008,7 @@
       <c r="AB448" s="9"/>
       <c r="AC448" s="9"/>
     </row>
-    <row r="449" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B449" s="7">
         <v>448</v>
       </c>
@@ -46042,7 +46112,7 @@
       <c r="AB450" s="9"/>
       <c r="AC450" s="9"/>
     </row>
-    <row r="451" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B451" s="7">
         <v>450</v>
       </c>
@@ -46144,7 +46214,7 @@
       <c r="AB452" s="9"/>
       <c r="AC452" s="9"/>
     </row>
-    <row r="453" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B453" s="7">
         <v>452</v>
       </c>
@@ -46195,7 +46265,7 @@
       <c r="AB453" s="9"/>
       <c r="AC453" s="9"/>
     </row>
-    <row r="454" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B454" s="7">
         <v>453</v>
       </c>
@@ -46246,7 +46316,7 @@
       <c r="AB454" s="9"/>
       <c r="AC454" s="9"/>
     </row>
-    <row r="455" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B455" s="7">
         <v>454</v>
       </c>
@@ -46297,7 +46367,7 @@
       <c r="AB455" s="9"/>
       <c r="AC455" s="9"/>
     </row>
-    <row r="456" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B456" s="7">
         <v>455</v>
       </c>
@@ -46348,7 +46418,7 @@
       <c r="AB456" s="9"/>
       <c r="AC456" s="9"/>
     </row>
-    <row r="457" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B457" s="7">
         <v>456</v>
       </c>
@@ -46401,7 +46471,7 @@
       <c r="AB457" s="9"/>
       <c r="AC457" s="9"/>
     </row>
-    <row r="458" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B458" s="7">
         <v>457</v>
       </c>
@@ -46452,7 +46522,7 @@
       <c r="AB458" s="9"/>
       <c r="AC458" s="9"/>
     </row>
-    <row r="459" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B459" s="7">
         <v>458</v>
       </c>
@@ -46501,7 +46571,7 @@
       <c r="AB459" s="9"/>
       <c r="AC459" s="9"/>
     </row>
-    <row r="460" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B460" s="7">
         <v>459</v>
       </c>
@@ -46550,7 +46620,7 @@
       <c r="AB460" s="9"/>
       <c r="AC460" s="9"/>
     </row>
-    <row r="461" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B461" s="7">
         <v>460</v>
       </c>
@@ -46599,7 +46669,7 @@
       <c r="AB461" s="9"/>
       <c r="AC461" s="9"/>
     </row>
-    <row r="462" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B462" s="7">
         <v>461</v>
       </c>
@@ -46648,7 +46718,7 @@
       <c r="AB462" s="9"/>
       <c r="AC462" s="9"/>
     </row>
-    <row r="463" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B463" s="7">
         <v>462</v>
       </c>
@@ -46658,7 +46728,7 @@
       <c r="D463" s="12" t="s">
         <v>1420</v>
       </c>
-      <c r="E463" s="48" t="s">
+      <c r="E463" s="47" t="s">
         <v>1728</v>
       </c>
       <c r="F463" s="12" t="s">
@@ -46678,10 +46748,10 @@
       <c r="K463" s="45" t="s">
         <v>1816</v>
       </c>
-      <c r="L463" s="48" t="s">
-        <v>596</v>
-      </c>
-      <c r="M463" s="48" t="s">
+      <c r="L463" s="57" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M463" s="47" t="s">
         <v>992</v>
       </c>
       <c r="N463" s="12"/>
@@ -46703,7 +46773,7 @@
       <c r="AB463" s="9"/>
       <c r="AC463" s="9"/>
     </row>
-    <row r="464" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B464" s="7">
         <v>463</v>
       </c>
@@ -46752,7 +46822,7 @@
       <c r="AB464" s="9"/>
       <c r="AC464" s="9"/>
     </row>
-    <row r="465" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B465" s="7">
         <v>464</v>
       </c>
@@ -46805,7 +46875,7 @@
       <c r="AB465" s="9"/>
       <c r="AC465" s="9"/>
     </row>
-    <row r="466" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B466" s="7">
         <v>465</v>
       </c>
@@ -46858,7 +46928,7 @@
       <c r="AB466" s="9"/>
       <c r="AC466" s="9"/>
     </row>
-    <row r="467" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B467" s="7">
         <v>466</v>
       </c>
@@ -46911,7 +46981,7 @@
       <c r="AB467" s="9"/>
       <c r="AC467" s="9"/>
     </row>
-    <row r="468" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B468" s="7">
         <v>467</v>
       </c>
@@ -46964,7 +47034,7 @@
       <c r="AB468" s="9"/>
       <c r="AC468" s="9"/>
     </row>
-    <row r="469" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B469" s="7">
         <v>468</v>
       </c>
@@ -47017,7 +47087,7 @@
       <c r="AB469" s="9"/>
       <c r="AC469" s="9"/>
     </row>
-    <row r="470" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B470" s="7">
         <v>469</v>
       </c>
@@ -47070,7 +47140,7 @@
       <c r="AB470" s="9"/>
       <c r="AC470" s="9"/>
     </row>
-    <row r="471" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B471" s="7">
         <v>470</v>
       </c>
@@ -47123,7 +47193,7 @@
       <c r="AB471" s="9"/>
       <c r="AC471" s="9"/>
     </row>
-    <row r="472" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B472" s="7">
         <v>471</v>
       </c>
@@ -47176,7 +47246,7 @@
       <c r="AB472" s="9"/>
       <c r="AC472" s="9"/>
     </row>
-    <row r="473" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B473" s="7">
         <v>472</v>
       </c>
@@ -47229,7 +47299,7 @@
       <c r="AB473" s="9"/>
       <c r="AC473" s="9"/>
     </row>
-    <row r="474" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B474" s="7">
         <v>473</v>
       </c>
@@ -47282,7 +47352,7 @@
       <c r="AB474" s="9"/>
       <c r="AC474" s="9"/>
     </row>
-    <row r="475" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B475" s="7">
         <v>474</v>
       </c>
@@ -47335,7 +47405,7 @@
       <c r="AB475" s="9"/>
       <c r="AC475" s="9"/>
     </row>
-    <row r="476" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B476" s="7">
         <v>475</v>
       </c>
@@ -47388,7 +47458,7 @@
       <c r="AB476" s="9"/>
       <c r="AC476" s="9"/>
     </row>
-    <row r="477" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B477" s="7">
         <v>476</v>
       </c>
@@ -47441,7 +47511,7 @@
       <c r="AB477" s="9"/>
       <c r="AC477" s="9"/>
     </row>
-    <row r="478" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B478" s="7">
         <v>477</v>
       </c>
@@ -47494,7 +47564,7 @@
       <c r="AB478" s="9"/>
       <c r="AC478" s="9"/>
     </row>
-    <row r="479" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B479" s="7">
         <v>478</v>
       </c>
@@ -47547,7 +47617,7 @@
       <c r="AB479" s="9"/>
       <c r="AC479" s="9"/>
     </row>
-    <row r="480" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B480" s="7">
         <v>479</v>
       </c>
@@ -47600,7 +47670,7 @@
       <c r="AB480" s="9"/>
       <c r="AC480" s="9"/>
     </row>
-    <row r="481" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B481" s="7">
         <v>480</v>
       </c>
@@ -47653,7 +47723,7 @@
       <c r="AB481" s="9"/>
       <c r="AC481" s="9"/>
     </row>
-    <row r="482" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B482" s="7">
         <v>481</v>
       </c>
@@ -47706,7 +47776,7 @@
       <c r="AB482" s="9"/>
       <c r="AC482" s="9"/>
     </row>
-    <row r="483" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B483" s="7">
         <v>482</v>
       </c>
@@ -47759,7 +47829,7 @@
       <c r="AB483" s="9"/>
       <c r="AC483" s="9"/>
     </row>
-    <row r="484" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B484" s="7">
         <v>483</v>
       </c>
@@ -47812,7 +47882,7 @@
       <c r="AB484" s="9"/>
       <c r="AC484" s="9"/>
     </row>
-    <row r="485" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B485" s="7">
         <v>484</v>
       </c>
@@ -47865,7 +47935,7 @@
       <c r="AB485" s="9"/>
       <c r="AC485" s="9"/>
     </row>
-    <row r="486" spans="2:29" ht="87" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B486" s="7">
         <v>485</v>
       </c>
@@ -47893,14 +47963,12 @@
         <v>P1</v>
       </c>
       <c r="K486" s="45" t="s">
-        <v>1830</v>
-      </c>
-      <c r="L486" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M486" s="12" t="s">
-        <v>1531</v>
-      </c>
+        <v>1907</v>
+      </c>
+      <c r="L486" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M486" s="12"/>
       <c r="N486" s="12"/>
       <c r="O486" s="12">
         <v>3.9000000000000004</v>
@@ -47924,7 +47992,7 @@
       </c>
       <c r="AC486" s="9"/>
     </row>
-    <row r="487" spans="2:29" ht="87" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B487" s="7">
         <v>486</v>
       </c>
@@ -47977,7 +48045,7 @@
       <c r="AB487" s="9"/>
       <c r="AC487" s="9"/>
     </row>
-    <row r="488" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B488" s="7">
         <v>487</v>
       </c>
@@ -48026,7 +48094,7 @@
       <c r="AB488" s="9"/>
       <c r="AC488" s="9"/>
     </row>
-    <row r="489" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B489" s="7">
         <v>488</v>
       </c>
@@ -48075,7 +48143,7 @@
       <c r="AB489" s="9"/>
       <c r="AC489" s="9"/>
     </row>
-    <row r="490" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B490" s="7">
         <v>489</v>
       </c>
@@ -48127,7 +48195,7 @@
       <c r="AB490" s="9"/>
       <c r="AC490" s="9"/>
     </row>
-    <row r="491" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B491" s="7">
         <v>490</v>
       </c>
@@ -48180,7 +48248,7 @@
       <c r="AB491" s="9"/>
       <c r="AC491" s="9"/>
     </row>
-    <row r="492" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B492" s="7">
         <v>491</v>
       </c>
@@ -48208,14 +48276,12 @@
         <v>P1</v>
       </c>
       <c r="K492" s="45" t="s">
-        <v>1832</v>
-      </c>
-      <c r="L492" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M492" s="12" t="s">
-        <v>1527</v>
-      </c>
+        <v>1831</v>
+      </c>
+      <c r="L492" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M492" s="12"/>
       <c r="N492" s="12"/>
       <c r="O492" s="12">
         <v>3.9000000000000004</v>
@@ -48239,7 +48305,7 @@
       </c>
       <c r="AC492" s="9"/>
     </row>
-    <row r="493" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B493" s="7">
         <v>492</v>
       </c>
@@ -48267,14 +48333,12 @@
         <v>P1</v>
       </c>
       <c r="K493" s="45" t="s">
-        <v>1831</v>
-      </c>
-      <c r="L493" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M493" s="12" t="s">
-        <v>1527</v>
-      </c>
+        <v>1820</v>
+      </c>
+      <c r="L493" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M493" s="12"/>
       <c r="N493" s="12"/>
       <c r="O493" s="12">
         <v>3.9000000000000004</v>
@@ -48298,7 +48362,7 @@
       </c>
       <c r="AC493" s="9"/>
     </row>
-    <row r="494" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B494" s="7">
         <v>493</v>
       </c>
@@ -48326,14 +48390,12 @@
         <v>P1</v>
       </c>
       <c r="K494" s="45" t="s">
-        <v>1833</v>
-      </c>
-      <c r="L494" s="32" t="s">
-        <v>1711</v>
-      </c>
-      <c r="M494" s="12" t="s">
-        <v>1527</v>
-      </c>
+        <v>1832</v>
+      </c>
+      <c r="L494" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M494" s="12"/>
       <c r="N494" s="12"/>
       <c r="O494" s="12">
         <v>3.9000000000000004</v>
@@ -48357,7 +48419,7 @@
       </c>
       <c r="AC494" s="9"/>
     </row>
-    <row r="495" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B495" s="7">
         <v>494</v>
       </c>
@@ -48406,7 +48468,7 @@
       <c r="AB495" s="9"/>
       <c r="AC495" s="9"/>
     </row>
-    <row r="496" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B496" s="7">
         <v>495</v>
       </c>
@@ -48457,7 +48519,7 @@
       <c r="AB496" s="9"/>
       <c r="AC496" s="9"/>
     </row>
-    <row r="497" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B497" s="7">
         <v>496</v>
       </c>
@@ -48506,7 +48568,7 @@
       <c r="AB497" s="9"/>
       <c r="AC497" s="9"/>
     </row>
-    <row r="498" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B498" s="7">
         <v>497</v>
       </c>
@@ -48555,7 +48617,7 @@
       <c r="AB498" s="9"/>
       <c r="AC498" s="9"/>
     </row>
-    <row r="499" spans="2:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B499" s="7">
         <v>498</v>
       </c>
@@ -48604,7 +48666,7 @@
       <c r="AB499" s="9"/>
       <c r="AC499" s="9"/>
     </row>
-    <row r="500" spans="2:29" ht="58" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B500" s="7">
         <v>499</v>
       </c>
@@ -48657,7 +48719,7 @@
       <c r="AB500" s="9"/>
       <c r="AC500" s="9"/>
     </row>
-    <row r="501" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B501" s="7">
         <v>500</v>
       </c>
@@ -48710,7 +48772,7 @@
       <c r="AB501" s="9"/>
       <c r="AC501" s="9"/>
     </row>
-    <row r="502" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B502" s="7">
         <v>501</v>
       </c>
@@ -48763,7 +48825,7 @@
       <c r="AB502" s="9"/>
       <c r="AC502" s="9"/>
     </row>
-    <row r="503" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B503" s="7">
         <v>502</v>
       </c>
@@ -48816,7 +48878,7 @@
       <c r="AB503" s="9"/>
       <c r="AC503" s="9"/>
     </row>
-    <row r="504" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B504" s="7">
         <v>503</v>
       </c>
@@ -48869,7 +48931,7 @@
       <c r="AB504" s="9"/>
       <c r="AC504" s="9"/>
     </row>
-    <row r="505" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B505" s="7">
         <v>504</v>
       </c>
@@ -48922,7 +48984,7 @@
       <c r="AB505" s="9"/>
       <c r="AC505" s="9"/>
     </row>
-    <row r="506" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B506" s="7">
         <v>505</v>
       </c>
@@ -49117,7 +49179,7 @@
         <v>P1</v>
       </c>
       <c r="K509" s="45" t="s">
-        <v>1838</v>
+        <v>1909</v>
       </c>
       <c r="L509" s="13" t="s">
         <v>596</v>
@@ -49193,7 +49255,7 @@
       <c r="AB510" s="9"/>
       <c r="AC510" s="9"/>
     </row>
-    <row r="511" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B511" s="7">
         <v>510</v>
       </c>
@@ -50253,7 +50315,7 @@
       <c r="AB530" s="9"/>
       <c r="AC530" s="9"/>
     </row>
-    <row r="531" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B531" s="7">
         <v>530</v>
       </c>
@@ -50306,7 +50368,7 @@
       <c r="AB531" s="9"/>
       <c r="AC531" s="9"/>
     </row>
-    <row r="532" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B532" s="7">
         <v>531</v>
       </c>
@@ -50357,7 +50419,7 @@
       <c r="AB532" s="9"/>
       <c r="AC532" s="9"/>
     </row>
-    <row r="533" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B533" s="7">
         <v>532</v>
       </c>
@@ -50410,7 +50472,7 @@
       <c r="AB533" s="9"/>
       <c r="AC533" s="9"/>
     </row>
-    <row r="534" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B534" s="7">
         <v>533</v>
       </c>
@@ -50463,7 +50525,7 @@
       <c r="AB534" s="9"/>
       <c r="AC534" s="9"/>
     </row>
-    <row r="535" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B535" s="7">
         <v>534</v>
       </c>
@@ -50514,7 +50576,7 @@
       <c r="AB535" s="9"/>
       <c r="AC535" s="9"/>
     </row>
-    <row r="536" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B536" s="7">
         <v>535</v>
       </c>
@@ -50565,7 +50627,7 @@
       <c r="AB536" s="9"/>
       <c r="AC536" s="9"/>
     </row>
-    <row r="537" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B537" s="7">
         <v>536</v>
       </c>
@@ -50616,7 +50678,7 @@
       <c r="AB537" s="9"/>
       <c r="AC537" s="9"/>
     </row>
-    <row r="538" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B538" s="7">
         <v>537</v>
       </c>
@@ -50667,7 +50729,7 @@
       <c r="AB538" s="9"/>
       <c r="AC538" s="9"/>
     </row>
-    <row r="539" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B539" s="7">
         <v>538</v>
       </c>
@@ -50718,7 +50780,7 @@
       <c r="AB539" s="9"/>
       <c r="AC539" s="9"/>
     </row>
-    <row r="540" spans="2:29" ht="70" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B540" s="7">
         <v>539</v>
       </c>
@@ -50769,7 +50831,7 @@
       <c r="AB540" s="9"/>
       <c r="AC540" s="9"/>
     </row>
-    <row r="541" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B541" s="7">
         <v>540</v>
       </c>
@@ -50820,7 +50882,7 @@
       <c r="AB541" s="9"/>
       <c r="AC541" s="9"/>
     </row>
-    <row r="542" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B542" s="7">
         <v>541</v>
       </c>
@@ -50873,7 +50935,7 @@
       <c r="AB542" s="9"/>
       <c r="AC542" s="9"/>
     </row>
-    <row r="543" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B543" s="7">
         <v>542</v>
       </c>
@@ -50926,7 +50988,7 @@
       <c r="AB543" s="9"/>
       <c r="AC543" s="9"/>
     </row>
-    <row r="544" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B544" s="7">
         <v>543</v>
       </c>
@@ -50979,7 +51041,7 @@
       <c r="AB544" s="9"/>
       <c r="AC544" s="9"/>
     </row>
-    <row r="545" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B545" s="7">
         <v>544</v>
       </c>
@@ -51030,7 +51092,7 @@
       <c r="AB545" s="9"/>
       <c r="AC545" s="9"/>
     </row>
-    <row r="546" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B546" s="7">
         <v>545</v>
       </c>
@@ -51081,7 +51143,7 @@
       <c r="AB546" s="9"/>
       <c r="AC546" s="9"/>
     </row>
-    <row r="547" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B547" s="7">
         <v>546</v>
       </c>
@@ -51132,7 +51194,7 @@
       <c r="AB547" s="9"/>
       <c r="AC547" s="9"/>
     </row>
-    <row r="548" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B548" s="7">
         <v>547</v>
       </c>
@@ -51185,7 +51247,7 @@
       <c r="AB548" s="9"/>
       <c r="AC548" s="9"/>
     </row>
-    <row r="549" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B549" s="7">
         <v>548</v>
       </c>
@@ -51236,7 +51298,7 @@
       <c r="AB549" s="9"/>
       <c r="AC549" s="9"/>
     </row>
-    <row r="550" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B550" s="7">
         <v>549</v>
       </c>
@@ -51287,7 +51349,7 @@
       <c r="AB550" s="9"/>
       <c r="AC550" s="9"/>
     </row>
-    <row r="551" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B551" s="7">
         <v>550</v>
       </c>
@@ -51338,7 +51400,7 @@
       <c r="AB551" s="9"/>
       <c r="AC551" s="9"/>
     </row>
-    <row r="552" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B552" s="7">
         <v>551</v>
       </c>
@@ -51389,7 +51451,7 @@
       <c r="AB552" s="9"/>
       <c r="AC552" s="9"/>
     </row>
-    <row r="553" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B553" s="7">
         <v>552</v>
       </c>
@@ -51440,7 +51502,7 @@
       <c r="AB553" s="9"/>
       <c r="AC553" s="9"/>
     </row>
-    <row r="554" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B554" s="7">
         <v>553</v>
       </c>
@@ -51491,7 +51553,7 @@
       <c r="AB554" s="9"/>
       <c r="AC554" s="9"/>
     </row>
-    <row r="555" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B555" s="7">
         <v>554</v>
       </c>
@@ -51542,7 +51604,7 @@
       <c r="AB555" s="9"/>
       <c r="AC555" s="9"/>
     </row>
-    <row r="556" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B556" s="7">
         <v>555</v>
       </c>
@@ -51593,7 +51655,7 @@
       <c r="AB556" s="9"/>
       <c r="AC556" s="9"/>
     </row>
-    <row r="557" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B557" s="7">
         <v>556</v>
       </c>
@@ -51644,7 +51706,7 @@
       <c r="AB557" s="9"/>
       <c r="AC557" s="9"/>
     </row>
-    <row r="558" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B558" s="7">
         <v>557</v>
       </c>
@@ -51695,7 +51757,7 @@
       <c r="AB558" s="9"/>
       <c r="AC558" s="9"/>
     </row>
-    <row r="559" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B559" s="7">
         <v>558</v>
       </c>
@@ -51746,7 +51808,7 @@
       <c r="AB559" s="9"/>
       <c r="AC559" s="9"/>
     </row>
-    <row r="560" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B560" s="7">
         <v>559</v>
       </c>
@@ -51797,7 +51859,7 @@
       <c r="AB560" s="9"/>
       <c r="AC560" s="9"/>
     </row>
-    <row r="561" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B561" s="7">
         <v>560</v>
       </c>
@@ -51848,7 +51910,7 @@
       <c r="AB561" s="9"/>
       <c r="AC561" s="9"/>
     </row>
-    <row r="562" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B562" s="7">
         <v>561</v>
       </c>
@@ -51899,7 +51961,7 @@
       <c r="AB562" s="9"/>
       <c r="AC562" s="9"/>
     </row>
-    <row r="563" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B563" s="7">
         <v>562</v>
       </c>
@@ -51950,7 +52012,7 @@
       <c r="AB563" s="9"/>
       <c r="AC563" s="9"/>
     </row>
-    <row r="564" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B564" s="7">
         <v>563</v>
       </c>
@@ -52001,7 +52063,7 @@
       <c r="AB564" s="9"/>
       <c r="AC564" s="9"/>
     </row>
-    <row r="565" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B565" s="7">
         <v>564</v>
       </c>
@@ -52052,7 +52114,7 @@
       <c r="AB565" s="9"/>
       <c r="AC565" s="9"/>
     </row>
-    <row r="566" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B566" s="7">
         <v>565</v>
       </c>
@@ -52103,7 +52165,7 @@
       <c r="AB566" s="9"/>
       <c r="AC566" s="9"/>
     </row>
-    <row r="567" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B567" s="7">
         <v>566</v>
       </c>
@@ -52154,7 +52216,7 @@
       <c r="AB567" s="9"/>
       <c r="AC567" s="9"/>
     </row>
-    <row r="568" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B568" s="7">
         <v>567</v>
       </c>
@@ -52205,7 +52267,7 @@
       <c r="AB568" s="9"/>
       <c r="AC568" s="9"/>
     </row>
-    <row r="569" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B569" s="7">
         <v>568</v>
       </c>
@@ -52256,7 +52318,7 @@
       <c r="AB569" s="9"/>
       <c r="AC569" s="9"/>
     </row>
-    <row r="570" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B570" s="7">
         <v>569</v>
       </c>
@@ -52307,7 +52369,7 @@
       <c r="AB570" s="9"/>
       <c r="AC570" s="9"/>
     </row>
-    <row r="571" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B571" s="7">
         <v>570</v>
       </c>
@@ -52358,7 +52420,7 @@
       <c r="AB571" s="9"/>
       <c r="AC571" s="9"/>
     </row>
-    <row r="572" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B572" s="7">
         <v>571</v>
       </c>
@@ -52409,7 +52471,7 @@
       <c r="AB572" s="9"/>
       <c r="AC572" s="9"/>
     </row>
-    <row r="573" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B573" s="7">
         <v>572</v>
       </c>
@@ -52460,7 +52522,7 @@
       <c r="AB573" s="9"/>
       <c r="AC573" s="9"/>
     </row>
-    <row r="574" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B574" s="7">
         <v>573</v>
       </c>
@@ -52513,7 +52575,7 @@
       <c r="AB574" s="9"/>
       <c r="AC574" s="9"/>
     </row>
-    <row r="575" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B575" s="7">
         <v>574</v>
       </c>
@@ -52564,7 +52626,7 @@
       <c r="AB575" s="9"/>
       <c r="AC575" s="9"/>
     </row>
-    <row r="576" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B576" s="7">
         <v>575</v>
       </c>
@@ -52615,7 +52677,7 @@
       <c r="AB576" s="9"/>
       <c r="AC576" s="9"/>
     </row>
-    <row r="577" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B577" s="7">
         <v>576</v>
       </c>
@@ -52666,7 +52728,7 @@
       <c r="AB577" s="9"/>
       <c r="AC577" s="9"/>
     </row>
-    <row r="578" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B578" s="7">
         <v>577</v>
       </c>
@@ -52719,7 +52781,7 @@
       <c r="AB578" s="9"/>
       <c r="AC578" s="9"/>
     </row>
-    <row r="579" spans="2:29" ht="56" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B579" s="7">
         <v>578</v>
       </c>
@@ -52770,7 +52832,7 @@
       <c r="AB579" s="9"/>
       <c r="AC579" s="9"/>
     </row>
-    <row r="580" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B580" s="7">
         <v>579</v>
       </c>
@@ -52821,7 +52883,7 @@
       <c r="AB580" s="9"/>
       <c r="AC580" s="9"/>
     </row>
-    <row r="581" spans="2:29" ht="28" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B581" s="7">
         <v>580</v>
       </c>
@@ -52872,7 +52934,7 @@
       <c r="AB581" s="9"/>
       <c r="AC581" s="9"/>
     </row>
-    <row r="582" spans="2:29" ht="42" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B582" s="7">
         <v>581</v>
       </c>
@@ -53094,7 +53156,7 @@
       <c r="O586" s="9">
         <v>8</v>
       </c>
-      <c r="Y586" s="55" t="s">
+      <c r="Y586" s="54" t="s">
         <v>1703</v>
       </c>
       <c r="AC586" s="9"/>
@@ -53156,10 +53218,10 @@
         <v>1728</v>
       </c>
       <c r="F588" s="9" t="s">
-        <v>1782</v>
+        <v>1888</v>
       </c>
       <c r="G588" s="9" t="s">
-        <v>362</v>
+        <v>1887</v>
       </c>
       <c r="H588" s="9" t="s">
         <v>1782</v>
@@ -53198,10 +53260,10 @@
         <v>1728</v>
       </c>
       <c r="F589" s="9" t="s">
-        <v>1788</v>
+        <v>1886</v>
       </c>
       <c r="G589" s="9" t="s">
-        <v>362</v>
+        <v>1161</v>
       </c>
       <c r="H589" s="9" t="s">
         <v>1788</v>
@@ -53243,7 +53305,7 @@
         <v>1789</v>
       </c>
       <c r="G590" s="9" t="s">
-        <v>362</v>
+        <v>1885</v>
       </c>
       <c r="H590" s="9" t="s">
         <v>1789</v>
@@ -53282,10 +53344,10 @@
         <v>1728</v>
       </c>
       <c r="F591" s="9" t="s">
-        <v>1790</v>
+        <v>1883</v>
       </c>
       <c r="G591" s="9" t="s">
-        <v>362</v>
+        <v>1884</v>
       </c>
       <c r="H591" s="9" t="s">
         <v>1790</v>
@@ -53353,49 +53415,49 @@
       <c r="AC592" s="9"/>
     </row>
     <row r="593" spans="2:29" ht="126" x14ac:dyDescent="0.35">
-      <c r="B593" s="50">
+      <c r="B593" s="49">
         <v>592</v>
       </c>
-      <c r="C593" s="51" t="s">
+      <c r="C593" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="D593" s="51" t="s">
+      <c r="D593" s="50" t="s">
         <v>1787</v>
       </c>
-      <c r="E593" s="52" t="s">
+      <c r="E593" s="51" t="s">
         <v>1728</v>
       </c>
-      <c r="F593" s="51" t="s">
+      <c r="F593" s="50" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G593" s="50" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H593" s="50" t="s">
         <v>1792</v>
       </c>
-      <c r="G593" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="H593" s="51" t="s">
-        <v>1792</v>
-      </c>
-      <c r="I593" s="52" t="s">
+      <c r="I593" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J593" s="52" t="s">
+      <c r="J593" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="K593" s="52">
+      <c r="K593" s="51">
         <v>14</v>
       </c>
-      <c r="L593" s="52" t="s">
+      <c r="L593" s="51" t="s">
         <v>596</v>
       </c>
-      <c r="M593" s="51"/>
-      <c r="N593" s="51"/>
-      <c r="O593" s="51">
+      <c r="M593" s="50"/>
+      <c r="N593" s="50"/>
+      <c r="O593" s="50">
         <v>3.5</v>
       </c>
-      <c r="Y593" s="51"/>
-      <c r="AC593" s="51"/>
-    </row>
-    <row r="594" spans="2:29" ht="28" x14ac:dyDescent="0.35">
-      <c r="B594" s="53">
+      <c r="Y593" s="50"/>
+      <c r="AC593" s="50"/>
+    </row>
+    <row r="594" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B594" s="52">
         <v>593</v>
       </c>
       <c r="C594" s="9" t="s">
@@ -53404,7 +53466,7 @@
       <c r="D594" s="9" t="s">
         <v>1834</v>
       </c>
-      <c r="E594" s="49" t="s">
+      <c r="E594" s="48" t="s">
         <v>1728</v>
       </c>
       <c r="F594" s="9" t="s">
@@ -53421,12 +53483,12 @@
         <v>628</v>
       </c>
       <c r="K594" s="9" t="s">
-        <v>1824</v>
-      </c>
-      <c r="L594" s="9"/>
-      <c r="M594" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>1908</v>
+      </c>
+      <c r="L594" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="M594" s="9"/>
       <c r="N594" s="9"/>
       <c r="O594" s="9" t="s">
         <v>362</v>
@@ -53446,8 +53508,8 @@
       <c r="AB594" s="9"/>
       <c r="AC594" s="9"/>
     </row>
-    <row r="595" spans="2:29" ht="28" x14ac:dyDescent="0.35">
-      <c r="B595" s="53">
+    <row r="595" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="B595" s="52">
         <v>594</v>
       </c>
       <c r="C595" s="9" t="s">
@@ -53456,7 +53518,7 @@
       <c r="D595" s="9" t="s">
         <v>1835</v>
       </c>
-      <c r="E595" s="49" t="s">
+      <c r="E595" s="48" t="s">
         <v>1728</v>
       </c>
       <c r="F595" s="9" t="s">
@@ -53475,10 +53537,10 @@
       <c r="K595" s="9" t="s">
         <v>1839</v>
       </c>
-      <c r="L595" s="9"/>
-      <c r="M595" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="L595" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M595" s="9"/>
       <c r="N595" s="9"/>
       <c r="O595" s="9" t="s">
         <v>362</v>
@@ -53498,28 +53560,348 @@
       <c r="AB595" s="9"/>
       <c r="AC595" s="9"/>
     </row>
-    <row r="596" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="E596" s="46"/>
-    </row>
-    <row r="597" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E597" s="47"/>
-    </row>
-    <row r="598" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I598" s="26" t="s">
+    <row r="596" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="B596" s="52">
+        <v>595</v>
+      </c>
+      <c r="C596" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D596" s="64" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E596" s="57" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F596" s="62" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G596" s="9" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H596" s="9"/>
+      <c r="I596" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J596" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="K596" s="9" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L596" s="57" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M596" s="57" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N596" s="9"/>
+      <c r="O596" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P596" s="9"/>
+      <c r="Q596" s="9"/>
+      <c r="R596" s="9"/>
+      <c r="S596" s="9"/>
+      <c r="T596" s="9"/>
+      <c r="U596" s="9"/>
+      <c r="V596" s="9"/>
+      <c r="W596" s="9"/>
+      <c r="X596" s="9"/>
+      <c r="Y596" s="9"/>
+      <c r="Z596" s="9"/>
+      <c r="AA596" s="9"/>
+      <c r="AB596" s="9"/>
+      <c r="AC596" s="9"/>
+    </row>
+    <row r="597" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="B597" s="52">
+        <v>596</v>
+      </c>
+      <c r="C597" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D597" s="64" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E597" s="57" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F597" s="62" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G597" s="9" t="s">
+        <v>1892</v>
+      </c>
+      <c r="H597" s="9"/>
+      <c r="I597" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J597" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="K597" s="9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="L597" s="57" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M597" s="57" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N597" s="9"/>
+      <c r="O597" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P597" s="9"/>
+      <c r="Q597" s="9"/>
+      <c r="R597" s="9"/>
+      <c r="S597" s="9"/>
+      <c r="T597" s="9"/>
+      <c r="U597" s="9"/>
+      <c r="V597" s="9"/>
+      <c r="W597" s="9"/>
+      <c r="X597" s="9"/>
+      <c r="Y597" s="9"/>
+      <c r="Z597" s="9"/>
+      <c r="AA597" s="9"/>
+      <c r="AB597" s="9"/>
+      <c r="AC597" s="9"/>
+    </row>
+    <row r="598" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="B598" s="52">
+        <v>597</v>
+      </c>
+      <c r="C598" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D598" s="9" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E598" s="57" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F598" s="63" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G598" s="9" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H598" s="9"/>
+      <c r="I598" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J598" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="K598" s="9" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L598" s="57" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M598" s="57" t="s">
+        <v>1531</v>
+      </c>
+      <c r="N598" s="9"/>
+      <c r="O598" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P598" s="9"/>
+      <c r="Q598" s="9"/>
+      <c r="R598" s="9"/>
+      <c r="S598" s="9"/>
+      <c r="T598" s="9"/>
+      <c r="U598" s="9"/>
+      <c r="V598" s="9"/>
+      <c r="W598" s="9"/>
+      <c r="X598" s="9"/>
+      <c r="Y598" s="9"/>
+      <c r="Z598" s="9"/>
+      <c r="AA598" s="9"/>
+      <c r="AB598" s="9"/>
+      <c r="AC598" s="9"/>
+    </row>
+    <row r="599" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="B599" s="52">
+        <v>598</v>
+      </c>
+      <c r="C599" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D599" s="64" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E599" s="57" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F599" s="64" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G599" s="9" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H599" s="9"/>
+      <c r="I599" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J599" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="K599" s="9" t="s">
+        <v>1829</v>
+      </c>
+      <c r="L599" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M599" s="9"/>
+      <c r="N599" s="9"/>
+      <c r="O599" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P599" s="9"/>
+      <c r="Q599" s="9"/>
+      <c r="R599" s="9"/>
+      <c r="S599" s="9"/>
+      <c r="T599" s="9"/>
+      <c r="U599" s="9"/>
+      <c r="V599" s="9"/>
+      <c r="W599" s="9"/>
+      <c r="X599" s="9"/>
+      <c r="Y599" s="9"/>
+      <c r="Z599" s="9"/>
+      <c r="AA599" s="9"/>
+      <c r="AB599" s="9"/>
+      <c r="AC599" s="9"/>
+    </row>
+    <row r="600" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B600" s="52">
+        <v>599</v>
+      </c>
+      <c r="C600" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D600" s="64" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E600" s="57" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F600" s="64" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G600" s="9" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H600" s="9"/>
+      <c r="I600" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J600" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="K600" s="9" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L600" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M600" s="9"/>
+      <c r="N600" s="9"/>
+      <c r="O600" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P600" s="9"/>
+      <c r="Q600" s="9"/>
+      <c r="R600" s="9"/>
+      <c r="S600" s="9"/>
+      <c r="T600" s="9"/>
+      <c r="U600" s="9"/>
+      <c r="V600" s="9"/>
+      <c r="W600" s="9"/>
+      <c r="X600" s="9"/>
+      <c r="Y600" s="9"/>
+      <c r="Z600" s="9"/>
+      <c r="AA600" s="9"/>
+      <c r="AB600" s="9"/>
+      <c r="AC600" s="9"/>
+    </row>
+    <row r="601" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="B601" s="52">
+        <v>600</v>
+      </c>
+      <c r="C601" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D601" s="64" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E601" s="57" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F601" s="62" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G601" s="9" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H601" s="9"/>
+      <c r="I601" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J601" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="K601" s="9" t="s">
+        <v>1904</v>
+      </c>
+      <c r="L601" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="M601" s="9"/>
+      <c r="N601" s="9"/>
+      <c r="O601" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P601" s="9"/>
+      <c r="Q601" s="9"/>
+      <c r="R601" s="9"/>
+      <c r="S601" s="9"/>
+      <c r="T601" s="9"/>
+      <c r="U601" s="9"/>
+      <c r="V601" s="9"/>
+      <c r="W601" s="9"/>
+      <c r="X601" s="9"/>
+      <c r="Y601" s="9"/>
+      <c r="Z601" s="9"/>
+      <c r="AA601" s="9"/>
+      <c r="AB601" s="9"/>
+      <c r="AC601" s="9"/>
+    </row>
+    <row r="602" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E602" s="46"/>
+    </row>
+    <row r="603" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I603" s="26" t="s">
         <v>1696</v>
       </c>
-      <c r="J598" s="27"/>
-      <c r="K598" s="27"/>
-      <c r="L598" s="27"/>
-      <c r="M598" s="27"/>
-      <c r="N598" s="27"/>
-      <c r="O598" s="27">
+      <c r="J603" s="27"/>
+      <c r="K603" s="27"/>
+      <c r="L603" s="27"/>
+      <c r="M603" s="27"/>
+      <c r="N603" s="27"/>
+      <c r="O603" s="27">
         <f>SUM(O5:O593)</f>
         <v>4781.9499999999935</v>
       </c>
     </row>
+    <row r="607" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="D607" s="8" t="s">
+        <v>1903</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:AB595" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A4:AB601" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="2">
     <mergeCell ref="D90:D91"/>
     <mergeCell ref="B2:D2"/>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FFC3672B-97C1-43CC-990A-F808D5EA6FD9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{453C354E-F52B-487E-A4CE-7840DECFABC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5175" uniqueCount="1921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="1922">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6373,6 +6373,9 @@
   </si>
   <si>
     <t>Tech Story - Sync with updated Sync API of Kernel post working hours changes in Kernel</t>
+  </si>
+  <si>
+    <t>Upload Portal/Mechanism to upload Registration packets from an external device</t>
   </si>
 </sst>
 </file>
@@ -6624,7 +6627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6808,6 +6811,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22052,7 +22058,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22734,7 +22740,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
+      <c r="A1" s="64"/>
       <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23633,7 +23639,9 @@
         <v>633</v>
       </c>
       <c r="K20" s="45"/>
-      <c r="L20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>907</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -24416,7 +24424,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>71</v>
+        <v>1921</v>
       </c>
       <c r="G38" s="51" t="s">
         <v>1841</v>
@@ -26293,7 +26301,9 @@
       <c r="K74" s="45">
         <v>22</v>
       </c>
-      <c r="L74" s="12"/>
+      <c r="L74" s="12" t="s">
+        <v>907</v>
+      </c>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
@@ -29664,7 +29674,9 @@
       <c r="K137" s="45">
         <v>28</v>
       </c>
-      <c r="L137" s="12"/>
+      <c r="L137" s="12" t="s">
+        <v>907</v>
+      </c>
       <c r="M137" s="12"/>
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>

--- a/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
+++ b/_files/requirements/MOSIP_Backlog_Consolidated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip.docs\mosip-docs.wiki\_files\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip-docs.wiki\_files\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{453C354E-F52B-487E-A4CE-7840DECFABC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{422D3C0A-1CCE-488C-BBE6-D1505DA13CBC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="1947">
   <si>
     <t>MOSIP - Consolidated Roadmap post 30Jun</t>
   </si>
@@ -6376,6 +6376,81 @@
   </si>
   <si>
     <t>Upload Portal/Mechanism to upload Registration packets from an external device</t>
+  </si>
+  <si>
+    <t>UI: Mark fields as optional in primary and secondary side</t>
+  </si>
+  <si>
+    <t>MOS-28952</t>
+  </si>
+  <si>
+    <t>UI: As the Administrator, I should be able to see which fields are optional on the Registration Center Screen on both Primary and Secondary Language</t>
+  </si>
+  <si>
+    <t>MOS Sprint 17</t>
+  </si>
+  <si>
+    <t>API: Add Zone authorization in Center Decommission API</t>
+  </si>
+  <si>
+    <t>API: Add Zone authorization in Machine Decommission API</t>
+  </si>
+  <si>
+    <t>API: Add Zone authorization in Device Decommission API</t>
+  </si>
+  <si>
+    <t>MOS-28784</t>
+  </si>
+  <si>
+    <t>MOS-28786</t>
+  </si>
+  <si>
+    <t>MOS-28785</t>
+  </si>
+  <si>
+    <t>MOS-29009</t>
+  </si>
+  <si>
+    <t>Implement Roles Restriction on Admin</t>
+  </si>
+  <si>
+    <t>MOS-29002</t>
+  </si>
+  <si>
+    <t>UI: As the Admin Application, I should be able to see a blank screen where there are no records for a Masterdata for an applied filter</t>
+  </si>
+  <si>
+    <t>UII should be able to see a blank screen when there are no records for a Masterdata</t>
+  </si>
+  <si>
+    <t>MOS-29003</t>
+  </si>
+  <si>
+    <t>MOS-29005</t>
+  </si>
+  <si>
+    <t>MOS-29007</t>
+  </si>
+  <si>
+    <t>Implement breadcrumbs and hyperlink menu for master data</t>
+  </si>
+  <si>
+    <t>UI: As the Administrator, I should be able to navigate to Key-Cloak screen of User list view when clicking on User on the left navigation menu</t>
+  </si>
+  <si>
+    <t>For Master data that do not have Create/Update screens, provide alternate approach other than through DB - EG: Curl</t>
+  </si>
+  <si>
+    <t>Add KeyCloak User List View URL</t>
+  </si>
+  <si>
+    <t>Add Steps to create/Update Masterdata</t>
+  </si>
+  <si>
+    <t>MOS-29008</t>
+  </si>
+  <si>
+    <t>Alogn UI to the VD design</t>
   </si>
 </sst>
 </file>
@@ -6627,7 +6702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6803,6 +6878,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6812,8 +6893,11 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22058,7 +22142,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -22517,37 +22601,37 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -22555,7 +22639,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>594</v>
       </c>
@@ -22563,7 +22647,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>1714</v>
       </c>
@@ -22571,7 +22655,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>1707</v>
       </c>
@@ -22603,7 +22687,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>600</v>
       </c>
@@ -22635,7 +22719,7 @@
         <v>585.70000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>700</v>
       </c>
@@ -22659,7 +22743,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
         <v>1708</v>
       </c>
@@ -22699,64 +22783,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC610"/>
+  <dimension ref="A1:AC620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="8" customWidth="1"/>
     <col min="5" max="5" width="28" style="8" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="12.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="12.81640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" style="8" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1796875" style="8" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="20" style="8" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="15.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.5703125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="43.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="15.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="43.54296875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="43.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.81640625" style="8" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="37.140625" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="8"/>
+    <col min="29" max="29" width="37.1796875" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64"/>
+    <row r="1" spans="1:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="61"/>
       <c r="K1" s="46"/>
     </row>
-    <row r="2" spans="1:29" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
+    <row r="2" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="K2" s="46"/>
       <c r="AA2" s="21"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="K3" s="46"/>
       <c r="AA3" s="21"/>
     </row>
-    <row r="4" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>1678</v>
       </c>
@@ -22842,7 +22926,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -22888,7 +22972,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>2</v>
       </c>
@@ -22944,7 +23028,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
     </row>
-    <row r="7" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -23000,7 +23084,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -23056,7 +23140,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>5</v>
       </c>
@@ -23112,7 +23196,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -23168,7 +23252,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -23224,7 +23308,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>8</v>
       </c>
@@ -23280,7 +23364,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
     </row>
-    <row r="13" spans="1:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -23336,7 +23420,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
     </row>
-    <row r="14" spans="1:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -23384,7 +23468,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>11</v>
       </c>
@@ -23432,7 +23516,7 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -23478,7 +23562,7 @@
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
     </row>
-    <row r="17" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -23524,7 +23608,7 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
     </row>
-    <row r="18" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>14</v>
       </c>
@@ -23568,7 +23652,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -23614,7 +23698,7 @@
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
     </row>
-    <row r="20" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -23660,7 +23744,7 @@
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>17</v>
       </c>
@@ -23704,7 +23788,7 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -23746,7 +23830,7 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
     </row>
-    <row r="23" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -23790,7 +23874,7 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>20</v>
       </c>
@@ -23832,7 +23916,7 @@
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -23874,7 +23958,7 @@
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -23924,7 +24008,7 @@
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
     </row>
-    <row r="27" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>23</v>
       </c>
@@ -23968,7 +24052,7 @@
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
     </row>
-    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -24014,7 +24098,7 @@
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
     </row>
-    <row r="29" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -24062,7 +24146,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
     </row>
-    <row r="30" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>26</v>
       </c>
@@ -24102,7 +24186,7 @@
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
     </row>
-    <row r="31" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -24142,7 +24226,7 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
     </row>
-    <row r="32" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>28</v>
       </c>
@@ -24188,7 +24272,7 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>29</v>
       </c>
@@ -24228,7 +24312,7 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
     </row>
-    <row r="34" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>30</v>
       </c>
@@ -24272,7 +24356,7 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>31</v>
       </c>
@@ -24314,7 +24398,7 @@
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="36" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <v>32</v>
       </c>
@@ -24362,7 +24446,7 @@
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
     </row>
-    <row r="37" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <v>33</v>
       </c>
@@ -24410,7 +24494,7 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
     </row>
-    <row r="38" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>34</v>
       </c>
@@ -24466,7 +24550,7 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
     </row>
-    <row r="39" spans="2:29" s="16" customFormat="1" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" s="16" customFormat="1" ht="168" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <v>35</v>
       </c>
@@ -24516,7 +24600,7 @@
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
     </row>
-    <row r="40" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>36</v>
       </c>
@@ -24566,7 +24650,7 @@
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
     </row>
-    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>37</v>
       </c>
@@ -24616,7 +24700,7 @@
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
     </row>
-    <row r="42" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>38</v>
       </c>
@@ -24666,7 +24750,7 @@
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
     </row>
-    <row r="43" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>39</v>
       </c>
@@ -24716,7 +24800,7 @@
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
     </row>
-    <row r="44" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <v>40</v>
       </c>
@@ -24772,7 +24856,7 @@
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
     </row>
-    <row r="45" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>41</v>
       </c>
@@ -24826,7 +24910,7 @@
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
     </row>
-    <row r="46" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>42</v>
       </c>
@@ -24884,7 +24968,7 @@
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
     </row>
-    <row r="47" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <v>43</v>
       </c>
@@ -24934,7 +25018,7 @@
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
     </row>
-    <row r="48" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>44</v>
       </c>
@@ -24982,7 +25066,7 @@
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>45</v>
       </c>
@@ -25032,7 +25116,7 @@
       <c r="AB49" s="9"/>
       <c r="AC49" s="9"/>
     </row>
-    <row r="50" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <v>46</v>
       </c>
@@ -25082,7 +25166,7 @@
       <c r="AB50" s="9"/>
       <c r="AC50" s="9"/>
     </row>
-    <row r="51" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <v>47</v>
       </c>
@@ -25130,7 +25214,7 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="9"/>
     </row>
-    <row r="52" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>48</v>
       </c>
@@ -25180,7 +25264,7 @@
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
     </row>
-    <row r="53" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <v>49</v>
       </c>
@@ -25232,7 +25316,7 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
     </row>
-    <row r="54" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <v>50</v>
       </c>
@@ -25284,7 +25368,7 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
     </row>
-    <row r="55" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>51</v>
       </c>
@@ -25336,7 +25420,7 @@
       <c r="AB55" s="9"/>
       <c r="AC55" s="9"/>
     </row>
-    <row r="56" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B56" s="7">
         <v>52</v>
       </c>
@@ -25388,7 +25472,7 @@
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
     </row>
-    <row r="57" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B57" s="7">
         <v>53</v>
       </c>
@@ -25450,7 +25534,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>54</v>
       </c>
@@ -25498,7 +25582,7 @@
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
     </row>
-    <row r="59" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>55</v>
       </c>
@@ -25550,7 +25634,7 @@
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
     </row>
-    <row r="60" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>56</v>
       </c>
@@ -25604,7 +25688,7 @@
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
     </row>
-    <row r="61" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B61" s="7">
         <v>57</v>
       </c>
@@ -25658,7 +25742,7 @@
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
     </row>
-    <row r="62" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B62" s="7">
         <v>58</v>
       </c>
@@ -25720,7 +25804,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="63" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>59</v>
       </c>
@@ -25776,7 +25860,7 @@
       </c>
       <c r="AC63" s="9"/>
     </row>
-    <row r="64" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>60</v>
       </c>
@@ -25830,7 +25914,7 @@
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
     </row>
-    <row r="65" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>61</v>
       </c>
@@ -25876,7 +25960,7 @@
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
     </row>
-    <row r="66" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B66" s="7">
         <v>62</v>
       </c>
@@ -25922,7 +26006,7 @@
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
     </row>
-    <row r="67" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B67" s="7">
         <v>63</v>
       </c>
@@ -25986,7 +26070,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="68" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>64</v>
       </c>
@@ -26034,7 +26118,7 @@
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
     </row>
-    <row r="69" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B69" s="7">
         <v>65</v>
       </c>
@@ -26082,7 +26166,7 @@
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
     </row>
-    <row r="70" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B70" s="7">
         <v>66</v>
       </c>
@@ -26130,7 +26214,7 @@
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
     </row>
-    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>67</v>
       </c>
@@ -26176,7 +26260,7 @@
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
     </row>
-    <row r="72" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>68</v>
       </c>
@@ -26222,7 +26306,7 @@
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B73" s="7">
         <v>69</v>
       </c>
@@ -26270,7 +26354,7 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
     </row>
-    <row r="74" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B74" s="7">
         <v>70</v>
       </c>
@@ -26324,7 +26408,7 @@
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
     </row>
-    <row r="75" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B75" s="7">
         <v>71</v>
       </c>
@@ -26380,7 +26464,7 @@
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
     </row>
-    <row r="76" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B76" s="7">
         <v>72</v>
       </c>
@@ -26440,7 +26524,7 @@
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
     </row>
-    <row r="77" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B77" s="7">
         <v>73</v>
       </c>
@@ -26502,7 +26586,7 @@
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
     </row>
-    <row r="78" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B78" s="7">
         <v>74</v>
       </c>
@@ -26564,7 +26648,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="79" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>75</v>
       </c>
@@ -26624,7 +26708,7 @@
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
     </row>
-    <row r="80" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B80" s="7">
         <v>76</v>
       </c>
@@ -26686,7 +26770,7 @@
       </c>
       <c r="AC80" s="9"/>
     </row>
-    <row r="81" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B81" s="7">
         <v>77</v>
       </c>
@@ -26748,7 +26832,7 @@
       </c>
       <c r="AC81" s="9"/>
     </row>
-    <row r="82" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B82" s="7">
         <v>78</v>
       </c>
@@ -26808,7 +26892,7 @@
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
     </row>
-    <row r="83" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B83" s="7">
         <v>79</v>
       </c>
@@ -26872,7 +26956,7 @@
       </c>
       <c r="AC83" s="9"/>
     </row>
-    <row r="84" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B84" s="7">
         <v>80</v>
       </c>
@@ -26934,7 +27018,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="85" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B85" s="7">
         <v>81</v>
       </c>
@@ -26993,7 +27077,7 @@
       </c>
       <c r="AB85" s="9"/>
     </row>
-    <row r="86" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B86" s="7">
         <v>82</v>
       </c>
@@ -27041,7 +27125,7 @@
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
     </row>
-    <row r="87" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B87" s="7">
         <v>83</v>
       </c>
@@ -27105,7 +27189,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="88" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B88" s="7">
         <v>84</v>
       </c>
@@ -27165,7 +27249,7 @@
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
     </row>
-    <row r="89" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B89" s="7">
         <v>85</v>
       </c>
@@ -27219,14 +27303,14 @@
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
     </row>
-    <row r="90" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B90" s="7">
         <v>86</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="60" t="s">
+      <c r="D90" s="62" t="s">
         <v>148</v>
       </c>
       <c r="E90" s="12" t="s">
@@ -27267,14 +27351,14 @@
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
     </row>
-    <row r="91" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B91" s="7">
         <v>87</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="60"/>
+      <c r="D91" s="62"/>
       <c r="E91" s="12" t="s">
         <v>18</v>
       </c>
@@ -27313,7 +27397,7 @@
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
     </row>
-    <row r="92" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B92" s="7">
         <v>88</v>
       </c>
@@ -27361,7 +27445,7 @@
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
     </row>
-    <row r="93" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B93" s="7">
         <v>89</v>
       </c>
@@ -27409,7 +27493,7 @@
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
     </row>
-    <row r="94" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B94" s="7">
         <v>90</v>
       </c>
@@ -27457,7 +27541,7 @@
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
     </row>
-    <row r="95" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B95" s="7">
         <v>91</v>
       </c>
@@ -27517,7 +27601,7 @@
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
     </row>
-    <row r="96" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B96" s="7">
         <v>92</v>
       </c>
@@ -27565,7 +27649,7 @@
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
     </row>
-    <row r="97" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B97" s="7">
         <v>93</v>
       </c>
@@ -27611,7 +27695,7 @@
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
     </row>
-    <row r="98" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B98" s="7">
         <v>94</v>
       </c>
@@ -27659,7 +27743,7 @@
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
     </row>
-    <row r="99" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B99" s="7">
         <v>95</v>
       </c>
@@ -27713,7 +27797,7 @@
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
     </row>
-    <row r="100" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B100" s="7">
         <v>96</v>
       </c>
@@ -27763,7 +27847,7 @@
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
     </row>
-    <row r="101" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B101" s="7">
         <v>97</v>
       </c>
@@ -27811,7 +27895,7 @@
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
     </row>
-    <row r="102" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <v>98</v>
       </c>
@@ -27859,7 +27943,7 @@
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
     </row>
-    <row r="103" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <v>99</v>
       </c>
@@ -27909,7 +27993,7 @@
       <c r="AB103" s="9"/>
       <c r="AC103" s="9"/>
     </row>
-    <row r="104" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B104" s="7">
         <v>100</v>
       </c>
@@ -27957,7 +28041,7 @@
       <c r="AB104" s="9"/>
       <c r="AC104" s="9"/>
     </row>
-    <row r="105" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B105" s="7">
         <v>101</v>
       </c>
@@ -28005,7 +28089,7 @@
       <c r="AB105" s="9"/>
       <c r="AC105" s="9"/>
     </row>
-    <row r="106" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B106" s="7">
         <v>102</v>
       </c>
@@ -28057,7 +28141,7 @@
       <c r="AB106" s="9"/>
       <c r="AC106" s="9"/>
     </row>
-    <row r="107" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B107" s="7">
         <v>103</v>
       </c>
@@ -28103,7 +28187,7 @@
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
     </row>
-    <row r="108" spans="2:29" ht="399" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B108" s="7">
         <v>104</v>
       </c>
@@ -28159,7 +28243,7 @@
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
     </row>
-    <row r="109" spans="2:29" ht="370.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B109" s="7">
         <v>105</v>
       </c>
@@ -28211,7 +28295,7 @@
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
     </row>
-    <row r="110" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B110" s="7">
         <v>106</v>
       </c>
@@ -28267,7 +28351,7 @@
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
     </row>
-    <row r="111" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B111" s="7">
         <v>107</v>
       </c>
@@ -28319,7 +28403,7 @@
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
     </row>
-    <row r="112" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B112" s="7">
         <v>108</v>
       </c>
@@ -28375,7 +28459,7 @@
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
     </row>
-    <row r="113" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B113" s="7">
         <v>109</v>
       </c>
@@ -28427,7 +28511,7 @@
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
     </row>
-    <row r="114" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B114" s="7">
         <v>110</v>
       </c>
@@ -28479,7 +28563,7 @@
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
     </row>
-    <row r="115" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B115" s="7">
         <v>111</v>
       </c>
@@ -28531,7 +28615,7 @@
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
     </row>
-    <row r="116" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B116" s="7">
         <v>112</v>
       </c>
@@ -28583,7 +28667,7 @@
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
     </row>
-    <row r="117" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B117" s="7">
         <v>113</v>
       </c>
@@ -28641,7 +28725,7 @@
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
     </row>
-    <row r="118" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B118" s="7">
         <v>114</v>
       </c>
@@ -28697,7 +28781,7 @@
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
     </row>
-    <row r="119" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B119" s="7">
         <v>115</v>
       </c>
@@ -28749,7 +28833,7 @@
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
     </row>
-    <row r="120" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B120" s="7">
         <v>116</v>
       </c>
@@ -28801,7 +28885,7 @@
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
     </row>
-    <row r="121" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:29" ht="294" x14ac:dyDescent="0.35">
       <c r="B121" s="7">
         <v>117</v>
       </c>
@@ -28853,7 +28937,7 @@
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
     </row>
-    <row r="122" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B122" s="7">
         <v>118</v>
       </c>
@@ -28905,7 +28989,7 @@
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
     </row>
-    <row r="123" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B123" s="7">
         <v>119</v>
       </c>
@@ -28955,7 +29039,7 @@
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
     </row>
-    <row r="124" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B124" s="7">
         <v>120</v>
       </c>
@@ -29011,7 +29095,7 @@
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
     </row>
-    <row r="125" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B125" s="7">
         <v>121</v>
       </c>
@@ -29063,7 +29147,7 @@
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
     </row>
-    <row r="126" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B126" s="7">
         <v>122</v>
       </c>
@@ -29115,7 +29199,7 @@
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
     </row>
-    <row r="127" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B127" s="7">
         <v>123</v>
       </c>
@@ -29173,7 +29257,7 @@
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
     </row>
-    <row r="128" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B128" s="7">
         <v>124</v>
       </c>
@@ -29231,7 +29315,7 @@
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
     </row>
-    <row r="129" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B129" s="7">
         <v>125</v>
       </c>
@@ -29283,7 +29367,7 @@
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
     </row>
-    <row r="130" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B130" s="7">
         <v>126</v>
       </c>
@@ -29335,7 +29419,7 @@
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
     </row>
-    <row r="131" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B131" s="7">
         <v>127</v>
       </c>
@@ -29387,7 +29471,7 @@
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
     </row>
-    <row r="132" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B132" s="7">
         <v>128</v>
       </c>
@@ -29439,7 +29523,7 @@
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
     </row>
-    <row r="133" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B133" s="7">
         <v>129</v>
       </c>
@@ -29491,7 +29575,7 @@
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
     </row>
-    <row r="134" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B134" s="7">
         <v>130</v>
       </c>
@@ -29549,7 +29633,7 @@
       <c r="AB134" s="9"/>
       <c r="AC134" s="9"/>
     </row>
-    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B135" s="7">
         <v>131</v>
       </c>
@@ -29595,7 +29679,7 @@
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
     </row>
-    <row r="136" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B136" s="7">
         <v>132</v>
       </c>
@@ -29643,7 +29727,7 @@
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
     </row>
-    <row r="137" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B137" s="7">
         <v>133</v>
       </c>
@@ -29695,7 +29779,7 @@
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
     </row>
-    <row r="138" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:29" ht="308" x14ac:dyDescent="0.35">
       <c r="B138" s="7">
         <v>134</v>
       </c>
@@ -29749,7 +29833,7 @@
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
     </row>
-    <row r="139" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B139" s="7">
         <v>135</v>
       </c>
@@ -29797,7 +29881,7 @@
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
     </row>
-    <row r="140" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B140" s="7">
         <v>136</v>
       </c>
@@ -29849,7 +29933,7 @@
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
     </row>
-    <row r="141" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B141" s="7">
         <v>137</v>
       </c>
@@ -29903,7 +29987,7 @@
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
     </row>
-    <row r="142" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B142" s="7">
         <v>138</v>
       </c>
@@ -29965,7 +30049,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="143" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B143" s="7">
         <v>139</v>
       </c>
@@ -30027,7 +30111,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="144" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B144" s="7">
         <v>140</v>
       </c>
@@ -30091,7 +30175,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="145" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B145" s="7">
         <v>141</v>
       </c>
@@ -30150,7 +30234,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="146" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B146" s="7">
         <v>142</v>
       </c>
@@ -30210,7 +30294,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="147" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B147" s="7">
         <v>143</v>
       </c>
@@ -30272,7 +30356,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="148" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B148" s="7">
         <v>144</v>
       </c>
@@ -30328,7 +30412,7 @@
       <c r="AB148" s="9"/>
       <c r="AC148" s="9"/>
     </row>
-    <row r="149" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B149" s="7">
         <v>145</v>
       </c>
@@ -30382,7 +30466,7 @@
       <c r="AB149" s="9"/>
       <c r="AC149" s="9"/>
     </row>
-    <row r="150" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B150" s="7">
         <v>146</v>
       </c>
@@ -30434,7 +30518,7 @@
       <c r="AB150" s="9"/>
       <c r="AC150" s="9"/>
     </row>
-    <row r="151" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B151" s="7">
         <v>147</v>
       </c>
@@ -30484,7 +30568,7 @@
       <c r="AB151" s="9"/>
       <c r="AC151" s="9"/>
     </row>
-    <row r="152" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B152" s="7">
         <v>148</v>
       </c>
@@ -30534,7 +30618,7 @@
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
     </row>
-    <row r="153" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B153" s="7">
         <v>149</v>
       </c>
@@ -30590,7 +30674,7 @@
       </c>
       <c r="AC153" s="9"/>
     </row>
-    <row r="154" spans="2:29" ht="342" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B154" s="7">
         <v>150</v>
       </c>
@@ -30638,7 +30722,7 @@
       <c r="AB154" s="9"/>
       <c r="AC154" s="9"/>
     </row>
-    <row r="155" spans="2:29" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B155" s="7">
         <v>151</v>
       </c>
@@ -30686,7 +30770,7 @@
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
     </row>
-    <row r="156" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:29" ht="378" x14ac:dyDescent="0.35">
       <c r="B156" s="7">
         <v>152</v>
       </c>
@@ -30736,7 +30820,7 @@
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
     </row>
-    <row r="157" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B157" s="7">
         <v>153</v>
       </c>
@@ -30790,7 +30874,7 @@
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
     </row>
-    <row r="158" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B158" s="7">
         <v>154</v>
       </c>
@@ -30842,7 +30926,7 @@
       <c r="AB158" s="9"/>
       <c r="AC158" s="9"/>
     </row>
-    <row r="159" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B159" s="7">
         <v>155</v>
       </c>
@@ -30904,7 +30988,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="160" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B160" s="7">
         <v>156</v>
       </c>
@@ -30954,7 +31038,7 @@
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
     </row>
-    <row r="161" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B161" s="7">
         <v>157</v>
       </c>
@@ -31002,7 +31086,7 @@
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
     </row>
-    <row r="162" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B162" s="7">
         <v>158</v>
       </c>
@@ -31058,7 +31142,7 @@
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
     </row>
-    <row r="163" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B163" s="7">
         <v>159</v>
       </c>
@@ -31108,7 +31192,7 @@
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
     </row>
-    <row r="164" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B164" s="7">
         <v>160</v>
       </c>
@@ -31156,7 +31240,7 @@
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
     </row>
-    <row r="165" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B165" s="7">
         <v>161</v>
       </c>
@@ -31206,7 +31290,7 @@
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
     </row>
-    <row r="166" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B166" s="7">
         <v>162</v>
       </c>
@@ -31254,7 +31338,7 @@
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
     </row>
-    <row r="167" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B167" s="7">
         <v>163</v>
       </c>
@@ -31302,7 +31386,7 @@
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
     </row>
-    <row r="168" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B168" s="7">
         <v>164</v>
       </c>
@@ -31352,7 +31436,7 @@
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
     </row>
-    <row r="169" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B169" s="7">
         <v>165</v>
       </c>
@@ -31404,7 +31488,7 @@
       <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
     </row>
-    <row r="170" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B170" s="7">
         <v>166</v>
       </c>
@@ -31464,7 +31548,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="171" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B171" s="7">
         <v>167</v>
       </c>
@@ -31514,7 +31598,7 @@
       <c r="AB171" s="9"/>
       <c r="AC171" s="9"/>
     </row>
-    <row r="172" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B172" s="7">
         <v>168</v>
       </c>
@@ -31564,7 +31648,7 @@
       <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
     </row>
-    <row r="173" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B173" s="7">
         <v>169</v>
       </c>
@@ -31616,7 +31700,7 @@
       <c r="AB173" s="9"/>
       <c r="AC173" s="9"/>
     </row>
-    <row r="174" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B174" s="7">
         <v>170</v>
       </c>
@@ -31666,7 +31750,7 @@
       <c r="AB174" s="9"/>
       <c r="AC174" s="9"/>
     </row>
-    <row r="175" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B175" s="7">
         <v>171</v>
       </c>
@@ -31720,7 +31804,7 @@
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
     </row>
-    <row r="176" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B176" s="7">
         <v>172</v>
       </c>
@@ -31782,7 +31866,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="177" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B177" s="7">
         <v>173</v>
       </c>
@@ -31838,7 +31922,7 @@
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
     </row>
-    <row r="178" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B178" s="7">
         <v>174</v>
       </c>
@@ -31892,7 +31976,7 @@
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
     </row>
-    <row r="179" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B179" s="7">
         <v>175</v>
       </c>
@@ -31946,7 +32030,7 @@
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
     </row>
-    <row r="180" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B180" s="7">
         <v>176</v>
       </c>
@@ -32000,7 +32084,7 @@
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
     </row>
-    <row r="181" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B181" s="7">
         <v>177</v>
       </c>
@@ -32054,7 +32138,7 @@
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
     </row>
-    <row r="182" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B182" s="7">
         <v>178</v>
       </c>
@@ -32108,7 +32192,7 @@
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
     </row>
-    <row r="183" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B183" s="7">
         <v>179</v>
       </c>
@@ -32162,7 +32246,7 @@
       <c r="AB183" s="9"/>
       <c r="AC183" s="9"/>
     </row>
-    <row r="184" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B184" s="7">
         <v>180</v>
       </c>
@@ -32214,7 +32298,7 @@
       <c r="AB184" s="9"/>
       <c r="AC184" s="9"/>
     </row>
-    <row r="185" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B185" s="7">
         <v>181</v>
       </c>
@@ -32276,7 +32360,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="186" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B186" s="7">
         <v>182</v>
       </c>
@@ -32338,7 +32422,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="187" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B187" s="7">
         <v>183</v>
       </c>
@@ -32402,7 +32486,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="188" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B188" s="7">
         <v>184</v>
       </c>
@@ -32464,7 +32548,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="189" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B189" s="7">
         <v>185</v>
       </c>
@@ -32524,7 +32608,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="190" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B190" s="7">
         <v>186</v>
       </c>
@@ -32582,7 +32666,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="191" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B191" s="7">
         <v>187</v>
       </c>
@@ -32642,7 +32726,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="192" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B192" s="7">
         <v>188</v>
       </c>
@@ -32696,7 +32780,7 @@
       <c r="AB192" s="9"/>
       <c r="AC192" s="9"/>
     </row>
-    <row r="193" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B193" s="7">
         <v>189</v>
       </c>
@@ -32752,7 +32836,7 @@
       <c r="AB193" s="9"/>
       <c r="AC193" s="9"/>
     </row>
-    <row r="194" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B194" s="7">
         <v>190</v>
       </c>
@@ -32809,7 +32893,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="195" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B195" s="7">
         <v>191</v>
       </c>
@@ -32868,7 +32952,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="196" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B196" s="7">
         <v>192</v>
       </c>
@@ -32924,7 +33008,7 @@
       </c>
       <c r="AC196" s="9"/>
     </row>
-    <row r="197" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B197" s="7">
         <v>193</v>
       </c>
@@ -32980,7 +33064,7 @@
       <c r="AB197" s="9"/>
       <c r="AC197" s="9"/>
     </row>
-    <row r="198" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B198" s="7">
         <v>194</v>
       </c>
@@ -33040,7 +33124,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="199" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B199" s="7">
         <v>195</v>
       </c>
@@ -33094,7 +33178,7 @@
       <c r="AB199" s="9"/>
       <c r="AC199" s="9"/>
     </row>
-    <row r="200" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B200" s="7">
         <v>196</v>
       </c>
@@ -33146,7 +33230,7 @@
       <c r="AB200" s="9"/>
       <c r="AC200" s="9"/>
     </row>
-    <row r="201" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B201" s="7">
         <v>197</v>
       </c>
@@ -33202,7 +33286,7 @@
       <c r="AB201" s="9"/>
       <c r="AC201" s="9"/>
     </row>
-    <row r="202" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B202" s="7">
         <v>198</v>
       </c>
@@ -33258,7 +33342,7 @@
       <c r="AB202" s="9"/>
       <c r="AC202" s="9"/>
     </row>
-    <row r="203" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:29" ht="350" x14ac:dyDescent="0.35">
       <c r="B203" s="7">
         <v>199</v>
       </c>
@@ -33322,7 +33406,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="204" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B204" s="7">
         <v>200</v>
       </c>
@@ -33384,7 +33468,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="205" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B205" s="7">
         <v>201</v>
       </c>
@@ -33446,7 +33530,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="206" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B206" s="7">
         <v>202</v>
       </c>
@@ -33508,7 +33592,7 @@
       </c>
       <c r="AC206" s="9"/>
     </row>
-    <row r="207" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B207" s="7">
         <v>203</v>
       </c>
@@ -33572,7 +33656,7 @@
       </c>
       <c r="AC207" s="9"/>
     </row>
-    <row r="208" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B208" s="7">
         <v>204</v>
       </c>
@@ -33634,7 +33718,7 @@
       </c>
       <c r="AC208" s="9"/>
     </row>
-    <row r="209" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B209" s="7">
         <v>205</v>
       </c>
@@ -33696,7 +33780,7 @@
       </c>
       <c r="AC209" s="9"/>
     </row>
-    <row r="210" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B210" s="7">
         <v>206</v>
       </c>
@@ -33746,7 +33830,7 @@
       <c r="AB210" s="9"/>
       <c r="AC210" s="9"/>
     </row>
-    <row r="211" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B211" s="7">
         <v>207</v>
       </c>
@@ -33802,7 +33886,7 @@
       <c r="AB211" s="9"/>
       <c r="AC211" s="9"/>
     </row>
-    <row r="212" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B212" s="7">
         <v>208</v>
       </c>
@@ -33852,7 +33936,7 @@
       <c r="AB212" s="9"/>
       <c r="AC212" s="9"/>
     </row>
-    <row r="213" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B213" s="7">
         <v>209</v>
       </c>
@@ -33902,7 +33986,7 @@
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
     </row>
-    <row r="214" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B214" s="7">
         <v>210</v>
       </c>
@@ -33962,7 +34046,7 @@
       <c r="AB214" s="9"/>
       <c r="AC214" s="9"/>
     </row>
-    <row r="215" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B215" s="7">
         <v>211</v>
       </c>
@@ -34012,7 +34096,7 @@
       <c r="AB215" s="9"/>
       <c r="AC215" s="9"/>
     </row>
-    <row r="216" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B216" s="7">
         <v>212</v>
       </c>
@@ -34064,7 +34148,7 @@
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
     </row>
-    <row r="217" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B217" s="7">
         <v>213</v>
       </c>
@@ -34126,7 +34210,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="218" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B218" s="7">
         <v>214</v>
       </c>
@@ -34184,7 +34268,7 @@
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
     </row>
-    <row r="219" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B219" s="7">
         <v>215</v>
       </c>
@@ -34244,7 +34328,7 @@
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
     </row>
-    <row r="220" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B220" s="7">
         <v>216</v>
       </c>
@@ -34300,7 +34384,7 @@
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
     </row>
-    <row r="221" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B221" s="7">
         <v>217</v>
       </c>
@@ -34356,7 +34440,7 @@
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
     </row>
-    <row r="222" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B222" s="7">
         <v>218</v>
       </c>
@@ -34412,7 +34496,7 @@
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
     </row>
-    <row r="223" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B223" s="7">
         <v>219</v>
       </c>
@@ -34468,7 +34552,7 @@
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
     </row>
-    <row r="224" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B224" s="7">
         <v>220</v>
       </c>
@@ -34526,7 +34610,7 @@
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
     </row>
-    <row r="225" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B225" s="7">
         <v>221</v>
       </c>
@@ -34584,7 +34668,7 @@
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
     </row>
-    <row r="226" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B226" s="7">
         <v>222</v>
       </c>
@@ -34644,7 +34728,7 @@
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
     </row>
-    <row r="227" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B227" s="7">
         <v>223</v>
       </c>
@@ -34700,7 +34784,7 @@
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
     </row>
-    <row r="228" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B228" s="7">
         <v>224</v>
       </c>
@@ -34754,7 +34838,7 @@
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
     </row>
-    <row r="229" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B229" s="7">
         <v>225</v>
       </c>
@@ -34812,7 +34896,7 @@
       <c r="AB229" s="9"/>
       <c r="AC229" s="9"/>
     </row>
-    <row r="230" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B230" s="7">
         <v>226</v>
       </c>
@@ -34862,7 +34946,7 @@
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
     </row>
-    <row r="231" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B231" s="7">
         <v>227</v>
       </c>
@@ -34912,7 +34996,7 @@
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
     </row>
-    <row r="232" spans="2:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B232" s="7">
         <v>228</v>
       </c>
@@ -34962,7 +35046,7 @@
       <c r="AB232" s="9"/>
       <c r="AC232" s="9"/>
     </row>
-    <row r="233" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B233" s="7">
         <v>229</v>
       </c>
@@ -35016,7 +35100,7 @@
       <c r="AB233" s="9"/>
       <c r="AC233" s="9"/>
     </row>
-    <row r="234" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B234" s="7">
         <v>230</v>
       </c>
@@ -35068,7 +35152,7 @@
       <c r="AB234" s="9"/>
       <c r="AC234" s="9"/>
     </row>
-    <row r="235" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B235" s="7">
         <v>231</v>
       </c>
@@ -35122,7 +35206,7 @@
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
     </row>
-    <row r="236" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B236" s="7">
         <v>232</v>
       </c>
@@ -35174,7 +35258,7 @@
       <c r="AB236" s="9"/>
       <c r="AC236" s="9"/>
     </row>
-    <row r="237" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B237" s="7">
         <v>233</v>
       </c>
@@ -35230,7 +35314,7 @@
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
     </row>
-    <row r="238" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B238" s="7">
         <v>234</v>
       </c>
@@ -35284,7 +35368,7 @@
       <c r="AB238" s="9"/>
       <c r="AC238" s="9"/>
     </row>
-    <row r="239" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B239" s="7">
         <v>235</v>
       </c>
@@ -35338,7 +35422,7 @@
       <c r="AB239" s="9"/>
       <c r="AC239" s="9"/>
     </row>
-    <row r="240" spans="2:29" ht="285" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B240" s="7">
         <v>236</v>
       </c>
@@ -35398,7 +35482,7 @@
       <c r="AB240" s="9"/>
       <c r="AC240" s="9"/>
     </row>
-    <row r="241" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B241" s="7">
         <v>237</v>
       </c>
@@ -35452,7 +35536,7 @@
       <c r="AB241" s="9"/>
       <c r="AC241" s="9"/>
     </row>
-    <row r="242" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B242" s="7">
         <v>238</v>
       </c>
@@ -35506,7 +35590,7 @@
       <c r="AB242" s="9"/>
       <c r="AC242" s="9"/>
     </row>
-    <row r="243" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B243" s="7">
         <v>239</v>
       </c>
@@ -35566,7 +35650,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="244" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B244" s="7">
         <v>240</v>
       </c>
@@ -35628,7 +35712,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="245" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:29" ht="266" x14ac:dyDescent="0.35">
       <c r="B245" s="7">
         <v>241</v>
       </c>
@@ -35688,7 +35772,7 @@
       </c>
       <c r="AC245" s="9"/>
     </row>
-    <row r="246" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B246" s="7">
         <v>242</v>
       </c>
@@ -35750,7 +35834,7 @@
       </c>
       <c r="AC246" s="9"/>
     </row>
-    <row r="247" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B247" s="7">
         <v>243</v>
       </c>
@@ -35808,7 +35892,7 @@
       </c>
       <c r="AC247" s="9"/>
     </row>
-    <row r="248" spans="2:29" ht="384.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:29" ht="364" x14ac:dyDescent="0.35">
       <c r="B248" s="7">
         <v>244</v>
       </c>
@@ -35870,7 +35954,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="249" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B249" s="7">
         <v>245</v>
       </c>
@@ -35924,7 +36008,7 @@
       <c r="AB249" s="9"/>
       <c r="AC249" s="9"/>
     </row>
-    <row r="250" spans="2:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B250" s="7">
         <v>246</v>
       </c>
@@ -35978,7 +36062,7 @@
       <c r="AB250" s="9"/>
       <c r="AC250" s="9"/>
     </row>
-    <row r="251" spans="2:29" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:29" s="16" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="B251" s="7">
         <v>247</v>
       </c>
@@ -36032,7 +36116,7 @@
       <c r="AB251" s="40"/>
       <c r="AC251" s="40"/>
     </row>
-    <row r="252" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B252" s="7">
         <v>248</v>
       </c>
@@ -36086,7 +36170,7 @@
       <c r="AB252" s="9"/>
       <c r="AC252" s="9"/>
     </row>
-    <row r="253" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B253" s="7">
         <v>249</v>
       </c>
@@ -36142,7 +36226,7 @@
       <c r="AB253" s="9"/>
       <c r="AC253" s="9"/>
     </row>
-    <row r="254" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B254" s="7">
         <v>250</v>
       </c>
@@ -36194,7 +36278,7 @@
       <c r="AB254" s="9"/>
       <c r="AC254" s="9"/>
     </row>
-    <row r="255" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B255" s="7">
         <v>251</v>
       </c>
@@ -36254,7 +36338,7 @@
       </c>
       <c r="AC255" s="9"/>
     </row>
-    <row r="256" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B256" s="7">
         <v>252</v>
       </c>
@@ -36316,7 +36400,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="257" spans="1:29" ht="57" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B257" s="7">
         <v>253</v>
       </c>
@@ -36376,7 +36460,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="258" spans="1:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B258" s="7">
         <v>254</v>
       </c>
@@ -36440,7 +36524,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="259" spans="1:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B259" s="7">
         <v>255</v>
       </c>
@@ -36502,7 +36586,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="260" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B260" s="7">
         <v>256</v>
       </c>
@@ -36558,7 +36642,7 @@
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
     </row>
-    <row r="261" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B261" s="7">
         <v>257</v>
       </c>
@@ -36616,7 +36700,7 @@
       </c>
       <c r="AC261" s="9"/>
     </row>
-    <row r="262" spans="1:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B262" s="7">
         <v>258</v>
       </c>
@@ -36668,7 +36752,7 @@
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
     </row>
-    <row r="263" spans="1:29" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B263" s="7">
         <v>259</v>
       </c>
@@ -36728,7 +36812,7 @@
       <c r="AB263" s="9"/>
       <c r="AC263" s="9"/>
     </row>
-    <row r="264" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B264" s="7">
         <v>260</v>
       </c>
@@ -36788,7 +36872,7 @@
       <c r="AB264" s="9"/>
       <c r="AC264" s="9"/>
     </row>
-    <row r="265" spans="1:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B265" s="7">
         <v>261</v>
       </c>
@@ -36850,7 +36934,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="266" spans="1:29" s="16" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" s="16" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="B266" s="7">
         <v>262</v>
       </c>
@@ -36904,7 +36988,7 @@
       <c r="AB266" s="40"/>
       <c r="AC266" s="40"/>
     </row>
-    <row r="267" spans="1:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" ht="84" x14ac:dyDescent="0.35">
       <c r="A267" s="16"/>
       <c r="B267" s="7">
         <v>263</v>
@@ -36959,7 +37043,7 @@
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
     </row>
-    <row r="268" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B268" s="7">
         <v>264</v>
       </c>
@@ -37013,7 +37097,7 @@
       <c r="AB268" s="9"/>
       <c r="AC268" s="9"/>
     </row>
-    <row r="269" spans="1:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B269" s="7">
         <v>265</v>
       </c>
@@ -37059,7 +37143,7 @@
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
     </row>
-    <row r="270" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B270" s="7">
         <v>266</v>
       </c>
@@ -37121,7 +37205,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="271" spans="1:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B271" s="7">
         <v>267</v>
       </c>
@@ -37179,7 +37263,7 @@
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
     </row>
-    <row r="272" spans="1:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B272" s="7">
         <v>268</v>
       </c>
@@ -37235,7 +37319,7 @@
       <c r="AB272" s="9"/>
       <c r="AC272" s="9"/>
     </row>
-    <row r="273" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B273" s="7">
         <v>269</v>
       </c>
@@ -37295,7 +37379,7 @@
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
     </row>
-    <row r="274" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B274" s="7">
         <v>270</v>
       </c>
@@ -37355,7 +37439,7 @@
       </c>
       <c r="AC274" s="9"/>
     </row>
-    <row r="275" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:29" ht="56" x14ac:dyDescent="0.35">
       <c r="B275" s="7">
         <v>271</v>
       </c>
@@ -37409,7 +37493,7 @@
       <c r="AB275" s="9"/>
       <c r="AC275" s="9"/>
     </row>
-    <row r="276" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B276" s="7">
         <v>272</v>
       </c>
@@ -37469,7 +37553,7 @@
       </c>
       <c r="AC276" s="9"/>
     </row>
-    <row r="277" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B277" s="7">
         <v>273</v>
       </c>
@@ -37529,7 +37613,7 @@
       </c>
       <c r="AC277" s="9"/>
     </row>
-    <row r="278" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B278" s="7">
         <v>274</v>
       </c>
@@ -37585,7 +37669,7 @@
       </c>
       <c r="AC278" s="9"/>
     </row>
-    <row r="279" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B279" s="7">
         <v>275</v>
       </c>
@@ -37629,7 +37713,7 @@
       <c r="AB279" s="9"/>
       <c r="AC279" s="9"/>
     </row>
-    <row r="280" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B280" s="7">
         <v>276</v>
       </c>
@@ -37673,7 +37757,7 @@
       <c r="AB280" s="9"/>
       <c r="AC280" s="9"/>
     </row>
-    <row r="281" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B281" s="7">
         <v>277</v>
       </c>
@@ -37717,7 +37801,7 @@
       <c r="AB281" s="9"/>
       <c r="AC281" s="9"/>
     </row>
-    <row r="282" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B282" s="7">
         <v>278</v>
       </c>
@@ -37761,7 +37845,7 @@
       <c r="AB282" s="9"/>
       <c r="AC282" s="9"/>
     </row>
-    <row r="283" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B283" s="7">
         <v>279</v>
       </c>
@@ -37805,7 +37889,7 @@
       <c r="AB283" s="9"/>
       <c r="AC283" s="9"/>
     </row>
-    <row r="284" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B284" s="7">
         <v>280</v>
       </c>
@@ -37849,7 +37933,7 @@
       <c r="AB284" s="9"/>
       <c r="AC284" s="9"/>
     </row>
-    <row r="285" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B285" s="7">
         <v>281</v>
       </c>
@@ -37897,7 +37981,7 @@
       <c r="AB285" s="9"/>
       <c r="AC285" s="9"/>
     </row>
-    <row r="286" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B286" s="7">
         <v>282</v>
       </c>
@@ -37941,7 +38025,7 @@
       <c r="AB286" s="9"/>
       <c r="AC286" s="9"/>
     </row>
-    <row r="287" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B287" s="7">
         <v>283</v>
       </c>
@@ -37985,7 +38069,7 @@
       <c r="AB287" s="9"/>
       <c r="AC287" s="9"/>
     </row>
-    <row r="288" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B288" s="7">
         <v>284</v>
       </c>
@@ -38031,7 +38115,7 @@
       <c r="AB288" s="9"/>
       <c r="AC288" s="9"/>
     </row>
-    <row r="289" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B289" s="7">
         <v>285</v>
       </c>
@@ -38077,7 +38161,7 @@
       <c r="AB289" s="9"/>
       <c r="AC289" s="9"/>
     </row>
-    <row r="290" spans="2:29" ht="171" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B290" s="7">
         <v>286</v>
       </c>
@@ -38131,7 +38215,7 @@
       <c r="AB290" s="9"/>
       <c r="AC290" s="9"/>
     </row>
-    <row r="291" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B291" s="7">
         <v>287</v>
       </c>
@@ -38177,7 +38261,7 @@
       <c r="AB291" s="9"/>
       <c r="AC291" s="9"/>
     </row>
-    <row r="292" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B292" s="7">
         <v>288</v>
       </c>
@@ -38221,7 +38305,7 @@
       <c r="AB292" s="9"/>
       <c r="AC292" s="9"/>
     </row>
-    <row r="293" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B293" s="7">
         <v>289</v>
       </c>
@@ -38275,7 +38359,7 @@
       <c r="AB293" s="9"/>
       <c r="AC293" s="9"/>
     </row>
-    <row r="294" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B294" s="7">
         <v>290</v>
       </c>
@@ -38325,7 +38409,7 @@
       <c r="AB294" s="9"/>
       <c r="AC294" s="9"/>
     </row>
-    <row r="295" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B295" s="7">
         <v>291</v>
       </c>
@@ -38369,7 +38453,7 @@
       <c r="AB295" s="9"/>
       <c r="AC295" s="9"/>
     </row>
-    <row r="296" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B296" s="7">
         <v>292</v>
       </c>
@@ -38413,7 +38497,7 @@
       <c r="AB296" s="9"/>
       <c r="AC296" s="9"/>
     </row>
-    <row r="297" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B297" s="7">
         <v>293</v>
       </c>
@@ -38459,7 +38543,7 @@
       <c r="AB297" s="9"/>
       <c r="AC297" s="9"/>
     </row>
-    <row r="298" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B298" s="7">
         <v>294</v>
       </c>
@@ -38509,7 +38593,7 @@
       <c r="AB298" s="9"/>
       <c r="AC298" s="9"/>
     </row>
-    <row r="299" spans="2:29" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B299" s="7">
         <v>295</v>
       </c>
@@ -38563,7 +38647,7 @@
       <c r="AB299" s="9"/>
       <c r="AC299" s="9"/>
     </row>
-    <row r="300" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B300" s="7">
         <v>296</v>
       </c>
@@ -38607,7 +38691,7 @@
       <c r="AB300" s="9"/>
       <c r="AC300" s="9"/>
     </row>
-    <row r="301" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B301" s="7">
         <v>297</v>
       </c>
@@ -38651,7 +38735,7 @@
       <c r="AB301" s="9"/>
       <c r="AC301" s="9"/>
     </row>
-    <row r="302" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B302" s="7">
         <v>298</v>
       </c>
@@ -38695,7 +38779,7 @@
       <c r="AB302" s="9"/>
       <c r="AC302" s="9"/>
     </row>
-    <row r="303" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B303" s="7">
         <v>299</v>
       </c>
@@ -38739,7 +38823,7 @@
       <c r="AB303" s="9"/>
       <c r="AC303" s="9"/>
     </row>
-    <row r="304" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B304" s="7">
         <v>300</v>
       </c>
@@ -38783,7 +38867,7 @@
       <c r="AB304" s="9"/>
       <c r="AC304" s="9"/>
     </row>
-    <row r="305" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B305" s="7">
         <v>301</v>
       </c>
@@ -38827,7 +38911,7 @@
       <c r="AB305" s="9"/>
       <c r="AC305" s="9"/>
     </row>
-    <row r="306" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B306" s="7">
         <v>302</v>
       </c>
@@ -38871,7 +38955,7 @@
       <c r="AB306" s="9"/>
       <c r="AC306" s="9"/>
     </row>
-    <row r="307" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B307" s="7">
         <v>303</v>
       </c>
@@ -38917,7 +39001,7 @@
       <c r="AB307" s="9"/>
       <c r="AC307" s="9"/>
     </row>
-    <row r="308" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B308" s="7">
         <v>304</v>
       </c>
@@ -38963,7 +39047,7 @@
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
     </row>
-    <row r="309" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B309" s="7">
         <v>305</v>
       </c>
@@ -39009,7 +39093,7 @@
       <c r="AB309" s="9"/>
       <c r="AC309" s="9"/>
     </row>
-    <row r="310" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B310" s="7">
         <v>306</v>
       </c>
@@ -39055,7 +39139,7 @@
       <c r="AB310" s="9"/>
       <c r="AC310" s="9"/>
     </row>
-    <row r="311" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B311" s="7">
         <v>307</v>
       </c>
@@ -39101,7 +39185,7 @@
       <c r="AB311" s="9"/>
       <c r="AC311" s="9"/>
     </row>
-    <row r="312" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B312" s="7">
         <v>308</v>
       </c>
@@ -39145,7 +39229,7 @@
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
     </row>
-    <row r="313" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B313" s="7">
         <v>309</v>
       </c>
@@ -39189,7 +39273,7 @@
       <c r="AB313" s="9"/>
       <c r="AC313" s="9"/>
     </row>
-    <row r="314" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B314" s="7">
         <v>310</v>
       </c>
@@ -39231,7 +39315,7 @@
       <c r="AB314" s="9"/>
       <c r="AC314" s="9"/>
     </row>
-    <row r="315" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B315" s="7">
         <v>311</v>
       </c>
@@ -39273,7 +39357,7 @@
       <c r="AB315" s="9"/>
       <c r="AC315" s="9"/>
     </row>
-    <row r="316" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B316" s="7">
         <v>312</v>
       </c>
@@ -39315,7 +39399,7 @@
       <c r="AB316" s="9"/>
       <c r="AC316" s="9"/>
     </row>
-    <row r="317" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B317" s="7">
         <v>313</v>
       </c>
@@ -39357,7 +39441,7 @@
       <c r="AB317" s="9"/>
       <c r="AC317" s="9"/>
     </row>
-    <row r="318" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B318" s="7">
         <v>314</v>
       </c>
@@ -39403,7 +39487,7 @@
       <c r="AB318" s="9"/>
       <c r="AC318" s="9"/>
     </row>
-    <row r="319" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B319" s="7">
         <v>315</v>
       </c>
@@ -39447,7 +39531,7 @@
       <c r="AB319" s="9"/>
       <c r="AC319" s="9"/>
     </row>
-    <row r="320" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B320" s="7">
         <v>316</v>
       </c>
@@ -39491,7 +39575,7 @@
       <c r="AB320" s="9"/>
       <c r="AC320" s="9"/>
     </row>
-    <row r="321" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B321" s="7">
         <v>317</v>
       </c>
@@ -39535,7 +39619,7 @@
       <c r="AB321" s="9"/>
       <c r="AC321" s="9"/>
     </row>
-    <row r="322" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B322" s="7">
         <v>318</v>
       </c>
@@ -39577,7 +39661,7 @@
       <c r="AB322" s="9"/>
       <c r="AC322" s="9"/>
     </row>
-    <row r="323" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B323" s="7">
         <v>319</v>
       </c>
@@ -39619,7 +39703,7 @@
       <c r="AB323" s="9"/>
       <c r="AC323" s="9"/>
     </row>
-    <row r="324" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B324" s="7">
         <v>320</v>
       </c>
@@ -39661,7 +39745,7 @@
       <c r="AB324" s="9"/>
       <c r="AC324" s="9"/>
     </row>
-    <row r="325" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B325" s="7">
         <v>321</v>
       </c>
@@ -39705,7 +39789,7 @@
       <c r="AB325" s="9"/>
       <c r="AC325" s="9"/>
     </row>
-    <row r="326" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B326" s="7">
         <v>322</v>
       </c>
@@ -39749,7 +39833,7 @@
       <c r="AB326" s="9"/>
       <c r="AC326" s="9"/>
     </row>
-    <row r="327" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B327" s="7">
         <v>323</v>
       </c>
@@ -39793,7 +39877,7 @@
       <c r="AB327" s="9"/>
       <c r="AC327" s="9"/>
     </row>
-    <row r="328" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B328" s="7">
         <v>324</v>
       </c>
@@ -39839,7 +39923,7 @@
       <c r="AB328" s="9"/>
       <c r="AC328" s="9"/>
     </row>
-    <row r="329" spans="2:29" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B329" s="7">
         <v>325</v>
       </c>
@@ -39885,7 +39969,7 @@
       <c r="AB329" s="9"/>
       <c r="AC329" s="9"/>
     </row>
-    <row r="330" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B330" s="7">
         <v>326</v>
       </c>
@@ -39931,7 +40015,7 @@
       <c r="AB330" s="9"/>
       <c r="AC330" s="9"/>
     </row>
-    <row r="331" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:29" ht="84" x14ac:dyDescent="0.35">
       <c r="B331" s="7">
         <v>327</v>
       </c>
@@ -39981,7 +40065,7 @@
       <c r="AB331" s="9"/>
       <c r="AC331" s="9"/>
     </row>
-    <row r="332" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B332" s="7">
         <v>328</v>
       </c>
@@ -40023,7 +40107,7 @@
       <c r="AB332" s="9"/>
       <c r="AC332" s="9"/>
     </row>
-    <row r="333" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B333" s="7">
         <v>329</v>
       </c>
@@ -40069,7 +40153,7 @@
       <c r="AB333" s="9"/>
       <c r="AC333" s="9"/>
     </row>
-    <row r="334" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B334" s="7">
         <v>330</v>
       </c>
@@ -40116,7 +40200,7 @@
       <c r="AB334" s="9"/>
       <c r="AC334" s="9"/>
     </row>
-    <row r="335" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B335" s="7">
         <v>331</v>
       </c>
@@ -40163,7 +40247,7 @@
       <c r="AB335" s="9"/>
       <c r="AC335" s="9"/>
     </row>
-    <row r="336" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B336" s="7">
         <v>332</v>
       </c>
@@ -40211,7 +40295,7 @@
       <c r="AB336" s="9"/>
       <c r="AC336" s="9"/>
     </row>
-    <row r="337" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B337" s="7">
         <v>333</v>
       </c>
@@ -40258,7 +40342,7 @@
       <c r="AB337" s="9"/>
       <c r="AC337" s="9"/>
     </row>
-    <row r="338" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:29" ht="98" x14ac:dyDescent="0.35">
       <c r="B338" s="7">
         <v>334</v>
       </c>
@@ -40305,7 +40389,7 @@
       <c r="AB338" s="9"/>
       <c r="AC338" s="9"/>
     </row>
-    <row r="339" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B339" s="7">
         <v>335</v>
       </c>
@@ -40352,7 +40436,7 @@
       <c r="AB339" s="9"/>
       <c r="AC339" s="9"/>
     </row>
-    <row r="340" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B340" s="7">
         <v>336</v>
       </c>
@@ -40403,7 +40487,7 @@
       <c r="AB340" s="9"/>
       <c r="AC340" s="9"/>
     </row>
-    <row r="341" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B341" s="7">
         <v>337</v>
       </c>
@@ -40454,7 +40538,7 @@
       <c r="AB341" s="9"/>
       <c r="AC341" s="9"/>
     </row>
-    <row r="342" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B342" s="7">
         <v>338</v>
       </c>
@@ -40505,7 +40589,7 @@
       <c r="AB342" s="9"/>
       <c r="AC342" s="9"/>
     </row>
-    <row r="343" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B343" s="7">
         <v>339</v>
       </c>
@@ -40556,7 +40640,7 @@
       <c r="AB343" s="9"/>
       <c r="AC343" s="9"/>
     </row>
-    <row r="344" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B344" s="7">
         <v>340</v>
       </c>
@@ -40607,7 +40691,7 @@
       <c r="AB344" s="9"/>
       <c r="AC344" s="9"/>
     </row>
-    <row r="345" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B345" s="7">
         <v>341</v>
       </c>
@@ -40656,7 +40740,7 @@
       <c r="AB345" s="9"/>
       <c r="AC345" s="9"/>
     </row>
-    <row r="346" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B346" s="7">
         <v>342</v>
       </c>
@@ -40709,7 +40793,7 @@
       <c r="AB346" s="9"/>
       <c r="AC346" s="9"/>
     </row>
-    <row r="347" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B347" s="7">
         <v>343</v>
       </c>
@@ -40758,7 +40842,7 @@
       <c r="AB347" s="9"/>
       <c r="AC347" s="9"/>
     </row>
-    <row r="348" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B348" s="7">
         <v>344</v>
       </c>
@@ -40811,7 +40895,7 @@
       <c r="AB348" s="9"/>
       <c r="AC348" s="9"/>
     </row>
-    <row r="349" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B349" s="7">
         <v>345</v>
       </c>
@@ -40860,7 +40944,7 @@
       <c r="AB349" s="9"/>
       <c r="AC349" s="9"/>
     </row>
-    <row r="350" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B350" s="7">
         <v>346</v>
       </c>
@@ -40917,7 +41001,7 @@
       </c>
       <c r="AC350" s="9"/>
     </row>
-    <row r="351" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B351" s="7">
         <v>347</v>
       </c>
@@ -40970,7 +41054,7 @@
       <c r="AB351" s="9"/>
       <c r="AC351" s="9"/>
     </row>
-    <row r="352" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B352" s="7">
         <v>348</v>
       </c>
@@ -41023,7 +41107,7 @@
       <c r="AB352" s="9"/>
       <c r="AC352" s="9"/>
     </row>
-    <row r="353" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B353" s="7">
         <v>349</v>
       </c>
@@ -41076,7 +41160,7 @@
       <c r="AB353" s="9"/>
       <c r="AC353" s="9"/>
     </row>
-    <row r="354" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B354" s="7">
         <v>350</v>
       </c>
@@ -41129,7 +41213,7 @@
       <c r="AB354" s="9"/>
       <c r="AC354" s="9"/>
     </row>
-    <row r="355" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B355" s="7">
         <v>351</v>
       </c>
@@ -41182,7 +41266,7 @@
       <c r="AB355" s="9"/>
       <c r="AC355" s="9"/>
     </row>
-    <row r="356" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B356" s="7">
         <v>352</v>
       </c>
@@ -41235,7 +41319,7 @@
       <c r="AB356" s="9"/>
       <c r="AC356" s="9"/>
     </row>
-    <row r="357" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B357" s="7">
         <v>353</v>
       </c>
@@ -41288,7 +41372,7 @@
       <c r="AB357" s="9"/>
       <c r="AC357" s="9"/>
     </row>
-    <row r="358" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B358" s="7">
         <v>354</v>
       </c>
@@ -41341,7 +41425,7 @@
       <c r="AB358" s="9"/>
       <c r="AC358" s="9"/>
     </row>
-    <row r="359" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B359" s="7">
         <v>355</v>
       </c>
@@ -41394,7 +41478,7 @@
       <c r="AB359" s="9"/>
       <c r="AC359" s="9"/>
     </row>
-    <row r="360" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B360" s="7">
         <v>356</v>
       </c>
@@ -41447,7 +41531,7 @@
       <c r="AB360" s="9"/>
       <c r="AC360" s="9"/>
     </row>
-    <row r="361" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B361" s="7">
         <v>357</v>
       </c>
@@ -41500,7 +41584,7 @@
       <c r="AB361" s="9"/>
       <c r="AC361" s="9"/>
     </row>
-    <row r="362" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B362" s="7">
         <v>358</v>
       </c>
@@ -41553,7 +41637,7 @@
       <c r="AB362" s="9"/>
       <c r="AC362" s="9"/>
     </row>
-    <row r="363" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B363" s="7">
         <v>359</v>
       </c>
@@ -41606,7 +41690,7 @@
       <c r="AB363" s="9"/>
       <c r="AC363" s="9"/>
     </row>
-    <row r="364" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B364" s="7">
         <v>360</v>
       </c>
@@ -41655,7 +41739,7 @@
       <c r="AB364" s="9"/>
       <c r="AC364" s="9"/>
     </row>
-    <row r="365" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B365" s="7">
         <v>361</v>
       </c>
@@ -41712,7 +41796,7 @@
       </c>
       <c r="AC365" s="9"/>
     </row>
-    <row r="366" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B366" s="7">
         <v>362</v>
       </c>
@@ -41771,7 +41855,7 @@
       </c>
       <c r="AC366" s="9"/>
     </row>
-    <row r="367" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B367" s="7">
         <v>363</v>
       </c>
@@ -41820,7 +41904,7 @@
       <c r="AB367" s="9"/>
       <c r="AC367" s="9"/>
     </row>
-    <row r="368" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B368" s="7">
         <v>364</v>
       </c>
@@ -41877,7 +41961,7 @@
       </c>
       <c r="AC368" s="9"/>
     </row>
-    <row r="369" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B369" s="7">
         <v>365</v>
       </c>
@@ -41926,7 +42010,7 @@
       <c r="AB369" s="9"/>
       <c r="AC369" s="9"/>
     </row>
-    <row r="370" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B370" s="7">
         <v>366</v>
       </c>
@@ -41983,7 +42067,7 @@
       </c>
       <c r="AC370" s="9"/>
     </row>
-    <row r="371" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B371" s="7">
         <v>367</v>
       </c>
@@ -42040,7 +42124,7 @@
       </c>
       <c r="AC371" s="9"/>
     </row>
-    <row r="372" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B372" s="7">
         <v>368</v>
       </c>
@@ -42099,7 +42183,7 @@
       </c>
       <c r="AC372" s="9"/>
     </row>
-    <row r="373" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B373" s="7">
         <v>369</v>
       </c>
@@ -42148,7 +42232,7 @@
       <c r="AB373" s="9"/>
       <c r="AC373" s="9"/>
     </row>
-    <row r="374" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B374" s="7">
         <v>370</v>
       </c>
@@ -42205,7 +42289,7 @@
       </c>
       <c r="AC374" s="9"/>
     </row>
-    <row r="375" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B375" s="7">
         <v>371</v>
       </c>
@@ -42254,7 +42338,7 @@
       <c r="AB375" s="9"/>
       <c r="AC375" s="9"/>
     </row>
-    <row r="376" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B376" s="7">
         <v>372</v>
       </c>
@@ -42311,7 +42395,7 @@
       </c>
       <c r="AC376" s="9"/>
     </row>
-    <row r="377" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B377" s="7">
         <v>373</v>
       </c>
@@ -42370,7 +42454,7 @@
       </c>
       <c r="AC377" s="9"/>
     </row>
-    <row r="378" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B378" s="7">
         <v>374</v>
       </c>
@@ -42419,7 +42503,7 @@
       <c r="AB378" s="9"/>
       <c r="AC378" s="9"/>
     </row>
-    <row r="379" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B379" s="7">
         <v>375</v>
       </c>
@@ -42476,7 +42560,7 @@
       </c>
       <c r="AC379" s="9"/>
     </row>
-    <row r="380" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B380" s="7">
         <v>376</v>
       </c>
@@ -42527,7 +42611,7 @@
       <c r="AB380" s="9"/>
       <c r="AC380" s="9"/>
     </row>
-    <row r="381" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B381" s="7">
         <v>377</v>
       </c>
@@ -42578,7 +42662,7 @@
       <c r="AB381" s="9"/>
       <c r="AC381" s="9"/>
     </row>
-    <row r="382" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B382" s="7">
         <v>378</v>
       </c>
@@ -42627,7 +42711,7 @@
       <c r="AB382" s="9"/>
       <c r="AC382" s="9"/>
     </row>
-    <row r="383" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B383" s="7">
         <v>379</v>
       </c>
@@ -42676,7 +42760,7 @@
       <c r="AB383" s="9"/>
       <c r="AC383" s="9"/>
     </row>
-    <row r="384" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B384" s="7">
         <v>380</v>
       </c>
@@ -42729,7 +42813,7 @@
       <c r="AB384" s="9"/>
       <c r="AC384" s="9"/>
     </row>
-    <row r="385" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B385" s="7">
         <v>381</v>
       </c>
@@ -42782,7 +42866,7 @@
       <c r="AB385" s="9"/>
       <c r="AC385" s="9"/>
     </row>
-    <row r="386" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B386" s="7">
         <v>382</v>
       </c>
@@ -42831,7 +42915,7 @@
       <c r="AB386" s="9"/>
       <c r="AC386" s="9"/>
     </row>
-    <row r="387" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B387" s="7">
         <v>383</v>
       </c>
@@ -42884,7 +42968,7 @@
       <c r="AB387" s="9"/>
       <c r="AC387" s="9"/>
     </row>
-    <row r="388" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B388" s="7">
         <v>384</v>
       </c>
@@ -42937,7 +43021,7 @@
       <c r="AB388" s="9"/>
       <c r="AC388" s="9"/>
     </row>
-    <row r="389" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B389" s="7">
         <v>385</v>
       </c>
@@ -42986,7 +43070,7 @@
       <c r="AB389" s="9"/>
       <c r="AC389" s="9"/>
     </row>
-    <row r="390" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B390" s="7">
         <v>386</v>
       </c>
@@ -43035,7 +43119,7 @@
       <c r="AB390" s="9"/>
       <c r="AC390" s="9"/>
     </row>
-    <row r="391" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B391" s="7">
         <v>387</v>
       </c>
@@ -43088,7 +43172,7 @@
       <c r="AB391" s="9"/>
       <c r="AC391" s="9"/>
     </row>
-    <row r="392" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B392" s="7">
         <v>388</v>
       </c>
@@ -43141,7 +43225,7 @@
       <c r="AB392" s="9"/>
       <c r="AC392" s="9"/>
     </row>
-    <row r="393" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B393" s="7">
         <v>389</v>
       </c>
@@ -43190,7 +43274,7 @@
       <c r="AB393" s="9"/>
       <c r="AC393" s="9"/>
     </row>
-    <row r="394" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B394" s="7">
         <v>390</v>
       </c>
@@ -43239,7 +43323,7 @@
       <c r="AB394" s="9"/>
       <c r="AC394" s="9"/>
     </row>
-    <row r="395" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B395" s="7">
         <v>391</v>
       </c>
@@ -43292,7 +43376,7 @@
       <c r="AB395" s="9"/>
       <c r="AC395" s="9"/>
     </row>
-    <row r="396" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B396" s="7">
         <v>392</v>
       </c>
@@ -43341,7 +43425,7 @@
       <c r="AB396" s="9"/>
       <c r="AC396" s="9"/>
     </row>
-    <row r="397" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B397" s="7">
         <v>393</v>
       </c>
@@ -43394,7 +43478,7 @@
       <c r="AB397" s="9"/>
       <c r="AC397" s="9"/>
     </row>
-    <row r="398" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B398" s="7">
         <v>394</v>
       </c>
@@ -43443,7 +43527,7 @@
       <c r="AB398" s="9"/>
       <c r="AC398" s="9"/>
     </row>
-    <row r="399" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B399" s="7">
         <v>395</v>
       </c>
@@ -43492,7 +43576,7 @@
       <c r="AB399" s="9"/>
       <c r="AC399" s="9"/>
     </row>
-    <row r="400" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B400" s="7">
         <v>396</v>
       </c>
@@ -43545,7 +43629,7 @@
       <c r="AB400" s="9"/>
       <c r="AC400" s="9"/>
     </row>
-    <row r="401" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B401" s="7">
         <v>397</v>
       </c>
@@ -43594,7 +43678,7 @@
       <c r="AB401" s="9"/>
       <c r="AC401" s="9"/>
     </row>
-    <row r="402" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B402" s="7">
         <v>398</v>
       </c>
@@ -43651,7 +43735,7 @@
       </c>
       <c r="AC402" s="9"/>
     </row>
-    <row r="403" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B403" s="7">
         <v>399</v>
       </c>
@@ -43704,7 +43788,7 @@
       <c r="AB403" s="9"/>
       <c r="AC403" s="9"/>
     </row>
-    <row r="404" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B404" s="7">
         <v>400</v>
       </c>
@@ -43755,7 +43839,7 @@
       <c r="AB404" s="9"/>
       <c r="AC404" s="9"/>
     </row>
-    <row r="405" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B405" s="7">
         <v>401</v>
       </c>
@@ -43806,7 +43890,7 @@
       <c r="AB405" s="9"/>
       <c r="AC405" s="9"/>
     </row>
-    <row r="406" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B406" s="7">
         <v>402</v>
       </c>
@@ -43855,7 +43939,7 @@
       <c r="AB406" s="9"/>
       <c r="AC406" s="9"/>
     </row>
-    <row r="407" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B407" s="7">
         <v>403</v>
       </c>
@@ -43906,7 +43990,7 @@
       <c r="AB407" s="9"/>
       <c r="AC407" s="9"/>
     </row>
-    <row r="408" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B408" s="7">
         <v>404</v>
       </c>
@@ -43955,7 +44039,7 @@
       <c r="AB408" s="9"/>
       <c r="AC408" s="9"/>
     </row>
-    <row r="409" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B409" s="7">
         <v>405</v>
       </c>
@@ -44008,7 +44092,7 @@
       <c r="AB409" s="9"/>
       <c r="AC409" s="9"/>
     </row>
-    <row r="410" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B410" s="7">
         <v>406</v>
       </c>
@@ -44057,7 +44141,7 @@
       <c r="AB410" s="9"/>
       <c r="AC410" s="9"/>
     </row>
-    <row r="411" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B411" s="7">
         <v>407</v>
       </c>
@@ -44106,7 +44190,7 @@
       <c r="AB411" s="9"/>
       <c r="AC411" s="9"/>
     </row>
-    <row r="412" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B412" s="7">
         <v>408</v>
       </c>
@@ -44159,7 +44243,7 @@
       <c r="AB412" s="9"/>
       <c r="AC412" s="9"/>
     </row>
-    <row r="413" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B413" s="7">
         <v>409</v>
       </c>
@@ -44208,7 +44292,7 @@
       <c r="AB413" s="9"/>
       <c r="AC413" s="9"/>
     </row>
-    <row r="414" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B414" s="7">
         <v>410</v>
       </c>
@@ -44261,7 +44345,7 @@
       <c r="AB414" s="9"/>
       <c r="AC414" s="9"/>
     </row>
-    <row r="415" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B415" s="7">
         <v>411</v>
       </c>
@@ -44314,7 +44398,7 @@
       <c r="AB415" s="9"/>
       <c r="AC415" s="9"/>
     </row>
-    <row r="416" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B416" s="7">
         <v>412</v>
       </c>
@@ -44365,7 +44449,7 @@
       <c r="AB416" s="9"/>
       <c r="AC416" s="9"/>
     </row>
-    <row r="417" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B417" s="7">
         <v>413</v>
       </c>
@@ -44418,7 +44502,7 @@
       <c r="AB417" s="9"/>
       <c r="AC417" s="9"/>
     </row>
-    <row r="418" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B418" s="7">
         <v>414</v>
       </c>
@@ -44469,7 +44553,7 @@
       <c r="AB418" s="9"/>
       <c r="AC418" s="9"/>
     </row>
-    <row r="419" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B419" s="7">
         <v>415</v>
       </c>
@@ -44528,7 +44612,7 @@
       </c>
       <c r="AC419" s="9"/>
     </row>
-    <row r="420" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B420" s="7">
         <v>416</v>
       </c>
@@ -44577,7 +44661,7 @@
       <c r="AB420" s="9"/>
       <c r="AC420" s="9"/>
     </row>
-    <row r="421" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B421" s="7">
         <v>417</v>
       </c>
@@ -44634,7 +44718,7 @@
       </c>
       <c r="AC421" s="9"/>
     </row>
-    <row r="422" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B422" s="7">
         <v>418</v>
       </c>
@@ -44683,7 +44767,7 @@
       <c r="AB422" s="9"/>
       <c r="AC422" s="9"/>
     </row>
-    <row r="423" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B423" s="7">
         <v>419</v>
       </c>
@@ -44736,7 +44820,7 @@
       <c r="AB423" s="9"/>
       <c r="AC423" s="9"/>
     </row>
-    <row r="424" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B424" s="7">
         <v>420</v>
       </c>
@@ -44793,7 +44877,7 @@
       </c>
       <c r="AC424" s="9"/>
     </row>
-    <row r="425" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B425" s="7">
         <v>421</v>
       </c>
@@ -44842,7 +44926,7 @@
       <c r="AB425" s="9"/>
       <c r="AC425" s="9"/>
     </row>
-    <row r="426" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B426" s="7">
         <v>422</v>
       </c>
@@ -44896,7 +44980,7 @@
       <c r="AB426" s="9"/>
       <c r="AC426" s="9"/>
     </row>
-    <row r="427" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B427" s="7">
         <v>423</v>
       </c>
@@ -44949,7 +45033,7 @@
       <c r="AB427" s="9"/>
       <c r="AC427" s="9"/>
     </row>
-    <row r="428" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B428" s="7">
         <v>424</v>
       </c>
@@ -44998,7 +45082,7 @@
       <c r="AB428" s="9"/>
       <c r="AC428" s="9"/>
     </row>
-    <row r="429" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B429" s="7">
         <v>425</v>
       </c>
@@ -45047,7 +45131,7 @@
       <c r="AB429" s="9"/>
       <c r="AC429" s="9"/>
     </row>
-    <row r="430" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B430" s="7">
         <v>426</v>
       </c>
@@ -45100,7 +45184,7 @@
       <c r="AB430" s="9"/>
       <c r="AC430" s="9"/>
     </row>
-    <row r="431" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B431" s="7">
         <v>427</v>
       </c>
@@ -45153,7 +45237,7 @@
       <c r="AB431" s="9"/>
       <c r="AC431" s="9"/>
     </row>
-    <row r="432" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B432" s="7">
         <v>428</v>
       </c>
@@ -45206,7 +45290,7 @@
       <c r="AB432" s="9"/>
       <c r="AC432" s="9"/>
     </row>
-    <row r="433" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B433" s="7">
         <v>429</v>
       </c>
@@ -45259,7 +45343,7 @@
       <c r="AB433" s="9"/>
       <c r="AC433" s="9"/>
     </row>
-    <row r="434" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B434" s="7">
         <v>430</v>
       </c>
@@ -45312,7 +45396,7 @@
       <c r="AB434" s="9"/>
       <c r="AC434" s="9"/>
     </row>
-    <row r="435" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B435" s="7">
         <v>431</v>
       </c>
@@ -45365,7 +45449,7 @@
       <c r="AB435" s="9"/>
       <c r="AC435" s="9"/>
     </row>
-    <row r="436" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B436" s="7">
         <v>432</v>
       </c>
@@ -45416,7 +45500,7 @@
       <c r="AB436" s="9"/>
       <c r="AC436" s="9"/>
     </row>
-    <row r="437" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B437" s="7">
         <v>433</v>
       </c>
@@ -45471,7 +45555,7 @@
       <c r="AB437" s="9"/>
       <c r="AC437" s="9"/>
     </row>
-    <row r="438" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B438" s="7">
         <v>434</v>
       </c>
@@ -45524,7 +45608,7 @@
       <c r="AB438" s="9"/>
       <c r="AC438" s="9"/>
     </row>
-    <row r="439" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B439" s="7">
         <v>435</v>
       </c>
@@ -45581,7 +45665,7 @@
       </c>
       <c r="AC439" s="9"/>
     </row>
-    <row r="440" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B440" s="7">
         <v>436</v>
       </c>
@@ -45634,7 +45718,7 @@
       <c r="AB440" s="9"/>
       <c r="AC440" s="9"/>
     </row>
-    <row r="441" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B441" s="7">
         <v>437</v>
       </c>
@@ -45687,7 +45771,7 @@
       <c r="AB441" s="9"/>
       <c r="AC441" s="9"/>
     </row>
-    <row r="442" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B442" s="7">
         <v>438</v>
       </c>
@@ -45738,7 +45822,7 @@
       <c r="AB442" s="9"/>
       <c r="AC442" s="9"/>
     </row>
-    <row r="443" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B443" s="7">
         <v>439</v>
       </c>
@@ -45789,7 +45873,7 @@
       <c r="AB443" s="9"/>
       <c r="AC443" s="9"/>
     </row>
-    <row r="444" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B444" s="7">
         <v>440</v>
       </c>
@@ -45842,7 +45926,7 @@
       <c r="AB444" s="9"/>
       <c r="AC444" s="9"/>
     </row>
-    <row r="445" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B445" s="7">
         <v>441</v>
       </c>
@@ -45895,7 +45979,7 @@
       <c r="AB445" s="9"/>
       <c r="AC445" s="9"/>
     </row>
-    <row r="446" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B446" s="7">
         <v>442</v>
       </c>
@@ -45948,7 +46032,7 @@
       <c r="AB446" s="9"/>
       <c r="AC446" s="9"/>
     </row>
-    <row r="447" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B447" s="7">
         <v>443</v>
       </c>
@@ -46001,7 +46085,7 @@
       <c r="AB447" s="9"/>
       <c r="AC447" s="9"/>
     </row>
-    <row r="448" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B448" s="7">
         <v>444</v>
       </c>
@@ -46054,7 +46138,7 @@
       <c r="AB448" s="9"/>
       <c r="AC448" s="9"/>
     </row>
-    <row r="449" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B449" s="7">
         <v>445</v>
       </c>
@@ -46103,7 +46187,7 @@
       <c r="AB449" s="9"/>
       <c r="AC449" s="9"/>
     </row>
-    <row r="450" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B450" s="7">
         <v>446</v>
       </c>
@@ -46152,7 +46236,7 @@
       <c r="AB450" s="9"/>
       <c r="AC450" s="9"/>
     </row>
-    <row r="451" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B451" s="7">
         <v>447</v>
       </c>
@@ -46203,7 +46287,7 @@
       <c r="AB451" s="9"/>
       <c r="AC451" s="9"/>
     </row>
-    <row r="452" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B452" s="7">
         <v>448</v>
       </c>
@@ -46254,7 +46338,7 @@
       <c r="AB452" s="9"/>
       <c r="AC452" s="9"/>
     </row>
-    <row r="453" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B453" s="7">
         <v>449</v>
       </c>
@@ -46307,7 +46391,7 @@
       <c r="AB453" s="9"/>
       <c r="AC453" s="9"/>
     </row>
-    <row r="454" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B454" s="7">
         <v>450</v>
       </c>
@@ -46356,7 +46440,7 @@
       <c r="AB454" s="9"/>
       <c r="AC454" s="9"/>
     </row>
-    <row r="455" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B455" s="7">
         <v>451</v>
       </c>
@@ -46409,7 +46493,7 @@
       <c r="AB455" s="9"/>
       <c r="AC455" s="9"/>
     </row>
-    <row r="456" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B456" s="7">
         <v>452</v>
       </c>
@@ -46460,7 +46544,7 @@
       <c r="AB456" s="9"/>
       <c r="AC456" s="9"/>
     </row>
-    <row r="457" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B457" s="7">
         <v>453</v>
       </c>
@@ -46511,7 +46595,7 @@
       <c r="AB457" s="9"/>
       <c r="AC457" s="9"/>
     </row>
-    <row r="458" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B458" s="7">
         <v>454</v>
       </c>
@@ -46562,7 +46646,7 @@
       <c r="AB458" s="9"/>
       <c r="AC458" s="9"/>
     </row>
-    <row r="459" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B459" s="7">
         <v>455</v>
       </c>
@@ -46613,7 +46697,7 @@
       <c r="AB459" s="9"/>
       <c r="AC459" s="9"/>
     </row>
-    <row r="460" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B460" s="7">
         <v>456</v>
       </c>
@@ -46666,7 +46750,7 @@
       <c r="AB460" s="9"/>
       <c r="AC460" s="9"/>
     </row>
-    <row r="461" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B461" s="7">
         <v>457</v>
       </c>
@@ -46717,7 +46801,7 @@
       <c r="AB461" s="9"/>
       <c r="AC461" s="9"/>
     </row>
-    <row r="462" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B462" s="7">
         <v>458</v>
       </c>
@@ -46766,7 +46850,7 @@
       <c r="AB462" s="9"/>
       <c r="AC462" s="9"/>
     </row>
-    <row r="463" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B463" s="7">
         <v>459</v>
       </c>
@@ -46815,7 +46899,7 @@
       <c r="AB463" s="9"/>
       <c r="AC463" s="9"/>
     </row>
-    <row r="464" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B464" s="7">
         <v>460</v>
       </c>
@@ -46864,7 +46948,7 @@
       <c r="AB464" s="9"/>
       <c r="AC464" s="9"/>
     </row>
-    <row r="465" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B465" s="7">
         <v>461</v>
       </c>
@@ -46913,7 +46997,7 @@
       <c r="AB465" s="9"/>
       <c r="AC465" s="9"/>
     </row>
-    <row r="466" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B466" s="7">
         <v>462</v>
       </c>
@@ -46968,7 +47052,7 @@
       <c r="AB466" s="9"/>
       <c r="AC466" s="9"/>
     </row>
-    <row r="467" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B467" s="7">
         <v>463</v>
       </c>
@@ -47017,7 +47101,7 @@
       <c r="AB467" s="9"/>
       <c r="AC467" s="9"/>
     </row>
-    <row r="468" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B468" s="7">
         <v>464</v>
       </c>
@@ -47070,7 +47154,7 @@
       <c r="AB468" s="9"/>
       <c r="AC468" s="9"/>
     </row>
-    <row r="469" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B469" s="7">
         <v>465</v>
       </c>
@@ -47123,7 +47207,7 @@
       <c r="AB469" s="9"/>
       <c r="AC469" s="9"/>
     </row>
-    <row r="470" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B470" s="7">
         <v>466</v>
       </c>
@@ -47176,7 +47260,7 @@
       <c r="AB470" s="9"/>
       <c r="AC470" s="9"/>
     </row>
-    <row r="471" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B471" s="7">
         <v>467</v>
       </c>
@@ -47229,7 +47313,7 @@
       <c r="AB471" s="9"/>
       <c r="AC471" s="9"/>
     </row>
-    <row r="472" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B472" s="7">
         <v>468</v>
       </c>
@@ -47282,7 +47366,7 @@
       <c r="AB472" s="9"/>
       <c r="AC472" s="9"/>
     </row>
-    <row r="473" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B473" s="7">
         <v>469</v>
       </c>
@@ -47335,7 +47419,7 @@
       <c r="AB473" s="9"/>
       <c r="AC473" s="9"/>
     </row>
-    <row r="474" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B474" s="7">
         <v>470</v>
       </c>
@@ -47388,7 +47472,7 @@
       <c r="AB474" s="9"/>
       <c r="AC474" s="9"/>
     </row>
-    <row r="475" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B475" s="7">
         <v>471</v>
       </c>
@@ -47441,7 +47525,7 @@
       <c r="AB475" s="9"/>
       <c r="AC475" s="9"/>
     </row>
-    <row r="476" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B476" s="7">
         <v>472</v>
       </c>
@@ -47494,7 +47578,7 @@
       <c r="AB476" s="9"/>
       <c r="AC476" s="9"/>
     </row>
-    <row r="477" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B477" s="7">
         <v>473</v>
       </c>
@@ -47547,7 +47631,7 @@
       <c r="AB477" s="9"/>
       <c r="AC477" s="9"/>
     </row>
-    <row r="478" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B478" s="7">
         <v>474</v>
       </c>
@@ -47600,7 +47684,7 @@
       <c r="AB478" s="9"/>
       <c r="AC478" s="9"/>
     </row>
-    <row r="479" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B479" s="7">
         <v>475</v>
       </c>
@@ -47653,7 +47737,7 @@
       <c r="AB479" s="9"/>
       <c r="AC479" s="9"/>
     </row>
-    <row r="480" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B480" s="7">
         <v>476</v>
       </c>
@@ -47706,7 +47790,7 @@
       <c r="AB480" s="9"/>
       <c r="AC480" s="9"/>
     </row>
-    <row r="481" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B481" s="7">
         <v>477</v>
       </c>
@@ -47759,7 +47843,7 @@
       <c r="AB481" s="9"/>
       <c r="AC481" s="9"/>
     </row>
-    <row r="482" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B482" s="7">
         <v>478</v>
       </c>
@@ -47812,7 +47896,7 @@
       <c r="AB482" s="9"/>
       <c r="AC482" s="9"/>
     </row>
-    <row r="483" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B483" s="7">
         <v>479</v>
       </c>
@@ -47865,7 +47949,7 @@
       <c r="AB483" s="9"/>
       <c r="AC483" s="9"/>
     </row>
-    <row r="484" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B484" s="7">
         <v>480</v>
       </c>
@@ -47918,7 +48002,7 @@
       <c r="AB484" s="9"/>
       <c r="AC484" s="9"/>
     </row>
-    <row r="485" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B485" s="7">
         <v>481</v>
       </c>
@@ -47971,7 +48055,7 @@
       <c r="AB485" s="9"/>
       <c r="AC485" s="9"/>
     </row>
-    <row r="486" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B486" s="7">
         <v>482</v>
       </c>
@@ -48024,7 +48108,7 @@
       <c r="AB486" s="9"/>
       <c r="AC486" s="9"/>
     </row>
-    <row r="487" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B487" s="7">
         <v>483</v>
       </c>
@@ -48077,7 +48161,7 @@
       <c r="AB487" s="9"/>
       <c r="AC487" s="9"/>
     </row>
-    <row r="488" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B488" s="7">
         <v>484</v>
       </c>
@@ -48130,7 +48214,7 @@
       <c r="AB488" s="9"/>
       <c r="AC488" s="9"/>
     </row>
-    <row r="489" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B489" s="7">
         <v>485</v>
       </c>
@@ -48187,7 +48271,7 @@
       </c>
       <c r="AC489" s="9"/>
     </row>
-    <row r="490" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B490" s="7">
         <v>486</v>
       </c>
@@ -48240,7 +48324,7 @@
       <c r="AB490" s="9"/>
       <c r="AC490" s="9"/>
     </row>
-    <row r="491" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B491" s="7">
         <v>487</v>
       </c>
@@ -48289,7 +48373,7 @@
       <c r="AB491" s="9"/>
       <c r="AC491" s="9"/>
     </row>
-    <row r="492" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B492" s="7">
         <v>488</v>
       </c>
@@ -48338,7 +48422,7 @@
       <c r="AB492" s="9"/>
       <c r="AC492" s="9"/>
     </row>
-    <row r="493" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B493" s="7">
         <v>489</v>
       </c>
@@ -48390,7 +48474,7 @@
       <c r="AB493" s="9"/>
       <c r="AC493" s="9"/>
     </row>
-    <row r="494" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B494" s="7">
         <v>490</v>
       </c>
@@ -48443,7 +48527,7 @@
       <c r="AB494" s="9"/>
       <c r="AC494" s="9"/>
     </row>
-    <row r="495" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B495" s="7">
         <v>491</v>
       </c>
@@ -48500,7 +48584,7 @@
       </c>
       <c r="AC495" s="9"/>
     </row>
-    <row r="496" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B496" s="7">
         <v>492</v>
       </c>
@@ -48557,7 +48641,7 @@
       </c>
       <c r="AC496" s="9"/>
     </row>
-    <row r="497" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B497" s="7">
         <v>493</v>
       </c>
@@ -48614,7 +48698,7 @@
       </c>
       <c r="AC497" s="9"/>
     </row>
-    <row r="498" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B498" s="7">
         <v>494</v>
       </c>
@@ -48663,7 +48747,7 @@
       <c r="AB498" s="9"/>
       <c r="AC498" s="9"/>
     </row>
-    <row r="499" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B499" s="7">
         <v>495</v>
       </c>
@@ -48714,7 +48798,7 @@
       <c r="AB499" s="9"/>
       <c r="AC499" s="9"/>
     </row>
-    <row r="500" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B500" s="7">
         <v>496</v>
       </c>
@@ -48763,7 +48847,7 @@
       <c r="AB500" s="9"/>
       <c r="AC500" s="9"/>
     </row>
-    <row r="501" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B501" s="7">
         <v>497</v>
       </c>
@@ -48812,7 +48896,7 @@
       <c r="AB501" s="9"/>
       <c r="AC501" s="9"/>
     </row>
-    <row r="502" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B502" s="7">
         <v>498</v>
       </c>
@@ -48861,7 +48945,7 @@
       <c r="AB502" s="9"/>
       <c r="AC502" s="9"/>
     </row>
-    <row r="503" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B503" s="7">
         <v>499</v>
       </c>
@@ -48914,7 +48998,7 @@
       <c r="AB503" s="9"/>
       <c r="AC503" s="9"/>
     </row>
-    <row r="504" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B504" s="7">
         <v>500</v>
       </c>
@@ -48967,7 +49051,7 @@
       <c r="AB504" s="9"/>
       <c r="AC504" s="9"/>
     </row>
-    <row r="505" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B505" s="7">
         <v>501</v>
       </c>
@@ -49020,7 +49104,7 @@
       <c r="AB505" s="9"/>
       <c r="AC505" s="9"/>
     </row>
-    <row r="506" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B506" s="7">
         <v>502</v>
       </c>
@@ -49073,7 +49157,7 @@
       <c r="AB506" s="9"/>
       <c r="AC506" s="9"/>
     </row>
-    <row r="507" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B507" s="7">
         <v>503</v>
       </c>
@@ -49126,7 +49210,7 @@
       <c r="AB507" s="9"/>
       <c r="AC507" s="9"/>
     </row>
-    <row r="508" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B508" s="7">
         <v>504</v>
       </c>
@@ -49179,7 +49263,7 @@
       <c r="AB508" s="9"/>
       <c r="AC508" s="9"/>
     </row>
-    <row r="509" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B509" s="7">
         <v>505</v>
       </c>
@@ -49232,7 +49316,7 @@
       <c r="AB509" s="9"/>
       <c r="AC509" s="9"/>
     </row>
-    <row r="510" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B510" s="7">
         <v>506</v>
       </c>
@@ -49285,7 +49369,7 @@
       <c r="AB510" s="9"/>
       <c r="AC510" s="9"/>
     </row>
-    <row r="511" spans="2:29" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:29" ht="70" x14ac:dyDescent="0.35">
       <c r="B511" s="7">
         <v>507</v>
       </c>
@@ -49346,7 +49430,7 @@
       </c>
       <c r="AC511" s="9"/>
     </row>
-    <row r="512" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B512" s="7">
         <v>508</v>
       </c>
@@ -49403,7 +49487,7 @@
       </c>
       <c r="AC512" s="9"/>
     </row>
-    <row r="513" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B513" s="7">
         <v>509</v>
       </c>
@@ -49450,7 +49534,7 @@
       <c r="AB513" s="9"/>
       <c r="AC513" s="9"/>
     </row>
-    <row r="514" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B514" s="7">
         <v>510</v>
       </c>
@@ -49495,7 +49579,7 @@
       <c r="AB514" s="9"/>
       <c r="AC514" s="9"/>
     </row>
-    <row r="515" spans="2:29" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:29" ht="336" x14ac:dyDescent="0.35">
       <c r="B515" s="7">
         <v>511</v>
       </c>
@@ -49546,7 +49630,7 @@
       <c r="AB515" s="9"/>
       <c r="AC515" s="9"/>
     </row>
-    <row r="516" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B516" s="7">
         <v>512</v>
       </c>
@@ -49597,7 +49681,7 @@
       <c r="AB516" s="9"/>
       <c r="AC516" s="9"/>
     </row>
-    <row r="517" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B517" s="7">
         <v>513</v>
       </c>
@@ -49648,7 +49732,7 @@
       <c r="AB517" s="9"/>
       <c r="AC517" s="9"/>
     </row>
-    <row r="518" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B518" s="7">
         <v>514</v>
       </c>
@@ -49699,7 +49783,7 @@
       <c r="AB518" s="9"/>
       <c r="AC518" s="9"/>
     </row>
-    <row r="519" spans="2:29" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B519" s="7">
         <v>515</v>
       </c>
@@ -49750,7 +49834,7 @@
       <c r="AB519" s="9"/>
       <c r="AC519" s="9"/>
     </row>
-    <row r="520" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B520" s="7">
         <v>516</v>
       </c>
@@ -49801,7 +49885,7 @@
       <c r="AB520" s="9"/>
       <c r="AC520" s="9"/>
     </row>
-    <row r="521" spans="2:29" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B521" s="7">
         <v>517</v>
       </c>
@@ -49856,7 +49940,7 @@
       <c r="AB521" s="9"/>
       <c r="AC521" s="9"/>
     </row>
-    <row r="522" spans="2:29" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B522" s="7">
         <v>518</v>
       </c>
@@ -49911,7 +49995,7 @@
       <c r="AB522" s="9"/>
       <c r="AC522" s="9"/>
     </row>
-    <row r="523" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:29" ht="140" x14ac:dyDescent="0.35">
       <c r="B523" s="7">
         <v>519</v>
       </c>
@@ -49966,7 +50050,7 @@
       <c r="AB523" s="9"/>
       <c r="AC523" s="9"/>
     </row>
-    <row r="524" spans="2:29" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:29" ht="280" x14ac:dyDescent="0.35">
       <c r="B524" s="7">
         <v>520</v>
       </c>
@@ -50021,7 +50105,7 @@
       <c r="AB524" s="9"/>
       <c r="AC524" s="9"/>
     </row>
-    <row r="525" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:29" ht="238" x14ac:dyDescent="0.35">
       <c r="B525" s="7">
         <v>521</v>
       </c>
@@ -50076,7 +50160,7 @@
       <c r="AB525" s="9"/>
       <c r="AC525" s="9"/>
     </row>
-    <row r="526" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B526" s="7">
         <v>522</v>
       </c>
@@ -50131,7 +50215,7 @@
       <c r="AB526" s="9"/>
       <c r="AC526" s="9"/>
     </row>
-    <row r="527" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B527" s="7">
         <v>523</v>
       </c>
@@ -50186,7 +50270,7 @@
       <c r="AB527" s="9"/>
       <c r="AC527" s="9"/>
     </row>
-    <row r="528" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:29" ht="224" x14ac:dyDescent="0.35">
       <c r="B528" s="7">
         <v>524</v>
       </c>
@@ -50241,7 +50325,7 @@
       <c r="AB528" s="9"/>
       <c r="AC528" s="9"/>
     </row>
-    <row r="529" spans="2:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:29" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B529" s="7">
         <v>525</v>
       </c>
@@ -50296,7 +50380,7 @@
       <c r="AB529" s="9"/>
       <c r="AC529" s="9"/>
     </row>
-    <row r="530" spans="2:29" ht="327.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:29" ht="322" x14ac:dyDescent="0.35">
       <c r="B530" s="7">
         <v>526</v>
       </c>
@@ -50351,7 +50435,7 @@
       <c r="AB530" s="9"/>
       <c r="AC530" s="9"/>
     </row>
-    <row r="531" spans="2:29" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:29" ht="252" x14ac:dyDescent="0.35">
       <c r="B531" s="7">
         <v>527</v>
       </c>
@@ -50406,7 +50490,7 @@
       <c r="AB531" s="9"/>
       <c r="AC531" s="9"/>
     </row>
-    <row r="532" spans="2:29" ht="228" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:29" ht="210" x14ac:dyDescent="0.35">
       <c r="B532" s="7">
         <v>528</v>
       </c>
@@ -50461,7 +50545,7 @@
       <c r="AB532" s="9"/>
       <c r="AC532" s="9"/>
     </row>
-    <row r="533" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B533" s="7">
         <v>529</v>
       </c>
@@ -50510,7 +50594,7 @@
       <c r="AB533" s="9"/>
       <c r="AC533" s="9"/>
     </row>
-    <row r="534" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B534" s="7">
         <v>530</v>
       </c>
@@ -50563,7 +50647,7 @@
       <c r="AB534" s="9"/>
       <c r="AC534" s="9"/>
     </row>
-    <row r="535" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B535" s="7">
         <v>531</v>
       </c>
@@ -50614,7 +50698,7 @@
       <c r="AB535" s="9"/>
       <c r="AC535" s="9"/>
     </row>
-    <row r="536" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B536" s="7">
         <v>532</v>
       </c>
@@ -50667,7 +50751,7 @@
       <c r="AB536" s="9"/>
       <c r="AC536" s="9"/>
     </row>
-    <row r="537" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B537" s="7">
         <v>533</v>
       </c>
@@ -50720,7 +50804,7 @@
       <c r="AB537" s="9"/>
       <c r="AC537" s="9"/>
     </row>
-    <row r="538" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B538" s="7">
         <v>534</v>
       </c>
@@ -50771,7 +50855,7 @@
       <c r="AB538" s="9"/>
       <c r="AC538" s="9"/>
     </row>
-    <row r="539" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B539" s="7">
         <v>535</v>
       </c>
@@ -50822,7 +50906,7 @@
       <c r="AB539" s="9"/>
       <c r="AC539" s="9"/>
     </row>
-    <row r="540" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B540" s="7">
         <v>536</v>
       </c>
@@ -50873,7 +50957,7 @@
       <c r="AB540" s="9"/>
       <c r="AC540" s="9"/>
     </row>
-    <row r="541" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B541" s="7">
         <v>537</v>
       </c>
@@ -50924,7 +51008,7 @@
       <c r="AB541" s="9"/>
       <c r="AC541" s="9"/>
     </row>
-    <row r="542" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B542" s="7">
         <v>538</v>
       </c>
@@ -50975,7 +51059,7 @@
       <c r="AB542" s="9"/>
       <c r="AC542" s="9"/>
     </row>
-    <row r="543" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:29" ht="42" x14ac:dyDescent="0.35">
       <c r="B543" s="7">
         <v>539</v>
       </c>
@@ -51026,7 +51110,7 @@
       <c r="AB543" s="9"/>
       <c r="AC543" s="9"/>
     </row>
-    <row r="544" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B544" s="7">
         <v>540</v>
       </c>
@@ -51077,7 +51161,7 @@
       <c r="AB544" s="9"/>
       <c r="AC544" s="9"/>
     </row>
-    <row r="545" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B545" s="7">
         <v>541</v>
       </c>
@@ -51130,7 +51214,7 @@
       <c r="AB545" s="9"/>
       <c r="AC545" s="9"/>
     </row>
-    <row r="546" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B546" s="7">
         <v>542</v>
       </c>
@@ -51183,7 +51267,7 @@
       <c r="AB546" s="9"/>
       <c r="AC546" s="9"/>
     </row>
-    <row r="547" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B547" s="7">
         <v>543</v>
       </c>
@@ -51236,7 +51320,7 @@
       <c r="AB547" s="9"/>
       <c r="AC547" s="9"/>
     </row>
-    <row r="548" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B548" s="7">
         <v>544</v>
       </c>
@@ -51287,7 +51371,7 @@
       <c r="AB548" s="9"/>
       <c r="AC548" s="9"/>
     </row>
-    <row r="549" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B549" s="7">
         <v>545</v>
       </c>
@@ -51338,7 +51422,7 @@
       <c r="AB549" s="9"/>
       <c r="AC549" s="9"/>
     </row>
-    <row r="550" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B550" s="7">
         <v>546</v>
       </c>
@@ -51389,7 +51473,7 @@
       <c r="AB550" s="9"/>
       <c r="AC550" s="9"/>
     </row>
-    <row r="551" spans="2:29" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B551" s="7">
         <v>547</v>
       </c>
@@ -51442,7 +51526,7 @@
       <c r="AB551" s="9"/>
       <c r="AC551" s="9"/>
     </row>
-    <row r="552" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B552" s="7">
         <v>548</v>
       </c>
@@ -51493,7 +51577,7 @@
       <c r="AB552" s="9"/>
       <c r="AC552" s="9"/>
     </row>
-    <row r="553" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B553" s="7">
         <v>549</v>
       </c>
@@ -51544,7 +51628,7 @@
       <c r="AB553" s="9"/>
       <c r="AC553" s="9"/>
     </row>
-    <row r="554" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B554" s="7">
         <v>550</v>
       </c>
@@ -51595,7 +51679,7 @@
       <c r="AB554" s="9"/>
       <c r="AC554" s="9"/>
     </row>
-    <row r="555" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B555" s="7">
         <v>551</v>
       </c>
@@ -51646,7 +51730,7 @@
       <c r="AB555" s="9"/>
       <c r="AC555" s="9"/>
     </row>
-    <row r="556" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B556" s="7">
         <v>552</v>
       </c>
@@ -51697,7 +51781,7 @@
       <c r="AB556" s="9"/>
       <c r="AC556" s="9"/>
     </row>
-    <row r="557" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B557" s="7">
         <v>553</v>
       </c>
@@ -51748,7 +51832,7 @@
       <c r="AB557" s="9"/>
       <c r="AC557" s="9"/>
     </row>
-    <row r="558" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B558" s="7">
         <v>554</v>
       </c>
@@ -51799,7 +51883,7 @@
       <c r="AB558" s="9"/>
       <c r="AC558" s="9"/>
     </row>
-    <row r="559" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B559" s="7">
         <v>555</v>
       </c>
@@ -51850,7 +51934,7 @@
       <c r="AB559" s="9"/>
       <c r="AC559" s="9"/>
     </row>
-    <row r="560" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B560" s="7">
         <v>556</v>
       </c>
@@ -51901,7 +51985,7 @@
       <c r="AB560" s="9"/>
       <c r="AC560" s="9"/>
     </row>
-    <row r="561" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B561" s="7">
         <v>557</v>
       </c>
@@ -51952,7 +52036,7 @@
       <c r="AB561" s="9"/>
       <c r="AC561" s="9"/>
     </row>
-    <row r="562" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B562" s="7">
         <v>558</v>
       </c>
@@ -52003,7 +52087,7 @@
       <c r="AB562" s="9"/>
       <c r="AC562" s="9"/>
     </row>
-    <row r="563" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B563" s="7">
         <v>559</v>
       </c>
@@ -52054,7 +52138,7 @@
       <c r="AB563" s="9"/>
       <c r="AC563" s="9"/>
     </row>
-    <row r="564" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B564" s="7">
         <v>560</v>
       </c>
@@ -52105,7 +52189,7 @@
       <c r="AB564" s="9"/>
       <c r="AC564" s="9"/>
     </row>
-    <row r="565" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B565" s="7">
         <v>561</v>
       </c>
@@ -52156,7 +52240,7 @@
       <c r="AB565" s="9"/>
       <c r="AC565" s="9"/>
     </row>
-    <row r="566" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B566" s="7">
         <v>562</v>
       </c>
@@ -52207,7 +52291,7 @@
       <c r="AB566" s="9"/>
       <c r="AC566" s="9"/>
     </row>
-    <row r="567" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B567" s="7">
         <v>563</v>
       </c>
@@ -52258,7 +52342,7 @@
       <c r="AB567" s="9"/>
       <c r="AC567" s="9"/>
     </row>
-    <row r="568" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B568" s="7">
         <v>564</v>
       </c>
@@ -52309,7 +52393,7 @@
       <c r="AB568" s="9"/>
       <c r="AC568" s="9"/>
     </row>
-    <row r="569" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B569" s="7">
         <v>565</v>
       </c>
@@ -52360,7 +52444,7 @@
       <c r="AB569" s="9"/>
       <c r="AC569" s="9"/>
     </row>
-    <row r="570" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B570" s="7">
         <v>566</v>
       </c>
@@ -52411,7 +52495,7 @@
       <c r="AB570" s="9"/>
       <c r="AC570" s="9"/>
     </row>
-    <row r="571" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B571" s="7">
         <v>567</v>
       </c>
@@ -52462,7 +52546,7 @@
       <c r="AB571" s="9"/>
       <c r="AC571" s="9"/>
     </row>
-    <row r="572" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B572" s="7">
         <v>568</v>
       </c>
@@ -52513,7 +52597,7 @@
       <c r="AB572" s="9"/>
       <c r="AC572" s="9"/>
     </row>
-    <row r="573" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B573" s="7">
         <v>569</v>
       </c>
@@ -52564,7 +52648,7 @@
       <c r="AB573" s="9"/>
       <c r="AC573" s="9"/>
     </row>
-    <row r="574" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B574" s="7">
         <v>570</v>
       </c>
@@ -52615,7 +52699,7 @@
       <c r="AB574" s="9"/>
       <c r="AC574" s="9"/>
     </row>
-    <row r="575" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B575" s="7">
         <v>571</v>
       </c>
@@ -52666,7 +52750,7 @@
       <c r="AB575" s="9"/>
       <c r="AC575" s="9"/>
     </row>
-    <row r="576" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B576" s="7">
         <v>572</v>
       </c>
@@ -52717,7 +52801,7 @@
       <c r="AB576" s="9"/>
       <c r="AC576" s="9"/>
     </row>
-    <row r="577" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B577" s="7">
         <v>573</v>
       </c>
@@ -52770,7 +52854,7 @@
       <c r="AB577" s="9"/>
       <c r="AC577" s="9"/>
     </row>
-    <row r="578" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B578" s="7">
         <v>574</v>
       </c>
@@ -52821,7 +52905,7 @@
       <c r="AB578" s="9"/>
       <c r="AC578" s="9"/>
     </row>
-    <row r="579" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B579" s="7">
         <v>575</v>
       </c>
@@ -52872,7 +52956,7 @@
       <c r="AB579" s="9"/>
       <c r="AC579" s="9"/>
     </row>
-    <row r="580" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B580" s="7">
         <v>576</v>
       </c>
@@ -52923,7 +53007,7 @@
       <c r="AB580" s="9"/>
       <c r="AC580" s="9"/>
     </row>
-    <row r="581" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B581" s="7">
         <v>577</v>
       </c>
@@ -52976,7 +53060,7 @@
       <c r="AB581" s="9"/>
       <c r="AC581" s="9"/>
     </row>
-    <row r="582" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B582" s="7">
         <v>578</v>
       </c>
@@ -53027,7 +53111,7 @@
       <c r="AB582" s="9"/>
       <c r="AC582" s="9"/>
     </row>
-    <row r="583" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B583" s="7">
         <v>579</v>
       </c>
@@ -53078,7 +53162,7 @@
       <c r="AB583" s="9"/>
       <c r="AC583" s="9"/>
     </row>
-    <row r="584" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B584" s="7">
         <v>580</v>
       </c>
@@ -53129,7 +53213,7 @@
       <c r="AB584" s="9"/>
       <c r="AC584" s="9"/>
     </row>
-    <row r="585" spans="2:29" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:29" ht="28" x14ac:dyDescent="0.35">
       <c r="B585" s="7">
         <v>581</v>
       </c>
@@ -53180,7 +53264,7 @@
       <c r="AB585" s="9"/>
       <c r="AC585" s="9"/>
     </row>
-    <row r="586" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B586" s="7">
         <v>582</v>
       </c>
@@ -53229,7 +53313,7 @@
       <c r="AB586" s="9"/>
       <c r="AC586" s="9"/>
     </row>
-    <row r="587" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B587" s="7">
         <v>583</v>
       </c>
@@ -53270,7 +53354,7 @@
       <c r="AB587" s="9"/>
       <c r="AC587" s="9"/>
     </row>
-    <row r="588" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B588" s="7">
         <v>584</v>
       </c>
@@ -53311,7 +53395,7 @@
       <c r="AB588" s="9"/>
       <c r="AC588" s="9"/>
     </row>
-    <row r="589" spans="2:29" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:29" ht="154" x14ac:dyDescent="0.35">
       <c r="B589" s="7">
         <v>585</v>
       </c>
@@ -53358,7 +53442,7 @@
       </c>
       <c r="AC589" s="9"/>
     </row>
-    <row r="590" spans="2:29" ht="114" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:29" ht="112" x14ac:dyDescent="0.35">
       <c r="B590" s="7">
         <v>586</v>
       </c>
@@ -53403,7 +53487,7 @@
       <c r="Y590" s="9"/>
       <c r="AC590" s="9"/>
     </row>
-    <row r="591" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B591" s="7">
         <v>587</v>
       </c>
@@ -53447,7 +53531,7 @@
       <c r="Y591" s="9"/>
       <c r="AC591" s="9"/>
     </row>
-    <row r="592" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B592" s="7">
         <v>588</v>
       </c>
@@ -53491,7 +53575,7 @@
       <c r="Y592" s="9"/>
       <c r="AC592" s="9"/>
     </row>
-    <row r="593" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:29" ht="196" x14ac:dyDescent="0.35">
       <c r="B593" s="7">
         <v>589</v>
       </c>
@@ -53533,7 +53617,7 @@
       <c r="Y593" s="9"/>
       <c r="AC593" s="9"/>
     </row>
-    <row r="594" spans="2:29" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:29" ht="168" x14ac:dyDescent="0.35">
       <c r="B594" s="7">
         <v>590</v>
       </c>
@@ -53575,7 +53659,7 @@
       <c r="Y594" s="9"/>
       <c r="AC594" s="9"/>
     </row>
-    <row r="595" spans="2:29" ht="199.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:29" ht="182" x14ac:dyDescent="0.35">
       <c r="B595" s="7">
         <v>591</v>
       </c>
@@ -53617,7 +53701,7 @@
       <c r="Y595" s="9"/>
       <c r="AC595" s="9"/>
     </row>
-    <row r="596" spans="2:29" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:29" ht="126" x14ac:dyDescent="0.35">
       <c r="B596" s="7">
         <v>592</v>
       </c>
@@ -53659,7 +53743,7 @@
       <c r="Y596" s="49"/>
       <c r="AC596" s="49"/>
     </row>
-    <row r="597" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B597" s="7">
         <v>593</v>
       </c>
@@ -53711,7 +53795,7 @@
       <c r="AB597" s="9"/>
       <c r="AC597" s="9"/>
     </row>
-    <row r="598" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B598" s="7">
         <v>594</v>
       </c>
@@ -53763,7 +53847,7 @@
       <c r="AB598" s="9"/>
       <c r="AC598" s="9"/>
     </row>
-    <row r="599" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B599" s="7">
         <v>595</v>
       </c>
@@ -53799,8 +53883,8 @@
         <v>1531</v>
       </c>
       <c r="N599" s="9"/>
-      <c r="O599" s="9" t="s">
-        <v>362</v>
+      <c r="O599" s="9">
+        <v>1</v>
       </c>
       <c r="P599" s="9"/>
       <c r="Q599" s="9"/>
@@ -53817,7 +53901,7 @@
       <c r="AB599" s="9"/>
       <c r="AC599" s="9"/>
     </row>
-    <row r="600" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B600" s="7">
         <v>596</v>
       </c>
@@ -53853,8 +53937,8 @@
         <v>1531</v>
       </c>
       <c r="N600" s="9"/>
-      <c r="O600" s="9" t="s">
-        <v>362</v>
+      <c r="O600" s="9">
+        <v>1</v>
       </c>
       <c r="P600" s="9"/>
       <c r="Q600" s="9"/>
@@ -53871,7 +53955,7 @@
       <c r="AB600" s="9"/>
       <c r="AC600" s="9"/>
     </row>
-    <row r="601" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B601" s="7">
         <v>597</v>
       </c>
@@ -53907,8 +53991,8 @@
         <v>1531</v>
       </c>
       <c r="N601" s="9"/>
-      <c r="O601" s="9" t="s">
-        <v>362</v>
+      <c r="O601" s="9">
+        <v>1.5</v>
       </c>
       <c r="P601" s="9"/>
       <c r="Q601" s="9"/>
@@ -53925,7 +54009,7 @@
       <c r="AB601" s="9"/>
       <c r="AC601" s="9"/>
     </row>
-    <row r="602" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B602" s="7">
         <v>598</v>
       </c>
@@ -53959,8 +54043,8 @@
       </c>
       <c r="M602" s="9"/>
       <c r="N602" s="9"/>
-      <c r="O602" s="9" t="s">
-        <v>362</v>
+      <c r="O602" s="9">
+        <v>1</v>
       </c>
       <c r="P602" s="9"/>
       <c r="Q602" s="9"/>
@@ -53977,14 +54061,14 @@
       <c r="AB602" s="9"/>
       <c r="AC602" s="9"/>
     </row>
-    <row r="603" spans="2:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B603" s="7">
         <v>599</v>
       </c>
       <c r="C603" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D603" s="59" t="s">
+      <c r="D603" s="66" t="s">
         <v>1900</v>
       </c>
       <c r="E603" s="55" t="s">
@@ -54029,14 +54113,14 @@
       <c r="AB603" s="9"/>
       <c r="AC603" s="9"/>
     </row>
-    <row r="604" spans="2:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:29" ht="29" x14ac:dyDescent="0.35">
       <c r="B604" s="7">
         <v>600</v>
       </c>
       <c r="C604" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D604" s="59" t="s">
+      <c r="D604" s="66" t="s">
         <v>1901</v>
       </c>
       <c r="E604" s="55" t="s">
@@ -54081,25 +54165,521 @@
       <c r="AB604" s="9"/>
       <c r="AC604" s="9"/>
     </row>
-    <row r="605" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E605" s="46"/>
-    </row>
-    <row r="606" spans="2:29" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I606" s="26" t="s">
+    <row r="605" spans="2:29" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B605" s="7">
+        <v>601</v>
+      </c>
+      <c r="C605" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D605" s="66" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E605" s="60" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F605" s="67" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G605" s="9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H605" s="9"/>
+      <c r="I605" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J605" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="K605" s="9"/>
+      <c r="L605" s="60" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M605" s="9" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N605" s="9"/>
+      <c r="O605" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P605" s="9"/>
+      <c r="Q605" s="9"/>
+      <c r="R605" s="9"/>
+      <c r="S605" s="9"/>
+      <c r="T605" s="9"/>
+      <c r="U605" s="9"/>
+      <c r="V605" s="9"/>
+      <c r="W605" s="9"/>
+      <c r="X605" s="9"/>
+      <c r="Y605" s="9"/>
+      <c r="Z605" s="9"/>
+      <c r="AA605" s="9"/>
+      <c r="AB605" s="9"/>
+      <c r="AC605" s="9"/>
+    </row>
+    <row r="606" spans="2:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="B606" s="7">
+        <v>602</v>
+      </c>
+      <c r="C606" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D606" s="66" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E606" s="60" t="s">
+        